--- a/tabular/extension/srlv-refseqs.xlsx
+++ b/tabular/extension/srlv-refseqs.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/robertgifford/Projects/virus/comparative/Retrovirus/Lentivirus-GLUE/tabular/extension/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{C7E4AD7B-7C43-DE46-9548-644DC80A926E}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{0102B473-A58C-1041-B38D-79057ADB7581}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="3980" yWindow="7540" windowWidth="28060" windowHeight="17540" tabRatio="500" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -29,7 +29,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="162" uniqueCount="71">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="152" uniqueCount="71">
   <si>
     <t>Number</t>
   </si>
@@ -709,7 +709,7 @@
   <dimension ref="A1:L18"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="L18" sqref="A1:L18"/>
+      <selection activeCell="L11" sqref="A1:L18"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -808,26 +808,26 @@
       <c r="D3" s="1" t="s">
         <v>69</v>
       </c>
-      <c r="E3" s="1" t="s">
-        <v>69</v>
-      </c>
-      <c r="F3" s="1" t="s">
-        <v>69</v>
+      <c r="E3" s="1">
+        <v>1</v>
+      </c>
+      <c r="F3" s="1">
+        <v>1</v>
       </c>
       <c r="G3" s="1" t="s">
         <v>18</v>
       </c>
-      <c r="H3" s="1" t="s">
-        <v>69</v>
+      <c r="H3" s="1">
+        <v>0</v>
       </c>
       <c r="I3" s="1" t="s">
         <v>69</v>
       </c>
-      <c r="J3" s="1" t="s">
-        <v>69</v>
+      <c r="J3" s="1">
+        <v>9175</v>
       </c>
       <c r="K3" s="1" t="s">
-        <v>69</v>
+        <v>16</v>
       </c>
       <c r="L3" s="1" t="s">
         <v>69</v>
@@ -884,11 +884,11 @@
       <c r="D5" s="1" t="s">
         <v>69</v>
       </c>
-      <c r="E5" s="1" t="s">
-        <v>69</v>
-      </c>
-      <c r="F5" s="1" t="s">
-        <v>69</v>
+      <c r="E5" s="1">
+        <v>1</v>
+      </c>
+      <c r="F5" s="1">
+        <v>1</v>
       </c>
       <c r="G5" s="1" t="s">
         <v>18</v>
@@ -899,11 +899,11 @@
       <c r="I5" s="1" t="s">
         <v>69</v>
       </c>
-      <c r="J5" s="1" t="s">
-        <v>69</v>
+      <c r="J5" s="1">
+        <v>9023</v>
       </c>
       <c r="K5" s="1" t="s">
-        <v>69</v>
+        <v>16</v>
       </c>
       <c r="L5" s="1" t="s">
         <v>69</v>
@@ -1150,11 +1150,11 @@
       <c r="D12" s="1" t="s">
         <v>69</v>
       </c>
-      <c r="E12" s="1" t="s">
-        <v>69</v>
-      </c>
-      <c r="F12" s="1" t="s">
-        <v>69</v>
+      <c r="E12" s="1">
+        <v>1</v>
+      </c>
+      <c r="F12" s="1">
+        <v>1</v>
       </c>
       <c r="G12" s="1" t="s">
         <v>18</v>
@@ -1165,11 +1165,11 @@
       <c r="I12" s="1" t="s">
         <v>69</v>
       </c>
-      <c r="J12" s="1" t="s">
-        <v>69</v>
+      <c r="J12" s="1">
+        <v>9202</v>
       </c>
       <c r="K12" s="1" t="s">
-        <v>69</v>
+        <v>16</v>
       </c>
       <c r="L12" s="1" t="s">
         <v>69</v>

--- a/tabular/extension/srlv-refseqs.xlsx
+++ b/tabular/extension/srlv-refseqs.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/robertgifford/Projects/virus/comparative/Retrovirus/Lentivirus-GLUE/tabular/extension/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{0102B473-A58C-1041-B38D-79057ADB7581}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{A638A7CE-B068-1D4E-AF87-728DAB6D9422}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="3980" yWindow="7540" windowWidth="28060" windowHeight="17540" tabRatio="500" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="21580" yWindow="7660" windowWidth="28060" windowHeight="17540" tabRatio="500" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="SRLV_curated.csv" sheetId="1" r:id="rId1"/>
@@ -29,7 +29,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="152" uniqueCount="71">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="213" uniqueCount="87">
   <si>
     <t>Number</t>
   </si>
@@ -169,9 +169,6 @@
     <t>Slovenia</t>
   </si>
   <si>
-    <t>A outside</t>
-  </si>
-  <si>
     <t>JQ611029</t>
   </si>
   <si>
@@ -242,6 +239,57 @@
   </si>
   <si>
     <t>A2</t>
+  </si>
+  <si>
+    <t>AF322109</t>
+  </si>
+  <si>
+    <t>1GA</t>
+  </si>
+  <si>
+    <t>C</t>
+  </si>
+  <si>
+    <t>Norway</t>
+  </si>
+  <si>
+    <t>KT898826</t>
+  </si>
+  <si>
+    <t>Jordan</t>
+  </si>
+  <si>
+    <t>F</t>
+  </si>
+  <si>
+    <t>Jord1</t>
+  </si>
+  <si>
+    <t>W. Asia</t>
+  </si>
+  <si>
+    <t>A1</t>
+  </si>
+  <si>
+    <t>Sheep</t>
+  </si>
+  <si>
+    <t>Ovis aries</t>
+  </si>
+  <si>
+    <t>M60610</t>
+  </si>
+  <si>
+    <t>L06906</t>
+  </si>
+  <si>
+    <t>M51543</t>
+  </si>
+  <si>
+    <t>M10608</t>
+  </si>
+  <si>
+    <t>Iceland</t>
   </si>
 </sst>
 </file>
@@ -265,7 +313,7 @@
       <scheme val="minor"/>
     </font>
   </fonts>
-  <fills count="3">
+  <fills count="4">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -275,6 +323,12 @@
     <fill>
       <patternFill patternType="solid">
         <fgColor theme="1"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="0"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -291,7 +345,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="3">
+  <cellXfs count="9">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="left"/>
@@ -299,6 +353,22 @@
     <xf numFmtId="0" fontId="1" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="3" fontId="0" fillId="3" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="0" applyFill="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -706,17 +776,19 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:L18"/>
+  <dimension ref="A1:L25"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="L11" sqref="A1:L18"/>
+      <selection activeCell="K21" sqref="A1:L25"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
   <cols>
     <col min="1" max="1" width="10.83203125" style="1"/>
     <col min="2" max="2" width="21.83203125" style="1" customWidth="1"/>
-    <col min="3" max="12" width="10.83203125" style="1"/>
+    <col min="3" max="7" width="10.83203125" style="1"/>
+    <col min="8" max="8" width="10.83203125" style="3"/>
+    <col min="9" max="12" width="10.83203125" style="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:12" x14ac:dyDescent="0.2">
@@ -741,8 +813,8 @@
       <c r="G1" s="2" t="s">
         <v>6</v>
       </c>
-      <c r="H1" s="2" t="s">
-        <v>59</v>
+      <c r="H1" s="4" t="s">
+        <v>58</v>
       </c>
       <c r="I1" s="2" t="s">
         <v>7</v>
@@ -758,648 +830,914 @@
       </c>
     </row>
     <row r="2" spans="1:12" x14ac:dyDescent="0.2">
-      <c r="A2" s="1">
+      <c r="A2" s="5">
         <v>1</v>
       </c>
-      <c r="B2" s="1" t="s">
+      <c r="B2" s="5" t="s">
+        <v>56</v>
+      </c>
+      <c r="C2" s="5" t="s">
+        <v>11</v>
+      </c>
+      <c r="D2" s="5" t="s">
+        <v>22</v>
+      </c>
+      <c r="E2" s="5">
+        <v>1974</v>
+      </c>
+      <c r="F2" s="5">
+        <v>1990</v>
+      </c>
+      <c r="G2" s="5" t="s">
+        <v>59</v>
+      </c>
+      <c r="H2" s="6">
+        <v>1</v>
+      </c>
+      <c r="I2" s="5" t="s">
         <v>57</v>
       </c>
-      <c r="C2" s="1" t="s">
+      <c r="J2" s="5">
+        <v>9189</v>
+      </c>
+      <c r="K2" s="5" t="s">
+        <v>16</v>
+      </c>
+      <c r="L2" s="5" t="s">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="3" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="A3" s="5">
+        <v>2</v>
+      </c>
+      <c r="B3" s="5" t="s">
+        <v>44</v>
+      </c>
+      <c r="C3" s="5" t="s">
+        <v>68</v>
+      </c>
+      <c r="D3" s="5" t="s">
+        <v>68</v>
+      </c>
+      <c r="E3" s="5">
+        <v>1</v>
+      </c>
+      <c r="F3" s="5">
+        <v>1</v>
+      </c>
+      <c r="G3" s="5" t="s">
+        <v>18</v>
+      </c>
+      <c r="H3" s="6" t="s">
+        <v>18</v>
+      </c>
+      <c r="I3" s="5" t="s">
+        <v>68</v>
+      </c>
+      <c r="J3" s="5">
+        <v>9175</v>
+      </c>
+      <c r="K3" s="5" t="s">
+        <v>16</v>
+      </c>
+      <c r="L3" s="5" t="s">
+        <v>68</v>
+      </c>
+    </row>
+    <row r="4" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="A4" s="5">
+        <v>3</v>
+      </c>
+      <c r="B4" s="5" t="s">
+        <v>50</v>
+      </c>
+      <c r="C4" s="5" t="s">
+        <v>17</v>
+      </c>
+      <c r="D4" s="5" t="s">
+        <v>51</v>
+      </c>
+      <c r="E4" s="5">
+        <v>1976</v>
+      </c>
+      <c r="F4" s="5">
+        <v>1990</v>
+      </c>
+      <c r="G4" s="5" t="s">
+        <v>18</v>
+      </c>
+      <c r="H4" s="6" t="s">
+        <v>69</v>
+      </c>
+      <c r="I4" s="5" t="s">
+        <v>52</v>
+      </c>
+      <c r="J4" s="5">
+        <v>9256</v>
+      </c>
+      <c r="K4" s="5" t="s">
+        <v>16</v>
+      </c>
+      <c r="L4" s="5" t="s">
+        <v>53</v>
+      </c>
+    </row>
+    <row r="5" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="A5" s="5">
+        <v>4</v>
+      </c>
+      <c r="B5" s="5" t="s">
+        <v>25</v>
+      </c>
+      <c r="C5" s="5" t="s">
+        <v>68</v>
+      </c>
+      <c r="D5" s="5" t="s">
+        <v>68</v>
+      </c>
+      <c r="E5" s="5">
+        <v>1</v>
+      </c>
+      <c r="F5" s="5">
+        <v>1</v>
+      </c>
+      <c r="G5" s="5" t="s">
+        <v>18</v>
+      </c>
+      <c r="H5" s="6" t="s">
+        <v>69</v>
+      </c>
+      <c r="I5" s="5" t="s">
+        <v>68</v>
+      </c>
+      <c r="J5" s="5">
+        <v>9023</v>
+      </c>
+      <c r="K5" s="5" t="s">
+        <v>16</v>
+      </c>
+      <c r="L5" s="5" t="s">
+        <v>68</v>
+      </c>
+    </row>
+    <row r="6" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="A6" s="5">
+        <v>5</v>
+      </c>
+      <c r="B6" s="5" t="s">
+        <v>31</v>
+      </c>
+      <c r="C6" s="5" t="s">
         <v>11</v>
       </c>
-      <c r="D2" s="1" t="s">
+      <c r="D6" s="5" t="s">
+        <v>26</v>
+      </c>
+      <c r="E6" s="5">
+        <v>1999</v>
+      </c>
+      <c r="F6" s="5">
+        <v>2003</v>
+      </c>
+      <c r="G6" s="5" t="s">
+        <v>18</v>
+      </c>
+      <c r="H6" s="6" t="s">
+        <v>63</v>
+      </c>
+      <c r="I6" s="5" t="s">
+        <v>32</v>
+      </c>
+      <c r="J6" s="5">
+        <v>1703</v>
+      </c>
+      <c r="K6" s="5" t="s">
+        <v>28</v>
+      </c>
+      <c r="L6" s="5" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="7" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="A7" s="5">
+        <v>6</v>
+      </c>
+      <c r="B7" s="5" t="s">
+        <v>25</v>
+      </c>
+      <c r="C7" s="5" t="s">
+        <v>11</v>
+      </c>
+      <c r="D7" s="5" t="s">
+        <v>26</v>
+      </c>
+      <c r="E7" s="5">
+        <v>1999</v>
+      </c>
+      <c r="F7" s="5">
+        <v>2003</v>
+      </c>
+      <c r="G7" s="5" t="s">
+        <v>18</v>
+      </c>
+      <c r="H7" s="6" t="s">
+        <v>60</v>
+      </c>
+      <c r="I7" s="5" t="s">
+        <v>27</v>
+      </c>
+      <c r="J7" s="5">
+        <v>9023</v>
+      </c>
+      <c r="K7" s="5" t="s">
+        <v>16</v>
+      </c>
+      <c r="L7" s="5" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="8" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="A8" s="5">
+        <v>7</v>
+      </c>
+      <c r="B8" s="5" t="s">
+        <v>29</v>
+      </c>
+      <c r="C8" s="5" t="s">
+        <v>11</v>
+      </c>
+      <c r="D8" s="5" t="s">
+        <v>26</v>
+      </c>
+      <c r="E8" s="5">
+        <v>1999</v>
+      </c>
+      <c r="F8" s="5">
+        <v>2003</v>
+      </c>
+      <c r="G8" s="5" t="s">
+        <v>18</v>
+      </c>
+      <c r="H8" s="6" t="s">
+        <v>18</v>
+      </c>
+      <c r="I8" s="5" t="s">
+        <v>30</v>
+      </c>
+      <c r="J8" s="5">
+        <v>1709</v>
+      </c>
+      <c r="K8" s="5" t="s">
+        <v>28</v>
+      </c>
+      <c r="L8" s="5" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="9" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="A9" s="5">
+        <v>8</v>
+      </c>
+      <c r="B9" s="5" t="s">
+        <v>61</v>
+      </c>
+      <c r="C9" s="5" t="s">
+        <v>17</v>
+      </c>
+      <c r="D9" s="5" t="s">
+        <v>12</v>
+      </c>
+      <c r="E9" s="5">
+        <v>1994</v>
+      </c>
+      <c r="F9" s="5">
+        <v>1995</v>
+      </c>
+      <c r="G9" s="5" t="s">
+        <v>18</v>
+      </c>
+      <c r="H9" s="6" t="s">
+        <v>62</v>
+      </c>
+      <c r="I9" s="5">
+        <v>676</v>
+      </c>
+      <c r="J9" s="5">
+        <v>475</v>
+      </c>
+      <c r="K9" s="5" t="s">
+        <v>15</v>
+      </c>
+      <c r="L9" s="5" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="10" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="A10" s="5">
+        <v>9</v>
+      </c>
+      <c r="B10" s="5" t="s">
+        <v>33</v>
+      </c>
+      <c r="C10" s="5" t="s">
+        <v>11</v>
+      </c>
+      <c r="D10" s="5" t="s">
+        <v>26</v>
+      </c>
+      <c r="E10" s="5">
+        <v>1999</v>
+      </c>
+      <c r="F10" s="5">
+        <v>2003</v>
+      </c>
+      <c r="G10" s="5" t="s">
+        <v>18</v>
+      </c>
+      <c r="H10" s="6" t="s">
+        <v>18</v>
+      </c>
+      <c r="I10" s="5" t="s">
+        <v>34</v>
+      </c>
+      <c r="J10" s="5">
+        <v>1706</v>
+      </c>
+      <c r="K10" s="5" t="s">
+        <v>28</v>
+      </c>
+      <c r="L10" s="5" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="11" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="A11" s="5">
+        <v>10</v>
+      </c>
+      <c r="B11" s="5" t="s">
+        <v>35</v>
+      </c>
+      <c r="C11" s="5" t="s">
+        <v>11</v>
+      </c>
+      <c r="D11" s="5" t="s">
+        <v>21</v>
+      </c>
+      <c r="E11" s="5">
+        <v>2006</v>
+      </c>
+      <c r="F11" s="5">
+        <v>2007</v>
+      </c>
+      <c r="G11" s="5" t="s">
+        <v>18</v>
+      </c>
+      <c r="H11" s="6" t="s">
+        <v>67</v>
+      </c>
+      <c r="I11" s="5" t="s">
+        <v>36</v>
+      </c>
+      <c r="J11" s="5">
+        <v>1305</v>
+      </c>
+      <c r="K11" s="5" t="s">
+        <v>20</v>
+      </c>
+      <c r="L11" s="5" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="12" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="A12" s="5">
+        <v>11</v>
+      </c>
+      <c r="B12" s="5" t="s">
+        <v>64</v>
+      </c>
+      <c r="C12" s="5" t="s">
+        <v>68</v>
+      </c>
+      <c r="D12" s="5" t="s">
+        <v>68</v>
+      </c>
+      <c r="E12" s="5">
+        <v>1</v>
+      </c>
+      <c r="F12" s="5">
+        <v>1</v>
+      </c>
+      <c r="G12" s="5" t="s">
+        <v>18</v>
+      </c>
+      <c r="H12" s="6" t="s">
+        <v>67</v>
+      </c>
+      <c r="I12" s="5" t="s">
+        <v>68</v>
+      </c>
+      <c r="J12" s="5">
+        <v>9202</v>
+      </c>
+      <c r="K12" s="5" t="s">
+        <v>16</v>
+      </c>
+      <c r="L12" s="5" t="s">
+        <v>68</v>
+      </c>
+    </row>
+    <row r="13" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="A13" s="5">
+        <v>12</v>
+      </c>
+      <c r="B13" s="5" t="s">
+        <v>42</v>
+      </c>
+      <c r="C13" s="5" t="s">
+        <v>17</v>
+      </c>
+      <c r="D13" s="5" t="s">
+        <v>21</v>
+      </c>
+      <c r="E13" s="5">
+        <v>2010</v>
+      </c>
+      <c r="F13" s="5">
+        <v>2011</v>
+      </c>
+      <c r="G13" s="5" t="s">
+        <v>18</v>
+      </c>
+      <c r="H13" s="6" t="s">
+        <v>66</v>
+      </c>
+      <c r="I13" s="5" t="s">
+        <v>43</v>
+      </c>
+      <c r="J13" s="5">
+        <v>660</v>
+      </c>
+      <c r="K13" s="5" t="s">
+        <v>20</v>
+      </c>
+      <c r="L13" s="5" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="14" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="A14" s="5">
+        <v>13</v>
+      </c>
+      <c r="B14" s="5" t="s">
+        <v>40</v>
+      </c>
+      <c r="C14" s="5" t="s">
+        <v>11</v>
+      </c>
+      <c r="D14" s="5" t="s">
+        <v>21</v>
+      </c>
+      <c r="E14" s="5">
+        <v>2010</v>
+      </c>
+      <c r="F14" s="5">
+        <v>2010</v>
+      </c>
+      <c r="G14" s="5" t="s">
+        <v>18</v>
+      </c>
+      <c r="H14" s="6" t="s">
+        <v>65</v>
+      </c>
+      <c r="I14" s="5" t="s">
+        <v>41</v>
+      </c>
+      <c r="J14" s="5">
+        <v>648</v>
+      </c>
+      <c r="K14" s="5" t="s">
+        <v>20</v>
+      </c>
+      <c r="L14" s="5" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="15" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="A15" s="5">
+        <v>14</v>
+      </c>
+      <c r="B15" s="5" t="s">
+        <v>39</v>
+      </c>
+      <c r="C15" s="5" t="s">
+        <v>17</v>
+      </c>
+      <c r="D15" s="5" t="s">
+        <v>37</v>
+      </c>
+      <c r="E15" s="5">
+        <v>2008</v>
+      </c>
+      <c r="F15" s="5">
+        <v>2009</v>
+      </c>
+      <c r="G15" s="5" t="s">
+        <v>18</v>
+      </c>
+      <c r="H15" s="6" t="s">
+        <v>18</v>
+      </c>
+      <c r="I15" s="5">
+        <v>4007</v>
+      </c>
+      <c r="J15" s="5">
+        <v>1004</v>
+      </c>
+      <c r="K15" s="5" t="s">
+        <v>20</v>
+      </c>
+      <c r="L15" s="5" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="16" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="A16" s="5">
+        <v>15</v>
+      </c>
+      <c r="B16" s="5" t="s">
+        <v>38</v>
+      </c>
+      <c r="C16" s="5" t="s">
+        <v>17</v>
+      </c>
+      <c r="D16" s="5" t="s">
+        <v>37</v>
+      </c>
+      <c r="E16" s="5">
+        <v>2008</v>
+      </c>
+      <c r="F16" s="5">
+        <v>2009</v>
+      </c>
+      <c r="G16" s="5" t="s">
+        <v>18</v>
+      </c>
+      <c r="H16" s="6" t="s">
+        <v>18</v>
+      </c>
+      <c r="I16" s="5">
+        <v>16</v>
+      </c>
+      <c r="J16" s="5">
+        <v>1004</v>
+      </c>
+      <c r="K16" s="5" t="s">
+        <v>20</v>
+      </c>
+      <c r="L16" s="5" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="17" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="A17" s="5">
+        <v>16</v>
+      </c>
+      <c r="B17" s="5" t="s">
+        <v>48</v>
+      </c>
+      <c r="C17" s="5" t="s">
+        <v>11</v>
+      </c>
+      <c r="D17" s="5" t="s">
+        <v>45</v>
+      </c>
+      <c r="E17" s="5">
+        <v>2008</v>
+      </c>
+      <c r="F17" s="5">
+        <v>2012</v>
+      </c>
+      <c r="G17" s="5" t="s">
+        <v>18</v>
+      </c>
+      <c r="H17" s="6" t="s">
+        <v>18</v>
+      </c>
+      <c r="I17" s="5" t="s">
+        <v>49</v>
+      </c>
+      <c r="J17" s="5">
+        <v>1523</v>
+      </c>
+      <c r="K17" s="5" t="s">
+        <v>23</v>
+      </c>
+      <c r="L17" s="5" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="18" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="A18" s="5">
+        <v>17</v>
+      </c>
+      <c r="B18" s="5" t="s">
+        <v>46</v>
+      </c>
+      <c r="C18" s="5" t="s">
+        <v>17</v>
+      </c>
+      <c r="D18" s="5" t="s">
+        <v>45</v>
+      </c>
+      <c r="E18" s="5">
+        <v>2011</v>
+      </c>
+      <c r="F18" s="5">
+        <v>2012</v>
+      </c>
+      <c r="G18" s="5" t="s">
+        <v>18</v>
+      </c>
+      <c r="H18" s="6" t="s">
+        <v>18</v>
+      </c>
+      <c r="I18" s="5" t="s">
+        <v>47</v>
+      </c>
+      <c r="J18" s="5">
+        <v>1061</v>
+      </c>
+      <c r="K18" s="5" t="s">
+        <v>15</v>
+      </c>
+      <c r="L18" s="5" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="19" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="A19" s="5">
+        <v>18</v>
+      </c>
+      <c r="B19" s="5" t="s">
+        <v>70</v>
+      </c>
+      <c r="C19" s="5" t="s">
+        <v>11</v>
+      </c>
+      <c r="D19" s="5" t="s">
+        <v>73</v>
+      </c>
+      <c r="E19" s="5">
+        <v>1991</v>
+      </c>
+      <c r="F19" s="5">
+        <v>2000</v>
+      </c>
+      <c r="G19" s="5" t="s">
+        <v>72</v>
+      </c>
+      <c r="H19" s="6" t="s">
+        <v>72</v>
+      </c>
+      <c r="I19" s="5" t="s">
+        <v>71</v>
+      </c>
+      <c r="J19" s="5">
+        <v>8919</v>
+      </c>
+      <c r="K19" s="5" t="s">
+        <v>16</v>
+      </c>
+      <c r="L19" s="5" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="20" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="A20" s="5">
+        <v>19</v>
+      </c>
+      <c r="B20" s="5" t="s">
+        <v>74</v>
+      </c>
+      <c r="C20" s="5" t="s">
+        <v>17</v>
+      </c>
+      <c r="D20" s="5" t="s">
+        <v>75</v>
+      </c>
+      <c r="E20" s="5">
+        <v>2007</v>
+      </c>
+      <c r="F20" s="5">
+        <v>2016</v>
+      </c>
+      <c r="G20" s="5" t="s">
+        <v>76</v>
+      </c>
+      <c r="H20" s="6" t="s">
+        <v>76</v>
+      </c>
+      <c r="I20" s="5" t="s">
+        <v>77</v>
+      </c>
+      <c r="J20" s="7">
+        <v>9136</v>
+      </c>
+      <c r="K20" s="5" t="s">
+        <v>16</v>
+      </c>
+      <c r="L20" s="5" t="s">
+        <v>78</v>
+      </c>
+    </row>
+    <row r="21" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="A21" s="5">
+        <v>20</v>
+      </c>
+      <c r="B21" s="8" t="s">
+        <v>82</v>
+      </c>
+      <c r="C21" s="5" t="s">
+        <v>17</v>
+      </c>
+      <c r="D21" s="8" t="s">
+        <v>86</v>
+      </c>
+      <c r="E21" s="5">
+        <v>1949</v>
+      </c>
+      <c r="F21" s="8" t="s">
+        <v>79</v>
+      </c>
+      <c r="G21" s="8" t="s">
+        <v>79</v>
+      </c>
+      <c r="H21" s="6">
+        <v>1</v>
+      </c>
+      <c r="I21" s="8" t="s">
+        <v>80</v>
+      </c>
+      <c r="J21" s="8" t="s">
+        <v>81</v>
+      </c>
+      <c r="K21" s="5" t="s">
+        <v>16</v>
+      </c>
+      <c r="L21" s="5" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="22" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="A22" s="5">
+        <v>21</v>
+      </c>
+      <c r="B22" s="5" t="s">
+        <v>83</v>
+      </c>
+      <c r="C22" s="5" t="s">
+        <v>17</v>
+      </c>
+      <c r="D22" s="8" t="s">
+        <v>86</v>
+      </c>
+      <c r="E22" s="5">
+        <v>1950</v>
+      </c>
+      <c r="F22" s="8" t="s">
+        <v>79</v>
+      </c>
+      <c r="G22" s="8" t="s">
+        <v>79</v>
+      </c>
+      <c r="H22" s="6">
+        <v>1</v>
+      </c>
+      <c r="I22" s="8" t="s">
+        <v>80</v>
+      </c>
+      <c r="J22" s="8" t="s">
+        <v>81</v>
+      </c>
+      <c r="K22" s="5" t="s">
+        <v>16</v>
+      </c>
+      <c r="L22" s="5" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="23" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="A23" s="5">
         <v>22</v>
       </c>
-      <c r="E2" s="1">
-        <v>1974</v>
-      </c>
-      <c r="F2" s="1">
-        <v>1990</v>
-      </c>
-      <c r="G2" s="1" t="s">
-        <v>60</v>
-      </c>
-      <c r="H2" s="1" t="s">
-        <v>13</v>
-      </c>
-      <c r="I2" s="1" t="s">
-        <v>58</v>
-      </c>
-      <c r="J2" s="1">
-        <v>9189</v>
-      </c>
-      <c r="K2" s="1" t="s">
+      <c r="B23" s="5" t="s">
+        <v>64</v>
+      </c>
+      <c r="C23" s="5" t="s">
+        <v>17</v>
+      </c>
+      <c r="D23" s="8" t="s">
+        <v>86</v>
+      </c>
+      <c r="E23" s="5">
+        <v>1951</v>
+      </c>
+      <c r="F23" s="8" t="s">
+        <v>79</v>
+      </c>
+      <c r="G23" s="8" t="s">
+        <v>79</v>
+      </c>
+      <c r="H23" s="6">
+        <v>1</v>
+      </c>
+      <c r="I23" s="8" t="s">
+        <v>80</v>
+      </c>
+      <c r="J23" s="8" t="s">
+        <v>81</v>
+      </c>
+      <c r="K23" s="5" t="s">
         <v>16</v>
       </c>
-      <c r="L2" s="1" t="s">
+      <c r="L23" s="5" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="24" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="A24" s="5">
+        <v>23</v>
+      </c>
+      <c r="B24" s="5" t="s">
+        <v>84</v>
+      </c>
+      <c r="C24" s="5" t="s">
+        <v>17</v>
+      </c>
+      <c r="D24" s="8" t="s">
+        <v>86</v>
+      </c>
+      <c r="E24" s="5">
+        <v>1952</v>
+      </c>
+      <c r="F24" s="8" t="s">
+        <v>79</v>
+      </c>
+      <c r="G24" s="8" t="s">
+        <v>79</v>
+      </c>
+      <c r="H24" s="6">
+        <v>1</v>
+      </c>
+      <c r="I24" s="8" t="s">
+        <v>80</v>
+      </c>
+      <c r="J24" s="8" t="s">
+        <v>81</v>
+      </c>
+      <c r="K24" s="5" t="s">
+        <v>16</v>
+      </c>
+      <c r="L24" s="5" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="25" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="A25" s="5">
         <v>24</v>
       </c>
-    </row>
-    <row r="3" spans="1:12" x14ac:dyDescent="0.2">
-      <c r="A3" s="1">
-        <v>2</v>
-      </c>
-      <c r="B3" s="1" t="s">
-        <v>44</v>
-      </c>
-      <c r="C3" s="1" t="s">
-        <v>69</v>
-      </c>
-      <c r="D3" s="1" t="s">
-        <v>69</v>
-      </c>
-      <c r="E3" s="1">
+      <c r="B25" s="5" t="s">
+        <v>85</v>
+      </c>
+      <c r="C25" s="5" t="s">
+        <v>17</v>
+      </c>
+      <c r="D25" s="8" t="s">
+        <v>86</v>
+      </c>
+      <c r="E25" s="5">
+        <v>1953</v>
+      </c>
+      <c r="F25" s="8" t="s">
+        <v>79</v>
+      </c>
+      <c r="G25" s="8" t="s">
+        <v>79</v>
+      </c>
+      <c r="H25" s="6">
         <v>1</v>
       </c>
-      <c r="F3" s="1">
-        <v>1</v>
-      </c>
-      <c r="G3" s="1" t="s">
-        <v>18</v>
-      </c>
-      <c r="H3" s="1">
-        <v>0</v>
-      </c>
-      <c r="I3" s="1" t="s">
-        <v>69</v>
-      </c>
-      <c r="J3" s="1">
-        <v>9175</v>
-      </c>
-      <c r="K3" s="1" t="s">
+      <c r="I25" s="8" t="s">
+        <v>80</v>
+      </c>
+      <c r="J25" s="8" t="s">
+        <v>81</v>
+      </c>
+      <c r="K25" s="5" t="s">
         <v>16</v>
       </c>
-      <c r="L3" s="1" t="s">
-        <v>69</v>
-      </c>
-    </row>
-    <row r="4" spans="1:12" x14ac:dyDescent="0.2">
-      <c r="A4" s="1">
-        <v>3</v>
-      </c>
-      <c r="B4" s="1" t="s">
-        <v>51</v>
-      </c>
-      <c r="C4" s="1" t="s">
-        <v>17</v>
-      </c>
-      <c r="D4" s="1" t="s">
-        <v>52</v>
-      </c>
-      <c r="E4" s="1">
-        <v>1976</v>
-      </c>
-      <c r="F4" s="1">
-        <v>1990</v>
-      </c>
-      <c r="G4" s="1" t="s">
-        <v>18</v>
-      </c>
-      <c r="H4" s="1" t="s">
-        <v>70</v>
-      </c>
-      <c r="I4" s="1" t="s">
-        <v>53</v>
-      </c>
-      <c r="J4" s="1">
-        <v>9256</v>
-      </c>
-      <c r="K4" s="1" t="s">
-        <v>16</v>
-      </c>
-      <c r="L4" s="1" t="s">
-        <v>54</v>
-      </c>
-    </row>
-    <row r="5" spans="1:12" x14ac:dyDescent="0.2">
-      <c r="A5" s="1">
-        <v>4</v>
-      </c>
-      <c r="B5" s="1" t="s">
-        <v>25</v>
-      </c>
-      <c r="C5" s="1" t="s">
-        <v>69</v>
-      </c>
-      <c r="D5" s="1" t="s">
-        <v>69</v>
-      </c>
-      <c r="E5" s="1">
-        <v>1</v>
-      </c>
-      <c r="F5" s="1">
-        <v>1</v>
-      </c>
-      <c r="G5" s="1" t="s">
-        <v>18</v>
-      </c>
-      <c r="H5" s="1" t="s">
-        <v>70</v>
-      </c>
-      <c r="I5" s="1" t="s">
-        <v>69</v>
-      </c>
-      <c r="J5" s="1">
-        <v>9023</v>
-      </c>
-      <c r="K5" s="1" t="s">
-        <v>16</v>
-      </c>
-      <c r="L5" s="1" t="s">
-        <v>69</v>
-      </c>
-    </row>
-    <row r="6" spans="1:12" x14ac:dyDescent="0.2">
-      <c r="A6" s="1">
-        <v>5</v>
-      </c>
-      <c r="B6" s="1" t="s">
-        <v>31</v>
-      </c>
-      <c r="C6" s="1" t="s">
-        <v>11</v>
-      </c>
-      <c r="D6" s="1" t="s">
-        <v>26</v>
-      </c>
-      <c r="E6" s="1">
-        <v>1999</v>
-      </c>
-      <c r="F6" s="1">
-        <v>2003</v>
-      </c>
-      <c r="G6" s="1" t="s">
-        <v>18</v>
-      </c>
-      <c r="H6" s="1" t="s">
-        <v>64</v>
-      </c>
-      <c r="I6" s="1" t="s">
-        <v>32</v>
-      </c>
-      <c r="J6" s="1">
-        <v>1703</v>
-      </c>
-      <c r="K6" s="1" t="s">
-        <v>28</v>
-      </c>
-      <c r="L6" s="1" t="s">
-        <v>14</v>
-      </c>
-    </row>
-    <row r="7" spans="1:12" x14ac:dyDescent="0.2">
-      <c r="A7" s="1">
-        <v>6</v>
-      </c>
-      <c r="B7" s="1" t="s">
-        <v>25</v>
-      </c>
-      <c r="C7" s="1" t="s">
-        <v>11</v>
-      </c>
-      <c r="D7" s="1" t="s">
-        <v>26</v>
-      </c>
-      <c r="E7" s="1">
-        <v>1999</v>
-      </c>
-      <c r="F7" s="1">
-        <v>2003</v>
-      </c>
-      <c r="G7" s="1" t="s">
-        <v>18</v>
-      </c>
-      <c r="H7" s="1" t="s">
-        <v>61</v>
-      </c>
-      <c r="I7" s="1" t="s">
-        <v>27</v>
-      </c>
-      <c r="J7" s="1">
-        <v>9023</v>
-      </c>
-      <c r="K7" s="1" t="s">
-        <v>16</v>
-      </c>
-      <c r="L7" s="1" t="s">
-        <v>14</v>
-      </c>
-    </row>
-    <row r="8" spans="1:12" x14ac:dyDescent="0.2">
-      <c r="A8" s="1">
-        <v>7</v>
-      </c>
-      <c r="B8" s="1" t="s">
-        <v>29</v>
-      </c>
-      <c r="C8" s="1" t="s">
-        <v>11</v>
-      </c>
-      <c r="D8" s="1" t="s">
-        <v>26</v>
-      </c>
-      <c r="E8" s="1">
-        <v>1999</v>
-      </c>
-      <c r="F8" s="1">
-        <v>2003</v>
-      </c>
-      <c r="G8" s="1" t="s">
-        <v>18</v>
-      </c>
-      <c r="H8" s="1" t="s">
-        <v>18</v>
-      </c>
-      <c r="I8" s="1" t="s">
-        <v>30</v>
-      </c>
-      <c r="J8" s="1">
-        <v>1709</v>
-      </c>
-      <c r="K8" s="1" t="s">
-        <v>28</v>
-      </c>
-      <c r="L8" s="1" t="s">
-        <v>14</v>
-      </c>
-    </row>
-    <row r="9" spans="1:12" x14ac:dyDescent="0.2">
-      <c r="A9" s="1">
-        <v>8</v>
-      </c>
-      <c r="B9" s="1" t="s">
-        <v>62</v>
-      </c>
-      <c r="C9" s="1" t="s">
-        <v>17</v>
-      </c>
-      <c r="D9" s="1" t="s">
-        <v>12</v>
-      </c>
-      <c r="E9" s="1">
-        <v>1994</v>
-      </c>
-      <c r="F9" s="1">
-        <v>1995</v>
-      </c>
-      <c r="G9" s="1" t="s">
-        <v>18</v>
-      </c>
-      <c r="H9" s="1" t="s">
-        <v>63</v>
-      </c>
-      <c r="I9" s="1">
-        <v>676</v>
-      </c>
-      <c r="J9" s="1">
-        <v>475</v>
-      </c>
-      <c r="K9" s="1" t="s">
-        <v>15</v>
-      </c>
-      <c r="L9" s="1" t="s">
-        <v>14</v>
-      </c>
-    </row>
-    <row r="10" spans="1:12" x14ac:dyDescent="0.2">
-      <c r="A10" s="1">
-        <v>9</v>
-      </c>
-      <c r="B10" s="1" t="s">
-        <v>33</v>
-      </c>
-      <c r="C10" s="1" t="s">
-        <v>11</v>
-      </c>
-      <c r="D10" s="1" t="s">
-        <v>26</v>
-      </c>
-      <c r="E10" s="1">
-        <v>1999</v>
-      </c>
-      <c r="F10" s="1">
-        <v>2003</v>
-      </c>
-      <c r="G10" s="1" t="s">
-        <v>18</v>
-      </c>
-      <c r="H10" s="1" t="s">
-        <v>18</v>
-      </c>
-      <c r="I10" s="1" t="s">
-        <v>34</v>
-      </c>
-      <c r="J10" s="1">
-        <v>1706</v>
-      </c>
-      <c r="K10" s="1" t="s">
-        <v>28</v>
-      </c>
-      <c r="L10" s="1" t="s">
-        <v>14</v>
-      </c>
-    </row>
-    <row r="11" spans="1:12" x14ac:dyDescent="0.2">
-      <c r="A11" s="1">
-        <v>10</v>
-      </c>
-      <c r="B11" s="1" t="s">
-        <v>35</v>
-      </c>
-      <c r="C11" s="1" t="s">
-        <v>11</v>
-      </c>
-      <c r="D11" s="1" t="s">
-        <v>21</v>
-      </c>
-      <c r="E11" s="1">
-        <v>2006</v>
-      </c>
-      <c r="F11" s="1">
-        <v>2007</v>
-      </c>
-      <c r="G11" s="1" t="s">
-        <v>18</v>
-      </c>
-      <c r="H11" s="1" t="s">
-        <v>68</v>
-      </c>
-      <c r="I11" s="1" t="s">
-        <v>36</v>
-      </c>
-      <c r="J11" s="1">
-        <v>1305</v>
-      </c>
-      <c r="K11" s="1" t="s">
-        <v>20</v>
-      </c>
-      <c r="L11" s="1" t="s">
-        <v>14</v>
-      </c>
-    </row>
-    <row r="12" spans="1:12" x14ac:dyDescent="0.2">
-      <c r="A12" s="1">
-        <v>11</v>
-      </c>
-      <c r="B12" s="1" t="s">
-        <v>65</v>
-      </c>
-      <c r="C12" s="1" t="s">
-        <v>69</v>
-      </c>
-      <c r="D12" s="1" t="s">
-        <v>69</v>
-      </c>
-      <c r="E12" s="1">
-        <v>1</v>
-      </c>
-      <c r="F12" s="1">
-        <v>1</v>
-      </c>
-      <c r="G12" s="1" t="s">
-        <v>18</v>
-      </c>
-      <c r="H12" s="1" t="s">
-        <v>68</v>
-      </c>
-      <c r="I12" s="1" t="s">
-        <v>69</v>
-      </c>
-      <c r="J12" s="1">
-        <v>9202</v>
-      </c>
-      <c r="K12" s="1" t="s">
-        <v>16</v>
-      </c>
-      <c r="L12" s="1" t="s">
-        <v>69</v>
-      </c>
-    </row>
-    <row r="13" spans="1:12" x14ac:dyDescent="0.2">
-      <c r="A13" s="1">
-        <v>12</v>
-      </c>
-      <c r="B13" s="1" t="s">
-        <v>42</v>
-      </c>
-      <c r="C13" s="1" t="s">
-        <v>17</v>
-      </c>
-      <c r="D13" s="1" t="s">
-        <v>21</v>
-      </c>
-      <c r="E13" s="1">
-        <v>2010</v>
-      </c>
-      <c r="F13" s="1">
-        <v>2011</v>
-      </c>
-      <c r="G13" s="1" t="s">
-        <v>18</v>
-      </c>
-      <c r="H13" s="1" t="s">
-        <v>67</v>
-      </c>
-      <c r="I13" s="1" t="s">
-        <v>43</v>
-      </c>
-      <c r="J13" s="1">
-        <v>660</v>
-      </c>
-      <c r="K13" s="1" t="s">
-        <v>20</v>
-      </c>
-      <c r="L13" s="1" t="s">
-        <v>14</v>
-      </c>
-    </row>
-    <row r="14" spans="1:12" x14ac:dyDescent="0.2">
-      <c r="A14" s="1">
-        <v>13</v>
-      </c>
-      <c r="B14" s="1" t="s">
-        <v>40</v>
-      </c>
-      <c r="C14" s="1" t="s">
-        <v>11</v>
-      </c>
-      <c r="D14" s="1" t="s">
-        <v>21</v>
-      </c>
-      <c r="E14" s="1">
-        <v>2010</v>
-      </c>
-      <c r="F14" s="1">
-        <v>2010</v>
-      </c>
-      <c r="G14" s="1" t="s">
-        <v>18</v>
-      </c>
-      <c r="H14" s="1" t="s">
-        <v>66</v>
-      </c>
-      <c r="I14" s="1" t="s">
-        <v>41</v>
-      </c>
-      <c r="J14" s="1">
-        <v>648</v>
-      </c>
-      <c r="K14" s="1" t="s">
-        <v>20</v>
-      </c>
-      <c r="L14" s="1" t="s">
-        <v>14</v>
-      </c>
-    </row>
-    <row r="15" spans="1:12" x14ac:dyDescent="0.2">
-      <c r="A15" s="1">
-        <v>14</v>
-      </c>
-      <c r="B15" s="1" t="s">
-        <v>39</v>
-      </c>
-      <c r="C15" s="1" t="s">
-        <v>17</v>
-      </c>
-      <c r="D15" s="1" t="s">
-        <v>37</v>
-      </c>
-      <c r="E15" s="1">
-        <v>2008</v>
-      </c>
-      <c r="F15" s="1">
-        <v>2009</v>
-      </c>
-      <c r="G15" s="1" t="s">
-        <v>18</v>
-      </c>
-      <c r="H15" s="1" t="s">
-        <v>18</v>
-      </c>
-      <c r="I15" s="1">
-        <v>4007</v>
-      </c>
-      <c r="J15" s="1">
-        <v>1004</v>
-      </c>
-      <c r="K15" s="1" t="s">
-        <v>20</v>
-      </c>
-      <c r="L15" s="1" t="s">
-        <v>14</v>
-      </c>
-    </row>
-    <row r="16" spans="1:12" x14ac:dyDescent="0.2">
-      <c r="A16" s="1">
-        <v>15</v>
-      </c>
-      <c r="B16" s="1" t="s">
-        <v>38</v>
-      </c>
-      <c r="C16" s="1" t="s">
-        <v>17</v>
-      </c>
-      <c r="D16" s="1" t="s">
-        <v>37</v>
-      </c>
-      <c r="E16" s="1">
-        <v>2008</v>
-      </c>
-      <c r="F16" s="1">
-        <v>2009</v>
-      </c>
-      <c r="G16" s="1" t="s">
-        <v>18</v>
-      </c>
-      <c r="H16" s="1" t="s">
-        <v>18</v>
-      </c>
-      <c r="I16" s="1">
-        <v>16</v>
-      </c>
-      <c r="J16" s="1">
-        <v>1004</v>
-      </c>
-      <c r="K16" s="1" t="s">
-        <v>20</v>
-      </c>
-      <c r="L16" s="1" t="s">
-        <v>14</v>
-      </c>
-    </row>
-    <row r="17" spans="1:12" x14ac:dyDescent="0.2">
-      <c r="A17" s="1">
-        <v>16</v>
-      </c>
-      <c r="B17" s="1" t="s">
-        <v>49</v>
-      </c>
-      <c r="C17" s="1" t="s">
-        <v>11</v>
-      </c>
-      <c r="D17" s="1" t="s">
-        <v>45</v>
-      </c>
-      <c r="E17" s="1">
-        <v>2008</v>
-      </c>
-      <c r="F17" s="1">
-        <v>2012</v>
-      </c>
-      <c r="G17" s="1" t="s">
-        <v>18</v>
-      </c>
-      <c r="H17" s="1" t="s">
-        <v>18</v>
-      </c>
-      <c r="I17" s="1" t="s">
-        <v>50</v>
-      </c>
-      <c r="J17" s="1">
-        <v>1523</v>
-      </c>
-      <c r="K17" s="1" t="s">
-        <v>23</v>
-      </c>
-      <c r="L17" s="1" t="s">
-        <v>14</v>
-      </c>
-    </row>
-    <row r="18" spans="1:12" x14ac:dyDescent="0.2">
-      <c r="A18" s="1">
-        <v>17</v>
-      </c>
-      <c r="B18" s="1" t="s">
-        <v>47</v>
-      </c>
-      <c r="C18" s="1" t="s">
-        <v>17</v>
-      </c>
-      <c r="D18" s="1" t="s">
-        <v>45</v>
-      </c>
-      <c r="E18" s="1">
-        <v>2011</v>
-      </c>
-      <c r="F18" s="1">
-        <v>2012</v>
-      </c>
-      <c r="G18" s="1" t="s">
-        <v>18</v>
-      </c>
-      <c r="H18" s="1" t="s">
-        <v>46</v>
-      </c>
-      <c r="I18" s="1" t="s">
-        <v>48</v>
-      </c>
-      <c r="J18" s="1">
-        <v>1061</v>
-      </c>
-      <c r="K18" s="1" t="s">
-        <v>15</v>
-      </c>
-      <c r="L18" s="1" t="s">
+      <c r="L25" s="5" t="s">
         <v>14</v>
       </c>
     </row>
@@ -1425,7 +1763,7 @@
         <v>48</v>
       </c>
       <c r="B1" s="1" t="s">
-        <v>55</v>
+        <v>54</v>
       </c>
       <c r="C1" s="1" t="s">
         <v>11</v>
@@ -1440,13 +1778,13 @@
         <v>1993</v>
       </c>
       <c r="G1" s="1" t="s">
-        <v>60</v>
+        <v>59</v>
       </c>
       <c r="H1" s="1" t="s">
         <v>13</v>
       </c>
       <c r="I1" s="1" t="s">
-        <v>56</v>
+        <v>55</v>
       </c>
       <c r="J1" s="1">
         <v>2892</v>

--- a/tabular/extension/srlv-refseqs.xlsx
+++ b/tabular/extension/srlv-refseqs.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/robertgifford/Projects/virus/comparative/Retrovirus/Lentivirus-GLUE/tabular/extension/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{A638A7CE-B068-1D4E-AF87-728DAB6D9422}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{DB609E5E-462F-6243-9573-96AAD4C43BA2}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="21580" yWindow="7660" windowWidth="28060" windowHeight="17540" tabRatio="500" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -29,7 +29,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="213" uniqueCount="87">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="221" uniqueCount="85">
   <si>
     <t>Number</t>
   </si>
@@ -211,36 +211,15 @@
     <t>B</t>
   </si>
   <si>
-    <t>A4</t>
-  </si>
-  <si>
     <t>U35676</t>
   </si>
   <si>
-    <t>A6</t>
-  </si>
-  <si>
-    <t>A3</t>
-  </si>
-  <si>
     <t>A15114</t>
   </si>
   <si>
-    <t>A11</t>
-  </si>
-  <si>
-    <t>A9</t>
-  </si>
-  <si>
-    <t>A8</t>
-  </si>
-  <si>
     <t>NULL</t>
   </si>
   <si>
-    <t>A2</t>
-  </si>
-  <si>
     <t>AF322109</t>
   </si>
   <si>
@@ -290,6 +269,21 @@
   </si>
   <si>
     <t>Iceland</t>
+  </si>
+  <si>
+    <t>M34193</t>
+  </si>
+  <si>
+    <t>AY101611</t>
+  </si>
+  <si>
+    <t>85/34</t>
+  </si>
+  <si>
+    <t>USA</t>
+  </si>
+  <si>
+    <t>AB</t>
   </si>
 </sst>
 </file>
@@ -776,10 +770,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:L25"/>
+  <dimension ref="A1:L27"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="K21" sqref="A1:L25"/>
+      <selection activeCell="D30" sqref="D30"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -831,60 +825,60 @@
     </row>
     <row r="2" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A2" s="5">
+        <v>2</v>
+      </c>
+      <c r="B2" s="5" t="s">
+        <v>44</v>
+      </c>
+      <c r="C2" s="5" t="s">
+        <v>62</v>
+      </c>
+      <c r="D2" s="5" t="s">
+        <v>62</v>
+      </c>
+      <c r="E2" s="5">
         <v>1</v>
       </c>
-      <c r="B2" s="5" t="s">
-        <v>56</v>
-      </c>
-      <c r="C2" s="5" t="s">
-        <v>11</v>
-      </c>
-      <c r="D2" s="5" t="s">
-        <v>22</v>
-      </c>
-      <c r="E2" s="5">
-        <v>1974</v>
-      </c>
       <c r="F2" s="5">
-        <v>1990</v>
+        <v>1</v>
       </c>
       <c r="G2" s="5" t="s">
-        <v>59</v>
-      </c>
-      <c r="H2" s="6">
-        <v>1</v>
+        <v>18</v>
+      </c>
+      <c r="H2" s="6" t="s">
+        <v>18</v>
       </c>
       <c r="I2" s="5" t="s">
-        <v>57</v>
+        <v>62</v>
       </c>
       <c r="J2" s="5">
-        <v>9189</v>
+        <v>9175</v>
       </c>
       <c r="K2" s="5" t="s">
         <v>16</v>
       </c>
       <c r="L2" s="5" t="s">
-        <v>24</v>
+        <v>62</v>
       </c>
     </row>
     <row r="3" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A3" s="5">
-        <v>2</v>
+        <v>7</v>
       </c>
       <c r="B3" s="5" t="s">
-        <v>44</v>
+        <v>29</v>
       </c>
       <c r="C3" s="5" t="s">
-        <v>68</v>
+        <v>11</v>
       </c>
       <c r="D3" s="5" t="s">
-        <v>68</v>
+        <v>26</v>
       </c>
       <c r="E3" s="5">
-        <v>1</v>
+        <v>1999</v>
       </c>
       <c r="F3" s="5">
-        <v>1</v>
+        <v>2003</v>
       </c>
       <c r="G3" s="5" t="s">
         <v>18</v>
@@ -893,127 +887,127 @@
         <v>18</v>
       </c>
       <c r="I3" s="5" t="s">
-        <v>68</v>
+        <v>30</v>
       </c>
       <c r="J3" s="5">
-        <v>9175</v>
+        <v>1709</v>
       </c>
       <c r="K3" s="5" t="s">
-        <v>16</v>
+        <v>28</v>
       </c>
       <c r="L3" s="5" t="s">
-        <v>68</v>
+        <v>14</v>
       </c>
     </row>
     <row r="4" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A4" s="5">
-        <v>3</v>
+        <v>9</v>
       </c>
       <c r="B4" s="5" t="s">
-        <v>50</v>
+        <v>33</v>
       </c>
       <c r="C4" s="5" t="s">
-        <v>17</v>
+        <v>11</v>
       </c>
       <c r="D4" s="5" t="s">
-        <v>51</v>
+        <v>26</v>
       </c>
       <c r="E4" s="5">
-        <v>1976</v>
+        <v>1999</v>
       </c>
       <c r="F4" s="5">
-        <v>1990</v>
+        <v>2003</v>
       </c>
       <c r="G4" s="5" t="s">
         <v>18</v>
       </c>
       <c r="H4" s="6" t="s">
-        <v>69</v>
+        <v>18</v>
       </c>
       <c r="I4" s="5" t="s">
-        <v>52</v>
+        <v>34</v>
       </c>
       <c r="J4" s="5">
-        <v>9256</v>
+        <v>1706</v>
       </c>
       <c r="K4" s="5" t="s">
-        <v>16</v>
+        <v>28</v>
       </c>
       <c r="L4" s="5" t="s">
-        <v>53</v>
+        <v>14</v>
       </c>
     </row>
     <row r="5" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A5" s="5">
-        <v>4</v>
+        <v>14</v>
       </c>
       <c r="B5" s="5" t="s">
-        <v>25</v>
+        <v>39</v>
       </c>
       <c r="C5" s="5" t="s">
-        <v>68</v>
+        <v>17</v>
       </c>
       <c r="D5" s="5" t="s">
-        <v>68</v>
+        <v>37</v>
       </c>
       <c r="E5" s="5">
-        <v>1</v>
+        <v>2008</v>
       </c>
       <c r="F5" s="5">
-        <v>1</v>
+        <v>2009</v>
       </c>
       <c r="G5" s="5" t="s">
         <v>18</v>
       </c>
       <c r="H5" s="6" t="s">
-        <v>69</v>
-      </c>
-      <c r="I5" s="5" t="s">
-        <v>68</v>
+        <v>18</v>
+      </c>
+      <c r="I5" s="5">
+        <v>4007</v>
       </c>
       <c r="J5" s="5">
-        <v>9023</v>
+        <v>1004</v>
       </c>
       <c r="K5" s="5" t="s">
-        <v>16</v>
+        <v>20</v>
       </c>
       <c r="L5" s="5" t="s">
-        <v>68</v>
+        <v>14</v>
       </c>
     </row>
     <row r="6" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A6" s="5">
-        <v>5</v>
+        <v>15</v>
       </c>
       <c r="B6" s="5" t="s">
-        <v>31</v>
+        <v>38</v>
       </c>
       <c r="C6" s="5" t="s">
-        <v>11</v>
+        <v>17</v>
       </c>
       <c r="D6" s="5" t="s">
-        <v>26</v>
+        <v>37</v>
       </c>
       <c r="E6" s="5">
-        <v>1999</v>
+        <v>2008</v>
       </c>
       <c r="F6" s="5">
-        <v>2003</v>
+        <v>2009</v>
       </c>
       <c r="G6" s="5" t="s">
         <v>18</v>
       </c>
       <c r="H6" s="6" t="s">
-        <v>63</v>
-      </c>
-      <c r="I6" s="5" t="s">
-        <v>32</v>
+        <v>18</v>
+      </c>
+      <c r="I6" s="5">
+        <v>16</v>
       </c>
       <c r="J6" s="5">
-        <v>1703</v>
+        <v>1004</v>
       </c>
       <c r="K6" s="5" t="s">
-        <v>28</v>
+        <v>20</v>
       </c>
       <c r="L6" s="5" t="s">
         <v>14</v>
@@ -1021,37 +1015,37 @@
     </row>
     <row r="7" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A7" s="5">
-        <v>6</v>
+        <v>16</v>
       </c>
       <c r="B7" s="5" t="s">
-        <v>25</v>
+        <v>48</v>
       </c>
       <c r="C7" s="5" t="s">
         <v>11</v>
       </c>
       <c r="D7" s="5" t="s">
-        <v>26</v>
+        <v>45</v>
       </c>
       <c r="E7" s="5">
-        <v>1999</v>
+        <v>2008</v>
       </c>
       <c r="F7" s="5">
-        <v>2003</v>
+        <v>2012</v>
       </c>
       <c r="G7" s="5" t="s">
         <v>18</v>
       </c>
       <c r="H7" s="6" t="s">
-        <v>60</v>
+        <v>18</v>
       </c>
       <c r="I7" s="5" t="s">
-        <v>27</v>
+        <v>49</v>
       </c>
       <c r="J7" s="5">
-        <v>9023</v>
+        <v>1523</v>
       </c>
       <c r="K7" s="5" t="s">
-        <v>16</v>
+        <v>23</v>
       </c>
       <c r="L7" s="5" t="s">
         <v>14</v>
@@ -1059,22 +1053,22 @@
     </row>
     <row r="8" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A8" s="5">
-        <v>7</v>
+        <v>17</v>
       </c>
       <c r="B8" s="5" t="s">
-        <v>29</v>
+        <v>46</v>
       </c>
       <c r="C8" s="5" t="s">
-        <v>11</v>
+        <v>17</v>
       </c>
       <c r="D8" s="5" t="s">
-        <v>26</v>
+        <v>45</v>
       </c>
       <c r="E8" s="5">
-        <v>1999</v>
+        <v>2011</v>
       </c>
       <c r="F8" s="5">
-        <v>2003</v>
+        <v>2012</v>
       </c>
       <c r="G8" s="5" t="s">
         <v>18</v>
@@ -1083,13 +1077,13 @@
         <v>18</v>
       </c>
       <c r="I8" s="5" t="s">
-        <v>30</v>
+        <v>47</v>
       </c>
       <c r="J8" s="5">
-        <v>1709</v>
+        <v>1061</v>
       </c>
       <c r="K8" s="5" t="s">
-        <v>28</v>
+        <v>15</v>
       </c>
       <c r="L8" s="5" t="s">
         <v>14</v>
@@ -1097,37 +1091,37 @@
     </row>
     <row r="9" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A9" s="5">
-        <v>8</v>
+        <v>13</v>
       </c>
       <c r="B9" s="5" t="s">
-        <v>61</v>
+        <v>40</v>
       </c>
       <c r="C9" s="5" t="s">
-        <v>17</v>
+        <v>11</v>
       </c>
       <c r="D9" s="5" t="s">
-        <v>12</v>
+        <v>21</v>
       </c>
       <c r="E9" s="5">
-        <v>1994</v>
+        <v>2010</v>
       </c>
       <c r="F9" s="5">
-        <v>1995</v>
+        <v>2010</v>
       </c>
       <c r="G9" s="5" t="s">
         <v>18</v>
       </c>
-      <c r="H9" s="6" t="s">
-        <v>62</v>
-      </c>
-      <c r="I9" s="5">
-        <v>676</v>
+      <c r="H9" s="6">
+        <v>11</v>
+      </c>
+      <c r="I9" s="5" t="s">
+        <v>41</v>
       </c>
       <c r="J9" s="5">
-        <v>475</v>
+        <v>648</v>
       </c>
       <c r="K9" s="5" t="s">
-        <v>15</v>
+        <v>20</v>
       </c>
       <c r="L9" s="5" t="s">
         <v>14</v>
@@ -1135,151 +1129,151 @@
     </row>
     <row r="10" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A10" s="5">
-        <v>9</v>
+        <v>3</v>
       </c>
       <c r="B10" s="5" t="s">
-        <v>33</v>
+        <v>50</v>
       </c>
       <c r="C10" s="5" t="s">
-        <v>11</v>
+        <v>17</v>
       </c>
       <c r="D10" s="5" t="s">
-        <v>26</v>
+        <v>51</v>
       </c>
       <c r="E10" s="5">
-        <v>1999</v>
+        <v>1976</v>
       </c>
       <c r="F10" s="5">
-        <v>2003</v>
+        <v>1990</v>
       </c>
       <c r="G10" s="5" t="s">
         <v>18</v>
       </c>
-      <c r="H10" s="6" t="s">
-        <v>18</v>
+      <c r="H10" s="6">
+        <v>2</v>
       </c>
       <c r="I10" s="5" t="s">
-        <v>34</v>
+        <v>52</v>
       </c>
       <c r="J10" s="5">
-        <v>1706</v>
+        <v>9256</v>
       </c>
       <c r="K10" s="5" t="s">
-        <v>28</v>
+        <v>16</v>
       </c>
       <c r="L10" s="5" t="s">
-        <v>14</v>
+        <v>53</v>
       </c>
     </row>
     <row r="11" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A11" s="5">
-        <v>10</v>
+        <v>4</v>
       </c>
       <c r="B11" s="5" t="s">
-        <v>35</v>
+        <v>25</v>
       </c>
       <c r="C11" s="5" t="s">
-        <v>11</v>
+        <v>62</v>
       </c>
       <c r="D11" s="5" t="s">
-        <v>21</v>
+        <v>62</v>
       </c>
       <c r="E11" s="5">
-        <v>2006</v>
+        <v>1</v>
       </c>
       <c r="F11" s="5">
-        <v>2007</v>
+        <v>1</v>
       </c>
       <c r="G11" s="5" t="s">
         <v>18</v>
       </c>
-      <c r="H11" s="6" t="s">
-        <v>67</v>
+      <c r="H11" s="6">
+        <v>2</v>
       </c>
       <c r="I11" s="5" t="s">
-        <v>36</v>
+        <v>62</v>
       </c>
       <c r="J11" s="5">
-        <v>1305</v>
+        <v>9023</v>
       </c>
       <c r="K11" s="5" t="s">
-        <v>20</v>
+        <v>16</v>
       </c>
       <c r="L11" s="5" t="s">
-        <v>14</v>
+        <v>62</v>
       </c>
     </row>
     <row r="12" spans="1:12" x14ac:dyDescent="0.2">
-      <c r="A12" s="5">
-        <v>11</v>
-      </c>
-      <c r="B12" s="5" t="s">
-        <v>64</v>
+      <c r="A12" s="1">
+        <v>25</v>
+      </c>
+      <c r="B12" s="1" t="s">
+        <v>80</v>
       </c>
       <c r="C12" s="5" t="s">
-        <v>68</v>
+        <v>17</v>
       </c>
       <c r="D12" s="5" t="s">
-        <v>68</v>
+        <v>51</v>
       </c>
       <c r="E12" s="5">
-        <v>1</v>
+        <v>1976</v>
       </c>
       <c r="F12" s="5">
-        <v>1</v>
+        <v>1990</v>
       </c>
       <c r="G12" s="5" t="s">
         <v>18</v>
       </c>
-      <c r="H12" s="6" t="s">
-        <v>67</v>
+      <c r="H12" s="6">
+        <v>2</v>
       </c>
       <c r="I12" s="5" t="s">
-        <v>68</v>
+        <v>52</v>
       </c>
       <c r="J12" s="5">
-        <v>9202</v>
+        <v>9256</v>
       </c>
       <c r="K12" s="5" t="s">
         <v>16</v>
       </c>
       <c r="L12" s="5" t="s">
-        <v>68</v>
+        <v>53</v>
       </c>
     </row>
     <row r="13" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A13" s="5">
-        <v>12</v>
+        <v>5</v>
       </c>
       <c r="B13" s="5" t="s">
-        <v>42</v>
+        <v>31</v>
       </c>
       <c r="C13" s="5" t="s">
-        <v>17</v>
+        <v>11</v>
       </c>
       <c r="D13" s="5" t="s">
-        <v>21</v>
+        <v>26</v>
       </c>
       <c r="E13" s="5">
-        <v>2010</v>
+        <v>1999</v>
       </c>
       <c r="F13" s="5">
-        <v>2011</v>
+        <v>2003</v>
       </c>
       <c r="G13" s="5" t="s">
         <v>18</v>
       </c>
-      <c r="H13" s="6" t="s">
-        <v>66</v>
+      <c r="H13" s="6">
+        <v>3</v>
       </c>
       <c r="I13" s="5" t="s">
-        <v>43</v>
+        <v>32</v>
       </c>
       <c r="J13" s="5">
-        <v>660</v>
+        <v>1703</v>
       </c>
       <c r="K13" s="5" t="s">
-        <v>20</v>
+        <v>28</v>
       </c>
       <c r="L13" s="5" t="s">
         <v>14</v>
@@ -1287,37 +1281,37 @@
     </row>
     <row r="14" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A14" s="5">
-        <v>13</v>
+        <v>6</v>
       </c>
       <c r="B14" s="5" t="s">
-        <v>40</v>
+        <v>25</v>
       </c>
       <c r="C14" s="5" t="s">
         <v>11</v>
       </c>
       <c r="D14" s="5" t="s">
-        <v>21</v>
+        <v>26</v>
       </c>
       <c r="E14" s="5">
-        <v>2010</v>
+        <v>1999</v>
       </c>
       <c r="F14" s="5">
-        <v>2010</v>
+        <v>2003</v>
       </c>
       <c r="G14" s="5" t="s">
         <v>18</v>
       </c>
-      <c r="H14" s="6" t="s">
-        <v>65</v>
+      <c r="H14" s="6">
+        <v>4</v>
       </c>
       <c r="I14" s="5" t="s">
-        <v>41</v>
+        <v>27</v>
       </c>
       <c r="J14" s="5">
-        <v>648</v>
+        <v>9023</v>
       </c>
       <c r="K14" s="5" t="s">
-        <v>20</v>
+        <v>16</v>
       </c>
       <c r="L14" s="5" t="s">
         <v>14</v>
@@ -1325,37 +1319,37 @@
     </row>
     <row r="15" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A15" s="5">
-        <v>14</v>
+        <v>8</v>
       </c>
       <c r="B15" s="5" t="s">
-        <v>39</v>
+        <v>60</v>
       </c>
       <c r="C15" s="5" t="s">
         <v>17</v>
       </c>
       <c r="D15" s="5" t="s">
-        <v>37</v>
+        <v>12</v>
       </c>
       <c r="E15" s="5">
-        <v>2008</v>
+        <v>1994</v>
       </c>
       <c r="F15" s="5">
-        <v>2009</v>
+        <v>1995</v>
       </c>
       <c r="G15" s="5" t="s">
         <v>18</v>
       </c>
-      <c r="H15" s="6" t="s">
-        <v>18</v>
+      <c r="H15" s="6">
+        <v>6</v>
       </c>
       <c r="I15" s="5">
-        <v>4007</v>
+        <v>676</v>
       </c>
       <c r="J15" s="5">
-        <v>1004</v>
+        <v>475</v>
       </c>
       <c r="K15" s="5" t="s">
-        <v>20</v>
+        <v>15</v>
       </c>
       <c r="L15" s="5" t="s">
         <v>14</v>
@@ -1363,34 +1357,34 @@
     </row>
     <row r="16" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A16" s="5">
-        <v>15</v>
+        <v>10</v>
       </c>
       <c r="B16" s="5" t="s">
-        <v>38</v>
+        <v>35</v>
       </c>
       <c r="C16" s="5" t="s">
-        <v>17</v>
+        <v>11</v>
       </c>
       <c r="D16" s="5" t="s">
-        <v>37</v>
+        <v>21</v>
       </c>
       <c r="E16" s="5">
-        <v>2008</v>
+        <v>2006</v>
       </c>
       <c r="F16" s="5">
-        <v>2009</v>
+        <v>2007</v>
       </c>
       <c r="G16" s="5" t="s">
         <v>18</v>
       </c>
-      <c r="H16" s="6" t="s">
-        <v>18</v>
-      </c>
-      <c r="I16" s="5">
-        <v>16</v>
+      <c r="H16" s="6">
+        <v>8</v>
+      </c>
+      <c r="I16" s="5" t="s">
+        <v>36</v>
       </c>
       <c r="J16" s="5">
-        <v>1004</v>
+        <v>1305</v>
       </c>
       <c r="K16" s="5" t="s">
         <v>20</v>
@@ -1401,110 +1395,110 @@
     </row>
     <row r="17" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A17" s="5">
-        <v>16</v>
+        <v>12</v>
       </c>
       <c r="B17" s="5" t="s">
-        <v>48</v>
+        <v>42</v>
       </c>
       <c r="C17" s="5" t="s">
-        <v>11</v>
+        <v>17</v>
       </c>
       <c r="D17" s="5" t="s">
-        <v>45</v>
+        <v>21</v>
       </c>
       <c r="E17" s="5">
-        <v>2008</v>
+        <v>2010</v>
       </c>
       <c r="F17" s="5">
-        <v>2012</v>
+        <v>2011</v>
       </c>
       <c r="G17" s="5" t="s">
         <v>18</v>
       </c>
-      <c r="H17" s="6" t="s">
-        <v>18</v>
+      <c r="H17" s="6">
+        <v>9</v>
       </c>
       <c r="I17" s="5" t="s">
-        <v>49</v>
+        <v>43</v>
       </c>
       <c r="J17" s="5">
-        <v>1523</v>
+        <v>660</v>
       </c>
       <c r="K17" s="5" t="s">
-        <v>23</v>
+        <v>20</v>
       </c>
       <c r="L17" s="5" t="s">
         <v>14</v>
       </c>
     </row>
     <row r="18" spans="1:12" x14ac:dyDescent="0.2">
-      <c r="A18" s="5">
-        <v>17</v>
-      </c>
-      <c r="B18" s="5" t="s">
-        <v>46</v>
+      <c r="A18" s="1">
+        <v>26</v>
+      </c>
+      <c r="B18" s="1" t="s">
+        <v>81</v>
       </c>
       <c r="C18" s="5" t="s">
         <v>17</v>
       </c>
-      <c r="D18" s="5" t="s">
-        <v>45</v>
-      </c>
-      <c r="E18" s="5">
-        <v>2011</v>
-      </c>
-      <c r="F18" s="5">
-        <v>2012</v>
-      </c>
-      <c r="G18" s="5" t="s">
-        <v>18</v>
-      </c>
-      <c r="H18" s="6" t="s">
-        <v>18</v>
-      </c>
-      <c r="I18" s="5" t="s">
-        <v>47</v>
-      </c>
-      <c r="J18" s="5">
-        <v>1061</v>
-      </c>
-      <c r="K18" s="5" t="s">
-        <v>15</v>
+      <c r="D18" s="1" t="s">
+        <v>83</v>
+      </c>
+      <c r="E18" s="1">
+        <v>1934</v>
+      </c>
+      <c r="F18" s="1">
+        <v>1985</v>
+      </c>
+      <c r="G18" s="1" t="s">
+        <v>84</v>
+      </c>
+      <c r="H18" s="3" t="s">
+        <v>84</v>
+      </c>
+      <c r="I18" s="1" t="s">
+        <v>82</v>
+      </c>
+      <c r="J18" s="1">
+        <v>6530</v>
+      </c>
+      <c r="K18" s="1" t="s">
+        <v>16</v>
       </c>
       <c r="L18" s="5" t="s">
-        <v>14</v>
+        <v>24</v>
       </c>
     </row>
     <row r="19" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A19" s="5">
-        <v>18</v>
+        <v>11</v>
       </c>
       <c r="B19" s="5" t="s">
-        <v>70</v>
+        <v>61</v>
       </c>
       <c r="C19" s="5" t="s">
-        <v>11</v>
-      </c>
-      <c r="D19" s="5" t="s">
+        <v>17</v>
+      </c>
+      <c r="D19" s="8" t="s">
+        <v>79</v>
+      </c>
+      <c r="E19" s="5">
+        <v>1949</v>
+      </c>
+      <c r="F19" s="8" t="s">
+        <v>72</v>
+      </c>
+      <c r="G19" s="8" t="s">
+        <v>72</v>
+      </c>
+      <c r="H19" s="6">
+        <v>1</v>
+      </c>
+      <c r="I19" s="8" t="s">
         <v>73</v>
       </c>
-      <c r="E19" s="5">
-        <v>1991</v>
-      </c>
-      <c r="F19" s="5">
-        <v>2000</v>
-      </c>
-      <c r="G19" s="5" t="s">
-        <v>72</v>
-      </c>
-      <c r="H19" s="6" t="s">
-        <v>72</v>
-      </c>
-      <c r="I19" s="5" t="s">
-        <v>71</v>
-      </c>
-      <c r="J19" s="5">
-        <v>8919</v>
+      <c r="J19" s="8" t="s">
+        <v>74</v>
       </c>
       <c r="K19" s="5" t="s">
         <v>16</v>
@@ -1515,72 +1509,72 @@
     </row>
     <row r="20" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A20" s="5">
-        <v>19</v>
-      </c>
-      <c r="B20" s="5" t="s">
-        <v>74</v>
+        <v>20</v>
+      </c>
+      <c r="B20" s="8" t="s">
+        <v>75</v>
       </c>
       <c r="C20" s="5" t="s">
         <v>17</v>
       </c>
-      <c r="D20" s="5" t="s">
-        <v>75</v>
+      <c r="D20" s="8" t="s">
+        <v>79</v>
       </c>
       <c r="E20" s="5">
-        <v>2007</v>
-      </c>
-      <c r="F20" s="5">
-        <v>2016</v>
-      </c>
-      <c r="G20" s="5" t="s">
-        <v>76</v>
-      </c>
-      <c r="H20" s="6" t="s">
-        <v>76</v>
-      </c>
-      <c r="I20" s="5" t="s">
-        <v>77</v>
-      </c>
-      <c r="J20" s="7">
-        <v>9136</v>
+        <v>1949</v>
+      </c>
+      <c r="F20" s="8" t="s">
+        <v>72</v>
+      </c>
+      <c r="G20" s="8" t="s">
+        <v>72</v>
+      </c>
+      <c r="H20" s="6">
+        <v>1</v>
+      </c>
+      <c r="I20" s="8" t="s">
+        <v>73</v>
+      </c>
+      <c r="J20" s="8" t="s">
+        <v>74</v>
       </c>
       <c r="K20" s="5" t="s">
         <v>16</v>
       </c>
       <c r="L20" s="5" t="s">
-        <v>78</v>
+        <v>14</v>
       </c>
     </row>
     <row r="21" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A21" s="5">
-        <v>20</v>
-      </c>
-      <c r="B21" s="8" t="s">
-        <v>82</v>
+        <v>21</v>
+      </c>
+      <c r="B21" s="5" t="s">
+        <v>76</v>
       </c>
       <c r="C21" s="5" t="s">
         <v>17</v>
       </c>
       <c r="D21" s="8" t="s">
-        <v>86</v>
+        <v>79</v>
       </c>
       <c r="E21" s="5">
-        <v>1949</v>
+        <v>1950</v>
       </c>
       <c r="F21" s="8" t="s">
-        <v>79</v>
+        <v>72</v>
       </c>
       <c r="G21" s="8" t="s">
-        <v>79</v>
+        <v>72</v>
       </c>
       <c r="H21" s="6">
         <v>1</v>
       </c>
       <c r="I21" s="8" t="s">
-        <v>80</v>
+        <v>73</v>
       </c>
       <c r="J21" s="8" t="s">
-        <v>81</v>
+        <v>74</v>
       </c>
       <c r="K21" s="5" t="s">
         <v>16</v>
@@ -1591,34 +1585,34 @@
     </row>
     <row r="22" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A22" s="5">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="B22" s="5" t="s">
-        <v>83</v>
+        <v>61</v>
       </c>
       <c r="C22" s="5" t="s">
         <v>17</v>
       </c>
       <c r="D22" s="8" t="s">
-        <v>86</v>
+        <v>79</v>
       </c>
       <c r="E22" s="5">
-        <v>1950</v>
+        <v>1951</v>
       </c>
       <c r="F22" s="8" t="s">
-        <v>79</v>
+        <v>72</v>
       </c>
       <c r="G22" s="8" t="s">
-        <v>79</v>
+        <v>72</v>
       </c>
       <c r="H22" s="6">
         <v>1</v>
       </c>
       <c r="I22" s="8" t="s">
-        <v>80</v>
+        <v>73</v>
       </c>
       <c r="J22" s="8" t="s">
-        <v>81</v>
+        <v>74</v>
       </c>
       <c r="K22" s="5" t="s">
         <v>16</v>
@@ -1629,34 +1623,34 @@
     </row>
     <row r="23" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A23" s="5">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="B23" s="5" t="s">
-        <v>64</v>
+        <v>77</v>
       </c>
       <c r="C23" s="5" t="s">
         <v>17</v>
       </c>
       <c r="D23" s="8" t="s">
-        <v>86</v>
+        <v>79</v>
       </c>
       <c r="E23" s="5">
-        <v>1951</v>
+        <v>1952</v>
       </c>
       <c r="F23" s="8" t="s">
-        <v>79</v>
+        <v>72</v>
       </c>
       <c r="G23" s="8" t="s">
-        <v>79</v>
+        <v>72</v>
       </c>
       <c r="H23" s="6">
         <v>1</v>
       </c>
       <c r="I23" s="8" t="s">
-        <v>80</v>
+        <v>73</v>
       </c>
       <c r="J23" s="8" t="s">
-        <v>81</v>
+        <v>74</v>
       </c>
       <c r="K23" s="5" t="s">
         <v>16</v>
@@ -1667,34 +1661,34 @@
     </row>
     <row r="24" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A24" s="5">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="B24" s="5" t="s">
-        <v>84</v>
+        <v>78</v>
       </c>
       <c r="C24" s="5" t="s">
         <v>17</v>
       </c>
       <c r="D24" s="8" t="s">
-        <v>86</v>
+        <v>79</v>
       </c>
       <c r="E24" s="5">
-        <v>1952</v>
+        <v>1953</v>
       </c>
       <c r="F24" s="8" t="s">
-        <v>79</v>
+        <v>72</v>
       </c>
       <c r="G24" s="8" t="s">
-        <v>79</v>
+        <v>72</v>
       </c>
       <c r="H24" s="6">
         <v>1</v>
       </c>
       <c r="I24" s="8" t="s">
-        <v>80</v>
+        <v>73</v>
       </c>
       <c r="J24" s="8" t="s">
-        <v>81</v>
+        <v>74</v>
       </c>
       <c r="K24" s="5" t="s">
         <v>16</v>
@@ -1705,43 +1699,123 @@
     </row>
     <row r="25" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A25" s="5">
-        <v>24</v>
+        <v>1</v>
       </c>
       <c r="B25" s="5" t="s">
-        <v>85</v>
+        <v>56</v>
       </c>
       <c r="C25" s="5" t="s">
-        <v>17</v>
-      </c>
-      <c r="D25" s="8" t="s">
-        <v>86</v>
+        <v>11</v>
+      </c>
+      <c r="D25" s="5" t="s">
+        <v>83</v>
       </c>
       <c r="E25" s="5">
-        <v>1953</v>
-      </c>
-      <c r="F25" s="8" t="s">
-        <v>79</v>
-      </c>
-      <c r="G25" s="8" t="s">
-        <v>79</v>
+        <v>1974</v>
+      </c>
+      <c r="F25" s="5">
+        <v>1990</v>
+      </c>
+      <c r="G25" s="5" t="s">
+        <v>59</v>
       </c>
       <c r="H25" s="6">
         <v>1</v>
       </c>
-      <c r="I25" s="8" t="s">
-        <v>80</v>
-      </c>
-      <c r="J25" s="8" t="s">
-        <v>81</v>
+      <c r="I25" s="5" t="s">
+        <v>57</v>
+      </c>
+      <c r="J25" s="5">
+        <v>9189</v>
       </c>
       <c r="K25" s="5" t="s">
         <v>16</v>
       </c>
       <c r="L25" s="5" t="s">
-        <v>14</v>
+        <v>24</v>
+      </c>
+    </row>
+    <row r="26" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="A26" s="5">
+        <v>18</v>
+      </c>
+      <c r="B26" s="5" t="s">
+        <v>63</v>
+      </c>
+      <c r="C26" s="5" t="s">
+        <v>11</v>
+      </c>
+      <c r="D26" s="5" t="s">
+        <v>66</v>
+      </c>
+      <c r="E26" s="5">
+        <v>1991</v>
+      </c>
+      <c r="F26" s="5">
+        <v>2000</v>
+      </c>
+      <c r="G26" s="5" t="s">
+        <v>65</v>
+      </c>
+      <c r="H26" s="6" t="s">
+        <v>65</v>
+      </c>
+      <c r="I26" s="5" t="s">
+        <v>64</v>
+      </c>
+      <c r="J26" s="5">
+        <v>8919</v>
+      </c>
+      <c r="K26" s="5" t="s">
+        <v>16</v>
+      </c>
+      <c r="L26" s="5" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="27" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="A27" s="5">
+        <v>19</v>
+      </c>
+      <c r="B27" s="5" t="s">
+        <v>67</v>
+      </c>
+      <c r="C27" s="5" t="s">
+        <v>17</v>
+      </c>
+      <c r="D27" s="5" t="s">
+        <v>68</v>
+      </c>
+      <c r="E27" s="5">
+        <v>2007</v>
+      </c>
+      <c r="F27" s="5">
+        <v>2016</v>
+      </c>
+      <c r="G27" s="5" t="s">
+        <v>69</v>
+      </c>
+      <c r="H27" s="6" t="s">
+        <v>69</v>
+      </c>
+      <c r="I27" s="5" t="s">
+        <v>70</v>
+      </c>
+      <c r="J27" s="7">
+        <v>9136</v>
+      </c>
+      <c r="K27" s="5" t="s">
+        <v>16</v>
+      </c>
+      <c r="L27" s="5" t="s">
+        <v>71</v>
       </c>
     </row>
   </sheetData>
+  <sortState xmlns:xlrd2="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" ref="A2:L27">
+    <sortCondition ref="G2:G27"/>
+    <sortCondition ref="H2:H27"/>
+  </sortState>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
   <pageSetup paperSize="9" orientation="portrait" horizontalDpi="4294967292" verticalDpi="4294967292"/>
   <headerFooter alignWithMargins="0"/>

--- a/tabular/extension/srlv-refseqs.xlsx
+++ b/tabular/extension/srlv-refseqs.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/robertgifford/Projects/virus/comparative/Retrovirus/Lentivirus-GLUE/tabular/extension/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{DB609E5E-462F-6243-9573-96AAD4C43BA2}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{801692CB-1F78-CF49-B6D8-135D56CA180D}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="21580" yWindow="7660" windowWidth="28060" windowHeight="17540" tabRatio="500" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -773,7 +773,7 @@
   <dimension ref="A1:L27"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="D30" sqref="D30"/>
+      <selection activeCell="G19" sqref="G19:G24"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -1488,8 +1488,8 @@
       <c r="F19" s="8" t="s">
         <v>72</v>
       </c>
-      <c r="G19" s="8" t="s">
-        <v>72</v>
+      <c r="G19" s="5" t="s">
+        <v>18</v>
       </c>
       <c r="H19" s="6">
         <v>1</v>
@@ -1526,8 +1526,8 @@
       <c r="F20" s="8" t="s">
         <v>72</v>
       </c>
-      <c r="G20" s="8" t="s">
-        <v>72</v>
+      <c r="G20" s="5" t="s">
+        <v>18</v>
       </c>
       <c r="H20" s="6">
         <v>1</v>
@@ -1564,8 +1564,8 @@
       <c r="F21" s="8" t="s">
         <v>72</v>
       </c>
-      <c r="G21" s="8" t="s">
-        <v>72</v>
+      <c r="G21" s="5" t="s">
+        <v>18</v>
       </c>
       <c r="H21" s="6">
         <v>1</v>
@@ -1602,8 +1602,8 @@
       <c r="F22" s="8" t="s">
         <v>72</v>
       </c>
-      <c r="G22" s="8" t="s">
-        <v>72</v>
+      <c r="G22" s="5" t="s">
+        <v>18</v>
       </c>
       <c r="H22" s="6">
         <v>1</v>
@@ -1640,8 +1640,8 @@
       <c r="F23" s="8" t="s">
         <v>72</v>
       </c>
-      <c r="G23" s="8" t="s">
-        <v>72</v>
+      <c r="G23" s="5" t="s">
+        <v>18</v>
       </c>
       <c r="H23" s="6">
         <v>1</v>
@@ -1678,8 +1678,8 @@
       <c r="F24" s="8" t="s">
         <v>72</v>
       </c>
-      <c r="G24" s="8" t="s">
-        <v>72</v>
+      <c r="G24" s="5" t="s">
+        <v>18</v>
       </c>
       <c r="H24" s="6">
         <v>1</v>

--- a/tabular/extension/srlv-refseqs.xlsx
+++ b/tabular/extension/srlv-refseqs.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/robertgifford/Projects/virus/comparative/Retrovirus/Lentivirus-GLUE/tabular/extension/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{801692CB-1F78-CF49-B6D8-135D56CA180D}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{A2CEA264-150F-6645-BE53-A53C5165AF11}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="21580" yWindow="7660" windowWidth="28060" windowHeight="17540" tabRatio="500" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -29,7 +29,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="221" uniqueCount="85">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="212" uniqueCount="84">
   <si>
     <t>Number</t>
   </si>
@@ -259,9 +259,6 @@
     <t>M60610</t>
   </si>
   <si>
-    <t>L06906</t>
-  </si>
-  <si>
     <t>M51543</t>
   </si>
   <si>
@@ -274,9 +271,6 @@
     <t>M34193</t>
   </si>
   <si>
-    <t>AY101611</t>
-  </si>
-  <si>
     <t>85/34</t>
   </si>
   <si>
@@ -284,6 +278,9 @@
   </si>
   <si>
     <t>AB</t>
+  </si>
+  <si>
+    <t>AY101611_U64439</t>
   </si>
 </sst>
 </file>
@@ -770,10 +767,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:L27"/>
+  <dimension ref="A1:L26"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="G19" sqref="G19:G24"/>
+      <selection activeCell="B12" sqref="A1:L26"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -1208,7 +1205,7 @@
         <v>25</v>
       </c>
       <c r="B12" s="1" t="s">
-        <v>80</v>
+        <v>79</v>
       </c>
       <c r="C12" s="5" t="s">
         <v>17</v>
@@ -1436,13 +1433,13 @@
         <v>26</v>
       </c>
       <c r="B18" s="1" t="s">
-        <v>81</v>
+        <v>83</v>
       </c>
       <c r="C18" s="5" t="s">
         <v>17</v>
       </c>
       <c r="D18" s="1" t="s">
-        <v>83</v>
+        <v>81</v>
       </c>
       <c r="E18" s="1">
         <v>1934</v>
@@ -1451,13 +1448,13 @@
         <v>1985</v>
       </c>
       <c r="G18" s="1" t="s">
-        <v>84</v>
+        <v>82</v>
       </c>
       <c r="H18" s="3" t="s">
-        <v>84</v>
+        <v>82</v>
       </c>
       <c r="I18" s="1" t="s">
-        <v>82</v>
+        <v>80</v>
       </c>
       <c r="J18" s="1">
         <v>6530</v>
@@ -1480,7 +1477,7 @@
         <v>17</v>
       </c>
       <c r="D19" s="8" t="s">
-        <v>79</v>
+        <v>78</v>
       </c>
       <c r="E19" s="5">
         <v>1949</v>
@@ -1518,7 +1515,7 @@
         <v>17</v>
       </c>
       <c r="D20" s="8" t="s">
-        <v>79</v>
+        <v>78</v>
       </c>
       <c r="E20" s="5">
         <v>1949</v>
@@ -1547,19 +1544,19 @@
     </row>
     <row r="21" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A21" s="5">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="B21" s="5" t="s">
-        <v>76</v>
+        <v>61</v>
       </c>
       <c r="C21" s="5" t="s">
         <v>17</v>
       </c>
       <c r="D21" s="8" t="s">
-        <v>79</v>
+        <v>78</v>
       </c>
       <c r="E21" s="5">
-        <v>1950</v>
+        <v>1951</v>
       </c>
       <c r="F21" s="8" t="s">
         <v>72</v>
@@ -1585,19 +1582,19 @@
     </row>
     <row r="22" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A22" s="5">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="B22" s="5" t="s">
-        <v>61</v>
+        <v>76</v>
       </c>
       <c r="C22" s="5" t="s">
         <v>17</v>
       </c>
       <c r="D22" s="8" t="s">
-        <v>79</v>
+        <v>78</v>
       </c>
       <c r="E22" s="5">
-        <v>1951</v>
+        <v>1952</v>
       </c>
       <c r="F22" s="8" t="s">
         <v>72</v>
@@ -1623,7 +1620,7 @@
     </row>
     <row r="23" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A23" s="5">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="B23" s="5" t="s">
         <v>77</v>
@@ -1632,10 +1629,10 @@
         <v>17</v>
       </c>
       <c r="D23" s="8" t="s">
-        <v>79</v>
+        <v>78</v>
       </c>
       <c r="E23" s="5">
-        <v>1952</v>
+        <v>1953</v>
       </c>
       <c r="F23" s="8" t="s">
         <v>72</v>
@@ -1661,160 +1658,122 @@
     </row>
     <row r="24" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A24" s="5">
-        <v>24</v>
+        <v>1</v>
       </c>
       <c r="B24" s="5" t="s">
-        <v>78</v>
+        <v>56</v>
       </c>
       <c r="C24" s="5" t="s">
-        <v>17</v>
-      </c>
-      <c r="D24" s="8" t="s">
-        <v>79</v>
+        <v>11</v>
+      </c>
+      <c r="D24" s="5" t="s">
+        <v>81</v>
       </c>
       <c r="E24" s="5">
-        <v>1953</v>
-      </c>
-      <c r="F24" s="8" t="s">
-        <v>72</v>
+        <v>1974</v>
+      </c>
+      <c r="F24" s="5">
+        <v>1990</v>
       </c>
       <c r="G24" s="5" t="s">
-        <v>18</v>
+        <v>59</v>
       </c>
       <c r="H24" s="6">
         <v>1</v>
       </c>
-      <c r="I24" s="8" t="s">
-        <v>73</v>
-      </c>
-      <c r="J24" s="8" t="s">
-        <v>74</v>
+      <c r="I24" s="5" t="s">
+        <v>57</v>
+      </c>
+      <c r="J24" s="5">
+        <v>9189</v>
       </c>
       <c r="K24" s="5" t="s">
         <v>16</v>
       </c>
       <c r="L24" s="5" t="s">
-        <v>14</v>
+        <v>24</v>
       </c>
     </row>
     <row r="25" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A25" s="5">
-        <v>1</v>
+        <v>18</v>
       </c>
       <c r="B25" s="5" t="s">
-        <v>56</v>
+        <v>63</v>
       </c>
       <c r="C25" s="5" t="s">
         <v>11</v>
       </c>
       <c r="D25" s="5" t="s">
-        <v>83</v>
+        <v>66</v>
       </c>
       <c r="E25" s="5">
-        <v>1974</v>
+        <v>1991</v>
       </c>
       <c r="F25" s="5">
-        <v>1990</v>
+        <v>2000</v>
       </c>
       <c r="G25" s="5" t="s">
-        <v>59</v>
-      </c>
-      <c r="H25" s="6">
-        <v>1</v>
+        <v>65</v>
+      </c>
+      <c r="H25" s="6" t="s">
+        <v>65</v>
       </c>
       <c r="I25" s="5" t="s">
-        <v>57</v>
+        <v>64</v>
       </c>
       <c r="J25" s="5">
-        <v>9189</v>
+        <v>8919</v>
       </c>
       <c r="K25" s="5" t="s">
         <v>16</v>
       </c>
       <c r="L25" s="5" t="s">
-        <v>24</v>
+        <v>14</v>
       </c>
     </row>
     <row r="26" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A26" s="5">
-        <v>18</v>
+        <v>19</v>
       </c>
       <c r="B26" s="5" t="s">
-        <v>63</v>
+        <v>67</v>
       </c>
       <c r="C26" s="5" t="s">
-        <v>11</v>
+        <v>17</v>
       </c>
       <c r="D26" s="5" t="s">
-        <v>66</v>
+        <v>68</v>
       </c>
       <c r="E26" s="5">
-        <v>1991</v>
+        <v>2007</v>
       </c>
       <c r="F26" s="5">
-        <v>2000</v>
+        <v>2016</v>
       </c>
       <c r="G26" s="5" t="s">
-        <v>65</v>
+        <v>69</v>
       </c>
       <c r="H26" s="6" t="s">
-        <v>65</v>
+        <v>69</v>
       </c>
       <c r="I26" s="5" t="s">
-        <v>64</v>
-      </c>
-      <c r="J26" s="5">
-        <v>8919</v>
+        <v>70</v>
+      </c>
+      <c r="J26" s="7">
+        <v>9136</v>
       </c>
       <c r="K26" s="5" t="s">
         <v>16</v>
       </c>
       <c r="L26" s="5" t="s">
-        <v>14</v>
-      </c>
-    </row>
-    <row r="27" spans="1:12" x14ac:dyDescent="0.2">
-      <c r="A27" s="5">
-        <v>19</v>
-      </c>
-      <c r="B27" s="5" t="s">
-        <v>67</v>
-      </c>
-      <c r="C27" s="5" t="s">
-        <v>17</v>
-      </c>
-      <c r="D27" s="5" t="s">
-        <v>68</v>
-      </c>
-      <c r="E27" s="5">
-        <v>2007</v>
-      </c>
-      <c r="F27" s="5">
-        <v>2016</v>
-      </c>
-      <c r="G27" s="5" t="s">
-        <v>69</v>
-      </c>
-      <c r="H27" s="6" t="s">
-        <v>69</v>
-      </c>
-      <c r="I27" s="5" t="s">
-        <v>70</v>
-      </c>
-      <c r="J27" s="7">
-        <v>9136</v>
-      </c>
-      <c r="K27" s="5" t="s">
-        <v>16</v>
-      </c>
-      <c r="L27" s="5" t="s">
         <v>71</v>
       </c>
     </row>
   </sheetData>
-  <sortState xmlns:xlrd2="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" ref="A2:L27">
-    <sortCondition ref="G2:G27"/>
-    <sortCondition ref="H2:H27"/>
+  <sortState xmlns:xlrd2="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" ref="A2:L26">
+    <sortCondition ref="G2:G26"/>
+    <sortCondition ref="H2:H26"/>
   </sortState>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
   <pageSetup paperSize="9" orientation="portrait" horizontalDpi="4294967292" verticalDpi="4294967292"/>

--- a/tabular/extension/srlv-refseqs.xlsx
+++ b/tabular/extension/srlv-refseqs.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/robertgifford/Projects/virus/comparative/Retrovirus/Lentivirus-GLUE/tabular/extension/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{A2CEA264-150F-6645-BE53-A53C5165AF11}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{FBAA6001-3A13-7F4D-B98A-668C189245C9}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="21580" yWindow="7660" windowWidth="28060" windowHeight="17540" tabRatio="500" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -770,7 +770,7 @@
   <dimension ref="A1:L26"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B12" sqref="A1:L26"/>
+      <selection activeCell="C20" sqref="C20"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>

--- a/tabular/extension/srlv-refseqs.xlsx
+++ b/tabular/extension/srlv-refseqs.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/robertgifford/Projects/virus/comparative/Retrovirus/Lentivirus-GLUE/tabular/extension/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{FBAA6001-3A13-7F4D-B98A-668C189245C9}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{6049D740-1FA7-3B4B-9586-4B5A5AE4041E}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="21580" yWindow="7660" windowWidth="28060" windowHeight="17540" tabRatio="500" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -29,7 +29,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="212" uniqueCount="84">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="211" uniqueCount="83">
   <si>
     <t>Number</t>
   </si>
@@ -275,9 +275,6 @@
   </si>
   <si>
     <t>USA</t>
-  </si>
-  <si>
-    <t>AB</t>
   </si>
   <si>
     <t>AY101611_U64439</t>
@@ -770,7 +767,7 @@
   <dimension ref="A1:L26"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="C20" sqref="C20"/>
+      <selection activeCell="H14" sqref="H14"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -1433,7 +1430,7 @@
         <v>26</v>
       </c>
       <c r="B18" s="1" t="s">
-        <v>83</v>
+        <v>82</v>
       </c>
       <c r="C18" s="5" t="s">
         <v>17</v>
@@ -1448,10 +1445,10 @@
         <v>1985</v>
       </c>
       <c r="G18" s="1" t="s">
-        <v>82</v>
-      </c>
-      <c r="H18" s="3" t="s">
-        <v>82</v>
+        <v>18</v>
+      </c>
+      <c r="H18" s="3">
+        <v>2</v>
       </c>
       <c r="I18" s="1" t="s">
         <v>80</v>

--- a/tabular/extension/srlv-refseqs.xlsx
+++ b/tabular/extension/srlv-refseqs.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/robertgifford/Projects/virus/comparative/Retrovirus/Lentivirus-GLUE/tabular/extension/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{6049D740-1FA7-3B4B-9586-4B5A5AE4041E}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{1235F263-82FE-6240-BDFD-18889FE4A633}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="21580" yWindow="7660" windowWidth="28060" windowHeight="17540" tabRatio="500" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -29,7 +29,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="211" uniqueCount="83">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="199" uniqueCount="82">
   <si>
     <t>Number</t>
   </si>
@@ -251,9 +251,6 @@
   </si>
   <si>
     <t>Sheep</t>
-  </si>
-  <si>
-    <t>Ovis aries</t>
   </si>
   <si>
     <t>M60610</t>
@@ -284,7 +281,7 @@
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="2" x14ac:knownFonts="1">
+  <fonts count="3" x14ac:knownFonts="1">
     <font>
       <sz val="12"/>
       <color theme="1"/>
@@ -299,6 +296,12 @@
       <name val="Calibri"/>
       <family val="2"/>
       <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="10"/>
+      <color theme="1"/>
+      <name val="Arial Unicode MS"/>
+      <family val="2"/>
     </font>
   </fonts>
   <fills count="4">
@@ -353,10 +356,10 @@
     <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="3" fontId="0" fillId="3" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="0" applyFill="1"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="0" applyFill="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -764,10 +767,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:L26"/>
+  <dimension ref="A1:L14"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="H14" sqref="H14"/>
+      <selection activeCell="A4" sqref="A4:XFD4"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -818,76 +821,76 @@
       </c>
     </row>
     <row r="2" spans="1:12" x14ac:dyDescent="0.2">
-      <c r="A2" s="5">
+      <c r="A2" s="1">
+        <v>26</v>
+      </c>
+      <c r="B2" s="1" t="s">
+        <v>81</v>
+      </c>
+      <c r="C2" s="5" t="s">
+        <v>17</v>
+      </c>
+      <c r="D2" s="1" t="s">
+        <v>80</v>
+      </c>
+      <c r="E2" s="1">
+        <v>1934</v>
+      </c>
+      <c r="F2" s="1">
+        <v>1985</v>
+      </c>
+      <c r="G2" s="1" t="s">
+        <v>18</v>
+      </c>
+      <c r="H2" s="3">
         <v>2</v>
       </c>
-      <c r="B2" s="5" t="s">
-        <v>44</v>
-      </c>
-      <c r="C2" s="5" t="s">
-        <v>62</v>
-      </c>
-      <c r="D2" s="5" t="s">
-        <v>62</v>
-      </c>
-      <c r="E2" s="5">
-        <v>1</v>
-      </c>
-      <c r="F2" s="5">
-        <v>1</v>
-      </c>
-      <c r="G2" s="5" t="s">
-        <v>18</v>
-      </c>
-      <c r="H2" s="6" t="s">
-        <v>18</v>
-      </c>
-      <c r="I2" s="5" t="s">
-        <v>62</v>
-      </c>
-      <c r="J2" s="5">
-        <v>9175</v>
-      </c>
-      <c r="K2" s="5" t="s">
+      <c r="I2" s="1" t="s">
+        <v>79</v>
+      </c>
+      <c r="J2" s="1">
+        <v>6530</v>
+      </c>
+      <c r="K2" s="1" t="s">
         <v>16</v>
       </c>
       <c r="L2" s="5" t="s">
-        <v>62</v>
+        <v>24</v>
       </c>
     </row>
     <row r="3" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A3" s="5">
-        <v>7</v>
+        <v>18</v>
       </c>
       <c r="B3" s="5" t="s">
-        <v>29</v>
+        <v>63</v>
       </c>
       <c r="C3" s="5" t="s">
         <v>11</v>
       </c>
       <c r="D3" s="5" t="s">
-        <v>26</v>
+        <v>66</v>
       </c>
       <c r="E3" s="5">
-        <v>1999</v>
+        <v>1991</v>
       </c>
       <c r="F3" s="5">
-        <v>2003</v>
+        <v>2000</v>
       </c>
       <c r="G3" s="5" t="s">
-        <v>18</v>
+        <v>65</v>
       </c>
       <c r="H3" s="6" t="s">
-        <v>18</v>
+        <v>65</v>
       </c>
       <c r="I3" s="5" t="s">
-        <v>30</v>
+        <v>64</v>
       </c>
       <c r="J3" s="5">
-        <v>1709</v>
+        <v>8919</v>
       </c>
       <c r="K3" s="5" t="s">
-        <v>28</v>
+        <v>16</v>
       </c>
       <c r="L3" s="5" t="s">
         <v>14</v>
@@ -895,10 +898,10 @@
     </row>
     <row r="4" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A4" s="5">
-        <v>9</v>
+        <v>6</v>
       </c>
       <c r="B4" s="5" t="s">
-        <v>33</v>
+        <v>25</v>
       </c>
       <c r="C4" s="5" t="s">
         <v>11</v>
@@ -915,17 +918,17 @@
       <c r="G4" s="5" t="s">
         <v>18</v>
       </c>
-      <c r="H4" s="6" t="s">
-        <v>18</v>
+      <c r="H4" s="6">
+        <v>4</v>
       </c>
       <c r="I4" s="5" t="s">
-        <v>34</v>
+        <v>27</v>
       </c>
       <c r="J4" s="5">
-        <v>1706</v>
+        <v>9023</v>
       </c>
       <c r="K4" s="5" t="s">
-        <v>28</v>
+        <v>16</v>
       </c>
       <c r="L4" s="5" t="s">
         <v>14</v>
@@ -933,60 +936,60 @@
     </row>
     <row r="5" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A5" s="5">
-        <v>14</v>
+        <v>19</v>
       </c>
       <c r="B5" s="5" t="s">
-        <v>39</v>
+        <v>67</v>
       </c>
       <c r="C5" s="5" t="s">
         <v>17</v>
       </c>
       <c r="D5" s="5" t="s">
-        <v>37</v>
+        <v>68</v>
       </c>
       <c r="E5" s="5">
-        <v>2008</v>
+        <v>2007</v>
       </c>
       <c r="F5" s="5">
-        <v>2009</v>
+        <v>2016</v>
       </c>
       <c r="G5" s="5" t="s">
-        <v>18</v>
+        <v>69</v>
       </c>
       <c r="H5" s="6" t="s">
-        <v>18</v>
-      </c>
-      <c r="I5" s="5">
-        <v>4007</v>
+        <v>69</v>
+      </c>
+      <c r="I5" s="5" t="s">
+        <v>70</v>
       </c>
       <c r="J5" s="5">
-        <v>1004</v>
+        <v>9136</v>
       </c>
       <c r="K5" s="5" t="s">
-        <v>20</v>
+        <v>16</v>
       </c>
       <c r="L5" s="5" t="s">
-        <v>14</v>
+        <v>71</v>
       </c>
     </row>
     <row r="6" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A6" s="5">
-        <v>15</v>
+        <v>2</v>
       </c>
       <c r="B6" s="5" t="s">
-        <v>38</v>
+        <v>44</v>
       </c>
       <c r="C6" s="5" t="s">
-        <v>17</v>
+        <v>62</v>
       </c>
       <c r="D6" s="5" t="s">
-        <v>37</v>
+        <v>62</v>
       </c>
       <c r="E6" s="5">
-        <v>2008</v>
+        <v>1</v>
       </c>
       <c r="F6" s="5">
-        <v>2009</v>
+        <v>1</v>
       </c>
       <c r="G6" s="5" t="s">
         <v>18</v>
@@ -994,315 +997,315 @@
       <c r="H6" s="6" t="s">
         <v>18</v>
       </c>
-      <c r="I6" s="5">
+      <c r="I6" s="5" t="s">
+        <v>62</v>
+      </c>
+      <c r="J6" s="5">
+        <v>9175</v>
+      </c>
+      <c r="K6" s="5" t="s">
         <v>16</v>
       </c>
-      <c r="J6" s="5">
-        <v>1004</v>
-      </c>
-      <c r="K6" s="5" t="s">
-        <v>20</v>
-      </c>
       <c r="L6" s="5" t="s">
-        <v>14</v>
+        <v>62</v>
       </c>
     </row>
     <row r="7" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A7" s="5">
-        <v>16</v>
+        <v>1</v>
       </c>
       <c r="B7" s="5" t="s">
-        <v>48</v>
+        <v>56</v>
       </c>
       <c r="C7" s="5" t="s">
         <v>11</v>
       </c>
       <c r="D7" s="5" t="s">
-        <v>45</v>
+        <v>80</v>
       </c>
       <c r="E7" s="5">
-        <v>2008</v>
+        <v>1974</v>
       </c>
       <c r="F7" s="5">
-        <v>2012</v>
+        <v>1990</v>
       </c>
       <c r="G7" s="5" t="s">
-        <v>18</v>
-      </c>
-      <c r="H7" s="6" t="s">
-        <v>18</v>
+        <v>59</v>
+      </c>
+      <c r="H7" s="6">
+        <v>1</v>
       </c>
       <c r="I7" s="5" t="s">
-        <v>49</v>
+        <v>57</v>
       </c>
       <c r="J7" s="5">
-        <v>1523</v>
+        <v>9189</v>
       </c>
       <c r="K7" s="5" t="s">
-        <v>23</v>
+        <v>16</v>
       </c>
       <c r="L7" s="5" t="s">
-        <v>14</v>
+        <v>24</v>
       </c>
     </row>
     <row r="8" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A8" s="5">
-        <v>17</v>
+        <v>3</v>
       </c>
       <c r="B8" s="5" t="s">
-        <v>46</v>
+        <v>50</v>
       </c>
       <c r="C8" s="5" t="s">
         <v>17</v>
       </c>
       <c r="D8" s="5" t="s">
-        <v>45</v>
+        <v>51</v>
       </c>
       <c r="E8" s="5">
-        <v>2011</v>
+        <v>1976</v>
       </c>
       <c r="F8" s="5">
-        <v>2012</v>
+        <v>1990</v>
       </c>
       <c r="G8" s="5" t="s">
         <v>18</v>
       </c>
-      <c r="H8" s="6" t="s">
-        <v>18</v>
+      <c r="H8" s="6">
+        <v>2</v>
       </c>
       <c r="I8" s="5" t="s">
-        <v>47</v>
+        <v>52</v>
       </c>
       <c r="J8" s="5">
-        <v>1061</v>
+        <v>9256</v>
       </c>
       <c r="K8" s="5" t="s">
-        <v>15</v>
+        <v>16</v>
       </c>
       <c r="L8" s="5" t="s">
-        <v>14</v>
+        <v>53</v>
       </c>
     </row>
     <row r="9" spans="1:12" x14ac:dyDescent="0.2">
-      <c r="A9" s="5">
-        <v>13</v>
-      </c>
-      <c r="B9" s="5" t="s">
-        <v>40</v>
+      <c r="A9" s="1">
+        <v>25</v>
+      </c>
+      <c r="B9" s="1" t="s">
+        <v>78</v>
       </c>
       <c r="C9" s="5" t="s">
-        <v>11</v>
+        <v>17</v>
       </c>
       <c r="D9" s="5" t="s">
-        <v>21</v>
+        <v>51</v>
       </c>
       <c r="E9" s="5">
-        <v>2010</v>
+        <v>1976</v>
       </c>
       <c r="F9" s="5">
-        <v>2010</v>
+        <v>1990</v>
       </c>
       <c r="G9" s="5" t="s">
         <v>18</v>
       </c>
       <c r="H9" s="6">
-        <v>11</v>
+        <v>2</v>
       </c>
       <c r="I9" s="5" t="s">
-        <v>41</v>
+        <v>52</v>
       </c>
       <c r="J9" s="5">
-        <v>648</v>
+        <v>9256</v>
       </c>
       <c r="K9" s="5" t="s">
-        <v>20</v>
+        <v>16</v>
       </c>
       <c r="L9" s="5" t="s">
-        <v>14</v>
+        <v>53</v>
       </c>
     </row>
     <row r="10" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A10" s="5">
-        <v>3</v>
+        <v>11</v>
       </c>
       <c r="B10" s="5" t="s">
-        <v>50</v>
+        <v>61</v>
       </c>
       <c r="C10" s="5" t="s">
         <v>17</v>
       </c>
-      <c r="D10" s="5" t="s">
-        <v>51</v>
+      <c r="D10" s="7" t="s">
+        <v>77</v>
       </c>
       <c r="E10" s="5">
-        <v>1976</v>
-      </c>
-      <c r="F10" s="5">
-        <v>1990</v>
+        <v>1949</v>
+      </c>
+      <c r="F10" s="7" t="s">
+        <v>72</v>
       </c>
       <c r="G10" s="5" t="s">
         <v>18</v>
       </c>
       <c r="H10" s="6">
-        <v>2</v>
-      </c>
-      <c r="I10" s="5" t="s">
-        <v>52</v>
+        <v>1</v>
+      </c>
+      <c r="I10" s="7" t="s">
+        <v>73</v>
       </c>
       <c r="J10" s="5">
-        <v>9256</v>
+        <v>9202</v>
       </c>
       <c r="K10" s="5" t="s">
         <v>16</v>
       </c>
       <c r="L10" s="5" t="s">
-        <v>53</v>
+        <v>14</v>
       </c>
     </row>
     <row r="11" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A11" s="5">
-        <v>4</v>
-      </c>
-      <c r="B11" s="5" t="s">
-        <v>25</v>
+        <v>20</v>
+      </c>
+      <c r="B11" s="7" t="s">
+        <v>74</v>
       </c>
       <c r="C11" s="5" t="s">
-        <v>62</v>
-      </c>
-      <c r="D11" s="5" t="s">
-        <v>62</v>
+        <v>17</v>
+      </c>
+      <c r="D11" s="7" t="s">
+        <v>77</v>
       </c>
       <c r="E11" s="5">
+        <v>1949</v>
+      </c>
+      <c r="F11" s="7" t="s">
+        <v>72</v>
+      </c>
+      <c r="G11" s="5" t="s">
+        <v>18</v>
+      </c>
+      <c r="H11" s="6">
         <v>1</v>
       </c>
-      <c r="F11" s="5">
-        <v>1</v>
-      </c>
-      <c r="G11" s="5" t="s">
-        <v>18</v>
-      </c>
-      <c r="H11" s="6">
-        <v>2</v>
-      </c>
-      <c r="I11" s="5" t="s">
-        <v>62</v>
+      <c r="I11" s="7" t="s">
+        <v>73</v>
       </c>
       <c r="J11" s="5">
-        <v>9023</v>
+        <v>9225</v>
       </c>
       <c r="K11" s="5" t="s">
         <v>16</v>
       </c>
       <c r="L11" s="5" t="s">
-        <v>62</v>
+        <v>14</v>
       </c>
     </row>
     <row r="12" spans="1:12" x14ac:dyDescent="0.2">
-      <c r="A12" s="1">
-        <v>25</v>
-      </c>
-      <c r="B12" s="1" t="s">
-        <v>79</v>
+      <c r="A12" s="5">
+        <v>22</v>
+      </c>
+      <c r="B12" s="5" t="s">
+        <v>61</v>
       </c>
       <c r="C12" s="5" t="s">
         <v>17</v>
       </c>
-      <c r="D12" s="5" t="s">
-        <v>51</v>
+      <c r="D12" s="7" t="s">
+        <v>77</v>
       </c>
       <c r="E12" s="5">
-        <v>1976</v>
-      </c>
-      <c r="F12" s="5">
-        <v>1990</v>
+        <v>1951</v>
+      </c>
+      <c r="F12" s="7" t="s">
+        <v>72</v>
       </c>
       <c r="G12" s="5" t="s">
         <v>18</v>
       </c>
       <c r="H12" s="6">
-        <v>2</v>
-      </c>
-      <c r="I12" s="5" t="s">
-        <v>52</v>
+        <v>1</v>
+      </c>
+      <c r="I12" s="7" t="s">
+        <v>73</v>
       </c>
       <c r="J12" s="5">
-        <v>9256</v>
+        <v>9202</v>
       </c>
       <c r="K12" s="5" t="s">
         <v>16</v>
       </c>
       <c r="L12" s="5" t="s">
-        <v>53</v>
-      </c>
-    </row>
-    <row r="13" spans="1:12" x14ac:dyDescent="0.2">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="13" spans="1:12" ht="17" x14ac:dyDescent="0.25">
       <c r="A13" s="5">
-        <v>5</v>
+        <v>23</v>
       </c>
       <c r="B13" s="5" t="s">
-        <v>31</v>
+        <v>75</v>
       </c>
       <c r="C13" s="5" t="s">
-        <v>11</v>
-      </c>
-      <c r="D13" s="5" t="s">
-        <v>26</v>
+        <v>17</v>
+      </c>
+      <c r="D13" s="7" t="s">
+        <v>77</v>
       </c>
       <c r="E13" s="5">
-        <v>1999</v>
-      </c>
-      <c r="F13" s="5">
-        <v>2003</v>
+        <v>1952</v>
+      </c>
+      <c r="F13" s="7" t="s">
+        <v>72</v>
       </c>
       <c r="G13" s="5" t="s">
         <v>18</v>
       </c>
       <c r="H13" s="6">
-        <v>3</v>
-      </c>
-      <c r="I13" s="5" t="s">
-        <v>32</v>
-      </c>
-      <c r="J13" s="5">
-        <v>1703</v>
+        <v>1</v>
+      </c>
+      <c r="I13" s="7" t="s">
+        <v>73</v>
+      </c>
+      <c r="J13" s="8">
+        <v>9202</v>
       </c>
       <c r="K13" s="5" t="s">
-        <v>28</v>
+        <v>16</v>
       </c>
       <c r="L13" s="5" t="s">
         <v>14</v>
       </c>
     </row>
-    <row r="14" spans="1:12" x14ac:dyDescent="0.2">
+    <row r="14" spans="1:12" ht="17" x14ac:dyDescent="0.25">
       <c r="A14" s="5">
-        <v>6</v>
+        <v>24</v>
       </c>
       <c r="B14" s="5" t="s">
-        <v>25</v>
+        <v>76</v>
       </c>
       <c r="C14" s="5" t="s">
-        <v>11</v>
-      </c>
-      <c r="D14" s="5" t="s">
-        <v>26</v>
+        <v>17</v>
+      </c>
+      <c r="D14" s="7" t="s">
+        <v>77</v>
       </c>
       <c r="E14" s="5">
-        <v>1999</v>
-      </c>
-      <c r="F14" s="5">
-        <v>2003</v>
+        <v>1953</v>
+      </c>
+      <c r="F14" s="7" t="s">
+        <v>72</v>
       </c>
       <c r="G14" s="5" t="s">
         <v>18</v>
       </c>
       <c r="H14" s="6">
-        <v>4</v>
-      </c>
-      <c r="I14" s="5" t="s">
-        <v>27</v>
-      </c>
-      <c r="J14" s="5">
-        <v>9023</v>
+        <v>1</v>
+      </c>
+      <c r="I14" s="7" t="s">
+        <v>73</v>
+      </c>
+      <c r="J14" s="8">
+        <v>9203</v>
       </c>
       <c r="K14" s="5" t="s">
         <v>16</v>
@@ -1311,466 +1314,9 @@
         <v>14</v>
       </c>
     </row>
-    <row r="15" spans="1:12" x14ac:dyDescent="0.2">
-      <c r="A15" s="5">
-        <v>8</v>
-      </c>
-      <c r="B15" s="5" t="s">
-        <v>60</v>
-      </c>
-      <c r="C15" s="5" t="s">
-        <v>17</v>
-      </c>
-      <c r="D15" s="5" t="s">
-        <v>12</v>
-      </c>
-      <c r="E15" s="5">
-        <v>1994</v>
-      </c>
-      <c r="F15" s="5">
-        <v>1995</v>
-      </c>
-      <c r="G15" s="5" t="s">
-        <v>18</v>
-      </c>
-      <c r="H15" s="6">
-        <v>6</v>
-      </c>
-      <c r="I15" s="5">
-        <v>676</v>
-      </c>
-      <c r="J15" s="5">
-        <v>475</v>
-      </c>
-      <c r="K15" s="5" t="s">
-        <v>15</v>
-      </c>
-      <c r="L15" s="5" t="s">
-        <v>14</v>
-      </c>
-    </row>
-    <row r="16" spans="1:12" x14ac:dyDescent="0.2">
-      <c r="A16" s="5">
-        <v>10</v>
-      </c>
-      <c r="B16" s="5" t="s">
-        <v>35</v>
-      </c>
-      <c r="C16" s="5" t="s">
-        <v>11</v>
-      </c>
-      <c r="D16" s="5" t="s">
-        <v>21</v>
-      </c>
-      <c r="E16" s="5">
-        <v>2006</v>
-      </c>
-      <c r="F16" s="5">
-        <v>2007</v>
-      </c>
-      <c r="G16" s="5" t="s">
-        <v>18</v>
-      </c>
-      <c r="H16" s="6">
-        <v>8</v>
-      </c>
-      <c r="I16" s="5" t="s">
-        <v>36</v>
-      </c>
-      <c r="J16" s="5">
-        <v>1305</v>
-      </c>
-      <c r="K16" s="5" t="s">
-        <v>20</v>
-      </c>
-      <c r="L16" s="5" t="s">
-        <v>14</v>
-      </c>
-    </row>
-    <row r="17" spans="1:12" x14ac:dyDescent="0.2">
-      <c r="A17" s="5">
-        <v>12</v>
-      </c>
-      <c r="B17" s="5" t="s">
-        <v>42</v>
-      </c>
-      <c r="C17" s="5" t="s">
-        <v>17</v>
-      </c>
-      <c r="D17" s="5" t="s">
-        <v>21</v>
-      </c>
-      <c r="E17" s="5">
-        <v>2010</v>
-      </c>
-      <c r="F17" s="5">
-        <v>2011</v>
-      </c>
-      <c r="G17" s="5" t="s">
-        <v>18</v>
-      </c>
-      <c r="H17" s="6">
-        <v>9</v>
-      </c>
-      <c r="I17" s="5" t="s">
-        <v>43</v>
-      </c>
-      <c r="J17" s="5">
-        <v>660</v>
-      </c>
-      <c r="K17" s="5" t="s">
-        <v>20</v>
-      </c>
-      <c r="L17" s="5" t="s">
-        <v>14</v>
-      </c>
-    </row>
-    <row r="18" spans="1:12" x14ac:dyDescent="0.2">
-      <c r="A18" s="1">
-        <v>26</v>
-      </c>
-      <c r="B18" s="1" t="s">
-        <v>82</v>
-      </c>
-      <c r="C18" s="5" t="s">
-        <v>17</v>
-      </c>
-      <c r="D18" s="1" t="s">
-        <v>81</v>
-      </c>
-      <c r="E18" s="1">
-        <v>1934</v>
-      </c>
-      <c r="F18" s="1">
-        <v>1985</v>
-      </c>
-      <c r="G18" s="1" t="s">
-        <v>18</v>
-      </c>
-      <c r="H18" s="3">
-        <v>2</v>
-      </c>
-      <c r="I18" s="1" t="s">
-        <v>80</v>
-      </c>
-      <c r="J18" s="1">
-        <v>6530</v>
-      </c>
-      <c r="K18" s="1" t="s">
-        <v>16</v>
-      </c>
-      <c r="L18" s="5" t="s">
-        <v>24</v>
-      </c>
-    </row>
-    <row r="19" spans="1:12" x14ac:dyDescent="0.2">
-      <c r="A19" s="5">
-        <v>11</v>
-      </c>
-      <c r="B19" s="5" t="s">
-        <v>61</v>
-      </c>
-      <c r="C19" s="5" t="s">
-        <v>17</v>
-      </c>
-      <c r="D19" s="8" t="s">
-        <v>78</v>
-      </c>
-      <c r="E19" s="5">
-        <v>1949</v>
-      </c>
-      <c r="F19" s="8" t="s">
-        <v>72</v>
-      </c>
-      <c r="G19" s="5" t="s">
-        <v>18</v>
-      </c>
-      <c r="H19" s="6">
-        <v>1</v>
-      </c>
-      <c r="I19" s="8" t="s">
-        <v>73</v>
-      </c>
-      <c r="J19" s="8" t="s">
-        <v>74</v>
-      </c>
-      <c r="K19" s="5" t="s">
-        <v>16</v>
-      </c>
-      <c r="L19" s="5" t="s">
-        <v>14</v>
-      </c>
-    </row>
-    <row r="20" spans="1:12" x14ac:dyDescent="0.2">
-      <c r="A20" s="5">
-        <v>20</v>
-      </c>
-      <c r="B20" s="8" t="s">
-        <v>75</v>
-      </c>
-      <c r="C20" s="5" t="s">
-        <v>17</v>
-      </c>
-      <c r="D20" s="8" t="s">
-        <v>78</v>
-      </c>
-      <c r="E20" s="5">
-        <v>1949</v>
-      </c>
-      <c r="F20" s="8" t="s">
-        <v>72</v>
-      </c>
-      <c r="G20" s="5" t="s">
-        <v>18</v>
-      </c>
-      <c r="H20" s="6">
-        <v>1</v>
-      </c>
-      <c r="I20" s="8" t="s">
-        <v>73</v>
-      </c>
-      <c r="J20" s="8" t="s">
-        <v>74</v>
-      </c>
-      <c r="K20" s="5" t="s">
-        <v>16</v>
-      </c>
-      <c r="L20" s="5" t="s">
-        <v>14</v>
-      </c>
-    </row>
-    <row r="21" spans="1:12" x14ac:dyDescent="0.2">
-      <c r="A21" s="5">
-        <v>22</v>
-      </c>
-      <c r="B21" s="5" t="s">
-        <v>61</v>
-      </c>
-      <c r="C21" s="5" t="s">
-        <v>17</v>
-      </c>
-      <c r="D21" s="8" t="s">
-        <v>78</v>
-      </c>
-      <c r="E21" s="5">
-        <v>1951</v>
-      </c>
-      <c r="F21" s="8" t="s">
-        <v>72</v>
-      </c>
-      <c r="G21" s="5" t="s">
-        <v>18</v>
-      </c>
-      <c r="H21" s="6">
-        <v>1</v>
-      </c>
-      <c r="I21" s="8" t="s">
-        <v>73</v>
-      </c>
-      <c r="J21" s="8" t="s">
-        <v>74</v>
-      </c>
-      <c r="K21" s="5" t="s">
-        <v>16</v>
-      </c>
-      <c r="L21" s="5" t="s">
-        <v>14</v>
-      </c>
-    </row>
-    <row r="22" spans="1:12" x14ac:dyDescent="0.2">
-      <c r="A22" s="5">
-        <v>23</v>
-      </c>
-      <c r="B22" s="5" t="s">
-        <v>76</v>
-      </c>
-      <c r="C22" s="5" t="s">
-        <v>17</v>
-      </c>
-      <c r="D22" s="8" t="s">
-        <v>78</v>
-      </c>
-      <c r="E22" s="5">
-        <v>1952</v>
-      </c>
-      <c r="F22" s="8" t="s">
-        <v>72</v>
-      </c>
-      <c r="G22" s="5" t="s">
-        <v>18</v>
-      </c>
-      <c r="H22" s="6">
-        <v>1</v>
-      </c>
-      <c r="I22" s="8" t="s">
-        <v>73</v>
-      </c>
-      <c r="J22" s="8" t="s">
-        <v>74</v>
-      </c>
-      <c r="K22" s="5" t="s">
-        <v>16</v>
-      </c>
-      <c r="L22" s="5" t="s">
-        <v>14</v>
-      </c>
-    </row>
-    <row r="23" spans="1:12" x14ac:dyDescent="0.2">
-      <c r="A23" s="5">
-        <v>24</v>
-      </c>
-      <c r="B23" s="5" t="s">
-        <v>77</v>
-      </c>
-      <c r="C23" s="5" t="s">
-        <v>17</v>
-      </c>
-      <c r="D23" s="8" t="s">
-        <v>78</v>
-      </c>
-      <c r="E23" s="5">
-        <v>1953</v>
-      </c>
-      <c r="F23" s="8" t="s">
-        <v>72</v>
-      </c>
-      <c r="G23" s="5" t="s">
-        <v>18</v>
-      </c>
-      <c r="H23" s="6">
-        <v>1</v>
-      </c>
-      <c r="I23" s="8" t="s">
-        <v>73</v>
-      </c>
-      <c r="J23" s="8" t="s">
-        <v>74</v>
-      </c>
-      <c r="K23" s="5" t="s">
-        <v>16</v>
-      </c>
-      <c r="L23" s="5" t="s">
-        <v>14</v>
-      </c>
-    </row>
-    <row r="24" spans="1:12" x14ac:dyDescent="0.2">
-      <c r="A24" s="5">
-        <v>1</v>
-      </c>
-      <c r="B24" s="5" t="s">
-        <v>56</v>
-      </c>
-      <c r="C24" s="5" t="s">
-        <v>11</v>
-      </c>
-      <c r="D24" s="5" t="s">
-        <v>81</v>
-      </c>
-      <c r="E24" s="5">
-        <v>1974</v>
-      </c>
-      <c r="F24" s="5">
-        <v>1990</v>
-      </c>
-      <c r="G24" s="5" t="s">
-        <v>59</v>
-      </c>
-      <c r="H24" s="6">
-        <v>1</v>
-      </c>
-      <c r="I24" s="5" t="s">
-        <v>57</v>
-      </c>
-      <c r="J24" s="5">
-        <v>9189</v>
-      </c>
-      <c r="K24" s="5" t="s">
-        <v>16</v>
-      </c>
-      <c r="L24" s="5" t="s">
-        <v>24</v>
-      </c>
-    </row>
-    <row r="25" spans="1:12" x14ac:dyDescent="0.2">
-      <c r="A25" s="5">
-        <v>18</v>
-      </c>
-      <c r="B25" s="5" t="s">
-        <v>63</v>
-      </c>
-      <c r="C25" s="5" t="s">
-        <v>11</v>
-      </c>
-      <c r="D25" s="5" t="s">
-        <v>66</v>
-      </c>
-      <c r="E25" s="5">
-        <v>1991</v>
-      </c>
-      <c r="F25" s="5">
-        <v>2000</v>
-      </c>
-      <c r="G25" s="5" t="s">
-        <v>65</v>
-      </c>
-      <c r="H25" s="6" t="s">
-        <v>65</v>
-      </c>
-      <c r="I25" s="5" t="s">
-        <v>64</v>
-      </c>
-      <c r="J25" s="5">
-        <v>8919</v>
-      </c>
-      <c r="K25" s="5" t="s">
-        <v>16</v>
-      </c>
-      <c r="L25" s="5" t="s">
-        <v>14</v>
-      </c>
-    </row>
-    <row r="26" spans="1:12" x14ac:dyDescent="0.2">
-      <c r="A26" s="5">
-        <v>19</v>
-      </c>
-      <c r="B26" s="5" t="s">
-        <v>67</v>
-      </c>
-      <c r="C26" s="5" t="s">
-        <v>17</v>
-      </c>
-      <c r="D26" s="5" t="s">
-        <v>68</v>
-      </c>
-      <c r="E26" s="5">
-        <v>2007</v>
-      </c>
-      <c r="F26" s="5">
-        <v>2016</v>
-      </c>
-      <c r="G26" s="5" t="s">
-        <v>69</v>
-      </c>
-      <c r="H26" s="6" t="s">
-        <v>69</v>
-      </c>
-      <c r="I26" s="5" t="s">
-        <v>70</v>
-      </c>
-      <c r="J26" s="7">
-        <v>9136</v>
-      </c>
-      <c r="K26" s="5" t="s">
-        <v>16</v>
-      </c>
-      <c r="L26" s="5" t="s">
-        <v>71</v>
-      </c>
-    </row>
   </sheetData>
-  <sortState xmlns:xlrd2="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" ref="A2:L26">
-    <sortCondition ref="G2:G26"/>
-    <sortCondition ref="H2:H26"/>
+  <sortState xmlns:xlrd2="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" ref="A2:L14">
+    <sortCondition ref="J2:J14"/>
   </sortState>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
   <pageSetup paperSize="9" orientation="portrait" horizontalDpi="4294967292" verticalDpi="4294967292"/>
@@ -1780,10 +1326,10 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
-  <dimension ref="A1:L1"/>
+  <dimension ref="A1:L12"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="L1" sqref="A1:L1"/>
+      <selection activeCell="A2" sqref="A2:L12"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -1826,6 +1372,424 @@
         <v>24</v>
       </c>
     </row>
+    <row r="2" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="A2" s="5">
+        <v>8</v>
+      </c>
+      <c r="B2" s="5" t="s">
+        <v>60</v>
+      </c>
+      <c r="C2" s="5" t="s">
+        <v>17</v>
+      </c>
+      <c r="D2" s="5" t="s">
+        <v>12</v>
+      </c>
+      <c r="E2" s="5">
+        <v>1994</v>
+      </c>
+      <c r="F2" s="5">
+        <v>1995</v>
+      </c>
+      <c r="G2" s="5" t="s">
+        <v>18</v>
+      </c>
+      <c r="H2" s="6">
+        <v>6</v>
+      </c>
+      <c r="I2" s="5">
+        <v>676</v>
+      </c>
+      <c r="J2" s="5">
+        <v>475</v>
+      </c>
+      <c r="K2" s="5" t="s">
+        <v>15</v>
+      </c>
+      <c r="L2" s="5" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="3" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="A3" s="5">
+        <v>13</v>
+      </c>
+      <c r="B3" s="5" t="s">
+        <v>40</v>
+      </c>
+      <c r="C3" s="5" t="s">
+        <v>11</v>
+      </c>
+      <c r="D3" s="5" t="s">
+        <v>21</v>
+      </c>
+      <c r="E3" s="5">
+        <v>2010</v>
+      </c>
+      <c r="F3" s="5">
+        <v>2010</v>
+      </c>
+      <c r="G3" s="5" t="s">
+        <v>18</v>
+      </c>
+      <c r="H3" s="6">
+        <v>11</v>
+      </c>
+      <c r="I3" s="5" t="s">
+        <v>41</v>
+      </c>
+      <c r="J3" s="5">
+        <v>648</v>
+      </c>
+      <c r="K3" s="5" t="s">
+        <v>20</v>
+      </c>
+      <c r="L3" s="5" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="4" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="A4" s="5">
+        <v>12</v>
+      </c>
+      <c r="B4" s="5" t="s">
+        <v>42</v>
+      </c>
+      <c r="C4" s="5" t="s">
+        <v>17</v>
+      </c>
+      <c r="D4" s="5" t="s">
+        <v>21</v>
+      </c>
+      <c r="E4" s="5">
+        <v>2010</v>
+      </c>
+      <c r="F4" s="5">
+        <v>2011</v>
+      </c>
+      <c r="G4" s="5" t="s">
+        <v>18</v>
+      </c>
+      <c r="H4" s="6">
+        <v>9</v>
+      </c>
+      <c r="I4" s="5" t="s">
+        <v>43</v>
+      </c>
+      <c r="J4" s="5">
+        <v>660</v>
+      </c>
+      <c r="K4" s="5" t="s">
+        <v>20</v>
+      </c>
+      <c r="L4" s="5" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="5" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="A5" s="5">
+        <v>14</v>
+      </c>
+      <c r="B5" s="5" t="s">
+        <v>39</v>
+      </c>
+      <c r="C5" s="5" t="s">
+        <v>17</v>
+      </c>
+      <c r="D5" s="5" t="s">
+        <v>37</v>
+      </c>
+      <c r="E5" s="5">
+        <v>2008</v>
+      </c>
+      <c r="F5" s="5">
+        <v>2009</v>
+      </c>
+      <c r="G5" s="5" t="s">
+        <v>18</v>
+      </c>
+      <c r="H5" s="6" t="s">
+        <v>18</v>
+      </c>
+      <c r="I5" s="5">
+        <v>4007</v>
+      </c>
+      <c r="J5" s="5">
+        <v>1004</v>
+      </c>
+      <c r="K5" s="5" t="s">
+        <v>20</v>
+      </c>
+      <c r="L5" s="5" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="6" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="A6" s="5">
+        <v>15</v>
+      </c>
+      <c r="B6" s="5" t="s">
+        <v>38</v>
+      </c>
+      <c r="C6" s="5" t="s">
+        <v>17</v>
+      </c>
+      <c r="D6" s="5" t="s">
+        <v>37</v>
+      </c>
+      <c r="E6" s="5">
+        <v>2008</v>
+      </c>
+      <c r="F6" s="5">
+        <v>2009</v>
+      </c>
+      <c r="G6" s="5" t="s">
+        <v>18</v>
+      </c>
+      <c r="H6" s="6" t="s">
+        <v>18</v>
+      </c>
+      <c r="I6" s="5">
+        <v>16</v>
+      </c>
+      <c r="J6" s="5">
+        <v>1004</v>
+      </c>
+      <c r="K6" s="5" t="s">
+        <v>20</v>
+      </c>
+      <c r="L6" s="5" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="7" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="A7" s="5">
+        <v>17</v>
+      </c>
+      <c r="B7" s="5" t="s">
+        <v>46</v>
+      </c>
+      <c r="C7" s="5" t="s">
+        <v>17</v>
+      </c>
+      <c r="D7" s="5" t="s">
+        <v>45</v>
+      </c>
+      <c r="E7" s="5">
+        <v>2011</v>
+      </c>
+      <c r="F7" s="5">
+        <v>2012</v>
+      </c>
+      <c r="G7" s="5" t="s">
+        <v>18</v>
+      </c>
+      <c r="H7" s="6" t="s">
+        <v>18</v>
+      </c>
+      <c r="I7" s="5" t="s">
+        <v>47</v>
+      </c>
+      <c r="J7" s="5">
+        <v>1061</v>
+      </c>
+      <c r="K7" s="5" t="s">
+        <v>15</v>
+      </c>
+      <c r="L7" s="5" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="8" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="A8" s="5">
+        <v>10</v>
+      </c>
+      <c r="B8" s="5" t="s">
+        <v>35</v>
+      </c>
+      <c r="C8" s="5" t="s">
+        <v>11</v>
+      </c>
+      <c r="D8" s="5" t="s">
+        <v>21</v>
+      </c>
+      <c r="E8" s="5">
+        <v>2006</v>
+      </c>
+      <c r="F8" s="5">
+        <v>2007</v>
+      </c>
+      <c r="G8" s="5" t="s">
+        <v>18</v>
+      </c>
+      <c r="H8" s="6">
+        <v>8</v>
+      </c>
+      <c r="I8" s="5" t="s">
+        <v>36</v>
+      </c>
+      <c r="J8" s="5">
+        <v>1305</v>
+      </c>
+      <c r="K8" s="5" t="s">
+        <v>20</v>
+      </c>
+      <c r="L8" s="5" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="9" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="A9" s="5">
+        <v>16</v>
+      </c>
+      <c r="B9" s="5" t="s">
+        <v>48</v>
+      </c>
+      <c r="C9" s="5" t="s">
+        <v>11</v>
+      </c>
+      <c r="D9" s="5" t="s">
+        <v>45</v>
+      </c>
+      <c r="E9" s="5">
+        <v>2008</v>
+      </c>
+      <c r="F9" s="5">
+        <v>2012</v>
+      </c>
+      <c r="G9" s="5" t="s">
+        <v>18</v>
+      </c>
+      <c r="H9" s="6" t="s">
+        <v>18</v>
+      </c>
+      <c r="I9" s="5" t="s">
+        <v>49</v>
+      </c>
+      <c r="J9" s="5">
+        <v>1523</v>
+      </c>
+      <c r="K9" s="5" t="s">
+        <v>23</v>
+      </c>
+      <c r="L9" s="5" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="10" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="A10" s="5">
+        <v>5</v>
+      </c>
+      <c r="B10" s="5" t="s">
+        <v>31</v>
+      </c>
+      <c r="C10" s="5" t="s">
+        <v>11</v>
+      </c>
+      <c r="D10" s="5" t="s">
+        <v>26</v>
+      </c>
+      <c r="E10" s="5">
+        <v>1999</v>
+      </c>
+      <c r="F10" s="5">
+        <v>2003</v>
+      </c>
+      <c r="G10" s="5" t="s">
+        <v>18</v>
+      </c>
+      <c r="H10" s="6">
+        <v>3</v>
+      </c>
+      <c r="I10" s="5" t="s">
+        <v>32</v>
+      </c>
+      <c r="J10" s="5">
+        <v>1703</v>
+      </c>
+      <c r="K10" s="5" t="s">
+        <v>28</v>
+      </c>
+      <c r="L10" s="5" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="11" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="A11" s="5">
+        <v>9</v>
+      </c>
+      <c r="B11" s="5" t="s">
+        <v>33</v>
+      </c>
+      <c r="C11" s="5" t="s">
+        <v>11</v>
+      </c>
+      <c r="D11" s="5" t="s">
+        <v>26</v>
+      </c>
+      <c r="E11" s="5">
+        <v>1999</v>
+      </c>
+      <c r="F11" s="5">
+        <v>2003</v>
+      </c>
+      <c r="G11" s="5" t="s">
+        <v>18</v>
+      </c>
+      <c r="H11" s="6" t="s">
+        <v>18</v>
+      </c>
+      <c r="I11" s="5" t="s">
+        <v>34</v>
+      </c>
+      <c r="J11" s="5">
+        <v>1706</v>
+      </c>
+      <c r="K11" s="5" t="s">
+        <v>28</v>
+      </c>
+      <c r="L11" s="5" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="12" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="A12" s="5">
+        <v>7</v>
+      </c>
+      <c r="B12" s="5" t="s">
+        <v>29</v>
+      </c>
+      <c r="C12" s="5" t="s">
+        <v>11</v>
+      </c>
+      <c r="D12" s="5" t="s">
+        <v>26</v>
+      </c>
+      <c r="E12" s="5">
+        <v>1999</v>
+      </c>
+      <c r="F12" s="5">
+        <v>2003</v>
+      </c>
+      <c r="G12" s="5" t="s">
+        <v>18</v>
+      </c>
+      <c r="H12" s="6" t="s">
+        <v>18</v>
+      </c>
+      <c r="I12" s="5" t="s">
+        <v>30</v>
+      </c>
+      <c r="J12" s="5">
+        <v>1709</v>
+      </c>
+      <c r="K12" s="5" t="s">
+        <v>28</v>
+      </c>
+      <c r="L12" s="5" t="s">
+        <v>14</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>

--- a/tabular/extension/srlv-refseqs.xlsx
+++ b/tabular/extension/srlv-refseqs.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/robertgifford/Projects/virus/comparative/Retrovirus/Lentivirus-GLUE/tabular/extension/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{1235F263-82FE-6240-BDFD-18889FE4A633}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{4D1D7B2E-248F-B748-AC80-B0E5F43CEC72}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="21580" yWindow="7660" windowWidth="28060" windowHeight="17540" tabRatio="500" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -770,7 +770,7 @@
   <dimension ref="A1:L14"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="A4" sqref="A4:XFD4"/>
+      <selection activeCell="B7" sqref="B7"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>

--- a/tabular/extension/srlv-refseqs.xlsx
+++ b/tabular/extension/srlv-refseqs.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/robertgifford/Projects/virus/comparative/Retrovirus/Lentivirus-GLUE/tabular/extension/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{4D1D7B2E-248F-B748-AC80-B0E5F43CEC72}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{BA71CA4C-7AA3-DA41-8243-626F8BF76A85}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="21580" yWindow="7660" windowWidth="28060" windowHeight="17540" tabRatio="500" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -29,7 +29,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="199" uniqueCount="82">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="287" uniqueCount="86">
   <si>
     <t>Number</t>
   </si>
@@ -275,6 +275,18 @@
   </si>
   <si>
     <t>AY101611_U64439</t>
+  </si>
+  <si>
+    <t>S51392</t>
+  </si>
+  <si>
+    <t>United Kingdon</t>
+  </si>
+  <si>
+    <t>EV1</t>
+  </si>
+  <si>
+    <t>NK</t>
   </si>
 </sst>
 </file>
@@ -767,10 +779,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:L14"/>
+  <dimension ref="A1:L26"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B7" sqref="B7"/>
+      <selection activeCell="H26" sqref="H26"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -881,7 +893,7 @@
         <v>65</v>
       </c>
       <c r="H3" s="6" t="s">
-        <v>65</v>
+        <v>85</v>
       </c>
       <c r="I3" s="5" t="s">
         <v>64</v>
@@ -957,7 +969,7 @@
         <v>69</v>
       </c>
       <c r="H5" s="6" t="s">
-        <v>69</v>
+        <v>85</v>
       </c>
       <c r="I5" s="5" t="s">
         <v>70</v>
@@ -995,7 +1007,7 @@
         <v>18</v>
       </c>
       <c r="H6" s="6" t="s">
-        <v>18</v>
+        <v>85</v>
       </c>
       <c r="I6" s="5" t="s">
         <v>62</v>
@@ -1311,6 +1323,462 @@
         <v>16</v>
       </c>
       <c r="L14" s="5" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="15" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="A15" s="5">
+        <v>8</v>
+      </c>
+      <c r="B15" s="5" t="s">
+        <v>60</v>
+      </c>
+      <c r="C15" s="5" t="s">
+        <v>17</v>
+      </c>
+      <c r="D15" s="5" t="s">
+        <v>12</v>
+      </c>
+      <c r="E15" s="5">
+        <v>1994</v>
+      </c>
+      <c r="F15" s="5">
+        <v>1995</v>
+      </c>
+      <c r="G15" s="5" t="s">
+        <v>18</v>
+      </c>
+      <c r="H15" s="6">
+        <v>6</v>
+      </c>
+      <c r="I15" s="5">
+        <v>676</v>
+      </c>
+      <c r="J15" s="5">
+        <v>475</v>
+      </c>
+      <c r="K15" s="5" t="s">
+        <v>15</v>
+      </c>
+      <c r="L15" s="5" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="16" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="A16" s="5">
+        <v>13</v>
+      </c>
+      <c r="B16" s="5" t="s">
+        <v>40</v>
+      </c>
+      <c r="C16" s="5" t="s">
+        <v>11</v>
+      </c>
+      <c r="D16" s="5" t="s">
+        <v>21</v>
+      </c>
+      <c r="E16" s="5">
+        <v>2010</v>
+      </c>
+      <c r="F16" s="5">
+        <v>2010</v>
+      </c>
+      <c r="G16" s="5" t="s">
+        <v>18</v>
+      </c>
+      <c r="H16" s="6">
+        <v>11</v>
+      </c>
+      <c r="I16" s="5" t="s">
+        <v>41</v>
+      </c>
+      <c r="J16" s="5">
+        <v>648</v>
+      </c>
+      <c r="K16" s="5" t="s">
+        <v>20</v>
+      </c>
+      <c r="L16" s="5" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="17" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="A17" s="5">
+        <v>12</v>
+      </c>
+      <c r="B17" s="5" t="s">
+        <v>42</v>
+      </c>
+      <c r="C17" s="5" t="s">
+        <v>17</v>
+      </c>
+      <c r="D17" s="5" t="s">
+        <v>21</v>
+      </c>
+      <c r="E17" s="5">
+        <v>2010</v>
+      </c>
+      <c r="F17" s="5">
+        <v>2011</v>
+      </c>
+      <c r="G17" s="5" t="s">
+        <v>18</v>
+      </c>
+      <c r="H17" s="6">
+        <v>9</v>
+      </c>
+      <c r="I17" s="5" t="s">
+        <v>43</v>
+      </c>
+      <c r="J17" s="5">
+        <v>660</v>
+      </c>
+      <c r="K17" s="5" t="s">
+        <v>20</v>
+      </c>
+      <c r="L17" s="5" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="18" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="A18" s="5">
+        <v>14</v>
+      </c>
+      <c r="B18" s="5" t="s">
+        <v>39</v>
+      </c>
+      <c r="C18" s="5" t="s">
+        <v>17</v>
+      </c>
+      <c r="D18" s="5" t="s">
+        <v>37</v>
+      </c>
+      <c r="E18" s="5">
+        <v>2008</v>
+      </c>
+      <c r="F18" s="5">
+        <v>2009</v>
+      </c>
+      <c r="G18" s="5" t="s">
+        <v>18</v>
+      </c>
+      <c r="H18" s="6" t="s">
+        <v>85</v>
+      </c>
+      <c r="I18" s="5">
+        <v>4007</v>
+      </c>
+      <c r="J18" s="5">
+        <v>1004</v>
+      </c>
+      <c r="K18" s="5" t="s">
+        <v>20</v>
+      </c>
+      <c r="L18" s="5" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="19" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="A19" s="5">
+        <v>15</v>
+      </c>
+      <c r="B19" s="5" t="s">
+        <v>38</v>
+      </c>
+      <c r="C19" s="5" t="s">
+        <v>17</v>
+      </c>
+      <c r="D19" s="5" t="s">
+        <v>37</v>
+      </c>
+      <c r="E19" s="5">
+        <v>2008</v>
+      </c>
+      <c r="F19" s="5">
+        <v>2009</v>
+      </c>
+      <c r="G19" s="5" t="s">
+        <v>18</v>
+      </c>
+      <c r="H19" s="6" t="s">
+        <v>85</v>
+      </c>
+      <c r="I19" s="5">
+        <v>16</v>
+      </c>
+      <c r="J19" s="5">
+        <v>1004</v>
+      </c>
+      <c r="K19" s="5" t="s">
+        <v>20</v>
+      </c>
+      <c r="L19" s="5" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="20" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="A20" s="5">
+        <v>17</v>
+      </c>
+      <c r="B20" s="5" t="s">
+        <v>46</v>
+      </c>
+      <c r="C20" s="5" t="s">
+        <v>17</v>
+      </c>
+      <c r="D20" s="5" t="s">
+        <v>45</v>
+      </c>
+      <c r="E20" s="5">
+        <v>2011</v>
+      </c>
+      <c r="F20" s="5">
+        <v>2012</v>
+      </c>
+      <c r="G20" s="5" t="s">
+        <v>18</v>
+      </c>
+      <c r="H20" s="6" t="s">
+        <v>85</v>
+      </c>
+      <c r="I20" s="5" t="s">
+        <v>47</v>
+      </c>
+      <c r="J20" s="5">
+        <v>1061</v>
+      </c>
+      <c r="K20" s="5" t="s">
+        <v>15</v>
+      </c>
+      <c r="L20" s="5" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="21" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="A21" s="5">
+        <v>10</v>
+      </c>
+      <c r="B21" s="5" t="s">
+        <v>35</v>
+      </c>
+      <c r="C21" s="5" t="s">
+        <v>11</v>
+      </c>
+      <c r="D21" s="5" t="s">
+        <v>21</v>
+      </c>
+      <c r="E21" s="5">
+        <v>2006</v>
+      </c>
+      <c r="F21" s="5">
+        <v>2007</v>
+      </c>
+      <c r="G21" s="5" t="s">
+        <v>18</v>
+      </c>
+      <c r="H21" s="6">
+        <v>8</v>
+      </c>
+      <c r="I21" s="5" t="s">
+        <v>36</v>
+      </c>
+      <c r="J21" s="5">
+        <v>1305</v>
+      </c>
+      <c r="K21" s="5" t="s">
+        <v>20</v>
+      </c>
+      <c r="L21" s="5" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="22" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="A22" s="5">
+        <v>16</v>
+      </c>
+      <c r="B22" s="5" t="s">
+        <v>48</v>
+      </c>
+      <c r="C22" s="5" t="s">
+        <v>11</v>
+      </c>
+      <c r="D22" s="5" t="s">
+        <v>45</v>
+      </c>
+      <c r="E22" s="5">
+        <v>2008</v>
+      </c>
+      <c r="F22" s="5">
+        <v>2012</v>
+      </c>
+      <c r="G22" s="5" t="s">
+        <v>18</v>
+      </c>
+      <c r="H22" s="6" t="s">
+        <v>85</v>
+      </c>
+      <c r="I22" s="5" t="s">
+        <v>49</v>
+      </c>
+      <c r="J22" s="5">
+        <v>1523</v>
+      </c>
+      <c r="K22" s="5" t="s">
+        <v>23</v>
+      </c>
+      <c r="L22" s="5" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="23" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="A23" s="5">
+        <v>5</v>
+      </c>
+      <c r="B23" s="5" t="s">
+        <v>31</v>
+      </c>
+      <c r="C23" s="5" t="s">
+        <v>11</v>
+      </c>
+      <c r="D23" s="5" t="s">
+        <v>26</v>
+      </c>
+      <c r="E23" s="5">
+        <v>1999</v>
+      </c>
+      <c r="F23" s="5">
+        <v>2003</v>
+      </c>
+      <c r="G23" s="5" t="s">
+        <v>18</v>
+      </c>
+      <c r="H23" s="6">
+        <v>3</v>
+      </c>
+      <c r="I23" s="5" t="s">
+        <v>32</v>
+      </c>
+      <c r="J23" s="5">
+        <v>1703</v>
+      </c>
+      <c r="K23" s="5" t="s">
+        <v>28</v>
+      </c>
+      <c r="L23" s="5" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="24" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="A24" s="5">
+        <v>9</v>
+      </c>
+      <c r="B24" s="5" t="s">
+        <v>33</v>
+      </c>
+      <c r="C24" s="5" t="s">
+        <v>11</v>
+      </c>
+      <c r="D24" s="5" t="s">
+        <v>26</v>
+      </c>
+      <c r="E24" s="5">
+        <v>1999</v>
+      </c>
+      <c r="F24" s="5">
+        <v>2003</v>
+      </c>
+      <c r="G24" s="5" t="s">
+        <v>18</v>
+      </c>
+      <c r="H24" s="6" t="s">
+        <v>85</v>
+      </c>
+      <c r="I24" s="5" t="s">
+        <v>34</v>
+      </c>
+      <c r="J24" s="5">
+        <v>1706</v>
+      </c>
+      <c r="K24" s="5" t="s">
+        <v>28</v>
+      </c>
+      <c r="L24" s="5" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="25" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="A25" s="5">
+        <v>7</v>
+      </c>
+      <c r="B25" s="5" t="s">
+        <v>29</v>
+      </c>
+      <c r="C25" s="5" t="s">
+        <v>11</v>
+      </c>
+      <c r="D25" s="5" t="s">
+        <v>26</v>
+      </c>
+      <c r="E25" s="5">
+        <v>1999</v>
+      </c>
+      <c r="F25" s="5">
+        <v>2003</v>
+      </c>
+      <c r="G25" s="5" t="s">
+        <v>18</v>
+      </c>
+      <c r="H25" s="6" t="s">
+        <v>85</v>
+      </c>
+      <c r="I25" s="5" t="s">
+        <v>30</v>
+      </c>
+      <c r="J25" s="5">
+        <v>1709</v>
+      </c>
+      <c r="K25" s="5" t="s">
+        <v>28</v>
+      </c>
+      <c r="L25" s="5" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="26" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="A26" s="1">
+        <v>231</v>
+      </c>
+      <c r="B26" s="1" t="s">
+        <v>82</v>
+      </c>
+      <c r="C26" s="1" t="s">
+        <v>17</v>
+      </c>
+      <c r="D26" s="1" t="s">
+        <v>83</v>
+      </c>
+      <c r="E26" s="1">
+        <v>1984</v>
+      </c>
+      <c r="F26" s="1">
+        <v>1991</v>
+      </c>
+      <c r="G26" s="1" t="s">
+        <v>18</v>
+      </c>
+      <c r="H26" s="6" t="s">
+        <v>85</v>
+      </c>
+      <c r="I26" s="1" t="s">
+        <v>84</v>
+      </c>
+      <c r="J26" s="1">
+        <v>9203</v>
+      </c>
+      <c r="K26" s="1" t="s">
+        <v>16</v>
+      </c>
+      <c r="L26" s="1" t="s">
         <v>14</v>
       </c>
     </row>
@@ -1329,7 +1797,7 @@
   <dimension ref="A1:L12"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="A2" sqref="A2:L12"/>
+      <selection activeCell="L12" sqref="A1:L12"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>

--- a/tabular/extension/srlv-refseqs.xlsx
+++ b/tabular/extension/srlv-refseqs.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/robertgifford/Projects/virus/comparative/Retrovirus/Lentivirus-GLUE/tabular/extension/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{BA71CA4C-7AA3-DA41-8243-626F8BF76A85}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{E0BAEEB2-8771-3F49-A6F3-F60C942F9E16}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="21580" yWindow="7660" windowWidth="28060" windowHeight="17540" tabRatio="500" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="11600" yWindow="10440" windowWidth="28060" windowHeight="17540" tabRatio="500" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="SRLV_curated.csv" sheetId="1" r:id="rId1"/>
@@ -29,7 +29,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="287" uniqueCount="86">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="289" uniqueCount="90">
   <si>
     <t>Number</t>
   </si>
@@ -287,6 +287,18 @@
   </si>
   <si>
     <t>NK</t>
+  </si>
+  <si>
+    <t>DQ632733</t>
+  </si>
+  <si>
+    <t>Spain</t>
+  </si>
+  <si>
+    <t>D</t>
+  </si>
+  <si>
+    <t>Ov-1</t>
   </si>
 </sst>
 </file>
@@ -779,10 +791,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:L26"/>
+  <dimension ref="A1:L27"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="H26" sqref="H26"/>
+      <selection activeCell="L27" sqref="A1:L27"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -1462,8 +1474,8 @@
       <c r="G18" s="5" t="s">
         <v>18</v>
       </c>
-      <c r="H18" s="6" t="s">
-        <v>85</v>
+      <c r="H18" s="6">
+        <v>12</v>
       </c>
       <c r="I18" s="5">
         <v>4007</v>
@@ -1500,8 +1512,8 @@
       <c r="G19" s="5" t="s">
         <v>18</v>
       </c>
-      <c r="H19" s="6" t="s">
-        <v>85</v>
+      <c r="H19" s="6">
+        <v>13</v>
       </c>
       <c r="I19" s="5">
         <v>16</v>
@@ -1538,8 +1550,8 @@
       <c r="G20" s="5" t="s">
         <v>18</v>
       </c>
-      <c r="H20" s="6" t="s">
-        <v>85</v>
+      <c r="H20" s="6">
+        <v>15</v>
       </c>
       <c r="I20" s="5" t="s">
         <v>47</v>
@@ -1614,8 +1626,8 @@
       <c r="G22" s="5" t="s">
         <v>18</v>
       </c>
-      <c r="H22" s="6" t="s">
-        <v>85</v>
+      <c r="H22" s="6">
+        <v>14</v>
       </c>
       <c r="I22" s="5" t="s">
         <v>49</v>
@@ -1690,8 +1702,8 @@
       <c r="G24" s="5" t="s">
         <v>18</v>
       </c>
-      <c r="H24" s="6" t="s">
-        <v>85</v>
+      <c r="H24" s="6">
+        <v>7</v>
       </c>
       <c r="I24" s="5" t="s">
         <v>34</v>
@@ -1728,8 +1740,8 @@
       <c r="G25" s="5" t="s">
         <v>18</v>
       </c>
-      <c r="H25" s="6" t="s">
-        <v>85</v>
+      <c r="H25" s="6">
+        <v>5</v>
       </c>
       <c r="I25" s="5" t="s">
         <v>30</v>
@@ -1779,6 +1791,44 @@
         <v>16</v>
       </c>
       <c r="L26" s="1" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="27" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="A27" s="1">
+        <v>143</v>
+      </c>
+      <c r="B27" s="1" t="s">
+        <v>86</v>
+      </c>
+      <c r="C27" s="1" t="s">
+        <v>17</v>
+      </c>
+      <c r="D27" s="1" t="s">
+        <v>87</v>
+      </c>
+      <c r="E27" s="1">
+        <v>2005</v>
+      </c>
+      <c r="F27" s="1">
+        <v>2006</v>
+      </c>
+      <c r="G27" s="1" t="s">
+        <v>88</v>
+      </c>
+      <c r="H27" s="1" t="s">
+        <v>85</v>
+      </c>
+      <c r="I27" s="1" t="s">
+        <v>89</v>
+      </c>
+      <c r="J27" s="1">
+        <v>1130</v>
+      </c>
+      <c r="K27" s="1" t="s">
+        <v>15</v>
+      </c>
+      <c r="L27" s="1" t="s">
         <v>14</v>
       </c>
     </row>

--- a/tabular/extension/srlv-refseqs.xlsx
+++ b/tabular/extension/srlv-refseqs.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/robertgifford/Projects/virus/comparative/Retrovirus/Lentivirus-GLUE/tabular/extension/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{E0BAEEB2-8771-3F49-A6F3-F60C942F9E16}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{AE33F5D8-58A6-1143-B33E-99813EF2742C}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="11600" yWindow="10440" windowWidth="28060" windowHeight="17540" tabRatio="500" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -29,10 +29,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="289" uniqueCount="90">
-  <si>
-    <t>Number</t>
-  </si>
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="287" uniqueCount="89">
   <si>
     <t>Accession</t>
   </si>
@@ -322,13 +319,14 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <sz val="10"/>
+      <sz val="12"/>
       <color theme="1"/>
-      <name val="Arial Unicode MS"/>
+      <name val="Calibri"/>
       <family val="2"/>
+      <scheme val="minor"/>
     </font>
   </fonts>
-  <fills count="4">
+  <fills count="5">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -347,6 +345,12 @@
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.79998168889431442"/>
+        <bgColor indexed="65"/>
+      </patternFill>
+    </fill>
   </fills>
   <borders count="1">
     <border>
@@ -357,10 +361,11 @@
       <diagonal/>
     </border>
   </borders>
-  <cellStyleXfs count="1">
+  <cellStyleXfs count="2">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="2" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="9">
+  <cellXfs count="8">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="left"/>
@@ -380,12 +385,12 @@
     <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="0" applyFill="1"/>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="2" fillId="4" borderId="0" xfId="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
   </cellXfs>
-  <cellStyles count="1">
+  <cellStyles count="2">
+    <cellStyle name="20% - Accent2" xfId="1" builtinId="34"/>
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
   <dxfs count="0"/>
@@ -791,22 +796,21 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:L27"/>
+  <dimension ref="A1:K27"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="L27" sqref="A1:L27"/>
+      <selection activeCell="K27" sqref="A1:K27"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
   <cols>
-    <col min="1" max="1" width="10.83203125" style="1"/>
-    <col min="2" max="2" width="21.83203125" style="1" customWidth="1"/>
-    <col min="3" max="7" width="10.83203125" style="1"/>
-    <col min="8" max="8" width="10.83203125" style="3"/>
-    <col min="9" max="12" width="10.83203125" style="1"/>
+    <col min="1" max="1" width="21.83203125" style="1" customWidth="1"/>
+    <col min="2" max="6" width="10.83203125" style="1"/>
+    <col min="7" max="7" width="10.83203125" style="3"/>
+    <col min="8" max="11" width="10.83203125" style="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:12" x14ac:dyDescent="0.2">
+    <row r="1" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A1" s="2" t="s">
         <v>0</v>
       </c>
@@ -825,11 +829,11 @@
       <c r="F1" s="2" t="s">
         <v>5</v>
       </c>
-      <c r="G1" s="2" t="s">
+      <c r="G1" s="4" t="s">
+        <v>57</v>
+      </c>
+      <c r="H1" s="2" t="s">
         <v>6</v>
-      </c>
-      <c r="H1" s="4" t="s">
-        <v>58</v>
       </c>
       <c r="I1" s="2" t="s">
         <v>7</v>
@@ -840,1001 +844,920 @@
       <c r="K1" s="2" t="s">
         <v>9</v>
       </c>
-      <c r="L1" s="2" t="s">
+    </row>
+    <row r="2" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="A2" s="1" t="s">
+        <v>80</v>
+      </c>
+      <c r="B2" s="5" t="s">
+        <v>16</v>
+      </c>
+      <c r="C2" s="1" t="s">
+        <v>79</v>
+      </c>
+      <c r="D2" s="1">
+        <v>1934</v>
+      </c>
+      <c r="E2" s="1">
+        <v>1985</v>
+      </c>
+      <c r="F2" s="1" t="s">
+        <v>17</v>
+      </c>
+      <c r="G2" s="3">
+        <v>2</v>
+      </c>
+      <c r="H2" s="1" t="s">
+        <v>78</v>
+      </c>
+      <c r="I2" s="1">
+        <v>6530</v>
+      </c>
+      <c r="J2" s="1" t="s">
+        <v>15</v>
+      </c>
+      <c r="K2" s="7" t="s">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="3" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="A3" s="5" t="s">
+        <v>62</v>
+      </c>
+      <c r="B3" s="5" t="s">
         <v>10</v>
       </c>
-    </row>
-    <row r="2" spans="1:12" x14ac:dyDescent="0.2">
-      <c r="A2" s="1">
+      <c r="C3" s="5" t="s">
+        <v>65</v>
+      </c>
+      <c r="D3" s="5">
+        <v>1991</v>
+      </c>
+      <c r="E3" s="5">
+        <v>2000</v>
+      </c>
+      <c r="F3" s="5" t="s">
+        <v>64</v>
+      </c>
+      <c r="G3" s="6" t="s">
+        <v>84</v>
+      </c>
+      <c r="H3" s="5" t="s">
+        <v>63</v>
+      </c>
+      <c r="I3" s="5">
+        <v>8919</v>
+      </c>
+      <c r="J3" s="5" t="s">
+        <v>15</v>
+      </c>
+      <c r="K3" s="7" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="4" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="A4" s="5" t="s">
+        <v>24</v>
+      </c>
+      <c r="B4" s="5" t="s">
+        <v>10</v>
+      </c>
+      <c r="C4" s="5" t="s">
+        <v>25</v>
+      </c>
+      <c r="D4" s="5">
+        <v>1999</v>
+      </c>
+      <c r="E4" s="5">
+        <v>2003</v>
+      </c>
+      <c r="F4" s="5" t="s">
+        <v>17</v>
+      </c>
+      <c r="G4" s="6">
+        <v>4</v>
+      </c>
+      <c r="H4" s="5" t="s">
         <v>26</v>
       </c>
-      <c r="B2" s="1" t="s">
-        <v>81</v>
-      </c>
-      <c r="C2" s="5" t="s">
-        <v>17</v>
-      </c>
-      <c r="D2" s="1" t="s">
-        <v>80</v>
-      </c>
-      <c r="E2" s="1">
-        <v>1934</v>
-      </c>
-      <c r="F2" s="1">
-        <v>1985</v>
-      </c>
-      <c r="G2" s="1" t="s">
-        <v>18</v>
-      </c>
-      <c r="H2" s="3">
-        <v>2</v>
-      </c>
-      <c r="I2" s="1" t="s">
-        <v>79</v>
-      </c>
-      <c r="J2" s="1">
-        <v>6530</v>
-      </c>
-      <c r="K2" s="1" t="s">
-        <v>16</v>
-      </c>
-      <c r="L2" s="5" t="s">
-        <v>24</v>
-      </c>
-    </row>
-    <row r="3" spans="1:12" x14ac:dyDescent="0.2">
-      <c r="A3" s="5">
-        <v>18</v>
-      </c>
-      <c r="B3" s="5" t="s">
-        <v>63</v>
-      </c>
-      <c r="C3" s="5" t="s">
-        <v>11</v>
-      </c>
-      <c r="D3" s="5" t="s">
+      <c r="I4" s="5">
+        <v>9023</v>
+      </c>
+      <c r="J4" s="5" t="s">
+        <v>15</v>
+      </c>
+      <c r="K4" s="7" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="5" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="A5" s="5" t="s">
         <v>66</v>
       </c>
-      <c r="E3" s="5">
-        <v>1991</v>
-      </c>
-      <c r="F3" s="5">
-        <v>2000</v>
-      </c>
-      <c r="G3" s="5" t="s">
-        <v>65</v>
-      </c>
-      <c r="H3" s="6" t="s">
-        <v>85</v>
-      </c>
-      <c r="I3" s="5" t="s">
-        <v>64</v>
-      </c>
-      <c r="J3" s="5">
-        <v>8919</v>
-      </c>
-      <c r="K3" s="5" t="s">
-        <v>16</v>
-      </c>
-      <c r="L3" s="5" t="s">
-        <v>14</v>
-      </c>
-    </row>
-    <row r="4" spans="1:12" x14ac:dyDescent="0.2">
-      <c r="A4" s="5">
-        <v>6</v>
-      </c>
-      <c r="B4" s="5" t="s">
-        <v>25</v>
-      </c>
-      <c r="C4" s="5" t="s">
-        <v>11</v>
-      </c>
-      <c r="D4" s="5" t="s">
-        <v>26</v>
-      </c>
-      <c r="E4" s="5">
-        <v>1999</v>
-      </c>
-      <c r="F4" s="5">
-        <v>2003</v>
-      </c>
-      <c r="G4" s="5" t="s">
-        <v>18</v>
-      </c>
-      <c r="H4" s="6">
-        <v>4</v>
-      </c>
-      <c r="I4" s="5" t="s">
-        <v>27</v>
-      </c>
-      <c r="J4" s="5">
-        <v>9023</v>
-      </c>
-      <c r="K4" s="5" t="s">
-        <v>16</v>
-      </c>
-      <c r="L4" s="5" t="s">
-        <v>14</v>
-      </c>
-    </row>
-    <row r="5" spans="1:12" x14ac:dyDescent="0.2">
-      <c r="A5" s="5">
-        <v>19</v>
-      </c>
       <c r="B5" s="5" t="s">
+        <v>16</v>
+      </c>
+      <c r="C5" s="5" t="s">
         <v>67</v>
       </c>
-      <c r="C5" s="5" t="s">
-        <v>17</v>
-      </c>
-      <c r="D5" s="5" t="s">
+      <c r="D5" s="5">
+        <v>2007</v>
+      </c>
+      <c r="E5" s="5">
+        <v>2016</v>
+      </c>
+      <c r="F5" s="5" t="s">
         <v>68</v>
       </c>
-      <c r="E5" s="5">
-        <v>2007</v>
-      </c>
-      <c r="F5" s="5">
-        <v>2016</v>
-      </c>
-      <c r="G5" s="5" t="s">
+      <c r="G5" s="6" t="s">
+        <v>84</v>
+      </c>
+      <c r="H5" s="5" t="s">
         <v>69</v>
       </c>
-      <c r="H5" s="6" t="s">
-        <v>85</v>
-      </c>
-      <c r="I5" s="5" t="s">
+      <c r="I5" s="5">
+        <v>9136</v>
+      </c>
+      <c r="J5" s="5" t="s">
+        <v>15</v>
+      </c>
+      <c r="K5" s="7" t="s">
         <v>70</v>
       </c>
-      <c r="J5" s="5">
-        <v>9136</v>
-      </c>
-      <c r="K5" s="5" t="s">
-        <v>16</v>
-      </c>
-      <c r="L5" s="5" t="s">
-        <v>71</v>
-      </c>
-    </row>
-    <row r="6" spans="1:12" x14ac:dyDescent="0.2">
-      <c r="A6" s="5">
-        <v>2</v>
+    </row>
+    <row r="6" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="A6" s="5" t="s">
+        <v>43</v>
       </c>
       <c r="B6" s="5" t="s">
-        <v>44</v>
+        <v>61</v>
       </c>
       <c r="C6" s="5" t="s">
-        <v>62</v>
-      </c>
-      <c r="D6" s="5" t="s">
-        <v>62</v>
+        <v>61</v>
+      </c>
+      <c r="D6" s="5">
+        <v>1</v>
       </c>
       <c r="E6" s="5">
         <v>1</v>
       </c>
-      <c r="F6" s="5">
+      <c r="F6" s="5" t="s">
+        <v>17</v>
+      </c>
+      <c r="G6" s="6" t="s">
+        <v>84</v>
+      </c>
+      <c r="H6" s="5" t="s">
+        <v>61</v>
+      </c>
+      <c r="I6" s="5">
+        <v>9175</v>
+      </c>
+      <c r="J6" s="5" t="s">
+        <v>15</v>
+      </c>
+      <c r="K6" s="7" t="s">
+        <v>61</v>
+      </c>
+    </row>
+    <row r="7" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="A7" s="5" t="s">
+        <v>55</v>
+      </c>
+      <c r="B7" s="5" t="s">
+        <v>10</v>
+      </c>
+      <c r="C7" s="5" t="s">
+        <v>79</v>
+      </c>
+      <c r="D7" s="5">
+        <v>1974</v>
+      </c>
+      <c r="E7" s="5">
+        <v>1990</v>
+      </c>
+      <c r="F7" s="5" t="s">
+        <v>58</v>
+      </c>
+      <c r="G7" s="6">
         <v>1</v>
       </c>
-      <c r="G6" s="5" t="s">
-        <v>18</v>
-      </c>
-      <c r="H6" s="6" t="s">
-        <v>85</v>
-      </c>
-      <c r="I6" s="5" t="s">
-        <v>62</v>
-      </c>
-      <c r="J6" s="5">
-        <v>9175</v>
-      </c>
-      <c r="K6" s="5" t="s">
-        <v>16</v>
-      </c>
-      <c r="L6" s="5" t="s">
-        <v>62</v>
-      </c>
-    </row>
-    <row r="7" spans="1:12" x14ac:dyDescent="0.2">
-      <c r="A7" s="5">
+      <c r="H7" s="5" t="s">
+        <v>56</v>
+      </c>
+      <c r="I7" s="5">
+        <v>9189</v>
+      </c>
+      <c r="J7" s="5" t="s">
+        <v>15</v>
+      </c>
+      <c r="K7" s="7" t="s">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="8" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="A8" s="5" t="s">
+        <v>49</v>
+      </c>
+      <c r="B8" s="5" t="s">
+        <v>16</v>
+      </c>
+      <c r="C8" s="5" t="s">
+        <v>50</v>
+      </c>
+      <c r="D8" s="5">
+        <v>1976</v>
+      </c>
+      <c r="E8" s="5">
+        <v>1990</v>
+      </c>
+      <c r="F8" s="5" t="s">
+        <v>17</v>
+      </c>
+      <c r="G8" s="6">
         <v>1</v>
       </c>
-      <c r="B7" s="5" t="s">
-        <v>56</v>
-      </c>
-      <c r="C7" s="5" t="s">
+      <c r="H8" s="5" t="s">
+        <v>51</v>
+      </c>
+      <c r="I8" s="5">
+        <v>9256</v>
+      </c>
+      <c r="J8" s="5" t="s">
+        <v>15</v>
+      </c>
+      <c r="K8" s="7" t="s">
+        <v>52</v>
+      </c>
+    </row>
+    <row r="9" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="A9" s="5" t="s">
+        <v>77</v>
+      </c>
+      <c r="B9" s="5" t="s">
+        <v>16</v>
+      </c>
+      <c r="C9" s="5" t="s">
+        <v>50</v>
+      </c>
+      <c r="D9" s="5">
+        <v>1976</v>
+      </c>
+      <c r="E9" s="5">
+        <v>1990</v>
+      </c>
+      <c r="F9" s="5" t="s">
+        <v>17</v>
+      </c>
+      <c r="G9" s="6">
+        <v>1</v>
+      </c>
+      <c r="H9" s="5" t="s">
+        <v>51</v>
+      </c>
+      <c r="I9" s="5">
+        <v>9256</v>
+      </c>
+      <c r="J9" s="5" t="s">
+        <v>15</v>
+      </c>
+      <c r="K9" s="7" t="s">
+        <v>52</v>
+      </c>
+    </row>
+    <row r="10" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="A10" s="5" t="s">
+        <v>60</v>
+      </c>
+      <c r="B10" s="5" t="s">
+        <v>16</v>
+      </c>
+      <c r="C10" s="5" t="s">
+        <v>76</v>
+      </c>
+      <c r="D10" s="5">
+        <v>1949</v>
+      </c>
+      <c r="E10" s="5" t="s">
+        <v>71</v>
+      </c>
+      <c r="F10" s="5" t="s">
+        <v>17</v>
+      </c>
+      <c r="G10" s="6">
+        <v>1</v>
+      </c>
+      <c r="H10" s="5" t="s">
+        <v>72</v>
+      </c>
+      <c r="I10" s="5">
+        <v>9202</v>
+      </c>
+      <c r="J10" s="5" t="s">
+        <v>15</v>
+      </c>
+      <c r="K10" s="7" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="11" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="A11" s="5" t="s">
+        <v>73</v>
+      </c>
+      <c r="B11" s="5" t="s">
+        <v>16</v>
+      </c>
+      <c r="C11" s="5" t="s">
+        <v>76</v>
+      </c>
+      <c r="D11" s="5">
+        <v>1949</v>
+      </c>
+      <c r="E11" s="5" t="s">
+        <v>71</v>
+      </c>
+      <c r="F11" s="5" t="s">
+        <v>17</v>
+      </c>
+      <c r="G11" s="6">
+        <v>1</v>
+      </c>
+      <c r="H11" s="5" t="s">
+        <v>72</v>
+      </c>
+      <c r="I11" s="5">
+        <v>9225</v>
+      </c>
+      <c r="J11" s="5" t="s">
+        <v>15</v>
+      </c>
+      <c r="K11" s="7" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="12" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="A12" s="5" t="s">
+        <v>60</v>
+      </c>
+      <c r="B12" s="5" t="s">
+        <v>16</v>
+      </c>
+      <c r="C12" s="5" t="s">
+        <v>76</v>
+      </c>
+      <c r="D12" s="5">
+        <v>1951</v>
+      </c>
+      <c r="E12" s="5" t="s">
+        <v>71</v>
+      </c>
+      <c r="F12" s="5" t="s">
+        <v>17</v>
+      </c>
+      <c r="G12" s="6">
+        <v>1</v>
+      </c>
+      <c r="H12" s="5" t="s">
+        <v>72</v>
+      </c>
+      <c r="I12" s="5">
+        <v>9202</v>
+      </c>
+      <c r="J12" s="5" t="s">
+        <v>15</v>
+      </c>
+      <c r="K12" s="7" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="13" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="A13" s="5" t="s">
+        <v>74</v>
+      </c>
+      <c r="B13" s="5" t="s">
+        <v>16</v>
+      </c>
+      <c r="C13" s="5" t="s">
+        <v>76</v>
+      </c>
+      <c r="D13" s="5">
+        <v>1952</v>
+      </c>
+      <c r="E13" s="5" t="s">
+        <v>71</v>
+      </c>
+      <c r="F13" s="5" t="s">
+        <v>17</v>
+      </c>
+      <c r="G13" s="6">
+        <v>1</v>
+      </c>
+      <c r="H13" s="5" t="s">
+        <v>72</v>
+      </c>
+      <c r="I13" s="5">
+        <v>9202</v>
+      </c>
+      <c r="J13" s="5" t="s">
+        <v>15</v>
+      </c>
+      <c r="K13" s="7" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="14" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="A14" s="5" t="s">
+        <v>75</v>
+      </c>
+      <c r="B14" s="5" t="s">
+        <v>16</v>
+      </c>
+      <c r="C14" s="5" t="s">
+        <v>76</v>
+      </c>
+      <c r="D14" s="5">
+        <v>1953</v>
+      </c>
+      <c r="E14" s="5" t="s">
+        <v>71</v>
+      </c>
+      <c r="F14" s="5" t="s">
+        <v>17</v>
+      </c>
+      <c r="G14" s="6">
+        <v>1</v>
+      </c>
+      <c r="H14" s="5" t="s">
+        <v>72</v>
+      </c>
+      <c r="I14" s="5">
+        <v>9203</v>
+      </c>
+      <c r="J14" s="5" t="s">
+        <v>15</v>
+      </c>
+      <c r="K14" s="7" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="15" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="A15" s="5" t="s">
+        <v>59</v>
+      </c>
+      <c r="B15" s="5" t="s">
+        <v>16</v>
+      </c>
+      <c r="C15" s="5" t="s">
         <v>11</v>
       </c>
-      <c r="D7" s="5" t="s">
-        <v>80</v>
-      </c>
-      <c r="E7" s="5">
-        <v>1974</v>
-      </c>
-      <c r="F7" s="5">
-        <v>1990</v>
-      </c>
-      <c r="G7" s="5" t="s">
-        <v>59</v>
-      </c>
-      <c r="H7" s="6">
-        <v>1</v>
-      </c>
-      <c r="I7" s="5" t="s">
-        <v>57</v>
-      </c>
-      <c r="J7" s="5">
-        <v>9189</v>
-      </c>
-      <c r="K7" s="5" t="s">
-        <v>16</v>
-      </c>
-      <c r="L7" s="5" t="s">
-        <v>24</v>
-      </c>
-    </row>
-    <row r="8" spans="1:12" x14ac:dyDescent="0.2">
-      <c r="A8" s="5">
-        <v>3</v>
-      </c>
-      <c r="B8" s="5" t="s">
-        <v>50</v>
-      </c>
-      <c r="C8" s="5" t="s">
-        <v>17</v>
-      </c>
-      <c r="D8" s="5" t="s">
-        <v>51</v>
-      </c>
-      <c r="E8" s="5">
-        <v>1976</v>
-      </c>
-      <c r="F8" s="5">
-        <v>1990</v>
-      </c>
-      <c r="G8" s="5" t="s">
-        <v>18</v>
-      </c>
-      <c r="H8" s="6">
-        <v>2</v>
-      </c>
-      <c r="I8" s="5" t="s">
-        <v>52</v>
-      </c>
-      <c r="J8" s="5">
-        <v>9256</v>
-      </c>
-      <c r="K8" s="5" t="s">
-        <v>16</v>
-      </c>
-      <c r="L8" s="5" t="s">
-        <v>53</v>
-      </c>
-    </row>
-    <row r="9" spans="1:12" x14ac:dyDescent="0.2">
-      <c r="A9" s="1">
-        <v>25</v>
-      </c>
-      <c r="B9" s="1" t="s">
-        <v>78</v>
-      </c>
-      <c r="C9" s="5" t="s">
-        <v>17</v>
-      </c>
-      <c r="D9" s="5" t="s">
-        <v>51</v>
-      </c>
-      <c r="E9" s="5">
-        <v>1976</v>
-      </c>
-      <c r="F9" s="5">
-        <v>1990</v>
-      </c>
-      <c r="G9" s="5" t="s">
-        <v>18</v>
-      </c>
-      <c r="H9" s="6">
-        <v>2</v>
-      </c>
-      <c r="I9" s="5" t="s">
-        <v>52</v>
-      </c>
-      <c r="J9" s="5">
-        <v>9256</v>
-      </c>
-      <c r="K9" s="5" t="s">
-        <v>16</v>
-      </c>
-      <c r="L9" s="5" t="s">
-        <v>53</v>
-      </c>
-    </row>
-    <row r="10" spans="1:12" x14ac:dyDescent="0.2">
-      <c r="A10" s="5">
-        <v>11</v>
-      </c>
-      <c r="B10" s="5" t="s">
-        <v>61</v>
-      </c>
-      <c r="C10" s="5" t="s">
-        <v>17</v>
-      </c>
-      <c r="D10" s="7" t="s">
-        <v>77</v>
-      </c>
-      <c r="E10" s="5">
-        <v>1949</v>
-      </c>
-      <c r="F10" s="7" t="s">
-        <v>72</v>
-      </c>
-      <c r="G10" s="5" t="s">
-        <v>18</v>
-      </c>
-      <c r="H10" s="6">
-        <v>1</v>
-      </c>
-      <c r="I10" s="7" t="s">
-        <v>73</v>
-      </c>
-      <c r="J10" s="5">
-        <v>9202</v>
-      </c>
-      <c r="K10" s="5" t="s">
-        <v>16</v>
-      </c>
-      <c r="L10" s="5" t="s">
+      <c r="D15" s="5">
+        <v>1994</v>
+      </c>
+      <c r="E15" s="5">
+        <v>1995</v>
+      </c>
+      <c r="F15" s="5" t="s">
+        <v>17</v>
+      </c>
+      <c r="G15" s="6">
+        <v>6</v>
+      </c>
+      <c r="H15" s="5">
+        <v>676</v>
+      </c>
+      <c r="I15" s="5">
+        <v>475</v>
+      </c>
+      <c r="J15" s="5" t="s">
         <v>14</v>
       </c>
-    </row>
-    <row r="11" spans="1:12" x14ac:dyDescent="0.2">
-      <c r="A11" s="5">
+      <c r="K15" s="7" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="16" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="A16" s="5" t="s">
+        <v>39</v>
+      </c>
+      <c r="B16" s="5" t="s">
+        <v>10</v>
+      </c>
+      <c r="C16" s="5" t="s">
         <v>20</v>
       </c>
-      <c r="B11" s="7" t="s">
-        <v>74</v>
-      </c>
-      <c r="C11" s="5" t="s">
-        <v>17</v>
-      </c>
-      <c r="D11" s="7" t="s">
-        <v>77</v>
-      </c>
-      <c r="E11" s="5">
-        <v>1949</v>
-      </c>
-      <c r="F11" s="7" t="s">
-        <v>72</v>
-      </c>
-      <c r="G11" s="5" t="s">
-        <v>18</v>
-      </c>
-      <c r="H11" s="6">
-        <v>1</v>
-      </c>
-      <c r="I11" s="7" t="s">
-        <v>73</v>
-      </c>
-      <c r="J11" s="5">
-        <v>9225</v>
-      </c>
-      <c r="K11" s="5" t="s">
-        <v>16</v>
-      </c>
-      <c r="L11" s="5" t="s">
-        <v>14</v>
-      </c>
-    </row>
-    <row r="12" spans="1:12" x14ac:dyDescent="0.2">
-      <c r="A12" s="5">
-        <v>22</v>
-      </c>
-      <c r="B12" s="5" t="s">
-        <v>61</v>
-      </c>
-      <c r="C12" s="5" t="s">
-        <v>17</v>
-      </c>
-      <c r="D12" s="7" t="s">
-        <v>77</v>
-      </c>
-      <c r="E12" s="5">
-        <v>1951</v>
-      </c>
-      <c r="F12" s="7" t="s">
-        <v>72</v>
-      </c>
-      <c r="G12" s="5" t="s">
-        <v>18</v>
-      </c>
-      <c r="H12" s="6">
-        <v>1</v>
-      </c>
-      <c r="I12" s="7" t="s">
-        <v>73</v>
-      </c>
-      <c r="J12" s="5">
-        <v>9202</v>
-      </c>
-      <c r="K12" s="5" t="s">
-        <v>16</v>
-      </c>
-      <c r="L12" s="5" t="s">
-        <v>14</v>
-      </c>
-    </row>
-    <row r="13" spans="1:12" ht="17" x14ac:dyDescent="0.25">
-      <c r="A13" s="5">
-        <v>23</v>
-      </c>
-      <c r="B13" s="5" t="s">
-        <v>75</v>
-      </c>
-      <c r="C13" s="5" t="s">
-        <v>17</v>
-      </c>
-      <c r="D13" s="7" t="s">
-        <v>77</v>
-      </c>
-      <c r="E13" s="5">
-        <v>1952</v>
-      </c>
-      <c r="F13" s="7" t="s">
-        <v>72</v>
-      </c>
-      <c r="G13" s="5" t="s">
-        <v>18</v>
-      </c>
-      <c r="H13" s="6">
-        <v>1</v>
-      </c>
-      <c r="I13" s="7" t="s">
-        <v>73</v>
-      </c>
-      <c r="J13" s="8">
-        <v>9202</v>
-      </c>
-      <c r="K13" s="5" t="s">
-        <v>16</v>
-      </c>
-      <c r="L13" s="5" t="s">
-        <v>14</v>
-      </c>
-    </row>
-    <row r="14" spans="1:12" ht="17" x14ac:dyDescent="0.25">
-      <c r="A14" s="5">
-        <v>24</v>
-      </c>
-      <c r="B14" s="5" t="s">
-        <v>76</v>
-      </c>
-      <c r="C14" s="5" t="s">
-        <v>17</v>
-      </c>
-      <c r="D14" s="7" t="s">
-        <v>77</v>
-      </c>
-      <c r="E14" s="5">
-        <v>1953</v>
-      </c>
-      <c r="F14" s="7" t="s">
-        <v>72</v>
-      </c>
-      <c r="G14" s="5" t="s">
-        <v>18</v>
-      </c>
-      <c r="H14" s="6">
-        <v>1</v>
-      </c>
-      <c r="I14" s="7" t="s">
-        <v>73</v>
-      </c>
-      <c r="J14" s="8">
-        <v>9203</v>
-      </c>
-      <c r="K14" s="5" t="s">
-        <v>16</v>
-      </c>
-      <c r="L14" s="5" t="s">
-        <v>14</v>
-      </c>
-    </row>
-    <row r="15" spans="1:12" x14ac:dyDescent="0.2">
-      <c r="A15" s="5">
-        <v>8</v>
-      </c>
-      <c r="B15" s="5" t="s">
-        <v>60</v>
-      </c>
-      <c r="C15" s="5" t="s">
-        <v>17</v>
-      </c>
-      <c r="D15" s="5" t="s">
-        <v>12</v>
-      </c>
-      <c r="E15" s="5">
-        <v>1994</v>
-      </c>
-      <c r="F15" s="5">
-        <v>1995</v>
-      </c>
-      <c r="G15" s="5" t="s">
-        <v>18</v>
-      </c>
-      <c r="H15" s="6">
-        <v>6</v>
-      </c>
-      <c r="I15" s="5">
-        <v>676</v>
-      </c>
-      <c r="J15" s="5">
-        <v>475</v>
-      </c>
-      <c r="K15" s="5" t="s">
-        <v>15</v>
-      </c>
-      <c r="L15" s="5" t="s">
-        <v>14</v>
-      </c>
-    </row>
-    <row r="16" spans="1:12" x14ac:dyDescent="0.2">
-      <c r="A16" s="5">
-        <v>13</v>
-      </c>
-      <c r="B16" s="5" t="s">
-        <v>40</v>
-      </c>
-      <c r="C16" s="5" t="s">
-        <v>11</v>
-      </c>
-      <c r="D16" s="5" t="s">
-        <v>21</v>
+      <c r="D16" s="5">
+        <v>2010</v>
       </c>
       <c r="E16" s="5">
         <v>2010</v>
       </c>
-      <c r="F16" s="5">
+      <c r="F16" s="5" t="s">
+        <v>17</v>
+      </c>
+      <c r="G16" s="6">
+        <v>11</v>
+      </c>
+      <c r="H16" s="5" t="s">
+        <v>40</v>
+      </c>
+      <c r="I16" s="5">
+        <v>648</v>
+      </c>
+      <c r="J16" s="5" t="s">
+        <v>19</v>
+      </c>
+      <c r="K16" s="7" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="17" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="A17" s="5" t="s">
+        <v>41</v>
+      </c>
+      <c r="B17" s="5" t="s">
+        <v>16</v>
+      </c>
+      <c r="C17" s="5" t="s">
+        <v>20</v>
+      </c>
+      <c r="D17" s="5">
         <v>2010</v>
       </c>
-      <c r="G16" s="5" t="s">
-        <v>18</v>
-      </c>
-      <c r="H16" s="6">
-        <v>11</v>
-      </c>
-      <c r="I16" s="5" t="s">
-        <v>41</v>
-      </c>
-      <c r="J16" s="5">
-        <v>648</v>
-      </c>
-      <c r="K16" s="5" t="s">
+      <c r="E17" s="5">
+        <v>2011</v>
+      </c>
+      <c r="F17" s="5" t="s">
+        <v>17</v>
+      </c>
+      <c r="G17" s="6">
+        <v>9</v>
+      </c>
+      <c r="H17" s="5" t="s">
+        <v>42</v>
+      </c>
+      <c r="I17" s="5">
+        <v>660</v>
+      </c>
+      <c r="J17" s="5" t="s">
+        <v>19</v>
+      </c>
+      <c r="K17" s="7" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="18" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="A18" s="5" t="s">
+        <v>38</v>
+      </c>
+      <c r="B18" s="5" t="s">
+        <v>16</v>
+      </c>
+      <c r="C18" s="5" t="s">
+        <v>36</v>
+      </c>
+      <c r="D18" s="5">
+        <v>2008</v>
+      </c>
+      <c r="E18" s="5">
+        <v>2009</v>
+      </c>
+      <c r="F18" s="5" t="s">
+        <v>17</v>
+      </c>
+      <c r="G18" s="6">
+        <v>12</v>
+      </c>
+      <c r="H18" s="5">
+        <v>4007</v>
+      </c>
+      <c r="I18" s="5">
+        <v>1004</v>
+      </c>
+      <c r="J18" s="5" t="s">
+        <v>19</v>
+      </c>
+      <c r="K18" s="7" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="19" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="A19" s="5" t="s">
+        <v>37</v>
+      </c>
+      <c r="B19" s="5" t="s">
+        <v>16</v>
+      </c>
+      <c r="C19" s="5" t="s">
+        <v>36</v>
+      </c>
+      <c r="D19" s="5">
+        <v>2008</v>
+      </c>
+      <c r="E19" s="5">
+        <v>2009</v>
+      </c>
+      <c r="F19" s="5" t="s">
+        <v>17</v>
+      </c>
+      <c r="G19" s="6">
+        <v>13</v>
+      </c>
+      <c r="H19" s="5">
+        <v>16</v>
+      </c>
+      <c r="I19" s="5">
+        <v>1004</v>
+      </c>
+      <c r="J19" s="5" t="s">
+        <v>19</v>
+      </c>
+      <c r="K19" s="7" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="20" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="A20" s="5" t="s">
+        <v>45</v>
+      </c>
+      <c r="B20" s="5" t="s">
+        <v>16</v>
+      </c>
+      <c r="C20" s="5" t="s">
+        <v>44</v>
+      </c>
+      <c r="D20" s="5">
+        <v>2011</v>
+      </c>
+      <c r="E20" s="5">
+        <v>2012</v>
+      </c>
+      <c r="F20" s="5" t="s">
+        <v>17</v>
+      </c>
+      <c r="G20" s="6">
+        <v>15</v>
+      </c>
+      <c r="H20" s="5" t="s">
+        <v>46</v>
+      </c>
+      <c r="I20" s="5">
+        <v>1061</v>
+      </c>
+      <c r="J20" s="5" t="s">
+        <v>14</v>
+      </c>
+      <c r="K20" s="7" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="21" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="A21" s="5" t="s">
+        <v>34</v>
+      </c>
+      <c r="B21" s="5" t="s">
+        <v>10</v>
+      </c>
+      <c r="C21" s="5" t="s">
         <v>20</v>
       </c>
-      <c r="L16" s="5" t="s">
+      <c r="D21" s="5">
+        <v>2006</v>
+      </c>
+      <c r="E21" s="5">
+        <v>2007</v>
+      </c>
+      <c r="F21" s="5" t="s">
+        <v>17</v>
+      </c>
+      <c r="G21" s="6">
+        <v>8</v>
+      </c>
+      <c r="H21" s="5" t="s">
+        <v>35</v>
+      </c>
+      <c r="I21" s="5">
+        <v>1305</v>
+      </c>
+      <c r="J21" s="5" t="s">
+        <v>19</v>
+      </c>
+      <c r="K21" s="7" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="22" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="A22" s="5" t="s">
+        <v>47</v>
+      </c>
+      <c r="B22" s="5" t="s">
+        <v>10</v>
+      </c>
+      <c r="C22" s="5" t="s">
+        <v>44</v>
+      </c>
+      <c r="D22" s="5">
+        <v>2008</v>
+      </c>
+      <c r="E22" s="5">
+        <v>2012</v>
+      </c>
+      <c r="F22" s="5" t="s">
+        <v>17</v>
+      </c>
+      <c r="G22" s="6">
         <v>14</v>
       </c>
-    </row>
-    <row r="17" spans="1:12" x14ac:dyDescent="0.2">
-      <c r="A17" s="5">
-        <v>12</v>
-      </c>
-      <c r="B17" s="5" t="s">
-        <v>42</v>
-      </c>
-      <c r="C17" s="5" t="s">
-        <v>17</v>
-      </c>
-      <c r="D17" s="5" t="s">
-        <v>21</v>
-      </c>
-      <c r="E17" s="5">
-        <v>2010</v>
-      </c>
-      <c r="F17" s="5">
-        <v>2011</v>
-      </c>
-      <c r="G17" s="5" t="s">
-        <v>18</v>
-      </c>
-      <c r="H17" s="6">
-        <v>9</v>
-      </c>
-      <c r="I17" s="5" t="s">
-        <v>43</v>
-      </c>
-      <c r="J17" s="5">
-        <v>660</v>
-      </c>
-      <c r="K17" s="5" t="s">
-        <v>20</v>
-      </c>
-      <c r="L17" s="5" t="s">
+      <c r="H22" s="5" t="s">
+        <v>48</v>
+      </c>
+      <c r="I22" s="5">
+        <v>1523</v>
+      </c>
+      <c r="J22" s="5" t="s">
+        <v>22</v>
+      </c>
+      <c r="K22" s="7" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="23" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="A23" s="5" t="s">
+        <v>30</v>
+      </c>
+      <c r="B23" s="5" t="s">
+        <v>10</v>
+      </c>
+      <c r="C23" s="5" t="s">
+        <v>25</v>
+      </c>
+      <c r="D23" s="5">
+        <v>1999</v>
+      </c>
+      <c r="E23" s="5">
+        <v>2003</v>
+      </c>
+      <c r="F23" s="5" t="s">
+        <v>17</v>
+      </c>
+      <c r="G23" s="6">
+        <v>3</v>
+      </c>
+      <c r="H23" s="5" t="s">
+        <v>31</v>
+      </c>
+      <c r="I23" s="5">
+        <v>1703</v>
+      </c>
+      <c r="J23" s="5" t="s">
+        <v>27</v>
+      </c>
+      <c r="K23" s="7" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="24" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="A24" s="5" t="s">
+        <v>32</v>
+      </c>
+      <c r="B24" s="5" t="s">
+        <v>10</v>
+      </c>
+      <c r="C24" s="5" t="s">
+        <v>25</v>
+      </c>
+      <c r="D24" s="5">
+        <v>1999</v>
+      </c>
+      <c r="E24" s="5">
+        <v>2003</v>
+      </c>
+      <c r="F24" s="5" t="s">
+        <v>17</v>
+      </c>
+      <c r="G24" s="6">
+        <v>7</v>
+      </c>
+      <c r="H24" s="5" t="s">
+        <v>33</v>
+      </c>
+      <c r="I24" s="5">
+        <v>1706</v>
+      </c>
+      <c r="J24" s="5" t="s">
+        <v>27</v>
+      </c>
+      <c r="K24" s="7" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="25" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="A25" s="5" t="s">
+        <v>28</v>
+      </c>
+      <c r="B25" s="5" t="s">
+        <v>10</v>
+      </c>
+      <c r="C25" s="5" t="s">
+        <v>25</v>
+      </c>
+      <c r="D25" s="5">
+        <v>1999</v>
+      </c>
+      <c r="E25" s="5">
+        <v>2003</v>
+      </c>
+      <c r="F25" s="5" t="s">
+        <v>17</v>
+      </c>
+      <c r="G25" s="6">
+        <v>5</v>
+      </c>
+      <c r="H25" s="5" t="s">
+        <v>29</v>
+      </c>
+      <c r="I25" s="5">
+        <v>1709</v>
+      </c>
+      <c r="J25" s="5" t="s">
+        <v>27</v>
+      </c>
+      <c r="K25" s="7" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="26" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="A26" s="5" t="s">
+        <v>81</v>
+      </c>
+      <c r="B26" s="5" t="s">
+        <v>16</v>
+      </c>
+      <c r="C26" s="5" t="s">
+        <v>82</v>
+      </c>
+      <c r="D26" s="5">
+        <v>1984</v>
+      </c>
+      <c r="E26" s="5">
+        <v>1991</v>
+      </c>
+      <c r="F26" s="5" t="s">
+        <v>17</v>
+      </c>
+      <c r="G26" s="6">
+        <v>1</v>
+      </c>
+      <c r="H26" s="5" t="s">
+        <v>83</v>
+      </c>
+      <c r="I26" s="5">
+        <v>9203</v>
+      </c>
+      <c r="J26" s="5" t="s">
+        <v>15</v>
+      </c>
+      <c r="K26" s="7" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="27" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="A27" s="5" t="s">
+        <v>85</v>
+      </c>
+      <c r="B27" s="5" t="s">
+        <v>16</v>
+      </c>
+      <c r="C27" s="5" t="s">
+        <v>86</v>
+      </c>
+      <c r="D27" s="5">
+        <v>2005</v>
+      </c>
+      <c r="E27" s="5">
+        <v>2006</v>
+      </c>
+      <c r="F27" s="5" t="s">
+        <v>87</v>
+      </c>
+      <c r="G27" s="6" t="s">
+        <v>84</v>
+      </c>
+      <c r="H27" s="5" t="s">
+        <v>88</v>
+      </c>
+      <c r="I27" s="5">
+        <v>1130</v>
+      </c>
+      <c r="J27" s="5" t="s">
         <v>14</v>
       </c>
-    </row>
-    <row r="18" spans="1:12" x14ac:dyDescent="0.2">
-      <c r="A18" s="5">
-        <v>14</v>
-      </c>
-      <c r="B18" s="5" t="s">
-        <v>39</v>
-      </c>
-      <c r="C18" s="5" t="s">
-        <v>17</v>
-      </c>
-      <c r="D18" s="5" t="s">
-        <v>37</v>
-      </c>
-      <c r="E18" s="5">
-        <v>2008</v>
-      </c>
-      <c r="F18" s="5">
-        <v>2009</v>
-      </c>
-      <c r="G18" s="5" t="s">
-        <v>18</v>
-      </c>
-      <c r="H18" s="6">
-        <v>12</v>
-      </c>
-      <c r="I18" s="5">
-        <v>4007</v>
-      </c>
-      <c r="J18" s="5">
-        <v>1004</v>
-      </c>
-      <c r="K18" s="5" t="s">
-        <v>20</v>
-      </c>
-      <c r="L18" s="5" t="s">
-        <v>14</v>
-      </c>
-    </row>
-    <row r="19" spans="1:12" x14ac:dyDescent="0.2">
-      <c r="A19" s="5">
-        <v>15</v>
-      </c>
-      <c r="B19" s="5" t="s">
-        <v>38</v>
-      </c>
-      <c r="C19" s="5" t="s">
-        <v>17</v>
-      </c>
-      <c r="D19" s="5" t="s">
-        <v>37</v>
-      </c>
-      <c r="E19" s="5">
-        <v>2008</v>
-      </c>
-      <c r="F19" s="5">
-        <v>2009</v>
-      </c>
-      <c r="G19" s="5" t="s">
-        <v>18</v>
-      </c>
-      <c r="H19" s="6">
-        <v>13</v>
-      </c>
-      <c r="I19" s="5">
-        <v>16</v>
-      </c>
-      <c r="J19" s="5">
-        <v>1004</v>
-      </c>
-      <c r="K19" s="5" t="s">
-        <v>20</v>
-      </c>
-      <c r="L19" s="5" t="s">
-        <v>14</v>
-      </c>
-    </row>
-    <row r="20" spans="1:12" x14ac:dyDescent="0.2">
-      <c r="A20" s="5">
-        <v>17</v>
-      </c>
-      <c r="B20" s="5" t="s">
-        <v>46</v>
-      </c>
-      <c r="C20" s="5" t="s">
-        <v>17</v>
-      </c>
-      <c r="D20" s="5" t="s">
-        <v>45</v>
-      </c>
-      <c r="E20" s="5">
-        <v>2011</v>
-      </c>
-      <c r="F20" s="5">
-        <v>2012</v>
-      </c>
-      <c r="G20" s="5" t="s">
-        <v>18</v>
-      </c>
-      <c r="H20" s="6">
-        <v>15</v>
-      </c>
-      <c r="I20" s="5" t="s">
-        <v>47</v>
-      </c>
-      <c r="J20" s="5">
-        <v>1061</v>
-      </c>
-      <c r="K20" s="5" t="s">
-        <v>15</v>
-      </c>
-      <c r="L20" s="5" t="s">
-        <v>14</v>
-      </c>
-    </row>
-    <row r="21" spans="1:12" x14ac:dyDescent="0.2">
-      <c r="A21" s="5">
-        <v>10</v>
-      </c>
-      <c r="B21" s="5" t="s">
-        <v>35</v>
-      </c>
-      <c r="C21" s="5" t="s">
-        <v>11</v>
-      </c>
-      <c r="D21" s="5" t="s">
-        <v>21</v>
-      </c>
-      <c r="E21" s="5">
-        <v>2006</v>
-      </c>
-      <c r="F21" s="5">
-        <v>2007</v>
-      </c>
-      <c r="G21" s="5" t="s">
-        <v>18</v>
-      </c>
-      <c r="H21" s="6">
-        <v>8</v>
-      </c>
-      <c r="I21" s="5" t="s">
-        <v>36</v>
-      </c>
-      <c r="J21" s="5">
-        <v>1305</v>
-      </c>
-      <c r="K21" s="5" t="s">
-        <v>20</v>
-      </c>
-      <c r="L21" s="5" t="s">
-        <v>14</v>
-      </c>
-    </row>
-    <row r="22" spans="1:12" x14ac:dyDescent="0.2">
-      <c r="A22" s="5">
-        <v>16</v>
-      </c>
-      <c r="B22" s="5" t="s">
-        <v>48</v>
-      </c>
-      <c r="C22" s="5" t="s">
-        <v>11</v>
-      </c>
-      <c r="D22" s="5" t="s">
-        <v>45</v>
-      </c>
-      <c r="E22" s="5">
-        <v>2008</v>
-      </c>
-      <c r="F22" s="5">
-        <v>2012</v>
-      </c>
-      <c r="G22" s="5" t="s">
-        <v>18</v>
-      </c>
-      <c r="H22" s="6">
-        <v>14</v>
-      </c>
-      <c r="I22" s="5" t="s">
-        <v>49</v>
-      </c>
-      <c r="J22" s="5">
-        <v>1523</v>
-      </c>
-      <c r="K22" s="5" t="s">
-        <v>23</v>
-      </c>
-      <c r="L22" s="5" t="s">
-        <v>14</v>
-      </c>
-    </row>
-    <row r="23" spans="1:12" x14ac:dyDescent="0.2">
-      <c r="A23" s="5">
-        <v>5</v>
-      </c>
-      <c r="B23" s="5" t="s">
-        <v>31</v>
-      </c>
-      <c r="C23" s="5" t="s">
-        <v>11</v>
-      </c>
-      <c r="D23" s="5" t="s">
-        <v>26</v>
-      </c>
-      <c r="E23" s="5">
-        <v>1999</v>
-      </c>
-      <c r="F23" s="5">
-        <v>2003</v>
-      </c>
-      <c r="G23" s="5" t="s">
-        <v>18</v>
-      </c>
-      <c r="H23" s="6">
-        <v>3</v>
-      </c>
-      <c r="I23" s="5" t="s">
-        <v>32</v>
-      </c>
-      <c r="J23" s="5">
-        <v>1703</v>
-      </c>
-      <c r="K23" s="5" t="s">
-        <v>28</v>
-      </c>
-      <c r="L23" s="5" t="s">
-        <v>14</v>
-      </c>
-    </row>
-    <row r="24" spans="1:12" x14ac:dyDescent="0.2">
-      <c r="A24" s="5">
-        <v>9</v>
-      </c>
-      <c r="B24" s="5" t="s">
-        <v>33</v>
-      </c>
-      <c r="C24" s="5" t="s">
-        <v>11</v>
-      </c>
-      <c r="D24" s="5" t="s">
-        <v>26</v>
-      </c>
-      <c r="E24" s="5">
-        <v>1999</v>
-      </c>
-      <c r="F24" s="5">
-        <v>2003</v>
-      </c>
-      <c r="G24" s="5" t="s">
-        <v>18</v>
-      </c>
-      <c r="H24" s="6">
-        <v>7</v>
-      </c>
-      <c r="I24" s="5" t="s">
-        <v>34</v>
-      </c>
-      <c r="J24" s="5">
-        <v>1706</v>
-      </c>
-      <c r="K24" s="5" t="s">
-        <v>28</v>
-      </c>
-      <c r="L24" s="5" t="s">
-        <v>14</v>
-      </c>
-    </row>
-    <row r="25" spans="1:12" x14ac:dyDescent="0.2">
-      <c r="A25" s="5">
-        <v>7</v>
-      </c>
-      <c r="B25" s="5" t="s">
-        <v>29</v>
-      </c>
-      <c r="C25" s="5" t="s">
-        <v>11</v>
-      </c>
-      <c r="D25" s="5" t="s">
-        <v>26</v>
-      </c>
-      <c r="E25" s="5">
-        <v>1999</v>
-      </c>
-      <c r="F25" s="5">
-        <v>2003</v>
-      </c>
-      <c r="G25" s="5" t="s">
-        <v>18</v>
-      </c>
-      <c r="H25" s="6">
-        <v>5</v>
-      </c>
-      <c r="I25" s="5" t="s">
-        <v>30</v>
-      </c>
-      <c r="J25" s="5">
-        <v>1709</v>
-      </c>
-      <c r="K25" s="5" t="s">
-        <v>28</v>
-      </c>
-      <c r="L25" s="5" t="s">
-        <v>14</v>
-      </c>
-    </row>
-    <row r="26" spans="1:12" x14ac:dyDescent="0.2">
-      <c r="A26" s="1">
-        <v>231</v>
-      </c>
-      <c r="B26" s="1" t="s">
-        <v>82</v>
-      </c>
-      <c r="C26" s="1" t="s">
-        <v>17</v>
-      </c>
-      <c r="D26" s="1" t="s">
-        <v>83</v>
-      </c>
-      <c r="E26" s="1">
-        <v>1984</v>
-      </c>
-      <c r="F26" s="1">
-        <v>1991</v>
-      </c>
-      <c r="G26" s="1" t="s">
-        <v>18</v>
-      </c>
-      <c r="H26" s="6" t="s">
-        <v>85</v>
-      </c>
-      <c r="I26" s="1" t="s">
-        <v>84</v>
-      </c>
-      <c r="J26" s="1">
-        <v>9203</v>
-      </c>
-      <c r="K26" s="1" t="s">
-        <v>16</v>
-      </c>
-      <c r="L26" s="1" t="s">
-        <v>14</v>
-      </c>
-    </row>
-    <row r="27" spans="1:12" x14ac:dyDescent="0.2">
-      <c r="A27" s="1">
-        <v>143</v>
-      </c>
-      <c r="B27" s="1" t="s">
-        <v>86</v>
-      </c>
-      <c r="C27" s="1" t="s">
-        <v>17</v>
-      </c>
-      <c r="D27" s="1" t="s">
-        <v>87</v>
-      </c>
-      <c r="E27" s="1">
-        <v>2005</v>
-      </c>
-      <c r="F27" s="1">
-        <v>2006</v>
-      </c>
-      <c r="G27" s="1" t="s">
-        <v>88</v>
-      </c>
-      <c r="H27" s="1" t="s">
-        <v>85</v>
-      </c>
-      <c r="I27" s="1" t="s">
-        <v>89</v>
-      </c>
-      <c r="J27" s="1">
-        <v>1130</v>
-      </c>
-      <c r="K27" s="1" t="s">
-        <v>15</v>
-      </c>
-      <c r="L27" s="1" t="s">
-        <v>14</v>
+      <c r="K27" s="7" t="s">
+        <v>13</v>
       </c>
     </row>
   </sheetData>
-  <sortState xmlns:xlrd2="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" ref="A2:L14">
-    <sortCondition ref="J2:J14"/>
+  <sortState xmlns:xlrd2="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" ref="A2:K14">
+    <sortCondition ref="I2:I14"/>
   </sortState>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
   <pageSetup paperSize="9" orientation="portrait" horizontalDpi="4294967292" verticalDpi="4294967292"/>
@@ -1857,13 +1780,13 @@
         <v>48</v>
       </c>
       <c r="B1" s="1" t="s">
-        <v>54</v>
+        <v>53</v>
       </c>
       <c r="C1" s="1" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="D1" s="1" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="E1" s="1">
         <v>1980</v>
@@ -1872,22 +1795,22 @@
         <v>1993</v>
       </c>
       <c r="G1" s="1" t="s">
-        <v>59</v>
+        <v>58</v>
       </c>
       <c r="H1" s="1" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="I1" s="1" t="s">
-        <v>55</v>
+        <v>54</v>
       </c>
       <c r="J1" s="1">
         <v>2892</v>
       </c>
       <c r="K1" s="1" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="L1" s="1" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
     </row>
     <row r="2" spans="1:12" x14ac:dyDescent="0.2">
@@ -1895,13 +1818,13 @@
         <v>8</v>
       </c>
       <c r="B2" s="5" t="s">
-        <v>60</v>
+        <v>59</v>
       </c>
       <c r="C2" s="5" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="D2" s="5" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="E2" s="5">
         <v>1994</v>
@@ -1910,7 +1833,7 @@
         <v>1995</v>
       </c>
       <c r="G2" s="5" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="H2" s="6">
         <v>6</v>
@@ -1922,10 +1845,10 @@
         <v>475</v>
       </c>
       <c r="K2" s="5" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="L2" s="5" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
     </row>
     <row r="3" spans="1:12" x14ac:dyDescent="0.2">
@@ -1933,13 +1856,13 @@
         <v>13</v>
       </c>
       <c r="B3" s="5" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="C3" s="5" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="D3" s="5" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="E3" s="5">
         <v>2010</v>
@@ -1948,22 +1871,22 @@
         <v>2010</v>
       </c>
       <c r="G3" s="5" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="H3" s="6">
         <v>11</v>
       </c>
       <c r="I3" s="5" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="J3" s="5">
         <v>648</v>
       </c>
       <c r="K3" s="5" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="L3" s="5" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
     </row>
     <row r="4" spans="1:12" x14ac:dyDescent="0.2">
@@ -1971,13 +1894,13 @@
         <v>12</v>
       </c>
       <c r="B4" s="5" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="C4" s="5" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="D4" s="5" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="E4" s="5">
         <v>2010</v>
@@ -1986,22 +1909,22 @@
         <v>2011</v>
       </c>
       <c r="G4" s="5" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="H4" s="6">
         <v>9</v>
       </c>
       <c r="I4" s="5" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="J4" s="5">
         <v>660</v>
       </c>
       <c r="K4" s="5" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="L4" s="5" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
     </row>
     <row r="5" spans="1:12" x14ac:dyDescent="0.2">
@@ -2009,13 +1932,13 @@
         <v>14</v>
       </c>
       <c r="B5" s="5" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="C5" s="5" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="D5" s="5" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="E5" s="5">
         <v>2008</v>
@@ -2024,10 +1947,10 @@
         <v>2009</v>
       </c>
       <c r="G5" s="5" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="H5" s="6" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="I5" s="5">
         <v>4007</v>
@@ -2036,10 +1959,10 @@
         <v>1004</v>
       </c>
       <c r="K5" s="5" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="L5" s="5" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
     </row>
     <row r="6" spans="1:12" x14ac:dyDescent="0.2">
@@ -2047,13 +1970,13 @@
         <v>15</v>
       </c>
       <c r="B6" s="5" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="C6" s="5" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="D6" s="5" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="E6" s="5">
         <v>2008</v>
@@ -2062,10 +1985,10 @@
         <v>2009</v>
       </c>
       <c r="G6" s="5" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="H6" s="6" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="I6" s="5">
         <v>16</v>
@@ -2074,10 +1997,10 @@
         <v>1004</v>
       </c>
       <c r="K6" s="5" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="L6" s="5" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
     </row>
     <row r="7" spans="1:12" x14ac:dyDescent="0.2">
@@ -2085,13 +2008,13 @@
         <v>17</v>
       </c>
       <c r="B7" s="5" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="C7" s="5" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="D7" s="5" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="E7" s="5">
         <v>2011</v>
@@ -2100,22 +2023,22 @@
         <v>2012</v>
       </c>
       <c r="G7" s="5" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="H7" s="6" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="I7" s="5" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="J7" s="5">
         <v>1061</v>
       </c>
       <c r="K7" s="5" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="L7" s="5" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
     </row>
     <row r="8" spans="1:12" x14ac:dyDescent="0.2">
@@ -2123,13 +2046,13 @@
         <v>10</v>
       </c>
       <c r="B8" s="5" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="C8" s="5" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="D8" s="5" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="E8" s="5">
         <v>2006</v>
@@ -2138,22 +2061,22 @@
         <v>2007</v>
       </c>
       <c r="G8" s="5" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="H8" s="6">
         <v>8</v>
       </c>
       <c r="I8" s="5" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="J8" s="5">
         <v>1305</v>
       </c>
       <c r="K8" s="5" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="L8" s="5" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
     </row>
     <row r="9" spans="1:12" x14ac:dyDescent="0.2">
@@ -2161,13 +2084,13 @@
         <v>16</v>
       </c>
       <c r="B9" s="5" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="C9" s="5" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="D9" s="5" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="E9" s="5">
         <v>2008</v>
@@ -2176,22 +2099,22 @@
         <v>2012</v>
       </c>
       <c r="G9" s="5" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="H9" s="6" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="I9" s="5" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
       <c r="J9" s="5">
         <v>1523</v>
       </c>
       <c r="K9" s="5" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="L9" s="5" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
     </row>
     <row r="10" spans="1:12" x14ac:dyDescent="0.2">
@@ -2199,13 +2122,13 @@
         <v>5</v>
       </c>
       <c r="B10" s="5" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="C10" s="5" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="D10" s="5" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="E10" s="5">
         <v>1999</v>
@@ -2214,22 +2137,22 @@
         <v>2003</v>
       </c>
       <c r="G10" s="5" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="H10" s="6">
         <v>3</v>
       </c>
       <c r="I10" s="5" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="J10" s="5">
         <v>1703</v>
       </c>
       <c r="K10" s="5" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="L10" s="5" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
     </row>
     <row r="11" spans="1:12" x14ac:dyDescent="0.2">
@@ -2237,13 +2160,13 @@
         <v>9</v>
       </c>
       <c r="B11" s="5" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="C11" s="5" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="D11" s="5" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="E11" s="5">
         <v>1999</v>
@@ -2252,22 +2175,22 @@
         <v>2003</v>
       </c>
       <c r="G11" s="5" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="H11" s="6" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="I11" s="5" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="J11" s="5">
         <v>1706</v>
       </c>
       <c r="K11" s="5" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="L11" s="5" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
     </row>
     <row r="12" spans="1:12" x14ac:dyDescent="0.2">
@@ -2275,13 +2198,13 @@
         <v>7</v>
       </c>
       <c r="B12" s="5" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="C12" s="5" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="D12" s="5" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="E12" s="5">
         <v>1999</v>
@@ -2290,22 +2213,22 @@
         <v>2003</v>
       </c>
       <c r="G12" s="5" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="H12" s="6" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="I12" s="5" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="J12" s="5">
         <v>1709</v>
       </c>
       <c r="K12" s="5" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="L12" s="5" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
     </row>
   </sheetData>

--- a/tabular/extension/srlv-refseqs.xlsx
+++ b/tabular/extension/srlv-refseqs.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/robertgifford/Projects/virus/comparative/Retrovirus/Lentivirus-GLUE/tabular/extension/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{AE33F5D8-58A6-1143-B33E-99813EF2742C}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{5F1497C1-22A6-1046-9BE0-CAC20E61F4C0}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="11600" yWindow="10440" windowWidth="28060" windowHeight="17540" tabRatio="500" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -29,7 +29,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="287" uniqueCount="89">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="280" uniqueCount="87">
   <si>
     <t>Accession</t>
   </si>
@@ -265,13 +265,7 @@
     <t>M34193</t>
   </si>
   <si>
-    <t>85/34</t>
-  </si>
-  <si>
     <t>USA</t>
-  </si>
-  <si>
-    <t>AY101611_U64439</t>
   </si>
   <si>
     <t>S51392</t>
@@ -796,10 +790,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:K27"/>
+  <dimension ref="A1:K26"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="K27" sqref="A1:K27"/>
+      <selection activeCell="A2" sqref="A2:XFD2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -846,67 +840,67 @@
       </c>
     </row>
     <row r="2" spans="1:11" x14ac:dyDescent="0.2">
-      <c r="A2" s="1" t="s">
-        <v>80</v>
+      <c r="A2" s="5" t="s">
+        <v>62</v>
       </c>
       <c r="B2" s="5" t="s">
-        <v>16</v>
-      </c>
-      <c r="C2" s="1" t="s">
-        <v>79</v>
-      </c>
-      <c r="D2" s="1">
-        <v>1934</v>
-      </c>
-      <c r="E2" s="1">
-        <v>1985</v>
-      </c>
-      <c r="F2" s="1" t="s">
-        <v>17</v>
-      </c>
-      <c r="G2" s="3">
-        <v>2</v>
-      </c>
-      <c r="H2" s="1" t="s">
-        <v>78</v>
-      </c>
-      <c r="I2" s="1">
-        <v>6530</v>
-      </c>
-      <c r="J2" s="1" t="s">
+        <v>10</v>
+      </c>
+      <c r="C2" s="5" t="s">
+        <v>65</v>
+      </c>
+      <c r="D2" s="5">
+        <v>1991</v>
+      </c>
+      <c r="E2" s="5">
+        <v>2000</v>
+      </c>
+      <c r="F2" s="5" t="s">
+        <v>64</v>
+      </c>
+      <c r="G2" s="6" t="s">
+        <v>82</v>
+      </c>
+      <c r="H2" s="5" t="s">
+        <v>63</v>
+      </c>
+      <c r="I2" s="5">
+        <v>8919</v>
+      </c>
+      <c r="J2" s="5" t="s">
         <v>15</v>
       </c>
       <c r="K2" s="7" t="s">
-        <v>23</v>
+        <v>13</v>
       </c>
     </row>
     <row r="3" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A3" s="5" t="s">
-        <v>62</v>
+        <v>24</v>
       </c>
       <c r="B3" s="5" t="s">
         <v>10</v>
       </c>
       <c r="C3" s="5" t="s">
-        <v>65</v>
+        <v>25</v>
       </c>
       <c r="D3" s="5">
-        <v>1991</v>
+        <v>1999</v>
       </c>
       <c r="E3" s="5">
-        <v>2000</v>
+        <v>2003</v>
       </c>
       <c r="F3" s="5" t="s">
-        <v>64</v>
-      </c>
-      <c r="G3" s="6" t="s">
-        <v>84</v>
+        <v>17</v>
+      </c>
+      <c r="G3" s="6">
+        <v>4</v>
       </c>
       <c r="H3" s="5" t="s">
-        <v>63</v>
+        <v>26</v>
       </c>
       <c r="I3" s="5">
-        <v>8919</v>
+        <v>9023</v>
       </c>
       <c r="J3" s="5" t="s">
         <v>15</v>
@@ -917,147 +911,147 @@
     </row>
     <row r="4" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A4" s="5" t="s">
-        <v>24</v>
+        <v>66</v>
       </c>
       <c r="B4" s="5" t="s">
-        <v>10</v>
+        <v>16</v>
       </c>
       <c r="C4" s="5" t="s">
-        <v>25</v>
+        <v>67</v>
       </c>
       <c r="D4" s="5">
-        <v>1999</v>
+        <v>2007</v>
       </c>
       <c r="E4" s="5">
-        <v>2003</v>
+        <v>2016</v>
       </c>
       <c r="F4" s="5" t="s">
-        <v>17</v>
-      </c>
-      <c r="G4" s="6">
-        <v>4</v>
+        <v>68</v>
+      </c>
+      <c r="G4" s="6" t="s">
+        <v>82</v>
       </c>
       <c r="H4" s="5" t="s">
-        <v>26</v>
+        <v>69</v>
       </c>
       <c r="I4" s="5">
-        <v>9023</v>
+        <v>9136</v>
       </c>
       <c r="J4" s="5" t="s">
         <v>15</v>
       </c>
       <c r="K4" s="7" t="s">
-        <v>13</v>
+        <v>70</v>
       </c>
     </row>
     <row r="5" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A5" s="5" t="s">
-        <v>66</v>
+        <v>43</v>
       </c>
       <c r="B5" s="5" t="s">
-        <v>16</v>
+        <v>61</v>
       </c>
       <c r="C5" s="5" t="s">
-        <v>67</v>
+        <v>61</v>
       </c>
       <c r="D5" s="5">
-        <v>2007</v>
+        <v>1</v>
       </c>
       <c r="E5" s="5">
-        <v>2016</v>
+        <v>1</v>
       </c>
       <c r="F5" s="5" t="s">
-        <v>68</v>
+        <v>17</v>
       </c>
       <c r="G5" s="6" t="s">
-        <v>84</v>
+        <v>82</v>
       </c>
       <c r="H5" s="5" t="s">
-        <v>69</v>
+        <v>61</v>
       </c>
       <c r="I5" s="5">
-        <v>9136</v>
+        <v>9175</v>
       </c>
       <c r="J5" s="5" t="s">
         <v>15</v>
       </c>
       <c r="K5" s="7" t="s">
-        <v>70</v>
+        <v>61</v>
       </c>
     </row>
     <row r="6" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A6" s="5" t="s">
-        <v>43</v>
+        <v>55</v>
       </c>
       <c r="B6" s="5" t="s">
-        <v>61</v>
+        <v>10</v>
       </c>
       <c r="C6" s="5" t="s">
-        <v>61</v>
+        <v>78</v>
       </c>
       <c r="D6" s="5">
+        <v>1974</v>
+      </c>
+      <c r="E6" s="5">
+        <v>1990</v>
+      </c>
+      <c r="F6" s="5" t="s">
+        <v>58</v>
+      </c>
+      <c r="G6" s="6">
         <v>1</v>
       </c>
-      <c r="E6" s="5">
-        <v>1</v>
-      </c>
-      <c r="F6" s="5" t="s">
-        <v>17</v>
-      </c>
-      <c r="G6" s="6" t="s">
-        <v>84</v>
-      </c>
       <c r="H6" s="5" t="s">
-        <v>61</v>
+        <v>56</v>
       </c>
       <c r="I6" s="5">
-        <v>9175</v>
+        <v>9189</v>
       </c>
       <c r="J6" s="5" t="s">
         <v>15</v>
       </c>
       <c r="K6" s="7" t="s">
-        <v>61</v>
+        <v>23</v>
       </c>
     </row>
     <row r="7" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A7" s="5" t="s">
-        <v>55</v>
+        <v>49</v>
       </c>
       <c r="B7" s="5" t="s">
-        <v>10</v>
+        <v>16</v>
       </c>
       <c r="C7" s="5" t="s">
-        <v>79</v>
+        <v>50</v>
       </c>
       <c r="D7" s="5">
-        <v>1974</v>
+        <v>1976</v>
       </c>
       <c r="E7" s="5">
         <v>1990</v>
       </c>
       <c r="F7" s="5" t="s">
-        <v>58</v>
+        <v>17</v>
       </c>
       <c r="G7" s="6">
         <v>1</v>
       </c>
       <c r="H7" s="5" t="s">
-        <v>56</v>
+        <v>51</v>
       </c>
       <c r="I7" s="5">
-        <v>9189</v>
+        <v>9256</v>
       </c>
       <c r="J7" s="5" t="s">
         <v>15</v>
       </c>
       <c r="K7" s="7" t="s">
-        <v>23</v>
+        <v>52</v>
       </c>
     </row>
     <row r="8" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A8" s="5" t="s">
-        <v>49</v>
+        <v>77</v>
       </c>
       <c r="B8" s="5" t="s">
         <v>16</v>
@@ -1092,19 +1086,19 @@
     </row>
     <row r="9" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A9" s="5" t="s">
-        <v>77</v>
+        <v>60</v>
       </c>
       <c r="B9" s="5" t="s">
         <v>16</v>
       </c>
       <c r="C9" s="5" t="s">
-        <v>50</v>
+        <v>76</v>
       </c>
       <c r="D9" s="5">
-        <v>1976</v>
-      </c>
-      <c r="E9" s="5">
-        <v>1990</v>
+        <v>1949</v>
+      </c>
+      <c r="E9" s="5" t="s">
+        <v>71</v>
       </c>
       <c r="F9" s="5" t="s">
         <v>17</v>
@@ -1113,21 +1107,21 @@
         <v>1</v>
       </c>
       <c r="H9" s="5" t="s">
-        <v>51</v>
+        <v>72</v>
       </c>
       <c r="I9" s="5">
-        <v>9256</v>
+        <v>9202</v>
       </c>
       <c r="J9" s="5" t="s">
         <v>15</v>
       </c>
       <c r="K9" s="7" t="s">
-        <v>52</v>
+        <v>13</v>
       </c>
     </row>
     <row r="10" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A10" s="5" t="s">
-        <v>60</v>
+        <v>73</v>
       </c>
       <c r="B10" s="5" t="s">
         <v>16</v>
@@ -1151,7 +1145,7 @@
         <v>72</v>
       </c>
       <c r="I10" s="5">
-        <v>9202</v>
+        <v>9225</v>
       </c>
       <c r="J10" s="5" t="s">
         <v>15</v>
@@ -1162,7 +1156,7 @@
     </row>
     <row r="11" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A11" s="5" t="s">
-        <v>73</v>
+        <v>60</v>
       </c>
       <c r="B11" s="5" t="s">
         <v>16</v>
@@ -1171,7 +1165,7 @@
         <v>76</v>
       </c>
       <c r="D11" s="5">
-        <v>1949</v>
+        <v>1951</v>
       </c>
       <c r="E11" s="5" t="s">
         <v>71</v>
@@ -1186,7 +1180,7 @@
         <v>72</v>
       </c>
       <c r="I11" s="5">
-        <v>9225</v>
+        <v>9202</v>
       </c>
       <c r="J11" s="5" t="s">
         <v>15</v>
@@ -1197,7 +1191,7 @@
     </row>
     <row r="12" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A12" s="5" t="s">
-        <v>60</v>
+        <v>74</v>
       </c>
       <c r="B12" s="5" t="s">
         <v>16</v>
@@ -1206,7 +1200,7 @@
         <v>76</v>
       </c>
       <c r="D12" s="5">
-        <v>1951</v>
+        <v>1952</v>
       </c>
       <c r="E12" s="5" t="s">
         <v>71</v>
@@ -1232,7 +1226,7 @@
     </row>
     <row r="13" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A13" s="5" t="s">
-        <v>74</v>
+        <v>75</v>
       </c>
       <c r="B13" s="5" t="s">
         <v>16</v>
@@ -1241,7 +1235,7 @@
         <v>76</v>
       </c>
       <c r="D13" s="5">
-        <v>1952</v>
+        <v>1953</v>
       </c>
       <c r="E13" s="5" t="s">
         <v>71</v>
@@ -1256,7 +1250,7 @@
         <v>72</v>
       </c>
       <c r="I13" s="5">
-        <v>9202</v>
+        <v>9203</v>
       </c>
       <c r="J13" s="5" t="s">
         <v>15</v>
@@ -1267,34 +1261,34 @@
     </row>
     <row r="14" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A14" s="5" t="s">
-        <v>75</v>
+        <v>59</v>
       </c>
       <c r="B14" s="5" t="s">
         <v>16</v>
       </c>
       <c r="C14" s="5" t="s">
-        <v>76</v>
+        <v>11</v>
       </c>
       <c r="D14" s="5">
-        <v>1953</v>
-      </c>
-      <c r="E14" s="5" t="s">
-        <v>71</v>
+        <v>1994</v>
+      </c>
+      <c r="E14" s="5">
+        <v>1995</v>
       </c>
       <c r="F14" s="5" t="s">
         <v>17</v>
       </c>
       <c r="G14" s="6">
-        <v>1</v>
-      </c>
-      <c r="H14" s="5" t="s">
-        <v>72</v>
+        <v>6</v>
+      </c>
+      <c r="H14" s="5">
+        <v>676</v>
       </c>
       <c r="I14" s="5">
-        <v>9203</v>
+        <v>475</v>
       </c>
       <c r="J14" s="5" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="K14" s="7" t="s">
         <v>13</v>
@@ -1302,34 +1296,34 @@
     </row>
     <row r="15" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A15" s="5" t="s">
-        <v>59</v>
+        <v>39</v>
       </c>
       <c r="B15" s="5" t="s">
-        <v>16</v>
+        <v>10</v>
       </c>
       <c r="C15" s="5" t="s">
+        <v>20</v>
+      </c>
+      <c r="D15" s="5">
+        <v>2010</v>
+      </c>
+      <c r="E15" s="5">
+        <v>2010</v>
+      </c>
+      <c r="F15" s="5" t="s">
+        <v>17</v>
+      </c>
+      <c r="G15" s="6">
         <v>11</v>
       </c>
-      <c r="D15" s="5">
-        <v>1994</v>
-      </c>
-      <c r="E15" s="5">
-        <v>1995</v>
-      </c>
-      <c r="F15" s="5" t="s">
-        <v>17</v>
-      </c>
-      <c r="G15" s="6">
-        <v>6</v>
-      </c>
-      <c r="H15" s="5">
-        <v>676</v>
+      <c r="H15" s="5" t="s">
+        <v>40</v>
       </c>
       <c r="I15" s="5">
-        <v>475</v>
+        <v>648</v>
       </c>
       <c r="J15" s="5" t="s">
-        <v>14</v>
+        <v>19</v>
       </c>
       <c r="K15" s="7" t="s">
         <v>13</v>
@@ -1337,10 +1331,10 @@
     </row>
     <row r="16" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A16" s="5" t="s">
-        <v>39</v>
+        <v>41</v>
       </c>
       <c r="B16" s="5" t="s">
-        <v>10</v>
+        <v>16</v>
       </c>
       <c r="C16" s="5" t="s">
         <v>20</v>
@@ -1349,19 +1343,19 @@
         <v>2010</v>
       </c>
       <c r="E16" s="5">
-        <v>2010</v>
+        <v>2011</v>
       </c>
       <c r="F16" s="5" t="s">
         <v>17</v>
       </c>
       <c r="G16" s="6">
-        <v>11</v>
+        <v>9</v>
       </c>
       <c r="H16" s="5" t="s">
-        <v>40</v>
+        <v>42</v>
       </c>
       <c r="I16" s="5">
-        <v>648</v>
+        <v>660</v>
       </c>
       <c r="J16" s="5" t="s">
         <v>19</v>
@@ -1372,31 +1366,31 @@
     </row>
     <row r="17" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A17" s="5" t="s">
-        <v>41</v>
+        <v>38</v>
       </c>
       <c r="B17" s="5" t="s">
         <v>16</v>
       </c>
       <c r="C17" s="5" t="s">
-        <v>20</v>
+        <v>36</v>
       </c>
       <c r="D17" s="5">
-        <v>2010</v>
+        <v>2008</v>
       </c>
       <c r="E17" s="5">
-        <v>2011</v>
+        <v>2009</v>
       </c>
       <c r="F17" s="5" t="s">
         <v>17</v>
       </c>
       <c r="G17" s="6">
-        <v>9</v>
-      </c>
-      <c r="H17" s="5" t="s">
-        <v>42</v>
+        <v>12</v>
+      </c>
+      <c r="H17" s="5">
+        <v>4007</v>
       </c>
       <c r="I17" s="5">
-        <v>660</v>
+        <v>1004</v>
       </c>
       <c r="J17" s="5" t="s">
         <v>19</v>
@@ -1407,7 +1401,7 @@
     </row>
     <row r="18" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A18" s="5" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="B18" s="5" t="s">
         <v>16</v>
@@ -1425,10 +1419,10 @@
         <v>17</v>
       </c>
       <c r="G18" s="6">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="H18" s="5">
-        <v>4007</v>
+        <v>16</v>
       </c>
       <c r="I18" s="5">
         <v>1004</v>
@@ -1442,34 +1436,34 @@
     </row>
     <row r="19" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A19" s="5" t="s">
-        <v>37</v>
+        <v>45</v>
       </c>
       <c r="B19" s="5" t="s">
         <v>16</v>
       </c>
       <c r="C19" s="5" t="s">
-        <v>36</v>
+        <v>44</v>
       </c>
       <c r="D19" s="5">
-        <v>2008</v>
+        <v>2011</v>
       </c>
       <c r="E19" s="5">
-        <v>2009</v>
+        <v>2012</v>
       </c>
       <c r="F19" s="5" t="s">
         <v>17</v>
       </c>
       <c r="G19" s="6">
-        <v>13</v>
-      </c>
-      <c r="H19" s="5">
-        <v>16</v>
+        <v>15</v>
+      </c>
+      <c r="H19" s="5" t="s">
+        <v>46</v>
       </c>
       <c r="I19" s="5">
-        <v>1004</v>
+        <v>1061</v>
       </c>
       <c r="J19" s="5" t="s">
-        <v>19</v>
+        <v>14</v>
       </c>
       <c r="K19" s="7" t="s">
         <v>13</v>
@@ -1477,34 +1471,34 @@
     </row>
     <row r="20" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A20" s="5" t="s">
-        <v>45</v>
+        <v>34</v>
       </c>
       <c r="B20" s="5" t="s">
-        <v>16</v>
+        <v>10</v>
       </c>
       <c r="C20" s="5" t="s">
-        <v>44</v>
+        <v>20</v>
       </c>
       <c r="D20" s="5">
-        <v>2011</v>
+        <v>2006</v>
       </c>
       <c r="E20" s="5">
-        <v>2012</v>
+        <v>2007</v>
       </c>
       <c r="F20" s="5" t="s">
         <v>17</v>
       </c>
       <c r="G20" s="6">
-        <v>15</v>
+        <v>8</v>
       </c>
       <c r="H20" s="5" t="s">
-        <v>46</v>
+        <v>35</v>
       </c>
       <c r="I20" s="5">
-        <v>1061</v>
+        <v>1305</v>
       </c>
       <c r="J20" s="5" t="s">
-        <v>14</v>
+        <v>19</v>
       </c>
       <c r="K20" s="7" t="s">
         <v>13</v>
@@ -1512,34 +1506,34 @@
     </row>
     <row r="21" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A21" s="5" t="s">
-        <v>34</v>
+        <v>47</v>
       </c>
       <c r="B21" s="5" t="s">
         <v>10</v>
       </c>
       <c r="C21" s="5" t="s">
-        <v>20</v>
+        <v>44</v>
       </c>
       <c r="D21" s="5">
-        <v>2006</v>
+        <v>2008</v>
       </c>
       <c r="E21" s="5">
-        <v>2007</v>
+        <v>2012</v>
       </c>
       <c r="F21" s="5" t="s">
         <v>17</v>
       </c>
       <c r="G21" s="6">
-        <v>8</v>
+        <v>14</v>
       </c>
       <c r="H21" s="5" t="s">
-        <v>35</v>
+        <v>48</v>
       </c>
       <c r="I21" s="5">
-        <v>1305</v>
+        <v>1523</v>
       </c>
       <c r="J21" s="5" t="s">
-        <v>19</v>
+        <v>22</v>
       </c>
       <c r="K21" s="7" t="s">
         <v>13</v>
@@ -1547,34 +1541,34 @@
     </row>
     <row r="22" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A22" s="5" t="s">
-        <v>47</v>
+        <v>30</v>
       </c>
       <c r="B22" s="5" t="s">
         <v>10</v>
       </c>
       <c r="C22" s="5" t="s">
-        <v>44</v>
+        <v>25</v>
       </c>
       <c r="D22" s="5">
-        <v>2008</v>
+        <v>1999</v>
       </c>
       <c r="E22" s="5">
-        <v>2012</v>
+        <v>2003</v>
       </c>
       <c r="F22" s="5" t="s">
         <v>17</v>
       </c>
       <c r="G22" s="6">
-        <v>14</v>
+        <v>3</v>
       </c>
       <c r="H22" s="5" t="s">
-        <v>48</v>
+        <v>31</v>
       </c>
       <c r="I22" s="5">
-        <v>1523</v>
+        <v>1703</v>
       </c>
       <c r="J22" s="5" t="s">
-        <v>22</v>
+        <v>27</v>
       </c>
       <c r="K22" s="7" t="s">
         <v>13</v>
@@ -1582,7 +1576,7 @@
     </row>
     <row r="23" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A23" s="5" t="s">
-        <v>30</v>
+        <v>32</v>
       </c>
       <c r="B23" s="5" t="s">
         <v>10</v>
@@ -1600,13 +1594,13 @@
         <v>17</v>
       </c>
       <c r="G23" s="6">
-        <v>3</v>
+        <v>7</v>
       </c>
       <c r="H23" s="5" t="s">
-        <v>31</v>
+        <v>33</v>
       </c>
       <c r="I23" s="5">
-        <v>1703</v>
+        <v>1706</v>
       </c>
       <c r="J23" s="5" t="s">
         <v>27</v>
@@ -1617,7 +1611,7 @@
     </row>
     <row r="24" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A24" s="5" t="s">
-        <v>32</v>
+        <v>28</v>
       </c>
       <c r="B24" s="5" t="s">
         <v>10</v>
@@ -1635,13 +1629,13 @@
         <v>17</v>
       </c>
       <c r="G24" s="6">
-        <v>7</v>
+        <v>5</v>
       </c>
       <c r="H24" s="5" t="s">
-        <v>33</v>
+        <v>29</v>
       </c>
       <c r="I24" s="5">
-        <v>1706</v>
+        <v>1709</v>
       </c>
       <c r="J24" s="5" t="s">
         <v>27</v>
@@ -1652,34 +1646,34 @@
     </row>
     <row r="25" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A25" s="5" t="s">
-        <v>28</v>
+        <v>79</v>
       </c>
       <c r="B25" s="5" t="s">
-        <v>10</v>
+        <v>16</v>
       </c>
       <c r="C25" s="5" t="s">
-        <v>25</v>
+        <v>80</v>
       </c>
       <c r="D25" s="5">
-        <v>1999</v>
+        <v>1984</v>
       </c>
       <c r="E25" s="5">
-        <v>2003</v>
+        <v>1991</v>
       </c>
       <c r="F25" s="5" t="s">
         <v>17</v>
       </c>
       <c r="G25" s="6">
-        <v>5</v>
+        <v>1</v>
       </c>
       <c r="H25" s="5" t="s">
-        <v>29</v>
+        <v>81</v>
       </c>
       <c r="I25" s="5">
-        <v>1709</v>
+        <v>9203</v>
       </c>
       <c r="J25" s="5" t="s">
-        <v>27</v>
+        <v>15</v>
       </c>
       <c r="K25" s="7" t="s">
         <v>13</v>
@@ -1687,77 +1681,42 @@
     </row>
     <row r="26" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A26" s="5" t="s">
-        <v>81</v>
+        <v>83</v>
       </c>
       <c r="B26" s="5" t="s">
         <v>16</v>
       </c>
       <c r="C26" s="5" t="s">
+        <v>84</v>
+      </c>
+      <c r="D26" s="5">
+        <v>2005</v>
+      </c>
+      <c r="E26" s="5">
+        <v>2006</v>
+      </c>
+      <c r="F26" s="5" t="s">
+        <v>85</v>
+      </c>
+      <c r="G26" s="6" t="s">
         <v>82</v>
       </c>
-      <c r="D26" s="5">
-        <v>1984</v>
-      </c>
-      <c r="E26" s="5">
-        <v>1991</v>
-      </c>
-      <c r="F26" s="5" t="s">
-        <v>17</v>
-      </c>
-      <c r="G26" s="6">
-        <v>1</v>
-      </c>
       <c r="H26" s="5" t="s">
-        <v>83</v>
+        <v>86</v>
       </c>
       <c r="I26" s="5">
-        <v>9203</v>
+        <v>1130</v>
       </c>
       <c r="J26" s="5" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="K26" s="7" t="s">
         <v>13</v>
       </c>
     </row>
-    <row r="27" spans="1:11" x14ac:dyDescent="0.2">
-      <c r="A27" s="5" t="s">
-        <v>85</v>
-      </c>
-      <c r="B27" s="5" t="s">
-        <v>16</v>
-      </c>
-      <c r="C27" s="5" t="s">
-        <v>86</v>
-      </c>
-      <c r="D27" s="5">
-        <v>2005</v>
-      </c>
-      <c r="E27" s="5">
-        <v>2006</v>
-      </c>
-      <c r="F27" s="5" t="s">
-        <v>87</v>
-      </c>
-      <c r="G27" s="6" t="s">
-        <v>84</v>
-      </c>
-      <c r="H27" s="5" t="s">
-        <v>88</v>
-      </c>
-      <c r="I27" s="5">
-        <v>1130</v>
-      </c>
-      <c r="J27" s="5" t="s">
-        <v>14</v>
-      </c>
-      <c r="K27" s="7" t="s">
-        <v>13</v>
-      </c>
-    </row>
   </sheetData>
-  <sortState xmlns:xlrd2="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" ref="A2:K14">
-    <sortCondition ref="I2:I14"/>
+  <sortState xmlns:xlrd2="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" ref="A2:K13">
+    <sortCondition ref="I2:I13"/>
   </sortState>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
   <pageSetup paperSize="9" orientation="portrait" horizontalDpi="4294967292" verticalDpi="4294967292"/>

--- a/tabular/extension/srlv-refseqs.xlsx
+++ b/tabular/extension/srlv-refseqs.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/robertgifford/Projects/virus/comparative/Retrovirus/Lentivirus-GLUE/tabular/extension/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{5F1497C1-22A6-1046-9BE0-CAC20E61F4C0}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{128E7C7B-633A-2C44-B7B5-C8FF3602BC89}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="11600" yWindow="10440" windowWidth="28060" windowHeight="17540" tabRatio="500" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="23140" yWindow="5320" windowWidth="28060" windowHeight="17540" tabRatio="500" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="SRLV_curated.csv" sheetId="1" r:id="rId1"/>
@@ -29,7 +29,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="280" uniqueCount="87">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="307" uniqueCount="101">
   <si>
     <t>Accession</t>
   </si>
@@ -43,9 +43,6 @@
     <t>Isolation Year</t>
   </si>
   <si>
-    <t>Submission Year</t>
-  </si>
-  <si>
     <t>Genotype</t>
   </si>
   <si>
@@ -244,9 +241,6 @@
     <t>W. Asia</t>
   </si>
   <si>
-    <t>A1</t>
-  </si>
-  <si>
     <t>Sheep</t>
   </si>
   <si>
@@ -265,9 +259,6 @@
     <t>M34193</t>
   </si>
   <si>
-    <t>USA</t>
-  </si>
-  <si>
     <t>S51392</t>
   </si>
   <si>
@@ -290,6 +281,59 @@
   </si>
   <si>
     <t>Ov-1</t>
+  </si>
+  <si>
+    <t>AF479638</t>
+  </si>
+  <si>
+    <t>P1OLV</t>
+  </si>
+  <si>
+    <t>Portugal</t>
+  </si>
+  <si>
+    <t>MG996440</t>
+  </si>
+  <si>
+    <t>Capra hircus</t>
+  </si>
+  <si>
+    <t>Mexico</t>
+  </si>
+  <si>
+    <t>SRLV/B1/Goat/MX/INIFAP-1/2013</t>
+  </si>
+  <si>
+    <t>Ovis aries</t>
+  </si>
+  <si>
+    <t>EU293537</t>
+  </si>
+  <si>
+    <t>E</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>Roccaverano</t>
+  </si>
+  <si>
+    <t>FJ195346</t>
+  </si>
+  <si>
+    <t>B</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>GU120138</t>
+  </si>
+  <si>
+    <t>Shanxi</t>
+  </si>
+  <si>
+    <t>E. Asia</t>
+  </si>
+  <si>
+    <t>China</t>
   </si>
 </sst>
 </file>
@@ -320,7 +364,7 @@
       <scheme val="minor"/>
     </font>
   </fonts>
-  <fills count="5">
+  <fills count="7">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -345,6 +389,18 @@
         <bgColor indexed="65"/>
       </patternFill>
     </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor indexed="44"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor indexed="42"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
   </fills>
   <borders count="1">
     <border>
@@ -359,7 +415,7 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="2" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="8">
+  <cellXfs count="10">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="left"/>
@@ -380,6 +436,12 @@
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="4" borderId="0" xfId="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="5" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="6" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
   </cellXfs>
@@ -790,21 +852,22 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:K26"/>
+  <dimension ref="A1:J31"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="A2" sqref="A2:XFD2"/>
+      <selection activeCell="C31" sqref="C31"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
   <cols>
     <col min="1" max="1" width="21.83203125" style="1" customWidth="1"/>
-    <col min="2" max="6" width="10.83203125" style="1"/>
-    <col min="7" max="7" width="10.83203125" style="3"/>
-    <col min="8" max="11" width="10.83203125" style="1"/>
+    <col min="2" max="2" width="15.33203125" style="1" customWidth="1"/>
+    <col min="3" max="5" width="10.83203125" style="1"/>
+    <col min="6" max="6" width="10.83203125" style="3"/>
+    <col min="7" max="10" width="10.83203125" style="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="1" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A1" s="2" t="s">
         <v>0</v>
       </c>
@@ -820,11 +883,11 @@
       <c r="E1" s="2" t="s">
         <v>4</v>
       </c>
-      <c r="F1" s="2" t="s">
+      <c r="F1" s="4" t="s">
+        <v>56</v>
+      </c>
+      <c r="G1" s="2" t="s">
         <v>5</v>
-      </c>
-      <c r="G1" s="4" t="s">
-        <v>57</v>
       </c>
       <c r="H1" s="2" t="s">
         <v>6</v>
@@ -835,888 +898,967 @@
       <c r="J1" s="2" t="s">
         <v>8</v>
       </c>
-      <c r="K1" s="2" t="s">
-        <v>9</v>
-      </c>
-    </row>
-    <row r="2" spans="1:11" x14ac:dyDescent="0.2">
+    </row>
+    <row r="2" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A2" s="5" t="s">
-        <v>62</v>
+        <v>61</v>
       </c>
       <c r="B2" s="5" t="s">
-        <v>10</v>
+        <v>88</v>
       </c>
       <c r="C2" s="5" t="s">
-        <v>65</v>
+        <v>64</v>
       </c>
       <c r="D2" s="5">
         <v>1991</v>
       </c>
-      <c r="E2" s="5">
-        <v>2000</v>
-      </c>
-      <c r="F2" s="5" t="s">
-        <v>64</v>
-      </c>
-      <c r="G2" s="6" t="s">
-        <v>82</v>
-      </c>
-      <c r="H2" s="5" t="s">
+      <c r="E2" s="5" t="s">
         <v>63</v>
       </c>
-      <c r="I2" s="5">
+      <c r="F2" s="6" t="s">
+        <v>79</v>
+      </c>
+      <c r="G2" s="5" t="s">
+        <v>62</v>
+      </c>
+      <c r="H2" s="5">
         <v>8919</v>
       </c>
-      <c r="J2" s="5" t="s">
-        <v>15</v>
-      </c>
-      <c r="K2" s="7" t="s">
-        <v>13</v>
-      </c>
-    </row>
-    <row r="3" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="I2" s="5" t="s">
+        <v>14</v>
+      </c>
+      <c r="J2" s="7" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="3" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A3" s="5" t="s">
+        <v>23</v>
+      </c>
+      <c r="B3" s="5" t="s">
+        <v>88</v>
+      </c>
+      <c r="C3" s="5" t="s">
         <v>24</v>
-      </c>
-      <c r="B3" s="5" t="s">
-        <v>10</v>
-      </c>
-      <c r="C3" s="5" t="s">
-        <v>25</v>
       </c>
       <c r="D3" s="5">
         <v>1999</v>
       </c>
-      <c r="E3" s="5">
-        <v>2003</v>
-      </c>
-      <c r="F3" s="5" t="s">
-        <v>17</v>
-      </c>
-      <c r="G3" s="6">
+      <c r="E3" s="5" t="s">
+        <v>16</v>
+      </c>
+      <c r="F3" s="6">
         <v>4</v>
       </c>
-      <c r="H3" s="5" t="s">
-        <v>26</v>
-      </c>
-      <c r="I3" s="5">
+      <c r="G3" s="5" t="s">
+        <v>25</v>
+      </c>
+      <c r="H3" s="5">
         <v>9023</v>
       </c>
-      <c r="J3" s="5" t="s">
-        <v>15</v>
-      </c>
-      <c r="K3" s="7" t="s">
-        <v>13</v>
-      </c>
-    </row>
-    <row r="4" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="I3" s="5" t="s">
+        <v>14</v>
+      </c>
+      <c r="J3" s="7" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="4" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A4" s="5" t="s">
+        <v>65</v>
+      </c>
+      <c r="B4" s="5" t="s">
+        <v>91</v>
+      </c>
+      <c r="C4" s="5" t="s">
         <v>66</v>
-      </c>
-      <c r="B4" s="5" t="s">
-        <v>16</v>
-      </c>
-      <c r="C4" s="5" t="s">
-        <v>67</v>
       </c>
       <c r="D4" s="5">
         <v>2007</v>
       </c>
-      <c r="E4" s="5">
-        <v>2016</v>
-      </c>
-      <c r="F4" s="5" t="s">
+      <c r="E4" s="5" t="s">
+        <v>67</v>
+      </c>
+      <c r="F4" s="6" t="s">
+        <v>79</v>
+      </c>
+      <c r="G4" s="5" t="s">
         <v>68</v>
       </c>
-      <c r="G4" s="6" t="s">
-        <v>82</v>
-      </c>
-      <c r="H4" s="5" t="s">
+      <c r="H4" s="5">
+        <v>9136</v>
+      </c>
+      <c r="I4" s="5" t="s">
+        <v>14</v>
+      </c>
+      <c r="J4" s="7" t="s">
         <v>69</v>
       </c>
-      <c r="I4" s="5">
-        <v>9136</v>
-      </c>
-      <c r="J4" s="5" t="s">
-        <v>15</v>
-      </c>
-      <c r="K4" s="7" t="s">
-        <v>70</v>
-      </c>
-    </row>
-    <row r="5" spans="1:11" x14ac:dyDescent="0.2">
+    </row>
+    <row r="5" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A5" s="5" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="B5" s="5" t="s">
-        <v>61</v>
+        <v>91</v>
       </c>
       <c r="C5" s="5" t="s">
-        <v>61</v>
-      </c>
-      <c r="D5" s="5">
-        <v>1</v>
-      </c>
-      <c r="E5" s="5">
-        <v>1</v>
-      </c>
-      <c r="F5" s="5" t="s">
-        <v>17</v>
-      </c>
-      <c r="G5" s="6" t="s">
-        <v>82</v>
-      </c>
-      <c r="H5" s="5" t="s">
-        <v>61</v>
-      </c>
-      <c r="I5" s="5">
+        <v>81</v>
+      </c>
+      <c r="D5" s="1">
+        <v>2005</v>
+      </c>
+      <c r="E5" s="5" t="s">
+        <v>16</v>
+      </c>
+      <c r="F5" s="6" t="s">
+        <v>79</v>
+      </c>
+      <c r="G5" s="5">
+        <v>697</v>
+      </c>
+      <c r="H5" s="5">
         <v>9175</v>
       </c>
-      <c r="J5" s="5" t="s">
-        <v>15</v>
-      </c>
-      <c r="K5" s="7" t="s">
-        <v>61</v>
-      </c>
-    </row>
-    <row r="6" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="I5" s="5" t="s">
+        <v>14</v>
+      </c>
+      <c r="J5" s="7" t="s">
+        <v>60</v>
+      </c>
+    </row>
+    <row r="6" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A6" s="5" t="s">
-        <v>55</v>
+        <v>54</v>
       </c>
       <c r="B6" s="5" t="s">
-        <v>10</v>
+        <v>88</v>
       </c>
       <c r="C6" s="5" t="s">
-        <v>78</v>
+        <v>20</v>
       </c>
       <c r="D6" s="5">
         <v>1974</v>
       </c>
-      <c r="E6" s="5">
-        <v>1990</v>
-      </c>
-      <c r="F6" s="5" t="s">
-        <v>58</v>
-      </c>
-      <c r="G6" s="6">
+      <c r="E6" s="5" t="s">
+        <v>57</v>
+      </c>
+      <c r="F6" s="6">
         <v>1</v>
       </c>
-      <c r="H6" s="5" t="s">
-        <v>56</v>
-      </c>
-      <c r="I6" s="5">
+      <c r="G6" s="5" t="s">
+        <v>55</v>
+      </c>
+      <c r="H6" s="5">
         <v>9189</v>
       </c>
-      <c r="J6" s="5" t="s">
-        <v>15</v>
-      </c>
-      <c r="K6" s="7" t="s">
-        <v>23</v>
-      </c>
-    </row>
-    <row r="7" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="I6" s="5" t="s">
+        <v>14</v>
+      </c>
+      <c r="J6" s="7" t="s">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="7" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A7" s="5" t="s">
+        <v>48</v>
+      </c>
+      <c r="B7" s="5" t="s">
+        <v>91</v>
+      </c>
+      <c r="C7" s="5" t="s">
         <v>49</v>
-      </c>
-      <c r="B7" s="5" t="s">
-        <v>16</v>
-      </c>
-      <c r="C7" s="5" t="s">
-        <v>50</v>
       </c>
       <c r="D7" s="5">
         <v>1976</v>
       </c>
-      <c r="E7" s="5">
-        <v>1990</v>
-      </c>
-      <c r="F7" s="5" t="s">
-        <v>17</v>
-      </c>
-      <c r="G7" s="6">
+      <c r="E7" s="5" t="s">
+        <v>16</v>
+      </c>
+      <c r="F7" s="6">
         <v>1</v>
       </c>
-      <c r="H7" s="5" t="s">
+      <c r="G7" s="5" t="s">
+        <v>50</v>
+      </c>
+      <c r="H7" s="5">
+        <v>9256</v>
+      </c>
+      <c r="I7" s="5" t="s">
+        <v>14</v>
+      </c>
+      <c r="J7" s="7" t="s">
         <v>51</v>
       </c>
-      <c r="I7" s="5">
-        <v>9256</v>
-      </c>
-      <c r="J7" s="5" t="s">
-        <v>15</v>
-      </c>
-      <c r="K7" s="7" t="s">
-        <v>52</v>
-      </c>
-    </row>
-    <row r="8" spans="1:11" x14ac:dyDescent="0.2">
+    </row>
+    <row r="8" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A8" s="5" t="s">
-        <v>77</v>
+        <v>75</v>
       </c>
       <c r="B8" s="5" t="s">
-        <v>16</v>
+        <v>91</v>
       </c>
       <c r="C8" s="5" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="D8" s="5">
         <v>1976</v>
       </c>
-      <c r="E8" s="5">
-        <v>1990</v>
-      </c>
-      <c r="F8" s="5" t="s">
-        <v>17</v>
-      </c>
-      <c r="G8" s="6">
+      <c r="E8" s="5" t="s">
+        <v>16</v>
+      </c>
+      <c r="F8" s="6">
         <v>1</v>
       </c>
-      <c r="H8" s="5" t="s">
+      <c r="G8" s="5" t="s">
+        <v>50</v>
+      </c>
+      <c r="H8" s="5">
+        <v>9256</v>
+      </c>
+      <c r="I8" s="5" t="s">
+        <v>14</v>
+      </c>
+      <c r="J8" s="7" t="s">
         <v>51</v>
       </c>
-      <c r="I8" s="5">
-        <v>9256</v>
-      </c>
-      <c r="J8" s="5" t="s">
-        <v>15</v>
-      </c>
-      <c r="K8" s="7" t="s">
-        <v>52</v>
-      </c>
-    </row>
-    <row r="9" spans="1:11" x14ac:dyDescent="0.2">
+    </row>
+    <row r="9" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A9" s="5" t="s">
-        <v>60</v>
+        <v>59</v>
       </c>
       <c r="B9" s="5" t="s">
-        <v>16</v>
+        <v>91</v>
       </c>
       <c r="C9" s="5" t="s">
-        <v>76</v>
+        <v>74</v>
       </c>
       <c r="D9" s="5">
         <v>1949</v>
       </c>
       <c r="E9" s="5" t="s">
+        <v>16</v>
+      </c>
+      <c r="F9" s="6">
+        <v>1</v>
+      </c>
+      <c r="G9" s="5" t="s">
+        <v>70</v>
+      </c>
+      <c r="H9" s="5">
+        <v>9202</v>
+      </c>
+      <c r="I9" s="5" t="s">
+        <v>14</v>
+      </c>
+      <c r="J9" s="7" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="10" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="A10" s="5" t="s">
         <v>71</v>
       </c>
-      <c r="F9" s="5" t="s">
-        <v>17</v>
-      </c>
-      <c r="G9" s="6">
-        <v>1</v>
-      </c>
-      <c r="H9" s="5" t="s">
-        <v>72</v>
-      </c>
-      <c r="I9" s="5">
-        <v>9202</v>
-      </c>
-      <c r="J9" s="5" t="s">
-        <v>15</v>
-      </c>
-      <c r="K9" s="7" t="s">
-        <v>13</v>
-      </c>
-    </row>
-    <row r="10" spans="1:11" x14ac:dyDescent="0.2">
-      <c r="A10" s="5" t="s">
-        <v>73</v>
-      </c>
       <c r="B10" s="5" t="s">
-        <v>16</v>
+        <v>91</v>
       </c>
       <c r="C10" s="5" t="s">
-        <v>76</v>
+        <v>74</v>
       </c>
       <c r="D10" s="5">
         <v>1949</v>
       </c>
       <c r="E10" s="5" t="s">
-        <v>71</v>
-      </c>
-      <c r="F10" s="5" t="s">
-        <v>17</v>
-      </c>
-      <c r="G10" s="6">
+        <v>16</v>
+      </c>
+      <c r="F10" s="6">
         <v>1</v>
       </c>
-      <c r="H10" s="5" t="s">
-        <v>72</v>
-      </c>
-      <c r="I10" s="5">
+      <c r="G10" s="5" t="s">
+        <v>70</v>
+      </c>
+      <c r="H10" s="5">
         <v>9225</v>
       </c>
-      <c r="J10" s="5" t="s">
-        <v>15</v>
-      </c>
-      <c r="K10" s="7" t="s">
-        <v>13</v>
-      </c>
-    </row>
-    <row r="11" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="I10" s="5" t="s">
+        <v>14</v>
+      </c>
+      <c r="J10" s="7" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="11" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A11" s="5" t="s">
-        <v>60</v>
+        <v>59</v>
       </c>
       <c r="B11" s="5" t="s">
-        <v>16</v>
+        <v>91</v>
       </c>
       <c r="C11" s="5" t="s">
-        <v>76</v>
+        <v>74</v>
       </c>
       <c r="D11" s="5">
         <v>1951</v>
       </c>
       <c r="E11" s="5" t="s">
-        <v>71</v>
-      </c>
-      <c r="F11" s="5" t="s">
-        <v>17</v>
-      </c>
-      <c r="G11" s="6">
+        <v>16</v>
+      </c>
+      <c r="F11" s="6">
         <v>1</v>
       </c>
-      <c r="H11" s="5" t="s">
+      <c r="G11" s="5" t="s">
+        <v>70</v>
+      </c>
+      <c r="H11" s="5">
+        <v>9202</v>
+      </c>
+      <c r="I11" s="5" t="s">
+        <v>14</v>
+      </c>
+      <c r="J11" s="7" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="12" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="A12" s="5" t="s">
         <v>72</v>
       </c>
-      <c r="I11" s="5">
-        <v>9202</v>
-      </c>
-      <c r="J11" s="5" t="s">
-        <v>15</v>
-      </c>
-      <c r="K11" s="7" t="s">
-        <v>13</v>
-      </c>
-    </row>
-    <row r="12" spans="1:11" x14ac:dyDescent="0.2">
-      <c r="A12" s="5" t="s">
+      <c r="B12" s="5" t="s">
+        <v>91</v>
+      </c>
+      <c r="C12" s="5" t="s">
         <v>74</v>
-      </c>
-      <c r="B12" s="5" t="s">
-        <v>16</v>
-      </c>
-      <c r="C12" s="5" t="s">
-        <v>76</v>
       </c>
       <c r="D12" s="5">
         <v>1952</v>
       </c>
       <c r="E12" s="5" t="s">
-        <v>71</v>
-      </c>
-      <c r="F12" s="5" t="s">
-        <v>17</v>
-      </c>
-      <c r="G12" s="6">
+        <v>16</v>
+      </c>
+      <c r="F12" s="6">
         <v>1</v>
       </c>
-      <c r="H12" s="5" t="s">
-        <v>72</v>
-      </c>
-      <c r="I12" s="5">
+      <c r="G12" s="5" t="s">
+        <v>70</v>
+      </c>
+      <c r="H12" s="5">
         <v>9202</v>
       </c>
-      <c r="J12" s="5" t="s">
-        <v>15</v>
-      </c>
-      <c r="K12" s="7" t="s">
-        <v>13</v>
-      </c>
-    </row>
-    <row r="13" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="I12" s="5" t="s">
+        <v>14</v>
+      </c>
+      <c r="J12" s="7" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="13" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A13" s="5" t="s">
-        <v>75</v>
+        <v>73</v>
       </c>
       <c r="B13" s="5" t="s">
-        <v>16</v>
+        <v>91</v>
       </c>
       <c r="C13" s="5" t="s">
-        <v>76</v>
+        <v>74</v>
       </c>
       <c r="D13" s="5">
         <v>1953</v>
       </c>
       <c r="E13" s="5" t="s">
-        <v>71</v>
-      </c>
-      <c r="F13" s="5" t="s">
-        <v>17</v>
-      </c>
-      <c r="G13" s="6">
+        <v>16</v>
+      </c>
+      <c r="F13" s="6">
         <v>1</v>
       </c>
-      <c r="H13" s="5" t="s">
-        <v>72</v>
-      </c>
-      <c r="I13" s="5">
+      <c r="G13" s="5" t="s">
+        <v>70</v>
+      </c>
+      <c r="H13" s="5">
         <v>9203</v>
       </c>
-      <c r="J13" s="5" t="s">
-        <v>15</v>
-      </c>
-      <c r="K13" s="7" t="s">
-        <v>13</v>
-      </c>
-    </row>
-    <row r="14" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="I13" s="5" t="s">
+        <v>14</v>
+      </c>
+      <c r="J13" s="7" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="14" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A14" s="5" t="s">
-        <v>59</v>
+        <v>58</v>
       </c>
       <c r="B14" s="5" t="s">
-        <v>16</v>
+        <v>91</v>
       </c>
       <c r="C14" s="5" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="D14" s="5">
         <v>1994</v>
       </c>
-      <c r="E14" s="5">
-        <v>1995</v>
-      </c>
-      <c r="F14" s="5" t="s">
-        <v>17</v>
-      </c>
-      <c r="G14" s="6">
+      <c r="E14" s="5" t="s">
+        <v>16</v>
+      </c>
+      <c r="F14" s="6">
         <v>6</v>
       </c>
+      <c r="G14" s="5">
+        <v>676</v>
+      </c>
       <c r="H14" s="5">
-        <v>676</v>
-      </c>
-      <c r="I14" s="5">
         <v>475</v>
       </c>
-      <c r="J14" s="5" t="s">
-        <v>14</v>
-      </c>
-      <c r="K14" s="7" t="s">
+      <c r="I14" s="5" t="s">
         <v>13</v>
       </c>
-    </row>
-    <row r="15" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="J14" s="7" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="15" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A15" s="5" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="B15" s="5" t="s">
-        <v>10</v>
+        <v>88</v>
       </c>
       <c r="C15" s="5" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="D15" s="5">
         <v>2010</v>
       </c>
-      <c r="E15" s="5">
-        <v>2010</v>
-      </c>
-      <c r="F15" s="5" t="s">
-        <v>17</v>
-      </c>
-      <c r="G15" s="6">
+      <c r="E15" s="5" t="s">
+        <v>16</v>
+      </c>
+      <c r="F15" s="6">
         <v>11</v>
       </c>
-      <c r="H15" s="5" t="s">
+      <c r="G15" s="5" t="s">
+        <v>39</v>
+      </c>
+      <c r="H15" s="5">
+        <v>648</v>
+      </c>
+      <c r="I15" s="5" t="s">
+        <v>18</v>
+      </c>
+      <c r="J15" s="7" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="16" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="A16" s="5" t="s">
         <v>40</v>
       </c>
-      <c r="I15" s="5">
-        <v>648</v>
-      </c>
-      <c r="J15" s="5" t="s">
+      <c r="B16" s="5" t="s">
+        <v>91</v>
+      </c>
+      <c r="C16" s="5" t="s">
         <v>19</v>
-      </c>
-      <c r="K15" s="7" t="s">
-        <v>13</v>
-      </c>
-    </row>
-    <row r="16" spans="1:11" x14ac:dyDescent="0.2">
-      <c r="A16" s="5" t="s">
-        <v>41</v>
-      </c>
-      <c r="B16" s="5" t="s">
-        <v>16</v>
-      </c>
-      <c r="C16" s="5" t="s">
-        <v>20</v>
       </c>
       <c r="D16" s="5">
         <v>2010</v>
       </c>
-      <c r="E16" s="5">
-        <v>2011</v>
-      </c>
-      <c r="F16" s="5" t="s">
-        <v>17</v>
-      </c>
-      <c r="G16" s="6">
+      <c r="E16" s="5" t="s">
+        <v>16</v>
+      </c>
+      <c r="F16" s="6">
         <v>9</v>
       </c>
-      <c r="H16" s="5" t="s">
-        <v>42</v>
-      </c>
-      <c r="I16" s="5">
+      <c r="G16" s="5" t="s">
+        <v>41</v>
+      </c>
+      <c r="H16" s="5">
         <v>660</v>
       </c>
-      <c r="J16" s="5" t="s">
-        <v>19</v>
-      </c>
-      <c r="K16" s="7" t="s">
-        <v>13</v>
-      </c>
-    </row>
-    <row r="17" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="I16" s="5" t="s">
+        <v>18</v>
+      </c>
+      <c r="J16" s="7" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="17" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A17" s="5" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="B17" s="5" t="s">
-        <v>16</v>
+        <v>91</v>
       </c>
       <c r="C17" s="5" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="D17" s="5">
         <v>2008</v>
       </c>
-      <c r="E17" s="5">
-        <v>2009</v>
-      </c>
-      <c r="F17" s="5" t="s">
-        <v>17</v>
-      </c>
-      <c r="G17" s="6">
-        <v>12</v>
+      <c r="E17" s="5" t="s">
+        <v>16</v>
+      </c>
+      <c r="F17" s="6">
+        <v>12</v>
+      </c>
+      <c r="G17" s="5">
+        <v>4007</v>
       </c>
       <c r="H17" s="5">
-        <v>4007</v>
-      </c>
-      <c r="I17" s="5">
         <v>1004</v>
       </c>
-      <c r="J17" s="5" t="s">
-        <v>19</v>
-      </c>
-      <c r="K17" s="7" t="s">
-        <v>13</v>
-      </c>
-    </row>
-    <row r="18" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="I17" s="5" t="s">
+        <v>18</v>
+      </c>
+      <c r="J17" s="7" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="18" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A18" s="5" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="B18" s="5" t="s">
-        <v>16</v>
+        <v>91</v>
       </c>
       <c r="C18" s="5" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="D18" s="5">
         <v>2008</v>
       </c>
-      <c r="E18" s="5">
-        <v>2009</v>
-      </c>
-      <c r="F18" s="5" t="s">
-        <v>17</v>
-      </c>
-      <c r="G18" s="6">
+      <c r="E18" s="5" t="s">
+        <v>16</v>
+      </c>
+      <c r="F18" s="6">
         <v>13</v>
       </c>
+      <c r="G18" s="5">
+        <v>16</v>
+      </c>
       <c r="H18" s="5">
-        <v>16</v>
-      </c>
-      <c r="I18" s="5">
         <v>1004</v>
       </c>
-      <c r="J18" s="5" t="s">
-        <v>19</v>
-      </c>
-      <c r="K18" s="7" t="s">
-        <v>13</v>
-      </c>
-    </row>
-    <row r="19" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="I18" s="5" t="s">
+        <v>18</v>
+      </c>
+      <c r="J18" s="7" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="19" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A19" s="5" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="B19" s="5" t="s">
-        <v>16</v>
+        <v>91</v>
       </c>
       <c r="C19" s="5" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="D19" s="5">
         <v>2011</v>
       </c>
-      <c r="E19" s="5">
-        <v>2012</v>
-      </c>
-      <c r="F19" s="5" t="s">
-        <v>17</v>
-      </c>
-      <c r="G19" s="6">
+      <c r="E19" s="5" t="s">
+        <v>16</v>
+      </c>
+      <c r="F19" s="6">
         <v>15</v>
       </c>
-      <c r="H19" s="5" t="s">
-        <v>46</v>
-      </c>
-      <c r="I19" s="5">
+      <c r="G19" s="5" t="s">
+        <v>45</v>
+      </c>
+      <c r="H19" s="5">
         <v>1061</v>
       </c>
-      <c r="J19" s="5" t="s">
-        <v>14</v>
-      </c>
-      <c r="K19" s="7" t="s">
+      <c r="I19" s="5" t="s">
         <v>13</v>
       </c>
-    </row>
-    <row r="20" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="J19" s="7" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="20" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A20" s="5" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="B20" s="5" t="s">
-        <v>10</v>
+        <v>88</v>
       </c>
       <c r="C20" s="5" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="D20" s="5">
         <v>2006</v>
       </c>
-      <c r="E20" s="5">
-        <v>2007</v>
-      </c>
-      <c r="F20" s="5" t="s">
-        <v>17</v>
-      </c>
-      <c r="G20" s="6">
+      <c r="E20" s="5" t="s">
+        <v>16</v>
+      </c>
+      <c r="F20" s="6">
         <v>8</v>
       </c>
-      <c r="H20" s="5" t="s">
-        <v>35</v>
-      </c>
-      <c r="I20" s="5">
+      <c r="G20" s="5" t="s">
+        <v>34</v>
+      </c>
+      <c r="H20" s="5">
         <v>1305</v>
       </c>
-      <c r="J20" s="5" t="s">
-        <v>19</v>
-      </c>
-      <c r="K20" s="7" t="s">
-        <v>13</v>
-      </c>
-    </row>
-    <row r="21" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="I20" s="5" t="s">
+        <v>18</v>
+      </c>
+      <c r="J20" s="7" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="21" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A21" s="5" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="B21" s="5" t="s">
-        <v>10</v>
+        <v>88</v>
       </c>
       <c r="C21" s="5" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="D21" s="5">
         <v>2008</v>
       </c>
-      <c r="E21" s="5">
-        <v>2012</v>
-      </c>
-      <c r="F21" s="5" t="s">
-        <v>17</v>
-      </c>
-      <c r="G21" s="6">
+      <c r="E21" s="5" t="s">
+        <v>16</v>
+      </c>
+      <c r="F21" s="6">
         <v>14</v>
       </c>
-      <c r="H21" s="5" t="s">
-        <v>48</v>
-      </c>
-      <c r="I21" s="5">
+      <c r="G21" s="5" t="s">
+        <v>47</v>
+      </c>
+      <c r="H21" s="5">
         <v>1523</v>
       </c>
-      <c r="J21" s="5" t="s">
-        <v>22</v>
-      </c>
-      <c r="K21" s="7" t="s">
-        <v>13</v>
-      </c>
-    </row>
-    <row r="22" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="I21" s="5" t="s">
+        <v>21</v>
+      </c>
+      <c r="J21" s="7" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="22" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A22" s="5" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="B22" s="5" t="s">
-        <v>10</v>
+        <v>88</v>
       </c>
       <c r="C22" s="5" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="D22" s="5">
         <v>1999</v>
       </c>
-      <c r="E22" s="5">
-        <v>2003</v>
-      </c>
-      <c r="F22" s="5" t="s">
-        <v>17</v>
-      </c>
-      <c r="G22" s="6">
+      <c r="E22" s="5" t="s">
+        <v>16</v>
+      </c>
+      <c r="F22" s="6">
         <v>3</v>
       </c>
-      <c r="H22" s="5" t="s">
+      <c r="G22" s="5" t="s">
+        <v>30</v>
+      </c>
+      <c r="H22" s="5">
+        <v>1703</v>
+      </c>
+      <c r="I22" s="5" t="s">
+        <v>26</v>
+      </c>
+      <c r="J22" s="7" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="23" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="A23" s="5" t="s">
         <v>31</v>
       </c>
-      <c r="I22" s="5">
-        <v>1703</v>
-      </c>
-      <c r="J22" s="5" t="s">
-        <v>27</v>
-      </c>
-      <c r="K22" s="7" t="s">
-        <v>13</v>
-      </c>
-    </row>
-    <row r="23" spans="1:11" x14ac:dyDescent="0.2">
-      <c r="A23" s="5" t="s">
-        <v>32</v>
-      </c>
       <c r="B23" s="5" t="s">
-        <v>10</v>
+        <v>88</v>
       </c>
       <c r="C23" s="5" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="D23" s="5">
         <v>1999</v>
       </c>
-      <c r="E23" s="5">
-        <v>2003</v>
-      </c>
-      <c r="F23" s="5" t="s">
-        <v>17</v>
-      </c>
-      <c r="G23" s="6">
+      <c r="E23" s="5" t="s">
+        <v>16</v>
+      </c>
+      <c r="F23" s="6">
         <v>7</v>
       </c>
-      <c r="H23" s="5" t="s">
-        <v>33</v>
-      </c>
-      <c r="I23" s="5">
+      <c r="G23" s="5" t="s">
+        <v>32</v>
+      </c>
+      <c r="H23" s="5">
         <v>1706</v>
       </c>
-      <c r="J23" s="5" t="s">
+      <c r="I23" s="5" t="s">
+        <v>26</v>
+      </c>
+      <c r="J23" s="7" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="24" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="A24" s="5" t="s">
         <v>27</v>
       </c>
-      <c r="K23" s="7" t="s">
-        <v>13</v>
-      </c>
-    </row>
-    <row r="24" spans="1:11" x14ac:dyDescent="0.2">
-      <c r="A24" s="5" t="s">
-        <v>28</v>
-      </c>
       <c r="B24" s="5" t="s">
-        <v>10</v>
+        <v>88</v>
       </c>
       <c r="C24" s="5" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="D24" s="5">
         <v>1999</v>
       </c>
-      <c r="E24" s="5">
-        <v>2003</v>
-      </c>
-      <c r="F24" s="5" t="s">
-        <v>17</v>
-      </c>
-      <c r="G24" s="6">
+      <c r="E24" s="5" t="s">
+        <v>16</v>
+      </c>
+      <c r="F24" s="6">
         <v>5</v>
       </c>
-      <c r="H24" s="5" t="s">
-        <v>29</v>
-      </c>
-      <c r="I24" s="5">
+      <c r="G24" s="5" t="s">
+        <v>28</v>
+      </c>
+      <c r="H24" s="5">
         <v>1709</v>
       </c>
-      <c r="J24" s="5" t="s">
-        <v>27</v>
-      </c>
-      <c r="K24" s="7" t="s">
-        <v>13</v>
-      </c>
-    </row>
-    <row r="25" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="I24" s="5" t="s">
+        <v>26</v>
+      </c>
+      <c r="J24" s="7" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="25" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A25" s="5" t="s">
-        <v>79</v>
+        <v>76</v>
       </c>
       <c r="B25" s="5" t="s">
-        <v>16</v>
+        <v>91</v>
       </c>
       <c r="C25" s="5" t="s">
-        <v>80</v>
+        <v>77</v>
       </c>
       <c r="D25" s="5">
         <v>1984</v>
       </c>
-      <c r="E25" s="5">
-        <v>1991</v>
-      </c>
-      <c r="F25" s="5" t="s">
-        <v>17</v>
-      </c>
-      <c r="G25" s="6">
+      <c r="E25" s="5" t="s">
+        <v>16</v>
+      </c>
+      <c r="F25" s="6">
         <v>1</v>
       </c>
-      <c r="H25" s="5" t="s">
+      <c r="G25" s="5" t="s">
+        <v>78</v>
+      </c>
+      <c r="H25" s="5">
+        <v>9203</v>
+      </c>
+      <c r="I25" s="5" t="s">
+        <v>14</v>
+      </c>
+      <c r="J25" s="7" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="26" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="A26" s="5" t="s">
+        <v>80</v>
+      </c>
+      <c r="B26" s="5" t="s">
+        <v>91</v>
+      </c>
+      <c r="C26" s="5" t="s">
         <v>81</v>
-      </c>
-      <c r="I25" s="5">
-        <v>9203</v>
-      </c>
-      <c r="J25" s="5" t="s">
-        <v>15</v>
-      </c>
-      <c r="K25" s="7" t="s">
-        <v>13</v>
-      </c>
-    </row>
-    <row r="26" spans="1:11" x14ac:dyDescent="0.2">
-      <c r="A26" s="5" t="s">
-        <v>83</v>
-      </c>
-      <c r="B26" s="5" t="s">
-        <v>16</v>
-      </c>
-      <c r="C26" s="5" t="s">
-        <v>84</v>
       </c>
       <c r="D26" s="5">
         <v>2005</v>
       </c>
-      <c r="E26" s="5">
-        <v>2006</v>
-      </c>
-      <c r="F26" s="5" t="s">
+      <c r="E26" s="5" t="s">
+        <v>82</v>
+      </c>
+      <c r="F26" s="6" t="s">
+        <v>79</v>
+      </c>
+      <c r="G26" s="5" t="s">
+        <v>83</v>
+      </c>
+      <c r="H26" s="5">
+        <v>1130</v>
+      </c>
+      <c r="I26" s="5" t="s">
+        <v>13</v>
+      </c>
+      <c r="J26" s="7" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="27" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="A27" s="5" t="s">
+        <v>84</v>
+      </c>
+      <c r="B27" s="5" t="s">
+        <v>91</v>
+      </c>
+      <c r="C27" s="5" t="s">
+        <v>86</v>
+      </c>
+      <c r="D27" s="5">
+        <v>1996</v>
+      </c>
+      <c r="E27" s="5" t="s">
+        <v>16</v>
+      </c>
+      <c r="F27" s="6">
+        <v>1</v>
+      </c>
+      <c r="G27" s="5" t="s">
         <v>85</v>
       </c>
-      <c r="G26" s="6" t="s">
-        <v>82</v>
-      </c>
-      <c r="H26" s="5" t="s">
-        <v>86</v>
-      </c>
-      <c r="I26" s="5">
-        <v>1130</v>
-      </c>
-      <c r="J26" s="5" t="s">
+      <c r="H27" s="5">
+        <v>9189</v>
+      </c>
+      <c r="I27" s="5" t="s">
         <v>14</v>
       </c>
-      <c r="K26" s="7" t="s">
-        <v>13</v>
+      <c r="J27" s="7" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="28" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="A28" s="5" t="s">
+        <v>87</v>
+      </c>
+      <c r="B28" s="5" t="s">
+        <v>88</v>
+      </c>
+      <c r="C28" s="5" t="s">
+        <v>89</v>
+      </c>
+      <c r="D28" s="5">
+        <v>2013</v>
+      </c>
+      <c r="E28" s="5" t="s">
+        <v>57</v>
+      </c>
+      <c r="F28" s="6">
+        <v>1</v>
+      </c>
+      <c r="G28" s="5" t="s">
+        <v>90</v>
+      </c>
+      <c r="H28" s="5">
+        <v>2013</v>
+      </c>
+      <c r="I28" s="5">
+        <v>9131</v>
+      </c>
+      <c r="J28" s="7" t="s">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="29" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="A29" s="1" t="s">
+        <v>92</v>
+      </c>
+      <c r="B29" s="5" t="s">
+        <v>88</v>
+      </c>
+      <c r="C29" s="1" t="s">
+        <v>19</v>
+      </c>
+      <c r="D29" s="1">
+        <v>2008</v>
+      </c>
+      <c r="E29" s="8" t="s">
+        <v>93</v>
+      </c>
+      <c r="F29" s="6" t="s">
+        <v>79</v>
+      </c>
+      <c r="G29" s="1" t="s">
+        <v>94</v>
+      </c>
+      <c r="H29" s="1">
+        <v>8418</v>
+      </c>
+      <c r="I29" s="1" t="s">
+        <v>14</v>
+      </c>
+      <c r="J29" s="1" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="30" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="A30" s="1" t="s">
+        <v>95</v>
+      </c>
+      <c r="B30" s="5" t="s">
+        <v>91</v>
+      </c>
+      <c r="C30" s="5" t="s">
+        <v>81</v>
+      </c>
+      <c r="D30" s="1">
+        <v>2004</v>
+      </c>
+      <c r="E30" s="9" t="s">
+        <v>96</v>
+      </c>
+      <c r="F30" s="6">
+        <v>1</v>
+      </c>
+      <c r="G30" s="1">
+        <v>496</v>
+      </c>
+      <c r="H30" s="1">
+        <v>9136</v>
+      </c>
+      <c r="I30" s="1" t="s">
+        <v>14</v>
+      </c>
+      <c r="J30" s="1" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="31" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="A31" s="1" t="s">
+        <v>97</v>
+      </c>
+      <c r="B31" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="C31" s="1" t="s">
+        <v>100</v>
+      </c>
+      <c r="D31" s="1">
+        <v>2009</v>
+      </c>
+      <c r="E31" s="9" t="s">
+        <v>96</v>
+      </c>
+      <c r="G31" s="1" t="s">
+        <v>98</v>
+      </c>
+      <c r="H31" s="1">
+        <v>9065</v>
+      </c>
+      <c r="I31" s="1" t="s">
+        <v>14</v>
+      </c>
+      <c r="J31" s="1" t="s">
+        <v>99</v>
       </c>
     </row>
   </sheetData>
-  <sortState xmlns:xlrd2="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" ref="A2:K13">
-    <sortCondition ref="I2:I13"/>
+  <sortState xmlns:xlrd2="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" ref="A2:J13">
+    <sortCondition ref="H2:H13"/>
   </sortState>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
   <pageSetup paperSize="9" orientation="portrait" horizontalDpi="4294967292" verticalDpi="4294967292"/>
@@ -1739,13 +1881,13 @@
         <v>48</v>
       </c>
       <c r="B1" s="1" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
       <c r="C1" s="1" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="D1" s="1" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="E1" s="1">
         <v>1980</v>
@@ -1754,22 +1896,22 @@
         <v>1993</v>
       </c>
       <c r="G1" s="1" t="s">
-        <v>58</v>
+        <v>57</v>
       </c>
       <c r="H1" s="1" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="I1" s="1" t="s">
-        <v>54</v>
+        <v>53</v>
       </c>
       <c r="J1" s="1">
         <v>2892</v>
       </c>
       <c r="K1" s="1" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="L1" s="1" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
     </row>
     <row r="2" spans="1:12" x14ac:dyDescent="0.2">
@@ -1777,13 +1919,13 @@
         <v>8</v>
       </c>
       <c r="B2" s="5" t="s">
-        <v>59</v>
+        <v>58</v>
       </c>
       <c r="C2" s="5" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="D2" s="5" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="E2" s="5">
         <v>1994</v>
@@ -1792,7 +1934,7 @@
         <v>1995</v>
       </c>
       <c r="G2" s="5" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="H2" s="6">
         <v>6</v>
@@ -1804,10 +1946,10 @@
         <v>475</v>
       </c>
       <c r="K2" s="5" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="L2" s="5" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
     </row>
     <row r="3" spans="1:12" x14ac:dyDescent="0.2">
@@ -1815,13 +1957,13 @@
         <v>13</v>
       </c>
       <c r="B3" s="5" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="C3" s="5" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="D3" s="5" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="E3" s="5">
         <v>2010</v>
@@ -1830,22 +1972,22 @@
         <v>2010</v>
       </c>
       <c r="G3" s="5" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="H3" s="6">
         <v>11</v>
       </c>
       <c r="I3" s="5" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="J3" s="5">
         <v>648</v>
       </c>
       <c r="K3" s="5" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="L3" s="5" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
     </row>
     <row r="4" spans="1:12" x14ac:dyDescent="0.2">
@@ -1853,13 +1995,13 @@
         <v>12</v>
       </c>
       <c r="B4" s="5" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="C4" s="5" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="D4" s="5" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="E4" s="5">
         <v>2010</v>
@@ -1868,22 +2010,22 @@
         <v>2011</v>
       </c>
       <c r="G4" s="5" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="H4" s="6">
         <v>9</v>
       </c>
       <c r="I4" s="5" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="J4" s="5">
         <v>660</v>
       </c>
       <c r="K4" s="5" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="L4" s="5" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
     </row>
     <row r="5" spans="1:12" x14ac:dyDescent="0.2">
@@ -1891,13 +2033,13 @@
         <v>14</v>
       </c>
       <c r="B5" s="5" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="C5" s="5" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="D5" s="5" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="E5" s="5">
         <v>2008</v>
@@ -1906,10 +2048,10 @@
         <v>2009</v>
       </c>
       <c r="G5" s="5" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="H5" s="6" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="I5" s="5">
         <v>4007</v>
@@ -1918,10 +2060,10 @@
         <v>1004</v>
       </c>
       <c r="K5" s="5" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="L5" s="5" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
     </row>
     <row r="6" spans="1:12" x14ac:dyDescent="0.2">
@@ -1929,13 +2071,13 @@
         <v>15</v>
       </c>
       <c r="B6" s="5" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="C6" s="5" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="D6" s="5" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="E6" s="5">
         <v>2008</v>
@@ -1944,10 +2086,10 @@
         <v>2009</v>
       </c>
       <c r="G6" s="5" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="H6" s="6" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="I6" s="5">
         <v>16</v>
@@ -1956,10 +2098,10 @@
         <v>1004</v>
       </c>
       <c r="K6" s="5" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="L6" s="5" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
     </row>
     <row r="7" spans="1:12" x14ac:dyDescent="0.2">
@@ -1967,13 +2109,13 @@
         <v>17</v>
       </c>
       <c r="B7" s="5" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="C7" s="5" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="D7" s="5" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="E7" s="5">
         <v>2011</v>
@@ -1982,22 +2124,22 @@
         <v>2012</v>
       </c>
       <c r="G7" s="5" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="H7" s="6" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="I7" s="5" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="J7" s="5">
         <v>1061</v>
       </c>
       <c r="K7" s="5" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="L7" s="5" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
     </row>
     <row r="8" spans="1:12" x14ac:dyDescent="0.2">
@@ -2005,13 +2147,13 @@
         <v>10</v>
       </c>
       <c r="B8" s="5" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="C8" s="5" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="D8" s="5" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="E8" s="5">
         <v>2006</v>
@@ -2020,22 +2162,22 @@
         <v>2007</v>
       </c>
       <c r="G8" s="5" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="H8" s="6">
         <v>8</v>
       </c>
       <c r="I8" s="5" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="J8" s="5">
         <v>1305</v>
       </c>
       <c r="K8" s="5" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="L8" s="5" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
     </row>
     <row r="9" spans="1:12" x14ac:dyDescent="0.2">
@@ -2043,13 +2185,13 @@
         <v>16</v>
       </c>
       <c r="B9" s="5" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="C9" s="5" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="D9" s="5" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="E9" s="5">
         <v>2008</v>
@@ -2058,22 +2200,22 @@
         <v>2012</v>
       </c>
       <c r="G9" s="5" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="H9" s="6" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="I9" s="5" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="J9" s="5">
         <v>1523</v>
       </c>
       <c r="K9" s="5" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="L9" s="5" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
     </row>
     <row r="10" spans="1:12" x14ac:dyDescent="0.2">
@@ -2081,13 +2223,13 @@
         <v>5</v>
       </c>
       <c r="B10" s="5" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="C10" s="5" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="D10" s="5" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="E10" s="5">
         <v>1999</v>
@@ -2096,22 +2238,22 @@
         <v>2003</v>
       </c>
       <c r="G10" s="5" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="H10" s="6">
         <v>3</v>
       </c>
       <c r="I10" s="5" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="J10" s="5">
         <v>1703</v>
       </c>
       <c r="K10" s="5" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="L10" s="5" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
     </row>
     <row r="11" spans="1:12" x14ac:dyDescent="0.2">
@@ -2119,13 +2261,13 @@
         <v>9</v>
       </c>
       <c r="B11" s="5" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="C11" s="5" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="D11" s="5" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="E11" s="5">
         <v>1999</v>
@@ -2134,22 +2276,22 @@
         <v>2003</v>
       </c>
       <c r="G11" s="5" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="H11" s="6" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="I11" s="5" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="J11" s="5">
         <v>1706</v>
       </c>
       <c r="K11" s="5" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="L11" s="5" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
     </row>
     <row r="12" spans="1:12" x14ac:dyDescent="0.2">
@@ -2157,13 +2299,13 @@
         <v>7</v>
       </c>
       <c r="B12" s="5" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="C12" s="5" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="D12" s="5" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="E12" s="5">
         <v>1999</v>
@@ -2172,22 +2314,22 @@
         <v>2003</v>
       </c>
       <c r="G12" s="5" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="H12" s="6" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="I12" s="5" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="J12" s="5">
         <v>1709</v>
       </c>
       <c r="K12" s="5" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="L12" s="5" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
     </row>
   </sheetData>

--- a/tabular/extension/srlv-refseqs.xlsx
+++ b/tabular/extension/srlv-refseqs.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/robertgifford/Projects/virus/comparative/Retrovirus/Lentivirus-GLUE/tabular/extension/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{128E7C7B-633A-2C44-B7B5-C8FF3602BC89}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{5A34F24E-D392-9D46-AE2F-EAC91EFF869A}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="23140" yWindow="5320" windowWidth="28060" windowHeight="17540" tabRatio="500" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="30500" yWindow="4460" windowWidth="28060" windowHeight="17540" tabRatio="500" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="SRLV_curated.csv" sheetId="1" r:id="rId1"/>
@@ -29,7 +29,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="307" uniqueCount="101">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="775" uniqueCount="216">
   <si>
     <t>Accession</t>
   </si>
@@ -209,9 +209,6 @@
   </si>
   <si>
     <t>A15114</t>
-  </si>
-  <si>
-    <t>NULL</t>
   </si>
   <si>
     <t>AF322109</t>
@@ -334,13 +331,363 @@
   </si>
   <si>
     <t>China</t>
+  </si>
+  <si>
+    <t>KY358787</t>
+  </si>
+  <si>
+    <t>USMARC-200303013-1</t>
+  </si>
+  <si>
+    <t>KY358788</t>
+  </si>
+  <si>
+    <t>USMARC-199906011-2</t>
+  </si>
+  <si>
+    <t>AY900630</t>
+  </si>
+  <si>
+    <t>Gansu</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>Genome</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>MG554406</t>
+  </si>
+  <si>
+    <t>SRLV005</t>
+  </si>
+  <si>
+    <t>KT453988</t>
+  </si>
+  <si>
+    <t>g6221</t>
+  </si>
+  <si>
+    <t>KT453989</t>
+  </si>
+  <si>
+    <t>s7385</t>
+  </si>
+  <si>
+    <t>KT453990</t>
+  </si>
+  <si>
+    <t>s7631</t>
+  </si>
+  <si>
+    <t>MH374291</t>
+  </si>
+  <si>
+    <t>SRLV_VdA</t>
+  </si>
+  <si>
+    <t>MG554409</t>
+  </si>
+  <si>
+    <t>SRLV009</t>
+  </si>
+  <si>
+    <t>MG554403</t>
+  </si>
+  <si>
+    <t>SRLV002</t>
+  </si>
+  <si>
+    <t>MH374285</t>
+  </si>
+  <si>
+    <t>SRLV026</t>
+  </si>
+  <si>
+    <t>MG554411</t>
+  </si>
+  <si>
+    <t>SRLV014</t>
+  </si>
+  <si>
+    <t>MH374283</t>
+  </si>
+  <si>
+    <t>SRLV024</t>
+  </si>
+  <si>
+    <t>MH374286</t>
+  </si>
+  <si>
+    <t>SRLV032</t>
+  </si>
+  <si>
+    <t>MG554408</t>
+  </si>
+  <si>
+    <t>SRLV007</t>
+  </si>
+  <si>
+    <t>MH374284</t>
+  </si>
+  <si>
+    <t>SRLV025</t>
+  </si>
+  <si>
+    <t>MG554404</t>
+  </si>
+  <si>
+    <t>SRLV003</t>
+  </si>
+  <si>
+    <t>MT993916</t>
+  </si>
+  <si>
+    <t>USMARC-200177363-2</t>
+  </si>
+  <si>
+    <t>MT993902</t>
+  </si>
+  <si>
+    <t>USMARC-200103342-1</t>
+  </si>
+  <si>
+    <t>MG554405</t>
+  </si>
+  <si>
+    <t>SRLV004</t>
+  </si>
+  <si>
+    <t>MT993896</t>
+  </si>
+  <si>
+    <t>MT993914</t>
+  </si>
+  <si>
+    <t>USMARC-200016283-2</t>
+  </si>
+  <si>
+    <t>MT993918</t>
+  </si>
+  <si>
+    <t>USMARC-199916193-r</t>
+  </si>
+  <si>
+    <t>MT993915</t>
+  </si>
+  <si>
+    <t>USMARC-200335185-2</t>
+  </si>
+  <si>
+    <t>MT993900</t>
+  </si>
+  <si>
+    <t>USMARC-200050064-r</t>
+  </si>
+  <si>
+    <t>MT993908</t>
+  </si>
+  <si>
+    <t>USMARC-200212120-r</t>
+  </si>
+  <si>
+    <t>MT993913</t>
+  </si>
+  <si>
+    <t>USMARC-200106929-2</t>
+  </si>
+  <si>
+    <t>MT993907</t>
+  </si>
+  <si>
+    <t>USMARC-200216049-r</t>
+  </si>
+  <si>
+    <t>MT993910</t>
+  </si>
+  <si>
+    <t>USMARC-200312088-r</t>
+  </si>
+  <si>
+    <t>MH916859</t>
+  </si>
+  <si>
+    <t>MT993901</t>
+  </si>
+  <si>
+    <t>USMARC-200323455-1</t>
+  </si>
+  <si>
+    <t>MT993904</t>
+  </si>
+  <si>
+    <t>USMARC-200023230-1</t>
+  </si>
+  <si>
+    <t>MW248464</t>
+  </si>
+  <si>
+    <t>NM1111</t>
+  </si>
+  <si>
+    <t>MT993897</t>
+  </si>
+  <si>
+    <t>USMARC-200303038-1</t>
+  </si>
+  <si>
+    <t>MT993903</t>
+  </si>
+  <si>
+    <t>USMARC-199835918-1</t>
+  </si>
+  <si>
+    <t>MT993909</t>
+  </si>
+  <si>
+    <t>USMARC-200312013-r</t>
+  </si>
+  <si>
+    <t>MT993912</t>
+  </si>
+  <si>
+    <t>USMARC-200106932-2</t>
+  </si>
+  <si>
+    <t>MT993911</t>
+  </si>
+  <si>
+    <t>MT993906</t>
+  </si>
+  <si>
+    <t>USMARC-200117502-r</t>
+  </si>
+  <si>
+    <t>MT993917</t>
+  </si>
+  <si>
+    <t>USMARC-199916128-2</t>
+  </si>
+  <si>
+    <t>KT749878</t>
+  </si>
+  <si>
+    <t>Shandong</t>
+  </si>
+  <si>
+    <t>MT993898</t>
+  </si>
+  <si>
+    <t>USMARC-200303332-1</t>
+  </si>
+  <si>
+    <t>KT749881</t>
+  </si>
+  <si>
+    <t>gs-35V</t>
+  </si>
+  <si>
+    <t>MG554410</t>
+  </si>
+  <si>
+    <t>SRLV010</t>
+  </si>
+  <si>
+    <t>MT993899</t>
+  </si>
+  <si>
+    <t>USMARC-200103515-1</t>
+  </si>
+  <si>
+    <t>MT993905</t>
+  </si>
+  <si>
+    <t>USMARC-201373037-1</t>
+  </si>
+  <si>
+    <t>MH374287</t>
+  </si>
+  <si>
+    <t>SRLV038</t>
+  </si>
+  <si>
+    <t>KT749879</t>
+  </si>
+  <si>
+    <t>Shaanxi</t>
+  </si>
+  <si>
+    <t>MH374289</t>
+  </si>
+  <si>
+    <t>SRLV_Taccone</t>
+  </si>
+  <si>
+    <t>MG554402</t>
+  </si>
+  <si>
+    <t>SRLV001</t>
+  </si>
+  <si>
+    <t>MG554407</t>
+  </si>
+  <si>
+    <t>SRLV006</t>
+  </si>
+  <si>
+    <t>KT214469</t>
+  </si>
+  <si>
+    <t>Sichuan</t>
+  </si>
+  <si>
+    <t>MG554413</t>
+  </si>
+  <si>
+    <t>SRLV017</t>
+  </si>
+  <si>
+    <t>MH374290</t>
+  </si>
+  <si>
+    <t>SRLV_To1-89</t>
+  </si>
+  <si>
+    <t>MG554412</t>
+  </si>
+  <si>
+    <t>SRLV016</t>
+  </si>
+  <si>
+    <t>MG554414</t>
+  </si>
+  <si>
+    <t>SRLV020</t>
+  </si>
+  <si>
+    <t>KT749880</t>
+  </si>
+  <si>
+    <t>guizhou</t>
+  </si>
+  <si>
+    <t>MH374288</t>
+  </si>
+  <si>
+    <t>SRLV042</t>
+  </si>
+  <si>
+    <t>MH936674</t>
+  </si>
+  <si>
+    <t>BRMG CNPC</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="3" x14ac:knownFonts="1">
+  <fonts count="4" x14ac:knownFonts="1">
     <font>
       <sz val="12"/>
       <color theme="1"/>
@@ -359,6 +706,13 @@
     <font>
       <sz val="12"/>
       <color theme="1"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="12"/>
+      <color rgb="FF000000"/>
       <name val="Calibri"/>
       <family val="2"/>
       <scheme val="minor"/>
@@ -415,7 +769,7 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="2" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="10">
+  <cellXfs count="12">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="left"/>
@@ -442,6 +796,12 @@
       <alignment horizontal="left"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="6" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="49" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
   </cellXfs>
@@ -852,10 +1212,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:J31"/>
+  <dimension ref="A1:J90"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="C31" sqref="C31"/>
+    <sheetView tabSelected="1" topLeftCell="A24" workbookViewId="0">
+      <selection activeCell="A32" sqref="A32"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -864,7 +1224,8 @@
     <col min="2" max="2" width="15.33203125" style="1" customWidth="1"/>
     <col min="3" max="5" width="10.83203125" style="1"/>
     <col min="6" max="6" width="10.83203125" style="3"/>
-    <col min="7" max="10" width="10.83203125" style="1"/>
+    <col min="7" max="7" width="19.1640625" style="1" customWidth="1"/>
+    <col min="8" max="10" width="10.83203125" style="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:10" x14ac:dyDescent="0.2">
@@ -901,25 +1262,25 @@
     </row>
     <row r="2" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A2" s="5" t="s">
-        <v>61</v>
+        <v>60</v>
       </c>
       <c r="B2" s="5" t="s">
-        <v>88</v>
+        <v>87</v>
       </c>
       <c r="C2" s="5" t="s">
-        <v>64</v>
+        <v>63</v>
       </c>
       <c r="D2" s="5">
         <v>1991</v>
       </c>
       <c r="E2" s="5" t="s">
-        <v>63</v>
+        <v>62</v>
       </c>
       <c r="F2" s="6" t="s">
-        <v>79</v>
+        <v>78</v>
       </c>
       <c r="G2" s="5" t="s">
-        <v>62</v>
+        <v>61</v>
       </c>
       <c r="H2" s="5">
         <v>8919</v>
@@ -936,7 +1297,7 @@
         <v>23</v>
       </c>
       <c r="B3" s="5" t="s">
-        <v>88</v>
+        <v>87</v>
       </c>
       <c r="C3" s="5" t="s">
         <v>24</v>
@@ -965,25 +1326,25 @@
     </row>
     <row r="4" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A4" s="5" t="s">
+        <v>64</v>
+      </c>
+      <c r="B4" s="5" t="s">
+        <v>90</v>
+      </c>
+      <c r="C4" s="5" t="s">
         <v>65</v>
-      </c>
-      <c r="B4" s="5" t="s">
-        <v>91</v>
-      </c>
-      <c r="C4" s="5" t="s">
-        <v>66</v>
       </c>
       <c r="D4" s="5">
         <v>2007</v>
       </c>
       <c r="E4" s="5" t="s">
+        <v>66</v>
+      </c>
+      <c r="F4" s="6" t="s">
+        <v>78</v>
+      </c>
+      <c r="G4" s="5" t="s">
         <v>67</v>
-      </c>
-      <c r="F4" s="6" t="s">
-        <v>79</v>
-      </c>
-      <c r="G4" s="5" t="s">
-        <v>68</v>
       </c>
       <c r="H4" s="5">
         <v>9136</v>
@@ -992,7 +1353,7 @@
         <v>14</v>
       </c>
       <c r="J4" s="7" t="s">
-        <v>69</v>
+        <v>68</v>
       </c>
     </row>
     <row r="5" spans="1:10" x14ac:dyDescent="0.2">
@@ -1000,10 +1361,10 @@
         <v>42</v>
       </c>
       <c r="B5" s="5" t="s">
-        <v>91</v>
+        <v>90</v>
       </c>
       <c r="C5" s="5" t="s">
-        <v>81</v>
+        <v>80</v>
       </c>
       <c r="D5" s="1">
         <v>2005</v>
@@ -1012,7 +1373,7 @@
         <v>16</v>
       </c>
       <c r="F5" s="6" t="s">
-        <v>79</v>
+        <v>78</v>
       </c>
       <c r="G5" s="5">
         <v>697</v>
@@ -1024,7 +1385,7 @@
         <v>14</v>
       </c>
       <c r="J5" s="7" t="s">
-        <v>60</v>
+        <v>12</v>
       </c>
     </row>
     <row r="6" spans="1:10" x14ac:dyDescent="0.2">
@@ -1032,7 +1393,7 @@
         <v>54</v>
       </c>
       <c r="B6" s="5" t="s">
-        <v>88</v>
+        <v>87</v>
       </c>
       <c r="C6" s="5" t="s">
         <v>20</v>
@@ -1064,7 +1425,7 @@
         <v>48</v>
       </c>
       <c r="B7" s="5" t="s">
-        <v>91</v>
+        <v>90</v>
       </c>
       <c r="C7" s="5" t="s">
         <v>49</v>
@@ -1093,10 +1454,10 @@
     </row>
     <row r="8" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A8" s="5" t="s">
-        <v>75</v>
+        <v>74</v>
       </c>
       <c r="B8" s="5" t="s">
-        <v>91</v>
+        <v>90</v>
       </c>
       <c r="C8" s="5" t="s">
         <v>49</v>
@@ -1128,10 +1489,10 @@
         <v>59</v>
       </c>
       <c r="B9" s="5" t="s">
-        <v>91</v>
+        <v>90</v>
       </c>
       <c r="C9" s="5" t="s">
-        <v>74</v>
+        <v>73</v>
       </c>
       <c r="D9" s="5">
         <v>1949</v>
@@ -1143,7 +1504,7 @@
         <v>1</v>
       </c>
       <c r="G9" s="5" t="s">
-        <v>70</v>
+        <v>69</v>
       </c>
       <c r="H9" s="5">
         <v>9202</v>
@@ -1157,13 +1518,13 @@
     </row>
     <row r="10" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A10" s="5" t="s">
-        <v>71</v>
+        <v>70</v>
       </c>
       <c r="B10" s="5" t="s">
-        <v>91</v>
+        <v>90</v>
       </c>
       <c r="C10" s="5" t="s">
-        <v>74</v>
+        <v>73</v>
       </c>
       <c r="D10" s="5">
         <v>1949</v>
@@ -1175,7 +1536,7 @@
         <v>1</v>
       </c>
       <c r="G10" s="5" t="s">
-        <v>70</v>
+        <v>69</v>
       </c>
       <c r="H10" s="5">
         <v>9225</v>
@@ -1192,10 +1553,10 @@
         <v>59</v>
       </c>
       <c r="B11" s="5" t="s">
-        <v>91</v>
+        <v>90</v>
       </c>
       <c r="C11" s="5" t="s">
-        <v>74</v>
+        <v>73</v>
       </c>
       <c r="D11" s="5">
         <v>1951</v>
@@ -1207,7 +1568,7 @@
         <v>1</v>
       </c>
       <c r="G11" s="5" t="s">
-        <v>70</v>
+        <v>69</v>
       </c>
       <c r="H11" s="5">
         <v>9202</v>
@@ -1221,13 +1582,13 @@
     </row>
     <row r="12" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A12" s="5" t="s">
-        <v>72</v>
+        <v>71</v>
       </c>
       <c r="B12" s="5" t="s">
-        <v>91</v>
+        <v>90</v>
       </c>
       <c r="C12" s="5" t="s">
-        <v>74</v>
+        <v>73</v>
       </c>
       <c r="D12" s="5">
         <v>1952</v>
@@ -1239,7 +1600,7 @@
         <v>1</v>
       </c>
       <c r="G12" s="5" t="s">
-        <v>70</v>
+        <v>69</v>
       </c>
       <c r="H12" s="5">
         <v>9202</v>
@@ -1253,13 +1614,13 @@
     </row>
     <row r="13" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A13" s="5" t="s">
+        <v>72</v>
+      </c>
+      <c r="B13" s="5" t="s">
+        <v>90</v>
+      </c>
+      <c r="C13" s="5" t="s">
         <v>73</v>
-      </c>
-      <c r="B13" s="5" t="s">
-        <v>91</v>
-      </c>
-      <c r="C13" s="5" t="s">
-        <v>74</v>
       </c>
       <c r="D13" s="5">
         <v>1953</v>
@@ -1271,7 +1632,7 @@
         <v>1</v>
       </c>
       <c r="G13" s="5" t="s">
-        <v>70</v>
+        <v>69</v>
       </c>
       <c r="H13" s="5">
         <v>9203</v>
@@ -1288,7 +1649,7 @@
         <v>58</v>
       </c>
       <c r="B14" s="5" t="s">
-        <v>91</v>
+        <v>90</v>
       </c>
       <c r="C14" s="5" t="s">
         <v>10</v>
@@ -1320,7 +1681,7 @@
         <v>38</v>
       </c>
       <c r="B15" s="5" t="s">
-        <v>88</v>
+        <v>87</v>
       </c>
       <c r="C15" s="5" t="s">
         <v>19</v>
@@ -1352,7 +1713,7 @@
         <v>40</v>
       </c>
       <c r="B16" s="5" t="s">
-        <v>91</v>
+        <v>90</v>
       </c>
       <c r="C16" s="5" t="s">
         <v>19</v>
@@ -1384,7 +1745,7 @@
         <v>37</v>
       </c>
       <c r="B17" s="5" t="s">
-        <v>91</v>
+        <v>90</v>
       </c>
       <c r="C17" s="5" t="s">
         <v>35</v>
@@ -1416,7 +1777,7 @@
         <v>36</v>
       </c>
       <c r="B18" s="5" t="s">
-        <v>91</v>
+        <v>90</v>
       </c>
       <c r="C18" s="5" t="s">
         <v>35</v>
@@ -1448,7 +1809,7 @@
         <v>44</v>
       </c>
       <c r="B19" s="5" t="s">
-        <v>91</v>
+        <v>90</v>
       </c>
       <c r="C19" s="5" t="s">
         <v>43</v>
@@ -1480,7 +1841,7 @@
         <v>33</v>
       </c>
       <c r="B20" s="5" t="s">
-        <v>88</v>
+        <v>87</v>
       </c>
       <c r="C20" s="5" t="s">
         <v>19</v>
@@ -1512,7 +1873,7 @@
         <v>46</v>
       </c>
       <c r="B21" s="5" t="s">
-        <v>88</v>
+        <v>87</v>
       </c>
       <c r="C21" s="5" t="s">
         <v>43</v>
@@ -1544,7 +1905,7 @@
         <v>29</v>
       </c>
       <c r="B22" s="5" t="s">
-        <v>88</v>
+        <v>87</v>
       </c>
       <c r="C22" s="5" t="s">
         <v>24</v>
@@ -1576,7 +1937,7 @@
         <v>31</v>
       </c>
       <c r="B23" s="5" t="s">
-        <v>88</v>
+        <v>87</v>
       </c>
       <c r="C23" s="5" t="s">
         <v>24</v>
@@ -1608,7 +1969,7 @@
         <v>27</v>
       </c>
       <c r="B24" s="5" t="s">
-        <v>88</v>
+        <v>87</v>
       </c>
       <c r="C24" s="5" t="s">
         <v>24</v>
@@ -1637,13 +1998,13 @@
     </row>
     <row r="25" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A25" s="5" t="s">
+        <v>75</v>
+      </c>
+      <c r="B25" s="5" t="s">
+        <v>90</v>
+      </c>
+      <c r="C25" s="5" t="s">
         <v>76</v>
-      </c>
-      <c r="B25" s="5" t="s">
-        <v>91</v>
-      </c>
-      <c r="C25" s="5" t="s">
-        <v>77</v>
       </c>
       <c r="D25" s="5">
         <v>1984</v>
@@ -1655,7 +2016,7 @@
         <v>1</v>
       </c>
       <c r="G25" s="5" t="s">
-        <v>78</v>
+        <v>77</v>
       </c>
       <c r="H25" s="5">
         <v>9203</v>
@@ -1669,25 +2030,25 @@
     </row>
     <row r="26" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A26" s="5" t="s">
+        <v>79</v>
+      </c>
+      <c r="B26" s="5" t="s">
+        <v>90</v>
+      </c>
+      <c r="C26" s="5" t="s">
         <v>80</v>
-      </c>
-      <c r="B26" s="5" t="s">
-        <v>91</v>
-      </c>
-      <c r="C26" s="5" t="s">
-        <v>81</v>
       </c>
       <c r="D26" s="5">
         <v>2005</v>
       </c>
       <c r="E26" s="5" t="s">
+        <v>81</v>
+      </c>
+      <c r="F26" s="6" t="s">
+        <v>78</v>
+      </c>
+      <c r="G26" s="5" t="s">
         <v>82</v>
-      </c>
-      <c r="F26" s="6" t="s">
-        <v>79</v>
-      </c>
-      <c r="G26" s="5" t="s">
-        <v>83</v>
       </c>
       <c r="H26" s="5">
         <v>1130</v>
@@ -1701,13 +2062,13 @@
     </row>
     <row r="27" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A27" s="5" t="s">
-        <v>84</v>
+        <v>83</v>
       </c>
       <c r="B27" s="5" t="s">
-        <v>91</v>
+        <v>90</v>
       </c>
       <c r="C27" s="5" t="s">
-        <v>86</v>
+        <v>85</v>
       </c>
       <c r="D27" s="5">
         <v>1996</v>
@@ -1719,7 +2080,7 @@
         <v>1</v>
       </c>
       <c r="G27" s="5" t="s">
-        <v>85</v>
+        <v>84</v>
       </c>
       <c r="H27" s="5">
         <v>9189</v>
@@ -1733,13 +2094,13 @@
     </row>
     <row r="28" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A28" s="5" t="s">
+        <v>86</v>
+      </c>
+      <c r="B28" s="5" t="s">
         <v>87</v>
       </c>
-      <c r="B28" s="5" t="s">
+      <c r="C28" s="5" t="s">
         <v>88</v>
-      </c>
-      <c r="C28" s="5" t="s">
-        <v>89</v>
       </c>
       <c r="D28" s="5">
         <v>2013</v>
@@ -1751,7 +2112,7 @@
         <v>1</v>
       </c>
       <c r="G28" s="5" t="s">
-        <v>90</v>
+        <v>89</v>
       </c>
       <c r="H28" s="5">
         <v>2013</v>
@@ -1765,10 +2126,10 @@
     </row>
     <row r="29" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A29" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="B29" s="5" t="s">
-        <v>88</v>
+        <v>87</v>
       </c>
       <c r="C29" s="1" t="s">
         <v>19</v>
@@ -1777,13 +2138,13 @@
         <v>2008</v>
       </c>
       <c r="E29" s="8" t="s">
+        <v>92</v>
+      </c>
+      <c r="F29" s="6" t="s">
+        <v>78</v>
+      </c>
+      <c r="G29" s="1" t="s">
         <v>93</v>
-      </c>
-      <c r="F29" s="6" t="s">
-        <v>79</v>
-      </c>
-      <c r="G29" s="1" t="s">
-        <v>94</v>
       </c>
       <c r="H29" s="1">
         <v>8418</v>
@@ -1797,19 +2158,19 @@
     </row>
     <row r="30" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A30" s="1" t="s">
-        <v>95</v>
+        <v>94</v>
       </c>
       <c r="B30" s="5" t="s">
-        <v>91</v>
+        <v>90</v>
       </c>
       <c r="C30" s="5" t="s">
-        <v>81</v>
+        <v>80</v>
       </c>
       <c r="D30" s="1">
         <v>2004</v>
       </c>
       <c r="E30" s="9" t="s">
-        <v>96</v>
+        <v>95</v>
       </c>
       <c r="F30" s="6">
         <v>1</v>
@@ -1829,22 +2190,25 @@
     </row>
     <row r="31" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A31" s="1" t="s">
-        <v>97</v>
-      </c>
-      <c r="B31" s="1" t="s">
-        <v>9</v>
+        <v>96</v>
+      </c>
+      <c r="B31" s="5" t="s">
+        <v>87</v>
       </c>
       <c r="C31" s="1" t="s">
-        <v>100</v>
+        <v>99</v>
       </c>
       <c r="D31" s="1">
         <v>2009</v>
       </c>
       <c r="E31" s="9" t="s">
-        <v>96</v>
+        <v>95</v>
+      </c>
+      <c r="F31" s="3">
+        <v>1</v>
       </c>
       <c r="G31" s="1" t="s">
-        <v>98</v>
+        <v>97</v>
       </c>
       <c r="H31" s="1">
         <v>9065</v>
@@ -1853,7 +2217,1892 @@
         <v>14</v>
       </c>
       <c r="J31" s="1" t="s">
+        <v>98</v>
+      </c>
+    </row>
+    <row r="32" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="A32" s="9" t="s">
+        <v>100</v>
+      </c>
+      <c r="B32" s="1" t="s">
+        <v>90</v>
+      </c>
+      <c r="C32" s="5" t="s">
+        <v>20</v>
+      </c>
+      <c r="D32" s="1">
+        <v>2006</v>
+      </c>
+      <c r="E32" s="1" t="s">
+        <v>16</v>
+      </c>
+      <c r="F32" s="3">
+        <v>2</v>
+      </c>
+      <c r="G32" s="10" t="s">
+        <v>101</v>
+      </c>
+      <c r="H32" s="1">
+        <v>9206</v>
+      </c>
+      <c r="I32" s="1" t="s">
+        <v>14</v>
+      </c>
+      <c r="J32" s="7" t="s">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="33" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="A33" s="1" t="s">
+        <v>102</v>
+      </c>
+      <c r="B33" s="1" t="s">
+        <v>90</v>
+      </c>
+      <c r="C33" s="5" t="s">
+        <v>20</v>
+      </c>
+      <c r="D33" s="1">
+        <v>2003</v>
+      </c>
+      <c r="E33" s="1" t="s">
+        <v>16</v>
+      </c>
+      <c r="F33" s="6">
+        <v>2</v>
+      </c>
+      <c r="G33" s="10" t="s">
+        <v>103</v>
+      </c>
+      <c r="H33" s="1">
+        <v>9185</v>
+      </c>
+      <c r="I33" s="1" t="s">
+        <v>14</v>
+      </c>
+      <c r="J33" s="7" t="s">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="34" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="A34" s="1" t="s">
+        <v>104</v>
+      </c>
+      <c r="B34" s="5" t="s">
+        <v>87</v>
+      </c>
+      <c r="C34" s="1" t="s">
         <v>99</v>
+      </c>
+      <c r="D34" s="1">
+        <v>1992</v>
+      </c>
+      <c r="E34" s="9" t="s">
+        <v>95</v>
+      </c>
+      <c r="F34" s="3">
+        <v>1</v>
+      </c>
+      <c r="G34" t="s">
+        <v>105</v>
+      </c>
+      <c r="H34" s="1">
+        <v>9186</v>
+      </c>
+      <c r="I34" s="9" t="s">
+        <v>106</v>
+      </c>
+      <c r="J34" s="1" t="s">
+        <v>98</v>
+      </c>
+    </row>
+    <row r="35" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="A35" s="1" t="s">
+        <v>107</v>
+      </c>
+      <c r="B35" s="1" t="s">
+        <v>87</v>
+      </c>
+      <c r="C35" s="1" t="s">
+        <v>19</v>
+      </c>
+      <c r="D35" s="1" t="s">
+        <v>78</v>
+      </c>
+      <c r="E35" s="1" t="s">
+        <v>16</v>
+      </c>
+      <c r="F35" s="1" t="s">
+        <v>78</v>
+      </c>
+      <c r="G35" s="10" t="s">
+        <v>108</v>
+      </c>
+      <c r="H35" s="1">
+        <v>9486</v>
+      </c>
+      <c r="I35" s="9" t="s">
+        <v>106</v>
+      </c>
+      <c r="J35" s="1" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="36" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="A36" s="1" t="s">
+        <v>109</v>
+      </c>
+      <c r="B36" s="1" t="s">
+        <v>87</v>
+      </c>
+      <c r="C36" s="1" t="s">
+        <v>24</v>
+      </c>
+      <c r="D36" s="1">
+        <v>2011</v>
+      </c>
+      <c r="E36" s="1" t="s">
+        <v>16</v>
+      </c>
+      <c r="F36" s="1" t="s">
+        <v>78</v>
+      </c>
+      <c r="G36" s="10" t="s">
+        <v>110</v>
+      </c>
+      <c r="H36" s="1">
+        <v>9464</v>
+      </c>
+      <c r="I36" s="9" t="s">
+        <v>106</v>
+      </c>
+      <c r="J36" s="1" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="37" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="A37" s="1" t="s">
+        <v>111</v>
+      </c>
+      <c r="B37" s="1" t="s">
+        <v>90</v>
+      </c>
+      <c r="C37" s="1" t="s">
+        <v>24</v>
+      </c>
+      <c r="D37" s="1">
+        <v>2011</v>
+      </c>
+      <c r="E37" s="1" t="s">
+        <v>16</v>
+      </c>
+      <c r="F37" s="1" t="s">
+        <v>78</v>
+      </c>
+      <c r="G37" s="10" t="s">
+        <v>112</v>
+      </c>
+      <c r="H37" s="1">
+        <v>9464</v>
+      </c>
+      <c r="I37" s="9" t="s">
+        <v>106</v>
+      </c>
+      <c r="J37" s="1" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="38" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="A38" s="1" t="s">
+        <v>113</v>
+      </c>
+      <c r="B38" s="1" t="s">
+        <v>90</v>
+      </c>
+      <c r="C38" s="1" t="s">
+        <v>24</v>
+      </c>
+      <c r="D38" s="1">
+        <v>2011</v>
+      </c>
+      <c r="E38" s="1" t="s">
+        <v>16</v>
+      </c>
+      <c r="F38" s="1" t="s">
+        <v>78</v>
+      </c>
+      <c r="G38" s="10" t="s">
+        <v>114</v>
+      </c>
+      <c r="H38" s="1">
+        <v>9464</v>
+      </c>
+      <c r="I38" s="9" t="s">
+        <v>106</v>
+      </c>
+      <c r="J38" s="1" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="39" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="A39" s="1" t="s">
+        <v>115</v>
+      </c>
+      <c r="B39" s="1" t="s">
+        <v>87</v>
+      </c>
+      <c r="C39" s="1" t="s">
+        <v>19</v>
+      </c>
+      <c r="D39" s="1">
+        <v>2017</v>
+      </c>
+      <c r="E39" s="1" t="s">
+        <v>16</v>
+      </c>
+      <c r="F39" s="1" t="s">
+        <v>78</v>
+      </c>
+      <c r="G39" s="10" t="s">
+        <v>116</v>
+      </c>
+      <c r="H39" s="1">
+        <v>9316</v>
+      </c>
+      <c r="I39" s="9" t="s">
+        <v>106</v>
+      </c>
+      <c r="J39" s="1" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="40" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="A40" s="1" t="s">
+        <v>117</v>
+      </c>
+      <c r="B40" s="1" t="s">
+        <v>87</v>
+      </c>
+      <c r="C40" s="1" t="s">
+        <v>19</v>
+      </c>
+      <c r="D40" s="1" t="s">
+        <v>78</v>
+      </c>
+      <c r="E40" s="1" t="s">
+        <v>16</v>
+      </c>
+      <c r="F40" s="1" t="s">
+        <v>78</v>
+      </c>
+      <c r="G40" s="10" t="s">
+        <v>118</v>
+      </c>
+      <c r="H40" s="1">
+        <v>9312</v>
+      </c>
+      <c r="I40" s="9" t="s">
+        <v>106</v>
+      </c>
+      <c r="J40" s="1" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="41" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="A41" s="1" t="s">
+        <v>119</v>
+      </c>
+      <c r="B41" s="1" t="s">
+        <v>87</v>
+      </c>
+      <c r="C41" s="1" t="s">
+        <v>19</v>
+      </c>
+      <c r="D41" s="1" t="s">
+        <v>78</v>
+      </c>
+      <c r="E41" s="1" t="s">
+        <v>16</v>
+      </c>
+      <c r="F41" s="1" t="s">
+        <v>78</v>
+      </c>
+      <c r="G41" s="10" t="s">
+        <v>120</v>
+      </c>
+      <c r="H41" s="1">
+        <v>9307</v>
+      </c>
+      <c r="I41" s="9" t="s">
+        <v>106</v>
+      </c>
+      <c r="J41" s="1" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="42" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="A42" s="1" t="s">
+        <v>121</v>
+      </c>
+      <c r="B42" s="1" t="s">
+        <v>87</v>
+      </c>
+      <c r="C42" s="1" t="s">
+        <v>19</v>
+      </c>
+      <c r="D42" s="1">
+        <v>2017</v>
+      </c>
+      <c r="E42" s="1" t="s">
+        <v>16</v>
+      </c>
+      <c r="F42" s="1" t="s">
+        <v>78</v>
+      </c>
+      <c r="G42" s="10" t="s">
+        <v>122</v>
+      </c>
+      <c r="H42" s="1">
+        <v>9276</v>
+      </c>
+      <c r="I42" s="9" t="s">
+        <v>106</v>
+      </c>
+      <c r="J42" s="1" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="43" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="A43" s="1" t="s">
+        <v>123</v>
+      </c>
+      <c r="B43" s="1" t="s">
+        <v>87</v>
+      </c>
+      <c r="C43" s="1" t="s">
+        <v>19</v>
+      </c>
+      <c r="D43" s="1" t="s">
+        <v>78</v>
+      </c>
+      <c r="E43" s="1" t="s">
+        <v>57</v>
+      </c>
+      <c r="F43" s="1">
+        <v>1</v>
+      </c>
+      <c r="G43" s="10" t="s">
+        <v>124</v>
+      </c>
+      <c r="H43" s="1">
+        <v>9270</v>
+      </c>
+      <c r="I43" s="9" t="s">
+        <v>106</v>
+      </c>
+      <c r="J43" s="1" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="44" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="A44" s="1" t="s">
+        <v>125</v>
+      </c>
+      <c r="B44" s="1" t="s">
+        <v>87</v>
+      </c>
+      <c r="C44" s="1" t="s">
+        <v>19</v>
+      </c>
+      <c r="D44" s="1">
+        <v>2017</v>
+      </c>
+      <c r="E44" s="1" t="s">
+        <v>16</v>
+      </c>
+      <c r="F44" s="1" t="s">
+        <v>78</v>
+      </c>
+      <c r="G44" s="10" t="s">
+        <v>126</v>
+      </c>
+      <c r="H44" s="1">
+        <v>9266</v>
+      </c>
+      <c r="I44" s="9" t="s">
+        <v>106</v>
+      </c>
+      <c r="J44" s="1" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="45" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="A45" s="1" t="s">
+        <v>127</v>
+      </c>
+      <c r="B45" s="1" t="s">
+        <v>87</v>
+      </c>
+      <c r="C45" s="1" t="s">
+        <v>19</v>
+      </c>
+      <c r="D45" s="1">
+        <v>2017</v>
+      </c>
+      <c r="E45" s="1" t="s">
+        <v>16</v>
+      </c>
+      <c r="F45" s="1" t="s">
+        <v>78</v>
+      </c>
+      <c r="G45" s="10" t="s">
+        <v>128</v>
+      </c>
+      <c r="H45" s="1">
+        <v>9265</v>
+      </c>
+      <c r="I45" s="9" t="s">
+        <v>106</v>
+      </c>
+      <c r="J45" s="1" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="46" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="A46" s="1" t="s">
+        <v>129</v>
+      </c>
+      <c r="B46" s="1" t="s">
+        <v>87</v>
+      </c>
+      <c r="C46" s="1" t="s">
+        <v>19</v>
+      </c>
+      <c r="D46" s="1" t="s">
+        <v>78</v>
+      </c>
+      <c r="E46" s="1" t="s">
+        <v>16</v>
+      </c>
+      <c r="F46" s="1" t="s">
+        <v>78</v>
+      </c>
+      <c r="G46" s="10" t="s">
+        <v>130</v>
+      </c>
+      <c r="H46" s="1">
+        <v>9258</v>
+      </c>
+      <c r="I46" s="9" t="s">
+        <v>106</v>
+      </c>
+      <c r="J46" s="1" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="47" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="A47" s="1" t="s">
+        <v>131</v>
+      </c>
+      <c r="B47" s="1" t="s">
+        <v>87</v>
+      </c>
+      <c r="C47" s="1" t="s">
+        <v>19</v>
+      </c>
+      <c r="D47" s="1">
+        <v>2017</v>
+      </c>
+      <c r="E47" s="1" t="s">
+        <v>16</v>
+      </c>
+      <c r="F47" s="1" t="s">
+        <v>78</v>
+      </c>
+      <c r="G47" s="10" t="s">
+        <v>132</v>
+      </c>
+      <c r="H47" s="1">
+        <v>9257</v>
+      </c>
+      <c r="I47" s="9" t="s">
+        <v>106</v>
+      </c>
+      <c r="J47" s="1" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="48" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="A48" s="1" t="s">
+        <v>133</v>
+      </c>
+      <c r="B48" s="1" t="s">
+        <v>87</v>
+      </c>
+      <c r="C48" s="1" t="s">
+        <v>19</v>
+      </c>
+      <c r="D48" s="1" t="s">
+        <v>78</v>
+      </c>
+      <c r="E48" s="1" t="s">
+        <v>16</v>
+      </c>
+      <c r="F48" s="1" t="s">
+        <v>78</v>
+      </c>
+      <c r="G48" s="10" t="s">
+        <v>134</v>
+      </c>
+      <c r="H48" s="1">
+        <v>9231</v>
+      </c>
+      <c r="I48" s="9" t="s">
+        <v>106</v>
+      </c>
+      <c r="J48" s="1" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="49" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="A49" s="1" t="s">
+        <v>135</v>
+      </c>
+      <c r="B49" s="1" t="s">
+        <v>90</v>
+      </c>
+      <c r="C49" s="1" t="s">
+        <v>20</v>
+      </c>
+      <c r="D49" s="1">
+        <v>2006</v>
+      </c>
+      <c r="E49" s="1" t="s">
+        <v>16</v>
+      </c>
+      <c r="F49" s="1" t="s">
+        <v>78</v>
+      </c>
+      <c r="G49" s="10" t="s">
+        <v>136</v>
+      </c>
+      <c r="H49" s="1">
+        <v>9215</v>
+      </c>
+      <c r="I49" s="9" t="s">
+        <v>106</v>
+      </c>
+      <c r="J49" s="7" t="s">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="50" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="A50" s="1" t="s">
+        <v>137</v>
+      </c>
+      <c r="B50" s="1" t="s">
+        <v>90</v>
+      </c>
+      <c r="C50" s="1" t="s">
+        <v>20</v>
+      </c>
+      <c r="D50" s="1">
+        <v>2006</v>
+      </c>
+      <c r="E50" s="1" t="s">
+        <v>16</v>
+      </c>
+      <c r="F50" s="1" t="s">
+        <v>78</v>
+      </c>
+      <c r="G50" s="10" t="s">
+        <v>138</v>
+      </c>
+      <c r="H50" s="1">
+        <v>9207</v>
+      </c>
+      <c r="I50" s="9" t="s">
+        <v>106</v>
+      </c>
+      <c r="J50" s="7" t="s">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="51" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="A51" s="1" t="s">
+        <v>139</v>
+      </c>
+      <c r="B51" s="1" t="s">
+        <v>87</v>
+      </c>
+      <c r="C51" s="1" t="s">
+        <v>19</v>
+      </c>
+      <c r="D51" s="1" t="s">
+        <v>78</v>
+      </c>
+      <c r="E51" s="1" t="s">
+        <v>16</v>
+      </c>
+      <c r="F51" s="1" t="s">
+        <v>78</v>
+      </c>
+      <c r="G51" s="10" t="s">
+        <v>140</v>
+      </c>
+      <c r="H51" s="1">
+        <v>9206</v>
+      </c>
+      <c r="I51" s="9" t="s">
+        <v>106</v>
+      </c>
+      <c r="J51" s="11" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="52" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="A52" s="1" t="s">
+        <v>141</v>
+      </c>
+      <c r="B52" s="1" t="s">
+        <v>90</v>
+      </c>
+      <c r="C52" s="1" t="s">
+        <v>20</v>
+      </c>
+      <c r="D52" s="1">
+        <v>2006</v>
+      </c>
+      <c r="E52" s="1" t="s">
+        <v>16</v>
+      </c>
+      <c r="F52" s="1" t="s">
+        <v>78</v>
+      </c>
+      <c r="G52" s="10" t="s">
+        <v>101</v>
+      </c>
+      <c r="H52" s="1">
+        <v>9206</v>
+      </c>
+      <c r="I52" s="9" t="s">
+        <v>106</v>
+      </c>
+      <c r="J52" s="7" t="s">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="53" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="A53" s="1" t="s">
+        <v>142</v>
+      </c>
+      <c r="B53" s="1" t="s">
+        <v>90</v>
+      </c>
+      <c r="C53" s="1" t="s">
+        <v>20</v>
+      </c>
+      <c r="D53" s="1">
+        <v>2006</v>
+      </c>
+      <c r="E53" s="1" t="s">
+        <v>16</v>
+      </c>
+      <c r="F53" s="1" t="s">
+        <v>78</v>
+      </c>
+      <c r="G53" s="10" t="s">
+        <v>143</v>
+      </c>
+      <c r="H53" s="1">
+        <v>9206</v>
+      </c>
+      <c r="I53" s="9" t="s">
+        <v>106</v>
+      </c>
+      <c r="J53" s="7" t="s">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="54" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="A54" s="1" t="s">
+        <v>144</v>
+      </c>
+      <c r="B54" s="1" t="s">
+        <v>90</v>
+      </c>
+      <c r="C54" s="1" t="s">
+        <v>20</v>
+      </c>
+      <c r="D54" s="1">
+        <v>2006</v>
+      </c>
+      <c r="E54" s="1" t="s">
+        <v>16</v>
+      </c>
+      <c r="F54" s="1" t="s">
+        <v>78</v>
+      </c>
+      <c r="G54" s="10" t="s">
+        <v>145</v>
+      </c>
+      <c r="H54" s="1">
+        <v>9204</v>
+      </c>
+      <c r="I54" s="9" t="s">
+        <v>106</v>
+      </c>
+      <c r="J54" s="7" t="s">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="55" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="A55" s="1" t="s">
+        <v>146</v>
+      </c>
+      <c r="B55" s="1" t="s">
+        <v>90</v>
+      </c>
+      <c r="C55" s="1" t="s">
+        <v>20</v>
+      </c>
+      <c r="D55" s="1">
+        <v>2007</v>
+      </c>
+      <c r="E55" s="1" t="s">
+        <v>16</v>
+      </c>
+      <c r="F55" s="1" t="s">
+        <v>78</v>
+      </c>
+      <c r="G55" s="10" t="s">
+        <v>147</v>
+      </c>
+      <c r="H55" s="1">
+        <v>9203</v>
+      </c>
+      <c r="I55" s="9" t="s">
+        <v>106</v>
+      </c>
+      <c r="J55" s="7" t="s">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="56" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="A56" s="1" t="s">
+        <v>148</v>
+      </c>
+      <c r="B56" s="1" t="s">
+        <v>90</v>
+      </c>
+      <c r="C56" s="1" t="s">
+        <v>20</v>
+      </c>
+      <c r="D56" s="1">
+        <v>2006</v>
+      </c>
+      <c r="E56" s="1" t="s">
+        <v>16</v>
+      </c>
+      <c r="F56" s="1" t="s">
+        <v>78</v>
+      </c>
+      <c r="G56" s="10" t="s">
+        <v>149</v>
+      </c>
+      <c r="H56" s="1">
+        <v>9202</v>
+      </c>
+      <c r="I56" s="9" t="s">
+        <v>106</v>
+      </c>
+      <c r="J56" s="7" t="s">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="57" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="A57" s="1" t="s">
+        <v>150</v>
+      </c>
+      <c r="B57" s="1" t="s">
+        <v>90</v>
+      </c>
+      <c r="C57" s="1" t="s">
+        <v>20</v>
+      </c>
+      <c r="D57" s="1">
+        <v>2006</v>
+      </c>
+      <c r="E57" s="1" t="s">
+        <v>16</v>
+      </c>
+      <c r="F57" s="1" t="s">
+        <v>78</v>
+      </c>
+      <c r="G57" s="10" t="s">
+        <v>151</v>
+      </c>
+      <c r="H57" s="1">
+        <v>9202</v>
+      </c>
+      <c r="I57" s="9" t="s">
+        <v>106</v>
+      </c>
+      <c r="J57" s="7" t="s">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="58" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="A58" s="1" t="s">
+        <v>152</v>
+      </c>
+      <c r="B58" s="1" t="s">
+        <v>90</v>
+      </c>
+      <c r="C58" s="1" t="s">
+        <v>20</v>
+      </c>
+      <c r="D58" s="1">
+        <v>2004</v>
+      </c>
+      <c r="E58" s="1" t="s">
+        <v>16</v>
+      </c>
+      <c r="F58" s="1" t="s">
+        <v>78</v>
+      </c>
+      <c r="G58" s="10" t="s">
+        <v>153</v>
+      </c>
+      <c r="H58" s="1">
+        <v>9201</v>
+      </c>
+      <c r="I58" s="9" t="s">
+        <v>106</v>
+      </c>
+      <c r="J58" s="7" t="s">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="59" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="A59" s="1" t="s">
+        <v>154</v>
+      </c>
+      <c r="B59" s="1" t="s">
+        <v>90</v>
+      </c>
+      <c r="C59" s="1" t="s">
+        <v>20</v>
+      </c>
+      <c r="D59" s="1">
+        <v>2005</v>
+      </c>
+      <c r="E59" s="1" t="s">
+        <v>16</v>
+      </c>
+      <c r="F59" s="1" t="s">
+        <v>78</v>
+      </c>
+      <c r="G59" s="10" t="s">
+        <v>155</v>
+      </c>
+      <c r="H59" s="1">
+        <v>9200</v>
+      </c>
+      <c r="I59" s="9" t="s">
+        <v>106</v>
+      </c>
+      <c r="J59" s="7" t="s">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="60" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="A60" s="1" t="s">
+        <v>156</v>
+      </c>
+      <c r="B60" s="1" t="s">
+        <v>90</v>
+      </c>
+      <c r="C60" s="1" t="s">
+        <v>20</v>
+      </c>
+      <c r="D60" s="1">
+        <v>2007</v>
+      </c>
+      <c r="E60" s="1" t="s">
+        <v>16</v>
+      </c>
+      <c r="F60" s="1" t="s">
+        <v>78</v>
+      </c>
+      <c r="G60" s="10" t="s">
+        <v>157</v>
+      </c>
+      <c r="H60" s="1">
+        <v>9199</v>
+      </c>
+      <c r="I60" s="9" t="s">
+        <v>106</v>
+      </c>
+      <c r="J60" s="7" t="s">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="61" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="A61" s="1" t="s">
+        <v>158</v>
+      </c>
+      <c r="B61" s="1" t="s">
+        <v>90</v>
+      </c>
+      <c r="C61" s="1" t="s">
+        <v>20</v>
+      </c>
+      <c r="D61" s="1">
+        <v>2017</v>
+      </c>
+      <c r="E61" s="1" t="s">
+        <v>16</v>
+      </c>
+      <c r="F61" s="1" t="s">
+        <v>78</v>
+      </c>
+      <c r="G61" s="10">
+        <v>1150</v>
+      </c>
+      <c r="H61" s="1">
+        <v>9195</v>
+      </c>
+      <c r="I61" s="9" t="s">
+        <v>106</v>
+      </c>
+      <c r="J61" s="7" t="s">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="62" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="A62" s="1" t="s">
+        <v>159</v>
+      </c>
+      <c r="B62" s="1" t="s">
+        <v>90</v>
+      </c>
+      <c r="C62" s="1" t="s">
+        <v>20</v>
+      </c>
+      <c r="D62" s="1">
+        <v>2007</v>
+      </c>
+      <c r="E62" s="1" t="s">
+        <v>16</v>
+      </c>
+      <c r="F62" s="1" t="s">
+        <v>78</v>
+      </c>
+      <c r="G62" s="10" t="s">
+        <v>160</v>
+      </c>
+      <c r="H62" s="1">
+        <v>9194</v>
+      </c>
+      <c r="I62" s="9" t="s">
+        <v>106</v>
+      </c>
+      <c r="J62" s="7" t="s">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="63" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="A63" s="1" t="s">
+        <v>161</v>
+      </c>
+      <c r="B63" s="1" t="s">
+        <v>90</v>
+      </c>
+      <c r="C63" s="1" t="s">
+        <v>20</v>
+      </c>
+      <c r="D63" s="1">
+        <v>2006</v>
+      </c>
+      <c r="E63" s="1" t="s">
+        <v>16</v>
+      </c>
+      <c r="F63" s="1" t="s">
+        <v>78</v>
+      </c>
+      <c r="G63" s="10" t="s">
+        <v>162</v>
+      </c>
+      <c r="H63" s="1">
+        <v>9193</v>
+      </c>
+      <c r="I63" s="9" t="s">
+        <v>106</v>
+      </c>
+      <c r="J63" s="7" t="s">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="64" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="A64" s="1" t="s">
+        <v>163</v>
+      </c>
+      <c r="B64" s="1" t="s">
+        <v>90</v>
+      </c>
+      <c r="C64" s="1" t="s">
+        <v>99</v>
+      </c>
+      <c r="D64" s="1">
+        <v>2020</v>
+      </c>
+      <c r="E64" s="1" t="s">
+        <v>16</v>
+      </c>
+      <c r="F64" s="1" t="s">
+        <v>78</v>
+      </c>
+      <c r="G64" s="10" t="s">
+        <v>164</v>
+      </c>
+      <c r="H64" s="1">
+        <v>9193</v>
+      </c>
+      <c r="I64" s="9" t="s">
+        <v>106</v>
+      </c>
+      <c r="J64" s="1" t="s">
+        <v>98</v>
+      </c>
+    </row>
+    <row r="65" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="A65" s="1" t="s">
+        <v>165</v>
+      </c>
+      <c r="B65" s="1" t="s">
+        <v>90</v>
+      </c>
+      <c r="C65" s="1" t="s">
+        <v>20</v>
+      </c>
+      <c r="D65" s="1">
+        <v>2006</v>
+      </c>
+      <c r="E65" s="1" t="s">
+        <v>16</v>
+      </c>
+      <c r="F65" s="1" t="s">
+        <v>78</v>
+      </c>
+      <c r="G65" s="10" t="s">
+        <v>166</v>
+      </c>
+      <c r="H65" s="1">
+        <v>9192</v>
+      </c>
+      <c r="I65" s="9" t="s">
+        <v>106</v>
+      </c>
+      <c r="J65" s="7" t="s">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="66" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="A66" s="1" t="s">
+        <v>167</v>
+      </c>
+      <c r="B66" s="1" t="s">
+        <v>90</v>
+      </c>
+      <c r="C66" s="1" t="s">
+        <v>20</v>
+      </c>
+      <c r="D66" s="1">
+        <v>2007</v>
+      </c>
+      <c r="E66" s="1" t="s">
+        <v>16</v>
+      </c>
+      <c r="F66" s="1" t="s">
+        <v>78</v>
+      </c>
+      <c r="G66" s="10" t="s">
+        <v>168</v>
+      </c>
+      <c r="H66" s="1">
+        <v>9192</v>
+      </c>
+      <c r="I66" s="9" t="s">
+        <v>106</v>
+      </c>
+      <c r="J66" s="7" t="s">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="67" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="A67" s="1" t="s">
+        <v>169</v>
+      </c>
+      <c r="B67" s="1" t="s">
+        <v>90</v>
+      </c>
+      <c r="C67" s="1" t="s">
+        <v>20</v>
+      </c>
+      <c r="D67" s="1">
+        <v>2007</v>
+      </c>
+      <c r="E67" s="1" t="s">
+        <v>16</v>
+      </c>
+      <c r="F67" s="1" t="s">
+        <v>78</v>
+      </c>
+      <c r="G67" s="10" t="s">
+        <v>170</v>
+      </c>
+      <c r="H67" s="1">
+        <v>9191</v>
+      </c>
+      <c r="I67" s="9" t="s">
+        <v>106</v>
+      </c>
+      <c r="J67" s="7" t="s">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="68" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="A68" s="1" t="s">
+        <v>171</v>
+      </c>
+      <c r="B68" s="1" t="s">
+        <v>90</v>
+      </c>
+      <c r="C68" s="1" t="s">
+        <v>20</v>
+      </c>
+      <c r="D68" s="1">
+        <v>2006</v>
+      </c>
+      <c r="E68" s="1" t="s">
+        <v>16</v>
+      </c>
+      <c r="F68" s="1" t="s">
+        <v>78</v>
+      </c>
+      <c r="G68" s="10" t="s">
+        <v>172</v>
+      </c>
+      <c r="H68" s="1">
+        <v>9191</v>
+      </c>
+      <c r="I68" s="9" t="s">
+        <v>106</v>
+      </c>
+      <c r="J68" s="7" t="s">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="69" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="A69" s="1" t="s">
+        <v>173</v>
+      </c>
+      <c r="B69" s="1" t="s">
+        <v>90</v>
+      </c>
+      <c r="C69" s="1" t="s">
+        <v>20</v>
+      </c>
+      <c r="D69" s="1">
+        <v>2003</v>
+      </c>
+      <c r="E69" s="1" t="s">
+        <v>16</v>
+      </c>
+      <c r="F69" s="1" t="s">
+        <v>78</v>
+      </c>
+      <c r="G69" s="10" t="s">
+        <v>103</v>
+      </c>
+      <c r="H69" s="1">
+        <v>9189</v>
+      </c>
+      <c r="I69" s="9" t="s">
+        <v>106</v>
+      </c>
+      <c r="J69" s="7" t="s">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="70" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="A70" s="1" t="s">
+        <v>174</v>
+      </c>
+      <c r="B70" s="1" t="s">
+        <v>90</v>
+      </c>
+      <c r="C70" s="1" t="s">
+        <v>20</v>
+      </c>
+      <c r="D70" s="1">
+        <v>2006</v>
+      </c>
+      <c r="E70" s="1" t="s">
+        <v>16</v>
+      </c>
+      <c r="F70" s="1" t="s">
+        <v>78</v>
+      </c>
+      <c r="G70" s="10" t="s">
+        <v>175</v>
+      </c>
+      <c r="H70" s="1">
+        <v>9185</v>
+      </c>
+      <c r="I70" s="9" t="s">
+        <v>106</v>
+      </c>
+      <c r="J70" s="7" t="s">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="71" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="A71" s="1" t="s">
+        <v>176</v>
+      </c>
+      <c r="B71" s="1" t="s">
+        <v>90</v>
+      </c>
+      <c r="C71" s="1" t="s">
+        <v>20</v>
+      </c>
+      <c r="D71" s="1">
+        <v>2006</v>
+      </c>
+      <c r="E71" s="1" t="s">
+        <v>16</v>
+      </c>
+      <c r="F71" s="1" t="s">
+        <v>78</v>
+      </c>
+      <c r="G71" s="10" t="s">
+        <v>177</v>
+      </c>
+      <c r="H71" s="1">
+        <v>9172</v>
+      </c>
+      <c r="I71" s="9" t="s">
+        <v>106</v>
+      </c>
+      <c r="J71" s="7" t="s">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="72" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="A72" s="1" t="s">
+        <v>178</v>
+      </c>
+      <c r="B72" s="1" t="s">
+        <v>87</v>
+      </c>
+      <c r="C72" s="1" t="s">
+        <v>99</v>
+      </c>
+      <c r="D72" s="1">
+        <v>1993</v>
+      </c>
+      <c r="E72" s="1" t="s">
+        <v>57</v>
+      </c>
+      <c r="F72" s="1">
+        <v>1</v>
+      </c>
+      <c r="G72" s="10" t="s">
+        <v>179</v>
+      </c>
+      <c r="H72" s="1">
+        <v>9172</v>
+      </c>
+      <c r="I72" s="9" t="s">
+        <v>106</v>
+      </c>
+      <c r="J72" s="1" t="s">
+        <v>98</v>
+      </c>
+    </row>
+    <row r="73" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="A73" s="1" t="s">
+        <v>180</v>
+      </c>
+      <c r="B73" s="1" t="s">
+        <v>90</v>
+      </c>
+      <c r="C73" s="1" t="s">
+        <v>20</v>
+      </c>
+      <c r="D73" s="1">
+        <v>2006</v>
+      </c>
+      <c r="E73" s="1" t="s">
+        <v>16</v>
+      </c>
+      <c r="F73" s="1" t="s">
+        <v>78</v>
+      </c>
+      <c r="G73" s="10" t="s">
+        <v>181</v>
+      </c>
+      <c r="H73" s="1">
+        <v>9171</v>
+      </c>
+      <c r="I73" s="9" t="s">
+        <v>106</v>
+      </c>
+      <c r="J73" s="7" t="s">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="74" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="A74" s="1" t="s">
+        <v>182</v>
+      </c>
+      <c r="B74" s="1" t="s">
+        <v>87</v>
+      </c>
+      <c r="C74" s="1" t="s">
+        <v>99</v>
+      </c>
+      <c r="D74" s="1" t="s">
+        <v>78</v>
+      </c>
+      <c r="E74" s="1" t="s">
+        <v>57</v>
+      </c>
+      <c r="F74" s="1">
+        <v>1</v>
+      </c>
+      <c r="G74" s="10" t="s">
+        <v>183</v>
+      </c>
+      <c r="H74" s="1">
+        <v>9171</v>
+      </c>
+      <c r="I74" s="9" t="s">
+        <v>106</v>
+      </c>
+      <c r="J74" s="1" t="s">
+        <v>98</v>
+      </c>
+    </row>
+    <row r="75" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="A75" s="1" t="s">
+        <v>184</v>
+      </c>
+      <c r="B75" s="1" t="s">
+        <v>87</v>
+      </c>
+      <c r="C75" s="1" t="s">
+        <v>19</v>
+      </c>
+      <c r="D75" s="1" t="s">
+        <v>78</v>
+      </c>
+      <c r="E75" s="1" t="s">
+        <v>57</v>
+      </c>
+      <c r="F75" s="1">
+        <v>1</v>
+      </c>
+      <c r="G75" s="10" t="s">
+        <v>185</v>
+      </c>
+      <c r="H75" s="1">
+        <v>9168</v>
+      </c>
+      <c r="I75" s="9" t="s">
+        <v>106</v>
+      </c>
+      <c r="J75" s="1" t="s">
+        <v>98</v>
+      </c>
+    </row>
+    <row r="76" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="A76" s="1" t="s">
+        <v>186</v>
+      </c>
+      <c r="B76" s="1" t="s">
+        <v>90</v>
+      </c>
+      <c r="C76" s="1" t="s">
+        <v>20</v>
+      </c>
+      <c r="D76" s="1">
+        <v>2006</v>
+      </c>
+      <c r="E76" s="1" t="s">
+        <v>16</v>
+      </c>
+      <c r="F76" s="1" t="s">
+        <v>78</v>
+      </c>
+      <c r="G76" s="10" t="s">
+        <v>187</v>
+      </c>
+      <c r="H76" s="1">
+        <v>9166</v>
+      </c>
+      <c r="I76" s="9" t="s">
+        <v>106</v>
+      </c>
+      <c r="J76" s="7" t="s">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="77" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="A77" s="1" t="s">
+        <v>188</v>
+      </c>
+      <c r="B77" s="1" t="s">
+        <v>90</v>
+      </c>
+      <c r="C77" s="1" t="s">
+        <v>20</v>
+      </c>
+      <c r="D77" s="1">
+        <v>2017</v>
+      </c>
+      <c r="E77" s="1" t="s">
+        <v>16</v>
+      </c>
+      <c r="F77" s="1" t="s">
+        <v>78</v>
+      </c>
+      <c r="G77" s="10" t="s">
+        <v>189</v>
+      </c>
+      <c r="H77" s="1">
+        <v>9166</v>
+      </c>
+      <c r="I77" s="9" t="s">
+        <v>106</v>
+      </c>
+      <c r="J77" s="7" t="s">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="78" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="A78" s="1" t="s">
+        <v>190</v>
+      </c>
+      <c r="B78" s="1" t="s">
+        <v>90</v>
+      </c>
+      <c r="C78" s="1" t="s">
+        <v>19</v>
+      </c>
+      <c r="D78" s="1">
+        <v>2017</v>
+      </c>
+      <c r="E78" s="1" t="s">
+        <v>16</v>
+      </c>
+      <c r="F78" s="1" t="s">
+        <v>78</v>
+      </c>
+      <c r="G78" s="10" t="s">
+        <v>191</v>
+      </c>
+      <c r="H78" s="1">
+        <v>9164</v>
+      </c>
+      <c r="I78" s="9" t="s">
+        <v>106</v>
+      </c>
+      <c r="J78" s="1" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="79" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="A79" s="1" t="s">
+        <v>192</v>
+      </c>
+      <c r="B79" s="1" t="s">
+        <v>87</v>
+      </c>
+      <c r="C79" s="1" t="s">
+        <v>99</v>
+      </c>
+      <c r="D79" s="1">
+        <v>1993</v>
+      </c>
+      <c r="E79" s="1" t="s">
+        <v>57</v>
+      </c>
+      <c r="F79" s="1">
+        <v>1</v>
+      </c>
+      <c r="G79" s="10" t="s">
+        <v>193</v>
+      </c>
+      <c r="H79" s="1">
+        <v>9163</v>
+      </c>
+      <c r="I79" s="9" t="s">
+        <v>106</v>
+      </c>
+      <c r="J79" s="1" t="s">
+        <v>98</v>
+      </c>
+    </row>
+    <row r="80" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="A80" s="1" t="s">
+        <v>194</v>
+      </c>
+      <c r="B80" s="1" t="s">
+        <v>87</v>
+      </c>
+      <c r="C80" s="1" t="s">
+        <v>19</v>
+      </c>
+      <c r="D80" s="1" t="s">
+        <v>78</v>
+      </c>
+      <c r="E80" s="1" t="s">
+        <v>57</v>
+      </c>
+      <c r="F80" s="1">
+        <v>1</v>
+      </c>
+      <c r="G80" s="10" t="s">
+        <v>195</v>
+      </c>
+      <c r="H80" s="1">
+        <v>9158</v>
+      </c>
+      <c r="I80" s="9" t="s">
+        <v>106</v>
+      </c>
+      <c r="J80" s="1" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="81" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="A81" s="1" t="s">
+        <v>196</v>
+      </c>
+      <c r="B81" s="1" t="s">
+        <v>90</v>
+      </c>
+      <c r="C81" s="1" t="s">
+        <v>19</v>
+      </c>
+      <c r="D81" s="1" t="s">
+        <v>78</v>
+      </c>
+      <c r="E81" s="1" t="s">
+        <v>57</v>
+      </c>
+      <c r="F81" s="1">
+        <v>1</v>
+      </c>
+      <c r="G81" s="10" t="s">
+        <v>197</v>
+      </c>
+      <c r="H81" s="1">
+        <v>9145</v>
+      </c>
+      <c r="I81" s="9" t="s">
+        <v>106</v>
+      </c>
+      <c r="J81" s="1" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="82" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="A82" s="1" t="s">
+        <v>198</v>
+      </c>
+      <c r="B82" s="1" t="s">
+        <v>87</v>
+      </c>
+      <c r="C82" s="1" t="s">
+        <v>19</v>
+      </c>
+      <c r="D82" s="1" t="s">
+        <v>78</v>
+      </c>
+      <c r="E82" s="1" t="s">
+        <v>16</v>
+      </c>
+      <c r="F82" s="1" t="s">
+        <v>78</v>
+      </c>
+      <c r="G82" s="10" t="s">
+        <v>199</v>
+      </c>
+      <c r="H82" s="1">
+        <v>9138</v>
+      </c>
+      <c r="I82" s="9" t="s">
+        <v>106</v>
+      </c>
+      <c r="J82" s="1" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="83" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="A83" s="1" t="s">
+        <v>200</v>
+      </c>
+      <c r="B83" s="1" t="s">
+        <v>87</v>
+      </c>
+      <c r="C83" s="1" t="s">
+        <v>99</v>
+      </c>
+      <c r="D83" s="1">
+        <v>1993</v>
+      </c>
+      <c r="E83" s="1" t="s">
+        <v>57</v>
+      </c>
+      <c r="F83" s="1">
+        <v>1</v>
+      </c>
+      <c r="G83" s="10" t="s">
+        <v>201</v>
+      </c>
+      <c r="H83" s="1">
+        <v>9138</v>
+      </c>
+      <c r="I83" s="9" t="s">
+        <v>106</v>
+      </c>
+    </row>
+    <row r="84" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="A84" s="1" t="s">
+        <v>202</v>
+      </c>
+      <c r="B84" s="1" t="s">
+        <v>87</v>
+      </c>
+      <c r="C84" s="1" t="s">
+        <v>19</v>
+      </c>
+      <c r="D84" s="1" t="s">
+        <v>78</v>
+      </c>
+      <c r="E84" s="1" t="s">
+        <v>57</v>
+      </c>
+      <c r="F84" s="1">
+        <v>1</v>
+      </c>
+      <c r="G84" s="10" t="s">
+        <v>203</v>
+      </c>
+      <c r="H84" s="1">
+        <v>9136</v>
+      </c>
+      <c r="I84" s="9" t="s">
+        <v>106</v>
+      </c>
+      <c r="J84" s="1" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="85" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="A85" s="1" t="s">
+        <v>204</v>
+      </c>
+      <c r="B85" s="1" t="s">
+        <v>87</v>
+      </c>
+      <c r="C85" s="1" t="s">
+        <v>19</v>
+      </c>
+      <c r="D85" s="1">
+        <v>1989</v>
+      </c>
+      <c r="E85" s="1" t="s">
+        <v>57</v>
+      </c>
+      <c r="F85" s="1">
+        <v>1</v>
+      </c>
+      <c r="G85" s="10" t="s">
+        <v>205</v>
+      </c>
+      <c r="H85" s="1">
+        <v>9135</v>
+      </c>
+      <c r="I85" s="9" t="s">
+        <v>106</v>
+      </c>
+      <c r="J85" s="1" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="86" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="A86" s="1" t="s">
+        <v>206</v>
+      </c>
+      <c r="B86" s="1" t="s">
+        <v>87</v>
+      </c>
+      <c r="C86" s="1" t="s">
+        <v>19</v>
+      </c>
+      <c r="D86" s="1" t="s">
+        <v>78</v>
+      </c>
+      <c r="E86" s="1" t="s">
+        <v>57</v>
+      </c>
+      <c r="F86" s="1">
+        <v>1</v>
+      </c>
+      <c r="G86" s="10" t="s">
+        <v>207</v>
+      </c>
+      <c r="H86" s="1">
+        <v>9121</v>
+      </c>
+      <c r="I86" s="9" t="s">
+        <v>106</v>
+      </c>
+      <c r="J86" s="1" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="87" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="A87" s="1" t="s">
+        <v>208</v>
+      </c>
+      <c r="B87" s="1" t="s">
+        <v>87</v>
+      </c>
+      <c r="C87" s="1" t="s">
+        <v>19</v>
+      </c>
+      <c r="D87" s="1" t="s">
+        <v>78</v>
+      </c>
+      <c r="E87" s="1" t="s">
+        <v>57</v>
+      </c>
+      <c r="F87" s="1">
+        <v>1</v>
+      </c>
+      <c r="G87" s="10" t="s">
+        <v>209</v>
+      </c>
+      <c r="H87" s="1">
+        <v>9119</v>
+      </c>
+      <c r="I87" s="9" t="s">
+        <v>106</v>
+      </c>
+      <c r="J87" s="1" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="88" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="A88" s="1" t="s">
+        <v>210</v>
+      </c>
+      <c r="B88" s="1" t="s">
+        <v>87</v>
+      </c>
+      <c r="C88" s="1" t="s">
+        <v>99</v>
+      </c>
+      <c r="D88" s="1" t="s">
+        <v>78</v>
+      </c>
+      <c r="E88" s="1" t="s">
+        <v>57</v>
+      </c>
+      <c r="F88" s="1">
+        <v>1</v>
+      </c>
+      <c r="G88" s="10" t="s">
+        <v>211</v>
+      </c>
+      <c r="H88" s="1">
+        <v>9118</v>
+      </c>
+      <c r="I88" s="9" t="s">
+        <v>106</v>
+      </c>
+      <c r="J88" s="1" t="s">
+        <v>98</v>
+      </c>
+    </row>
+    <row r="89" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="A89" s="1" t="s">
+        <v>212</v>
+      </c>
+      <c r="B89" s="1" t="s">
+        <v>90</v>
+      </c>
+      <c r="C89" s="1" t="s">
+        <v>19</v>
+      </c>
+      <c r="D89" s="1">
+        <v>2017</v>
+      </c>
+      <c r="E89" s="1" t="s">
+        <v>57</v>
+      </c>
+      <c r="F89" s="1">
+        <v>1</v>
+      </c>
+      <c r="G89" s="10" t="s">
+        <v>213</v>
+      </c>
+      <c r="H89" s="1">
+        <v>8908</v>
+      </c>
+      <c r="I89" s="9" t="s">
+        <v>106</v>
+      </c>
+      <c r="J89" s="1" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="90" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="A90" s="1" t="s">
+        <v>214</v>
+      </c>
+      <c r="B90" s="1" t="s">
+        <v>87</v>
+      </c>
+      <c r="C90" s="1" t="s">
+        <v>19</v>
+      </c>
+      <c r="D90" s="1">
+        <v>2015</v>
+      </c>
+      <c r="E90" s="1" t="s">
+        <v>57</v>
+      </c>
+      <c r="F90" s="1">
+        <v>1</v>
+      </c>
+      <c r="G90" s="10" t="s">
+        <v>215</v>
+      </c>
+      <c r="H90" s="1">
+        <v>6378</v>
+      </c>
+      <c r="I90" s="9" t="s">
+        <v>106</v>
+      </c>
+      <c r="J90" s="1" t="s">
+        <v>12</v>
       </c>
     </row>
   </sheetData>

--- a/tabular/extension/srlv-refseqs.xlsx
+++ b/tabular/extension/srlv-refseqs.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/robertgifford/Projects/virus/comparative/Retrovirus/Lentivirus-GLUE/tabular/extension/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{5A34F24E-D392-9D46-AE2F-EAC91EFF869A}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{7C4EF1B7-8C73-A648-8626-998060FF39AD}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="30500" yWindow="4460" windowWidth="28060" windowHeight="17540" tabRatio="500" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="23980" yWindow="6560" windowWidth="28060" windowHeight="17540" tabRatio="500" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="SRLV_curated.csv" sheetId="1" r:id="rId1"/>
@@ -29,7 +29,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="775" uniqueCount="216">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="800" uniqueCount="224">
   <si>
     <t>Accession</t>
   </si>
@@ -681,13 +681,37 @@
   </si>
   <si>
     <t>BRMG CNPC</t>
+  </si>
+  <si>
+    <t>JF502416</t>
+  </si>
+  <si>
+    <t>JF502417</t>
+  </si>
+  <si>
+    <t>B3</t>
+  </si>
+  <si>
+    <t>9152 bp</t>
+  </si>
+  <si>
+    <t>Volterra</t>
+  </si>
+  <si>
+    <t>Fonni</t>
+  </si>
+  <si>
+    <t>GQ381130</t>
+  </si>
+  <si>
+    <t>Seui</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="4" x14ac:knownFonts="1">
+  <fonts count="5" x14ac:knownFonts="1">
     <font>
       <sz val="12"/>
       <color theme="1"/>
@@ -713,6 +737,12 @@
     <font>
       <sz val="12"/>
       <color rgb="FF000000"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="8"/>
       <name val="Calibri"/>
       <family val="2"/>
       <scheme val="minor"/>
@@ -1212,10 +1242,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:J90"/>
+  <dimension ref="A1:J93"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A24" workbookViewId="0">
-      <selection activeCell="A32" sqref="A32"/>
+    <sheetView tabSelected="1" topLeftCell="A70" workbookViewId="0">
+      <selection activeCell="H86" sqref="H86"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -1262,28 +1292,28 @@
     </row>
     <row r="2" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A2" s="5" t="s">
-        <v>60</v>
+        <v>59</v>
       </c>
       <c r="B2" s="5" t="s">
-        <v>87</v>
+        <v>90</v>
       </c>
       <c r="C2" s="5" t="s">
-        <v>63</v>
+        <v>73</v>
       </c>
       <c r="D2" s="5">
-        <v>1991</v>
+        <v>1949</v>
       </c>
       <c r="E2" s="5" t="s">
-        <v>62</v>
-      </c>
-      <c r="F2" s="6" t="s">
-        <v>78</v>
+        <v>16</v>
+      </c>
+      <c r="F2" s="6">
+        <v>1</v>
       </c>
       <c r="G2" s="5" t="s">
-        <v>61</v>
+        <v>69</v>
       </c>
       <c r="H2" s="5">
-        <v>8919</v>
+        <v>9202</v>
       </c>
       <c r="I2" s="5" t="s">
         <v>14</v>
@@ -1294,28 +1324,28 @@
     </row>
     <row r="3" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A3" s="5" t="s">
-        <v>23</v>
+        <v>59</v>
       </c>
       <c r="B3" s="5" t="s">
-        <v>87</v>
+        <v>90</v>
       </c>
       <c r="C3" s="5" t="s">
-        <v>24</v>
+        <v>73</v>
       </c>
       <c r="D3" s="5">
-        <v>1999</v>
+        <v>1951</v>
       </c>
       <c r="E3" s="5" t="s">
         <v>16</v>
       </c>
       <c r="F3" s="6">
-        <v>4</v>
+        <v>1</v>
       </c>
       <c r="G3" s="5" t="s">
-        <v>25</v>
+        <v>69</v>
       </c>
       <c r="H3" s="5">
-        <v>9023</v>
+        <v>9202</v>
       </c>
       <c r="I3" s="5" t="s">
         <v>14</v>
@@ -1326,60 +1356,60 @@
     </row>
     <row r="4" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A4" s="5" t="s">
-        <v>64</v>
+        <v>83</v>
       </c>
       <c r="B4" s="5" t="s">
         <v>90</v>
       </c>
       <c r="C4" s="5" t="s">
-        <v>65</v>
+        <v>85</v>
       </c>
       <c r="D4" s="5">
-        <v>2007</v>
+        <v>1996</v>
       </c>
       <c r="E4" s="5" t="s">
-        <v>66</v>
-      </c>
-      <c r="F4" s="6" t="s">
-        <v>78</v>
+        <v>16</v>
+      </c>
+      <c r="F4" s="6">
+        <v>1</v>
       </c>
       <c r="G4" s="5" t="s">
-        <v>67</v>
+        <v>84</v>
       </c>
       <c r="H4" s="5">
-        <v>9136</v>
+        <v>9189</v>
       </c>
       <c r="I4" s="5" t="s">
         <v>14</v>
       </c>
       <c r="J4" s="7" t="s">
-        <v>68</v>
+        <v>12</v>
       </c>
     </row>
     <row r="5" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A5" s="5" t="s">
-        <v>42</v>
+        <v>23</v>
       </c>
       <c r="B5" s="5" t="s">
-        <v>90</v>
+        <v>87</v>
       </c>
       <c r="C5" s="5" t="s">
-        <v>80</v>
-      </c>
-      <c r="D5" s="1">
-        <v>2005</v>
+        <v>24</v>
+      </c>
+      <c r="D5" s="5">
+        <v>1999</v>
       </c>
       <c r="E5" s="5" t="s">
         <v>16</v>
       </c>
-      <c r="F5" s="6" t="s">
-        <v>78</v>
-      </c>
-      <c r="G5" s="5">
-        <v>697</v>
+      <c r="F5" s="6">
+        <v>4</v>
+      </c>
+      <c r="G5" s="5" t="s">
+        <v>25</v>
       </c>
       <c r="H5" s="5">
-        <v>9175</v>
+        <v>9023</v>
       </c>
       <c r="I5" s="5" t="s">
         <v>14</v>
@@ -1390,127 +1420,127 @@
     </row>
     <row r="6" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A6" s="5" t="s">
-        <v>54</v>
+        <v>27</v>
       </c>
       <c r="B6" s="5" t="s">
         <v>87</v>
       </c>
       <c r="C6" s="5" t="s">
-        <v>20</v>
+        <v>24</v>
       </c>
       <c r="D6" s="5">
-        <v>1974</v>
+        <v>1999</v>
       </c>
       <c r="E6" s="5" t="s">
-        <v>57</v>
+        <v>16</v>
       </c>
       <c r="F6" s="6">
-        <v>1</v>
+        <v>5</v>
       </c>
       <c r="G6" s="5" t="s">
-        <v>55</v>
+        <v>28</v>
       </c>
       <c r="H6" s="5">
-        <v>9189</v>
+        <v>1709</v>
       </c>
       <c r="I6" s="5" t="s">
-        <v>14</v>
+        <v>26</v>
       </c>
       <c r="J6" s="7" t="s">
-        <v>22</v>
+        <v>12</v>
       </c>
     </row>
     <row r="7" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A7" s="5" t="s">
-        <v>48</v>
+        <v>29</v>
       </c>
       <c r="B7" s="5" t="s">
-        <v>90</v>
+        <v>87</v>
       </c>
       <c r="C7" s="5" t="s">
-        <v>49</v>
+        <v>24</v>
       </c>
       <c r="D7" s="5">
-        <v>1976</v>
+        <v>1999</v>
       </c>
       <c r="E7" s="5" t="s">
         <v>16</v>
       </c>
       <c r="F7" s="6">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="G7" s="5" t="s">
-        <v>50</v>
+        <v>30</v>
       </c>
       <c r="H7" s="5">
-        <v>9256</v>
+        <v>1703</v>
       </c>
       <c r="I7" s="5" t="s">
-        <v>14</v>
+        <v>26</v>
       </c>
       <c r="J7" s="7" t="s">
-        <v>51</v>
+        <v>12</v>
       </c>
     </row>
     <row r="8" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A8" s="5" t="s">
-        <v>74</v>
+        <v>31</v>
       </c>
       <c r="B8" s="5" t="s">
-        <v>90</v>
+        <v>87</v>
       </c>
       <c r="C8" s="5" t="s">
-        <v>49</v>
+        <v>24</v>
       </c>
       <c r="D8" s="5">
-        <v>1976</v>
+        <v>1999</v>
       </c>
       <c r="E8" s="5" t="s">
         <v>16</v>
       </c>
       <c r="F8" s="6">
-        <v>1</v>
+        <v>7</v>
       </c>
       <c r="G8" s="5" t="s">
-        <v>50</v>
+        <v>32</v>
       </c>
       <c r="H8" s="5">
-        <v>9256</v>
+        <v>1706</v>
       </c>
       <c r="I8" s="5" t="s">
-        <v>14</v>
+        <v>26</v>
       </c>
       <c r="J8" s="7" t="s">
-        <v>51</v>
+        <v>12</v>
       </c>
     </row>
     <row r="9" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A9" s="5" t="s">
-        <v>59</v>
+        <v>33</v>
       </c>
       <c r="B9" s="5" t="s">
-        <v>90</v>
+        <v>87</v>
       </c>
       <c r="C9" s="5" t="s">
-        <v>73</v>
+        <v>19</v>
       </c>
       <c r="D9" s="5">
-        <v>1949</v>
+        <v>2006</v>
       </c>
       <c r="E9" s="5" t="s">
         <v>16</v>
       </c>
       <c r="F9" s="6">
-        <v>1</v>
+        <v>8</v>
       </c>
       <c r="G9" s="5" t="s">
-        <v>69</v>
+        <v>34</v>
       </c>
       <c r="H9" s="5">
-        <v>9202</v>
+        <v>1305</v>
       </c>
       <c r="I9" s="5" t="s">
-        <v>14</v>
+        <v>18</v>
       </c>
       <c r="J9" s="7" t="s">
         <v>12</v>
@@ -1518,31 +1548,31 @@
     </row>
     <row r="10" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A10" s="5" t="s">
-        <v>70</v>
+        <v>36</v>
       </c>
       <c r="B10" s="5" t="s">
         <v>90</v>
       </c>
       <c r="C10" s="5" t="s">
-        <v>73</v>
+        <v>35</v>
       </c>
       <c r="D10" s="5">
-        <v>1949</v>
+        <v>2008</v>
       </c>
       <c r="E10" s="5" t="s">
         <v>16</v>
       </c>
       <c r="F10" s="6">
-        <v>1</v>
-      </c>
-      <c r="G10" s="5" t="s">
-        <v>69</v>
+        <v>13</v>
+      </c>
+      <c r="G10" s="5">
+        <v>16</v>
       </c>
       <c r="H10" s="5">
-        <v>9225</v>
+        <v>1004</v>
       </c>
       <c r="I10" s="5" t="s">
-        <v>14</v>
+        <v>18</v>
       </c>
       <c r="J10" s="7" t="s">
         <v>12</v>
@@ -1550,31 +1580,31 @@
     </row>
     <row r="11" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A11" s="5" t="s">
-        <v>59</v>
+        <v>37</v>
       </c>
       <c r="B11" s="5" t="s">
         <v>90</v>
       </c>
       <c r="C11" s="5" t="s">
-        <v>73</v>
+        <v>35</v>
       </c>
       <c r="D11" s="5">
-        <v>1951</v>
+        <v>2008</v>
       </c>
       <c r="E11" s="5" t="s">
         <v>16</v>
       </c>
       <c r="F11" s="6">
-        <v>1</v>
-      </c>
-      <c r="G11" s="5" t="s">
-        <v>69</v>
+        <v>12</v>
+      </c>
+      <c r="G11" s="5">
+        <v>4007</v>
       </c>
       <c r="H11" s="5">
-        <v>9202</v>
+        <v>1004</v>
       </c>
       <c r="I11" s="5" t="s">
-        <v>14</v>
+        <v>18</v>
       </c>
       <c r="J11" s="7" t="s">
         <v>12</v>
@@ -1582,31 +1612,31 @@
     </row>
     <row r="12" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A12" s="5" t="s">
-        <v>71</v>
+        <v>38</v>
       </c>
       <c r="B12" s="5" t="s">
-        <v>90</v>
+        <v>87</v>
       </c>
       <c r="C12" s="5" t="s">
-        <v>73</v>
+        <v>19</v>
       </c>
       <c r="D12" s="5">
-        <v>1952</v>
+        <v>2010</v>
       </c>
       <c r="E12" s="5" t="s">
         <v>16</v>
       </c>
       <c r="F12" s="6">
-        <v>1</v>
+        <v>11</v>
       </c>
       <c r="G12" s="5" t="s">
-        <v>69</v>
+        <v>39</v>
       </c>
       <c r="H12" s="5">
-        <v>9202</v>
+        <v>648</v>
       </c>
       <c r="I12" s="5" t="s">
-        <v>14</v>
+        <v>18</v>
       </c>
       <c r="J12" s="7" t="s">
         <v>12</v>
@@ -1614,31 +1644,31 @@
     </row>
     <row r="13" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A13" s="5" t="s">
-        <v>72</v>
+        <v>40</v>
       </c>
       <c r="B13" s="5" t="s">
         <v>90</v>
       </c>
       <c r="C13" s="5" t="s">
-        <v>73</v>
+        <v>19</v>
       </c>
       <c r="D13" s="5">
-        <v>1953</v>
+        <v>2010</v>
       </c>
       <c r="E13" s="5" t="s">
         <v>16</v>
       </c>
       <c r="F13" s="6">
-        <v>1</v>
+        <v>9</v>
       </c>
       <c r="G13" s="5" t="s">
-        <v>69</v>
+        <v>41</v>
       </c>
       <c r="H13" s="5">
-        <v>9203</v>
+        <v>660</v>
       </c>
       <c r="I13" s="5" t="s">
-        <v>14</v>
+        <v>18</v>
       </c>
       <c r="J13" s="7" t="s">
         <v>12</v>
@@ -1646,31 +1676,31 @@
     </row>
     <row r="14" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A14" s="5" t="s">
-        <v>58</v>
+        <v>42</v>
       </c>
       <c r="B14" s="5" t="s">
         <v>90</v>
       </c>
       <c r="C14" s="5" t="s">
-        <v>10</v>
-      </c>
-      <c r="D14" s="5">
-        <v>1994</v>
+        <v>80</v>
+      </c>
+      <c r="D14" s="1">
+        <v>2005</v>
       </c>
       <c r="E14" s="5" t="s">
         <v>16</v>
       </c>
-      <c r="F14" s="6">
-        <v>6</v>
+      <c r="F14" s="6" t="s">
+        <v>78</v>
       </c>
       <c r="G14" s="5">
-        <v>676</v>
+        <v>697</v>
       </c>
       <c r="H14" s="5">
-        <v>475</v>
+        <v>9175</v>
       </c>
       <c r="I14" s="5" t="s">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="J14" s="7" t="s">
         <v>12</v>
@@ -1678,31 +1708,31 @@
     </row>
     <row r="15" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A15" s="5" t="s">
-        <v>38</v>
+        <v>44</v>
       </c>
       <c r="B15" s="5" t="s">
-        <v>87</v>
+        <v>90</v>
       </c>
       <c r="C15" s="5" t="s">
-        <v>19</v>
+        <v>43</v>
       </c>
       <c r="D15" s="5">
-        <v>2010</v>
+        <v>2011</v>
       </c>
       <c r="E15" s="5" t="s">
         <v>16</v>
       </c>
       <c r="F15" s="6">
-        <v>11</v>
+        <v>15</v>
       </c>
       <c r="G15" s="5" t="s">
-        <v>39</v>
+        <v>45</v>
       </c>
       <c r="H15" s="5">
-        <v>648</v>
+        <v>1061</v>
       </c>
       <c r="I15" s="5" t="s">
-        <v>18</v>
+        <v>13</v>
       </c>
       <c r="J15" s="7" t="s">
         <v>12</v>
@@ -1710,223 +1740,223 @@
     </row>
     <row r="16" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A16" s="5" t="s">
-        <v>40</v>
+        <v>46</v>
       </c>
       <c r="B16" s="5" t="s">
-        <v>90</v>
+        <v>87</v>
       </c>
       <c r="C16" s="5" t="s">
-        <v>19</v>
+        <v>43</v>
       </c>
       <c r="D16" s="5">
-        <v>2010</v>
+        <v>2008</v>
       </c>
       <c r="E16" s="5" t="s">
         <v>16</v>
       </c>
       <c r="F16" s="6">
-        <v>9</v>
+        <v>14</v>
       </c>
       <c r="G16" s="5" t="s">
-        <v>41</v>
+        <v>47</v>
       </c>
       <c r="H16" s="5">
-        <v>660</v>
+        <v>1523</v>
       </c>
       <c r="I16" s="5" t="s">
-        <v>18</v>
+        <v>21</v>
       </c>
       <c r="J16" s="7" t="s">
         <v>12</v>
       </c>
     </row>
     <row r="17" spans="1:10" x14ac:dyDescent="0.2">
-      <c r="A17" s="5" t="s">
-        <v>37</v>
-      </c>
-      <c r="B17" s="5" t="s">
-        <v>90</v>
-      </c>
-      <c r="C17" s="5" t="s">
-        <v>35</v>
-      </c>
-      <c r="D17" s="5">
-        <v>2008</v>
-      </c>
-      <c r="E17" s="5" t="s">
-        <v>16</v>
-      </c>
-      <c r="F17" s="6">
-        <v>12</v>
-      </c>
-      <c r="G17" s="5">
-        <v>4007</v>
-      </c>
-      <c r="H17" s="5">
-        <v>1004</v>
-      </c>
-      <c r="I17" s="5" t="s">
-        <v>18</v>
-      </c>
-      <c r="J17" s="7" t="s">
+      <c r="A17" s="1" t="s">
+        <v>109</v>
+      </c>
+      <c r="B17" s="1" t="s">
+        <v>87</v>
+      </c>
+      <c r="C17" s="1" t="s">
+        <v>24</v>
+      </c>
+      <c r="D17" s="1">
+        <v>2011</v>
+      </c>
+      <c r="E17" s="1" t="s">
+        <v>16</v>
+      </c>
+      <c r="F17" s="3" t="s">
+        <v>78</v>
+      </c>
+      <c r="G17" s="10" t="s">
+        <v>110</v>
+      </c>
+      <c r="H17" s="1">
+        <v>9464</v>
+      </c>
+      <c r="I17" s="9" t="s">
+        <v>106</v>
+      </c>
+      <c r="J17" s="1" t="s">
         <v>12</v>
       </c>
     </row>
     <row r="18" spans="1:10" x14ac:dyDescent="0.2">
-      <c r="A18" s="5" t="s">
-        <v>36</v>
-      </c>
-      <c r="B18" s="5" t="s">
-        <v>90</v>
-      </c>
-      <c r="C18" s="5" t="s">
-        <v>35</v>
-      </c>
-      <c r="D18" s="5">
-        <v>2008</v>
-      </c>
-      <c r="E18" s="5" t="s">
-        <v>16</v>
-      </c>
-      <c r="F18" s="6">
-        <v>13</v>
-      </c>
-      <c r="G18" s="5">
-        <v>16</v>
-      </c>
-      <c r="H18" s="5">
-        <v>1004</v>
-      </c>
-      <c r="I18" s="5" t="s">
-        <v>18</v>
-      </c>
-      <c r="J18" s="7" t="s">
+      <c r="A18" s="1" t="s">
+        <v>111</v>
+      </c>
+      <c r="B18" s="1" t="s">
+        <v>90</v>
+      </c>
+      <c r="C18" s="1" t="s">
+        <v>24</v>
+      </c>
+      <c r="D18" s="1">
+        <v>2011</v>
+      </c>
+      <c r="E18" s="1" t="s">
+        <v>16</v>
+      </c>
+      <c r="F18" s="3" t="s">
+        <v>78</v>
+      </c>
+      <c r="G18" s="10" t="s">
+        <v>112</v>
+      </c>
+      <c r="H18" s="1">
+        <v>9464</v>
+      </c>
+      <c r="I18" s="9" t="s">
+        <v>106</v>
+      </c>
+      <c r="J18" s="1" t="s">
         <v>12</v>
       </c>
     </row>
     <row r="19" spans="1:10" x14ac:dyDescent="0.2">
-      <c r="A19" s="5" t="s">
-        <v>44</v>
-      </c>
-      <c r="B19" s="5" t="s">
-        <v>90</v>
-      </c>
-      <c r="C19" s="5" t="s">
-        <v>43</v>
-      </c>
-      <c r="D19" s="5">
+      <c r="A19" s="1" t="s">
+        <v>113</v>
+      </c>
+      <c r="B19" s="1" t="s">
+        <v>90</v>
+      </c>
+      <c r="C19" s="1" t="s">
+        <v>24</v>
+      </c>
+      <c r="D19" s="1">
         <v>2011</v>
       </c>
-      <c r="E19" s="5" t="s">
-        <v>16</v>
-      </c>
-      <c r="F19" s="6">
-        <v>15</v>
-      </c>
-      <c r="G19" s="5" t="s">
-        <v>45</v>
-      </c>
-      <c r="H19" s="5">
-        <v>1061</v>
-      </c>
-      <c r="I19" s="5" t="s">
-        <v>13</v>
-      </c>
-      <c r="J19" s="7" t="s">
+      <c r="E19" s="1" t="s">
+        <v>16</v>
+      </c>
+      <c r="F19" s="3" t="s">
+        <v>78</v>
+      </c>
+      <c r="G19" s="10" t="s">
+        <v>114</v>
+      </c>
+      <c r="H19" s="1">
+        <v>9464</v>
+      </c>
+      <c r="I19" s="9" t="s">
+        <v>106</v>
+      </c>
+      <c r="J19" s="1" t="s">
         <v>12</v>
       </c>
     </row>
     <row r="20" spans="1:10" x14ac:dyDescent="0.2">
-      <c r="A20" s="5" t="s">
-        <v>33</v>
-      </c>
-      <c r="B20" s="5" t="s">
-        <v>87</v>
+      <c r="A20" s="9" t="s">
+        <v>100</v>
+      </c>
+      <c r="B20" s="1" t="s">
+        <v>90</v>
       </c>
       <c r="C20" s="5" t="s">
-        <v>19</v>
-      </c>
-      <c r="D20" s="5">
+        <v>20</v>
+      </c>
+      <c r="D20" s="1">
         <v>2006</v>
       </c>
-      <c r="E20" s="5" t="s">
-        <v>16</v>
-      </c>
-      <c r="F20" s="6">
-        <v>8</v>
-      </c>
-      <c r="G20" s="5" t="s">
-        <v>34</v>
-      </c>
-      <c r="H20" s="5">
-        <v>1305</v>
-      </c>
-      <c r="I20" s="5" t="s">
-        <v>18</v>
+      <c r="E20" s="1" t="s">
+        <v>16</v>
+      </c>
+      <c r="F20" s="3">
+        <v>2</v>
+      </c>
+      <c r="G20" s="10" t="s">
+        <v>101</v>
+      </c>
+      <c r="H20" s="1">
+        <v>9206</v>
+      </c>
+      <c r="I20" s="1" t="s">
+        <v>14</v>
       </c>
       <c r="J20" s="7" t="s">
-        <v>12</v>
+        <v>22</v>
       </c>
     </row>
     <row r="21" spans="1:10" x14ac:dyDescent="0.2">
-      <c r="A21" s="5" t="s">
-        <v>46</v>
-      </c>
-      <c r="B21" s="5" t="s">
-        <v>87</v>
+      <c r="A21" s="1" t="s">
+        <v>102</v>
+      </c>
+      <c r="B21" s="1" t="s">
+        <v>90</v>
       </c>
       <c r="C21" s="5" t="s">
-        <v>43</v>
-      </c>
-      <c r="D21" s="5">
-        <v>2008</v>
-      </c>
-      <c r="E21" s="5" t="s">
+        <v>20</v>
+      </c>
+      <c r="D21" s="1">
+        <v>2003</v>
+      </c>
+      <c r="E21" s="1" t="s">
         <v>16</v>
       </c>
       <c r="F21" s="6">
+        <v>2</v>
+      </c>
+      <c r="G21" s="10" t="s">
+        <v>103</v>
+      </c>
+      <c r="H21" s="1">
+        <v>9185</v>
+      </c>
+      <c r="I21" s="1" t="s">
         <v>14</v>
       </c>
-      <c r="G21" s="5" t="s">
-        <v>47</v>
-      </c>
-      <c r="H21" s="5">
-        <v>1523</v>
-      </c>
-      <c r="I21" s="5" t="s">
-        <v>21</v>
-      </c>
       <c r="J21" s="7" t="s">
-        <v>12</v>
+        <v>22</v>
       </c>
     </row>
     <row r="22" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A22" s="5" t="s">
-        <v>29</v>
+        <v>72</v>
       </c>
       <c r="B22" s="5" t="s">
-        <v>87</v>
+        <v>90</v>
       </c>
       <c r="C22" s="5" t="s">
-        <v>24</v>
+        <v>73</v>
       </c>
       <c r="D22" s="5">
-        <v>1999</v>
+        <v>1953</v>
       </c>
       <c r="E22" s="5" t="s">
         <v>16</v>
       </c>
       <c r="F22" s="6">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="G22" s="5" t="s">
-        <v>30</v>
+        <v>69</v>
       </c>
       <c r="H22" s="5">
-        <v>1703</v>
+        <v>9203</v>
       </c>
       <c r="I22" s="5" t="s">
-        <v>26</v>
+        <v>14</v>
       </c>
       <c r="J22" s="7" t="s">
         <v>12</v>
@@ -1934,80 +1964,80 @@
     </row>
     <row r="23" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A23" s="5" t="s">
-        <v>31</v>
+        <v>48</v>
       </c>
       <c r="B23" s="5" t="s">
-        <v>87</v>
+        <v>90</v>
       </c>
       <c r="C23" s="5" t="s">
-        <v>24</v>
+        <v>49</v>
       </c>
       <c r="D23" s="5">
-        <v>1999</v>
+        <v>1976</v>
       </c>
       <c r="E23" s="5" t="s">
         <v>16</v>
       </c>
       <c r="F23" s="6">
-        <v>7</v>
+        <v>1</v>
       </c>
       <c r="G23" s="5" t="s">
-        <v>32</v>
+        <v>50</v>
       </c>
       <c r="H23" s="5">
-        <v>1706</v>
+        <v>9256</v>
       </c>
       <c r="I23" s="5" t="s">
-        <v>26</v>
+        <v>14</v>
       </c>
       <c r="J23" s="7" t="s">
-        <v>12</v>
+        <v>51</v>
       </c>
     </row>
     <row r="24" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A24" s="5" t="s">
-        <v>27</v>
+        <v>74</v>
       </c>
       <c r="B24" s="5" t="s">
-        <v>87</v>
+        <v>90</v>
       </c>
       <c r="C24" s="5" t="s">
-        <v>24</v>
+        <v>49</v>
       </c>
       <c r="D24" s="5">
-        <v>1999</v>
+        <v>1976</v>
       </c>
       <c r="E24" s="5" t="s">
         <v>16</v>
       </c>
       <c r="F24" s="6">
-        <v>5</v>
+        <v>1</v>
       </c>
       <c r="G24" s="5" t="s">
-        <v>28</v>
+        <v>50</v>
       </c>
       <c r="H24" s="5">
-        <v>1709</v>
+        <v>9256</v>
       </c>
       <c r="I24" s="5" t="s">
-        <v>26</v>
+        <v>14</v>
       </c>
       <c r="J24" s="7" t="s">
-        <v>12</v>
+        <v>51</v>
       </c>
     </row>
     <row r="25" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A25" s="5" t="s">
-        <v>75</v>
+        <v>71</v>
       </c>
       <c r="B25" s="5" t="s">
         <v>90</v>
       </c>
       <c r="C25" s="5" t="s">
-        <v>76</v>
+        <v>73</v>
       </c>
       <c r="D25" s="5">
-        <v>1984</v>
+        <v>1952</v>
       </c>
       <c r="E25" s="5" t="s">
         <v>16</v>
@@ -2016,10 +2046,10 @@
         <v>1</v>
       </c>
       <c r="G25" s="5" t="s">
-        <v>77</v>
+        <v>69</v>
       </c>
       <c r="H25" s="5">
-        <v>9203</v>
+        <v>9202</v>
       </c>
       <c r="I25" s="5" t="s">
         <v>14</v>
@@ -2030,159 +2060,159 @@
     </row>
     <row r="26" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A26" s="5" t="s">
-        <v>79</v>
+        <v>70</v>
       </c>
       <c r="B26" s="5" t="s">
         <v>90</v>
       </c>
       <c r="C26" s="5" t="s">
-        <v>80</v>
+        <v>73</v>
       </c>
       <c r="D26" s="5">
-        <v>2005</v>
+        <v>1949</v>
       </c>
       <c r="E26" s="5" t="s">
-        <v>81</v>
-      </c>
-      <c r="F26" s="6" t="s">
-        <v>78</v>
+        <v>16</v>
+      </c>
+      <c r="F26" s="6">
+        <v>1</v>
       </c>
       <c r="G26" s="5" t="s">
-        <v>82</v>
+        <v>69</v>
       </c>
       <c r="H26" s="5">
-        <v>1130</v>
+        <v>9225</v>
       </c>
       <c r="I26" s="5" t="s">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="J26" s="7" t="s">
         <v>12</v>
       </c>
     </row>
     <row r="27" spans="1:10" x14ac:dyDescent="0.2">
-      <c r="A27" s="5" t="s">
-        <v>83</v>
-      </c>
-      <c r="B27" s="5" t="s">
-        <v>90</v>
-      </c>
-      <c r="C27" s="5" t="s">
-        <v>85</v>
-      </c>
-      <c r="D27" s="5">
-        <v>1996</v>
-      </c>
-      <c r="E27" s="5" t="s">
-        <v>16</v>
-      </c>
-      <c r="F27" s="6">
-        <v>1</v>
-      </c>
-      <c r="G27" s="5" t="s">
-        <v>84</v>
-      </c>
-      <c r="H27" s="5">
-        <v>9189</v>
-      </c>
-      <c r="I27" s="5" t="s">
-        <v>14</v>
-      </c>
-      <c r="J27" s="7" t="s">
+      <c r="A27" s="1" t="s">
+        <v>119</v>
+      </c>
+      <c r="B27" s="1" t="s">
+        <v>87</v>
+      </c>
+      <c r="C27" s="1" t="s">
+        <v>19</v>
+      </c>
+      <c r="D27" s="1" t="s">
+        <v>78</v>
+      </c>
+      <c r="E27" s="1" t="s">
+        <v>16</v>
+      </c>
+      <c r="F27" s="3" t="s">
+        <v>78</v>
+      </c>
+      <c r="G27" s="10" t="s">
+        <v>120</v>
+      </c>
+      <c r="H27" s="1">
+        <v>9307</v>
+      </c>
+      <c r="I27" s="9" t="s">
+        <v>106</v>
+      </c>
+      <c r="J27" s="1" t="s">
         <v>12</v>
       </c>
     </row>
     <row r="28" spans="1:10" x14ac:dyDescent="0.2">
-      <c r="A28" s="5" t="s">
-        <v>86</v>
-      </c>
-      <c r="B28" s="5" t="s">
+      <c r="A28" s="1" t="s">
+        <v>133</v>
+      </c>
+      <c r="B28" s="1" t="s">
         <v>87</v>
       </c>
-      <c r="C28" s="5" t="s">
-        <v>88</v>
-      </c>
-      <c r="D28" s="5">
-        <v>2013</v>
-      </c>
-      <c r="E28" s="5" t="s">
-        <v>57</v>
-      </c>
-      <c r="F28" s="6">
-        <v>1</v>
-      </c>
-      <c r="G28" s="5" t="s">
-        <v>89</v>
-      </c>
-      <c r="H28" s="5">
-        <v>2013</v>
-      </c>
-      <c r="I28" s="5">
-        <v>9131</v>
-      </c>
-      <c r="J28" s="7" t="s">
-        <v>22</v>
+      <c r="C28" s="1" t="s">
+        <v>19</v>
+      </c>
+      <c r="D28" s="1" t="s">
+        <v>78</v>
+      </c>
+      <c r="E28" s="1" t="s">
+        <v>16</v>
+      </c>
+      <c r="F28" s="3" t="s">
+        <v>78</v>
+      </c>
+      <c r="G28" s="10" t="s">
+        <v>134</v>
+      </c>
+      <c r="H28" s="1">
+        <v>9231</v>
+      </c>
+      <c r="I28" s="9" t="s">
+        <v>106</v>
+      </c>
+      <c r="J28" s="1" t="s">
+        <v>12</v>
       </c>
     </row>
     <row r="29" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A29" s="1" t="s">
-        <v>91</v>
-      </c>
-      <c r="B29" s="5" t="s">
+        <v>139</v>
+      </c>
+      <c r="B29" s="1" t="s">
         <v>87</v>
       </c>
       <c r="C29" s="1" t="s">
         <v>19</v>
       </c>
-      <c r="D29" s="1">
-        <v>2008</v>
-      </c>
-      <c r="E29" s="8" t="s">
-        <v>92</v>
-      </c>
-      <c r="F29" s="6" t="s">
-        <v>78</v>
-      </c>
-      <c r="G29" s="1" t="s">
-        <v>93</v>
+      <c r="D29" s="1" t="s">
+        <v>78</v>
+      </c>
+      <c r="E29" s="1" t="s">
+        <v>16</v>
+      </c>
+      <c r="F29" s="3" t="s">
+        <v>78</v>
+      </c>
+      <c r="G29" s="10" t="s">
+        <v>140</v>
       </c>
       <c r="H29" s="1">
-        <v>8418</v>
-      </c>
-      <c r="I29" s="1" t="s">
-        <v>14</v>
-      </c>
-      <c r="J29" s="1" t="s">
+        <v>9206</v>
+      </c>
+      <c r="I29" s="9" t="s">
+        <v>106</v>
+      </c>
+      <c r="J29" s="11" t="s">
         <v>12</v>
       </c>
     </row>
     <row r="30" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A30" s="1" t="s">
-        <v>94</v>
-      </c>
-      <c r="B30" s="5" t="s">
-        <v>90</v>
-      </c>
-      <c r="C30" s="5" t="s">
-        <v>80</v>
-      </c>
-      <c r="D30" s="1">
-        <v>2004</v>
-      </c>
-      <c r="E30" s="9" t="s">
-        <v>95</v>
-      </c>
-      <c r="F30" s="6">
-        <v>1</v>
-      </c>
-      <c r="G30" s="1">
-        <v>496</v>
+        <v>107</v>
+      </c>
+      <c r="B30" s="1" t="s">
+        <v>87</v>
+      </c>
+      <c r="C30" s="1" t="s">
+        <v>19</v>
+      </c>
+      <c r="D30" s="1" t="s">
+        <v>78</v>
+      </c>
+      <c r="E30" s="1" t="s">
+        <v>16</v>
+      </c>
+      <c r="F30" s="3" t="s">
+        <v>78</v>
+      </c>
+      <c r="G30" s="10" t="s">
+        <v>108</v>
       </c>
       <c r="H30" s="1">
-        <v>9136</v>
-      </c>
-      <c r="I30" s="1" t="s">
-        <v>14</v>
+        <v>9486</v>
+      </c>
+      <c r="I30" s="9" t="s">
+        <v>106</v>
       </c>
       <c r="J30" s="1" t="s">
         <v>12</v>
@@ -2190,135 +2220,135 @@
     </row>
     <row r="31" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A31" s="1" t="s">
-        <v>96</v>
-      </c>
-      <c r="B31" s="5" t="s">
+        <v>198</v>
+      </c>
+      <c r="B31" s="1" t="s">
         <v>87</v>
       </c>
       <c r="C31" s="1" t="s">
-        <v>99</v>
-      </c>
-      <c r="D31" s="1">
-        <v>2009</v>
-      </c>
-      <c r="E31" s="9" t="s">
-        <v>95</v>
-      </c>
-      <c r="F31" s="3">
-        <v>1</v>
-      </c>
-      <c r="G31" s="1" t="s">
-        <v>97</v>
+        <v>19</v>
+      </c>
+      <c r="D31" s="1" t="s">
+        <v>78</v>
+      </c>
+      <c r="E31" s="1" t="s">
+        <v>16</v>
+      </c>
+      <c r="F31" s="3" t="s">
+        <v>78</v>
+      </c>
+      <c r="G31" s="10" t="s">
+        <v>199</v>
       </c>
       <c r="H31" s="1">
-        <v>9065</v>
-      </c>
-      <c r="I31" s="1" t="s">
-        <v>14</v>
+        <v>9138</v>
+      </c>
+      <c r="I31" s="9" t="s">
+        <v>106</v>
       </c>
       <c r="J31" s="1" t="s">
-        <v>98</v>
+        <v>12</v>
       </c>
     </row>
     <row r="32" spans="1:10" x14ac:dyDescent="0.2">
-      <c r="A32" s="9" t="s">
-        <v>100</v>
+      <c r="A32" s="1" t="s">
+        <v>129</v>
       </c>
       <c r="B32" s="1" t="s">
-        <v>90</v>
-      </c>
-      <c r="C32" s="5" t="s">
-        <v>20</v>
-      </c>
-      <c r="D32" s="1">
-        <v>2006</v>
+        <v>87</v>
+      </c>
+      <c r="C32" s="1" t="s">
+        <v>19</v>
+      </c>
+      <c r="D32" s="1" t="s">
+        <v>78</v>
       </c>
       <c r="E32" s="1" t="s">
         <v>16</v>
       </c>
-      <c r="F32" s="3">
-        <v>2</v>
+      <c r="F32" s="3" t="s">
+        <v>78</v>
       </c>
       <c r="G32" s="10" t="s">
-        <v>101</v>
+        <v>130</v>
       </c>
       <c r="H32" s="1">
-        <v>9206</v>
-      </c>
-      <c r="I32" s="1" t="s">
-        <v>14</v>
-      </c>
-      <c r="J32" s="7" t="s">
-        <v>22</v>
+        <v>9258</v>
+      </c>
+      <c r="I32" s="9" t="s">
+        <v>106</v>
+      </c>
+      <c r="J32" s="1" t="s">
+        <v>12</v>
       </c>
     </row>
     <row r="33" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A33" s="1" t="s">
-        <v>102</v>
+        <v>117</v>
       </c>
       <c r="B33" s="1" t="s">
-        <v>90</v>
-      </c>
-      <c r="C33" s="5" t="s">
-        <v>20</v>
-      </c>
-      <c r="D33" s="1">
-        <v>2003</v>
+        <v>87</v>
+      </c>
+      <c r="C33" s="1" t="s">
+        <v>19</v>
+      </c>
+      <c r="D33" s="1" t="s">
+        <v>78</v>
       </c>
       <c r="E33" s="1" t="s">
         <v>16</v>
       </c>
-      <c r="F33" s="6">
-        <v>2</v>
+      <c r="F33" s="3" t="s">
+        <v>78</v>
       </c>
       <c r="G33" s="10" t="s">
-        <v>103</v>
+        <v>118</v>
       </c>
       <c r="H33" s="1">
-        <v>9185</v>
-      </c>
-      <c r="I33" s="1" t="s">
-        <v>14</v>
-      </c>
-      <c r="J33" s="7" t="s">
-        <v>22</v>
+        <v>9312</v>
+      </c>
+      <c r="I33" s="9" t="s">
+        <v>106</v>
+      </c>
+      <c r="J33" s="1" t="s">
+        <v>12</v>
       </c>
     </row>
     <row r="34" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A34" s="1" t="s">
-        <v>104</v>
-      </c>
-      <c r="B34" s="5" t="s">
+        <v>125</v>
+      </c>
+      <c r="B34" s="1" t="s">
         <v>87</v>
       </c>
       <c r="C34" s="1" t="s">
-        <v>99</v>
+        <v>19</v>
       </c>
       <c r="D34" s="1">
-        <v>1992</v>
-      </c>
-      <c r="E34" s="9" t="s">
-        <v>95</v>
-      </c>
-      <c r="F34" s="3">
-        <v>1</v>
-      </c>
-      <c r="G34" t="s">
-        <v>105</v>
+        <v>2017</v>
+      </c>
+      <c r="E34" s="1" t="s">
+        <v>16</v>
+      </c>
+      <c r="F34" s="3" t="s">
+        <v>78</v>
+      </c>
+      <c r="G34" s="10" t="s">
+        <v>126</v>
       </c>
       <c r="H34" s="1">
-        <v>9186</v>
+        <v>9266</v>
       </c>
       <c r="I34" s="9" t="s">
         <v>106</v>
       </c>
       <c r="J34" s="1" t="s">
-        <v>98</v>
+        <v>12</v>
       </c>
     </row>
     <row r="35" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A35" s="1" t="s">
-        <v>107</v>
+        <v>131</v>
       </c>
       <c r="B35" s="1" t="s">
         <v>87</v>
@@ -2326,20 +2356,20 @@
       <c r="C35" s="1" t="s">
         <v>19</v>
       </c>
-      <c r="D35" s="1" t="s">
-        <v>78</v>
+      <c r="D35" s="1">
+        <v>2017</v>
       </c>
       <c r="E35" s="1" t="s">
         <v>16</v>
       </c>
-      <c r="F35" s="1" t="s">
+      <c r="F35" s="3" t="s">
         <v>78</v>
       </c>
       <c r="G35" s="10" t="s">
-        <v>108</v>
+        <v>132</v>
       </c>
       <c r="H35" s="1">
-        <v>9486</v>
+        <v>9257</v>
       </c>
       <c r="I35" s="9" t="s">
         <v>106</v>
@@ -2350,28 +2380,28 @@
     </row>
     <row r="36" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A36" s="1" t="s">
-        <v>109</v>
+        <v>121</v>
       </c>
       <c r="B36" s="1" t="s">
         <v>87</v>
       </c>
       <c r="C36" s="1" t="s">
-        <v>24</v>
+        <v>19</v>
       </c>
       <c r="D36" s="1">
-        <v>2011</v>
+        <v>2017</v>
       </c>
       <c r="E36" s="1" t="s">
         <v>16</v>
       </c>
-      <c r="F36" s="1" t="s">
+      <c r="F36" s="3" t="s">
         <v>78</v>
       </c>
       <c r="G36" s="10" t="s">
-        <v>110</v>
+        <v>122</v>
       </c>
       <c r="H36" s="1">
-        <v>9464</v>
+        <v>9276</v>
       </c>
       <c r="I36" s="9" t="s">
         <v>106</v>
@@ -2382,28 +2412,28 @@
     </row>
     <row r="37" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A37" s="1" t="s">
-        <v>111</v>
+        <v>127</v>
       </c>
       <c r="B37" s="1" t="s">
-        <v>90</v>
+        <v>87</v>
       </c>
       <c r="C37" s="1" t="s">
-        <v>24</v>
+        <v>19</v>
       </c>
       <c r="D37" s="1">
-        <v>2011</v>
+        <v>2017</v>
       </c>
       <c r="E37" s="1" t="s">
         <v>16</v>
       </c>
-      <c r="F37" s="1" t="s">
+      <c r="F37" s="3" t="s">
         <v>78</v>
       </c>
       <c r="G37" s="10" t="s">
-        <v>112</v>
+        <v>128</v>
       </c>
       <c r="H37" s="1">
-        <v>9464</v>
+        <v>9265</v>
       </c>
       <c r="I37" s="9" t="s">
         <v>106</v>
@@ -2414,28 +2444,28 @@
     </row>
     <row r="38" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A38" s="1" t="s">
-        <v>113</v>
+        <v>190</v>
       </c>
       <c r="B38" s="1" t="s">
         <v>90</v>
       </c>
       <c r="C38" s="1" t="s">
-        <v>24</v>
+        <v>19</v>
       </c>
       <c r="D38" s="1">
-        <v>2011</v>
+        <v>2017</v>
       </c>
       <c r="E38" s="1" t="s">
         <v>16</v>
       </c>
-      <c r="F38" s="1" t="s">
+      <c r="F38" s="3" t="s">
         <v>78</v>
       </c>
       <c r="G38" s="10" t="s">
-        <v>114</v>
+        <v>191</v>
       </c>
       <c r="H38" s="1">
-        <v>9464</v>
+        <v>9164</v>
       </c>
       <c r="I38" s="9" t="s">
         <v>106</v>
@@ -2460,7 +2490,7 @@
       <c r="E39" s="1" t="s">
         <v>16</v>
       </c>
-      <c r="F39" s="1" t="s">
+      <c r="F39" s="3" t="s">
         <v>78</v>
       </c>
       <c r="G39" s="10" t="s">
@@ -2478,295 +2508,295 @@
     </row>
     <row r="40" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A40" s="1" t="s">
-        <v>117</v>
+        <v>158</v>
       </c>
       <c r="B40" s="1" t="s">
-        <v>87</v>
+        <v>90</v>
       </c>
       <c r="C40" s="1" t="s">
-        <v>19</v>
-      </c>
-      <c r="D40" s="1" t="s">
-        <v>78</v>
+        <v>20</v>
+      </c>
+      <c r="D40" s="1">
+        <v>2017</v>
       </c>
       <c r="E40" s="1" t="s">
         <v>16</v>
       </c>
-      <c r="F40" s="1" t="s">
-        <v>78</v>
-      </c>
-      <c r="G40" s="10" t="s">
-        <v>118</v>
+      <c r="F40" s="3" t="s">
+        <v>78</v>
+      </c>
+      <c r="G40" s="10">
+        <v>1150</v>
       </c>
       <c r="H40" s="1">
-        <v>9312</v>
+        <v>9195</v>
       </c>
       <c r="I40" s="9" t="s">
         <v>106</v>
       </c>
-      <c r="J40" s="1" t="s">
-        <v>12</v>
+      <c r="J40" s="7" t="s">
+        <v>22</v>
       </c>
     </row>
     <row r="41" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A41" s="1" t="s">
-        <v>119</v>
+        <v>141</v>
       </c>
       <c r="B41" s="1" t="s">
-        <v>87</v>
+        <v>90</v>
       </c>
       <c r="C41" s="1" t="s">
-        <v>19</v>
-      </c>
-      <c r="D41" s="1" t="s">
-        <v>78</v>
+        <v>20</v>
+      </c>
+      <c r="D41" s="1">
+        <v>2006</v>
       </c>
       <c r="E41" s="1" t="s">
         <v>16</v>
       </c>
-      <c r="F41" s="1" t="s">
+      <c r="F41" s="3" t="s">
         <v>78</v>
       </c>
       <c r="G41" s="10" t="s">
-        <v>120</v>
+        <v>101</v>
       </c>
       <c r="H41" s="1">
-        <v>9307</v>
+        <v>9206</v>
       </c>
       <c r="I41" s="9" t="s">
         <v>106</v>
       </c>
-      <c r="J41" s="1" t="s">
-        <v>12</v>
+      <c r="J41" s="7" t="s">
+        <v>22</v>
       </c>
     </row>
     <row r="42" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A42" s="1" t="s">
-        <v>121</v>
+        <v>165</v>
       </c>
       <c r="B42" s="1" t="s">
-        <v>87</v>
+        <v>90</v>
       </c>
       <c r="C42" s="1" t="s">
-        <v>19</v>
+        <v>20</v>
       </c>
       <c r="D42" s="1">
-        <v>2017</v>
+        <v>2006</v>
       </c>
       <c r="E42" s="1" t="s">
         <v>16</v>
       </c>
-      <c r="F42" s="1" t="s">
+      <c r="F42" s="3" t="s">
         <v>78</v>
       </c>
       <c r="G42" s="10" t="s">
-        <v>122</v>
+        <v>166</v>
       </c>
       <c r="H42" s="1">
-        <v>9276</v>
+        <v>9192</v>
       </c>
       <c r="I42" s="9" t="s">
         <v>106</v>
       </c>
-      <c r="J42" s="1" t="s">
-        <v>12</v>
+      <c r="J42" s="7" t="s">
+        <v>22</v>
       </c>
     </row>
     <row r="43" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A43" s="1" t="s">
-        <v>123</v>
+        <v>180</v>
       </c>
       <c r="B43" s="1" t="s">
-        <v>87</v>
+        <v>90</v>
       </c>
       <c r="C43" s="1" t="s">
-        <v>19</v>
-      </c>
-      <c r="D43" s="1" t="s">
-        <v>78</v>
+        <v>20</v>
+      </c>
+      <c r="D43" s="1">
+        <v>2006</v>
       </c>
       <c r="E43" s="1" t="s">
-        <v>57</v>
-      </c>
-      <c r="F43" s="1">
-        <v>1</v>
+        <v>16</v>
+      </c>
+      <c r="F43" s="3" t="s">
+        <v>78</v>
       </c>
       <c r="G43" s="10" t="s">
-        <v>124</v>
+        <v>181</v>
       </c>
       <c r="H43" s="1">
-        <v>9270</v>
+        <v>9171</v>
       </c>
       <c r="I43" s="9" t="s">
         <v>106</v>
       </c>
-      <c r="J43" s="1" t="s">
-        <v>12</v>
+      <c r="J43" s="7" t="s">
+        <v>22</v>
       </c>
     </row>
     <row r="44" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A44" s="1" t="s">
-        <v>125</v>
+        <v>186</v>
       </c>
       <c r="B44" s="1" t="s">
-        <v>87</v>
+        <v>90</v>
       </c>
       <c r="C44" s="1" t="s">
-        <v>19</v>
+        <v>20</v>
       </c>
       <c r="D44" s="1">
-        <v>2017</v>
+        <v>2006</v>
       </c>
       <c r="E44" s="1" t="s">
         <v>16</v>
       </c>
-      <c r="F44" s="1" t="s">
+      <c r="F44" s="3" t="s">
         <v>78</v>
       </c>
       <c r="G44" s="10" t="s">
-        <v>126</v>
+        <v>187</v>
       </c>
       <c r="H44" s="1">
-        <v>9266</v>
+        <v>9166</v>
       </c>
       <c r="I44" s="9" t="s">
         <v>106</v>
       </c>
-      <c r="J44" s="1" t="s">
-        <v>12</v>
+      <c r="J44" s="7" t="s">
+        <v>22</v>
       </c>
     </row>
     <row r="45" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A45" s="1" t="s">
-        <v>127</v>
+        <v>148</v>
       </c>
       <c r="B45" s="1" t="s">
-        <v>87</v>
+        <v>90</v>
       </c>
       <c r="C45" s="1" t="s">
-        <v>19</v>
+        <v>20</v>
       </c>
       <c r="D45" s="1">
-        <v>2017</v>
+        <v>2006</v>
       </c>
       <c r="E45" s="1" t="s">
         <v>16</v>
       </c>
-      <c r="F45" s="1" t="s">
+      <c r="F45" s="3" t="s">
         <v>78</v>
       </c>
       <c r="G45" s="10" t="s">
-        <v>128</v>
+        <v>149</v>
       </c>
       <c r="H45" s="1">
-        <v>9265</v>
+        <v>9202</v>
       </c>
       <c r="I45" s="9" t="s">
         <v>106</v>
       </c>
-      <c r="J45" s="1" t="s">
-        <v>12</v>
+      <c r="J45" s="7" t="s">
+        <v>22</v>
       </c>
     </row>
     <row r="46" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A46" s="1" t="s">
-        <v>129</v>
+        <v>159</v>
       </c>
       <c r="B46" s="1" t="s">
-        <v>87</v>
+        <v>90</v>
       </c>
       <c r="C46" s="1" t="s">
-        <v>19</v>
-      </c>
-      <c r="D46" s="1" t="s">
-        <v>78</v>
+        <v>20</v>
+      </c>
+      <c r="D46" s="1">
+        <v>2007</v>
       </c>
       <c r="E46" s="1" t="s">
         <v>16</v>
       </c>
-      <c r="F46" s="1" t="s">
+      <c r="F46" s="3" t="s">
         <v>78</v>
       </c>
       <c r="G46" s="10" t="s">
-        <v>130</v>
+        <v>160</v>
       </c>
       <c r="H46" s="1">
-        <v>9258</v>
+        <v>9194</v>
       </c>
       <c r="I46" s="9" t="s">
         <v>106</v>
       </c>
-      <c r="J46" s="1" t="s">
-        <v>12</v>
+      <c r="J46" s="7" t="s">
+        <v>22</v>
       </c>
     </row>
     <row r="47" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A47" s="1" t="s">
-        <v>131</v>
+        <v>137</v>
       </c>
       <c r="B47" s="1" t="s">
-        <v>87</v>
+        <v>90</v>
       </c>
       <c r="C47" s="1" t="s">
-        <v>19</v>
+        <v>20</v>
       </c>
       <c r="D47" s="1">
-        <v>2017</v>
+        <v>2006</v>
       </c>
       <c r="E47" s="1" t="s">
         <v>16</v>
       </c>
-      <c r="F47" s="1" t="s">
+      <c r="F47" s="3" t="s">
         <v>78</v>
       </c>
       <c r="G47" s="10" t="s">
-        <v>132</v>
+        <v>138</v>
       </c>
       <c r="H47" s="1">
-        <v>9257</v>
+        <v>9207</v>
       </c>
       <c r="I47" s="9" t="s">
         <v>106</v>
       </c>
-      <c r="J47" s="1" t="s">
-        <v>12</v>
+      <c r="J47" s="7" t="s">
+        <v>22</v>
       </c>
     </row>
     <row r="48" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A48" s="1" t="s">
-        <v>133</v>
+        <v>167</v>
       </c>
       <c r="B48" s="1" t="s">
-        <v>87</v>
+        <v>90</v>
       </c>
       <c r="C48" s="1" t="s">
-        <v>19</v>
-      </c>
-      <c r="D48" s="1" t="s">
-        <v>78</v>
+        <v>20</v>
+      </c>
+      <c r="D48" s="1">
+        <v>2007</v>
       </c>
       <c r="E48" s="1" t="s">
         <v>16</v>
       </c>
-      <c r="F48" s="1" t="s">
+      <c r="F48" s="3" t="s">
         <v>78</v>
       </c>
       <c r="G48" s="10" t="s">
-        <v>134</v>
+        <v>168</v>
       </c>
       <c r="H48" s="1">
-        <v>9231</v>
+        <v>9192</v>
       </c>
       <c r="I48" s="9" t="s">
         <v>106</v>
       </c>
-      <c r="J48" s="1" t="s">
-        <v>12</v>
+      <c r="J48" s="7" t="s">
+        <v>22</v>
       </c>
     </row>
     <row r="49" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A49" s="1" t="s">
-        <v>135</v>
+        <v>161</v>
       </c>
       <c r="B49" s="1" t="s">
         <v>90</v>
@@ -2780,14 +2810,14 @@
       <c r="E49" s="1" t="s">
         <v>16</v>
       </c>
-      <c r="F49" s="1" t="s">
+      <c r="F49" s="3" t="s">
         <v>78</v>
       </c>
       <c r="G49" s="10" t="s">
-        <v>136</v>
+        <v>162</v>
       </c>
       <c r="H49" s="1">
-        <v>9215</v>
+        <v>9193</v>
       </c>
       <c r="I49" s="9" t="s">
         <v>106</v>
@@ -2798,7 +2828,7 @@
     </row>
     <row r="50" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A50" s="1" t="s">
-        <v>137</v>
+        <v>188</v>
       </c>
       <c r="B50" s="1" t="s">
         <v>90</v>
@@ -2807,19 +2837,19 @@
         <v>20</v>
       </c>
       <c r="D50" s="1">
-        <v>2006</v>
+        <v>2017</v>
       </c>
       <c r="E50" s="1" t="s">
         <v>16</v>
       </c>
-      <c r="F50" s="1" t="s">
+      <c r="F50" s="3" t="s">
         <v>78</v>
       </c>
       <c r="G50" s="10" t="s">
-        <v>138</v>
+        <v>189</v>
       </c>
       <c r="H50" s="1">
-        <v>9207</v>
+        <v>9166</v>
       </c>
       <c r="I50" s="9" t="s">
         <v>106</v>
@@ -2830,39 +2860,39 @@
     </row>
     <row r="51" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A51" s="1" t="s">
-        <v>139</v>
+        <v>174</v>
       </c>
       <c r="B51" s="1" t="s">
-        <v>87</v>
+        <v>90</v>
       </c>
       <c r="C51" s="1" t="s">
-        <v>19</v>
-      </c>
-      <c r="D51" s="1" t="s">
-        <v>78</v>
+        <v>20</v>
+      </c>
+      <c r="D51" s="1">
+        <v>2006</v>
       </c>
       <c r="E51" s="1" t="s">
         <v>16</v>
       </c>
-      <c r="F51" s="1" t="s">
+      <c r="F51" s="3" t="s">
         <v>78</v>
       </c>
       <c r="G51" s="10" t="s">
-        <v>140</v>
+        <v>175</v>
       </c>
       <c r="H51" s="1">
-        <v>9206</v>
+        <v>9185</v>
       </c>
       <c r="I51" s="9" t="s">
         <v>106</v>
       </c>
-      <c r="J51" s="11" t="s">
-        <v>12</v>
+      <c r="J51" s="7" t="s">
+        <v>22</v>
       </c>
     </row>
     <row r="52" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A52" s="1" t="s">
-        <v>141</v>
+        <v>154</v>
       </c>
       <c r="B52" s="1" t="s">
         <v>90</v>
@@ -2871,19 +2901,19 @@
         <v>20</v>
       </c>
       <c r="D52" s="1">
-        <v>2006</v>
+        <v>2005</v>
       </c>
       <c r="E52" s="1" t="s">
         <v>16</v>
       </c>
-      <c r="F52" s="1" t="s">
+      <c r="F52" s="3" t="s">
         <v>78</v>
       </c>
       <c r="G52" s="10" t="s">
-        <v>101</v>
+        <v>155</v>
       </c>
       <c r="H52" s="1">
-        <v>9206</v>
+        <v>9200</v>
       </c>
       <c r="I52" s="9" t="s">
         <v>106</v>
@@ -2894,7 +2924,7 @@
     </row>
     <row r="53" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A53" s="1" t="s">
-        <v>142</v>
+        <v>150</v>
       </c>
       <c r="B53" s="1" t="s">
         <v>90</v>
@@ -2908,14 +2938,14 @@
       <c r="E53" s="1" t="s">
         <v>16</v>
       </c>
-      <c r="F53" s="1" t="s">
+      <c r="F53" s="3" t="s">
         <v>78</v>
       </c>
       <c r="G53" s="10" t="s">
-        <v>143</v>
+        <v>151</v>
       </c>
       <c r="H53" s="1">
-        <v>9206</v>
+        <v>9202</v>
       </c>
       <c r="I53" s="9" t="s">
         <v>106</v>
@@ -2926,7 +2956,7 @@
     </row>
     <row r="54" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A54" s="1" t="s">
-        <v>144</v>
+        <v>169</v>
       </c>
       <c r="B54" s="1" t="s">
         <v>90</v>
@@ -2935,19 +2965,19 @@
         <v>20</v>
       </c>
       <c r="D54" s="1">
-        <v>2006</v>
+        <v>2007</v>
       </c>
       <c r="E54" s="1" t="s">
         <v>16</v>
       </c>
-      <c r="F54" s="1" t="s">
+      <c r="F54" s="3" t="s">
         <v>78</v>
       </c>
       <c r="G54" s="10" t="s">
-        <v>145</v>
+        <v>170</v>
       </c>
       <c r="H54" s="1">
-        <v>9204</v>
+        <v>9191</v>
       </c>
       <c r="I54" s="9" t="s">
         <v>106</v>
@@ -2958,7 +2988,7 @@
     </row>
     <row r="55" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A55" s="1" t="s">
-        <v>146</v>
+        <v>156</v>
       </c>
       <c r="B55" s="1" t="s">
         <v>90</v>
@@ -2972,14 +3002,14 @@
       <c r="E55" s="1" t="s">
         <v>16</v>
       </c>
-      <c r="F55" s="1" t="s">
+      <c r="F55" s="3" t="s">
         <v>78</v>
       </c>
       <c r="G55" s="10" t="s">
-        <v>147</v>
+        <v>157</v>
       </c>
       <c r="H55" s="1">
-        <v>9203</v>
+        <v>9199</v>
       </c>
       <c r="I55" s="9" t="s">
         <v>106</v>
@@ -2990,7 +3020,7 @@
     </row>
     <row r="56" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A56" s="1" t="s">
-        <v>148</v>
+        <v>173</v>
       </c>
       <c r="B56" s="1" t="s">
         <v>90</v>
@@ -2999,19 +3029,19 @@
         <v>20</v>
       </c>
       <c r="D56" s="1">
-        <v>2006</v>
+        <v>2003</v>
       </c>
       <c r="E56" s="1" t="s">
         <v>16</v>
       </c>
-      <c r="F56" s="1" t="s">
+      <c r="F56" s="3" t="s">
         <v>78</v>
       </c>
       <c r="G56" s="10" t="s">
-        <v>149</v>
+        <v>103</v>
       </c>
       <c r="H56" s="1">
-        <v>9202</v>
+        <v>9189</v>
       </c>
       <c r="I56" s="9" t="s">
         <v>106</v>
@@ -3022,7 +3052,7 @@
     </row>
     <row r="57" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A57" s="1" t="s">
-        <v>150</v>
+        <v>171</v>
       </c>
       <c r="B57" s="1" t="s">
         <v>90</v>
@@ -3036,14 +3066,14 @@
       <c r="E57" s="1" t="s">
         <v>16</v>
       </c>
-      <c r="F57" s="1" t="s">
+      <c r="F57" s="3" t="s">
         <v>78</v>
       </c>
       <c r="G57" s="10" t="s">
-        <v>151</v>
+        <v>172</v>
       </c>
       <c r="H57" s="1">
-        <v>9202</v>
+        <v>9191</v>
       </c>
       <c r="I57" s="9" t="s">
         <v>106</v>
@@ -3068,7 +3098,7 @@
       <c r="E58" s="1" t="s">
         <v>16</v>
       </c>
-      <c r="F58" s="1" t="s">
+      <c r="F58" s="3" t="s">
         <v>78</v>
       </c>
       <c r="G58" s="10" t="s">
@@ -3086,7 +3116,7 @@
     </row>
     <row r="59" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A59" s="1" t="s">
-        <v>154</v>
+        <v>142</v>
       </c>
       <c r="B59" s="1" t="s">
         <v>90</v>
@@ -3095,19 +3125,19 @@
         <v>20</v>
       </c>
       <c r="D59" s="1">
-        <v>2005</v>
+        <v>2006</v>
       </c>
       <c r="E59" s="1" t="s">
         <v>16</v>
       </c>
-      <c r="F59" s="1" t="s">
+      <c r="F59" s="3" t="s">
         <v>78</v>
       </c>
       <c r="G59" s="10" t="s">
-        <v>155</v>
+        <v>143</v>
       </c>
       <c r="H59" s="1">
-        <v>9200</v>
+        <v>9206</v>
       </c>
       <c r="I59" s="9" t="s">
         <v>106</v>
@@ -3118,7 +3148,7 @@
     </row>
     <row r="60" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A60" s="1" t="s">
-        <v>156</v>
+        <v>146</v>
       </c>
       <c r="B60" s="1" t="s">
         <v>90</v>
@@ -3132,14 +3162,14 @@
       <c r="E60" s="1" t="s">
         <v>16</v>
       </c>
-      <c r="F60" s="1" t="s">
+      <c r="F60" s="3" t="s">
         <v>78</v>
       </c>
       <c r="G60" s="10" t="s">
-        <v>157</v>
+        <v>147</v>
       </c>
       <c r="H60" s="1">
-        <v>9199</v>
+        <v>9203</v>
       </c>
       <c r="I60" s="9" t="s">
         <v>106</v>
@@ -3150,7 +3180,7 @@
     </row>
     <row r="61" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A61" s="1" t="s">
-        <v>158</v>
+        <v>135</v>
       </c>
       <c r="B61" s="1" t="s">
         <v>90</v>
@@ -3159,19 +3189,19 @@
         <v>20</v>
       </c>
       <c r="D61" s="1">
-        <v>2017</v>
+        <v>2006</v>
       </c>
       <c r="E61" s="1" t="s">
         <v>16</v>
       </c>
-      <c r="F61" s="1" t="s">
-        <v>78</v>
-      </c>
-      <c r="G61" s="10">
-        <v>1150</v>
+      <c r="F61" s="3" t="s">
+        <v>78</v>
+      </c>
+      <c r="G61" s="10" t="s">
+        <v>136</v>
       </c>
       <c r="H61" s="1">
-        <v>9195</v>
+        <v>9215</v>
       </c>
       <c r="I61" s="9" t="s">
         <v>106</v>
@@ -3182,7 +3212,7 @@
     </row>
     <row r="62" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A62" s="1" t="s">
-        <v>159</v>
+        <v>176</v>
       </c>
       <c r="B62" s="1" t="s">
         <v>90</v>
@@ -3191,19 +3221,19 @@
         <v>20</v>
       </c>
       <c r="D62" s="1">
-        <v>2007</v>
+        <v>2006</v>
       </c>
       <c r="E62" s="1" t="s">
         <v>16</v>
       </c>
-      <c r="F62" s="1" t="s">
+      <c r="F62" s="3" t="s">
         <v>78</v>
       </c>
       <c r="G62" s="10" t="s">
-        <v>160</v>
+        <v>177</v>
       </c>
       <c r="H62" s="1">
-        <v>9194</v>
+        <v>9172</v>
       </c>
       <c r="I62" s="9" t="s">
         <v>106</v>
@@ -3214,7 +3244,7 @@
     </row>
     <row r="63" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A63" s="1" t="s">
-        <v>161</v>
+        <v>144</v>
       </c>
       <c r="B63" s="1" t="s">
         <v>90</v>
@@ -3228,14 +3258,14 @@
       <c r="E63" s="1" t="s">
         <v>16</v>
       </c>
-      <c r="F63" s="1" t="s">
+      <c r="F63" s="3" t="s">
         <v>78</v>
       </c>
       <c r="G63" s="10" t="s">
-        <v>162</v>
+        <v>145</v>
       </c>
       <c r="H63" s="1">
-        <v>9193</v>
+        <v>9204</v>
       </c>
       <c r="I63" s="9" t="s">
         <v>106</v>
@@ -3260,7 +3290,7 @@
       <c r="E64" s="1" t="s">
         <v>16</v>
       </c>
-      <c r="F64" s="1" t="s">
+      <c r="F64" s="3" t="s">
         <v>78</v>
       </c>
       <c r="G64" s="10" t="s">
@@ -3277,218 +3307,215 @@
       </c>
     </row>
     <row r="65" spans="1:10" x14ac:dyDescent="0.2">
-      <c r="A65" s="1" t="s">
-        <v>165</v>
-      </c>
-      <c r="B65" s="1" t="s">
-        <v>90</v>
-      </c>
-      <c r="C65" s="1" t="s">
-        <v>20</v>
-      </c>
-      <c r="D65" s="1">
-        <v>2006</v>
-      </c>
-      <c r="E65" s="1" t="s">
-        <v>16</v>
-      </c>
-      <c r="F65" s="1" t="s">
-        <v>78</v>
-      </c>
-      <c r="G65" s="10" t="s">
-        <v>166</v>
-      </c>
-      <c r="H65" s="1">
-        <v>9192</v>
-      </c>
-      <c r="I65" s="9" t="s">
-        <v>106</v>
+      <c r="A65" s="5" t="s">
+        <v>75</v>
+      </c>
+      <c r="B65" s="5" t="s">
+        <v>90</v>
+      </c>
+      <c r="C65" s="5" t="s">
+        <v>76</v>
+      </c>
+      <c r="D65" s="5">
+        <v>1984</v>
+      </c>
+      <c r="E65" s="5" t="s">
+        <v>16</v>
+      </c>
+      <c r="F65" s="6">
+        <v>1</v>
+      </c>
+      <c r="G65" s="5" t="s">
+        <v>77</v>
+      </c>
+      <c r="H65" s="5">
+        <v>9203</v>
+      </c>
+      <c r="I65" s="5" t="s">
+        <v>14</v>
       </c>
       <c r="J65" s="7" t="s">
-        <v>22</v>
+        <v>12</v>
       </c>
     </row>
     <row r="66" spans="1:10" x14ac:dyDescent="0.2">
-      <c r="A66" s="1" t="s">
-        <v>167</v>
-      </c>
-      <c r="B66" s="1" t="s">
-        <v>90</v>
-      </c>
-      <c r="C66" s="1" t="s">
-        <v>20</v>
-      </c>
-      <c r="D66" s="1">
-        <v>2007</v>
-      </c>
-      <c r="E66" s="1" t="s">
-        <v>16</v>
-      </c>
-      <c r="F66" s="1" t="s">
-        <v>78</v>
-      </c>
-      <c r="G66" s="10" t="s">
-        <v>168</v>
-      </c>
-      <c r="H66" s="1">
-        <v>9192</v>
-      </c>
-      <c r="I66" s="9" t="s">
-        <v>106</v>
+      <c r="A66" s="5" t="s">
+        <v>58</v>
+      </c>
+      <c r="B66" s="5" t="s">
+        <v>90</v>
+      </c>
+      <c r="C66" s="5" t="s">
+        <v>10</v>
+      </c>
+      <c r="D66" s="5">
+        <v>1994</v>
+      </c>
+      <c r="E66" s="5" t="s">
+        <v>16</v>
+      </c>
+      <c r="F66" s="6">
+        <v>6</v>
+      </c>
+      <c r="G66" s="5">
+        <v>676</v>
+      </c>
+      <c r="H66" s="5">
+        <v>475</v>
+      </c>
+      <c r="I66" s="5" t="s">
+        <v>13</v>
       </c>
       <c r="J66" s="7" t="s">
-        <v>22</v>
+        <v>12</v>
       </c>
     </row>
     <row r="67" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A67" s="1" t="s">
-        <v>169</v>
-      </c>
-      <c r="B67" s="1" t="s">
-        <v>90</v>
+        <v>104</v>
+      </c>
+      <c r="B67" s="5" t="s">
+        <v>87</v>
       </c>
       <c r="C67" s="1" t="s">
-        <v>20</v>
+        <v>99</v>
       </c>
       <c r="D67" s="1">
-        <v>2007</v>
-      </c>
-      <c r="E67" s="1" t="s">
-        <v>16</v>
-      </c>
-      <c r="F67" s="1" t="s">
-        <v>78</v>
-      </c>
-      <c r="G67" s="10" t="s">
-        <v>170</v>
+        <v>1992</v>
+      </c>
+      <c r="E67" s="9" t="s">
+        <v>95</v>
+      </c>
+      <c r="F67" s="3">
+        <v>1</v>
+      </c>
+      <c r="G67" t="s">
+        <v>105</v>
       </c>
       <c r="H67" s="1">
-        <v>9191</v>
+        <v>9186</v>
       </c>
       <c r="I67" s="9" t="s">
         <v>106</v>
       </c>
-      <c r="J67" s="7" t="s">
-        <v>22</v>
+      <c r="J67" s="1" t="s">
+        <v>98</v>
       </c>
     </row>
     <row r="68" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A68" s="1" t="s">
-        <v>171</v>
-      </c>
-      <c r="B68" s="1" t="s">
-        <v>90</v>
-      </c>
-      <c r="C68" s="1" t="s">
-        <v>20</v>
+        <v>94</v>
+      </c>
+      <c r="B68" s="5" t="s">
+        <v>90</v>
+      </c>
+      <c r="C68" s="5" t="s">
+        <v>80</v>
       </c>
       <c r="D68" s="1">
-        <v>2006</v>
-      </c>
-      <c r="E68" s="1" t="s">
-        <v>16</v>
-      </c>
-      <c r="F68" s="1" t="s">
-        <v>78</v>
-      </c>
-      <c r="G68" s="10" t="s">
-        <v>172</v>
+        <v>2004</v>
+      </c>
+      <c r="E68" s="9" t="s">
+        <v>95</v>
+      </c>
+      <c r="F68" s="6">
+        <v>1</v>
+      </c>
+      <c r="G68" s="1">
+        <v>496</v>
       </c>
       <c r="H68" s="1">
-        <v>9191</v>
-      </c>
-      <c r="I68" s="9" t="s">
-        <v>106</v>
-      </c>
-      <c r="J68" s="7" t="s">
-        <v>22</v>
+        <v>9136</v>
+      </c>
+      <c r="I68" s="1" t="s">
+        <v>14</v>
+      </c>
+      <c r="J68" s="1" t="s">
+        <v>12</v>
       </c>
     </row>
     <row r="69" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A69" s="1" t="s">
-        <v>173</v>
-      </c>
-      <c r="B69" s="1" t="s">
-        <v>90</v>
+        <v>96</v>
+      </c>
+      <c r="B69" s="5" t="s">
+        <v>87</v>
       </c>
       <c r="C69" s="1" t="s">
-        <v>20</v>
+        <v>99</v>
       </c>
       <c r="D69" s="1">
-        <v>2003</v>
-      </c>
-      <c r="E69" s="1" t="s">
-        <v>16</v>
-      </c>
-      <c r="F69" s="1" t="s">
-        <v>78</v>
-      </c>
-      <c r="G69" s="10" t="s">
-        <v>103</v>
+        <v>2009</v>
+      </c>
+      <c r="E69" s="9" t="s">
+        <v>95</v>
+      </c>
+      <c r="F69" s="3">
+        <v>1</v>
+      </c>
+      <c r="G69" s="1" t="s">
+        <v>97</v>
       </c>
       <c r="H69" s="1">
-        <v>9189</v>
-      </c>
-      <c r="I69" s="9" t="s">
-        <v>106</v>
-      </c>
-      <c r="J69" s="7" t="s">
-        <v>22</v>
+        <v>9065</v>
+      </c>
+      <c r="I69" s="1" t="s">
+        <v>14</v>
+      </c>
+      <c r="J69" s="1" t="s">
+        <v>98</v>
       </c>
     </row>
     <row r="70" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A70" s="1" t="s">
-        <v>174</v>
+        <v>200</v>
       </c>
       <c r="B70" s="1" t="s">
-        <v>90</v>
+        <v>87</v>
       </c>
       <c r="C70" s="1" t="s">
-        <v>20</v>
+        <v>99</v>
       </c>
       <c r="D70" s="1">
-        <v>2006</v>
+        <v>1993</v>
       </c>
       <c r="E70" s="1" t="s">
-        <v>16</v>
-      </c>
-      <c r="F70" s="1" t="s">
-        <v>78</v>
+        <v>57</v>
+      </c>
+      <c r="F70" s="3">
+        <v>1</v>
       </c>
       <c r="G70" s="10" t="s">
-        <v>175</v>
+        <v>201</v>
       </c>
       <c r="H70" s="1">
-        <v>9185</v>
+        <v>9138</v>
       </c>
       <c r="I70" s="9" t="s">
         <v>106</v>
-      </c>
-      <c r="J70" s="7" t="s">
-        <v>22</v>
       </c>
     </row>
     <row r="71" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A71" s="1" t="s">
-        <v>176</v>
+        <v>178</v>
       </c>
       <c r="B71" s="1" t="s">
-        <v>90</v>
+        <v>87</v>
       </c>
       <c r="C71" s="1" t="s">
-        <v>20</v>
+        <v>99</v>
       </c>
       <c r="D71" s="1">
-        <v>2006</v>
+        <v>1993</v>
       </c>
       <c r="E71" s="1" t="s">
-        <v>16</v>
-      </c>
-      <c r="F71" s="1" t="s">
-        <v>78</v>
+        <v>57</v>
+      </c>
+      <c r="F71" s="3">
+        <v>1</v>
       </c>
       <c r="G71" s="10" t="s">
-        <v>177</v>
+        <v>179</v>
       </c>
       <c r="H71" s="1">
         <v>9172</v>
@@ -3496,13 +3523,13 @@
       <c r="I71" s="9" t="s">
         <v>106</v>
       </c>
-      <c r="J71" s="7" t="s">
-        <v>22</v>
+      <c r="J71" s="1" t="s">
+        <v>98</v>
       </c>
     </row>
     <row r="72" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A72" s="1" t="s">
-        <v>178</v>
+        <v>192</v>
       </c>
       <c r="B72" s="1" t="s">
         <v>87</v>
@@ -3516,14 +3543,14 @@
       <c r="E72" s="1" t="s">
         <v>57</v>
       </c>
-      <c r="F72" s="1">
+      <c r="F72" s="3">
         <v>1</v>
       </c>
       <c r="G72" s="10" t="s">
-        <v>179</v>
+        <v>193</v>
       </c>
       <c r="H72" s="1">
-        <v>9172</v>
+        <v>9163</v>
       </c>
       <c r="I72" s="9" t="s">
         <v>106</v>
@@ -3534,34 +3561,34 @@
     </row>
     <row r="73" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A73" s="1" t="s">
-        <v>180</v>
+        <v>210</v>
       </c>
       <c r="B73" s="1" t="s">
-        <v>90</v>
+        <v>87</v>
       </c>
       <c r="C73" s="1" t="s">
-        <v>20</v>
-      </c>
-      <c r="D73" s="1">
-        <v>2006</v>
+        <v>99</v>
+      </c>
+      <c r="D73" s="1" t="s">
+        <v>78</v>
       </c>
       <c r="E73" s="1" t="s">
-        <v>16</v>
-      </c>
-      <c r="F73" s="1" t="s">
-        <v>78</v>
+        <v>57</v>
+      </c>
+      <c r="F73" s="3">
+        <v>1</v>
       </c>
       <c r="G73" s="10" t="s">
-        <v>181</v>
+        <v>211</v>
       </c>
       <c r="H73" s="1">
-        <v>9171</v>
+        <v>9118</v>
       </c>
       <c r="I73" s="9" t="s">
         <v>106</v>
       </c>
-      <c r="J73" s="7" t="s">
-        <v>22</v>
+      <c r="J73" s="1" t="s">
+        <v>98</v>
       </c>
     </row>
     <row r="74" spans="1:10" x14ac:dyDescent="0.2">
@@ -3580,7 +3607,7 @@
       <c r="E74" s="1" t="s">
         <v>57</v>
       </c>
-      <c r="F74" s="1">
+      <c r="F74" s="3">
         <v>1</v>
       </c>
       <c r="G74" s="10" t="s">
@@ -3598,10 +3625,10 @@
     </row>
     <row r="75" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A75" s="1" t="s">
-        <v>184</v>
+        <v>196</v>
       </c>
       <c r="B75" s="1" t="s">
-        <v>87</v>
+        <v>90</v>
       </c>
       <c r="C75" s="1" t="s">
         <v>19</v>
@@ -3612,110 +3639,110 @@
       <c r="E75" s="1" t="s">
         <v>57</v>
       </c>
-      <c r="F75" s="1">
+      <c r="F75" s="3">
         <v>1</v>
       </c>
       <c r="G75" s="10" t="s">
-        <v>185</v>
+        <v>197</v>
       </c>
       <c r="H75" s="1">
-        <v>9168</v>
+        <v>9145</v>
       </c>
       <c r="I75" s="9" t="s">
         <v>106</v>
       </c>
       <c r="J75" s="1" t="s">
-        <v>98</v>
+        <v>12</v>
       </c>
     </row>
     <row r="76" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A76" s="1" t="s">
-        <v>186</v>
+        <v>184</v>
       </c>
       <c r="B76" s="1" t="s">
-        <v>90</v>
+        <v>87</v>
       </c>
       <c r="C76" s="1" t="s">
-        <v>20</v>
-      </c>
-      <c r="D76" s="1">
-        <v>2006</v>
+        <v>19</v>
+      </c>
+      <c r="D76" s="1" t="s">
+        <v>78</v>
       </c>
       <c r="E76" s="1" t="s">
-        <v>16</v>
-      </c>
-      <c r="F76" s="1" t="s">
-        <v>78</v>
+        <v>57</v>
+      </c>
+      <c r="F76" s="3">
+        <v>1</v>
       </c>
       <c r="G76" s="10" t="s">
-        <v>187</v>
+        <v>185</v>
       </c>
       <c r="H76" s="1">
-        <v>9166</v>
+        <v>9168</v>
       </c>
       <c r="I76" s="9" t="s">
         <v>106</v>
       </c>
-      <c r="J76" s="7" t="s">
-        <v>22</v>
+      <c r="J76" s="1" t="s">
+        <v>98</v>
       </c>
     </row>
     <row r="77" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A77" s="1" t="s">
-        <v>188</v>
+        <v>123</v>
       </c>
       <c r="B77" s="1" t="s">
-        <v>90</v>
+        <v>87</v>
       </c>
       <c r="C77" s="1" t="s">
-        <v>20</v>
-      </c>
-      <c r="D77" s="1">
-        <v>2017</v>
+        <v>19</v>
+      </c>
+      <c r="D77" s="1" t="s">
+        <v>78</v>
       </c>
       <c r="E77" s="1" t="s">
-        <v>16</v>
-      </c>
-      <c r="F77" s="1" t="s">
-        <v>78</v>
+        <v>57</v>
+      </c>
+      <c r="F77" s="3">
+        <v>1</v>
       </c>
       <c r="G77" s="10" t="s">
-        <v>189</v>
+        <v>124</v>
       </c>
       <c r="H77" s="1">
-        <v>9166</v>
+        <v>9270</v>
       </c>
       <c r="I77" s="9" t="s">
         <v>106</v>
       </c>
-      <c r="J77" s="7" t="s">
-        <v>22</v>
+      <c r="J77" s="1" t="s">
+        <v>12</v>
       </c>
     </row>
     <row r="78" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A78" s="1" t="s">
-        <v>190</v>
+        <v>206</v>
       </c>
       <c r="B78" s="1" t="s">
-        <v>90</v>
+        <v>87</v>
       </c>
       <c r="C78" s="1" t="s">
         <v>19</v>
       </c>
-      <c r="D78" s="1">
-        <v>2017</v>
+      <c r="D78" s="1" t="s">
+        <v>78</v>
       </c>
       <c r="E78" s="1" t="s">
-        <v>16</v>
-      </c>
-      <c r="F78" s="1" t="s">
-        <v>78</v>
+        <v>57</v>
+      </c>
+      <c r="F78" s="3">
+        <v>1</v>
       </c>
       <c r="G78" s="10" t="s">
-        <v>191</v>
+        <v>207</v>
       </c>
       <c r="H78" s="1">
-        <v>9164</v>
+        <v>9121</v>
       </c>
       <c r="I78" s="9" t="s">
         <v>106</v>
@@ -3726,39 +3753,39 @@
     </row>
     <row r="79" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A79" s="1" t="s">
-        <v>192</v>
+        <v>202</v>
       </c>
       <c r="B79" s="1" t="s">
         <v>87</v>
       </c>
       <c r="C79" s="1" t="s">
-        <v>99</v>
-      </c>
-      <c r="D79" s="1">
-        <v>1993</v>
+        <v>19</v>
+      </c>
+      <c r="D79" s="1" t="s">
+        <v>78</v>
       </c>
       <c r="E79" s="1" t="s">
         <v>57</v>
       </c>
-      <c r="F79" s="1">
+      <c r="F79" s="3">
         <v>1</v>
       </c>
       <c r="G79" s="10" t="s">
-        <v>193</v>
+        <v>203</v>
       </c>
       <c r="H79" s="1">
-        <v>9163</v>
+        <v>9136</v>
       </c>
       <c r="I79" s="9" t="s">
         <v>106</v>
       </c>
       <c r="J79" s="1" t="s">
-        <v>98</v>
+        <v>12</v>
       </c>
     </row>
     <row r="80" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A80" s="1" t="s">
-        <v>194</v>
+        <v>208</v>
       </c>
       <c r="B80" s="1" t="s">
         <v>87</v>
@@ -3772,14 +3799,14 @@
       <c r="E80" s="1" t="s">
         <v>57</v>
       </c>
-      <c r="F80" s="1">
+      <c r="F80" s="3">
         <v>1</v>
       </c>
       <c r="G80" s="10" t="s">
-        <v>195</v>
+        <v>209</v>
       </c>
       <c r="H80" s="1">
-        <v>9158</v>
+        <v>9119</v>
       </c>
       <c r="I80" s="9" t="s">
         <v>106</v>
@@ -3789,61 +3816,61 @@
       </c>
     </row>
     <row r="81" spans="1:10" x14ac:dyDescent="0.2">
-      <c r="A81" s="1" t="s">
-        <v>196</v>
-      </c>
-      <c r="B81" s="1" t="s">
-        <v>90</v>
-      </c>
-      <c r="C81" s="1" t="s">
-        <v>19</v>
-      </c>
-      <c r="D81" s="1" t="s">
-        <v>78</v>
-      </c>
-      <c r="E81" s="1" t="s">
+      <c r="A81" s="5" t="s">
+        <v>86</v>
+      </c>
+      <c r="B81" s="5" t="s">
+        <v>87</v>
+      </c>
+      <c r="C81" s="5" t="s">
+        <v>88</v>
+      </c>
+      <c r="D81" s="5">
+        <v>2013</v>
+      </c>
+      <c r="E81" s="5" t="s">
         <v>57</v>
       </c>
-      <c r="F81" s="1">
+      <c r="F81" s="6">
         <v>1</v>
       </c>
-      <c r="G81" s="10" t="s">
-        <v>197</v>
-      </c>
-      <c r="H81" s="1">
-        <v>9145</v>
-      </c>
-      <c r="I81" s="9" t="s">
-        <v>106</v>
-      </c>
-      <c r="J81" s="1" t="s">
-        <v>12</v>
+      <c r="G81" s="5" t="s">
+        <v>89</v>
+      </c>
+      <c r="H81" s="5">
+        <v>2013</v>
+      </c>
+      <c r="I81" s="5">
+        <v>9131</v>
+      </c>
+      <c r="J81" s="7" t="s">
+        <v>22</v>
       </c>
     </row>
     <row r="82" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A82" s="1" t="s">
-        <v>198</v>
+        <v>212</v>
       </c>
       <c r="B82" s="1" t="s">
-        <v>87</v>
+        <v>90</v>
       </c>
       <c r="C82" s="1" t="s">
         <v>19</v>
       </c>
-      <c r="D82" s="1" t="s">
-        <v>78</v>
+      <c r="D82" s="1">
+        <v>2017</v>
       </c>
       <c r="E82" s="1" t="s">
-        <v>16</v>
-      </c>
-      <c r="F82" s="1" t="s">
-        <v>78</v>
+        <v>57</v>
+      </c>
+      <c r="F82" s="3">
+        <v>1</v>
       </c>
       <c r="G82" s="10" t="s">
-        <v>199</v>
+        <v>213</v>
       </c>
       <c r="H82" s="1">
-        <v>9138</v>
+        <v>8908</v>
       </c>
       <c r="I82" s="9" t="s">
         <v>106</v>
@@ -3854,36 +3881,39 @@
     </row>
     <row r="83" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A83" s="1" t="s">
-        <v>200</v>
+        <v>194</v>
       </c>
       <c r="B83" s="1" t="s">
         <v>87</v>
       </c>
       <c r="C83" s="1" t="s">
-        <v>99</v>
-      </c>
-      <c r="D83" s="1">
-        <v>1993</v>
+        <v>19</v>
+      </c>
+      <c r="D83" s="1" t="s">
+        <v>78</v>
       </c>
       <c r="E83" s="1" t="s">
         <v>57</v>
       </c>
-      <c r="F83" s="1">
+      <c r="F83" s="3">
         <v>1</v>
       </c>
       <c r="G83" s="10" t="s">
-        <v>201</v>
+        <v>195</v>
       </c>
       <c r="H83" s="1">
-        <v>9138</v>
+        <v>9158</v>
       </c>
       <c r="I83" s="9" t="s">
         <v>106</v>
+      </c>
+      <c r="J83" s="1" t="s">
+        <v>12</v>
       </c>
     </row>
     <row r="84" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A84" s="1" t="s">
-        <v>202</v>
+        <v>204</v>
       </c>
       <c r="B84" s="1" t="s">
         <v>87</v>
@@ -3891,20 +3921,20 @@
       <c r="C84" s="1" t="s">
         <v>19</v>
       </c>
-      <c r="D84" s="1" t="s">
-        <v>78</v>
+      <c r="D84" s="1">
+        <v>1989</v>
       </c>
       <c r="E84" s="1" t="s">
         <v>57</v>
       </c>
-      <c r="F84" s="1">
+      <c r="F84" s="3">
         <v>1</v>
       </c>
       <c r="G84" s="10" t="s">
-        <v>203</v>
+        <v>205</v>
       </c>
       <c r="H84" s="1">
-        <v>9136</v>
+        <v>9135</v>
       </c>
       <c r="I84" s="9" t="s">
         <v>106</v>
@@ -3915,7 +3945,7 @@
     </row>
     <row r="85" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A85" s="1" t="s">
-        <v>204</v>
+        <v>214</v>
       </c>
       <c r="B85" s="1" t="s">
         <v>87</v>
@@ -3924,19 +3954,19 @@
         <v>19</v>
       </c>
       <c r="D85" s="1">
-        <v>1989</v>
+        <v>2015</v>
       </c>
       <c r="E85" s="1" t="s">
         <v>57</v>
       </c>
-      <c r="F85" s="1">
+      <c r="F85" s="3">
         <v>1</v>
       </c>
       <c r="G85" s="10" t="s">
-        <v>205</v>
+        <v>215</v>
       </c>
       <c r="H85" s="1">
-        <v>9135</v>
+        <v>6378</v>
       </c>
       <c r="I85" s="9" t="s">
         <v>106</v>
@@ -3946,169 +3976,266 @@
       </c>
     </row>
     <row r="86" spans="1:10" x14ac:dyDescent="0.2">
-      <c r="A86" s="1" t="s">
-        <v>206</v>
-      </c>
-      <c r="B86" s="1" t="s">
+      <c r="A86" s="5" t="s">
+        <v>54</v>
+      </c>
+      <c r="B86" s="5" t="s">
         <v>87</v>
       </c>
-      <c r="C86" s="1" t="s">
-        <v>19</v>
-      </c>
-      <c r="D86" s="1" t="s">
-        <v>78</v>
-      </c>
-      <c r="E86" s="1" t="s">
+      <c r="C86" s="5" t="s">
+        <v>20</v>
+      </c>
+      <c r="D86" s="5">
+        <v>1974</v>
+      </c>
+      <c r="E86" s="5" t="s">
         <v>57</v>
       </c>
-      <c r="F86" s="1">
+      <c r="F86" s="6">
         <v>1</v>
       </c>
-      <c r="G86" s="10" t="s">
-        <v>207</v>
-      </c>
-      <c r="H86" s="1">
-        <v>9121</v>
-      </c>
-      <c r="I86" s="9" t="s">
-        <v>106</v>
-      </c>
-      <c r="J86" s="1" t="s">
-        <v>12</v>
+      <c r="G86" s="5" t="s">
+        <v>55</v>
+      </c>
+      <c r="H86" s="5">
+        <v>9189</v>
+      </c>
+      <c r="I86" s="5" t="s">
+        <v>14</v>
+      </c>
+      <c r="J86" s="7" t="s">
+        <v>22</v>
       </c>
     </row>
     <row r="87" spans="1:10" x14ac:dyDescent="0.2">
-      <c r="A87" s="1" t="s">
-        <v>208</v>
-      </c>
-      <c r="B87" s="1" t="s">
+      <c r="A87" s="5" t="s">
+        <v>60</v>
+      </c>
+      <c r="B87" s="5" t="s">
         <v>87</v>
       </c>
-      <c r="C87" s="1" t="s">
-        <v>19</v>
-      </c>
-      <c r="D87" s="1" t="s">
-        <v>78</v>
-      </c>
-      <c r="E87" s="1" t="s">
-        <v>57</v>
-      </c>
-      <c r="F87" s="1">
-        <v>1</v>
-      </c>
-      <c r="G87" s="10" t="s">
-        <v>209</v>
-      </c>
-      <c r="H87" s="1">
-        <v>9119</v>
-      </c>
-      <c r="I87" s="9" t="s">
-        <v>106</v>
-      </c>
-      <c r="J87" s="1" t="s">
+      <c r="C87" s="5" t="s">
+        <v>63</v>
+      </c>
+      <c r="D87" s="5">
+        <v>1991</v>
+      </c>
+      <c r="E87" s="5" t="s">
+        <v>62</v>
+      </c>
+      <c r="F87" s="6" t="s">
+        <v>78</v>
+      </c>
+      <c r="G87" s="5" t="s">
+        <v>61</v>
+      </c>
+      <c r="H87" s="5">
+        <v>8919</v>
+      </c>
+      <c r="I87" s="5" t="s">
+        <v>14</v>
+      </c>
+      <c r="J87" s="7" t="s">
         <v>12</v>
       </c>
     </row>
     <row r="88" spans="1:10" x14ac:dyDescent="0.2">
-      <c r="A88" s="1" t="s">
-        <v>210</v>
-      </c>
-      <c r="B88" s="1" t="s">
-        <v>87</v>
-      </c>
-      <c r="C88" s="1" t="s">
-        <v>99</v>
-      </c>
-      <c r="D88" s="1" t="s">
-        <v>78</v>
-      </c>
-      <c r="E88" s="1" t="s">
-        <v>57</v>
-      </c>
-      <c r="F88" s="1">
-        <v>1</v>
-      </c>
-      <c r="G88" s="10" t="s">
-        <v>211</v>
-      </c>
-      <c r="H88" s="1">
-        <v>9118</v>
-      </c>
-      <c r="I88" s="9" t="s">
-        <v>106</v>
-      </c>
-      <c r="J88" s="1" t="s">
-        <v>98</v>
+      <c r="A88" s="5" t="s">
+        <v>79</v>
+      </c>
+      <c r="B88" s="5" t="s">
+        <v>90</v>
+      </c>
+      <c r="C88" s="5" t="s">
+        <v>80</v>
+      </c>
+      <c r="D88" s="5">
+        <v>2005</v>
+      </c>
+      <c r="E88" s="5" t="s">
+        <v>81</v>
+      </c>
+      <c r="F88" s="6" t="s">
+        <v>78</v>
+      </c>
+      <c r="G88" s="5" t="s">
+        <v>82</v>
+      </c>
+      <c r="H88" s="5">
+        <v>1130</v>
+      </c>
+      <c r="I88" s="5" t="s">
+        <v>13</v>
+      </c>
+      <c r="J88" s="7" t="s">
+        <v>12</v>
       </c>
     </row>
     <row r="89" spans="1:10" x14ac:dyDescent="0.2">
-      <c r="A89" s="1" t="s">
-        <v>212</v>
-      </c>
-      <c r="B89" s="1" t="s">
+      <c r="A89" s="5" t="s">
+        <v>222</v>
+      </c>
+      <c r="B89" s="5" t="s">
         <v>90</v>
       </c>
       <c r="C89" s="1" t="s">
         <v>19</v>
       </c>
-      <c r="D89" s="1">
-        <v>2017</v>
-      </c>
-      <c r="E89" s="1" t="s">
-        <v>57</v>
-      </c>
-      <c r="F89" s="1">
-        <v>1</v>
-      </c>
-      <c r="G89" s="10" t="s">
-        <v>213</v>
-      </c>
-      <c r="H89" s="1">
-        <v>8908</v>
-      </c>
-      <c r="I89" s="9" t="s">
-        <v>106</v>
-      </c>
-      <c r="J89" s="1" t="s">
+      <c r="D89" s="5">
+        <v>2003</v>
+      </c>
+      <c r="E89" s="8" t="s">
+        <v>92</v>
+      </c>
+      <c r="F89" s="6" t="s">
+        <v>78</v>
+      </c>
+      <c r="G89" s="5" t="s">
+        <v>223</v>
+      </c>
+      <c r="H89" s="5">
+        <v>8437</v>
+      </c>
+      <c r="I89" s="1" t="s">
+        <v>14</v>
+      </c>
+      <c r="J89" s="7" t="s">
         <v>12</v>
       </c>
     </row>
     <row r="90" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A90" s="1" t="s">
-        <v>214</v>
-      </c>
-      <c r="B90" s="1" t="s">
+        <v>91</v>
+      </c>
+      <c r="B90" s="5" t="s">
         <v>87</v>
       </c>
       <c r="C90" s="1" t="s">
         <v>19</v>
       </c>
       <c r="D90" s="1">
-        <v>2015</v>
-      </c>
-      <c r="E90" s="1" t="s">
-        <v>57</v>
-      </c>
-      <c r="F90" s="1">
-        <v>1</v>
-      </c>
-      <c r="G90" s="10" t="s">
-        <v>215</v>
+        <v>2008</v>
+      </c>
+      <c r="E90" s="8" t="s">
+        <v>92</v>
+      </c>
+      <c r="F90" s="6" t="s">
+        <v>78</v>
+      </c>
+      <c r="G90" s="1" t="s">
+        <v>93</v>
       </c>
       <c r="H90" s="1">
-        <v>6378</v>
-      </c>
-      <c r="I90" s="9" t="s">
-        <v>106</v>
+        <v>8418</v>
+      </c>
+      <c r="I90" s="1" t="s">
+        <v>14</v>
       </c>
       <c r="J90" s="1" t="s">
         <v>12</v>
       </c>
     </row>
+    <row r="91" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="A91" s="5" t="s">
+        <v>64</v>
+      </c>
+      <c r="B91" s="5" t="s">
+        <v>90</v>
+      </c>
+      <c r="C91" s="5" t="s">
+        <v>65</v>
+      </c>
+      <c r="D91" s="5">
+        <v>2007</v>
+      </c>
+      <c r="E91" s="5" t="s">
+        <v>66</v>
+      </c>
+      <c r="F91" s="6" t="s">
+        <v>78</v>
+      </c>
+      <c r="G91" s="5" t="s">
+        <v>67</v>
+      </c>
+      <c r="H91" s="5">
+        <v>9136</v>
+      </c>
+      <c r="I91" s="5" t="s">
+        <v>14</v>
+      </c>
+      <c r="J91" s="7" t="s">
+        <v>68</v>
+      </c>
+    </row>
+    <row r="92" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="A92" s="1" t="s">
+        <v>216</v>
+      </c>
+      <c r="B92" s="5" t="s">
+        <v>90</v>
+      </c>
+      <c r="C92" s="1" t="s">
+        <v>19</v>
+      </c>
+      <c r="D92" s="1">
+        <v>2003</v>
+      </c>
+      <c r="E92" s="1" t="s">
+        <v>218</v>
+      </c>
+      <c r="F92" s="6" t="s">
+        <v>78</v>
+      </c>
+      <c r="G92" s="1" t="s">
+        <v>221</v>
+      </c>
+      <c r="H92" s="1">
+        <v>9148</v>
+      </c>
+      <c r="I92" s="5" t="s">
+        <v>14</v>
+      </c>
+      <c r="J92" s="1" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="93" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="A93" s="1" t="s">
+        <v>217</v>
+      </c>
+      <c r="B93" s="5" t="s">
+        <v>90</v>
+      </c>
+      <c r="C93" s="1" t="s">
+        <v>19</v>
+      </c>
+      <c r="D93" s="1">
+        <v>2004</v>
+      </c>
+      <c r="E93" s="1" t="s">
+        <v>218</v>
+      </c>
+      <c r="F93" s="6" t="s">
+        <v>78</v>
+      </c>
+      <c r="G93" s="1" t="s">
+        <v>220</v>
+      </c>
+      <c r="H93" s="1" t="s">
+        <v>219</v>
+      </c>
+      <c r="I93" s="5" t="s">
+        <v>14</v>
+      </c>
+      <c r="J93" s="1" t="s">
+        <v>12</v>
+      </c>
+    </row>
   </sheetData>
-  <sortState xmlns:xlrd2="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" ref="A2:J13">
-    <sortCondition ref="H2:H13"/>
+  <sortState xmlns:xlrd2="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" ref="A2:J91">
+    <sortCondition ref="E2:E91"/>
   </sortState>
+  <phoneticPr fontId="4" type="noConversion"/>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
   <pageSetup paperSize="9" orientation="portrait" horizontalDpi="4294967292" verticalDpi="4294967292"/>
   <headerFooter alignWithMargins="0"/>

--- a/tabular/extension/srlv-refseqs.xlsx
+++ b/tabular/extension/srlv-refseqs.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/robertgifford/Projects/virus/comparative/Retrovirus/Lentivirus-GLUE/tabular/extension/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{7C4EF1B7-8C73-A648-8626-998060FF39AD}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{06A9B7CB-AACB-BE4D-A91B-6DA3ECBB9767}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="23980" yWindow="6560" windowWidth="28060" windowHeight="17540" tabRatio="500" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="15860" yWindow="2840" windowWidth="28060" windowHeight="17540" tabRatio="500" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="SRLV_curated.csv" sheetId="1" r:id="rId1"/>
@@ -29,7 +29,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="800" uniqueCount="224">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="808" uniqueCount="226">
   <si>
     <t>Accession</t>
   </si>
@@ -705,6 +705,12 @@
   </si>
   <si>
     <t>Seui</t>
+  </si>
+  <si>
+    <t>HM210570</t>
+  </si>
+  <si>
+    <t>FESC-752</t>
   </si>
 </sst>
 </file>
@@ -799,7 +805,7 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="2" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="12">
+  <cellXfs count="11">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="left"/>
@@ -826,9 +832,6 @@
       <alignment horizontal="left"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="6" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="49" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
@@ -1242,10 +1245,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:J93"/>
+  <dimension ref="A1:J94"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A70" workbookViewId="0">
-      <selection activeCell="H86" sqref="H86"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="C19" sqref="C19"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -1356,28 +1359,28 @@
     </row>
     <row r="4" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A4" s="5" t="s">
-        <v>83</v>
+        <v>60</v>
       </c>
       <c r="B4" s="5" t="s">
-        <v>90</v>
+        <v>87</v>
       </c>
       <c r="C4" s="5" t="s">
-        <v>85</v>
+        <v>63</v>
       </c>
       <c r="D4" s="5">
-        <v>1996</v>
+        <v>1991</v>
       </c>
       <c r="E4" s="5" t="s">
-        <v>16</v>
-      </c>
-      <c r="F4" s="6">
-        <v>1</v>
+        <v>62</v>
+      </c>
+      <c r="F4" s="6" t="s">
+        <v>78</v>
       </c>
       <c r="G4" s="5" t="s">
-        <v>84</v>
+        <v>61</v>
       </c>
       <c r="H4" s="5">
-        <v>9189</v>
+        <v>8919</v>
       </c>
       <c r="I4" s="5" t="s">
         <v>14</v>
@@ -1388,28 +1391,28 @@
     </row>
     <row r="5" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A5" s="5" t="s">
-        <v>23</v>
+        <v>83</v>
       </c>
       <c r="B5" s="5" t="s">
-        <v>87</v>
+        <v>90</v>
       </c>
       <c r="C5" s="5" t="s">
-        <v>24</v>
+        <v>85</v>
       </c>
       <c r="D5" s="5">
-        <v>1999</v>
+        <v>1996</v>
       </c>
       <c r="E5" s="5" t="s">
         <v>16</v>
       </c>
       <c r="F5" s="6">
-        <v>4</v>
+        <v>1</v>
       </c>
       <c r="G5" s="5" t="s">
-        <v>25</v>
+        <v>84</v>
       </c>
       <c r="H5" s="5">
-        <v>9023</v>
+        <v>9189</v>
       </c>
       <c r="I5" s="5" t="s">
         <v>14</v>
@@ -1420,7 +1423,7 @@
     </row>
     <row r="6" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A6" s="5" t="s">
-        <v>27</v>
+        <v>23</v>
       </c>
       <c r="B6" s="5" t="s">
         <v>87</v>
@@ -1435,16 +1438,16 @@
         <v>16</v>
       </c>
       <c r="F6" s="6">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="G6" s="5" t="s">
-        <v>28</v>
+        <v>25</v>
       </c>
       <c r="H6" s="5">
-        <v>1709</v>
+        <v>9023</v>
       </c>
       <c r="I6" s="5" t="s">
-        <v>26</v>
+        <v>14</v>
       </c>
       <c r="J6" s="7" t="s">
         <v>12</v>
@@ -1452,7 +1455,7 @@
     </row>
     <row r="7" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A7" s="5" t="s">
-        <v>29</v>
+        <v>27</v>
       </c>
       <c r="B7" s="5" t="s">
         <v>87</v>
@@ -1467,13 +1470,13 @@
         <v>16</v>
       </c>
       <c r="F7" s="6">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="G7" s="5" t="s">
-        <v>30</v>
+        <v>28</v>
       </c>
       <c r="H7" s="5">
-        <v>1703</v>
+        <v>1709</v>
       </c>
       <c r="I7" s="5" t="s">
         <v>26</v>
@@ -1484,7 +1487,7 @@
     </row>
     <row r="8" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A8" s="5" t="s">
-        <v>31</v>
+        <v>29</v>
       </c>
       <c r="B8" s="5" t="s">
         <v>87</v>
@@ -1499,13 +1502,13 @@
         <v>16</v>
       </c>
       <c r="F8" s="6">
-        <v>7</v>
+        <v>3</v>
       </c>
       <c r="G8" s="5" t="s">
-        <v>32</v>
+        <v>30</v>
       </c>
       <c r="H8" s="5">
-        <v>1706</v>
+        <v>1703</v>
       </c>
       <c r="I8" s="5" t="s">
         <v>26</v>
@@ -1516,95 +1519,95 @@
     </row>
     <row r="9" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A9" s="5" t="s">
-        <v>33</v>
+        <v>31</v>
       </c>
       <c r="B9" s="5" t="s">
         <v>87</v>
       </c>
       <c r="C9" s="5" t="s">
-        <v>19</v>
+        <v>24</v>
       </c>
       <c r="D9" s="5">
-        <v>2006</v>
+        <v>1999</v>
       </c>
       <c r="E9" s="5" t="s">
         <v>16</v>
       </c>
       <c r="F9" s="6">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="G9" s="5" t="s">
-        <v>34</v>
+        <v>32</v>
       </c>
       <c r="H9" s="5">
-        <v>1305</v>
+        <v>1706</v>
       </c>
       <c r="I9" s="5" t="s">
-        <v>18</v>
+        <v>26</v>
       </c>
       <c r="J9" s="7" t="s">
         <v>12</v>
       </c>
     </row>
     <row r="10" spans="1:10" x14ac:dyDescent="0.2">
-      <c r="A10" s="5" t="s">
-        <v>36</v>
+      <c r="A10" s="1" t="s">
+        <v>104</v>
       </c>
       <c r="B10" s="5" t="s">
-        <v>90</v>
-      </c>
-      <c r="C10" s="5" t="s">
-        <v>35</v>
-      </c>
-      <c r="D10" s="5">
-        <v>2008</v>
-      </c>
-      <c r="E10" s="5" t="s">
-        <v>16</v>
-      </c>
-      <c r="F10" s="6">
-        <v>13</v>
-      </c>
-      <c r="G10" s="5">
-        <v>16</v>
-      </c>
-      <c r="H10" s="5">
-        <v>1004</v>
-      </c>
-      <c r="I10" s="5" t="s">
-        <v>18</v>
-      </c>
-      <c r="J10" s="7" t="s">
-        <v>12</v>
+        <v>87</v>
+      </c>
+      <c r="C10" s="1" t="s">
+        <v>99</v>
+      </c>
+      <c r="D10" s="1">
+        <v>1992</v>
+      </c>
+      <c r="E10" s="9" t="s">
+        <v>95</v>
+      </c>
+      <c r="F10" s="3">
+        <v>1</v>
+      </c>
+      <c r="G10" t="s">
+        <v>105</v>
+      </c>
+      <c r="H10" s="1">
+        <v>9186</v>
+      </c>
+      <c r="I10" s="9" t="s">
+        <v>106</v>
+      </c>
+      <c r="J10" s="1" t="s">
+        <v>98</v>
       </c>
     </row>
     <row r="11" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A11" s="5" t="s">
-        <v>37</v>
+        <v>79</v>
       </c>
       <c r="B11" s="5" t="s">
         <v>90</v>
       </c>
       <c r="C11" s="5" t="s">
-        <v>35</v>
+        <v>80</v>
       </c>
       <c r="D11" s="5">
-        <v>2008</v>
+        <v>2005</v>
       </c>
       <c r="E11" s="5" t="s">
-        <v>16</v>
-      </c>
-      <c r="F11" s="6">
-        <v>12</v>
-      </c>
-      <c r="G11" s="5">
-        <v>4007</v>
+        <v>81</v>
+      </c>
+      <c r="F11" s="6" t="s">
+        <v>78</v>
+      </c>
+      <c r="G11" s="5" t="s">
+        <v>82</v>
       </c>
       <c r="H11" s="5">
-        <v>1004</v>
+        <v>1130</v>
       </c>
       <c r="I11" s="5" t="s">
-        <v>18</v>
+        <v>13</v>
       </c>
       <c r="J11" s="7" t="s">
         <v>12</v>
@@ -1612,7 +1615,7 @@
     </row>
     <row r="12" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A12" s="5" t="s">
-        <v>38</v>
+        <v>33</v>
       </c>
       <c r="B12" s="5" t="s">
         <v>87</v>
@@ -1621,19 +1624,19 @@
         <v>19</v>
       </c>
       <c r="D12" s="5">
-        <v>2010</v>
+        <v>2006</v>
       </c>
       <c r="E12" s="5" t="s">
         <v>16</v>
       </c>
       <c r="F12" s="6">
-        <v>11</v>
+        <v>8</v>
       </c>
       <c r="G12" s="5" t="s">
-        <v>39</v>
+        <v>34</v>
       </c>
       <c r="H12" s="5">
-        <v>648</v>
+        <v>1305</v>
       </c>
       <c r="I12" s="5" t="s">
         <v>18</v>
@@ -1643,40 +1646,40 @@
       </c>
     </row>
     <row r="13" spans="1:10" x14ac:dyDescent="0.2">
-      <c r="A13" s="5" t="s">
-        <v>40</v>
+      <c r="A13" s="1" t="s">
+        <v>91</v>
       </c>
       <c r="B13" s="5" t="s">
-        <v>90</v>
-      </c>
-      <c r="C13" s="5" t="s">
+        <v>87</v>
+      </c>
+      <c r="C13" s="1" t="s">
         <v>19</v>
       </c>
-      <c r="D13" s="5">
-        <v>2010</v>
-      </c>
-      <c r="E13" s="5" t="s">
-        <v>16</v>
-      </c>
-      <c r="F13" s="6">
-        <v>9</v>
-      </c>
-      <c r="G13" s="5" t="s">
-        <v>41</v>
-      </c>
-      <c r="H13" s="5">
-        <v>660</v>
-      </c>
-      <c r="I13" s="5" t="s">
-        <v>18</v>
-      </c>
-      <c r="J13" s="7" t="s">
+      <c r="D13" s="1">
+        <v>2008</v>
+      </c>
+      <c r="E13" s="8" t="s">
+        <v>92</v>
+      </c>
+      <c r="F13" s="6" t="s">
+        <v>78</v>
+      </c>
+      <c r="G13" s="1" t="s">
+        <v>93</v>
+      </c>
+      <c r="H13" s="1">
+        <v>8418</v>
+      </c>
+      <c r="I13" s="1" t="s">
+        <v>14</v>
+      </c>
+      <c r="J13" s="1" t="s">
         <v>12</v>
       </c>
     </row>
     <row r="14" spans="1:10" x14ac:dyDescent="0.2">
-      <c r="A14" s="5" t="s">
-        <v>42</v>
+      <c r="A14" s="1" t="s">
+        <v>94</v>
       </c>
       <c r="B14" s="5" t="s">
         <v>90</v>
@@ -1685,54 +1688,54 @@
         <v>80</v>
       </c>
       <c r="D14" s="1">
-        <v>2005</v>
-      </c>
-      <c r="E14" s="5" t="s">
-        <v>16</v>
-      </c>
-      <c r="F14" s="6" t="s">
-        <v>78</v>
-      </c>
-      <c r="G14" s="5">
-        <v>697</v>
-      </c>
-      <c r="H14" s="5">
-        <v>9175</v>
-      </c>
-      <c r="I14" s="5" t="s">
+        <v>2004</v>
+      </c>
+      <c r="E14" s="9" t="s">
+        <v>95</v>
+      </c>
+      <c r="F14" s="6">
+        <v>1</v>
+      </c>
+      <c r="G14" s="1">
+        <v>496</v>
+      </c>
+      <c r="H14" s="1">
+        <v>9136</v>
+      </c>
+      <c r="I14" s="1" t="s">
         <v>14</v>
       </c>
-      <c r="J14" s="7" t="s">
+      <c r="J14" s="1" t="s">
         <v>12</v>
       </c>
     </row>
     <row r="15" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A15" s="5" t="s">
-        <v>44</v>
+        <v>36</v>
       </c>
       <c r="B15" s="5" t="s">
         <v>90</v>
       </c>
       <c r="C15" s="5" t="s">
-        <v>43</v>
+        <v>35</v>
       </c>
       <c r="D15" s="5">
-        <v>2011</v>
+        <v>2008</v>
       </c>
       <c r="E15" s="5" t="s">
         <v>16</v>
       </c>
       <c r="F15" s="6">
-        <v>15</v>
-      </c>
-      <c r="G15" s="5" t="s">
-        <v>45</v>
+        <v>13</v>
+      </c>
+      <c r="G15" s="5">
+        <v>16</v>
       </c>
       <c r="H15" s="5">
-        <v>1061</v>
+        <v>1004</v>
       </c>
       <c r="I15" s="5" t="s">
-        <v>13</v>
+        <v>18</v>
       </c>
       <c r="J15" s="7" t="s">
         <v>12</v>
@@ -1740,13 +1743,13 @@
     </row>
     <row r="16" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A16" s="5" t="s">
-        <v>46</v>
+        <v>37</v>
       </c>
       <c r="B16" s="5" t="s">
-        <v>87</v>
+        <v>90</v>
       </c>
       <c r="C16" s="5" t="s">
-        <v>43</v>
+        <v>35</v>
       </c>
       <c r="D16" s="5">
         <v>2008</v>
@@ -1755,304 +1758,304 @@
         <v>16</v>
       </c>
       <c r="F16" s="6">
+        <v>12</v>
+      </c>
+      <c r="G16" s="5">
+        <v>4007</v>
+      </c>
+      <c r="H16" s="5">
+        <v>1004</v>
+      </c>
+      <c r="I16" s="5" t="s">
+        <v>18</v>
+      </c>
+      <c r="J16" s="7" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="17" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="A17" s="5" t="s">
+        <v>38</v>
+      </c>
+      <c r="B17" s="5" t="s">
+        <v>87</v>
+      </c>
+      <c r="C17" s="5" t="s">
+        <v>19</v>
+      </c>
+      <c r="D17" s="5">
+        <v>2010</v>
+      </c>
+      <c r="E17" s="5" t="s">
+        <v>16</v>
+      </c>
+      <c r="F17" s="6">
+        <v>11</v>
+      </c>
+      <c r="G17" s="5" t="s">
+        <v>39</v>
+      </c>
+      <c r="H17" s="5">
+        <v>648</v>
+      </c>
+      <c r="I17" s="5" t="s">
+        <v>18</v>
+      </c>
+      <c r="J17" s="7" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="18" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="A18" s="5" t="s">
+        <v>40</v>
+      </c>
+      <c r="B18" s="5" t="s">
+        <v>90</v>
+      </c>
+      <c r="C18" s="5" t="s">
+        <v>19</v>
+      </c>
+      <c r="D18" s="5">
+        <v>2010</v>
+      </c>
+      <c r="E18" s="5" t="s">
+        <v>16</v>
+      </c>
+      <c r="F18" s="6">
+        <v>9</v>
+      </c>
+      <c r="G18" s="5" t="s">
+        <v>41</v>
+      </c>
+      <c r="H18" s="5">
+        <v>660</v>
+      </c>
+      <c r="I18" s="5" t="s">
+        <v>18</v>
+      </c>
+      <c r="J18" s="7" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="19" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="A19" s="5" t="s">
+        <v>222</v>
+      </c>
+      <c r="B19" s="5" t="s">
+        <v>90</v>
+      </c>
+      <c r="C19" s="1" t="s">
+        <v>19</v>
+      </c>
+      <c r="D19" s="5">
+        <v>2003</v>
+      </c>
+      <c r="E19" s="8" t="s">
+        <v>92</v>
+      </c>
+      <c r="F19" s="6" t="s">
+        <v>78</v>
+      </c>
+      <c r="G19" s="5" t="s">
+        <v>223</v>
+      </c>
+      <c r="H19" s="5">
+        <v>8437</v>
+      </c>
+      <c r="I19" s="1" t="s">
         <v>14</v>
       </c>
-      <c r="G16" s="5" t="s">
-        <v>47</v>
-      </c>
-      <c r="H16" s="5">
-        <v>1523</v>
-      </c>
-      <c r="I16" s="5" t="s">
-        <v>21</v>
-      </c>
-      <c r="J16" s="7" t="s">
-        <v>12</v>
-      </c>
-    </row>
-    <row r="17" spans="1:10" x14ac:dyDescent="0.2">
-      <c r="A17" s="1" t="s">
-        <v>109</v>
-      </c>
-      <c r="B17" s="1" t="s">
+      <c r="J19" s="7" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="20" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="A20" s="5" t="s">
+        <v>96</v>
+      </c>
+      <c r="B20" s="5" t="s">
         <v>87</v>
       </c>
-      <c r="C17" s="1" t="s">
-        <v>24</v>
-      </c>
-      <c r="D17" s="1">
-        <v>2011</v>
-      </c>
-      <c r="E17" s="1" t="s">
-        <v>16</v>
-      </c>
-      <c r="F17" s="3" t="s">
-        <v>78</v>
-      </c>
-      <c r="G17" s="10" t="s">
-        <v>110</v>
-      </c>
-      <c r="H17" s="1">
-        <v>9464</v>
-      </c>
-      <c r="I17" s="9" t="s">
-        <v>106</v>
-      </c>
-      <c r="J17" s="1" t="s">
-        <v>12</v>
-      </c>
-    </row>
-    <row r="18" spans="1:10" x14ac:dyDescent="0.2">
-      <c r="A18" s="1" t="s">
-        <v>111</v>
-      </c>
-      <c r="B18" s="1" t="s">
-        <v>90</v>
-      </c>
-      <c r="C18" s="1" t="s">
-        <v>24</v>
-      </c>
-      <c r="D18" s="1">
-        <v>2011</v>
-      </c>
-      <c r="E18" s="1" t="s">
-        <v>16</v>
-      </c>
-      <c r="F18" s="3" t="s">
-        <v>78</v>
-      </c>
-      <c r="G18" s="10" t="s">
-        <v>112</v>
-      </c>
-      <c r="H18" s="1">
-        <v>9464</v>
-      </c>
-      <c r="I18" s="9" t="s">
-        <v>106</v>
-      </c>
-      <c r="J18" s="1" t="s">
-        <v>12</v>
-      </c>
-    </row>
-    <row r="19" spans="1:10" x14ac:dyDescent="0.2">
-      <c r="A19" s="1" t="s">
-        <v>113</v>
-      </c>
-      <c r="B19" s="1" t="s">
-        <v>90</v>
-      </c>
-      <c r="C19" s="1" t="s">
-        <v>24</v>
-      </c>
-      <c r="D19" s="1">
-        <v>2011</v>
-      </c>
-      <c r="E19" s="1" t="s">
-        <v>16</v>
-      </c>
-      <c r="F19" s="3" t="s">
-        <v>78</v>
-      </c>
-      <c r="G19" s="10" t="s">
-        <v>114</v>
-      </c>
-      <c r="H19" s="1">
-        <v>9464</v>
-      </c>
-      <c r="I19" s="9" t="s">
-        <v>106</v>
-      </c>
-      <c r="J19" s="1" t="s">
-        <v>12</v>
-      </c>
-    </row>
-    <row r="20" spans="1:10" x14ac:dyDescent="0.2">
-      <c r="A20" s="9" t="s">
-        <v>100</v>
-      </c>
-      <c r="B20" s="1" t="s">
-        <v>90</v>
-      </c>
       <c r="C20" s="5" t="s">
-        <v>20</v>
-      </c>
-      <c r="D20" s="1">
-        <v>2006</v>
-      </c>
-      <c r="E20" s="1" t="s">
-        <v>16</v>
-      </c>
-      <c r="F20" s="3">
-        <v>2</v>
-      </c>
-      <c r="G20" s="10" t="s">
-        <v>101</v>
-      </c>
-      <c r="H20" s="1">
-        <v>9206</v>
+        <v>99</v>
+      </c>
+      <c r="D20" s="5">
+        <v>2009</v>
+      </c>
+      <c r="E20" s="5" t="s">
+        <v>95</v>
+      </c>
+      <c r="F20" s="5">
+        <v>1</v>
+      </c>
+      <c r="G20" s="5" t="s">
+        <v>97</v>
+      </c>
+      <c r="H20" s="5">
+        <v>9065</v>
       </c>
       <c r="I20" s="1" t="s">
         <v>14</v>
       </c>
-      <c r="J20" s="7" t="s">
-        <v>22</v>
+      <c r="J20" s="1" t="s">
+        <v>98</v>
       </c>
     </row>
     <row r="21" spans="1:10" x14ac:dyDescent="0.2">
-      <c r="A21" s="1" t="s">
-        <v>102</v>
-      </c>
-      <c r="B21" s="1" t="s">
+      <c r="A21" s="5" t="s">
+        <v>42</v>
+      </c>
+      <c r="B21" s="5" t="s">
         <v>90</v>
       </c>
       <c r="C21" s="5" t="s">
-        <v>20</v>
-      </c>
-      <c r="D21" s="1">
-        <v>2003</v>
-      </c>
-      <c r="E21" s="1" t="s">
-        <v>16</v>
-      </c>
-      <c r="F21" s="6">
-        <v>2</v>
-      </c>
-      <c r="G21" s="10" t="s">
-        <v>103</v>
-      </c>
-      <c r="H21" s="1">
-        <v>9185</v>
-      </c>
-      <c r="I21" s="1" t="s">
+        <v>80</v>
+      </c>
+      <c r="D21" s="5">
+        <v>2005</v>
+      </c>
+      <c r="E21" s="5" t="s">
+        <v>16</v>
+      </c>
+      <c r="F21" s="5" t="s">
+        <v>78</v>
+      </c>
+      <c r="G21" s="5">
+        <v>697</v>
+      </c>
+      <c r="H21" s="5">
+        <v>9175</v>
+      </c>
+      <c r="I21" s="5" t="s">
         <v>14</v>
       </c>
       <c r="J21" s="7" t="s">
-        <v>22</v>
+        <v>12</v>
       </c>
     </row>
     <row r="22" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A22" s="5" t="s">
-        <v>72</v>
+        <v>224</v>
       </c>
       <c r="B22" s="5" t="s">
-        <v>90</v>
+        <v>9</v>
       </c>
       <c r="C22" s="5" t="s">
-        <v>73</v>
+        <v>88</v>
       </c>
       <c r="D22" s="5">
-        <v>1953</v>
+        <v>2004</v>
       </c>
       <c r="E22" s="5" t="s">
-        <v>16</v>
-      </c>
-      <c r="F22" s="6">
-        <v>1</v>
+        <v>95</v>
+      </c>
+      <c r="F22" s="5" t="s">
+        <v>78</v>
       </c>
       <c r="G22" s="5" t="s">
-        <v>69</v>
+        <v>225</v>
       </c>
       <c r="H22" s="5">
-        <v>9203</v>
-      </c>
-      <c r="I22" s="5" t="s">
+        <v>9090</v>
+      </c>
+      <c r="I22" s="1" t="s">
         <v>14</v>
       </c>
-      <c r="J22" s="7" t="s">
-        <v>12</v>
+      <c r="J22" s="1" t="s">
+        <v>22</v>
       </c>
     </row>
     <row r="23" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A23" s="5" t="s">
-        <v>48</v>
+        <v>216</v>
       </c>
       <c r="B23" s="5" t="s">
         <v>90</v>
       </c>
       <c r="C23" s="5" t="s">
-        <v>49</v>
+        <v>19</v>
       </c>
       <c r="D23" s="5">
-        <v>1976</v>
+        <v>2003</v>
       </c>
       <c r="E23" s="5" t="s">
-        <v>16</v>
-      </c>
-      <c r="F23" s="6">
-        <v>1</v>
+        <v>218</v>
+      </c>
+      <c r="F23" s="5" t="s">
+        <v>78</v>
       </c>
       <c r="G23" s="5" t="s">
-        <v>50</v>
+        <v>221</v>
       </c>
       <c r="H23" s="5">
-        <v>9256</v>
+        <v>9148</v>
       </c>
       <c r="I23" s="5" t="s">
         <v>14</v>
       </c>
-      <c r="J23" s="7" t="s">
-        <v>51</v>
+      <c r="J23" s="1" t="s">
+        <v>12</v>
       </c>
     </row>
     <row r="24" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A24" s="5" t="s">
-        <v>74</v>
+        <v>217</v>
       </c>
       <c r="B24" s="5" t="s">
         <v>90</v>
       </c>
       <c r="C24" s="5" t="s">
-        <v>49</v>
+        <v>19</v>
       </c>
       <c r="D24" s="5">
-        <v>1976</v>
+        <v>2004</v>
       </c>
       <c r="E24" s="5" t="s">
-        <v>16</v>
-      </c>
-      <c r="F24" s="6">
-        <v>1</v>
+        <v>218</v>
+      </c>
+      <c r="F24" s="5" t="s">
+        <v>78</v>
       </c>
       <c r="G24" s="5" t="s">
-        <v>50</v>
-      </c>
-      <c r="H24" s="5">
-        <v>9256</v>
+        <v>220</v>
+      </c>
+      <c r="H24" s="5" t="s">
+        <v>219</v>
       </c>
       <c r="I24" s="5" t="s">
         <v>14</v>
       </c>
-      <c r="J24" s="7" t="s">
-        <v>51</v>
+      <c r="J24" s="1" t="s">
+        <v>12</v>
       </c>
     </row>
     <row r="25" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A25" s="5" t="s">
-        <v>71</v>
+        <v>44</v>
       </c>
       <c r="B25" s="5" t="s">
         <v>90</v>
       </c>
       <c r="C25" s="5" t="s">
-        <v>73</v>
+        <v>43</v>
       </c>
       <c r="D25" s="5">
-        <v>1952</v>
+        <v>2011</v>
       </c>
       <c r="E25" s="5" t="s">
         <v>16</v>
       </c>
-      <c r="F25" s="6">
-        <v>1</v>
+      <c r="F25" s="5">
+        <v>15</v>
       </c>
       <c r="G25" s="5" t="s">
-        <v>69</v>
+        <v>45</v>
       </c>
       <c r="H25" s="5">
-        <v>9202</v>
+        <v>1061</v>
       </c>
       <c r="I25" s="5" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="J25" s="7" t="s">
         <v>12</v>
@@ -2060,1948 +2063,1948 @@
     </row>
     <row r="26" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A26" s="5" t="s">
+        <v>46</v>
+      </c>
+      <c r="B26" s="5" t="s">
+        <v>87</v>
+      </c>
+      <c r="C26" s="5" t="s">
+        <v>43</v>
+      </c>
+      <c r="D26" s="5">
+        <v>2008</v>
+      </c>
+      <c r="E26" s="5" t="s">
+        <v>16</v>
+      </c>
+      <c r="F26" s="5">
+        <v>14</v>
+      </c>
+      <c r="G26" s="5" t="s">
+        <v>47</v>
+      </c>
+      <c r="H26" s="5">
+        <v>1523</v>
+      </c>
+      <c r="I26" s="5" t="s">
+        <v>21</v>
+      </c>
+      <c r="J26" s="7" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="27" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="A27" s="5" t="s">
+        <v>200</v>
+      </c>
+      <c r="B27" s="5" t="s">
+        <v>87</v>
+      </c>
+      <c r="C27" s="5" t="s">
+        <v>99</v>
+      </c>
+      <c r="D27" s="5">
+        <v>1993</v>
+      </c>
+      <c r="E27" s="5" t="s">
+        <v>57</v>
+      </c>
+      <c r="F27" s="5">
+        <v>1</v>
+      </c>
+      <c r="G27" s="5" t="s">
+        <v>201</v>
+      </c>
+      <c r="H27" s="5">
+        <v>9138</v>
+      </c>
+      <c r="I27" s="9" t="s">
+        <v>106</v>
+      </c>
+    </row>
+    <row r="28" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="A28" s="5" t="s">
+        <v>109</v>
+      </c>
+      <c r="B28" s="5" t="s">
+        <v>87</v>
+      </c>
+      <c r="C28" s="5" t="s">
+        <v>24</v>
+      </c>
+      <c r="D28" s="5">
+        <v>2011</v>
+      </c>
+      <c r="E28" s="5" t="s">
+        <v>16</v>
+      </c>
+      <c r="F28" s="5" t="s">
+        <v>78</v>
+      </c>
+      <c r="G28" s="5" t="s">
+        <v>110</v>
+      </c>
+      <c r="H28" s="5">
+        <v>9464</v>
+      </c>
+      <c r="I28" s="9" t="s">
+        <v>106</v>
+      </c>
+      <c r="J28" s="1" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="29" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="A29" s="5" t="s">
+        <v>111</v>
+      </c>
+      <c r="B29" s="5" t="s">
+        <v>90</v>
+      </c>
+      <c r="C29" s="5" t="s">
+        <v>24</v>
+      </c>
+      <c r="D29" s="5">
+        <v>2011</v>
+      </c>
+      <c r="E29" s="5" t="s">
+        <v>16</v>
+      </c>
+      <c r="F29" s="5" t="s">
+        <v>78</v>
+      </c>
+      <c r="G29" s="5" t="s">
+        <v>112</v>
+      </c>
+      <c r="H29" s="5">
+        <v>9464</v>
+      </c>
+      <c r="I29" s="9" t="s">
+        <v>106</v>
+      </c>
+      <c r="J29" s="1" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="30" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="A30" s="5" t="s">
+        <v>113</v>
+      </c>
+      <c r="B30" s="5" t="s">
+        <v>90</v>
+      </c>
+      <c r="C30" s="5" t="s">
+        <v>24</v>
+      </c>
+      <c r="D30" s="5">
+        <v>2011</v>
+      </c>
+      <c r="E30" s="5" t="s">
+        <v>16</v>
+      </c>
+      <c r="F30" s="5" t="s">
+        <v>78</v>
+      </c>
+      <c r="G30" s="5" t="s">
+        <v>114</v>
+      </c>
+      <c r="H30" s="5">
+        <v>9464</v>
+      </c>
+      <c r="I30" s="9" t="s">
+        <v>106</v>
+      </c>
+      <c r="J30" s="1" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="31" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="A31" s="5" t="s">
+        <v>178</v>
+      </c>
+      <c r="B31" s="5" t="s">
+        <v>87</v>
+      </c>
+      <c r="C31" s="5" t="s">
+        <v>99</v>
+      </c>
+      <c r="D31" s="5">
+        <v>1993</v>
+      </c>
+      <c r="E31" s="5" t="s">
+        <v>57</v>
+      </c>
+      <c r="F31" s="5">
+        <v>1</v>
+      </c>
+      <c r="G31" s="5" t="s">
+        <v>179</v>
+      </c>
+      <c r="H31" s="5">
+        <v>9172</v>
+      </c>
+      <c r="I31" s="9" t="s">
+        <v>106</v>
+      </c>
+      <c r="J31" s="1" t="s">
+        <v>98</v>
+      </c>
+    </row>
+    <row r="32" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="A32" s="5" t="s">
+        <v>192</v>
+      </c>
+      <c r="B32" s="5" t="s">
+        <v>87</v>
+      </c>
+      <c r="C32" s="5" t="s">
+        <v>99</v>
+      </c>
+      <c r="D32" s="5">
+        <v>1993</v>
+      </c>
+      <c r="E32" s="5" t="s">
+        <v>57</v>
+      </c>
+      <c r="F32" s="5">
+        <v>1</v>
+      </c>
+      <c r="G32" s="5" t="s">
+        <v>193</v>
+      </c>
+      <c r="H32" s="5">
+        <v>9163</v>
+      </c>
+      <c r="I32" s="9" t="s">
+        <v>106</v>
+      </c>
+      <c r="J32" s="1" t="s">
+        <v>98</v>
+      </c>
+    </row>
+    <row r="33" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="A33" s="5" t="s">
+        <v>210</v>
+      </c>
+      <c r="B33" s="5" t="s">
+        <v>87</v>
+      </c>
+      <c r="C33" s="5" t="s">
+        <v>99</v>
+      </c>
+      <c r="D33" s="5" t="s">
+        <v>78</v>
+      </c>
+      <c r="E33" s="5" t="s">
+        <v>57</v>
+      </c>
+      <c r="F33" s="5">
+        <v>1</v>
+      </c>
+      <c r="G33" s="5" t="s">
+        <v>211</v>
+      </c>
+      <c r="H33" s="5">
+        <v>9118</v>
+      </c>
+      <c r="I33" s="9" t="s">
+        <v>106</v>
+      </c>
+      <c r="J33" s="1" t="s">
+        <v>98</v>
+      </c>
+    </row>
+    <row r="34" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="A34" s="5" t="s">
+        <v>182</v>
+      </c>
+      <c r="B34" s="5" t="s">
+        <v>87</v>
+      </c>
+      <c r="C34" s="5" t="s">
+        <v>99</v>
+      </c>
+      <c r="D34" s="5" t="s">
+        <v>78</v>
+      </c>
+      <c r="E34" s="5" t="s">
+        <v>57</v>
+      </c>
+      <c r="F34" s="5">
+        <v>1</v>
+      </c>
+      <c r="G34" s="5" t="s">
+        <v>183</v>
+      </c>
+      <c r="H34" s="5">
+        <v>9171</v>
+      </c>
+      <c r="I34" s="9" t="s">
+        <v>106</v>
+      </c>
+      <c r="J34" s="1" t="s">
+        <v>98</v>
+      </c>
+    </row>
+    <row r="35" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="A35" s="5" t="s">
+        <v>64</v>
+      </c>
+      <c r="B35" s="5" t="s">
+        <v>90</v>
+      </c>
+      <c r="C35" s="5" t="s">
+        <v>65</v>
+      </c>
+      <c r="D35" s="5">
+        <v>2007</v>
+      </c>
+      <c r="E35" s="5" t="s">
+        <v>66</v>
+      </c>
+      <c r="F35" s="5" t="s">
+        <v>78</v>
+      </c>
+      <c r="G35" s="5" t="s">
+        <v>67</v>
+      </c>
+      <c r="H35" s="5">
+        <v>9136</v>
+      </c>
+      <c r="I35" s="5" t="s">
+        <v>14</v>
+      </c>
+      <c r="J35" s="7" t="s">
+        <v>68</v>
+      </c>
+    </row>
+    <row r="36" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="A36" s="5" t="s">
+        <v>100</v>
+      </c>
+      <c r="B36" s="5" t="s">
+        <v>90</v>
+      </c>
+      <c r="C36" s="5" t="s">
+        <v>20</v>
+      </c>
+      <c r="D36" s="5">
+        <v>2006</v>
+      </c>
+      <c r="E36" s="5" t="s">
+        <v>16</v>
+      </c>
+      <c r="F36" s="5">
+        <v>2</v>
+      </c>
+      <c r="G36" s="5" t="s">
+        <v>101</v>
+      </c>
+      <c r="H36" s="5">
+        <v>9206</v>
+      </c>
+      <c r="I36" s="1" t="s">
+        <v>14</v>
+      </c>
+      <c r="J36" s="7" t="s">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="37" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="A37" s="5" t="s">
+        <v>102</v>
+      </c>
+      <c r="B37" s="5" t="s">
+        <v>90</v>
+      </c>
+      <c r="C37" s="5" t="s">
+        <v>20</v>
+      </c>
+      <c r="D37" s="5">
+        <v>2003</v>
+      </c>
+      <c r="E37" s="5" t="s">
+        <v>16</v>
+      </c>
+      <c r="F37" s="5">
+        <v>2</v>
+      </c>
+      <c r="G37" s="5" t="s">
+        <v>103</v>
+      </c>
+      <c r="H37" s="5">
+        <v>9185</v>
+      </c>
+      <c r="I37" s="1" t="s">
+        <v>14</v>
+      </c>
+      <c r="J37" s="7" t="s">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="38" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="A38" s="5" t="s">
+        <v>72</v>
+      </c>
+      <c r="B38" s="5" t="s">
+        <v>90</v>
+      </c>
+      <c r="C38" s="5" t="s">
+        <v>73</v>
+      </c>
+      <c r="D38" s="5">
+        <v>1953</v>
+      </c>
+      <c r="E38" s="5" t="s">
+        <v>16</v>
+      </c>
+      <c r="F38" s="5">
+        <v>1</v>
+      </c>
+      <c r="G38" s="5" t="s">
+        <v>69</v>
+      </c>
+      <c r="H38" s="5">
+        <v>9203</v>
+      </c>
+      <c r="I38" s="5" t="s">
+        <v>14</v>
+      </c>
+      <c r="J38" s="7" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="39" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="A39" s="5" t="s">
+        <v>48</v>
+      </c>
+      <c r="B39" s="5" t="s">
+        <v>90</v>
+      </c>
+      <c r="C39" s="5" t="s">
+        <v>49</v>
+      </c>
+      <c r="D39" s="5">
+        <v>1976</v>
+      </c>
+      <c r="E39" s="5" t="s">
+        <v>16</v>
+      </c>
+      <c r="F39" s="5">
+        <v>1</v>
+      </c>
+      <c r="G39" s="5" t="s">
+        <v>50</v>
+      </c>
+      <c r="H39" s="5">
+        <v>9256</v>
+      </c>
+      <c r="I39" s="5" t="s">
+        <v>14</v>
+      </c>
+      <c r="J39" s="7" t="s">
+        <v>51</v>
+      </c>
+    </row>
+    <row r="40" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="A40" s="5" t="s">
+        <v>74</v>
+      </c>
+      <c r="B40" s="5" t="s">
+        <v>90</v>
+      </c>
+      <c r="C40" s="5" t="s">
+        <v>49</v>
+      </c>
+      <c r="D40" s="5">
+        <v>1976</v>
+      </c>
+      <c r="E40" s="5" t="s">
+        <v>16</v>
+      </c>
+      <c r="F40" s="5">
+        <v>1</v>
+      </c>
+      <c r="G40" s="5" t="s">
+        <v>50</v>
+      </c>
+      <c r="H40" s="5">
+        <v>9256</v>
+      </c>
+      <c r="I40" s="5" t="s">
+        <v>14</v>
+      </c>
+      <c r="J40" s="7" t="s">
+        <v>51</v>
+      </c>
+    </row>
+    <row r="41" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="A41" s="5" t="s">
+        <v>71</v>
+      </c>
+      <c r="B41" s="5" t="s">
+        <v>90</v>
+      </c>
+      <c r="C41" s="5" t="s">
+        <v>73</v>
+      </c>
+      <c r="D41" s="5">
+        <v>1952</v>
+      </c>
+      <c r="E41" s="5" t="s">
+        <v>16</v>
+      </c>
+      <c r="F41" s="5">
+        <v>1</v>
+      </c>
+      <c r="G41" s="5" t="s">
+        <v>69</v>
+      </c>
+      <c r="H41" s="5">
+        <v>9202</v>
+      </c>
+      <c r="I41" s="5" t="s">
+        <v>14</v>
+      </c>
+      <c r="J41" s="7" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="42" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="A42" s="5" t="s">
         <v>70</v>
       </c>
-      <c r="B26" s="5" t="s">
-        <v>90</v>
-      </c>
-      <c r="C26" s="5" t="s">
+      <c r="B42" s="5" t="s">
+        <v>90</v>
+      </c>
+      <c r="C42" s="5" t="s">
         <v>73</v>
       </c>
-      <c r="D26" s="5">
+      <c r="D42" s="5">
         <v>1949</v>
       </c>
-      <c r="E26" s="5" t="s">
-        <v>16</v>
-      </c>
-      <c r="F26" s="6">
+      <c r="E42" s="5" t="s">
+        <v>16</v>
+      </c>
+      <c r="F42" s="5">
         <v>1</v>
       </c>
-      <c r="G26" s="5" t="s">
+      <c r="G42" s="5" t="s">
         <v>69</v>
       </c>
-      <c r="H26" s="5">
+      <c r="H42" s="5">
         <v>9225</v>
       </c>
-      <c r="I26" s="5" t="s">
+      <c r="I42" s="5" t="s">
         <v>14</v>
       </c>
-      <c r="J26" s="7" t="s">
-        <v>12</v>
-      </c>
-    </row>
-    <row r="27" spans="1:10" x14ac:dyDescent="0.2">
-      <c r="A27" s="1" t="s">
+      <c r="J42" s="7" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="43" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="A43" s="5" t="s">
+        <v>196</v>
+      </c>
+      <c r="B43" s="5" t="s">
+        <v>90</v>
+      </c>
+      <c r="C43" s="5" t="s">
+        <v>19</v>
+      </c>
+      <c r="D43" s="5" t="s">
+        <v>78</v>
+      </c>
+      <c r="E43" s="5" t="s">
+        <v>57</v>
+      </c>
+      <c r="F43" s="5">
+        <v>1</v>
+      </c>
+      <c r="G43" s="5" t="s">
+        <v>197</v>
+      </c>
+      <c r="H43" s="5">
+        <v>9145</v>
+      </c>
+      <c r="I43" s="9" t="s">
+        <v>106</v>
+      </c>
+      <c r="J43" s="1" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="44" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="A44" s="5" t="s">
         <v>119</v>
       </c>
-      <c r="B27" s="1" t="s">
+      <c r="B44" s="5" t="s">
         <v>87</v>
       </c>
-      <c r="C27" s="1" t="s">
+      <c r="C44" s="5" t="s">
         <v>19</v>
       </c>
-      <c r="D27" s="1" t="s">
-        <v>78</v>
-      </c>
-      <c r="E27" s="1" t="s">
-        <v>16</v>
-      </c>
-      <c r="F27" s="3" t="s">
-        <v>78</v>
-      </c>
-      <c r="G27" s="10" t="s">
+      <c r="D44" s="5" t="s">
+        <v>78</v>
+      </c>
+      <c r="E44" s="5" t="s">
+        <v>16</v>
+      </c>
+      <c r="F44" s="5" t="s">
+        <v>78</v>
+      </c>
+      <c r="G44" s="5" t="s">
         <v>120</v>
       </c>
-      <c r="H27" s="1">
+      <c r="H44" s="5">
         <v>9307</v>
       </c>
-      <c r="I27" s="9" t="s">
-        <v>106</v>
-      </c>
-      <c r="J27" s="1" t="s">
-        <v>12</v>
-      </c>
-    </row>
-    <row r="28" spans="1:10" x14ac:dyDescent="0.2">
-      <c r="A28" s="1" t="s">
+      <c r="I44" s="9" t="s">
+        <v>106</v>
+      </c>
+      <c r="J44" s="1" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="45" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="A45" s="5" t="s">
         <v>133</v>
       </c>
-      <c r="B28" s="1" t="s">
+      <c r="B45" s="5" t="s">
         <v>87</v>
       </c>
-      <c r="C28" s="1" t="s">
+      <c r="C45" s="5" t="s">
         <v>19</v>
       </c>
-      <c r="D28" s="1" t="s">
-        <v>78</v>
-      </c>
-      <c r="E28" s="1" t="s">
-        <v>16</v>
-      </c>
-      <c r="F28" s="3" t="s">
-        <v>78</v>
-      </c>
-      <c r="G28" s="10" t="s">
+      <c r="D45" s="5" t="s">
+        <v>78</v>
+      </c>
+      <c r="E45" s="5" t="s">
+        <v>16</v>
+      </c>
+      <c r="F45" s="5" t="s">
+        <v>78</v>
+      </c>
+      <c r="G45" s="5" t="s">
         <v>134</v>
       </c>
-      <c r="H28" s="1">
+      <c r="H45" s="5">
         <v>9231</v>
       </c>
-      <c r="I28" s="9" t="s">
-        <v>106</v>
-      </c>
-      <c r="J28" s="1" t="s">
-        <v>12</v>
-      </c>
-    </row>
-    <row r="29" spans="1:10" x14ac:dyDescent="0.2">
-      <c r="A29" s="1" t="s">
+      <c r="I45" s="9" t="s">
+        <v>106</v>
+      </c>
+      <c r="J45" s="1" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="46" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="A46" s="5" t="s">
         <v>139</v>
       </c>
-      <c r="B29" s="1" t="s">
+      <c r="B46" s="5" t="s">
         <v>87</v>
       </c>
-      <c r="C29" s="1" t="s">
+      <c r="C46" s="5" t="s">
         <v>19</v>
       </c>
-      <c r="D29" s="1" t="s">
-        <v>78</v>
-      </c>
-      <c r="E29" s="1" t="s">
-        <v>16</v>
-      </c>
-      <c r="F29" s="3" t="s">
-        <v>78</v>
-      </c>
-      <c r="G29" s="10" t="s">
+      <c r="D46" s="5" t="s">
+        <v>78</v>
+      </c>
+      <c r="E46" s="5" t="s">
+        <v>16</v>
+      </c>
+      <c r="F46" s="5" t="s">
+        <v>78</v>
+      </c>
+      <c r="G46" s="5" t="s">
         <v>140</v>
       </c>
-      <c r="H29" s="1">
+      <c r="H46" s="5">
         <v>9206</v>
       </c>
-      <c r="I29" s="9" t="s">
-        <v>106</v>
-      </c>
-      <c r="J29" s="11" t="s">
-        <v>12</v>
-      </c>
-    </row>
-    <row r="30" spans="1:10" x14ac:dyDescent="0.2">
-      <c r="A30" s="1" t="s">
+      <c r="I46" s="9" t="s">
+        <v>106</v>
+      </c>
+      <c r="J46" s="10" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="47" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="A47" s="5" t="s">
         <v>107</v>
       </c>
-      <c r="B30" s="1" t="s">
+      <c r="B47" s="5" t="s">
         <v>87</v>
       </c>
-      <c r="C30" s="1" t="s">
+      <c r="C47" s="5" t="s">
         <v>19</v>
       </c>
-      <c r="D30" s="1" t="s">
-        <v>78</v>
-      </c>
-      <c r="E30" s="1" t="s">
-        <v>16</v>
-      </c>
-      <c r="F30" s="3" t="s">
-        <v>78</v>
-      </c>
-      <c r="G30" s="10" t="s">
+      <c r="D47" s="5" t="s">
+        <v>78</v>
+      </c>
+      <c r="E47" s="5" t="s">
+        <v>16</v>
+      </c>
+      <c r="F47" s="5" t="s">
+        <v>78</v>
+      </c>
+      <c r="G47" s="5" t="s">
         <v>108</v>
       </c>
-      <c r="H30" s="1">
+      <c r="H47" s="5">
         <v>9486</v>
       </c>
-      <c r="I30" s="9" t="s">
-        <v>106</v>
-      </c>
-      <c r="J30" s="1" t="s">
-        <v>12</v>
-      </c>
-    </row>
-    <row r="31" spans="1:10" x14ac:dyDescent="0.2">
-      <c r="A31" s="1" t="s">
+      <c r="I47" s="9" t="s">
+        <v>106</v>
+      </c>
+      <c r="J47" s="1" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="48" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="A48" s="5" t="s">
         <v>198</v>
       </c>
-      <c r="B31" s="1" t="s">
+      <c r="B48" s="5" t="s">
         <v>87</v>
       </c>
-      <c r="C31" s="1" t="s">
+      <c r="C48" s="5" t="s">
         <v>19</v>
       </c>
-      <c r="D31" s="1" t="s">
-        <v>78</v>
-      </c>
-      <c r="E31" s="1" t="s">
-        <v>16</v>
-      </c>
-      <c r="F31" s="3" t="s">
-        <v>78</v>
-      </c>
-      <c r="G31" s="10" t="s">
+      <c r="D48" s="5" t="s">
+        <v>78</v>
+      </c>
+      <c r="E48" s="5" t="s">
+        <v>16</v>
+      </c>
+      <c r="F48" s="5" t="s">
+        <v>78</v>
+      </c>
+      <c r="G48" s="5" t="s">
         <v>199</v>
       </c>
-      <c r="H31" s="1">
+      <c r="H48" s="5">
         <v>9138</v>
       </c>
-      <c r="I31" s="9" t="s">
-        <v>106</v>
-      </c>
-      <c r="J31" s="1" t="s">
-        <v>12</v>
-      </c>
-    </row>
-    <row r="32" spans="1:10" x14ac:dyDescent="0.2">
-      <c r="A32" s="1" t="s">
+      <c r="I48" s="9" t="s">
+        <v>106</v>
+      </c>
+      <c r="J48" s="1" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="49" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="A49" s="5" t="s">
         <v>129</v>
       </c>
-      <c r="B32" s="1" t="s">
+      <c r="B49" s="5" t="s">
         <v>87</v>
       </c>
-      <c r="C32" s="1" t="s">
+      <c r="C49" s="5" t="s">
         <v>19</v>
       </c>
-      <c r="D32" s="1" t="s">
-        <v>78</v>
-      </c>
-      <c r="E32" s="1" t="s">
-        <v>16</v>
-      </c>
-      <c r="F32" s="3" t="s">
-        <v>78</v>
-      </c>
-      <c r="G32" s="10" t="s">
+      <c r="D49" s="5" t="s">
+        <v>78</v>
+      </c>
+      <c r="E49" s="5" t="s">
+        <v>16</v>
+      </c>
+      <c r="F49" s="5" t="s">
+        <v>78</v>
+      </c>
+      <c r="G49" s="5" t="s">
         <v>130</v>
       </c>
-      <c r="H32" s="1">
+      <c r="H49" s="5">
         <v>9258</v>
       </c>
-      <c r="I32" s="9" t="s">
-        <v>106</v>
-      </c>
-      <c r="J32" s="1" t="s">
-        <v>12</v>
-      </c>
-    </row>
-    <row r="33" spans="1:10" x14ac:dyDescent="0.2">
-      <c r="A33" s="1" t="s">
+      <c r="I49" s="9" t="s">
+        <v>106</v>
+      </c>
+      <c r="J49" s="1" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="50" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="A50" s="5" t="s">
         <v>117</v>
       </c>
-      <c r="B33" s="1" t="s">
+      <c r="B50" s="5" t="s">
         <v>87</v>
       </c>
-      <c r="C33" s="1" t="s">
+      <c r="C50" s="5" t="s">
         <v>19</v>
       </c>
-      <c r="D33" s="1" t="s">
-        <v>78</v>
-      </c>
-      <c r="E33" s="1" t="s">
-        <v>16</v>
-      </c>
-      <c r="F33" s="3" t="s">
-        <v>78</v>
-      </c>
-      <c r="G33" s="10" t="s">
+      <c r="D50" s="5" t="s">
+        <v>78</v>
+      </c>
+      <c r="E50" s="5" t="s">
+        <v>16</v>
+      </c>
+      <c r="F50" s="5" t="s">
+        <v>78</v>
+      </c>
+      <c r="G50" s="5" t="s">
         <v>118</v>
       </c>
-      <c r="H33" s="1">
+      <c r="H50" s="5">
         <v>9312</v>
       </c>
-      <c r="I33" s="9" t="s">
-        <v>106</v>
-      </c>
-      <c r="J33" s="1" t="s">
-        <v>12</v>
-      </c>
-    </row>
-    <row r="34" spans="1:10" x14ac:dyDescent="0.2">
-      <c r="A34" s="1" t="s">
-        <v>125</v>
-      </c>
-      <c r="B34" s="1" t="s">
+      <c r="I50" s="9" t="s">
+        <v>106</v>
+      </c>
+      <c r="J50" s="1" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="51" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="A51" s="5" t="s">
+        <v>184</v>
+      </c>
+      <c r="B51" s="5" t="s">
         <v>87</v>
       </c>
-      <c r="C34" s="1" t="s">
+      <c r="C51" s="5" t="s">
         <v>19</v>
       </c>
-      <c r="D34" s="1">
-        <v>2017</v>
-      </c>
-      <c r="E34" s="1" t="s">
-        <v>16</v>
-      </c>
-      <c r="F34" s="3" t="s">
-        <v>78</v>
-      </c>
-      <c r="G34" s="10" t="s">
-        <v>126</v>
-      </c>
-      <c r="H34" s="1">
-        <v>9266</v>
-      </c>
-      <c r="I34" s="9" t="s">
-        <v>106</v>
-      </c>
-      <c r="J34" s="1" t="s">
-        <v>12</v>
-      </c>
-    </row>
-    <row r="35" spans="1:10" x14ac:dyDescent="0.2">
-      <c r="A35" s="1" t="s">
-        <v>131</v>
-      </c>
-      <c r="B35" s="1" t="s">
+      <c r="D51" s="5" t="s">
+        <v>78</v>
+      </c>
+      <c r="E51" s="5" t="s">
+        <v>57</v>
+      </c>
+      <c r="F51" s="5">
+        <v>1</v>
+      </c>
+      <c r="G51" s="5" t="s">
+        <v>185</v>
+      </c>
+      <c r="H51" s="5">
+        <v>9168</v>
+      </c>
+      <c r="I51" s="9" t="s">
+        <v>106</v>
+      </c>
+      <c r="J51" s="1" t="s">
+        <v>98</v>
+      </c>
+    </row>
+    <row r="52" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="A52" s="5" t="s">
+        <v>123</v>
+      </c>
+      <c r="B52" s="5" t="s">
         <v>87</v>
       </c>
-      <c r="C35" s="1" t="s">
+      <c r="C52" s="5" t="s">
         <v>19</v>
       </c>
-      <c r="D35" s="1">
-        <v>2017</v>
-      </c>
-      <c r="E35" s="1" t="s">
-        <v>16</v>
-      </c>
-      <c r="F35" s="3" t="s">
-        <v>78</v>
-      </c>
-      <c r="G35" s="10" t="s">
-        <v>132</v>
-      </c>
-      <c r="H35" s="1">
-        <v>9257</v>
-      </c>
-      <c r="I35" s="9" t="s">
-        <v>106</v>
-      </c>
-      <c r="J35" s="1" t="s">
-        <v>12</v>
-      </c>
-    </row>
-    <row r="36" spans="1:10" x14ac:dyDescent="0.2">
-      <c r="A36" s="1" t="s">
-        <v>121</v>
-      </c>
-      <c r="B36" s="1" t="s">
+      <c r="D52" s="5" t="s">
+        <v>78</v>
+      </c>
+      <c r="E52" s="5" t="s">
+        <v>57</v>
+      </c>
+      <c r="F52" s="5">
+        <v>1</v>
+      </c>
+      <c r="G52" s="5" t="s">
+        <v>124</v>
+      </c>
+      <c r="H52" s="5">
+        <v>9270</v>
+      </c>
+      <c r="I52" s="9" t="s">
+        <v>106</v>
+      </c>
+      <c r="J52" s="1" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="53" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="A53" s="5" t="s">
+        <v>206</v>
+      </c>
+      <c r="B53" s="5" t="s">
         <v>87</v>
       </c>
-      <c r="C36" s="1" t="s">
+      <c r="C53" s="5" t="s">
         <v>19</v>
       </c>
-      <c r="D36" s="1">
-        <v>2017</v>
-      </c>
-      <c r="E36" s="1" t="s">
-        <v>16</v>
-      </c>
-      <c r="F36" s="3" t="s">
-        <v>78</v>
-      </c>
-      <c r="G36" s="10" t="s">
-        <v>122</v>
-      </c>
-      <c r="H36" s="1">
-        <v>9276</v>
-      </c>
-      <c r="I36" s="9" t="s">
-        <v>106</v>
-      </c>
-      <c r="J36" s="1" t="s">
-        <v>12</v>
-      </c>
-    </row>
-    <row r="37" spans="1:10" x14ac:dyDescent="0.2">
-      <c r="A37" s="1" t="s">
-        <v>127</v>
-      </c>
-      <c r="B37" s="1" t="s">
+      <c r="D53" s="5" t="s">
+        <v>78</v>
+      </c>
+      <c r="E53" s="5" t="s">
+        <v>57</v>
+      </c>
+      <c r="F53" s="5">
+        <v>1</v>
+      </c>
+      <c r="G53" s="5" t="s">
+        <v>207</v>
+      </c>
+      <c r="H53" s="5">
+        <v>9121</v>
+      </c>
+      <c r="I53" s="9" t="s">
+        <v>106</v>
+      </c>
+      <c r="J53" s="1" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="54" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="A54" s="5" t="s">
+        <v>202</v>
+      </c>
+      <c r="B54" s="5" t="s">
         <v>87</v>
       </c>
-      <c r="C37" s="1" t="s">
+      <c r="C54" s="5" t="s">
         <v>19</v>
       </c>
-      <c r="D37" s="1">
-        <v>2017</v>
-      </c>
-      <c r="E37" s="1" t="s">
-        <v>16</v>
-      </c>
-      <c r="F37" s="3" t="s">
-        <v>78</v>
-      </c>
-      <c r="G37" s="10" t="s">
-        <v>128</v>
-      </c>
-      <c r="H37" s="1">
-        <v>9265</v>
-      </c>
-      <c r="I37" s="9" t="s">
-        <v>106</v>
-      </c>
-      <c r="J37" s="1" t="s">
-        <v>12</v>
-      </c>
-    </row>
-    <row r="38" spans="1:10" x14ac:dyDescent="0.2">
-      <c r="A38" s="1" t="s">
-        <v>190</v>
-      </c>
-      <c r="B38" s="1" t="s">
-        <v>90</v>
-      </c>
-      <c r="C38" s="1" t="s">
+      <c r="D54" s="5" t="s">
+        <v>78</v>
+      </c>
+      <c r="E54" s="5" t="s">
+        <v>57</v>
+      </c>
+      <c r="F54" s="5">
+        <v>1</v>
+      </c>
+      <c r="G54" s="5" t="s">
+        <v>203</v>
+      </c>
+      <c r="H54" s="5">
+        <v>9136</v>
+      </c>
+      <c r="I54" s="9" t="s">
+        <v>106</v>
+      </c>
+      <c r="J54" s="1" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="55" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="A55" s="5" t="s">
+        <v>208</v>
+      </c>
+      <c r="B55" s="5" t="s">
+        <v>87</v>
+      </c>
+      <c r="C55" s="5" t="s">
         <v>19</v>
       </c>
-      <c r="D38" s="1">
-        <v>2017</v>
-      </c>
-      <c r="E38" s="1" t="s">
-        <v>16</v>
-      </c>
-      <c r="F38" s="3" t="s">
-        <v>78</v>
-      </c>
-      <c r="G38" s="10" t="s">
-        <v>191</v>
-      </c>
-      <c r="H38" s="1">
-        <v>9164</v>
-      </c>
-      <c r="I38" s="9" t="s">
-        <v>106</v>
-      </c>
-      <c r="J38" s="1" t="s">
-        <v>12</v>
-      </c>
-    </row>
-    <row r="39" spans="1:10" x14ac:dyDescent="0.2">
-      <c r="A39" s="1" t="s">
-        <v>115</v>
-      </c>
-      <c r="B39" s="1" t="s">
+      <c r="D55" s="5" t="s">
+        <v>78</v>
+      </c>
+      <c r="E55" s="5" t="s">
+        <v>57</v>
+      </c>
+      <c r="F55" s="5">
+        <v>1</v>
+      </c>
+      <c r="G55" s="5" t="s">
+        <v>209</v>
+      </c>
+      <c r="H55" s="5">
+        <v>9119</v>
+      </c>
+      <c r="I55" s="9" t="s">
+        <v>106</v>
+      </c>
+      <c r="J55" s="1" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="56" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="A56" s="5" t="s">
+        <v>86</v>
+      </c>
+      <c r="B56" s="5" t="s">
         <v>87</v>
       </c>
-      <c r="C39" s="1" t="s">
-        <v>19</v>
-      </c>
-      <c r="D39" s="1">
-        <v>2017</v>
-      </c>
-      <c r="E39" s="1" t="s">
-        <v>16</v>
-      </c>
-      <c r="F39" s="3" t="s">
-        <v>78</v>
-      </c>
-      <c r="G39" s="10" t="s">
-        <v>116</v>
-      </c>
-      <c r="H39" s="1">
-        <v>9316</v>
-      </c>
-      <c r="I39" s="9" t="s">
-        <v>106</v>
-      </c>
-      <c r="J39" s="1" t="s">
-        <v>12</v>
-      </c>
-    </row>
-    <row r="40" spans="1:10" x14ac:dyDescent="0.2">
-      <c r="A40" s="1" t="s">
-        <v>158</v>
-      </c>
-      <c r="B40" s="1" t="s">
-        <v>90</v>
-      </c>
-      <c r="C40" s="1" t="s">
-        <v>20</v>
-      </c>
-      <c r="D40" s="1">
-        <v>2017</v>
-      </c>
-      <c r="E40" s="1" t="s">
-        <v>16</v>
-      </c>
-      <c r="F40" s="3" t="s">
-        <v>78</v>
-      </c>
-      <c r="G40" s="10">
-        <v>1150</v>
-      </c>
-      <c r="H40" s="1">
-        <v>9195</v>
-      </c>
-      <c r="I40" s="9" t="s">
-        <v>106</v>
-      </c>
-      <c r="J40" s="7" t="s">
-        <v>22</v>
-      </c>
-    </row>
-    <row r="41" spans="1:10" x14ac:dyDescent="0.2">
-      <c r="A41" s="1" t="s">
-        <v>141</v>
-      </c>
-      <c r="B41" s="1" t="s">
-        <v>90</v>
-      </c>
-      <c r="C41" s="1" t="s">
-        <v>20</v>
-      </c>
-      <c r="D41" s="1">
-        <v>2006</v>
-      </c>
-      <c r="E41" s="1" t="s">
-        <v>16</v>
-      </c>
-      <c r="F41" s="3" t="s">
-        <v>78</v>
-      </c>
-      <c r="G41" s="10" t="s">
-        <v>101</v>
-      </c>
-      <c r="H41" s="1">
-        <v>9206</v>
-      </c>
-      <c r="I41" s="9" t="s">
-        <v>106</v>
-      </c>
-      <c r="J41" s="7" t="s">
-        <v>22</v>
-      </c>
-    </row>
-    <row r="42" spans="1:10" x14ac:dyDescent="0.2">
-      <c r="A42" s="1" t="s">
-        <v>165</v>
-      </c>
-      <c r="B42" s="1" t="s">
-        <v>90</v>
-      </c>
-      <c r="C42" s="1" t="s">
-        <v>20</v>
-      </c>
-      <c r="D42" s="1">
-        <v>2006</v>
-      </c>
-      <c r="E42" s="1" t="s">
-        <v>16</v>
-      </c>
-      <c r="F42" s="3" t="s">
-        <v>78</v>
-      </c>
-      <c r="G42" s="10" t="s">
-        <v>166</v>
-      </c>
-      <c r="H42" s="1">
-        <v>9192</v>
-      </c>
-      <c r="I42" s="9" t="s">
-        <v>106</v>
-      </c>
-      <c r="J42" s="7" t="s">
-        <v>22</v>
-      </c>
-    </row>
-    <row r="43" spans="1:10" x14ac:dyDescent="0.2">
-      <c r="A43" s="1" t="s">
-        <v>180</v>
-      </c>
-      <c r="B43" s="1" t="s">
-        <v>90</v>
-      </c>
-      <c r="C43" s="1" t="s">
-        <v>20</v>
-      </c>
-      <c r="D43" s="1">
-        <v>2006</v>
-      </c>
-      <c r="E43" s="1" t="s">
-        <v>16</v>
-      </c>
-      <c r="F43" s="3" t="s">
-        <v>78</v>
-      </c>
-      <c r="G43" s="10" t="s">
-        <v>181</v>
-      </c>
-      <c r="H43" s="1">
-        <v>9171</v>
-      </c>
-      <c r="I43" s="9" t="s">
-        <v>106</v>
-      </c>
-      <c r="J43" s="7" t="s">
-        <v>22</v>
-      </c>
-    </row>
-    <row r="44" spans="1:10" x14ac:dyDescent="0.2">
-      <c r="A44" s="1" t="s">
-        <v>186</v>
-      </c>
-      <c r="B44" s="1" t="s">
-        <v>90</v>
-      </c>
-      <c r="C44" s="1" t="s">
-        <v>20</v>
-      </c>
-      <c r="D44" s="1">
-        <v>2006</v>
-      </c>
-      <c r="E44" s="1" t="s">
-        <v>16</v>
-      </c>
-      <c r="F44" s="3" t="s">
-        <v>78</v>
-      </c>
-      <c r="G44" s="10" t="s">
-        <v>187</v>
-      </c>
-      <c r="H44" s="1">
-        <v>9166</v>
-      </c>
-      <c r="I44" s="9" t="s">
-        <v>106</v>
-      </c>
-      <c r="J44" s="7" t="s">
-        <v>22</v>
-      </c>
-    </row>
-    <row r="45" spans="1:10" x14ac:dyDescent="0.2">
-      <c r="A45" s="1" t="s">
-        <v>148</v>
-      </c>
-      <c r="B45" s="1" t="s">
-        <v>90</v>
-      </c>
-      <c r="C45" s="1" t="s">
-        <v>20</v>
-      </c>
-      <c r="D45" s="1">
-        <v>2006</v>
-      </c>
-      <c r="E45" s="1" t="s">
-        <v>16</v>
-      </c>
-      <c r="F45" s="3" t="s">
-        <v>78</v>
-      </c>
-      <c r="G45" s="10" t="s">
-        <v>149</v>
-      </c>
-      <c r="H45" s="1">
-        <v>9202</v>
-      </c>
-      <c r="I45" s="9" t="s">
-        <v>106</v>
-      </c>
-      <c r="J45" s="7" t="s">
-        <v>22</v>
-      </c>
-    </row>
-    <row r="46" spans="1:10" x14ac:dyDescent="0.2">
-      <c r="A46" s="1" t="s">
-        <v>159</v>
-      </c>
-      <c r="B46" s="1" t="s">
-        <v>90</v>
-      </c>
-      <c r="C46" s="1" t="s">
-        <v>20</v>
-      </c>
-      <c r="D46" s="1">
-        <v>2007</v>
-      </c>
-      <c r="E46" s="1" t="s">
-        <v>16</v>
-      </c>
-      <c r="F46" s="3" t="s">
-        <v>78</v>
-      </c>
-      <c r="G46" s="10" t="s">
-        <v>160</v>
-      </c>
-      <c r="H46" s="1">
-        <v>9194</v>
-      </c>
-      <c r="I46" s="9" t="s">
-        <v>106</v>
-      </c>
-      <c r="J46" s="7" t="s">
-        <v>22</v>
-      </c>
-    </row>
-    <row r="47" spans="1:10" x14ac:dyDescent="0.2">
-      <c r="A47" s="1" t="s">
-        <v>137</v>
-      </c>
-      <c r="B47" s="1" t="s">
-        <v>90</v>
-      </c>
-      <c r="C47" s="1" t="s">
-        <v>20</v>
-      </c>
-      <c r="D47" s="1">
-        <v>2006</v>
-      </c>
-      <c r="E47" s="1" t="s">
-        <v>16</v>
-      </c>
-      <c r="F47" s="3" t="s">
-        <v>78</v>
-      </c>
-      <c r="G47" s="10" t="s">
-        <v>138</v>
-      </c>
-      <c r="H47" s="1">
-        <v>9207</v>
-      </c>
-      <c r="I47" s="9" t="s">
-        <v>106</v>
-      </c>
-      <c r="J47" s="7" t="s">
-        <v>22</v>
-      </c>
-    </row>
-    <row r="48" spans="1:10" x14ac:dyDescent="0.2">
-      <c r="A48" s="1" t="s">
-        <v>167</v>
-      </c>
-      <c r="B48" s="1" t="s">
-        <v>90</v>
-      </c>
-      <c r="C48" s="1" t="s">
-        <v>20</v>
-      </c>
-      <c r="D48" s="1">
-        <v>2007</v>
-      </c>
-      <c r="E48" s="1" t="s">
-        <v>16</v>
-      </c>
-      <c r="F48" s="3" t="s">
-        <v>78</v>
-      </c>
-      <c r="G48" s="10" t="s">
-        <v>168</v>
-      </c>
-      <c r="H48" s="1">
-        <v>9192</v>
-      </c>
-      <c r="I48" s="9" t="s">
-        <v>106</v>
-      </c>
-      <c r="J48" s="7" t="s">
-        <v>22</v>
-      </c>
-    </row>
-    <row r="49" spans="1:10" x14ac:dyDescent="0.2">
-      <c r="A49" s="1" t="s">
-        <v>161</v>
-      </c>
-      <c r="B49" s="1" t="s">
-        <v>90</v>
-      </c>
-      <c r="C49" s="1" t="s">
-        <v>20</v>
-      </c>
-      <c r="D49" s="1">
-        <v>2006</v>
-      </c>
-      <c r="E49" s="1" t="s">
-        <v>16</v>
-      </c>
-      <c r="F49" s="3" t="s">
-        <v>78</v>
-      </c>
-      <c r="G49" s="10" t="s">
-        <v>162</v>
-      </c>
-      <c r="H49" s="1">
-        <v>9193</v>
-      </c>
-      <c r="I49" s="9" t="s">
-        <v>106</v>
-      </c>
-      <c r="J49" s="7" t="s">
-        <v>22</v>
-      </c>
-    </row>
-    <row r="50" spans="1:10" x14ac:dyDescent="0.2">
-      <c r="A50" s="1" t="s">
-        <v>188</v>
-      </c>
-      <c r="B50" s="1" t="s">
-        <v>90</v>
-      </c>
-      <c r="C50" s="1" t="s">
-        <v>20</v>
-      </c>
-      <c r="D50" s="1">
-        <v>2017</v>
-      </c>
-      <c r="E50" s="1" t="s">
-        <v>16</v>
-      </c>
-      <c r="F50" s="3" t="s">
-        <v>78</v>
-      </c>
-      <c r="G50" s="10" t="s">
-        <v>189</v>
-      </c>
-      <c r="H50" s="1">
-        <v>9166</v>
-      </c>
-      <c r="I50" s="9" t="s">
-        <v>106</v>
-      </c>
-      <c r="J50" s="7" t="s">
-        <v>22</v>
-      </c>
-    </row>
-    <row r="51" spans="1:10" x14ac:dyDescent="0.2">
-      <c r="A51" s="1" t="s">
-        <v>174</v>
-      </c>
-      <c r="B51" s="1" t="s">
-        <v>90</v>
-      </c>
-      <c r="C51" s="1" t="s">
-        <v>20</v>
-      </c>
-      <c r="D51" s="1">
-        <v>2006</v>
-      </c>
-      <c r="E51" s="1" t="s">
-        <v>16</v>
-      </c>
-      <c r="F51" s="3" t="s">
-        <v>78</v>
-      </c>
-      <c r="G51" s="10" t="s">
-        <v>175</v>
-      </c>
-      <c r="H51" s="1">
-        <v>9185</v>
-      </c>
-      <c r="I51" s="9" t="s">
-        <v>106</v>
-      </c>
-      <c r="J51" s="7" t="s">
-        <v>22</v>
-      </c>
-    </row>
-    <row r="52" spans="1:10" x14ac:dyDescent="0.2">
-      <c r="A52" s="1" t="s">
-        <v>154</v>
-      </c>
-      <c r="B52" s="1" t="s">
-        <v>90</v>
-      </c>
-      <c r="C52" s="1" t="s">
-        <v>20</v>
-      </c>
-      <c r="D52" s="1">
-        <v>2005</v>
-      </c>
-      <c r="E52" s="1" t="s">
-        <v>16</v>
-      </c>
-      <c r="F52" s="3" t="s">
-        <v>78</v>
-      </c>
-      <c r="G52" s="10" t="s">
-        <v>155</v>
-      </c>
-      <c r="H52" s="1">
-        <v>9200</v>
-      </c>
-      <c r="I52" s="9" t="s">
-        <v>106</v>
-      </c>
-      <c r="J52" s="7" t="s">
-        <v>22</v>
-      </c>
-    </row>
-    <row r="53" spans="1:10" x14ac:dyDescent="0.2">
-      <c r="A53" s="1" t="s">
-        <v>150</v>
-      </c>
-      <c r="B53" s="1" t="s">
-        <v>90</v>
-      </c>
-      <c r="C53" s="1" t="s">
-        <v>20</v>
-      </c>
-      <c r="D53" s="1">
-        <v>2006</v>
-      </c>
-      <c r="E53" s="1" t="s">
-        <v>16</v>
-      </c>
-      <c r="F53" s="3" t="s">
-        <v>78</v>
-      </c>
-      <c r="G53" s="10" t="s">
-        <v>151</v>
-      </c>
-      <c r="H53" s="1">
-        <v>9202</v>
-      </c>
-      <c r="I53" s="9" t="s">
-        <v>106</v>
-      </c>
-      <c r="J53" s="7" t="s">
-        <v>22</v>
-      </c>
-    </row>
-    <row r="54" spans="1:10" x14ac:dyDescent="0.2">
-      <c r="A54" s="1" t="s">
-        <v>169</v>
-      </c>
-      <c r="B54" s="1" t="s">
-        <v>90</v>
-      </c>
-      <c r="C54" s="1" t="s">
-        <v>20</v>
-      </c>
-      <c r="D54" s="1">
-        <v>2007</v>
-      </c>
-      <c r="E54" s="1" t="s">
-        <v>16</v>
-      </c>
-      <c r="F54" s="3" t="s">
-        <v>78</v>
-      </c>
-      <c r="G54" s="10" t="s">
-        <v>170</v>
-      </c>
-      <c r="H54" s="1">
-        <v>9191</v>
-      </c>
-      <c r="I54" s="9" t="s">
-        <v>106</v>
-      </c>
-      <c r="J54" s="7" t="s">
-        <v>22</v>
-      </c>
-    </row>
-    <row r="55" spans="1:10" x14ac:dyDescent="0.2">
-      <c r="A55" s="1" t="s">
-        <v>156</v>
-      </c>
-      <c r="B55" s="1" t="s">
-        <v>90</v>
-      </c>
-      <c r="C55" s="1" t="s">
-        <v>20</v>
-      </c>
-      <c r="D55" s="1">
-        <v>2007</v>
-      </c>
-      <c r="E55" s="1" t="s">
-        <v>16</v>
-      </c>
-      <c r="F55" s="3" t="s">
-        <v>78</v>
-      </c>
-      <c r="G55" s="10" t="s">
-        <v>157</v>
-      </c>
-      <c r="H55" s="1">
-        <v>9199</v>
-      </c>
-      <c r="I55" s="9" t="s">
-        <v>106</v>
-      </c>
-      <c r="J55" s="7" t="s">
-        <v>22</v>
-      </c>
-    </row>
-    <row r="56" spans="1:10" x14ac:dyDescent="0.2">
-      <c r="A56" s="1" t="s">
-        <v>173</v>
-      </c>
-      <c r="B56" s="1" t="s">
-        <v>90</v>
-      </c>
-      <c r="C56" s="1" t="s">
-        <v>20</v>
-      </c>
-      <c r="D56" s="1">
-        <v>2003</v>
-      </c>
-      <c r="E56" s="1" t="s">
-        <v>16</v>
-      </c>
-      <c r="F56" s="3" t="s">
-        <v>78</v>
-      </c>
-      <c r="G56" s="10" t="s">
-        <v>103</v>
-      </c>
-      <c r="H56" s="1">
-        <v>9189</v>
-      </c>
-      <c r="I56" s="9" t="s">
-        <v>106</v>
+      <c r="C56" s="5" t="s">
+        <v>88</v>
+      </c>
+      <c r="D56" s="5">
+        <v>2013</v>
+      </c>
+      <c r="E56" s="5" t="s">
+        <v>57</v>
+      </c>
+      <c r="F56" s="5">
+        <v>1</v>
+      </c>
+      <c r="G56" s="5" t="s">
+        <v>89</v>
+      </c>
+      <c r="H56" s="5">
+        <v>2013</v>
+      </c>
+      <c r="I56" s="5">
+        <v>9131</v>
       </c>
       <c r="J56" s="7" t="s">
         <v>22</v>
       </c>
     </row>
     <row r="57" spans="1:10" x14ac:dyDescent="0.2">
-      <c r="A57" s="1" t="s">
-        <v>171</v>
-      </c>
-      <c r="B57" s="1" t="s">
-        <v>90</v>
-      </c>
-      <c r="C57" s="1" t="s">
-        <v>20</v>
-      </c>
-      <c r="D57" s="1">
-        <v>2006</v>
-      </c>
-      <c r="E57" s="1" t="s">
-        <v>16</v>
-      </c>
-      <c r="F57" s="3" t="s">
-        <v>78</v>
-      </c>
-      <c r="G57" s="10" t="s">
-        <v>172</v>
-      </c>
-      <c r="H57" s="1">
-        <v>9191</v>
+      <c r="A57" s="5" t="s">
+        <v>125</v>
+      </c>
+      <c r="B57" s="5" t="s">
+        <v>87</v>
+      </c>
+      <c r="C57" s="5" t="s">
+        <v>19</v>
+      </c>
+      <c r="D57" s="5">
+        <v>2017</v>
+      </c>
+      <c r="E57" s="5" t="s">
+        <v>16</v>
+      </c>
+      <c r="F57" s="5" t="s">
+        <v>78</v>
+      </c>
+      <c r="G57" s="5" t="s">
+        <v>126</v>
+      </c>
+      <c r="H57" s="5">
+        <v>9266</v>
       </c>
       <c r="I57" s="9" t="s">
         <v>106</v>
       </c>
-      <c r="J57" s="7" t="s">
-        <v>22</v>
+      <c r="J57" s="1" t="s">
+        <v>12</v>
       </c>
     </row>
     <row r="58" spans="1:10" x14ac:dyDescent="0.2">
-      <c r="A58" s="1" t="s">
-        <v>152</v>
-      </c>
-      <c r="B58" s="1" t="s">
-        <v>90</v>
-      </c>
-      <c r="C58" s="1" t="s">
-        <v>20</v>
-      </c>
-      <c r="D58" s="1">
-        <v>2004</v>
-      </c>
-      <c r="E58" s="1" t="s">
-        <v>16</v>
-      </c>
-      <c r="F58" s="3" t="s">
-        <v>78</v>
-      </c>
-      <c r="G58" s="10" t="s">
-        <v>153</v>
-      </c>
-      <c r="H58" s="1">
-        <v>9201</v>
+      <c r="A58" s="5" t="s">
+        <v>131</v>
+      </c>
+      <c r="B58" s="5" t="s">
+        <v>87</v>
+      </c>
+      <c r="C58" s="5" t="s">
+        <v>19</v>
+      </c>
+      <c r="D58" s="5">
+        <v>2017</v>
+      </c>
+      <c r="E58" s="5" t="s">
+        <v>16</v>
+      </c>
+      <c r="F58" s="5" t="s">
+        <v>78</v>
+      </c>
+      <c r="G58" s="5" t="s">
+        <v>132</v>
+      </c>
+      <c r="H58" s="5">
+        <v>9257</v>
       </c>
       <c r="I58" s="9" t="s">
         <v>106</v>
       </c>
-      <c r="J58" s="7" t="s">
-        <v>22</v>
+      <c r="J58" s="1" t="s">
+        <v>12</v>
       </c>
     </row>
     <row r="59" spans="1:10" x14ac:dyDescent="0.2">
-      <c r="A59" s="1" t="s">
-        <v>142</v>
-      </c>
-      <c r="B59" s="1" t="s">
-        <v>90</v>
-      </c>
-      <c r="C59" s="1" t="s">
-        <v>20</v>
-      </c>
-      <c r="D59" s="1">
-        <v>2006</v>
-      </c>
-      <c r="E59" s="1" t="s">
-        <v>16</v>
-      </c>
-      <c r="F59" s="3" t="s">
-        <v>78</v>
-      </c>
-      <c r="G59" s="10" t="s">
-        <v>143</v>
-      </c>
-      <c r="H59" s="1">
-        <v>9206</v>
+      <c r="A59" s="5" t="s">
+        <v>121</v>
+      </c>
+      <c r="B59" s="5" t="s">
+        <v>87</v>
+      </c>
+      <c r="C59" s="5" t="s">
+        <v>19</v>
+      </c>
+      <c r="D59" s="5">
+        <v>2017</v>
+      </c>
+      <c r="E59" s="5" t="s">
+        <v>16</v>
+      </c>
+      <c r="F59" s="5" t="s">
+        <v>78</v>
+      </c>
+      <c r="G59" s="5" t="s">
+        <v>122</v>
+      </c>
+      <c r="H59" s="5">
+        <v>9276</v>
       </c>
       <c r="I59" s="9" t="s">
         <v>106</v>
       </c>
-      <c r="J59" s="7" t="s">
-        <v>22</v>
+      <c r="J59" s="1" t="s">
+        <v>12</v>
       </c>
     </row>
     <row r="60" spans="1:10" x14ac:dyDescent="0.2">
-      <c r="A60" s="1" t="s">
-        <v>146</v>
-      </c>
-      <c r="B60" s="1" t="s">
-        <v>90</v>
-      </c>
-      <c r="C60" s="1" t="s">
-        <v>20</v>
-      </c>
-      <c r="D60" s="1">
-        <v>2007</v>
-      </c>
-      <c r="E60" s="1" t="s">
-        <v>16</v>
-      </c>
-      <c r="F60" s="3" t="s">
-        <v>78</v>
-      </c>
-      <c r="G60" s="10" t="s">
-        <v>147</v>
-      </c>
-      <c r="H60" s="1">
-        <v>9203</v>
+      <c r="A60" s="5" t="s">
+        <v>127</v>
+      </c>
+      <c r="B60" s="5" t="s">
+        <v>87</v>
+      </c>
+      <c r="C60" s="5" t="s">
+        <v>19</v>
+      </c>
+      <c r="D60" s="5">
+        <v>2017</v>
+      </c>
+      <c r="E60" s="5" t="s">
+        <v>16</v>
+      </c>
+      <c r="F60" s="5" t="s">
+        <v>78</v>
+      </c>
+      <c r="G60" s="5" t="s">
+        <v>128</v>
+      </c>
+      <c r="H60" s="5">
+        <v>9265</v>
       </c>
       <c r="I60" s="9" t="s">
         <v>106</v>
       </c>
-      <c r="J60" s="7" t="s">
-        <v>22</v>
+      <c r="J60" s="1" t="s">
+        <v>12</v>
       </c>
     </row>
     <row r="61" spans="1:10" x14ac:dyDescent="0.2">
-      <c r="A61" s="1" t="s">
-        <v>135</v>
-      </c>
-      <c r="B61" s="1" t="s">
-        <v>90</v>
-      </c>
-      <c r="C61" s="1" t="s">
-        <v>20</v>
-      </c>
-      <c r="D61" s="1">
-        <v>2006</v>
-      </c>
-      <c r="E61" s="1" t="s">
-        <v>16</v>
-      </c>
-      <c r="F61" s="3" t="s">
-        <v>78</v>
-      </c>
-      <c r="G61" s="10" t="s">
-        <v>136</v>
-      </c>
-      <c r="H61" s="1">
-        <v>9215</v>
+      <c r="A61" s="5" t="s">
+        <v>190</v>
+      </c>
+      <c r="B61" s="5" t="s">
+        <v>90</v>
+      </c>
+      <c r="C61" s="5" t="s">
+        <v>19</v>
+      </c>
+      <c r="D61" s="5">
+        <v>2017</v>
+      </c>
+      <c r="E61" s="5" t="s">
+        <v>16</v>
+      </c>
+      <c r="F61" s="5" t="s">
+        <v>78</v>
+      </c>
+      <c r="G61" s="5" t="s">
+        <v>191</v>
+      </c>
+      <c r="H61" s="5">
+        <v>9164</v>
       </c>
       <c r="I61" s="9" t="s">
         <v>106</v>
       </c>
-      <c r="J61" s="7" t="s">
-        <v>22</v>
+      <c r="J61" s="1" t="s">
+        <v>12</v>
       </c>
     </row>
     <row r="62" spans="1:10" x14ac:dyDescent="0.2">
-      <c r="A62" s="1" t="s">
-        <v>176</v>
-      </c>
-      <c r="B62" s="1" t="s">
-        <v>90</v>
-      </c>
-      <c r="C62" s="1" t="s">
-        <v>20</v>
-      </c>
-      <c r="D62" s="1">
-        <v>2006</v>
-      </c>
-      <c r="E62" s="1" t="s">
-        <v>16</v>
-      </c>
-      <c r="F62" s="3" t="s">
-        <v>78</v>
-      </c>
-      <c r="G62" s="10" t="s">
-        <v>177</v>
-      </c>
-      <c r="H62" s="1">
-        <v>9172</v>
+      <c r="A62" s="5" t="s">
+        <v>212</v>
+      </c>
+      <c r="B62" s="5" t="s">
+        <v>90</v>
+      </c>
+      <c r="C62" s="5" t="s">
+        <v>19</v>
+      </c>
+      <c r="D62" s="5">
+        <v>2017</v>
+      </c>
+      <c r="E62" s="5" t="s">
+        <v>57</v>
+      </c>
+      <c r="F62" s="5">
+        <v>1</v>
+      </c>
+      <c r="G62" s="5" t="s">
+        <v>213</v>
+      </c>
+      <c r="H62" s="5">
+        <v>8908</v>
       </c>
       <c r="I62" s="9" t="s">
         <v>106</v>
       </c>
-      <c r="J62" s="7" t="s">
-        <v>22</v>
+      <c r="J62" s="1" t="s">
+        <v>12</v>
       </c>
     </row>
     <row r="63" spans="1:10" x14ac:dyDescent="0.2">
-      <c r="A63" s="1" t="s">
-        <v>144</v>
-      </c>
-      <c r="B63" s="1" t="s">
-        <v>90</v>
-      </c>
-      <c r="C63" s="1" t="s">
-        <v>20</v>
-      </c>
-      <c r="D63" s="1">
-        <v>2006</v>
-      </c>
-      <c r="E63" s="1" t="s">
-        <v>16</v>
-      </c>
-      <c r="F63" s="3" t="s">
-        <v>78</v>
-      </c>
-      <c r="G63" s="10" t="s">
-        <v>145</v>
-      </c>
-      <c r="H63" s="1">
-        <v>9204</v>
+      <c r="A63" s="5" t="s">
+        <v>194</v>
+      </c>
+      <c r="B63" s="5" t="s">
+        <v>87</v>
+      </c>
+      <c r="C63" s="5" t="s">
+        <v>19</v>
+      </c>
+      <c r="D63" s="5" t="s">
+        <v>78</v>
+      </c>
+      <c r="E63" s="5" t="s">
+        <v>57</v>
+      </c>
+      <c r="F63" s="5">
+        <v>1</v>
+      </c>
+      <c r="G63" s="5" t="s">
+        <v>195</v>
+      </c>
+      <c r="H63" s="5">
+        <v>9158</v>
       </c>
       <c r="I63" s="9" t="s">
         <v>106</v>
       </c>
-      <c r="J63" s="7" t="s">
-        <v>22</v>
+      <c r="J63" s="1" t="s">
+        <v>12</v>
       </c>
     </row>
     <row r="64" spans="1:10" x14ac:dyDescent="0.2">
-      <c r="A64" s="1" t="s">
-        <v>163</v>
-      </c>
-      <c r="B64" s="1" t="s">
-        <v>90</v>
-      </c>
-      <c r="C64" s="1" t="s">
-        <v>99</v>
-      </c>
-      <c r="D64" s="1">
-        <v>2020</v>
-      </c>
-      <c r="E64" s="1" t="s">
-        <v>16</v>
-      </c>
-      <c r="F64" s="3" t="s">
-        <v>78</v>
-      </c>
-      <c r="G64" s="10" t="s">
-        <v>164</v>
-      </c>
-      <c r="H64" s="1">
-        <v>9193</v>
+      <c r="A64" s="5" t="s">
+        <v>204</v>
+      </c>
+      <c r="B64" s="5" t="s">
+        <v>87</v>
+      </c>
+      <c r="C64" s="5" t="s">
+        <v>19</v>
+      </c>
+      <c r="D64" s="5">
+        <v>1989</v>
+      </c>
+      <c r="E64" s="5" t="s">
+        <v>57</v>
+      </c>
+      <c r="F64" s="5">
+        <v>1</v>
+      </c>
+      <c r="G64" s="5" t="s">
+        <v>205</v>
+      </c>
+      <c r="H64" s="5">
+        <v>9135</v>
       </c>
       <c r="I64" s="9" t="s">
         <v>106</v>
       </c>
       <c r="J64" s="1" t="s">
-        <v>98</v>
+        <v>12</v>
       </c>
     </row>
     <row r="65" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A65" s="5" t="s">
-        <v>75</v>
+        <v>115</v>
       </c>
       <c r="B65" s="5" t="s">
-        <v>90</v>
+        <v>87</v>
       </c>
       <c r="C65" s="5" t="s">
-        <v>76</v>
+        <v>19</v>
       </c>
       <c r="D65" s="5">
-        <v>1984</v>
+        <v>2017</v>
       </c>
       <c r="E65" s="5" t="s">
         <v>16</v>
       </c>
-      <c r="F65" s="6">
-        <v>1</v>
+      <c r="F65" s="5" t="s">
+        <v>78</v>
       </c>
       <c r="G65" s="5" t="s">
-        <v>77</v>
+        <v>116</v>
       </c>
       <c r="H65" s="5">
-        <v>9203</v>
-      </c>
-      <c r="I65" s="5" t="s">
-        <v>14</v>
-      </c>
-      <c r="J65" s="7" t="s">
+        <v>9316</v>
+      </c>
+      <c r="I65" s="9" t="s">
+        <v>106</v>
+      </c>
+      <c r="J65" s="1" t="s">
         <v>12</v>
       </c>
     </row>
     <row r="66" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A66" s="5" t="s">
-        <v>58</v>
+        <v>158</v>
       </c>
       <c r="B66" s="5" t="s">
         <v>90</v>
       </c>
       <c r="C66" s="5" t="s">
-        <v>10</v>
+        <v>20</v>
       </c>
       <c r="D66" s="5">
-        <v>1994</v>
+        <v>2017</v>
       </c>
       <c r="E66" s="5" t="s">
         <v>16</v>
       </c>
-      <c r="F66" s="6">
-        <v>6</v>
+      <c r="F66" s="5" t="s">
+        <v>78</v>
       </c>
       <c r="G66" s="5">
-        <v>676</v>
+        <v>1150</v>
       </c>
       <c r="H66" s="5">
-        <v>475</v>
-      </c>
-      <c r="I66" s="5" t="s">
-        <v>13</v>
+        <v>9195</v>
+      </c>
+      <c r="I66" s="9" t="s">
+        <v>106</v>
       </c>
       <c r="J66" s="7" t="s">
-        <v>12</v>
+        <v>22</v>
       </c>
     </row>
     <row r="67" spans="1:10" x14ac:dyDescent="0.2">
-      <c r="A67" s="1" t="s">
-        <v>104</v>
+      <c r="A67" s="5" t="s">
+        <v>214</v>
       </c>
       <c r="B67" s="5" t="s">
         <v>87</v>
       </c>
-      <c r="C67" s="1" t="s">
-        <v>99</v>
-      </c>
-      <c r="D67" s="1">
-        <v>1992</v>
-      </c>
-      <c r="E67" s="9" t="s">
-        <v>95</v>
-      </c>
-      <c r="F67" s="3">
+      <c r="C67" s="5" t="s">
+        <v>19</v>
+      </c>
+      <c r="D67" s="5">
+        <v>2015</v>
+      </c>
+      <c r="E67" s="5" t="s">
+        <v>57</v>
+      </c>
+      <c r="F67" s="5">
         <v>1</v>
       </c>
-      <c r="G67" t="s">
-        <v>105</v>
-      </c>
-      <c r="H67" s="1">
-        <v>9186</v>
+      <c r="G67" s="5" t="s">
+        <v>215</v>
+      </c>
+      <c r="H67" s="5">
+        <v>6378</v>
       </c>
       <c r="I67" s="9" t="s">
         <v>106</v>
       </c>
       <c r="J67" s="1" t="s">
-        <v>98</v>
+        <v>12</v>
       </c>
     </row>
     <row r="68" spans="1:10" x14ac:dyDescent="0.2">
-      <c r="A68" s="1" t="s">
-        <v>94</v>
+      <c r="A68" s="5" t="s">
+        <v>141</v>
       </c>
       <c r="B68" s="5" t="s">
         <v>90</v>
       </c>
       <c r="C68" s="5" t="s">
-        <v>80</v>
-      </c>
-      <c r="D68" s="1">
-        <v>2004</v>
-      </c>
-      <c r="E68" s="9" t="s">
-        <v>95</v>
-      </c>
-      <c r="F68" s="6">
-        <v>1</v>
-      </c>
-      <c r="G68" s="1">
-        <v>496</v>
-      </c>
-      <c r="H68" s="1">
-        <v>9136</v>
-      </c>
-      <c r="I68" s="1" t="s">
-        <v>14</v>
-      </c>
-      <c r="J68" s="1" t="s">
-        <v>12</v>
+        <v>20</v>
+      </c>
+      <c r="D68" s="5">
+        <v>2006</v>
+      </c>
+      <c r="E68" s="5" t="s">
+        <v>16</v>
+      </c>
+      <c r="F68" s="5" t="s">
+        <v>78</v>
+      </c>
+      <c r="G68" s="5" t="s">
+        <v>101</v>
+      </c>
+      <c r="H68" s="5">
+        <v>9206</v>
+      </c>
+      <c r="I68" s="9" t="s">
+        <v>106</v>
+      </c>
+      <c r="J68" s="7" t="s">
+        <v>22</v>
       </c>
     </row>
     <row r="69" spans="1:10" x14ac:dyDescent="0.2">
-      <c r="A69" s="1" t="s">
-        <v>96</v>
+      <c r="A69" s="5" t="s">
+        <v>165</v>
       </c>
       <c r="B69" s="5" t="s">
-        <v>87</v>
-      </c>
-      <c r="C69" s="1" t="s">
-        <v>99</v>
-      </c>
-      <c r="D69" s="1">
-        <v>2009</v>
-      </c>
-      <c r="E69" s="9" t="s">
-        <v>95</v>
-      </c>
-      <c r="F69" s="3">
-        <v>1</v>
-      </c>
-      <c r="G69" s="1" t="s">
-        <v>97</v>
-      </c>
-      <c r="H69" s="1">
-        <v>9065</v>
-      </c>
-      <c r="I69" s="1" t="s">
-        <v>14</v>
-      </c>
-      <c r="J69" s="1" t="s">
-        <v>98</v>
+        <v>90</v>
+      </c>
+      <c r="C69" s="5" t="s">
+        <v>20</v>
+      </c>
+      <c r="D69" s="5">
+        <v>2006</v>
+      </c>
+      <c r="E69" s="5" t="s">
+        <v>16</v>
+      </c>
+      <c r="F69" s="5" t="s">
+        <v>78</v>
+      </c>
+      <c r="G69" s="5" t="s">
+        <v>166</v>
+      </c>
+      <c r="H69" s="5">
+        <v>9192</v>
+      </c>
+      <c r="I69" s="9" t="s">
+        <v>106</v>
+      </c>
+      <c r="J69" s="7" t="s">
+        <v>22</v>
       </c>
     </row>
     <row r="70" spans="1:10" x14ac:dyDescent="0.2">
-      <c r="A70" s="1" t="s">
-        <v>200</v>
-      </c>
-      <c r="B70" s="1" t="s">
-        <v>87</v>
-      </c>
-      <c r="C70" s="1" t="s">
-        <v>99</v>
-      </c>
-      <c r="D70" s="1">
-        <v>1993</v>
-      </c>
-      <c r="E70" s="1" t="s">
-        <v>57</v>
-      </c>
-      <c r="F70" s="3">
-        <v>1</v>
-      </c>
-      <c r="G70" s="10" t="s">
-        <v>201</v>
-      </c>
-      <c r="H70" s="1">
-        <v>9138</v>
+      <c r="A70" s="5" t="s">
+        <v>180</v>
+      </c>
+      <c r="B70" s="5" t="s">
+        <v>90</v>
+      </c>
+      <c r="C70" s="5" t="s">
+        <v>20</v>
+      </c>
+      <c r="D70" s="5">
+        <v>2006</v>
+      </c>
+      <c r="E70" s="5" t="s">
+        <v>16</v>
+      </c>
+      <c r="F70" s="5" t="s">
+        <v>78</v>
+      </c>
+      <c r="G70" s="5" t="s">
+        <v>181</v>
+      </c>
+      <c r="H70" s="5">
+        <v>9171</v>
       </c>
       <c r="I70" s="9" t="s">
         <v>106</v>
       </c>
+      <c r="J70" s="7" t="s">
+        <v>22</v>
+      </c>
     </row>
     <row r="71" spans="1:10" x14ac:dyDescent="0.2">
-      <c r="A71" s="1" t="s">
-        <v>178</v>
-      </c>
-      <c r="B71" s="1" t="s">
-        <v>87</v>
-      </c>
-      <c r="C71" s="1" t="s">
-        <v>99</v>
-      </c>
-      <c r="D71" s="1">
-        <v>1993</v>
-      </c>
-      <c r="E71" s="1" t="s">
-        <v>57</v>
-      </c>
-      <c r="F71" s="3">
-        <v>1</v>
-      </c>
-      <c r="G71" s="10" t="s">
-        <v>179</v>
-      </c>
-      <c r="H71" s="1">
-        <v>9172</v>
+      <c r="A71" s="5" t="s">
+        <v>186</v>
+      </c>
+      <c r="B71" s="5" t="s">
+        <v>90</v>
+      </c>
+      <c r="C71" s="5" t="s">
+        <v>20</v>
+      </c>
+      <c r="D71" s="5">
+        <v>2006</v>
+      </c>
+      <c r="E71" s="5" t="s">
+        <v>16</v>
+      </c>
+      <c r="F71" s="5" t="s">
+        <v>78</v>
+      </c>
+      <c r="G71" s="5" t="s">
+        <v>187</v>
+      </c>
+      <c r="H71" s="5">
+        <v>9166</v>
       </c>
       <c r="I71" s="9" t="s">
         <v>106</v>
       </c>
-      <c r="J71" s="1" t="s">
-        <v>98</v>
+      <c r="J71" s="7" t="s">
+        <v>22</v>
       </c>
     </row>
     <row r="72" spans="1:10" x14ac:dyDescent="0.2">
-      <c r="A72" s="1" t="s">
-        <v>192</v>
-      </c>
-      <c r="B72" s="1" t="s">
-        <v>87</v>
-      </c>
-      <c r="C72" s="1" t="s">
-        <v>99</v>
-      </c>
-      <c r="D72" s="1">
-        <v>1993</v>
-      </c>
-      <c r="E72" s="1" t="s">
-        <v>57</v>
-      </c>
-      <c r="F72" s="3">
-        <v>1</v>
-      </c>
-      <c r="G72" s="10" t="s">
-        <v>193</v>
-      </c>
-      <c r="H72" s="1">
-        <v>9163</v>
+      <c r="A72" s="5" t="s">
+        <v>148</v>
+      </c>
+      <c r="B72" s="5" t="s">
+        <v>90</v>
+      </c>
+      <c r="C72" s="5" t="s">
+        <v>20</v>
+      </c>
+      <c r="D72" s="5">
+        <v>2006</v>
+      </c>
+      <c r="E72" s="5" t="s">
+        <v>16</v>
+      </c>
+      <c r="F72" s="5" t="s">
+        <v>78</v>
+      </c>
+      <c r="G72" s="5" t="s">
+        <v>149</v>
+      </c>
+      <c r="H72" s="5">
+        <v>9202</v>
       </c>
       <c r="I72" s="9" t="s">
         <v>106</v>
       </c>
-      <c r="J72" s="1" t="s">
-        <v>98</v>
+      <c r="J72" s="7" t="s">
+        <v>22</v>
       </c>
     </row>
     <row r="73" spans="1:10" x14ac:dyDescent="0.2">
-      <c r="A73" s="1" t="s">
-        <v>210</v>
-      </c>
-      <c r="B73" s="1" t="s">
-        <v>87</v>
-      </c>
-      <c r="C73" s="1" t="s">
-        <v>99</v>
-      </c>
-      <c r="D73" s="1" t="s">
-        <v>78</v>
-      </c>
-      <c r="E73" s="1" t="s">
-        <v>57</v>
-      </c>
-      <c r="F73" s="3">
-        <v>1</v>
-      </c>
-      <c r="G73" s="10" t="s">
-        <v>211</v>
-      </c>
-      <c r="H73" s="1">
-        <v>9118</v>
+      <c r="A73" s="5" t="s">
+        <v>159</v>
+      </c>
+      <c r="B73" s="5" t="s">
+        <v>90</v>
+      </c>
+      <c r="C73" s="5" t="s">
+        <v>20</v>
+      </c>
+      <c r="D73" s="5">
+        <v>2007</v>
+      </c>
+      <c r="E73" s="5" t="s">
+        <v>16</v>
+      </c>
+      <c r="F73" s="5" t="s">
+        <v>78</v>
+      </c>
+      <c r="G73" s="5" t="s">
+        <v>160</v>
+      </c>
+      <c r="H73" s="5">
+        <v>9194</v>
       </c>
       <c r="I73" s="9" t="s">
         <v>106</v>
       </c>
-      <c r="J73" s="1" t="s">
-        <v>98</v>
+      <c r="J73" s="7" t="s">
+        <v>22</v>
       </c>
     </row>
     <row r="74" spans="1:10" x14ac:dyDescent="0.2">
-      <c r="A74" s="1" t="s">
-        <v>182</v>
-      </c>
-      <c r="B74" s="1" t="s">
-        <v>87</v>
-      </c>
-      <c r="C74" s="1" t="s">
-        <v>99</v>
-      </c>
-      <c r="D74" s="1" t="s">
-        <v>78</v>
-      </c>
-      <c r="E74" s="1" t="s">
-        <v>57</v>
-      </c>
-      <c r="F74" s="3">
-        <v>1</v>
-      </c>
-      <c r="G74" s="10" t="s">
-        <v>183</v>
-      </c>
-      <c r="H74" s="1">
-        <v>9171</v>
+      <c r="A74" s="5" t="s">
+        <v>137</v>
+      </c>
+      <c r="B74" s="5" t="s">
+        <v>90</v>
+      </c>
+      <c r="C74" s="5" t="s">
+        <v>20</v>
+      </c>
+      <c r="D74" s="5">
+        <v>2006</v>
+      </c>
+      <c r="E74" s="5" t="s">
+        <v>16</v>
+      </c>
+      <c r="F74" s="5" t="s">
+        <v>78</v>
+      </c>
+      <c r="G74" s="5" t="s">
+        <v>138</v>
+      </c>
+      <c r="H74" s="5">
+        <v>9207</v>
       </c>
       <c r="I74" s="9" t="s">
         <v>106</v>
       </c>
-      <c r="J74" s="1" t="s">
-        <v>98</v>
+      <c r="J74" s="7" t="s">
+        <v>22</v>
       </c>
     </row>
     <row r="75" spans="1:10" x14ac:dyDescent="0.2">
-      <c r="A75" s="1" t="s">
-        <v>196</v>
-      </c>
-      <c r="B75" s="1" t="s">
-        <v>90</v>
-      </c>
-      <c r="C75" s="1" t="s">
-        <v>19</v>
-      </c>
-      <c r="D75" s="1" t="s">
-        <v>78</v>
-      </c>
-      <c r="E75" s="1" t="s">
-        <v>57</v>
-      </c>
-      <c r="F75" s="3">
-        <v>1</v>
-      </c>
-      <c r="G75" s="10" t="s">
-        <v>197</v>
-      </c>
-      <c r="H75" s="1">
-        <v>9145</v>
+      <c r="A75" s="5" t="s">
+        <v>167</v>
+      </c>
+      <c r="B75" s="5" t="s">
+        <v>90</v>
+      </c>
+      <c r="C75" s="5" t="s">
+        <v>20</v>
+      </c>
+      <c r="D75" s="5">
+        <v>2007</v>
+      </c>
+      <c r="E75" s="5" t="s">
+        <v>16</v>
+      </c>
+      <c r="F75" s="5" t="s">
+        <v>78</v>
+      </c>
+      <c r="G75" s="5" t="s">
+        <v>168</v>
+      </c>
+      <c r="H75" s="5">
+        <v>9192</v>
       </c>
       <c r="I75" s="9" t="s">
         <v>106</v>
       </c>
-      <c r="J75" s="1" t="s">
-        <v>12</v>
+      <c r="J75" s="7" t="s">
+        <v>22</v>
       </c>
     </row>
     <row r="76" spans="1:10" x14ac:dyDescent="0.2">
-      <c r="A76" s="1" t="s">
-        <v>184</v>
-      </c>
-      <c r="B76" s="1" t="s">
-        <v>87</v>
-      </c>
-      <c r="C76" s="1" t="s">
-        <v>19</v>
-      </c>
-      <c r="D76" s="1" t="s">
-        <v>78</v>
-      </c>
-      <c r="E76" s="1" t="s">
-        <v>57</v>
-      </c>
-      <c r="F76" s="3">
-        <v>1</v>
-      </c>
-      <c r="G76" s="10" t="s">
-        <v>185</v>
-      </c>
-      <c r="H76" s="1">
-        <v>9168</v>
+      <c r="A76" s="5" t="s">
+        <v>161</v>
+      </c>
+      <c r="B76" s="5" t="s">
+        <v>90</v>
+      </c>
+      <c r="C76" s="5" t="s">
+        <v>20</v>
+      </c>
+      <c r="D76" s="5">
+        <v>2006</v>
+      </c>
+      <c r="E76" s="5" t="s">
+        <v>16</v>
+      </c>
+      <c r="F76" s="5" t="s">
+        <v>78</v>
+      </c>
+      <c r="G76" s="5" t="s">
+        <v>162</v>
+      </c>
+      <c r="H76" s="5">
+        <v>9193</v>
       </c>
       <c r="I76" s="9" t="s">
         <v>106</v>
       </c>
-      <c r="J76" s="1" t="s">
-        <v>98</v>
+      <c r="J76" s="7" t="s">
+        <v>22</v>
       </c>
     </row>
     <row r="77" spans="1:10" x14ac:dyDescent="0.2">
-      <c r="A77" s="1" t="s">
-        <v>123</v>
-      </c>
-      <c r="B77" s="1" t="s">
-        <v>87</v>
-      </c>
-      <c r="C77" s="1" t="s">
-        <v>19</v>
-      </c>
-      <c r="D77" s="1" t="s">
-        <v>78</v>
-      </c>
-      <c r="E77" s="1" t="s">
-        <v>57</v>
-      </c>
-      <c r="F77" s="3">
-        <v>1</v>
-      </c>
-      <c r="G77" s="10" t="s">
-        <v>124</v>
-      </c>
-      <c r="H77" s="1">
-        <v>9270</v>
+      <c r="A77" s="5" t="s">
+        <v>188</v>
+      </c>
+      <c r="B77" s="5" t="s">
+        <v>90</v>
+      </c>
+      <c r="C77" s="5" t="s">
+        <v>20</v>
+      </c>
+      <c r="D77" s="5">
+        <v>2017</v>
+      </c>
+      <c r="E77" s="5" t="s">
+        <v>16</v>
+      </c>
+      <c r="F77" s="5" t="s">
+        <v>78</v>
+      </c>
+      <c r="G77" s="5" t="s">
+        <v>189</v>
+      </c>
+      <c r="H77" s="5">
+        <v>9166</v>
       </c>
       <c r="I77" s="9" t="s">
         <v>106</v>
       </c>
-      <c r="J77" s="1" t="s">
-        <v>12</v>
+      <c r="J77" s="7" t="s">
+        <v>22</v>
       </c>
     </row>
     <row r="78" spans="1:10" x14ac:dyDescent="0.2">
-      <c r="A78" s="1" t="s">
-        <v>206</v>
-      </c>
-      <c r="B78" s="1" t="s">
-        <v>87</v>
-      </c>
-      <c r="C78" s="1" t="s">
-        <v>19</v>
-      </c>
-      <c r="D78" s="1" t="s">
-        <v>78</v>
-      </c>
-      <c r="E78" s="1" t="s">
-        <v>57</v>
-      </c>
-      <c r="F78" s="3">
-        <v>1</v>
-      </c>
-      <c r="G78" s="10" t="s">
-        <v>207</v>
-      </c>
-      <c r="H78" s="1">
-        <v>9121</v>
+      <c r="A78" s="5" t="s">
+        <v>174</v>
+      </c>
+      <c r="B78" s="5" t="s">
+        <v>90</v>
+      </c>
+      <c r="C78" s="5" t="s">
+        <v>20</v>
+      </c>
+      <c r="D78" s="5">
+        <v>2006</v>
+      </c>
+      <c r="E78" s="5" t="s">
+        <v>16</v>
+      </c>
+      <c r="F78" s="5" t="s">
+        <v>78</v>
+      </c>
+      <c r="G78" s="5" t="s">
+        <v>175</v>
+      </c>
+      <c r="H78" s="5">
+        <v>9185</v>
       </c>
       <c r="I78" s="9" t="s">
         <v>106</v>
       </c>
-      <c r="J78" s="1" t="s">
-        <v>12</v>
+      <c r="J78" s="7" t="s">
+        <v>22</v>
       </c>
     </row>
     <row r="79" spans="1:10" x14ac:dyDescent="0.2">
-      <c r="A79" s="1" t="s">
-        <v>202</v>
-      </c>
-      <c r="B79" s="1" t="s">
-        <v>87</v>
-      </c>
-      <c r="C79" s="1" t="s">
-        <v>19</v>
-      </c>
-      <c r="D79" s="1" t="s">
-        <v>78</v>
-      </c>
-      <c r="E79" s="1" t="s">
-        <v>57</v>
-      </c>
-      <c r="F79" s="3">
-        <v>1</v>
-      </c>
-      <c r="G79" s="10" t="s">
-        <v>203</v>
-      </c>
-      <c r="H79" s="1">
-        <v>9136</v>
+      <c r="A79" s="5" t="s">
+        <v>154</v>
+      </c>
+      <c r="B79" s="5" t="s">
+        <v>90</v>
+      </c>
+      <c r="C79" s="5" t="s">
+        <v>20</v>
+      </c>
+      <c r="D79" s="5">
+        <v>2005</v>
+      </c>
+      <c r="E79" s="5" t="s">
+        <v>16</v>
+      </c>
+      <c r="F79" s="5" t="s">
+        <v>78</v>
+      </c>
+      <c r="G79" s="5" t="s">
+        <v>155</v>
+      </c>
+      <c r="H79" s="5">
+        <v>9200</v>
       </c>
       <c r="I79" s="9" t="s">
         <v>106</v>
       </c>
-      <c r="J79" s="1" t="s">
-        <v>12</v>
+      <c r="J79" s="7" t="s">
+        <v>22</v>
       </c>
     </row>
     <row r="80" spans="1:10" x14ac:dyDescent="0.2">
-      <c r="A80" s="1" t="s">
-        <v>208</v>
-      </c>
-      <c r="B80" s="1" t="s">
-        <v>87</v>
-      </c>
-      <c r="C80" s="1" t="s">
-        <v>19</v>
-      </c>
-      <c r="D80" s="1" t="s">
-        <v>78</v>
-      </c>
-      <c r="E80" s="1" t="s">
-        <v>57</v>
-      </c>
-      <c r="F80" s="3">
-        <v>1</v>
-      </c>
-      <c r="G80" s="10" t="s">
-        <v>209</v>
-      </c>
-      <c r="H80" s="1">
-        <v>9119</v>
+      <c r="A80" s="5" t="s">
+        <v>150</v>
+      </c>
+      <c r="B80" s="5" t="s">
+        <v>90</v>
+      </c>
+      <c r="C80" s="5" t="s">
+        <v>20</v>
+      </c>
+      <c r="D80" s="5">
+        <v>2006</v>
+      </c>
+      <c r="E80" s="5" t="s">
+        <v>16</v>
+      </c>
+      <c r="F80" s="5" t="s">
+        <v>78</v>
+      </c>
+      <c r="G80" s="5" t="s">
+        <v>151</v>
+      </c>
+      <c r="H80" s="5">
+        <v>9202</v>
       </c>
       <c r="I80" s="9" t="s">
         <v>106</v>
       </c>
-      <c r="J80" s="1" t="s">
-        <v>12</v>
+      <c r="J80" s="7" t="s">
+        <v>22</v>
       </c>
     </row>
     <row r="81" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A81" s="5" t="s">
-        <v>86</v>
+        <v>169</v>
       </c>
       <c r="B81" s="5" t="s">
-        <v>87</v>
+        <v>90</v>
       </c>
       <c r="C81" s="5" t="s">
-        <v>88</v>
+        <v>20</v>
       </c>
       <c r="D81" s="5">
-        <v>2013</v>
+        <v>2007</v>
       </c>
       <c r="E81" s="5" t="s">
-        <v>57</v>
-      </c>
-      <c r="F81" s="6">
-        <v>1</v>
+        <v>16</v>
+      </c>
+      <c r="F81" s="5" t="s">
+        <v>78</v>
       </c>
       <c r="G81" s="5" t="s">
-        <v>89</v>
+        <v>170</v>
       </c>
       <c r="H81" s="5">
-        <v>2013</v>
-      </c>
-      <c r="I81" s="5">
-        <v>9131</v>
+        <v>9191</v>
+      </c>
+      <c r="I81" s="9" t="s">
+        <v>106</v>
       </c>
       <c r="J81" s="7" t="s">
         <v>22</v>
       </c>
     </row>
     <row r="82" spans="1:10" x14ac:dyDescent="0.2">
-      <c r="A82" s="1" t="s">
-        <v>212</v>
-      </c>
-      <c r="B82" s="1" t="s">
-        <v>90</v>
-      </c>
-      <c r="C82" s="1" t="s">
-        <v>19</v>
-      </c>
-      <c r="D82" s="1">
-        <v>2017</v>
-      </c>
-      <c r="E82" s="1" t="s">
-        <v>57</v>
-      </c>
-      <c r="F82" s="3">
-        <v>1</v>
-      </c>
-      <c r="G82" s="10" t="s">
-        <v>213</v>
-      </c>
-      <c r="H82" s="1">
-        <v>8908</v>
+      <c r="A82" s="5" t="s">
+        <v>156</v>
+      </c>
+      <c r="B82" s="5" t="s">
+        <v>90</v>
+      </c>
+      <c r="C82" s="5" t="s">
+        <v>20</v>
+      </c>
+      <c r="D82" s="5">
+        <v>2007</v>
+      </c>
+      <c r="E82" s="5" t="s">
+        <v>16</v>
+      </c>
+      <c r="F82" s="5" t="s">
+        <v>78</v>
+      </c>
+      <c r="G82" s="5" t="s">
+        <v>157</v>
+      </c>
+      <c r="H82" s="5">
+        <v>9199</v>
       </c>
       <c r="I82" s="9" t="s">
         <v>106</v>
       </c>
-      <c r="J82" s="1" t="s">
-        <v>12</v>
+      <c r="J82" s="7" t="s">
+        <v>22</v>
       </c>
     </row>
     <row r="83" spans="1:10" x14ac:dyDescent="0.2">
-      <c r="A83" s="1" t="s">
-        <v>194</v>
-      </c>
-      <c r="B83" s="1" t="s">
-        <v>87</v>
-      </c>
-      <c r="C83" s="1" t="s">
-        <v>19</v>
-      </c>
-      <c r="D83" s="1" t="s">
-        <v>78</v>
-      </c>
-      <c r="E83" s="1" t="s">
-        <v>57</v>
-      </c>
-      <c r="F83" s="3">
-        <v>1</v>
-      </c>
-      <c r="G83" s="10" t="s">
-        <v>195</v>
-      </c>
-      <c r="H83" s="1">
-        <v>9158</v>
+      <c r="A83" s="5" t="s">
+        <v>173</v>
+      </c>
+      <c r="B83" s="5" t="s">
+        <v>90</v>
+      </c>
+      <c r="C83" s="5" t="s">
+        <v>20</v>
+      </c>
+      <c r="D83" s="5">
+        <v>2003</v>
+      </c>
+      <c r="E83" s="5" t="s">
+        <v>16</v>
+      </c>
+      <c r="F83" s="5" t="s">
+        <v>78</v>
+      </c>
+      <c r="G83" s="5" t="s">
+        <v>103</v>
+      </c>
+      <c r="H83" s="5">
+        <v>9189</v>
       </c>
       <c r="I83" s="9" t="s">
         <v>106</v>
       </c>
-      <c r="J83" s="1" t="s">
-        <v>12</v>
+      <c r="J83" s="7" t="s">
+        <v>22</v>
       </c>
     </row>
     <row r="84" spans="1:10" x14ac:dyDescent="0.2">
-      <c r="A84" s="1" t="s">
-        <v>204</v>
-      </c>
-      <c r="B84" s="1" t="s">
-        <v>87</v>
-      </c>
-      <c r="C84" s="1" t="s">
-        <v>19</v>
-      </c>
-      <c r="D84" s="1">
-        <v>1989</v>
-      </c>
-      <c r="E84" s="1" t="s">
-        <v>57</v>
-      </c>
-      <c r="F84" s="3">
-        <v>1</v>
-      </c>
-      <c r="G84" s="10" t="s">
-        <v>205</v>
-      </c>
-      <c r="H84" s="1">
-        <v>9135</v>
+      <c r="A84" s="5" t="s">
+        <v>171</v>
+      </c>
+      <c r="B84" s="5" t="s">
+        <v>90</v>
+      </c>
+      <c r="C84" s="5" t="s">
+        <v>20</v>
+      </c>
+      <c r="D84" s="5">
+        <v>2006</v>
+      </c>
+      <c r="E84" s="5" t="s">
+        <v>16</v>
+      </c>
+      <c r="F84" s="5" t="s">
+        <v>78</v>
+      </c>
+      <c r="G84" s="5" t="s">
+        <v>172</v>
+      </c>
+      <c r="H84" s="5">
+        <v>9191</v>
       </c>
       <c r="I84" s="9" t="s">
         <v>106</v>
       </c>
-      <c r="J84" s="1" t="s">
-        <v>12</v>
+      <c r="J84" s="7" t="s">
+        <v>22</v>
       </c>
     </row>
     <row r="85" spans="1:10" x14ac:dyDescent="0.2">
-      <c r="A85" s="1" t="s">
-        <v>214</v>
-      </c>
-      <c r="B85" s="1" t="s">
-        <v>87</v>
-      </c>
-      <c r="C85" s="1" t="s">
-        <v>19</v>
-      </c>
-      <c r="D85" s="1">
-        <v>2015</v>
-      </c>
-      <c r="E85" s="1" t="s">
-        <v>57</v>
-      </c>
-      <c r="F85" s="3">
-        <v>1</v>
-      </c>
-      <c r="G85" s="10" t="s">
-        <v>215</v>
-      </c>
-      <c r="H85" s="1">
-        <v>6378</v>
+      <c r="A85" s="5" t="s">
+        <v>152</v>
+      </c>
+      <c r="B85" s="5" t="s">
+        <v>90</v>
+      </c>
+      <c r="C85" s="5" t="s">
+        <v>20</v>
+      </c>
+      <c r="D85" s="5">
+        <v>2004</v>
+      </c>
+      <c r="E85" s="5" t="s">
+        <v>16</v>
+      </c>
+      <c r="F85" s="5" t="s">
+        <v>78</v>
+      </c>
+      <c r="G85" s="5" t="s">
+        <v>153</v>
+      </c>
+      <c r="H85" s="5">
+        <v>9201</v>
       </c>
       <c r="I85" s="9" t="s">
         <v>106</v>
       </c>
-      <c r="J85" s="1" t="s">
-        <v>12</v>
+      <c r="J85" s="7" t="s">
+        <v>22</v>
       </c>
     </row>
     <row r="86" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A86" s="5" t="s">
-        <v>54</v>
+        <v>142</v>
       </c>
       <c r="B86" s="5" t="s">
-        <v>87</v>
+        <v>90</v>
       </c>
       <c r="C86" s="5" t="s">
         <v>20</v>
       </c>
       <c r="D86" s="5">
-        <v>1974</v>
+        <v>2006</v>
       </c>
       <c r="E86" s="5" t="s">
-        <v>57</v>
-      </c>
-      <c r="F86" s="6">
-        <v>1</v>
+        <v>16</v>
+      </c>
+      <c r="F86" s="5" t="s">
+        <v>78</v>
       </c>
       <c r="G86" s="5" t="s">
-        <v>55</v>
+        <v>143</v>
       </c>
       <c r="H86" s="5">
-        <v>9189</v>
-      </c>
-      <c r="I86" s="5" t="s">
-        <v>14</v>
+        <v>9206</v>
+      </c>
+      <c r="I86" s="9" t="s">
+        <v>106</v>
       </c>
       <c r="J86" s="7" t="s">
         <v>22</v>
@@ -4009,231 +4012,263 @@
     </row>
     <row r="87" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A87" s="5" t="s">
-        <v>60</v>
+        <v>146</v>
       </c>
       <c r="B87" s="5" t="s">
-        <v>87</v>
+        <v>90</v>
       </c>
       <c r="C87" s="5" t="s">
-        <v>63</v>
+        <v>20</v>
       </c>
       <c r="D87" s="5">
-        <v>1991</v>
+        <v>2007</v>
       </c>
       <c r="E87" s="5" t="s">
-        <v>62</v>
-      </c>
-      <c r="F87" s="6" t="s">
+        <v>16</v>
+      </c>
+      <c r="F87" s="5" t="s">
         <v>78</v>
       </c>
       <c r="G87" s="5" t="s">
-        <v>61</v>
+        <v>147</v>
       </c>
       <c r="H87" s="5">
-        <v>8919</v>
-      </c>
-      <c r="I87" s="5" t="s">
-        <v>14</v>
+        <v>9203</v>
+      </c>
+      <c r="I87" s="9" t="s">
+        <v>106</v>
       </c>
       <c r="J87" s="7" t="s">
-        <v>12</v>
+        <v>22</v>
       </c>
     </row>
     <row r="88" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A88" s="5" t="s">
-        <v>79</v>
+        <v>135</v>
       </c>
       <c r="B88" s="5" t="s">
         <v>90</v>
       </c>
       <c r="C88" s="5" t="s">
-        <v>80</v>
+        <v>20</v>
       </c>
       <c r="D88" s="5">
-        <v>2005</v>
+        <v>2006</v>
       </c>
       <c r="E88" s="5" t="s">
-        <v>81</v>
-      </c>
-      <c r="F88" s="6" t="s">
+        <v>16</v>
+      </c>
+      <c r="F88" s="5" t="s">
         <v>78</v>
       </c>
       <c r="G88" s="5" t="s">
-        <v>82</v>
+        <v>136</v>
       </c>
       <c r="H88" s="5">
-        <v>1130</v>
-      </c>
-      <c r="I88" s="5" t="s">
-        <v>13</v>
+        <v>9215</v>
+      </c>
+      <c r="I88" s="9" t="s">
+        <v>106</v>
       </c>
       <c r="J88" s="7" t="s">
-        <v>12</v>
+        <v>22</v>
       </c>
     </row>
     <row r="89" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A89" s="5" t="s">
-        <v>222</v>
+        <v>176</v>
       </c>
       <c r="B89" s="5" t="s">
         <v>90</v>
       </c>
-      <c r="C89" s="1" t="s">
-        <v>19</v>
+      <c r="C89" s="5" t="s">
+        <v>20</v>
       </c>
       <c r="D89" s="5">
-        <v>2003</v>
-      </c>
-      <c r="E89" s="8" t="s">
-        <v>92</v>
-      </c>
-      <c r="F89" s="6" t="s">
+        <v>2006</v>
+      </c>
+      <c r="E89" s="5" t="s">
+        <v>16</v>
+      </c>
+      <c r="F89" s="5" t="s">
         <v>78</v>
       </c>
       <c r="G89" s="5" t="s">
-        <v>223</v>
+        <v>177</v>
       </c>
       <c r="H89" s="5">
-        <v>8437</v>
-      </c>
-      <c r="I89" s="1" t="s">
-        <v>14</v>
+        <v>9172</v>
+      </c>
+      <c r="I89" s="9" t="s">
+        <v>106</v>
       </c>
       <c r="J89" s="7" t="s">
-        <v>12</v>
+        <v>22</v>
       </c>
     </row>
     <row r="90" spans="1:10" x14ac:dyDescent="0.2">
-      <c r="A90" s="1" t="s">
-        <v>91</v>
+      <c r="A90" s="5" t="s">
+        <v>144</v>
       </c>
       <c r="B90" s="5" t="s">
-        <v>87</v>
-      </c>
-      <c r="C90" s="1" t="s">
-        <v>19</v>
-      </c>
-      <c r="D90" s="1">
-        <v>2008</v>
-      </c>
-      <c r="E90" s="8" t="s">
-        <v>92</v>
-      </c>
-      <c r="F90" s="6" t="s">
-        <v>78</v>
-      </c>
-      <c r="G90" s="1" t="s">
-        <v>93</v>
-      </c>
-      <c r="H90" s="1">
-        <v>8418</v>
-      </c>
-      <c r="I90" s="1" t="s">
-        <v>14</v>
-      </c>
-      <c r="J90" s="1" t="s">
-        <v>12</v>
+        <v>90</v>
+      </c>
+      <c r="C90" s="5" t="s">
+        <v>20</v>
+      </c>
+      <c r="D90" s="5">
+        <v>2006</v>
+      </c>
+      <c r="E90" s="5" t="s">
+        <v>16</v>
+      </c>
+      <c r="F90" s="5" t="s">
+        <v>78</v>
+      </c>
+      <c r="G90" s="5" t="s">
+        <v>145</v>
+      </c>
+      <c r="H90" s="5">
+        <v>9204</v>
+      </c>
+      <c r="I90" s="9" t="s">
+        <v>106</v>
+      </c>
+      <c r="J90" s="7" t="s">
+        <v>22</v>
       </c>
     </row>
     <row r="91" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A91" s="5" t="s">
-        <v>64</v>
+        <v>163</v>
       </c>
       <c r="B91" s="5" t="s">
         <v>90</v>
       </c>
       <c r="C91" s="5" t="s">
-        <v>65</v>
+        <v>99</v>
       </c>
       <c r="D91" s="5">
-        <v>2007</v>
+        <v>2020</v>
       </c>
       <c r="E91" s="5" t="s">
-        <v>66</v>
-      </c>
-      <c r="F91" s="6" t="s">
+        <v>16</v>
+      </c>
+      <c r="F91" s="5" t="s">
         <v>78</v>
       </c>
       <c r="G91" s="5" t="s">
-        <v>67</v>
+        <v>164</v>
       </c>
       <c r="H91" s="5">
-        <v>9136</v>
-      </c>
-      <c r="I91" s="5" t="s">
-        <v>14</v>
-      </c>
-      <c r="J91" s="7" t="s">
-        <v>68</v>
+        <v>9193</v>
+      </c>
+      <c r="I91" s="9" t="s">
+        <v>106</v>
+      </c>
+      <c r="J91" s="1" t="s">
+        <v>98</v>
       </c>
     </row>
     <row r="92" spans="1:10" x14ac:dyDescent="0.2">
-      <c r="A92" s="1" t="s">
-        <v>216</v>
+      <c r="A92" s="5" t="s">
+        <v>54</v>
       </c>
       <c r="B92" s="5" t="s">
-        <v>90</v>
-      </c>
-      <c r="C92" s="1" t="s">
-        <v>19</v>
-      </c>
-      <c r="D92" s="1">
-        <v>2003</v>
-      </c>
-      <c r="E92" s="1" t="s">
-        <v>218</v>
-      </c>
-      <c r="F92" s="6" t="s">
-        <v>78</v>
-      </c>
-      <c r="G92" s="1" t="s">
-        <v>221</v>
-      </c>
-      <c r="H92" s="1">
-        <v>9148</v>
+        <v>87</v>
+      </c>
+      <c r="C92" s="5" t="s">
+        <v>20</v>
+      </c>
+      <c r="D92" s="5">
+        <v>1974</v>
+      </c>
+      <c r="E92" s="5" t="s">
+        <v>57</v>
+      </c>
+      <c r="F92" s="5">
+        <v>1</v>
+      </c>
+      <c r="G92" s="5" t="s">
+        <v>55</v>
+      </c>
+      <c r="H92" s="5">
+        <v>9189</v>
       </c>
       <c r="I92" s="5" t="s">
         <v>14</v>
       </c>
-      <c r="J92" s="1" t="s">
-        <v>12</v>
+      <c r="J92" s="7" t="s">
+        <v>22</v>
       </c>
     </row>
     <row r="93" spans="1:10" x14ac:dyDescent="0.2">
-      <c r="A93" s="1" t="s">
-        <v>217</v>
+      <c r="A93" s="5" t="s">
+        <v>75</v>
       </c>
       <c r="B93" s="5" t="s">
         <v>90</v>
       </c>
-      <c r="C93" s="1" t="s">
-        <v>19</v>
-      </c>
-      <c r="D93" s="1">
-        <v>2004</v>
-      </c>
-      <c r="E93" s="1" t="s">
-        <v>218</v>
-      </c>
-      <c r="F93" s="6" t="s">
-        <v>78</v>
-      </c>
-      <c r="G93" s="1" t="s">
-        <v>220</v>
-      </c>
-      <c r="H93" s="1" t="s">
-        <v>219</v>
+      <c r="C93" s="5" t="s">
+        <v>76</v>
+      </c>
+      <c r="D93" s="5">
+        <v>1984</v>
+      </c>
+      <c r="E93" s="5" t="s">
+        <v>16</v>
+      </c>
+      <c r="F93" s="5">
+        <v>1</v>
+      </c>
+      <c r="G93" s="5" t="s">
+        <v>77</v>
+      </c>
+      <c r="H93" s="5">
+        <v>9203</v>
       </c>
       <c r="I93" s="5" t="s">
         <v>14</v>
       </c>
-      <c r="J93" s="1" t="s">
+      <c r="J93" s="7" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="94" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="A94" s="5" t="s">
+        <v>58</v>
+      </c>
+      <c r="B94" s="5" t="s">
+        <v>90</v>
+      </c>
+      <c r="C94" s="5" t="s">
+        <v>10</v>
+      </c>
+      <c r="D94" s="5">
+        <v>1994</v>
+      </c>
+      <c r="E94" s="5" t="s">
+        <v>16</v>
+      </c>
+      <c r="F94" s="6">
+        <v>6</v>
+      </c>
+      <c r="G94" s="5">
+        <v>676</v>
+      </c>
+      <c r="H94" s="5">
+        <v>475</v>
+      </c>
+      <c r="I94" s="5" t="s">
+        <v>13</v>
+      </c>
+      <c r="J94" s="7" t="s">
         <v>12</v>
       </c>
     </row>
   </sheetData>
-  <sortState xmlns:xlrd2="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" ref="A2:J91">
-    <sortCondition ref="E2:E91"/>
+  <sortState xmlns:xlrd2="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" ref="A2:J94">
+    <sortCondition ref="A2:A94"/>
   </sortState>
   <phoneticPr fontId="4" type="noConversion"/>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>

--- a/tabular/extension/srlv-refseqs.xlsx
+++ b/tabular/extension/srlv-refseqs.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/robertgifford/Projects/virus/comparative/Retrovirus/Lentivirus-GLUE/tabular/extension/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{06A9B7CB-AACB-BE4D-A91B-6DA3ECBB9767}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{76A3EBA1-E8D8-814D-84C5-0BE4D5AAFB23}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="15860" yWindow="2840" windowWidth="28060" windowHeight="17540" tabRatio="500" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -29,7 +29,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="808" uniqueCount="226">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="808" uniqueCount="225">
   <si>
     <t>Accession</t>
   </si>
@@ -227,9 +227,6 @@
   </si>
   <si>
     <t>Jordan</t>
-  </si>
-  <si>
-    <t>F</t>
   </si>
   <si>
     <t>Jord1</t>
@@ -1247,8 +1244,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:J94"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="C19" sqref="C19"/>
+    <sheetView tabSelected="1" topLeftCell="A76" workbookViewId="0">
+      <selection activeCell="G93" sqref="A1:J94"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -1298,10 +1295,10 @@
         <v>59</v>
       </c>
       <c r="B2" s="5" t="s">
-        <v>90</v>
+        <v>89</v>
       </c>
       <c r="C2" s="5" t="s">
-        <v>73</v>
+        <v>72</v>
       </c>
       <c r="D2" s="5">
         <v>1949</v>
@@ -1313,7 +1310,7 @@
         <v>1</v>
       </c>
       <c r="G2" s="5" t="s">
-        <v>69</v>
+        <v>68</v>
       </c>
       <c r="H2" s="5">
         <v>9202</v>
@@ -1330,10 +1327,10 @@
         <v>59</v>
       </c>
       <c r="B3" s="5" t="s">
-        <v>90</v>
+        <v>89</v>
       </c>
       <c r="C3" s="5" t="s">
-        <v>73</v>
+        <v>72</v>
       </c>
       <c r="D3" s="5">
         <v>1951</v>
@@ -1345,7 +1342,7 @@
         <v>1</v>
       </c>
       <c r="G3" s="5" t="s">
-        <v>69</v>
+        <v>68</v>
       </c>
       <c r="H3" s="5">
         <v>9202</v>
@@ -1359,28 +1356,28 @@
     </row>
     <row r="4" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A4" s="5" t="s">
-        <v>60</v>
+        <v>82</v>
       </c>
       <c r="B4" s="5" t="s">
-        <v>87</v>
+        <v>89</v>
       </c>
       <c r="C4" s="5" t="s">
-        <v>63</v>
+        <v>84</v>
       </c>
       <c r="D4" s="5">
-        <v>1991</v>
+        <v>1996</v>
       </c>
       <c r="E4" s="5" t="s">
-        <v>62</v>
-      </c>
-      <c r="F4" s="6" t="s">
-        <v>78</v>
+        <v>16</v>
+      </c>
+      <c r="F4" s="6">
+        <v>1</v>
       </c>
       <c r="G4" s="5" t="s">
-        <v>61</v>
+        <v>83</v>
       </c>
       <c r="H4" s="5">
-        <v>8919</v>
+        <v>9189</v>
       </c>
       <c r="I4" s="5" t="s">
         <v>14</v>
@@ -1391,28 +1388,28 @@
     </row>
     <row r="5" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A5" s="5" t="s">
-        <v>83</v>
+        <v>23</v>
       </c>
       <c r="B5" s="5" t="s">
-        <v>90</v>
+        <v>86</v>
       </c>
       <c r="C5" s="5" t="s">
-        <v>85</v>
+        <v>24</v>
       </c>
       <c r="D5" s="5">
-        <v>1996</v>
+        <v>1999</v>
       </c>
       <c r="E5" s="5" t="s">
         <v>16</v>
       </c>
       <c r="F5" s="6">
-        <v>1</v>
+        <v>4</v>
       </c>
       <c r="G5" s="5" t="s">
-        <v>84</v>
+        <v>25</v>
       </c>
       <c r="H5" s="5">
-        <v>9189</v>
+        <v>9023</v>
       </c>
       <c r="I5" s="5" t="s">
         <v>14</v>
@@ -1423,10 +1420,10 @@
     </row>
     <row r="6" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A6" s="5" t="s">
-        <v>23</v>
+        <v>27</v>
       </c>
       <c r="B6" s="5" t="s">
-        <v>87</v>
+        <v>86</v>
       </c>
       <c r="C6" s="5" t="s">
         <v>24</v>
@@ -1438,16 +1435,16 @@
         <v>16</v>
       </c>
       <c r="F6" s="6">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="G6" s="5" t="s">
-        <v>25</v>
+        <v>28</v>
       </c>
       <c r="H6" s="5">
-        <v>9023</v>
+        <v>1709</v>
       </c>
       <c r="I6" s="5" t="s">
-        <v>14</v>
+        <v>26</v>
       </c>
       <c r="J6" s="7" t="s">
         <v>12</v>
@@ -1455,10 +1452,10 @@
     </row>
     <row r="7" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A7" s="5" t="s">
-        <v>27</v>
+        <v>29</v>
       </c>
       <c r="B7" s="5" t="s">
-        <v>87</v>
+        <v>86</v>
       </c>
       <c r="C7" s="5" t="s">
         <v>24</v>
@@ -1470,13 +1467,13 @@
         <v>16</v>
       </c>
       <c r="F7" s="6">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="G7" s="5" t="s">
-        <v>28</v>
+        <v>30</v>
       </c>
       <c r="H7" s="5">
-        <v>1709</v>
+        <v>1703</v>
       </c>
       <c r="I7" s="5" t="s">
         <v>26</v>
@@ -1487,10 +1484,10 @@
     </row>
     <row r="8" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A8" s="5" t="s">
-        <v>29</v>
+        <v>31</v>
       </c>
       <c r="B8" s="5" t="s">
-        <v>87</v>
+        <v>86</v>
       </c>
       <c r="C8" s="5" t="s">
         <v>24</v>
@@ -1502,13 +1499,13 @@
         <v>16</v>
       </c>
       <c r="F8" s="6">
-        <v>3</v>
+        <v>7</v>
       </c>
       <c r="G8" s="5" t="s">
-        <v>30</v>
+        <v>32</v>
       </c>
       <c r="H8" s="5">
-        <v>1703</v>
+        <v>1706</v>
       </c>
       <c r="I8" s="5" t="s">
         <v>26</v>
@@ -1519,95 +1516,95 @@
     </row>
     <row r="9" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A9" s="5" t="s">
-        <v>31</v>
+        <v>33</v>
       </c>
       <c r="B9" s="5" t="s">
-        <v>87</v>
+        <v>86</v>
       </c>
       <c r="C9" s="5" t="s">
-        <v>24</v>
+        <v>19</v>
       </c>
       <c r="D9" s="5">
-        <v>1999</v>
+        <v>2006</v>
       </c>
       <c r="E9" s="5" t="s">
         <v>16</v>
       </c>
       <c r="F9" s="6">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="G9" s="5" t="s">
-        <v>32</v>
+        <v>34</v>
       </c>
       <c r="H9" s="5">
-        <v>1706</v>
+        <v>1305</v>
       </c>
       <c r="I9" s="5" t="s">
-        <v>26</v>
+        <v>18</v>
       </c>
       <c r="J9" s="7" t="s">
         <v>12</v>
       </c>
     </row>
     <row r="10" spans="1:10" x14ac:dyDescent="0.2">
-      <c r="A10" s="1" t="s">
-        <v>104</v>
+      <c r="A10" s="5" t="s">
+        <v>36</v>
       </c>
       <c r="B10" s="5" t="s">
-        <v>87</v>
-      </c>
-      <c r="C10" s="1" t="s">
-        <v>99</v>
-      </c>
-      <c r="D10" s="1">
-        <v>1992</v>
-      </c>
-      <c r="E10" s="9" t="s">
-        <v>95</v>
-      </c>
-      <c r="F10" s="3">
-        <v>1</v>
-      </c>
-      <c r="G10" t="s">
-        <v>105</v>
-      </c>
-      <c r="H10" s="1">
-        <v>9186</v>
-      </c>
-      <c r="I10" s="9" t="s">
-        <v>106</v>
-      </c>
-      <c r="J10" s="1" t="s">
-        <v>98</v>
+        <v>89</v>
+      </c>
+      <c r="C10" s="5" t="s">
+        <v>35</v>
+      </c>
+      <c r="D10" s="5">
+        <v>2008</v>
+      </c>
+      <c r="E10" s="5" t="s">
+        <v>16</v>
+      </c>
+      <c r="F10" s="6">
+        <v>13</v>
+      </c>
+      <c r="G10" s="5">
+        <v>16</v>
+      </c>
+      <c r="H10" s="5">
+        <v>1004</v>
+      </c>
+      <c r="I10" s="5" t="s">
+        <v>18</v>
+      </c>
+      <c r="J10" s="7" t="s">
+        <v>12</v>
       </c>
     </row>
     <row r="11" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A11" s="5" t="s">
-        <v>79</v>
+        <v>37</v>
       </c>
       <c r="B11" s="5" t="s">
-        <v>90</v>
+        <v>89</v>
       </c>
       <c r="C11" s="5" t="s">
-        <v>80</v>
+        <v>35</v>
       </c>
       <c r="D11" s="5">
-        <v>2005</v>
+        <v>2008</v>
       </c>
       <c r="E11" s="5" t="s">
-        <v>81</v>
-      </c>
-      <c r="F11" s="6" t="s">
-        <v>78</v>
-      </c>
-      <c r="G11" s="5" t="s">
-        <v>82</v>
+        <v>16</v>
+      </c>
+      <c r="F11" s="6">
+        <v>12</v>
+      </c>
+      <c r="G11" s="5">
+        <v>4007</v>
       </c>
       <c r="H11" s="5">
-        <v>1130</v>
+        <v>1004</v>
       </c>
       <c r="I11" s="5" t="s">
-        <v>13</v>
+        <v>18</v>
       </c>
       <c r="J11" s="7" t="s">
         <v>12</v>
@@ -1615,28 +1612,28 @@
     </row>
     <row r="12" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A12" s="5" t="s">
-        <v>33</v>
+        <v>38</v>
       </c>
       <c r="B12" s="5" t="s">
-        <v>87</v>
+        <v>86</v>
       </c>
       <c r="C12" s="5" t="s">
         <v>19</v>
       </c>
       <c r="D12" s="5">
-        <v>2006</v>
+        <v>2010</v>
       </c>
       <c r="E12" s="5" t="s">
         <v>16</v>
       </c>
       <c r="F12" s="6">
-        <v>8</v>
+        <v>11</v>
       </c>
       <c r="G12" s="5" t="s">
-        <v>34</v>
+        <v>39</v>
       </c>
       <c r="H12" s="5">
-        <v>1305</v>
+        <v>648</v>
       </c>
       <c r="I12" s="5" t="s">
         <v>18</v>
@@ -1646,96 +1643,96 @@
       </c>
     </row>
     <row r="13" spans="1:10" x14ac:dyDescent="0.2">
-      <c r="A13" s="1" t="s">
-        <v>91</v>
+      <c r="A13" s="5" t="s">
+        <v>40</v>
       </c>
       <c r="B13" s="5" t="s">
-        <v>87</v>
-      </c>
-      <c r="C13" s="1" t="s">
+        <v>89</v>
+      </c>
+      <c r="C13" s="5" t="s">
         <v>19</v>
       </c>
-      <c r="D13" s="1">
-        <v>2008</v>
-      </c>
-      <c r="E13" s="8" t="s">
-        <v>92</v>
-      </c>
-      <c r="F13" s="6" t="s">
-        <v>78</v>
-      </c>
-      <c r="G13" s="1" t="s">
-        <v>93</v>
-      </c>
-      <c r="H13" s="1">
-        <v>8418</v>
-      </c>
-      <c r="I13" s="1" t="s">
+      <c r="D13" s="5">
+        <v>2010</v>
+      </c>
+      <c r="E13" s="5" t="s">
+        <v>16</v>
+      </c>
+      <c r="F13" s="6">
+        <v>9</v>
+      </c>
+      <c r="G13" s="5" t="s">
+        <v>41</v>
+      </c>
+      <c r="H13" s="5">
+        <v>660</v>
+      </c>
+      <c r="I13" s="5" t="s">
+        <v>18</v>
+      </c>
+      <c r="J13" s="7" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="14" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="A14" s="5" t="s">
+        <v>42</v>
+      </c>
+      <c r="B14" s="5" t="s">
+        <v>89</v>
+      </c>
+      <c r="C14" s="5" t="s">
+        <v>79</v>
+      </c>
+      <c r="D14" s="5">
+        <v>2005</v>
+      </c>
+      <c r="E14" s="5" t="s">
+        <v>16</v>
+      </c>
+      <c r="F14" s="6" t="s">
+        <v>77</v>
+      </c>
+      <c r="G14" s="5">
+        <v>697</v>
+      </c>
+      <c r="H14" s="5">
+        <v>9175</v>
+      </c>
+      <c r="I14" s="5" t="s">
         <v>14</v>
       </c>
-      <c r="J13" s="1" t="s">
-        <v>12</v>
-      </c>
-    </row>
-    <row r="14" spans="1:10" x14ac:dyDescent="0.2">
-      <c r="A14" s="1" t="s">
-        <v>94</v>
-      </c>
-      <c r="B14" s="5" t="s">
-        <v>90</v>
-      </c>
-      <c r="C14" s="5" t="s">
-        <v>80</v>
-      </c>
-      <c r="D14" s="1">
-        <v>2004</v>
-      </c>
-      <c r="E14" s="9" t="s">
-        <v>95</v>
-      </c>
-      <c r="F14" s="6">
-        <v>1</v>
-      </c>
-      <c r="G14" s="1">
-        <v>496</v>
-      </c>
-      <c r="H14" s="1">
-        <v>9136</v>
-      </c>
-      <c r="I14" s="1" t="s">
-        <v>14</v>
-      </c>
-      <c r="J14" s="1" t="s">
+      <c r="J14" s="7" t="s">
         <v>12</v>
       </c>
     </row>
     <row r="15" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A15" s="5" t="s">
-        <v>36</v>
+        <v>44</v>
       </c>
       <c r="B15" s="5" t="s">
-        <v>90</v>
+        <v>89</v>
       </c>
       <c r="C15" s="5" t="s">
-        <v>35</v>
+        <v>43</v>
       </c>
       <c r="D15" s="5">
-        <v>2008</v>
+        <v>2011</v>
       </c>
       <c r="E15" s="5" t="s">
         <v>16</v>
       </c>
       <c r="F15" s="6">
+        <v>15</v>
+      </c>
+      <c r="G15" s="5" t="s">
+        <v>45</v>
+      </c>
+      <c r="H15" s="5">
+        <v>1061</v>
+      </c>
+      <c r="I15" s="5" t="s">
         <v>13</v>
-      </c>
-      <c r="G15" s="5">
-        <v>16</v>
-      </c>
-      <c r="H15" s="5">
-        <v>1004</v>
-      </c>
-      <c r="I15" s="5" t="s">
-        <v>18</v>
       </c>
       <c r="J15" s="7" t="s">
         <v>12</v>
@@ -1743,13 +1740,13 @@
     </row>
     <row r="16" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A16" s="5" t="s">
-        <v>37</v>
+        <v>46</v>
       </c>
       <c r="B16" s="5" t="s">
-        <v>90</v>
+        <v>86</v>
       </c>
       <c r="C16" s="5" t="s">
-        <v>35</v>
+        <v>43</v>
       </c>
       <c r="D16" s="5">
         <v>2008</v>
@@ -1758,16 +1755,16 @@
         <v>16</v>
       </c>
       <c r="F16" s="6">
-        <v>12</v>
-      </c>
-      <c r="G16" s="5">
-        <v>4007</v>
+        <v>14</v>
+      </c>
+      <c r="G16" s="5" t="s">
+        <v>47</v>
       </c>
       <c r="H16" s="5">
-        <v>1004</v>
+        <v>1523</v>
       </c>
       <c r="I16" s="5" t="s">
-        <v>18</v>
+        <v>21</v>
       </c>
       <c r="J16" s="7" t="s">
         <v>12</v>
@@ -1775,287 +1772,287 @@
     </row>
     <row r="17" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A17" s="5" t="s">
-        <v>38</v>
+        <v>108</v>
       </c>
       <c r="B17" s="5" t="s">
-        <v>87</v>
+        <v>86</v>
       </c>
       <c r="C17" s="5" t="s">
-        <v>19</v>
+        <v>24</v>
       </c>
       <c r="D17" s="5">
-        <v>2010</v>
+        <v>2011</v>
       </c>
       <c r="E17" s="5" t="s">
         <v>16</v>
       </c>
-      <c r="F17" s="6">
-        <v>11</v>
+      <c r="F17" s="6" t="s">
+        <v>77</v>
       </c>
       <c r="G17" s="5" t="s">
-        <v>39</v>
+        <v>109</v>
       </c>
       <c r="H17" s="5">
-        <v>648</v>
-      </c>
-      <c r="I17" s="5" t="s">
-        <v>18</v>
-      </c>
-      <c r="J17" s="7" t="s">
+        <v>9464</v>
+      </c>
+      <c r="I17" s="9" t="s">
+        <v>105</v>
+      </c>
+      <c r="J17" s="1" t="s">
         <v>12</v>
       </c>
     </row>
     <row r="18" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A18" s="5" t="s">
-        <v>40</v>
+        <v>110</v>
       </c>
       <c r="B18" s="5" t="s">
-        <v>90</v>
+        <v>89</v>
       </c>
       <c r="C18" s="5" t="s">
-        <v>19</v>
+        <v>24</v>
       </c>
       <c r="D18" s="5">
-        <v>2010</v>
+        <v>2011</v>
       </c>
       <c r="E18" s="5" t="s">
         <v>16</v>
       </c>
-      <c r="F18" s="6">
-        <v>9</v>
+      <c r="F18" s="6" t="s">
+        <v>77</v>
       </c>
       <c r="G18" s="5" t="s">
-        <v>41</v>
+        <v>111</v>
       </c>
       <c r="H18" s="5">
-        <v>660</v>
-      </c>
-      <c r="I18" s="5" t="s">
-        <v>18</v>
-      </c>
-      <c r="J18" s="7" t="s">
+        <v>9464</v>
+      </c>
+      <c r="I18" s="9" t="s">
+        <v>105</v>
+      </c>
+      <c r="J18" s="1" t="s">
         <v>12</v>
       </c>
     </row>
     <row r="19" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A19" s="5" t="s">
-        <v>222</v>
+        <v>112</v>
       </c>
       <c r="B19" s="5" t="s">
-        <v>90</v>
-      </c>
-      <c r="C19" s="1" t="s">
-        <v>19</v>
+        <v>89</v>
+      </c>
+      <c r="C19" s="5" t="s">
+        <v>24</v>
       </c>
       <c r="D19" s="5">
-        <v>2003</v>
-      </c>
-      <c r="E19" s="8" t="s">
-        <v>92</v>
+        <v>2011</v>
+      </c>
+      <c r="E19" s="5" t="s">
+        <v>16</v>
       </c>
       <c r="F19" s="6" t="s">
-        <v>78</v>
+        <v>77</v>
       </c>
       <c r="G19" s="5" t="s">
-        <v>223</v>
+        <v>113</v>
       </c>
       <c r="H19" s="5">
-        <v>8437</v>
-      </c>
-      <c r="I19" s="1" t="s">
-        <v>14</v>
-      </c>
-      <c r="J19" s="7" t="s">
+        <v>9464</v>
+      </c>
+      <c r="I19" s="9" t="s">
+        <v>105</v>
+      </c>
+      <c r="J19" s="1" t="s">
         <v>12</v>
       </c>
     </row>
     <row r="20" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A20" s="5" t="s">
-        <v>96</v>
+        <v>99</v>
       </c>
       <c r="B20" s="5" t="s">
-        <v>87</v>
+        <v>89</v>
       </c>
       <c r="C20" s="5" t="s">
-        <v>99</v>
+        <v>20</v>
       </c>
       <c r="D20" s="5">
-        <v>2009</v>
+        <v>2006</v>
       </c>
       <c r="E20" s="5" t="s">
-        <v>95</v>
-      </c>
-      <c r="F20" s="5">
-        <v>1</v>
+        <v>16</v>
+      </c>
+      <c r="F20" s="6">
+        <v>2</v>
       </c>
       <c r="G20" s="5" t="s">
-        <v>97</v>
+        <v>100</v>
       </c>
       <c r="H20" s="5">
-        <v>9065</v>
+        <v>9206</v>
       </c>
       <c r="I20" s="1" t="s">
         <v>14</v>
       </c>
-      <c r="J20" s="1" t="s">
-        <v>98</v>
+      <c r="J20" s="7" t="s">
+        <v>22</v>
       </c>
     </row>
     <row r="21" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A21" s="5" t="s">
-        <v>42</v>
+        <v>101</v>
       </c>
       <c r="B21" s="5" t="s">
-        <v>90</v>
+        <v>89</v>
       </c>
       <c r="C21" s="5" t="s">
-        <v>80</v>
+        <v>20</v>
       </c>
       <c r="D21" s="5">
-        <v>2005</v>
+        <v>2003</v>
       </c>
       <c r="E21" s="5" t="s">
         <v>16</v>
       </c>
-      <c r="F21" s="5" t="s">
-        <v>78</v>
-      </c>
-      <c r="G21" s="5">
-        <v>697</v>
+      <c r="F21" s="6">
+        <v>2</v>
+      </c>
+      <c r="G21" s="5" t="s">
+        <v>102</v>
       </c>
       <c r="H21" s="5">
-        <v>9175</v>
-      </c>
-      <c r="I21" s="5" t="s">
+        <v>9185</v>
+      </c>
+      <c r="I21" s="1" t="s">
         <v>14</v>
       </c>
       <c r="J21" s="7" t="s">
-        <v>12</v>
+        <v>22</v>
       </c>
     </row>
     <row r="22" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A22" s="5" t="s">
-        <v>224</v>
+        <v>71</v>
       </c>
       <c r="B22" s="5" t="s">
-        <v>9</v>
+        <v>89</v>
       </c>
       <c r="C22" s="5" t="s">
-        <v>88</v>
+        <v>72</v>
       </c>
       <c r="D22" s="5">
-        <v>2004</v>
+        <v>1953</v>
       </c>
       <c r="E22" s="5" t="s">
-        <v>95</v>
-      </c>
-      <c r="F22" s="5" t="s">
-        <v>78</v>
+        <v>16</v>
+      </c>
+      <c r="F22" s="6">
+        <v>1</v>
       </c>
       <c r="G22" s="5" t="s">
-        <v>225</v>
+        <v>68</v>
       </c>
       <c r="H22" s="5">
-        <v>9090</v>
-      </c>
-      <c r="I22" s="1" t="s">
+        <v>9203</v>
+      </c>
+      <c r="I22" s="5" t="s">
         <v>14</v>
       </c>
-      <c r="J22" s="1" t="s">
-        <v>22</v>
+      <c r="J22" s="7" t="s">
+        <v>12</v>
       </c>
     </row>
     <row r="23" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A23" s="5" t="s">
-        <v>216</v>
+        <v>48</v>
       </c>
       <c r="B23" s="5" t="s">
-        <v>90</v>
+        <v>89</v>
       </c>
       <c r="C23" s="5" t="s">
-        <v>19</v>
+        <v>49</v>
       </c>
       <c r="D23" s="5">
-        <v>2003</v>
+        <v>1976</v>
       </c>
       <c r="E23" s="5" t="s">
-        <v>218</v>
-      </c>
-      <c r="F23" s="5" t="s">
-        <v>78</v>
+        <v>16</v>
+      </c>
+      <c r="F23" s="6">
+        <v>1</v>
       </c>
       <c r="G23" s="5" t="s">
-        <v>221</v>
+        <v>50</v>
       </c>
       <c r="H23" s="5">
-        <v>9148</v>
+        <v>9256</v>
       </c>
       <c r="I23" s="5" t="s">
         <v>14</v>
       </c>
-      <c r="J23" s="1" t="s">
-        <v>12</v>
+      <c r="J23" s="7" t="s">
+        <v>51</v>
       </c>
     </row>
     <row r="24" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A24" s="5" t="s">
-        <v>217</v>
+        <v>73</v>
       </c>
       <c r="B24" s="5" t="s">
-        <v>90</v>
+        <v>89</v>
       </c>
       <c r="C24" s="5" t="s">
-        <v>19</v>
+        <v>49</v>
       </c>
       <c r="D24" s="5">
-        <v>2004</v>
+        <v>1976</v>
       </c>
       <c r="E24" s="5" t="s">
-        <v>218</v>
-      </c>
-      <c r="F24" s="5" t="s">
-        <v>78</v>
+        <v>16</v>
+      </c>
+      <c r="F24" s="6">
+        <v>1</v>
       </c>
       <c r="G24" s="5" t="s">
-        <v>220</v>
-      </c>
-      <c r="H24" s="5" t="s">
-        <v>219</v>
+        <v>50</v>
+      </c>
+      <c r="H24" s="5">
+        <v>9256</v>
       </c>
       <c r="I24" s="5" t="s">
         <v>14</v>
       </c>
-      <c r="J24" s="1" t="s">
-        <v>12</v>
+      <c r="J24" s="7" t="s">
+        <v>51</v>
       </c>
     </row>
     <row r="25" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A25" s="5" t="s">
-        <v>44</v>
+        <v>70</v>
       </c>
       <c r="B25" s="5" t="s">
-        <v>90</v>
+        <v>89</v>
       </c>
       <c r="C25" s="5" t="s">
-        <v>43</v>
+        <v>72</v>
       </c>
       <c r="D25" s="5">
-        <v>2011</v>
+        <v>1952</v>
       </c>
       <c r="E25" s="5" t="s">
         <v>16</v>
       </c>
-      <c r="F25" s="5">
-        <v>15</v>
+      <c r="F25" s="6">
+        <v>1</v>
       </c>
       <c r="G25" s="5" t="s">
-        <v>45</v>
+        <v>68</v>
       </c>
       <c r="H25" s="5">
-        <v>1061</v>
+        <v>9202</v>
       </c>
       <c r="I25" s="5" t="s">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="J25" s="7" t="s">
         <v>12</v>
@@ -2063,31 +2060,31 @@
     </row>
     <row r="26" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A26" s="5" t="s">
-        <v>46</v>
+        <v>69</v>
       </c>
       <c r="B26" s="5" t="s">
-        <v>87</v>
+        <v>89</v>
       </c>
       <c r="C26" s="5" t="s">
-        <v>43</v>
+        <v>72</v>
       </c>
       <c r="D26" s="5">
-        <v>2008</v>
+        <v>1949</v>
       </c>
       <c r="E26" s="5" t="s">
         <v>16</v>
       </c>
-      <c r="F26" s="5">
+      <c r="F26" s="6">
+        <v>1</v>
+      </c>
+      <c r="G26" s="5" t="s">
+        <v>68</v>
+      </c>
+      <c r="H26" s="5">
+        <v>9225</v>
+      </c>
+      <c r="I26" s="5" t="s">
         <v>14</v>
-      </c>
-      <c r="G26" s="5" t="s">
-        <v>47</v>
-      </c>
-      <c r="H26" s="5">
-        <v>1523</v>
-      </c>
-      <c r="I26" s="5" t="s">
-        <v>21</v>
       </c>
       <c r="J26" s="7" t="s">
         <v>12</v>
@@ -2095,60 +2092,63 @@
     </row>
     <row r="27" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A27" s="5" t="s">
-        <v>200</v>
+        <v>118</v>
       </c>
       <c r="B27" s="5" t="s">
-        <v>87</v>
+        <v>86</v>
       </c>
       <c r="C27" s="5" t="s">
-        <v>99</v>
-      </c>
-      <c r="D27" s="5">
-        <v>1993</v>
+        <v>19</v>
+      </c>
+      <c r="D27" s="5" t="s">
+        <v>77</v>
       </c>
       <c r="E27" s="5" t="s">
-        <v>57</v>
-      </c>
-      <c r="F27" s="5">
-        <v>1</v>
+        <v>16</v>
+      </c>
+      <c r="F27" s="6" t="s">
+        <v>77</v>
       </c>
       <c r="G27" s="5" t="s">
-        <v>201</v>
+        <v>119</v>
       </c>
       <c r="H27" s="5">
-        <v>9138</v>
+        <v>9307</v>
       </c>
       <c r="I27" s="9" t="s">
-        <v>106</v>
+        <v>105</v>
+      </c>
+      <c r="J27" s="1" t="s">
+        <v>12</v>
       </c>
     </row>
     <row r="28" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A28" s="5" t="s">
-        <v>109</v>
+        <v>132</v>
       </c>
       <c r="B28" s="5" t="s">
-        <v>87</v>
+        <v>86</v>
       </c>
       <c r="C28" s="5" t="s">
-        <v>24</v>
-      </c>
-      <c r="D28" s="5">
-        <v>2011</v>
+        <v>19</v>
+      </c>
+      <c r="D28" s="5" t="s">
+        <v>77</v>
       </c>
       <c r="E28" s="5" t="s">
         <v>16</v>
       </c>
-      <c r="F28" s="5" t="s">
-        <v>78</v>
+      <c r="F28" s="6" t="s">
+        <v>77</v>
       </c>
       <c r="G28" s="5" t="s">
-        <v>110</v>
+        <v>133</v>
       </c>
       <c r="H28" s="5">
-        <v>9464</v>
+        <v>9231</v>
       </c>
       <c r="I28" s="9" t="s">
-        <v>106</v>
+        <v>105</v>
       </c>
       <c r="J28" s="1" t="s">
         <v>12</v>
@@ -2156,63 +2156,63 @@
     </row>
     <row r="29" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A29" s="5" t="s">
-        <v>111</v>
+        <v>138</v>
       </c>
       <c r="B29" s="5" t="s">
-        <v>90</v>
+        <v>86</v>
       </c>
       <c r="C29" s="5" t="s">
-        <v>24</v>
-      </c>
-      <c r="D29" s="5">
-        <v>2011</v>
+        <v>19</v>
+      </c>
+      <c r="D29" s="5" t="s">
+        <v>77</v>
       </c>
       <c r="E29" s="5" t="s">
         <v>16</v>
       </c>
-      <c r="F29" s="5" t="s">
-        <v>78</v>
+      <c r="F29" s="6" t="s">
+        <v>77</v>
       </c>
       <c r="G29" s="5" t="s">
-        <v>112</v>
+        <v>139</v>
       </c>
       <c r="H29" s="5">
-        <v>9464</v>
+        <v>9206</v>
       </c>
       <c r="I29" s="9" t="s">
-        <v>106</v>
-      </c>
-      <c r="J29" s="1" t="s">
+        <v>105</v>
+      </c>
+      <c r="J29" s="10" t="s">
         <v>12</v>
       </c>
     </row>
     <row r="30" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A30" s="5" t="s">
-        <v>113</v>
+        <v>106</v>
       </c>
       <c r="B30" s="5" t="s">
-        <v>90</v>
+        <v>86</v>
       </c>
       <c r="C30" s="5" t="s">
-        <v>24</v>
-      </c>
-      <c r="D30" s="5">
-        <v>2011</v>
+        <v>19</v>
+      </c>
+      <c r="D30" s="5" t="s">
+        <v>77</v>
       </c>
       <c r="E30" s="5" t="s">
         <v>16</v>
       </c>
-      <c r="F30" s="5" t="s">
-        <v>78</v>
+      <c r="F30" s="6" t="s">
+        <v>77</v>
       </c>
       <c r="G30" s="5" t="s">
-        <v>114</v>
+        <v>107</v>
       </c>
       <c r="H30" s="5">
-        <v>9464</v>
+        <v>9486</v>
       </c>
       <c r="I30" s="9" t="s">
-        <v>106</v>
+        <v>105</v>
       </c>
       <c r="J30" s="1" t="s">
         <v>12</v>
@@ -2220,831 +2220,831 @@
     </row>
     <row r="31" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A31" s="5" t="s">
-        <v>178</v>
+        <v>197</v>
       </c>
       <c r="B31" s="5" t="s">
-        <v>87</v>
+        <v>86</v>
       </c>
       <c r="C31" s="5" t="s">
-        <v>99</v>
-      </c>
-      <c r="D31" s="5">
-        <v>1993</v>
+        <v>19</v>
+      </c>
+      <c r="D31" s="5" t="s">
+        <v>77</v>
       </c>
       <c r="E31" s="5" t="s">
-        <v>57</v>
-      </c>
-      <c r="F31" s="5">
-        <v>1</v>
+        <v>16</v>
+      </c>
+      <c r="F31" s="6" t="s">
+        <v>77</v>
       </c>
       <c r="G31" s="5" t="s">
-        <v>179</v>
+        <v>198</v>
       </c>
       <c r="H31" s="5">
-        <v>9172</v>
+        <v>9138</v>
       </c>
       <c r="I31" s="9" t="s">
-        <v>106</v>
+        <v>105</v>
       </c>
       <c r="J31" s="1" t="s">
-        <v>98</v>
+        <v>12</v>
       </c>
     </row>
     <row r="32" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A32" s="5" t="s">
-        <v>192</v>
+        <v>128</v>
       </c>
       <c r="B32" s="5" t="s">
-        <v>87</v>
+        <v>86</v>
       </c>
       <c r="C32" s="5" t="s">
-        <v>99</v>
-      </c>
-      <c r="D32" s="5">
-        <v>1993</v>
+        <v>19</v>
+      </c>
+      <c r="D32" s="5" t="s">
+        <v>77</v>
       </c>
       <c r="E32" s="5" t="s">
-        <v>57</v>
-      </c>
-      <c r="F32" s="5">
-        <v>1</v>
+        <v>16</v>
+      </c>
+      <c r="F32" s="6" t="s">
+        <v>77</v>
       </c>
       <c r="G32" s="5" t="s">
-        <v>193</v>
+        <v>129</v>
       </c>
       <c r="H32" s="5">
-        <v>9163</v>
+        <v>9258</v>
       </c>
       <c r="I32" s="9" t="s">
-        <v>106</v>
+        <v>105</v>
       </c>
       <c r="J32" s="1" t="s">
-        <v>98</v>
+        <v>12</v>
       </c>
     </row>
     <row r="33" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A33" s="5" t="s">
-        <v>210</v>
+        <v>116</v>
       </c>
       <c r="B33" s="5" t="s">
-        <v>87</v>
+        <v>86</v>
       </c>
       <c r="C33" s="5" t="s">
-        <v>99</v>
+        <v>19</v>
       </c>
       <c r="D33" s="5" t="s">
-        <v>78</v>
+        <v>77</v>
       </c>
       <c r="E33" s="5" t="s">
-        <v>57</v>
-      </c>
-      <c r="F33" s="5">
-        <v>1</v>
+        <v>16</v>
+      </c>
+      <c r="F33" s="6" t="s">
+        <v>77</v>
       </c>
       <c r="G33" s="5" t="s">
-        <v>211</v>
+        <v>117</v>
       </c>
       <c r="H33" s="5">
-        <v>9118</v>
+        <v>9312</v>
       </c>
       <c r="I33" s="9" t="s">
-        <v>106</v>
+        <v>105</v>
       </c>
       <c r="J33" s="1" t="s">
-        <v>98</v>
+        <v>12</v>
       </c>
     </row>
     <row r="34" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A34" s="5" t="s">
-        <v>182</v>
+        <v>124</v>
       </c>
       <c r="B34" s="5" t="s">
-        <v>87</v>
+        <v>86</v>
       </c>
       <c r="C34" s="5" t="s">
-        <v>99</v>
-      </c>
-      <c r="D34" s="5" t="s">
-        <v>78</v>
+        <v>19</v>
+      </c>
+      <c r="D34" s="5">
+        <v>2017</v>
       </c>
       <c r="E34" s="5" t="s">
-        <v>57</v>
-      </c>
-      <c r="F34" s="5">
-        <v>1</v>
+        <v>16</v>
+      </c>
+      <c r="F34" s="6" t="s">
+        <v>77</v>
       </c>
       <c r="G34" s="5" t="s">
-        <v>183</v>
+        <v>125</v>
       </c>
       <c r="H34" s="5">
-        <v>9171</v>
+        <v>9266</v>
       </c>
       <c r="I34" s="9" t="s">
-        <v>106</v>
+        <v>105</v>
       </c>
       <c r="J34" s="1" t="s">
-        <v>98</v>
+        <v>12</v>
       </c>
     </row>
     <row r="35" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A35" s="5" t="s">
-        <v>64</v>
+        <v>130</v>
       </c>
       <c r="B35" s="5" t="s">
-        <v>90</v>
+        <v>86</v>
       </c>
       <c r="C35" s="5" t="s">
-        <v>65</v>
+        <v>19</v>
       </c>
       <c r="D35" s="5">
-        <v>2007</v>
+        <v>2017</v>
       </c>
       <c r="E35" s="5" t="s">
-        <v>66</v>
-      </c>
-      <c r="F35" s="5" t="s">
-        <v>78</v>
+        <v>16</v>
+      </c>
+      <c r="F35" s="6" t="s">
+        <v>77</v>
       </c>
       <c r="G35" s="5" t="s">
-        <v>67</v>
+        <v>131</v>
       </c>
       <c r="H35" s="5">
-        <v>9136</v>
-      </c>
-      <c r="I35" s="5" t="s">
-        <v>14</v>
-      </c>
-      <c r="J35" s="7" t="s">
-        <v>68</v>
+        <v>9257</v>
+      </c>
+      <c r="I35" s="9" t="s">
+        <v>105</v>
+      </c>
+      <c r="J35" s="1" t="s">
+        <v>12</v>
       </c>
     </row>
     <row r="36" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A36" s="5" t="s">
-        <v>100</v>
+        <v>120</v>
       </c>
       <c r="B36" s="5" t="s">
-        <v>90</v>
+        <v>86</v>
       </c>
       <c r="C36" s="5" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="D36" s="5">
-        <v>2006</v>
+        <v>2017</v>
       </c>
       <c r="E36" s="5" t="s">
         <v>16</v>
       </c>
-      <c r="F36" s="5">
-        <v>2</v>
+      <c r="F36" s="6" t="s">
+        <v>77</v>
       </c>
       <c r="G36" s="5" t="s">
-        <v>101</v>
+        <v>121</v>
       </c>
       <c r="H36" s="5">
-        <v>9206</v>
-      </c>
-      <c r="I36" s="1" t="s">
-        <v>14</v>
-      </c>
-      <c r="J36" s="7" t="s">
-        <v>22</v>
+        <v>9276</v>
+      </c>
+      <c r="I36" s="9" t="s">
+        <v>105</v>
+      </c>
+      <c r="J36" s="1" t="s">
+        <v>12</v>
       </c>
     </row>
     <row r="37" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A37" s="5" t="s">
-        <v>102</v>
+        <v>126</v>
       </c>
       <c r="B37" s="5" t="s">
-        <v>90</v>
+        <v>86</v>
       </c>
       <c r="C37" s="5" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="D37" s="5">
-        <v>2003</v>
+        <v>2017</v>
       </c>
       <c r="E37" s="5" t="s">
         <v>16</v>
       </c>
-      <c r="F37" s="5">
-        <v>2</v>
+      <c r="F37" s="6" t="s">
+        <v>77</v>
       </c>
       <c r="G37" s="5" t="s">
-        <v>103</v>
+        <v>127</v>
       </c>
       <c r="H37" s="5">
-        <v>9185</v>
-      </c>
-      <c r="I37" s="1" t="s">
-        <v>14</v>
-      </c>
-      <c r="J37" s="7" t="s">
-        <v>22</v>
+        <v>9265</v>
+      </c>
+      <c r="I37" s="9" t="s">
+        <v>105</v>
+      </c>
+      <c r="J37" s="1" t="s">
+        <v>12</v>
       </c>
     </row>
     <row r="38" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A38" s="5" t="s">
-        <v>72</v>
+        <v>189</v>
       </c>
       <c r="B38" s="5" t="s">
-        <v>90</v>
+        <v>89</v>
       </c>
       <c r="C38" s="5" t="s">
-        <v>73</v>
+        <v>19</v>
       </c>
       <c r="D38" s="5">
-        <v>1953</v>
+        <v>2017</v>
       </c>
       <c r="E38" s="5" t="s">
         <v>16</v>
       </c>
-      <c r="F38" s="5">
-        <v>1</v>
+      <c r="F38" s="6" t="s">
+        <v>77</v>
       </c>
       <c r="G38" s="5" t="s">
-        <v>69</v>
+        <v>190</v>
       </c>
       <c r="H38" s="5">
-        <v>9203</v>
-      </c>
-      <c r="I38" s="5" t="s">
-        <v>14</v>
-      </c>
-      <c r="J38" s="7" t="s">
+        <v>9164</v>
+      </c>
+      <c r="I38" s="9" t="s">
+        <v>105</v>
+      </c>
+      <c r="J38" s="1" t="s">
         <v>12</v>
       </c>
     </row>
     <row r="39" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A39" s="5" t="s">
-        <v>48</v>
+        <v>114</v>
       </c>
       <c r="B39" s="5" t="s">
-        <v>90</v>
+        <v>86</v>
       </c>
       <c r="C39" s="5" t="s">
-        <v>49</v>
+        <v>19</v>
       </c>
       <c r="D39" s="5">
-        <v>1976</v>
+        <v>2017</v>
       </c>
       <c r="E39" s="5" t="s">
         <v>16</v>
       </c>
-      <c r="F39" s="5">
-        <v>1</v>
+      <c r="F39" s="6" t="s">
+        <v>77</v>
       </c>
       <c r="G39" s="5" t="s">
-        <v>50</v>
+        <v>115</v>
       </c>
       <c r="H39" s="5">
-        <v>9256</v>
-      </c>
-      <c r="I39" s="5" t="s">
-        <v>14</v>
-      </c>
-      <c r="J39" s="7" t="s">
-        <v>51</v>
+        <v>9316</v>
+      </c>
+      <c r="I39" s="9" t="s">
+        <v>105</v>
+      </c>
+      <c r="J39" s="1" t="s">
+        <v>12</v>
       </c>
     </row>
     <row r="40" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A40" s="5" t="s">
-        <v>74</v>
+        <v>157</v>
       </c>
       <c r="B40" s="5" t="s">
-        <v>90</v>
+        <v>89</v>
       </c>
       <c r="C40" s="5" t="s">
-        <v>49</v>
+        <v>20</v>
       </c>
       <c r="D40" s="5">
-        <v>1976</v>
+        <v>2017</v>
       </c>
       <c r="E40" s="5" t="s">
         <v>16</v>
       </c>
-      <c r="F40" s="5">
-        <v>1</v>
-      </c>
-      <c r="G40" s="5" t="s">
-        <v>50</v>
+      <c r="F40" s="6" t="s">
+        <v>77</v>
+      </c>
+      <c r="G40" s="5">
+        <v>1150</v>
       </c>
       <c r="H40" s="5">
-        <v>9256</v>
-      </c>
-      <c r="I40" s="5" t="s">
-        <v>14</v>
+        <v>9195</v>
+      </c>
+      <c r="I40" s="9" t="s">
+        <v>105</v>
       </c>
       <c r="J40" s="7" t="s">
-        <v>51</v>
+        <v>22</v>
       </c>
     </row>
     <row r="41" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A41" s="5" t="s">
-        <v>71</v>
+        <v>140</v>
       </c>
       <c r="B41" s="5" t="s">
-        <v>90</v>
+        <v>89</v>
       </c>
       <c r="C41" s="5" t="s">
-        <v>73</v>
+        <v>20</v>
       </c>
       <c r="D41" s="5">
-        <v>1952</v>
+        <v>2006</v>
       </c>
       <c r="E41" s="5" t="s">
         <v>16</v>
       </c>
-      <c r="F41" s="5">
-        <v>1</v>
+      <c r="F41" s="6" t="s">
+        <v>77</v>
       </c>
       <c r="G41" s="5" t="s">
-        <v>69</v>
+        <v>100</v>
       </c>
       <c r="H41" s="5">
-        <v>9202</v>
-      </c>
-      <c r="I41" s="5" t="s">
-        <v>14</v>
+        <v>9206</v>
+      </c>
+      <c r="I41" s="9" t="s">
+        <v>105</v>
       </c>
       <c r="J41" s="7" t="s">
-        <v>12</v>
+        <v>22</v>
       </c>
     </row>
     <row r="42" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A42" s="5" t="s">
-        <v>70</v>
+        <v>164</v>
       </c>
       <c r="B42" s="5" t="s">
-        <v>90</v>
+        <v>89</v>
       </c>
       <c r="C42" s="5" t="s">
-        <v>73</v>
+        <v>20</v>
       </c>
       <c r="D42" s="5">
-        <v>1949</v>
+        <v>2006</v>
       </c>
       <c r="E42" s="5" t="s">
         <v>16</v>
       </c>
-      <c r="F42" s="5">
-        <v>1</v>
+      <c r="F42" s="6" t="s">
+        <v>77</v>
       </c>
       <c r="G42" s="5" t="s">
-        <v>69</v>
+        <v>165</v>
       </c>
       <c r="H42" s="5">
-        <v>9225</v>
-      </c>
-      <c r="I42" s="5" t="s">
-        <v>14</v>
+        <v>9192</v>
+      </c>
+      <c r="I42" s="9" t="s">
+        <v>105</v>
       </c>
       <c r="J42" s="7" t="s">
-        <v>12</v>
+        <v>22</v>
       </c>
     </row>
     <row r="43" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A43" s="5" t="s">
-        <v>196</v>
+        <v>179</v>
       </c>
       <c r="B43" s="5" t="s">
-        <v>90</v>
+        <v>89</v>
       </c>
       <c r="C43" s="5" t="s">
-        <v>19</v>
-      </c>
-      <c r="D43" s="5" t="s">
-        <v>78</v>
+        <v>20</v>
+      </c>
+      <c r="D43" s="5">
+        <v>2006</v>
       </c>
       <c r="E43" s="5" t="s">
-        <v>57</v>
-      </c>
-      <c r="F43" s="5">
-        <v>1</v>
+        <v>16</v>
+      </c>
+      <c r="F43" s="6" t="s">
+        <v>77</v>
       </c>
       <c r="G43" s="5" t="s">
-        <v>197</v>
+        <v>180</v>
       </c>
       <c r="H43" s="5">
-        <v>9145</v>
+        <v>9171</v>
       </c>
       <c r="I43" s="9" t="s">
-        <v>106</v>
-      </c>
-      <c r="J43" s="1" t="s">
-        <v>12</v>
+        <v>105</v>
+      </c>
+      <c r="J43" s="7" t="s">
+        <v>22</v>
       </c>
     </row>
     <row r="44" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A44" s="5" t="s">
-        <v>119</v>
+        <v>185</v>
       </c>
       <c r="B44" s="5" t="s">
-        <v>87</v>
+        <v>89</v>
       </c>
       <c r="C44" s="5" t="s">
-        <v>19</v>
-      </c>
-      <c r="D44" s="5" t="s">
-        <v>78</v>
+        <v>20</v>
+      </c>
+      <c r="D44" s="5">
+        <v>2006</v>
       </c>
       <c r="E44" s="5" t="s">
         <v>16</v>
       </c>
-      <c r="F44" s="5" t="s">
-        <v>78</v>
+      <c r="F44" s="6" t="s">
+        <v>77</v>
       </c>
       <c r="G44" s="5" t="s">
-        <v>120</v>
+        <v>186</v>
       </c>
       <c r="H44" s="5">
-        <v>9307</v>
+        <v>9166</v>
       </c>
       <c r="I44" s="9" t="s">
-        <v>106</v>
-      </c>
-      <c r="J44" s="1" t="s">
-        <v>12</v>
+        <v>105</v>
+      </c>
+      <c r="J44" s="7" t="s">
+        <v>22</v>
       </c>
     </row>
     <row r="45" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A45" s="5" t="s">
-        <v>133</v>
+        <v>147</v>
       </c>
       <c r="B45" s="5" t="s">
-        <v>87</v>
+        <v>89</v>
       </c>
       <c r="C45" s="5" t="s">
-        <v>19</v>
-      </c>
-      <c r="D45" s="5" t="s">
-        <v>78</v>
+        <v>20</v>
+      </c>
+      <c r="D45" s="5">
+        <v>2006</v>
       </c>
       <c r="E45" s="5" t="s">
         <v>16</v>
       </c>
-      <c r="F45" s="5" t="s">
-        <v>78</v>
+      <c r="F45" s="6" t="s">
+        <v>77</v>
       </c>
       <c r="G45" s="5" t="s">
-        <v>134</v>
+        <v>148</v>
       </c>
       <c r="H45" s="5">
-        <v>9231</v>
+        <v>9202</v>
       </c>
       <c r="I45" s="9" t="s">
-        <v>106</v>
-      </c>
-      <c r="J45" s="1" t="s">
-        <v>12</v>
+        <v>105</v>
+      </c>
+      <c r="J45" s="7" t="s">
+        <v>22</v>
       </c>
     </row>
     <row r="46" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A46" s="5" t="s">
-        <v>139</v>
+        <v>158</v>
       </c>
       <c r="B46" s="5" t="s">
-        <v>87</v>
+        <v>89</v>
       </c>
       <c r="C46" s="5" t="s">
-        <v>19</v>
-      </c>
-      <c r="D46" s="5" t="s">
-        <v>78</v>
+        <v>20</v>
+      </c>
+      <c r="D46" s="5">
+        <v>2007</v>
       </c>
       <c r="E46" s="5" t="s">
         <v>16</v>
       </c>
-      <c r="F46" s="5" t="s">
-        <v>78</v>
+      <c r="F46" s="6" t="s">
+        <v>77</v>
       </c>
       <c r="G46" s="5" t="s">
-        <v>140</v>
+        <v>159</v>
       </c>
       <c r="H46" s="5">
-        <v>9206</v>
+        <v>9194</v>
       </c>
       <c r="I46" s="9" t="s">
-        <v>106</v>
-      </c>
-      <c r="J46" s="10" t="s">
-        <v>12</v>
+        <v>105</v>
+      </c>
+      <c r="J46" s="7" t="s">
+        <v>22</v>
       </c>
     </row>
     <row r="47" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A47" s="5" t="s">
-        <v>107</v>
+        <v>136</v>
       </c>
       <c r="B47" s="5" t="s">
-        <v>87</v>
+        <v>89</v>
       </c>
       <c r="C47" s="5" t="s">
-        <v>19</v>
-      </c>
-      <c r="D47" s="5" t="s">
-        <v>78</v>
+        <v>20</v>
+      </c>
+      <c r="D47" s="5">
+        <v>2006</v>
       </c>
       <c r="E47" s="5" t="s">
         <v>16</v>
       </c>
-      <c r="F47" s="5" t="s">
-        <v>78</v>
+      <c r="F47" s="6" t="s">
+        <v>77</v>
       </c>
       <c r="G47" s="5" t="s">
-        <v>108</v>
+        <v>137</v>
       </c>
       <c r="H47" s="5">
-        <v>9486</v>
+        <v>9207</v>
       </c>
       <c r="I47" s="9" t="s">
-        <v>106</v>
-      </c>
-      <c r="J47" s="1" t="s">
-        <v>12</v>
+        <v>105</v>
+      </c>
+      <c r="J47" s="7" t="s">
+        <v>22</v>
       </c>
     </row>
     <row r="48" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A48" s="5" t="s">
-        <v>198</v>
+        <v>166</v>
       </c>
       <c r="B48" s="5" t="s">
-        <v>87</v>
+        <v>89</v>
       </c>
       <c r="C48" s="5" t="s">
-        <v>19</v>
-      </c>
-      <c r="D48" s="5" t="s">
-        <v>78</v>
+        <v>20</v>
+      </c>
+      <c r="D48" s="5">
+        <v>2007</v>
       </c>
       <c r="E48" s="5" t="s">
         <v>16</v>
       </c>
-      <c r="F48" s="5" t="s">
-        <v>78</v>
+      <c r="F48" s="6" t="s">
+        <v>77</v>
       </c>
       <c r="G48" s="5" t="s">
-        <v>199</v>
+        <v>167</v>
       </c>
       <c r="H48" s="5">
-        <v>9138</v>
+        <v>9192</v>
       </c>
       <c r="I48" s="9" t="s">
-        <v>106</v>
-      </c>
-      <c r="J48" s="1" t="s">
-        <v>12</v>
+        <v>105</v>
+      </c>
+      <c r="J48" s="7" t="s">
+        <v>22</v>
       </c>
     </row>
     <row r="49" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A49" s="5" t="s">
-        <v>129</v>
+        <v>160</v>
       </c>
       <c r="B49" s="5" t="s">
-        <v>87</v>
+        <v>89</v>
       </c>
       <c r="C49" s="5" t="s">
-        <v>19</v>
-      </c>
-      <c r="D49" s="5" t="s">
-        <v>78</v>
+        <v>20</v>
+      </c>
+      <c r="D49" s="5">
+        <v>2006</v>
       </c>
       <c r="E49" s="5" t="s">
         <v>16</v>
       </c>
-      <c r="F49" s="5" t="s">
-        <v>78</v>
+      <c r="F49" s="6" t="s">
+        <v>77</v>
       </c>
       <c r="G49" s="5" t="s">
-        <v>130</v>
+        <v>161</v>
       </c>
       <c r="H49" s="5">
-        <v>9258</v>
+        <v>9193</v>
       </c>
       <c r="I49" s="9" t="s">
-        <v>106</v>
-      </c>
-      <c r="J49" s="1" t="s">
-        <v>12</v>
+        <v>105</v>
+      </c>
+      <c r="J49" s="7" t="s">
+        <v>22</v>
       </c>
     </row>
     <row r="50" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A50" s="5" t="s">
-        <v>117</v>
+        <v>187</v>
       </c>
       <c r="B50" s="5" t="s">
-        <v>87</v>
+        <v>89</v>
       </c>
       <c r="C50" s="5" t="s">
-        <v>19</v>
-      </c>
-      <c r="D50" s="5" t="s">
-        <v>78</v>
+        <v>20</v>
+      </c>
+      <c r="D50" s="5">
+        <v>2017</v>
       </c>
       <c r="E50" s="5" t="s">
         <v>16</v>
       </c>
-      <c r="F50" s="5" t="s">
-        <v>78</v>
+      <c r="F50" s="6" t="s">
+        <v>77</v>
       </c>
       <c r="G50" s="5" t="s">
-        <v>118</v>
+        <v>188</v>
       </c>
       <c r="H50" s="5">
-        <v>9312</v>
+        <v>9166</v>
       </c>
       <c r="I50" s="9" t="s">
-        <v>106</v>
-      </c>
-      <c r="J50" s="1" t="s">
-        <v>12</v>
+        <v>105</v>
+      </c>
+      <c r="J50" s="7" t="s">
+        <v>22</v>
       </c>
     </row>
     <row r="51" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A51" s="5" t="s">
-        <v>184</v>
+        <v>173</v>
       </c>
       <c r="B51" s="5" t="s">
-        <v>87</v>
+        <v>89</v>
       </c>
       <c r="C51" s="5" t="s">
-        <v>19</v>
-      </c>
-      <c r="D51" s="5" t="s">
-        <v>78</v>
+        <v>20</v>
+      </c>
+      <c r="D51" s="5">
+        <v>2006</v>
       </c>
       <c r="E51" s="5" t="s">
-        <v>57</v>
-      </c>
-      <c r="F51" s="5">
-        <v>1</v>
+        <v>16</v>
+      </c>
+      <c r="F51" s="6" t="s">
+        <v>77</v>
       </c>
       <c r="G51" s="5" t="s">
-        <v>185</v>
+        <v>174</v>
       </c>
       <c r="H51" s="5">
-        <v>9168</v>
+        <v>9185</v>
       </c>
       <c r="I51" s="9" t="s">
-        <v>106</v>
-      </c>
-      <c r="J51" s="1" t="s">
-        <v>98</v>
+        <v>105</v>
+      </c>
+      <c r="J51" s="7" t="s">
+        <v>22</v>
       </c>
     </row>
     <row r="52" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A52" s="5" t="s">
-        <v>123</v>
+        <v>153</v>
       </c>
       <c r="B52" s="5" t="s">
-        <v>87</v>
+        <v>89</v>
       </c>
       <c r="C52" s="5" t="s">
-        <v>19</v>
-      </c>
-      <c r="D52" s="5" t="s">
-        <v>78</v>
+        <v>20</v>
+      </c>
+      <c r="D52" s="5">
+        <v>2005</v>
       </c>
       <c r="E52" s="5" t="s">
-        <v>57</v>
-      </c>
-      <c r="F52" s="5">
-        <v>1</v>
+        <v>16</v>
+      </c>
+      <c r="F52" s="6" t="s">
+        <v>77</v>
       </c>
       <c r="G52" s="5" t="s">
-        <v>124</v>
+        <v>154</v>
       </c>
       <c r="H52" s="5">
-        <v>9270</v>
+        <v>9200</v>
       </c>
       <c r="I52" s="9" t="s">
-        <v>106</v>
-      </c>
-      <c r="J52" s="1" t="s">
-        <v>12</v>
+        <v>105</v>
+      </c>
+      <c r="J52" s="7" t="s">
+        <v>22</v>
       </c>
     </row>
     <row r="53" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A53" s="5" t="s">
-        <v>206</v>
+        <v>149</v>
       </c>
       <c r="B53" s="5" t="s">
-        <v>87</v>
+        <v>89</v>
       </c>
       <c r="C53" s="5" t="s">
-        <v>19</v>
-      </c>
-      <c r="D53" s="5" t="s">
-        <v>78</v>
+        <v>20</v>
+      </c>
+      <c r="D53" s="5">
+        <v>2006</v>
       </c>
       <c r="E53" s="5" t="s">
-        <v>57</v>
-      </c>
-      <c r="F53" s="5">
-        <v>1</v>
+        <v>16</v>
+      </c>
+      <c r="F53" s="6" t="s">
+        <v>77</v>
       </c>
       <c r="G53" s="5" t="s">
-        <v>207</v>
+        <v>150</v>
       </c>
       <c r="H53" s="5">
-        <v>9121</v>
+        <v>9202</v>
       </c>
       <c r="I53" s="9" t="s">
-        <v>106</v>
-      </c>
-      <c r="J53" s="1" t="s">
-        <v>12</v>
+        <v>105</v>
+      </c>
+      <c r="J53" s="7" t="s">
+        <v>22</v>
       </c>
     </row>
     <row r="54" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A54" s="5" t="s">
-        <v>202</v>
+        <v>168</v>
       </c>
       <c r="B54" s="5" t="s">
-        <v>87</v>
+        <v>89</v>
       </c>
       <c r="C54" s="5" t="s">
-        <v>19</v>
-      </c>
-      <c r="D54" s="5" t="s">
-        <v>78</v>
+        <v>20</v>
+      </c>
+      <c r="D54" s="5">
+        <v>2007</v>
       </c>
       <c r="E54" s="5" t="s">
-        <v>57</v>
-      </c>
-      <c r="F54" s="5">
-        <v>1</v>
+        <v>16</v>
+      </c>
+      <c r="F54" s="6" t="s">
+        <v>77</v>
       </c>
       <c r="G54" s="5" t="s">
-        <v>203</v>
+        <v>169</v>
       </c>
       <c r="H54" s="5">
-        <v>9136</v>
+        <v>9191</v>
       </c>
       <c r="I54" s="9" t="s">
-        <v>106</v>
-      </c>
-      <c r="J54" s="1" t="s">
-        <v>12</v>
+        <v>105</v>
+      </c>
+      <c r="J54" s="7" t="s">
+        <v>22</v>
       </c>
     </row>
     <row r="55" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A55" s="5" t="s">
-        <v>208</v>
+        <v>155</v>
       </c>
       <c r="B55" s="5" t="s">
-        <v>87</v>
+        <v>89</v>
       </c>
       <c r="C55" s="5" t="s">
-        <v>19</v>
-      </c>
-      <c r="D55" s="5" t="s">
-        <v>78</v>
+        <v>20</v>
+      </c>
+      <c r="D55" s="5">
+        <v>2007</v>
       </c>
       <c r="E55" s="5" t="s">
-        <v>57</v>
-      </c>
-      <c r="F55" s="5">
-        <v>1</v>
+        <v>16</v>
+      </c>
+      <c r="F55" s="6" t="s">
+        <v>77</v>
       </c>
       <c r="G55" s="5" t="s">
-        <v>209</v>
+        <v>156</v>
       </c>
       <c r="H55" s="5">
-        <v>9119</v>
+        <v>9199</v>
       </c>
       <c r="I55" s="9" t="s">
-        <v>106</v>
-      </c>
-      <c r="J55" s="1" t="s">
-        <v>12</v>
+        <v>105</v>
+      </c>
+      <c r="J55" s="7" t="s">
+        <v>22</v>
       </c>
     </row>
     <row r="56" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A56" s="5" t="s">
-        <v>86</v>
+        <v>172</v>
       </c>
       <c r="B56" s="5" t="s">
-        <v>87</v>
+        <v>89</v>
       </c>
       <c r="C56" s="5" t="s">
-        <v>88</v>
+        <v>20</v>
       </c>
       <c r="D56" s="5">
-        <v>2013</v>
+        <v>2003</v>
       </c>
       <c r="E56" s="5" t="s">
-        <v>57</v>
-      </c>
-      <c r="F56" s="5">
-        <v>1</v>
+        <v>16</v>
+      </c>
+      <c r="F56" s="6" t="s">
+        <v>77</v>
       </c>
       <c r="G56" s="5" t="s">
-        <v>89</v>
+        <v>102</v>
       </c>
       <c r="H56" s="5">
-        <v>2013</v>
-      </c>
-      <c r="I56" s="5">
-        <v>9131</v>
+        <v>9189</v>
+      </c>
+      <c r="I56" s="9" t="s">
+        <v>105</v>
       </c>
       <c r="J56" s="7" t="s">
         <v>22</v>
@@ -3052,863 +3052,860 @@
     </row>
     <row r="57" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A57" s="5" t="s">
-        <v>125</v>
+        <v>170</v>
       </c>
       <c r="B57" s="5" t="s">
-        <v>87</v>
+        <v>89</v>
       </c>
       <c r="C57" s="5" t="s">
-        <v>19</v>
+        <v>20</v>
       </c>
       <c r="D57" s="5">
-        <v>2017</v>
+        <v>2006</v>
       </c>
       <c r="E57" s="5" t="s">
         <v>16</v>
       </c>
-      <c r="F57" s="5" t="s">
-        <v>78</v>
+      <c r="F57" s="6" t="s">
+        <v>77</v>
       </c>
       <c r="G57" s="5" t="s">
-        <v>126</v>
+        <v>171</v>
       </c>
       <c r="H57" s="5">
-        <v>9266</v>
+        <v>9191</v>
       </c>
       <c r="I57" s="9" t="s">
-        <v>106</v>
-      </c>
-      <c r="J57" s="1" t="s">
-        <v>12</v>
+        <v>105</v>
+      </c>
+      <c r="J57" s="7" t="s">
+        <v>22</v>
       </c>
     </row>
     <row r="58" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A58" s="5" t="s">
-        <v>131</v>
+        <v>151</v>
       </c>
       <c r="B58" s="5" t="s">
-        <v>87</v>
+        <v>89</v>
       </c>
       <c r="C58" s="5" t="s">
-        <v>19</v>
+        <v>20</v>
       </c>
       <c r="D58" s="5">
-        <v>2017</v>
+        <v>2004</v>
       </c>
       <c r="E58" s="5" t="s">
         <v>16</v>
       </c>
-      <c r="F58" s="5" t="s">
-        <v>78</v>
+      <c r="F58" s="6" t="s">
+        <v>77</v>
       </c>
       <c r="G58" s="5" t="s">
-        <v>132</v>
+        <v>152</v>
       </c>
       <c r="H58" s="5">
-        <v>9257</v>
+        <v>9201</v>
       </c>
       <c r="I58" s="9" t="s">
-        <v>106</v>
-      </c>
-      <c r="J58" s="1" t="s">
-        <v>12</v>
+        <v>105</v>
+      </c>
+      <c r="J58" s="7" t="s">
+        <v>22</v>
       </c>
     </row>
     <row r="59" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A59" s="5" t="s">
-        <v>121</v>
+        <v>141</v>
       </c>
       <c r="B59" s="5" t="s">
-        <v>87</v>
+        <v>89</v>
       </c>
       <c r="C59" s="5" t="s">
-        <v>19</v>
+        <v>20</v>
       </c>
       <c r="D59" s="5">
-        <v>2017</v>
+        <v>2006</v>
       </c>
       <c r="E59" s="5" t="s">
         <v>16</v>
       </c>
-      <c r="F59" s="5" t="s">
-        <v>78</v>
+      <c r="F59" s="6" t="s">
+        <v>77</v>
       </c>
       <c r="G59" s="5" t="s">
-        <v>122</v>
+        <v>142</v>
       </c>
       <c r="H59" s="5">
-        <v>9276</v>
+        <v>9206</v>
       </c>
       <c r="I59" s="9" t="s">
-        <v>106</v>
-      </c>
-      <c r="J59" s="1" t="s">
-        <v>12</v>
+        <v>105</v>
+      </c>
+      <c r="J59" s="7" t="s">
+        <v>22</v>
       </c>
     </row>
     <row r="60" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A60" s="5" t="s">
-        <v>127</v>
+        <v>145</v>
       </c>
       <c r="B60" s="5" t="s">
-        <v>87</v>
+        <v>89</v>
       </c>
       <c r="C60" s="5" t="s">
-        <v>19</v>
+        <v>20</v>
       </c>
       <c r="D60" s="5">
-        <v>2017</v>
+        <v>2007</v>
       </c>
       <c r="E60" s="5" t="s">
         <v>16</v>
       </c>
-      <c r="F60" s="5" t="s">
-        <v>78</v>
+      <c r="F60" s="6" t="s">
+        <v>77</v>
       </c>
       <c r="G60" s="5" t="s">
-        <v>128</v>
+        <v>146</v>
       </c>
       <c r="H60" s="5">
-        <v>9265</v>
+        <v>9203</v>
       </c>
       <c r="I60" s="9" t="s">
-        <v>106</v>
-      </c>
-      <c r="J60" s="1" t="s">
-        <v>12</v>
+        <v>105</v>
+      </c>
+      <c r="J60" s="7" t="s">
+        <v>22</v>
       </c>
     </row>
     <row r="61" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A61" s="5" t="s">
-        <v>190</v>
+        <v>134</v>
       </c>
       <c r="B61" s="5" t="s">
-        <v>90</v>
+        <v>89</v>
       </c>
       <c r="C61" s="5" t="s">
-        <v>19</v>
+        <v>20</v>
       </c>
       <c r="D61" s="5">
-        <v>2017</v>
+        <v>2006</v>
       </c>
       <c r="E61" s="5" t="s">
         <v>16</v>
       </c>
-      <c r="F61" s="5" t="s">
-        <v>78</v>
+      <c r="F61" s="6" t="s">
+        <v>77</v>
       </c>
       <c r="G61" s="5" t="s">
-        <v>191</v>
+        <v>135</v>
       </c>
       <c r="H61" s="5">
-        <v>9164</v>
+        <v>9215</v>
       </c>
       <c r="I61" s="9" t="s">
-        <v>106</v>
-      </c>
-      <c r="J61" s="1" t="s">
-        <v>12</v>
+        <v>105</v>
+      </c>
+      <c r="J61" s="7" t="s">
+        <v>22</v>
       </c>
     </row>
     <row r="62" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A62" s="5" t="s">
-        <v>212</v>
+        <v>175</v>
       </c>
       <c r="B62" s="5" t="s">
-        <v>90</v>
+        <v>89</v>
       </c>
       <c r="C62" s="5" t="s">
-        <v>19</v>
+        <v>20</v>
       </c>
       <c r="D62" s="5">
-        <v>2017</v>
+        <v>2006</v>
       </c>
       <c r="E62" s="5" t="s">
-        <v>57</v>
-      </c>
-      <c r="F62" s="5">
-        <v>1</v>
+        <v>16</v>
+      </c>
+      <c r="F62" s="6" t="s">
+        <v>77</v>
       </c>
       <c r="G62" s="5" t="s">
-        <v>213</v>
+        <v>176</v>
       </c>
       <c r="H62" s="5">
-        <v>8908</v>
+        <v>9172</v>
       </c>
       <c r="I62" s="9" t="s">
-        <v>106</v>
-      </c>
-      <c r="J62" s="1" t="s">
-        <v>12</v>
+        <v>105</v>
+      </c>
+      <c r="J62" s="7" t="s">
+        <v>22</v>
       </c>
     </row>
     <row r="63" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A63" s="5" t="s">
-        <v>194</v>
+        <v>143</v>
       </c>
       <c r="B63" s="5" t="s">
-        <v>87</v>
+        <v>89</v>
       </c>
       <c r="C63" s="5" t="s">
-        <v>19</v>
-      </c>
-      <c r="D63" s="5" t="s">
-        <v>78</v>
+        <v>20</v>
+      </c>
+      <c r="D63" s="5">
+        <v>2006</v>
       </c>
       <c r="E63" s="5" t="s">
-        <v>57</v>
-      </c>
-      <c r="F63" s="5">
-        <v>1</v>
+        <v>16</v>
+      </c>
+      <c r="F63" s="6" t="s">
+        <v>77</v>
       </c>
       <c r="G63" s="5" t="s">
-        <v>195</v>
+        <v>144</v>
       </c>
       <c r="H63" s="5">
-        <v>9158</v>
+        <v>9204</v>
       </c>
       <c r="I63" s="9" t="s">
-        <v>106</v>
-      </c>
-      <c r="J63" s="1" t="s">
-        <v>12</v>
+        <v>105</v>
+      </c>
+      <c r="J63" s="7" t="s">
+        <v>22</v>
       </c>
     </row>
     <row r="64" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A64" s="5" t="s">
-        <v>204</v>
+        <v>162</v>
       </c>
       <c r="B64" s="5" t="s">
-        <v>87</v>
+        <v>89</v>
       </c>
       <c r="C64" s="5" t="s">
-        <v>19</v>
+        <v>98</v>
       </c>
       <c r="D64" s="5">
-        <v>1989</v>
+        <v>2020</v>
       </c>
       <c r="E64" s="5" t="s">
-        <v>57</v>
-      </c>
-      <c r="F64" s="5">
-        <v>1</v>
+        <v>16</v>
+      </c>
+      <c r="F64" s="6" t="s">
+        <v>77</v>
       </c>
       <c r="G64" s="5" t="s">
-        <v>205</v>
+        <v>163</v>
       </c>
       <c r="H64" s="5">
-        <v>9135</v>
+        <v>9193</v>
       </c>
       <c r="I64" s="9" t="s">
-        <v>106</v>
+        <v>105</v>
       </c>
       <c r="J64" s="1" t="s">
-        <v>12</v>
+        <v>97</v>
       </c>
     </row>
     <row r="65" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A65" s="5" t="s">
-        <v>115</v>
+        <v>74</v>
       </c>
       <c r="B65" s="5" t="s">
-        <v>87</v>
+        <v>89</v>
       </c>
       <c r="C65" s="5" t="s">
-        <v>19</v>
+        <v>75</v>
       </c>
       <c r="D65" s="5">
-        <v>2017</v>
+        <v>1984</v>
       </c>
       <c r="E65" s="5" t="s">
         <v>16</v>
       </c>
-      <c r="F65" s="5" t="s">
-        <v>78</v>
+      <c r="F65" s="6">
+        <v>1</v>
       </c>
       <c r="G65" s="5" t="s">
-        <v>116</v>
+        <v>76</v>
       </c>
       <c r="H65" s="5">
-        <v>9316</v>
-      </c>
-      <c r="I65" s="9" t="s">
-        <v>106</v>
-      </c>
-      <c r="J65" s="1" t="s">
+        <v>9203</v>
+      </c>
+      <c r="I65" s="5" t="s">
+        <v>14</v>
+      </c>
+      <c r="J65" s="7" t="s">
         <v>12</v>
       </c>
     </row>
     <row r="66" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A66" s="5" t="s">
-        <v>158</v>
+        <v>58</v>
       </c>
       <c r="B66" s="5" t="s">
-        <v>90</v>
+        <v>89</v>
       </c>
       <c r="C66" s="5" t="s">
-        <v>20</v>
+        <v>10</v>
       </c>
       <c r="D66" s="5">
-        <v>2017</v>
+        <v>1994</v>
       </c>
       <c r="E66" s="5" t="s">
         <v>16</v>
       </c>
-      <c r="F66" s="5" t="s">
-        <v>78</v>
+      <c r="F66" s="6">
+        <v>6</v>
       </c>
       <c r="G66" s="5">
-        <v>1150</v>
+        <v>676</v>
       </c>
       <c r="H66" s="5">
-        <v>9195</v>
-      </c>
-      <c r="I66" s="9" t="s">
-        <v>106</v>
+        <v>475</v>
+      </c>
+      <c r="I66" s="5" t="s">
+        <v>13</v>
       </c>
       <c r="J66" s="7" t="s">
-        <v>22</v>
+        <v>12</v>
       </c>
     </row>
     <row r="67" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A67" s="5" t="s">
-        <v>214</v>
+        <v>64</v>
       </c>
       <c r="B67" s="5" t="s">
-        <v>87</v>
+        <v>89</v>
       </c>
       <c r="C67" s="5" t="s">
-        <v>19</v>
+        <v>65</v>
       </c>
       <c r="D67" s="5">
-        <v>2015</v>
+        <v>2007</v>
       </c>
       <c r="E67" s="5" t="s">
-        <v>57</v>
-      </c>
-      <c r="F67" s="5">
+        <v>16</v>
+      </c>
+      <c r="F67" s="6" t="s">
+        <v>77</v>
+      </c>
+      <c r="G67" s="5" t="s">
+        <v>66</v>
+      </c>
+      <c r="H67" s="5">
+        <v>9136</v>
+      </c>
+      <c r="I67" s="5" t="s">
+        <v>14</v>
+      </c>
+      <c r="J67" s="7" t="s">
+        <v>67</v>
+      </c>
+    </row>
+    <row r="68" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="A68" s="1" t="s">
+        <v>103</v>
+      </c>
+      <c r="B68" s="5" t="s">
+        <v>86</v>
+      </c>
+      <c r="C68" s="1" t="s">
+        <v>98</v>
+      </c>
+      <c r="D68" s="1">
+        <v>1992</v>
+      </c>
+      <c r="E68" s="9" t="s">
+        <v>94</v>
+      </c>
+      <c r="F68" s="3">
         <v>1</v>
       </c>
-      <c r="G67" s="5" t="s">
-        <v>215</v>
-      </c>
-      <c r="H67" s="5">
-        <v>6378</v>
-      </c>
-      <c r="I67" s="9" t="s">
-        <v>106</v>
-      </c>
-      <c r="J67" s="1" t="s">
-        <v>12</v>
-      </c>
-    </row>
-    <row r="68" spans="1:10" x14ac:dyDescent="0.2">
-      <c r="A68" s="5" t="s">
-        <v>141</v>
-      </c>
-      <c r="B68" s="5" t="s">
-        <v>90</v>
-      </c>
-      <c r="C68" s="5" t="s">
-        <v>20</v>
-      </c>
-      <c r="D68" s="5">
-        <v>2006</v>
-      </c>
-      <c r="E68" s="5" t="s">
-        <v>16</v>
-      </c>
-      <c r="F68" s="5" t="s">
-        <v>78</v>
-      </c>
-      <c r="G68" s="5" t="s">
-        <v>101</v>
-      </c>
-      <c r="H68" s="5">
-        <v>9206</v>
+      <c r="G68" t="s">
+        <v>104</v>
+      </c>
+      <c r="H68" s="1">
+        <v>9186</v>
       </c>
       <c r="I68" s="9" t="s">
-        <v>106</v>
-      </c>
-      <c r="J68" s="7" t="s">
-        <v>22</v>
+        <v>105</v>
+      </c>
+      <c r="J68" s="1" t="s">
+        <v>97</v>
       </c>
     </row>
     <row r="69" spans="1:10" x14ac:dyDescent="0.2">
-      <c r="A69" s="5" t="s">
-        <v>165</v>
+      <c r="A69" s="1" t="s">
+        <v>93</v>
       </c>
       <c r="B69" s="5" t="s">
-        <v>90</v>
+        <v>89</v>
       </c>
       <c r="C69" s="5" t="s">
-        <v>20</v>
-      </c>
-      <c r="D69" s="5">
-        <v>2006</v>
-      </c>
-      <c r="E69" s="5" t="s">
-        <v>16</v>
-      </c>
-      <c r="F69" s="5" t="s">
-        <v>78</v>
-      </c>
-      <c r="G69" s="5" t="s">
-        <v>166</v>
-      </c>
-      <c r="H69" s="5">
-        <v>9192</v>
-      </c>
-      <c r="I69" s="9" t="s">
-        <v>106</v>
-      </c>
-      <c r="J69" s="7" t="s">
-        <v>22</v>
+        <v>79</v>
+      </c>
+      <c r="D69" s="1">
+        <v>2004</v>
+      </c>
+      <c r="E69" s="9" t="s">
+        <v>94</v>
+      </c>
+      <c r="F69" s="6">
+        <v>1</v>
+      </c>
+      <c r="G69" s="1">
+        <v>496</v>
+      </c>
+      <c r="H69" s="1">
+        <v>9136</v>
+      </c>
+      <c r="I69" s="1" t="s">
+        <v>14</v>
+      </c>
+      <c r="J69" s="1" t="s">
+        <v>12</v>
       </c>
     </row>
     <row r="70" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A70" s="5" t="s">
-        <v>180</v>
+        <v>95</v>
       </c>
       <c r="B70" s="5" t="s">
-        <v>90</v>
+        <v>86</v>
       </c>
       <c r="C70" s="5" t="s">
-        <v>20</v>
+        <v>98</v>
       </c>
       <c r="D70" s="5">
-        <v>2006</v>
+        <v>2009</v>
       </c>
       <c r="E70" s="5" t="s">
-        <v>16</v>
-      </c>
-      <c r="F70" s="5" t="s">
-        <v>78</v>
+        <v>94</v>
+      </c>
+      <c r="F70" s="6">
+        <v>1</v>
       </c>
       <c r="G70" s="5" t="s">
-        <v>181</v>
+        <v>96</v>
       </c>
       <c r="H70" s="5">
-        <v>9171</v>
-      </c>
-      <c r="I70" s="9" t="s">
-        <v>106</v>
-      </c>
-      <c r="J70" s="7" t="s">
-        <v>22</v>
+        <v>9065</v>
+      </c>
+      <c r="I70" s="1" t="s">
+        <v>14</v>
+      </c>
+      <c r="J70" s="1" t="s">
+        <v>97</v>
       </c>
     </row>
     <row r="71" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A71" s="5" t="s">
-        <v>186</v>
+        <v>223</v>
       </c>
       <c r="B71" s="5" t="s">
-        <v>90</v>
+        <v>9</v>
       </c>
       <c r="C71" s="5" t="s">
-        <v>20</v>
+        <v>87</v>
       </c>
       <c r="D71" s="5">
-        <v>2006</v>
+        <v>2004</v>
       </c>
       <c r="E71" s="5" t="s">
-        <v>16</v>
-      </c>
-      <c r="F71" s="5" t="s">
-        <v>78</v>
+        <v>94</v>
+      </c>
+      <c r="F71" s="6" t="s">
+        <v>77</v>
       </c>
       <c r="G71" s="5" t="s">
-        <v>187</v>
+        <v>224</v>
       </c>
       <c r="H71" s="5">
-        <v>9166</v>
-      </c>
-      <c r="I71" s="9" t="s">
-        <v>106</v>
-      </c>
-      <c r="J71" s="7" t="s">
+        <v>9090</v>
+      </c>
+      <c r="I71" s="1" t="s">
+        <v>14</v>
+      </c>
+      <c r="J71" s="1" t="s">
         <v>22</v>
       </c>
     </row>
     <row r="72" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A72" s="5" t="s">
-        <v>148</v>
+        <v>199</v>
       </c>
       <c r="B72" s="5" t="s">
-        <v>90</v>
+        <v>86</v>
       </c>
       <c r="C72" s="5" t="s">
-        <v>20</v>
+        <v>98</v>
       </c>
       <c r="D72" s="5">
-        <v>2006</v>
+        <v>1993</v>
       </c>
       <c r="E72" s="5" t="s">
-        <v>16</v>
-      </c>
-      <c r="F72" s="5" t="s">
-        <v>78</v>
+        <v>57</v>
+      </c>
+      <c r="F72" s="6">
+        <v>1</v>
       </c>
       <c r="G72" s="5" t="s">
-        <v>149</v>
+        <v>200</v>
       </c>
       <c r="H72" s="5">
-        <v>9202</v>
+        <v>9138</v>
       </c>
       <c r="I72" s="9" t="s">
-        <v>106</v>
-      </c>
-      <c r="J72" s="7" t="s">
-        <v>22</v>
+        <v>105</v>
       </c>
     </row>
     <row r="73" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A73" s="5" t="s">
-        <v>159</v>
+        <v>177</v>
       </c>
       <c r="B73" s="5" t="s">
-        <v>90</v>
+        <v>86</v>
       </c>
       <c r="C73" s="5" t="s">
-        <v>20</v>
+        <v>98</v>
       </c>
       <c r="D73" s="5">
-        <v>2007</v>
+        <v>1993</v>
       </c>
       <c r="E73" s="5" t="s">
-        <v>16</v>
-      </c>
-      <c r="F73" s="5" t="s">
-        <v>78</v>
+        <v>57</v>
+      </c>
+      <c r="F73" s="6">
+        <v>1</v>
       </c>
       <c r="G73" s="5" t="s">
-        <v>160</v>
+        <v>178</v>
       </c>
       <c r="H73" s="5">
-        <v>9194</v>
+        <v>9172</v>
       </c>
       <c r="I73" s="9" t="s">
-        <v>106</v>
-      </c>
-      <c r="J73" s="7" t="s">
-        <v>22</v>
+        <v>105</v>
+      </c>
+      <c r="J73" s="1" t="s">
+        <v>97</v>
       </c>
     </row>
     <row r="74" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A74" s="5" t="s">
-        <v>137</v>
+        <v>191</v>
       </c>
       <c r="B74" s="5" t="s">
-        <v>90</v>
+        <v>86</v>
       </c>
       <c r="C74" s="5" t="s">
-        <v>20</v>
+        <v>98</v>
       </c>
       <c r="D74" s="5">
-        <v>2006</v>
+        <v>1993</v>
       </c>
       <c r="E74" s="5" t="s">
-        <v>16</v>
-      </c>
-      <c r="F74" s="5" t="s">
-        <v>78</v>
+        <v>57</v>
+      </c>
+      <c r="F74" s="6">
+        <v>1</v>
       </c>
       <c r="G74" s="5" t="s">
-        <v>138</v>
+        <v>192</v>
       </c>
       <c r="H74" s="5">
-        <v>9207</v>
+        <v>9163</v>
       </c>
       <c r="I74" s="9" t="s">
-        <v>106</v>
-      </c>
-      <c r="J74" s="7" t="s">
-        <v>22</v>
+        <v>105</v>
+      </c>
+      <c r="J74" s="1" t="s">
+        <v>97</v>
       </c>
     </row>
     <row r="75" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A75" s="5" t="s">
-        <v>167</v>
+        <v>209</v>
       </c>
       <c r="B75" s="5" t="s">
-        <v>90</v>
+        <v>86</v>
       </c>
       <c r="C75" s="5" t="s">
-        <v>20</v>
-      </c>
-      <c r="D75" s="5">
-        <v>2007</v>
+        <v>98</v>
+      </c>
+      <c r="D75" s="5" t="s">
+        <v>77</v>
       </c>
       <c r="E75" s="5" t="s">
-        <v>16</v>
-      </c>
-      <c r="F75" s="5" t="s">
-        <v>78</v>
+        <v>57</v>
+      </c>
+      <c r="F75" s="6">
+        <v>1</v>
       </c>
       <c r="G75" s="5" t="s">
-        <v>168</v>
+        <v>210</v>
       </c>
       <c r="H75" s="5">
-        <v>9192</v>
+        <v>9118</v>
       </c>
       <c r="I75" s="9" t="s">
-        <v>106</v>
-      </c>
-      <c r="J75" s="7" t="s">
-        <v>22</v>
+        <v>105</v>
+      </c>
+      <c r="J75" s="1" t="s">
+        <v>97</v>
       </c>
     </row>
     <row r="76" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A76" s="5" t="s">
-        <v>161</v>
+        <v>181</v>
       </c>
       <c r="B76" s="5" t="s">
-        <v>90</v>
+        <v>86</v>
       </c>
       <c r="C76" s="5" t="s">
-        <v>20</v>
-      </c>
-      <c r="D76" s="5">
-        <v>2006</v>
+        <v>98</v>
+      </c>
+      <c r="D76" s="5" t="s">
+        <v>77</v>
       </c>
       <c r="E76" s="5" t="s">
-        <v>16</v>
-      </c>
-      <c r="F76" s="5" t="s">
-        <v>78</v>
+        <v>57</v>
+      </c>
+      <c r="F76" s="6">
+        <v>1</v>
       </c>
       <c r="G76" s="5" t="s">
-        <v>162</v>
+        <v>182</v>
       </c>
       <c r="H76" s="5">
-        <v>9193</v>
+        <v>9171</v>
       </c>
       <c r="I76" s="9" t="s">
-        <v>106</v>
-      </c>
-      <c r="J76" s="7" t="s">
-        <v>22</v>
+        <v>105</v>
+      </c>
+      <c r="J76" s="1" t="s">
+        <v>97</v>
       </c>
     </row>
     <row r="77" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A77" s="5" t="s">
-        <v>188</v>
+        <v>195</v>
       </c>
       <c r="B77" s="5" t="s">
-        <v>90</v>
+        <v>89</v>
       </c>
       <c r="C77" s="5" t="s">
-        <v>20</v>
-      </c>
-      <c r="D77" s="5">
-        <v>2017</v>
+        <v>19</v>
+      </c>
+      <c r="D77" s="5" t="s">
+        <v>77</v>
       </c>
       <c r="E77" s="5" t="s">
-        <v>16</v>
-      </c>
-      <c r="F77" s="5" t="s">
-        <v>78</v>
+        <v>57</v>
+      </c>
+      <c r="F77" s="6">
+        <v>1</v>
       </c>
       <c r="G77" s="5" t="s">
-        <v>189</v>
+        <v>196</v>
       </c>
       <c r="H77" s="5">
-        <v>9166</v>
+        <v>9145</v>
       </c>
       <c r="I77" s="9" t="s">
-        <v>106</v>
-      </c>
-      <c r="J77" s="7" t="s">
-        <v>22</v>
+        <v>105</v>
+      </c>
+      <c r="J77" s="1" t="s">
+        <v>12</v>
       </c>
     </row>
     <row r="78" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A78" s="5" t="s">
-        <v>174</v>
+        <v>183</v>
       </c>
       <c r="B78" s="5" t="s">
-        <v>90</v>
+        <v>86</v>
       </c>
       <c r="C78" s="5" t="s">
-        <v>20</v>
-      </c>
-      <c r="D78" s="5">
-        <v>2006</v>
+        <v>19</v>
+      </c>
+      <c r="D78" s="5" t="s">
+        <v>77</v>
       </c>
       <c r="E78" s="5" t="s">
-        <v>16</v>
-      </c>
-      <c r="F78" s="5" t="s">
-        <v>78</v>
+        <v>57</v>
+      </c>
+      <c r="F78" s="6">
+        <v>1</v>
       </c>
       <c r="G78" s="5" t="s">
-        <v>175</v>
+        <v>184</v>
       </c>
       <c r="H78" s="5">
-        <v>9185</v>
+        <v>9168</v>
       </c>
       <c r="I78" s="9" t="s">
-        <v>106</v>
-      </c>
-      <c r="J78" s="7" t="s">
-        <v>22</v>
+        <v>105</v>
+      </c>
+      <c r="J78" s="1" t="s">
+        <v>97</v>
       </c>
     </row>
     <row r="79" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A79" s="5" t="s">
-        <v>154</v>
+        <v>122</v>
       </c>
       <c r="B79" s="5" t="s">
-        <v>90</v>
+        <v>86</v>
       </c>
       <c r="C79" s="5" t="s">
-        <v>20</v>
-      </c>
-      <c r="D79" s="5">
-        <v>2005</v>
+        <v>19</v>
+      </c>
+      <c r="D79" s="5" t="s">
+        <v>77</v>
       </c>
       <c r="E79" s="5" t="s">
-        <v>16</v>
-      </c>
-      <c r="F79" s="5" t="s">
-        <v>78</v>
+        <v>57</v>
+      </c>
+      <c r="F79" s="6">
+        <v>1</v>
       </c>
       <c r="G79" s="5" t="s">
-        <v>155</v>
+        <v>123</v>
       </c>
       <c r="H79" s="5">
-        <v>9200</v>
+        <v>9270</v>
       </c>
       <c r="I79" s="9" t="s">
-        <v>106</v>
-      </c>
-      <c r="J79" s="7" t="s">
-        <v>22</v>
+        <v>105</v>
+      </c>
+      <c r="J79" s="1" t="s">
+        <v>12</v>
       </c>
     </row>
     <row r="80" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A80" s="5" t="s">
-        <v>150</v>
+        <v>205</v>
       </c>
       <c r="B80" s="5" t="s">
-        <v>90</v>
+        <v>86</v>
       </c>
       <c r="C80" s="5" t="s">
-        <v>20</v>
-      </c>
-      <c r="D80" s="5">
-        <v>2006</v>
+        <v>19</v>
+      </c>
+      <c r="D80" s="5" t="s">
+        <v>77</v>
       </c>
       <c r="E80" s="5" t="s">
-        <v>16</v>
-      </c>
-      <c r="F80" s="5" t="s">
-        <v>78</v>
+        <v>57</v>
+      </c>
+      <c r="F80" s="6">
+        <v>1</v>
       </c>
       <c r="G80" s="5" t="s">
-        <v>151</v>
+        <v>206</v>
       </c>
       <c r="H80" s="5">
-        <v>9202</v>
+        <v>9121</v>
       </c>
       <c r="I80" s="9" t="s">
-        <v>106</v>
-      </c>
-      <c r="J80" s="7" t="s">
-        <v>22</v>
+        <v>105</v>
+      </c>
+      <c r="J80" s="1" t="s">
+        <v>12</v>
       </c>
     </row>
     <row r="81" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A81" s="5" t="s">
-        <v>169</v>
+        <v>201</v>
       </c>
       <c r="B81" s="5" t="s">
-        <v>90</v>
+        <v>86</v>
       </c>
       <c r="C81" s="5" t="s">
-        <v>20</v>
-      </c>
-      <c r="D81" s="5">
-        <v>2007</v>
+        <v>19</v>
+      </c>
+      <c r="D81" s="5" t="s">
+        <v>77</v>
       </c>
       <c r="E81" s="5" t="s">
-        <v>16</v>
-      </c>
-      <c r="F81" s="5" t="s">
-        <v>78</v>
+        <v>57</v>
+      </c>
+      <c r="F81" s="6">
+        <v>1</v>
       </c>
       <c r="G81" s="5" t="s">
-        <v>170</v>
+        <v>202</v>
       </c>
       <c r="H81" s="5">
-        <v>9191</v>
+        <v>9136</v>
       </c>
       <c r="I81" s="9" t="s">
-        <v>106</v>
-      </c>
-      <c r="J81" s="7" t="s">
-        <v>22</v>
+        <v>105</v>
+      </c>
+      <c r="J81" s="1" t="s">
+        <v>12</v>
       </c>
     </row>
     <row r="82" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A82" s="5" t="s">
-        <v>156</v>
+        <v>207</v>
       </c>
       <c r="B82" s="5" t="s">
-        <v>90</v>
+        <v>86</v>
       </c>
       <c r="C82" s="5" t="s">
-        <v>20</v>
-      </c>
-      <c r="D82" s="5">
-        <v>2007</v>
+        <v>19</v>
+      </c>
+      <c r="D82" s="5" t="s">
+        <v>77</v>
       </c>
       <c r="E82" s="5" t="s">
-        <v>16</v>
-      </c>
-      <c r="F82" s="5" t="s">
-        <v>78</v>
+        <v>57</v>
+      </c>
+      <c r="F82" s="6">
+        <v>1</v>
       </c>
       <c r="G82" s="5" t="s">
-        <v>157</v>
+        <v>208</v>
       </c>
       <c r="H82" s="5">
-        <v>9199</v>
+        <v>9119</v>
       </c>
       <c r="I82" s="9" t="s">
-        <v>106</v>
-      </c>
-      <c r="J82" s="7" t="s">
-        <v>22</v>
+        <v>105</v>
+      </c>
+      <c r="J82" s="1" t="s">
+        <v>12</v>
       </c>
     </row>
     <row r="83" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A83" s="5" t="s">
-        <v>173</v>
+        <v>85</v>
       </c>
       <c r="B83" s="5" t="s">
-        <v>90</v>
+        <v>86</v>
       </c>
       <c r="C83" s="5" t="s">
-        <v>20</v>
+        <v>87</v>
       </c>
       <c r="D83" s="5">
-        <v>2003</v>
+        <v>2013</v>
       </c>
       <c r="E83" s="5" t="s">
-        <v>16</v>
-      </c>
-      <c r="F83" s="5" t="s">
-        <v>78</v>
+        <v>57</v>
+      </c>
+      <c r="F83" s="6">
+        <v>1</v>
       </c>
       <c r="G83" s="5" t="s">
-        <v>103</v>
+        <v>88</v>
       </c>
       <c r="H83" s="5">
-        <v>9189</v>
-      </c>
-      <c r="I83" s="9" t="s">
-        <v>106</v>
+        <v>2013</v>
+      </c>
+      <c r="I83" s="5">
+        <v>9131</v>
       </c>
       <c r="J83" s="7" t="s">
         <v>22</v>
@@ -3916,159 +3913,159 @@
     </row>
     <row r="84" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A84" s="5" t="s">
-        <v>171</v>
+        <v>211</v>
       </c>
       <c r="B84" s="5" t="s">
-        <v>90</v>
+        <v>89</v>
       </c>
       <c r="C84" s="5" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="D84" s="5">
-        <v>2006</v>
+        <v>2017</v>
       </c>
       <c r="E84" s="5" t="s">
-        <v>16</v>
-      </c>
-      <c r="F84" s="5" t="s">
-        <v>78</v>
+        <v>57</v>
+      </c>
+      <c r="F84" s="6">
+        <v>1</v>
       </c>
       <c r="G84" s="5" t="s">
-        <v>172</v>
+        <v>212</v>
       </c>
       <c r="H84" s="5">
-        <v>9191</v>
+        <v>8908</v>
       </c>
       <c r="I84" s="9" t="s">
-        <v>106</v>
-      </c>
-      <c r="J84" s="7" t="s">
-        <v>22</v>
+        <v>105</v>
+      </c>
+      <c r="J84" s="1" t="s">
+        <v>12</v>
       </c>
     </row>
     <row r="85" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A85" s="5" t="s">
-        <v>152</v>
+        <v>193</v>
       </c>
       <c r="B85" s="5" t="s">
-        <v>90</v>
+        <v>86</v>
       </c>
       <c r="C85" s="5" t="s">
-        <v>20</v>
-      </c>
-      <c r="D85" s="5">
-        <v>2004</v>
+        <v>19</v>
+      </c>
+      <c r="D85" s="5" t="s">
+        <v>77</v>
       </c>
       <c r="E85" s="5" t="s">
-        <v>16</v>
-      </c>
-      <c r="F85" s="5" t="s">
-        <v>78</v>
+        <v>57</v>
+      </c>
+      <c r="F85" s="6">
+        <v>1</v>
       </c>
       <c r="G85" s="5" t="s">
-        <v>153</v>
+        <v>194</v>
       </c>
       <c r="H85" s="5">
-        <v>9201</v>
+        <v>9158</v>
       </c>
       <c r="I85" s="9" t="s">
-        <v>106</v>
-      </c>
-      <c r="J85" s="7" t="s">
-        <v>22</v>
+        <v>105</v>
+      </c>
+      <c r="J85" s="1" t="s">
+        <v>12</v>
       </c>
     </row>
     <row r="86" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A86" s="5" t="s">
-        <v>142</v>
+        <v>203</v>
       </c>
       <c r="B86" s="5" t="s">
-        <v>90</v>
+        <v>86</v>
       </c>
       <c r="C86" s="5" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="D86" s="5">
-        <v>2006</v>
+        <v>1989</v>
       </c>
       <c r="E86" s="5" t="s">
-        <v>16</v>
-      </c>
-      <c r="F86" s="5" t="s">
-        <v>78</v>
+        <v>57</v>
+      </c>
+      <c r="F86" s="6">
+        <v>1</v>
       </c>
       <c r="G86" s="5" t="s">
-        <v>143</v>
+        <v>204</v>
       </c>
       <c r="H86" s="5">
-        <v>9206</v>
+        <v>9135</v>
       </c>
       <c r="I86" s="9" t="s">
-        <v>106</v>
-      </c>
-      <c r="J86" s="7" t="s">
-        <v>22</v>
+        <v>105</v>
+      </c>
+      <c r="J86" s="1" t="s">
+        <v>12</v>
       </c>
     </row>
     <row r="87" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A87" s="5" t="s">
-        <v>146</v>
+        <v>213</v>
       </c>
       <c r="B87" s="5" t="s">
-        <v>90</v>
+        <v>86</v>
       </c>
       <c r="C87" s="5" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="D87" s="5">
-        <v>2007</v>
+        <v>2015</v>
       </c>
       <c r="E87" s="5" t="s">
-        <v>16</v>
-      </c>
-      <c r="F87" s="5" t="s">
-        <v>78</v>
+        <v>57</v>
+      </c>
+      <c r="F87" s="6">
+        <v>1</v>
       </c>
       <c r="G87" s="5" t="s">
-        <v>147</v>
+        <v>214</v>
       </c>
       <c r="H87" s="5">
-        <v>9203</v>
+        <v>6378</v>
       </c>
       <c r="I87" s="9" t="s">
-        <v>106</v>
-      </c>
-      <c r="J87" s="7" t="s">
-        <v>22</v>
+        <v>105</v>
+      </c>
+      <c r="J87" s="1" t="s">
+        <v>12</v>
       </c>
     </row>
     <row r="88" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A88" s="5" t="s">
-        <v>135</v>
+        <v>54</v>
       </c>
       <c r="B88" s="5" t="s">
-        <v>90</v>
+        <v>86</v>
       </c>
       <c r="C88" s="5" t="s">
         <v>20</v>
       </c>
       <c r="D88" s="5">
-        <v>2006</v>
+        <v>1974</v>
       </c>
       <c r="E88" s="5" t="s">
-        <v>16</v>
-      </c>
-      <c r="F88" s="5" t="s">
-        <v>78</v>
+        <v>57</v>
+      </c>
+      <c r="F88" s="6">
+        <v>1</v>
       </c>
       <c r="G88" s="5" t="s">
-        <v>136</v>
+        <v>55</v>
       </c>
       <c r="H88" s="5">
-        <v>9215</v>
-      </c>
-      <c r="I88" s="9" t="s">
-        <v>106</v>
+        <v>9189</v>
+      </c>
+      <c r="I88" s="5" t="s">
+        <v>14</v>
       </c>
       <c r="J88" s="7" t="s">
         <v>22</v>
@@ -4076,191 +4073,191 @@
     </row>
     <row r="89" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A89" s="5" t="s">
-        <v>176</v>
+        <v>215</v>
       </c>
       <c r="B89" s="5" t="s">
-        <v>90</v>
+        <v>89</v>
       </c>
       <c r="C89" s="5" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="D89" s="5">
-        <v>2006</v>
+        <v>2003</v>
       </c>
       <c r="E89" s="5" t="s">
-        <v>16</v>
-      </c>
-      <c r="F89" s="5" t="s">
-        <v>78</v>
+        <v>217</v>
+      </c>
+      <c r="F89" s="6" t="s">
+        <v>77</v>
       </c>
       <c r="G89" s="5" t="s">
-        <v>177</v>
+        <v>220</v>
       </c>
       <c r="H89" s="5">
-        <v>9172</v>
-      </c>
-      <c r="I89" s="9" t="s">
-        <v>106</v>
-      </c>
-      <c r="J89" s="7" t="s">
-        <v>22</v>
+        <v>9148</v>
+      </c>
+      <c r="I89" s="5" t="s">
+        <v>14</v>
+      </c>
+      <c r="J89" s="1" t="s">
+        <v>12</v>
       </c>
     </row>
     <row r="90" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A90" s="5" t="s">
-        <v>144</v>
+        <v>216</v>
       </c>
       <c r="B90" s="5" t="s">
-        <v>90</v>
+        <v>89</v>
       </c>
       <c r="C90" s="5" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="D90" s="5">
-        <v>2006</v>
+        <v>2004</v>
       </c>
       <c r="E90" s="5" t="s">
-        <v>16</v>
-      </c>
-      <c r="F90" s="5" t="s">
-        <v>78</v>
+        <v>217</v>
+      </c>
+      <c r="F90" s="6" t="s">
+        <v>77</v>
       </c>
       <c r="G90" s="5" t="s">
-        <v>145</v>
-      </c>
-      <c r="H90" s="5">
-        <v>9204</v>
-      </c>
-      <c r="I90" s="9" t="s">
-        <v>106</v>
-      </c>
-      <c r="J90" s="7" t="s">
-        <v>22</v>
+        <v>219</v>
+      </c>
+      <c r="H90" s="5" t="s">
+        <v>218</v>
+      </c>
+      <c r="I90" s="5" t="s">
+        <v>14</v>
+      </c>
+      <c r="J90" s="1" t="s">
+        <v>12</v>
       </c>
     </row>
     <row r="91" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A91" s="5" t="s">
-        <v>163</v>
+        <v>60</v>
       </c>
       <c r="B91" s="5" t="s">
-        <v>90</v>
+        <v>86</v>
       </c>
       <c r="C91" s="5" t="s">
-        <v>99</v>
+        <v>63</v>
       </c>
       <c r="D91" s="5">
-        <v>2020</v>
+        <v>1991</v>
       </c>
       <c r="E91" s="5" t="s">
-        <v>16</v>
-      </c>
-      <c r="F91" s="5" t="s">
-        <v>78</v>
+        <v>62</v>
+      </c>
+      <c r="F91" s="6" t="s">
+        <v>77</v>
       </c>
       <c r="G91" s="5" t="s">
-        <v>164</v>
+        <v>61</v>
       </c>
       <c r="H91" s="5">
-        <v>9193</v>
-      </c>
-      <c r="I91" s="9" t="s">
-        <v>106</v>
-      </c>
-      <c r="J91" s="1" t="s">
-        <v>98</v>
+        <v>8919</v>
+      </c>
+      <c r="I91" s="5" t="s">
+        <v>14</v>
+      </c>
+      <c r="J91" s="7" t="s">
+        <v>12</v>
       </c>
     </row>
     <row r="92" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A92" s="5" t="s">
-        <v>54</v>
+        <v>78</v>
       </c>
       <c r="B92" s="5" t="s">
-        <v>87</v>
+        <v>89</v>
       </c>
       <c r="C92" s="5" t="s">
-        <v>20</v>
+        <v>79</v>
       </c>
       <c r="D92" s="5">
-        <v>1974</v>
+        <v>2005</v>
       </c>
       <c r="E92" s="5" t="s">
-        <v>57</v>
-      </c>
-      <c r="F92" s="5">
-        <v>1</v>
+        <v>80</v>
+      </c>
+      <c r="F92" s="6" t="s">
+        <v>77</v>
       </c>
       <c r="G92" s="5" t="s">
-        <v>55</v>
+        <v>81</v>
       </c>
       <c r="H92" s="5">
-        <v>9189</v>
+        <v>1130</v>
       </c>
       <c r="I92" s="5" t="s">
+        <v>13</v>
+      </c>
+      <c r="J92" s="7" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="93" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="A93" s="1" t="s">
+        <v>90</v>
+      </c>
+      <c r="B93" s="5" t="s">
+        <v>86</v>
+      </c>
+      <c r="C93" s="1" t="s">
+        <v>19</v>
+      </c>
+      <c r="D93" s="1">
+        <v>2008</v>
+      </c>
+      <c r="E93" s="8" t="s">
+        <v>91</v>
+      </c>
+      <c r="F93" s="6" t="s">
+        <v>77</v>
+      </c>
+      <c r="G93" s="1" t="s">
+        <v>92</v>
+      </c>
+      <c r="H93" s="1">
+        <v>8418</v>
+      </c>
+      <c r="I93" s="1" t="s">
         <v>14</v>
       </c>
-      <c r="J92" s="7" t="s">
-        <v>22</v>
-      </c>
-    </row>
-    <row r="93" spans="1:10" x14ac:dyDescent="0.2">
-      <c r="A93" s="5" t="s">
-        <v>75</v>
-      </c>
-      <c r="B93" s="5" t="s">
-        <v>90</v>
-      </c>
-      <c r="C93" s="5" t="s">
-        <v>76</v>
-      </c>
-      <c r="D93" s="5">
-        <v>1984</v>
-      </c>
-      <c r="E93" s="5" t="s">
-        <v>16</v>
-      </c>
-      <c r="F93" s="5">
-        <v>1</v>
-      </c>
-      <c r="G93" s="5" t="s">
-        <v>77</v>
-      </c>
-      <c r="H93" s="5">
-        <v>9203</v>
-      </c>
-      <c r="I93" s="5" t="s">
-        <v>14</v>
-      </c>
-      <c r="J93" s="7" t="s">
+      <c r="J93" s="1" t="s">
         <v>12</v>
       </c>
     </row>
     <row r="94" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A94" s="5" t="s">
-        <v>58</v>
+        <v>221</v>
       </c>
       <c r="B94" s="5" t="s">
-        <v>90</v>
-      </c>
-      <c r="C94" s="5" t="s">
-        <v>10</v>
+        <v>89</v>
+      </c>
+      <c r="C94" s="1" t="s">
+        <v>19</v>
       </c>
       <c r="D94" s="5">
-        <v>1994</v>
-      </c>
-      <c r="E94" s="5" t="s">
-        <v>16</v>
-      </c>
-      <c r="F94" s="6">
-        <v>6</v>
-      </c>
-      <c r="G94" s="5">
-        <v>676</v>
+        <v>2003</v>
+      </c>
+      <c r="E94" s="8" t="s">
+        <v>91</v>
+      </c>
+      <c r="F94" s="6" t="s">
+        <v>77</v>
+      </c>
+      <c r="G94" s="5" t="s">
+        <v>222</v>
       </c>
       <c r="H94" s="5">
-        <v>475</v>
-      </c>
-      <c r="I94" s="5" t="s">
-        <v>13</v>
+        <v>8437</v>
+      </c>
+      <c r="I94" s="1" t="s">
+        <v>14</v>
       </c>
       <c r="J94" s="7" t="s">
         <v>12</v>
@@ -4268,7 +4265,7 @@
     </row>
   </sheetData>
   <sortState xmlns:xlrd2="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" ref="A2:J94">
-    <sortCondition ref="A2:A94"/>
+    <sortCondition ref="E2:E94"/>
   </sortState>
   <phoneticPr fontId="4" type="noConversion"/>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>

--- a/tabular/extension/srlv-refseqs.xlsx
+++ b/tabular/extension/srlv-refseqs.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/robertgifford/Projects/virus/comparative/Retrovirus/Lentivirus-GLUE/tabular/extension/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{76A3EBA1-E8D8-814D-84C5-0BE4D5AAFB23}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{E6E994C4-3CC6-614E-B4E8-EFD7ED9F2684}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="15860" yWindow="2840" windowWidth="28060" windowHeight="17540" tabRatio="500" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -29,7 +29,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="808" uniqueCount="225">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="805" uniqueCount="222">
   <si>
     <t>Accession</t>
   </si>
@@ -217,9 +217,6 @@
     <t>1GA</t>
   </si>
   <si>
-    <t>C</t>
-  </si>
-  <si>
     <t>Norway</t>
   </si>
   <si>
@@ -269,9 +266,6 @@
   </si>
   <si>
     <t>Spain</t>
-  </si>
-  <si>
-    <t>D</t>
   </si>
   <si>
     <t>Ov-1</t>
@@ -684,9 +678,6 @@
   </si>
   <si>
     <t>JF502417</t>
-  </si>
-  <si>
-    <t>B3</t>
   </si>
   <si>
     <t>9152 bp</t>
@@ -1244,8 +1235,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:J94"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A76" workbookViewId="0">
-      <selection activeCell="G93" sqref="A1:J94"/>
+    <sheetView tabSelected="1" topLeftCell="A59" workbookViewId="0">
+      <selection activeCell="E67" sqref="E67"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -1295,10 +1286,10 @@
         <v>59</v>
       </c>
       <c r="B2" s="5" t="s">
-        <v>89</v>
+        <v>87</v>
       </c>
       <c r="C2" s="5" t="s">
-        <v>72</v>
+        <v>71</v>
       </c>
       <c r="D2" s="5">
         <v>1949</v>
@@ -1310,7 +1301,7 @@
         <v>1</v>
       </c>
       <c r="G2" s="5" t="s">
-        <v>68</v>
+        <v>67</v>
       </c>
       <c r="H2" s="5">
         <v>9202</v>
@@ -1327,10 +1318,10 @@
         <v>59</v>
       </c>
       <c r="B3" s="5" t="s">
-        <v>89</v>
+        <v>87</v>
       </c>
       <c r="C3" s="5" t="s">
-        <v>72</v>
+        <v>71</v>
       </c>
       <c r="D3" s="5">
         <v>1951</v>
@@ -1342,7 +1333,7 @@
         <v>1</v>
       </c>
       <c r="G3" s="5" t="s">
-        <v>68</v>
+        <v>67</v>
       </c>
       <c r="H3" s="5">
         <v>9202</v>
@@ -1356,13 +1347,13 @@
     </row>
     <row r="4" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A4" s="5" t="s">
+        <v>80</v>
+      </c>
+      <c r="B4" s="5" t="s">
+        <v>87</v>
+      </c>
+      <c r="C4" s="5" t="s">
         <v>82</v>
-      </c>
-      <c r="B4" s="5" t="s">
-        <v>89</v>
-      </c>
-      <c r="C4" s="5" t="s">
-        <v>84</v>
       </c>
       <c r="D4" s="5">
         <v>1996</v>
@@ -1374,7 +1365,7 @@
         <v>1</v>
       </c>
       <c r="G4" s="5" t="s">
-        <v>83</v>
+        <v>81</v>
       </c>
       <c r="H4" s="5">
         <v>9189</v>
@@ -1391,7 +1382,7 @@
         <v>23</v>
       </c>
       <c r="B5" s="5" t="s">
-        <v>86</v>
+        <v>84</v>
       </c>
       <c r="C5" s="5" t="s">
         <v>24</v>
@@ -1423,7 +1414,7 @@
         <v>27</v>
       </c>
       <c r="B6" s="5" t="s">
-        <v>86</v>
+        <v>84</v>
       </c>
       <c r="C6" s="5" t="s">
         <v>24</v>
@@ -1455,7 +1446,7 @@
         <v>29</v>
       </c>
       <c r="B7" s="5" t="s">
-        <v>86</v>
+        <v>84</v>
       </c>
       <c r="C7" s="5" t="s">
         <v>24</v>
@@ -1487,7 +1478,7 @@
         <v>31</v>
       </c>
       <c r="B8" s="5" t="s">
-        <v>86</v>
+        <v>84</v>
       </c>
       <c r="C8" s="5" t="s">
         <v>24</v>
@@ -1519,7 +1510,7 @@
         <v>33</v>
       </c>
       <c r="B9" s="5" t="s">
-        <v>86</v>
+        <v>84</v>
       </c>
       <c r="C9" s="5" t="s">
         <v>19</v>
@@ -1551,7 +1542,7 @@
         <v>36</v>
       </c>
       <c r="B10" s="5" t="s">
-        <v>89</v>
+        <v>87</v>
       </c>
       <c r="C10" s="5" t="s">
         <v>35</v>
@@ -1583,7 +1574,7 @@
         <v>37</v>
       </c>
       <c r="B11" s="5" t="s">
-        <v>89</v>
+        <v>87</v>
       </c>
       <c r="C11" s="5" t="s">
         <v>35</v>
@@ -1615,7 +1606,7 @@
         <v>38</v>
       </c>
       <c r="B12" s="5" t="s">
-        <v>86</v>
+        <v>84</v>
       </c>
       <c r="C12" s="5" t="s">
         <v>19</v>
@@ -1647,7 +1638,7 @@
         <v>40</v>
       </c>
       <c r="B13" s="5" t="s">
-        <v>89</v>
+        <v>87</v>
       </c>
       <c r="C13" s="5" t="s">
         <v>19</v>
@@ -1679,10 +1670,10 @@
         <v>42</v>
       </c>
       <c r="B14" s="5" t="s">
-        <v>89</v>
+        <v>87</v>
       </c>
       <c r="C14" s="5" t="s">
-        <v>79</v>
+        <v>78</v>
       </c>
       <c r="D14" s="5">
         <v>2005</v>
@@ -1691,7 +1682,7 @@
         <v>16</v>
       </c>
       <c r="F14" s="6" t="s">
-        <v>77</v>
+        <v>76</v>
       </c>
       <c r="G14" s="5">
         <v>697</v>
@@ -1711,7 +1702,7 @@
         <v>44</v>
       </c>
       <c r="B15" s="5" t="s">
-        <v>89</v>
+        <v>87</v>
       </c>
       <c r="C15" s="5" t="s">
         <v>43</v>
@@ -1743,7 +1734,7 @@
         <v>46</v>
       </c>
       <c r="B16" s="5" t="s">
-        <v>86</v>
+        <v>84</v>
       </c>
       <c r="C16" s="5" t="s">
         <v>43</v>
@@ -1772,10 +1763,10 @@
     </row>
     <row r="17" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A17" s="5" t="s">
-        <v>108</v>
+        <v>106</v>
       </c>
       <c r="B17" s="5" t="s">
-        <v>86</v>
+        <v>84</v>
       </c>
       <c r="C17" s="5" t="s">
         <v>24</v>
@@ -1787,16 +1778,16 @@
         <v>16</v>
       </c>
       <c r="F17" s="6" t="s">
-        <v>77</v>
+        <v>76</v>
       </c>
       <c r="G17" s="5" t="s">
-        <v>109</v>
+        <v>107</v>
       </c>
       <c r="H17" s="5">
         <v>9464</v>
       </c>
       <c r="I17" s="9" t="s">
-        <v>105</v>
+        <v>103</v>
       </c>
       <c r="J17" s="1" t="s">
         <v>12</v>
@@ -1804,10 +1795,10 @@
     </row>
     <row r="18" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A18" s="5" t="s">
-        <v>110</v>
+        <v>108</v>
       </c>
       <c r="B18" s="5" t="s">
-        <v>89</v>
+        <v>87</v>
       </c>
       <c r="C18" s="5" t="s">
         <v>24</v>
@@ -1819,16 +1810,16 @@
         <v>16</v>
       </c>
       <c r="F18" s="6" t="s">
-        <v>77</v>
+        <v>76</v>
       </c>
       <c r="G18" s="5" t="s">
-        <v>111</v>
+        <v>109</v>
       </c>
       <c r="H18" s="5">
         <v>9464</v>
       </c>
       <c r="I18" s="9" t="s">
-        <v>105</v>
+        <v>103</v>
       </c>
       <c r="J18" s="1" t="s">
         <v>12</v>
@@ -1836,10 +1827,10 @@
     </row>
     <row r="19" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A19" s="5" t="s">
-        <v>112</v>
+        <v>110</v>
       </c>
       <c r="B19" s="5" t="s">
-        <v>89</v>
+        <v>87</v>
       </c>
       <c r="C19" s="5" t="s">
         <v>24</v>
@@ -1851,16 +1842,16 @@
         <v>16</v>
       </c>
       <c r="F19" s="6" t="s">
-        <v>77</v>
+        <v>76</v>
       </c>
       <c r="G19" s="5" t="s">
-        <v>113</v>
+        <v>111</v>
       </c>
       <c r="H19" s="5">
         <v>9464</v>
       </c>
       <c r="I19" s="9" t="s">
-        <v>105</v>
+        <v>103</v>
       </c>
       <c r="J19" s="1" t="s">
         <v>12</v>
@@ -1868,10 +1859,10 @@
     </row>
     <row r="20" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A20" s="5" t="s">
-        <v>99</v>
+        <v>97</v>
       </c>
       <c r="B20" s="5" t="s">
-        <v>89</v>
+        <v>87</v>
       </c>
       <c r="C20" s="5" t="s">
         <v>20</v>
@@ -1886,7 +1877,7 @@
         <v>2</v>
       </c>
       <c r="G20" s="5" t="s">
-        <v>100</v>
+        <v>98</v>
       </c>
       <c r="H20" s="5">
         <v>9206</v>
@@ -1900,10 +1891,10 @@
     </row>
     <row r="21" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A21" s="5" t="s">
-        <v>101</v>
+        <v>99</v>
       </c>
       <c r="B21" s="5" t="s">
-        <v>89</v>
+        <v>87</v>
       </c>
       <c r="C21" s="5" t="s">
         <v>20</v>
@@ -1918,7 +1909,7 @@
         <v>2</v>
       </c>
       <c r="G21" s="5" t="s">
-        <v>102</v>
+        <v>100</v>
       </c>
       <c r="H21" s="5">
         <v>9185</v>
@@ -1932,13 +1923,13 @@
     </row>
     <row r="22" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A22" s="5" t="s">
+        <v>70</v>
+      </c>
+      <c r="B22" s="5" t="s">
+        <v>87</v>
+      </c>
+      <c r="C22" s="5" t="s">
         <v>71</v>
-      </c>
-      <c r="B22" s="5" t="s">
-        <v>89</v>
-      </c>
-      <c r="C22" s="5" t="s">
-        <v>72</v>
       </c>
       <c r="D22" s="5">
         <v>1953</v>
@@ -1950,7 +1941,7 @@
         <v>1</v>
       </c>
       <c r="G22" s="5" t="s">
-        <v>68</v>
+        <v>67</v>
       </c>
       <c r="H22" s="5">
         <v>9203</v>
@@ -1967,7 +1958,7 @@
         <v>48</v>
       </c>
       <c r="B23" s="5" t="s">
-        <v>89</v>
+        <v>87</v>
       </c>
       <c r="C23" s="5" t="s">
         <v>49</v>
@@ -1996,10 +1987,10 @@
     </row>
     <row r="24" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A24" s="5" t="s">
-        <v>73</v>
+        <v>72</v>
       </c>
       <c r="B24" s="5" t="s">
-        <v>89</v>
+        <v>87</v>
       </c>
       <c r="C24" s="5" t="s">
         <v>49</v>
@@ -2028,13 +2019,13 @@
     </row>
     <row r="25" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A25" s="5" t="s">
-        <v>70</v>
+        <v>69</v>
       </c>
       <c r="B25" s="5" t="s">
-        <v>89</v>
+        <v>87</v>
       </c>
       <c r="C25" s="5" t="s">
-        <v>72</v>
+        <v>71</v>
       </c>
       <c r="D25" s="5">
         <v>1952</v>
@@ -2046,7 +2037,7 @@
         <v>1</v>
       </c>
       <c r="G25" s="5" t="s">
-        <v>68</v>
+        <v>67</v>
       </c>
       <c r="H25" s="5">
         <v>9202</v>
@@ -2060,13 +2051,13 @@
     </row>
     <row r="26" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A26" s="5" t="s">
-        <v>69</v>
+        <v>68</v>
       </c>
       <c r="B26" s="5" t="s">
-        <v>89</v>
+        <v>87</v>
       </c>
       <c r="C26" s="5" t="s">
-        <v>72</v>
+        <v>71</v>
       </c>
       <c r="D26" s="5">
         <v>1949</v>
@@ -2078,7 +2069,7 @@
         <v>1</v>
       </c>
       <c r="G26" s="5" t="s">
-        <v>68</v>
+        <v>67</v>
       </c>
       <c r="H26" s="5">
         <v>9225</v>
@@ -2092,31 +2083,31 @@
     </row>
     <row r="27" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A27" s="5" t="s">
-        <v>118</v>
+        <v>116</v>
       </c>
       <c r="B27" s="5" t="s">
-        <v>86</v>
+        <v>84</v>
       </c>
       <c r="C27" s="5" t="s">
         <v>19</v>
       </c>
       <c r="D27" s="5" t="s">
-        <v>77</v>
+        <v>76</v>
       </c>
       <c r="E27" s="5" t="s">
         <v>16</v>
       </c>
       <c r="F27" s="6" t="s">
-        <v>77</v>
+        <v>76</v>
       </c>
       <c r="G27" s="5" t="s">
-        <v>119</v>
+        <v>117</v>
       </c>
       <c r="H27" s="5">
         <v>9307</v>
       </c>
       <c r="I27" s="9" t="s">
-        <v>105</v>
+        <v>103</v>
       </c>
       <c r="J27" s="1" t="s">
         <v>12</v>
@@ -2124,31 +2115,31 @@
     </row>
     <row r="28" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A28" s="5" t="s">
-        <v>132</v>
+        <v>130</v>
       </c>
       <c r="B28" s="5" t="s">
-        <v>86</v>
+        <v>84</v>
       </c>
       <c r="C28" s="5" t="s">
         <v>19</v>
       </c>
       <c r="D28" s="5" t="s">
-        <v>77</v>
+        <v>76</v>
       </c>
       <c r="E28" s="5" t="s">
         <v>16</v>
       </c>
       <c r="F28" s="6" t="s">
-        <v>77</v>
+        <v>76</v>
       </c>
       <c r="G28" s="5" t="s">
-        <v>133</v>
+        <v>131</v>
       </c>
       <c r="H28" s="5">
         <v>9231</v>
       </c>
       <c r="I28" s="9" t="s">
-        <v>105</v>
+        <v>103</v>
       </c>
       <c r="J28" s="1" t="s">
         <v>12</v>
@@ -2156,31 +2147,31 @@
     </row>
     <row r="29" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A29" s="5" t="s">
-        <v>138</v>
+        <v>136</v>
       </c>
       <c r="B29" s="5" t="s">
-        <v>86</v>
+        <v>84</v>
       </c>
       <c r="C29" s="5" t="s">
         <v>19</v>
       </c>
       <c r="D29" s="5" t="s">
-        <v>77</v>
+        <v>76</v>
       </c>
       <c r="E29" s="5" t="s">
         <v>16</v>
       </c>
       <c r="F29" s="6" t="s">
-        <v>77</v>
+        <v>76</v>
       </c>
       <c r="G29" s="5" t="s">
-        <v>139</v>
+        <v>137</v>
       </c>
       <c r="H29" s="5">
         <v>9206</v>
       </c>
       <c r="I29" s="9" t="s">
-        <v>105</v>
+        <v>103</v>
       </c>
       <c r="J29" s="10" t="s">
         <v>12</v>
@@ -2188,31 +2179,31 @@
     </row>
     <row r="30" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A30" s="5" t="s">
-        <v>106</v>
+        <v>104</v>
       </c>
       <c r="B30" s="5" t="s">
-        <v>86</v>
+        <v>84</v>
       </c>
       <c r="C30" s="5" t="s">
         <v>19</v>
       </c>
       <c r="D30" s="5" t="s">
-        <v>77</v>
+        <v>76</v>
       </c>
       <c r="E30" s="5" t="s">
         <v>16</v>
       </c>
       <c r="F30" s="6" t="s">
-        <v>77</v>
+        <v>76</v>
       </c>
       <c r="G30" s="5" t="s">
-        <v>107</v>
+        <v>105</v>
       </c>
       <c r="H30" s="5">
         <v>9486</v>
       </c>
       <c r="I30" s="9" t="s">
-        <v>105</v>
+        <v>103</v>
       </c>
       <c r="J30" s="1" t="s">
         <v>12</v>
@@ -2220,31 +2211,31 @@
     </row>
     <row r="31" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A31" s="5" t="s">
-        <v>197</v>
+        <v>195</v>
       </c>
       <c r="B31" s="5" t="s">
-        <v>86</v>
+        <v>84</v>
       </c>
       <c r="C31" s="5" t="s">
         <v>19</v>
       </c>
       <c r="D31" s="5" t="s">
-        <v>77</v>
+        <v>76</v>
       </c>
       <c r="E31" s="5" t="s">
         <v>16</v>
       </c>
       <c r="F31" s="6" t="s">
-        <v>77</v>
+        <v>76</v>
       </c>
       <c r="G31" s="5" t="s">
-        <v>198</v>
+        <v>196</v>
       </c>
       <c r="H31" s="5">
         <v>9138</v>
       </c>
       <c r="I31" s="9" t="s">
-        <v>105</v>
+        <v>103</v>
       </c>
       <c r="J31" s="1" t="s">
         <v>12</v>
@@ -2252,31 +2243,31 @@
     </row>
     <row r="32" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A32" s="5" t="s">
-        <v>128</v>
+        <v>126</v>
       </c>
       <c r="B32" s="5" t="s">
-        <v>86</v>
+        <v>84</v>
       </c>
       <c r="C32" s="5" t="s">
         <v>19</v>
       </c>
       <c r="D32" s="5" t="s">
-        <v>77</v>
+        <v>76</v>
       </c>
       <c r="E32" s="5" t="s">
         <v>16</v>
       </c>
       <c r="F32" s="6" t="s">
-        <v>77</v>
+        <v>76</v>
       </c>
       <c r="G32" s="5" t="s">
-        <v>129</v>
+        <v>127</v>
       </c>
       <c r="H32" s="5">
         <v>9258</v>
       </c>
       <c r="I32" s="9" t="s">
-        <v>105</v>
+        <v>103</v>
       </c>
       <c r="J32" s="1" t="s">
         <v>12</v>
@@ -2284,31 +2275,31 @@
     </row>
     <row r="33" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A33" s="5" t="s">
-        <v>116</v>
+        <v>114</v>
       </c>
       <c r="B33" s="5" t="s">
-        <v>86</v>
+        <v>84</v>
       </c>
       <c r="C33" s="5" t="s">
         <v>19</v>
       </c>
       <c r="D33" s="5" t="s">
-        <v>77</v>
+        <v>76</v>
       </c>
       <c r="E33" s="5" t="s">
         <v>16</v>
       </c>
       <c r="F33" s="6" t="s">
-        <v>77</v>
+        <v>76</v>
       </c>
       <c r="G33" s="5" t="s">
-        <v>117</v>
+        <v>115</v>
       </c>
       <c r="H33" s="5">
         <v>9312</v>
       </c>
       <c r="I33" s="9" t="s">
-        <v>105</v>
+        <v>103</v>
       </c>
       <c r="J33" s="1" t="s">
         <v>12</v>
@@ -2316,10 +2307,10 @@
     </row>
     <row r="34" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A34" s="5" t="s">
-        <v>124</v>
+        <v>122</v>
       </c>
       <c r="B34" s="5" t="s">
-        <v>86</v>
+        <v>84</v>
       </c>
       <c r="C34" s="5" t="s">
         <v>19</v>
@@ -2331,16 +2322,16 @@
         <v>16</v>
       </c>
       <c r="F34" s="6" t="s">
-        <v>77</v>
+        <v>76</v>
       </c>
       <c r="G34" s="5" t="s">
-        <v>125</v>
+        <v>123</v>
       </c>
       <c r="H34" s="5">
         <v>9266</v>
       </c>
       <c r="I34" s="9" t="s">
-        <v>105</v>
+        <v>103</v>
       </c>
       <c r="J34" s="1" t="s">
         <v>12</v>
@@ -2348,10 +2339,10 @@
     </row>
     <row r="35" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A35" s="5" t="s">
-        <v>130</v>
+        <v>128</v>
       </c>
       <c r="B35" s="5" t="s">
-        <v>86</v>
+        <v>84</v>
       </c>
       <c r="C35" s="5" t="s">
         <v>19</v>
@@ -2363,16 +2354,16 @@
         <v>16</v>
       </c>
       <c r="F35" s="6" t="s">
-        <v>77</v>
+        <v>76</v>
       </c>
       <c r="G35" s="5" t="s">
-        <v>131</v>
+        <v>129</v>
       </c>
       <c r="H35" s="5">
         <v>9257</v>
       </c>
       <c r="I35" s="9" t="s">
-        <v>105</v>
+        <v>103</v>
       </c>
       <c r="J35" s="1" t="s">
         <v>12</v>
@@ -2380,10 +2371,10 @@
     </row>
     <row r="36" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A36" s="5" t="s">
-        <v>120</v>
+        <v>118</v>
       </c>
       <c r="B36" s="5" t="s">
-        <v>86</v>
+        <v>84</v>
       </c>
       <c r="C36" s="5" t="s">
         <v>19</v>
@@ -2395,16 +2386,16 @@
         <v>16</v>
       </c>
       <c r="F36" s="6" t="s">
-        <v>77</v>
+        <v>76</v>
       </c>
       <c r="G36" s="5" t="s">
-        <v>121</v>
+        <v>119</v>
       </c>
       <c r="H36" s="5">
         <v>9276</v>
       </c>
       <c r="I36" s="9" t="s">
-        <v>105</v>
+        <v>103</v>
       </c>
       <c r="J36" s="1" t="s">
         <v>12</v>
@@ -2412,10 +2403,10 @@
     </row>
     <row r="37" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A37" s="5" t="s">
-        <v>126</v>
+        <v>124</v>
       </c>
       <c r="B37" s="5" t="s">
-        <v>86</v>
+        <v>84</v>
       </c>
       <c r="C37" s="5" t="s">
         <v>19</v>
@@ -2427,16 +2418,16 @@
         <v>16</v>
       </c>
       <c r="F37" s="6" t="s">
-        <v>77</v>
+        <v>76</v>
       </c>
       <c r="G37" s="5" t="s">
-        <v>127</v>
+        <v>125</v>
       </c>
       <c r="H37" s="5">
         <v>9265</v>
       </c>
       <c r="I37" s="9" t="s">
-        <v>105</v>
+        <v>103</v>
       </c>
       <c r="J37" s="1" t="s">
         <v>12</v>
@@ -2444,10 +2435,10 @@
     </row>
     <row r="38" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A38" s="5" t="s">
-        <v>189</v>
+        <v>187</v>
       </c>
       <c r="B38" s="5" t="s">
-        <v>89</v>
+        <v>87</v>
       </c>
       <c r="C38" s="5" t="s">
         <v>19</v>
@@ -2459,16 +2450,16 @@
         <v>16</v>
       </c>
       <c r="F38" s="6" t="s">
-        <v>77</v>
+        <v>76</v>
       </c>
       <c r="G38" s="5" t="s">
-        <v>190</v>
+        <v>188</v>
       </c>
       <c r="H38" s="5">
         <v>9164</v>
       </c>
       <c r="I38" s="9" t="s">
-        <v>105</v>
+        <v>103</v>
       </c>
       <c r="J38" s="1" t="s">
         <v>12</v>
@@ -2476,10 +2467,10 @@
     </row>
     <row r="39" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A39" s="5" t="s">
-        <v>114</v>
+        <v>112</v>
       </c>
       <c r="B39" s="5" t="s">
-        <v>86</v>
+        <v>84</v>
       </c>
       <c r="C39" s="5" t="s">
         <v>19</v>
@@ -2491,16 +2482,16 @@
         <v>16</v>
       </c>
       <c r="F39" s="6" t="s">
-        <v>77</v>
+        <v>76</v>
       </c>
       <c r="G39" s="5" t="s">
-        <v>115</v>
+        <v>113</v>
       </c>
       <c r="H39" s="5">
         <v>9316</v>
       </c>
       <c r="I39" s="9" t="s">
-        <v>105</v>
+        <v>103</v>
       </c>
       <c r="J39" s="1" t="s">
         <v>12</v>
@@ -2508,10 +2499,10 @@
     </row>
     <row r="40" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A40" s="5" t="s">
-        <v>157</v>
+        <v>155</v>
       </c>
       <c r="B40" s="5" t="s">
-        <v>89</v>
+        <v>87</v>
       </c>
       <c r="C40" s="5" t="s">
         <v>20</v>
@@ -2523,7 +2514,7 @@
         <v>16</v>
       </c>
       <c r="F40" s="6" t="s">
-        <v>77</v>
+        <v>76</v>
       </c>
       <c r="G40" s="5">
         <v>1150</v>
@@ -2532,7 +2523,7 @@
         <v>9195</v>
       </c>
       <c r="I40" s="9" t="s">
-        <v>105</v>
+        <v>103</v>
       </c>
       <c r="J40" s="7" t="s">
         <v>22</v>
@@ -2540,10 +2531,10 @@
     </row>
     <row r="41" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A41" s="5" t="s">
-        <v>140</v>
+        <v>138</v>
       </c>
       <c r="B41" s="5" t="s">
-        <v>89</v>
+        <v>87</v>
       </c>
       <c r="C41" s="5" t="s">
         <v>20</v>
@@ -2555,16 +2546,16 @@
         <v>16</v>
       </c>
       <c r="F41" s="6" t="s">
-        <v>77</v>
+        <v>76</v>
       </c>
       <c r="G41" s="5" t="s">
-        <v>100</v>
+        <v>98</v>
       </c>
       <c r="H41" s="5">
         <v>9206</v>
       </c>
       <c r="I41" s="9" t="s">
-        <v>105</v>
+        <v>103</v>
       </c>
       <c r="J41" s="7" t="s">
         <v>22</v>
@@ -2572,10 +2563,10 @@
     </row>
     <row r="42" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A42" s="5" t="s">
-        <v>164</v>
+        <v>162</v>
       </c>
       <c r="B42" s="5" t="s">
-        <v>89</v>
+        <v>87</v>
       </c>
       <c r="C42" s="5" t="s">
         <v>20</v>
@@ -2587,16 +2578,16 @@
         <v>16</v>
       </c>
       <c r="F42" s="6" t="s">
-        <v>77</v>
+        <v>76</v>
       </c>
       <c r="G42" s="5" t="s">
-        <v>165</v>
+        <v>163</v>
       </c>
       <c r="H42" s="5">
         <v>9192</v>
       </c>
       <c r="I42" s="9" t="s">
-        <v>105</v>
+        <v>103</v>
       </c>
       <c r="J42" s="7" t="s">
         <v>22</v>
@@ -2604,10 +2595,10 @@
     </row>
     <row r="43" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A43" s="5" t="s">
-        <v>179</v>
+        <v>177</v>
       </c>
       <c r="B43" s="5" t="s">
-        <v>89</v>
+        <v>87</v>
       </c>
       <c r="C43" s="5" t="s">
         <v>20</v>
@@ -2619,16 +2610,16 @@
         <v>16</v>
       </c>
       <c r="F43" s="6" t="s">
-        <v>77</v>
+        <v>76</v>
       </c>
       <c r="G43" s="5" t="s">
-        <v>180</v>
+        <v>178</v>
       </c>
       <c r="H43" s="5">
         <v>9171</v>
       </c>
       <c r="I43" s="9" t="s">
-        <v>105</v>
+        <v>103</v>
       </c>
       <c r="J43" s="7" t="s">
         <v>22</v>
@@ -2636,10 +2627,10 @@
     </row>
     <row r="44" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A44" s="5" t="s">
-        <v>185</v>
+        <v>183</v>
       </c>
       <c r="B44" s="5" t="s">
-        <v>89</v>
+        <v>87</v>
       </c>
       <c r="C44" s="5" t="s">
         <v>20</v>
@@ -2651,16 +2642,16 @@
         <v>16</v>
       </c>
       <c r="F44" s="6" t="s">
-        <v>77</v>
+        <v>76</v>
       </c>
       <c r="G44" s="5" t="s">
-        <v>186</v>
+        <v>184</v>
       </c>
       <c r="H44" s="5">
         <v>9166</v>
       </c>
       <c r="I44" s="9" t="s">
-        <v>105</v>
+        <v>103</v>
       </c>
       <c r="J44" s="7" t="s">
         <v>22</v>
@@ -2668,10 +2659,10 @@
     </row>
     <row r="45" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A45" s="5" t="s">
-        <v>147</v>
+        <v>145</v>
       </c>
       <c r="B45" s="5" t="s">
-        <v>89</v>
+        <v>87</v>
       </c>
       <c r="C45" s="5" t="s">
         <v>20</v>
@@ -2683,16 +2674,16 @@
         <v>16</v>
       </c>
       <c r="F45" s="6" t="s">
-        <v>77</v>
+        <v>76</v>
       </c>
       <c r="G45" s="5" t="s">
-        <v>148</v>
+        <v>146</v>
       </c>
       <c r="H45" s="5">
         <v>9202</v>
       </c>
       <c r="I45" s="9" t="s">
-        <v>105</v>
+        <v>103</v>
       </c>
       <c r="J45" s="7" t="s">
         <v>22</v>
@@ -2700,10 +2691,10 @@
     </row>
     <row r="46" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A46" s="5" t="s">
-        <v>158</v>
+        <v>156</v>
       </c>
       <c r="B46" s="5" t="s">
-        <v>89</v>
+        <v>87</v>
       </c>
       <c r="C46" s="5" t="s">
         <v>20</v>
@@ -2715,16 +2706,16 @@
         <v>16</v>
       </c>
       <c r="F46" s="6" t="s">
-        <v>77</v>
+        <v>76</v>
       </c>
       <c r="G46" s="5" t="s">
-        <v>159</v>
+        <v>157</v>
       </c>
       <c r="H46" s="5">
         <v>9194</v>
       </c>
       <c r="I46" s="9" t="s">
-        <v>105</v>
+        <v>103</v>
       </c>
       <c r="J46" s="7" t="s">
         <v>22</v>
@@ -2732,10 +2723,10 @@
     </row>
     <row r="47" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A47" s="5" t="s">
-        <v>136</v>
+        <v>134</v>
       </c>
       <c r="B47" s="5" t="s">
-        <v>89</v>
+        <v>87</v>
       </c>
       <c r="C47" s="5" t="s">
         <v>20</v>
@@ -2747,16 +2738,16 @@
         <v>16</v>
       </c>
       <c r="F47" s="6" t="s">
-        <v>77</v>
+        <v>76</v>
       </c>
       <c r="G47" s="5" t="s">
-        <v>137</v>
+        <v>135</v>
       </c>
       <c r="H47" s="5">
         <v>9207</v>
       </c>
       <c r="I47" s="9" t="s">
-        <v>105</v>
+        <v>103</v>
       </c>
       <c r="J47" s="7" t="s">
         <v>22</v>
@@ -2764,10 +2755,10 @@
     </row>
     <row r="48" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A48" s="5" t="s">
-        <v>166</v>
+        <v>164</v>
       </c>
       <c r="B48" s="5" t="s">
-        <v>89</v>
+        <v>87</v>
       </c>
       <c r="C48" s="5" t="s">
         <v>20</v>
@@ -2779,16 +2770,16 @@
         <v>16</v>
       </c>
       <c r="F48" s="6" t="s">
-        <v>77</v>
+        <v>76</v>
       </c>
       <c r="G48" s="5" t="s">
-        <v>167</v>
+        <v>165</v>
       </c>
       <c r="H48" s="5">
         <v>9192</v>
       </c>
       <c r="I48" s="9" t="s">
-        <v>105</v>
+        <v>103</v>
       </c>
       <c r="J48" s="7" t="s">
         <v>22</v>
@@ -2796,10 +2787,10 @@
     </row>
     <row r="49" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A49" s="5" t="s">
-        <v>160</v>
+        <v>158</v>
       </c>
       <c r="B49" s="5" t="s">
-        <v>89</v>
+        <v>87</v>
       </c>
       <c r="C49" s="5" t="s">
         <v>20</v>
@@ -2811,16 +2802,16 @@
         <v>16</v>
       </c>
       <c r="F49" s="6" t="s">
-        <v>77</v>
+        <v>76</v>
       </c>
       <c r="G49" s="5" t="s">
-        <v>161</v>
+        <v>159</v>
       </c>
       <c r="H49" s="5">
         <v>9193</v>
       </c>
       <c r="I49" s="9" t="s">
-        <v>105</v>
+        <v>103</v>
       </c>
       <c r="J49" s="7" t="s">
         <v>22</v>
@@ -2828,10 +2819,10 @@
     </row>
     <row r="50" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A50" s="5" t="s">
-        <v>187</v>
+        <v>185</v>
       </c>
       <c r="B50" s="5" t="s">
-        <v>89</v>
+        <v>87</v>
       </c>
       <c r="C50" s="5" t="s">
         <v>20</v>
@@ -2843,16 +2834,16 @@
         <v>16</v>
       </c>
       <c r="F50" s="6" t="s">
-        <v>77</v>
+        <v>76</v>
       </c>
       <c r="G50" s="5" t="s">
-        <v>188</v>
+        <v>186</v>
       </c>
       <c r="H50" s="5">
         <v>9166</v>
       </c>
       <c r="I50" s="9" t="s">
-        <v>105</v>
+        <v>103</v>
       </c>
       <c r="J50" s="7" t="s">
         <v>22</v>
@@ -2860,10 +2851,10 @@
     </row>
     <row r="51" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A51" s="5" t="s">
-        <v>173</v>
+        <v>171</v>
       </c>
       <c r="B51" s="5" t="s">
-        <v>89</v>
+        <v>87</v>
       </c>
       <c r="C51" s="5" t="s">
         <v>20</v>
@@ -2875,16 +2866,16 @@
         <v>16</v>
       </c>
       <c r="F51" s="6" t="s">
-        <v>77</v>
+        <v>76</v>
       </c>
       <c r="G51" s="5" t="s">
-        <v>174</v>
+        <v>172</v>
       </c>
       <c r="H51" s="5">
         <v>9185</v>
       </c>
       <c r="I51" s="9" t="s">
-        <v>105</v>
+        <v>103</v>
       </c>
       <c r="J51" s="7" t="s">
         <v>22</v>
@@ -2892,10 +2883,10 @@
     </row>
     <row r="52" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A52" s="5" t="s">
-        <v>153</v>
+        <v>151</v>
       </c>
       <c r="B52" s="5" t="s">
-        <v>89</v>
+        <v>87</v>
       </c>
       <c r="C52" s="5" t="s">
         <v>20</v>
@@ -2907,16 +2898,16 @@
         <v>16</v>
       </c>
       <c r="F52" s="6" t="s">
-        <v>77</v>
+        <v>76</v>
       </c>
       <c r="G52" s="5" t="s">
-        <v>154</v>
+        <v>152</v>
       </c>
       <c r="H52" s="5">
         <v>9200</v>
       </c>
       <c r="I52" s="9" t="s">
-        <v>105</v>
+        <v>103</v>
       </c>
       <c r="J52" s="7" t="s">
         <v>22</v>
@@ -2924,10 +2915,10 @@
     </row>
     <row r="53" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A53" s="5" t="s">
-        <v>149</v>
+        <v>147</v>
       </c>
       <c r="B53" s="5" t="s">
-        <v>89</v>
+        <v>87</v>
       </c>
       <c r="C53" s="5" t="s">
         <v>20</v>
@@ -2939,16 +2930,16 @@
         <v>16</v>
       </c>
       <c r="F53" s="6" t="s">
-        <v>77</v>
+        <v>76</v>
       </c>
       <c r="G53" s="5" t="s">
-        <v>150</v>
+        <v>148</v>
       </c>
       <c r="H53" s="5">
         <v>9202</v>
       </c>
       <c r="I53" s="9" t="s">
-        <v>105</v>
+        <v>103</v>
       </c>
       <c r="J53" s="7" t="s">
         <v>22</v>
@@ -2956,10 +2947,10 @@
     </row>
     <row r="54" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A54" s="5" t="s">
-        <v>168</v>
+        <v>166</v>
       </c>
       <c r="B54" s="5" t="s">
-        <v>89</v>
+        <v>87</v>
       </c>
       <c r="C54" s="5" t="s">
         <v>20</v>
@@ -2971,16 +2962,16 @@
         <v>16</v>
       </c>
       <c r="F54" s="6" t="s">
-        <v>77</v>
+        <v>76</v>
       </c>
       <c r="G54" s="5" t="s">
-        <v>169</v>
+        <v>167</v>
       </c>
       <c r="H54" s="5">
         <v>9191</v>
       </c>
       <c r="I54" s="9" t="s">
-        <v>105</v>
+        <v>103</v>
       </c>
       <c r="J54" s="7" t="s">
         <v>22</v>
@@ -2988,10 +2979,10 @@
     </row>
     <row r="55" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A55" s="5" t="s">
-        <v>155</v>
+        <v>153</v>
       </c>
       <c r="B55" s="5" t="s">
-        <v>89</v>
+        <v>87</v>
       </c>
       <c r="C55" s="5" t="s">
         <v>20</v>
@@ -3003,16 +2994,16 @@
         <v>16</v>
       </c>
       <c r="F55" s="6" t="s">
-        <v>77</v>
+        <v>76</v>
       </c>
       <c r="G55" s="5" t="s">
-        <v>156</v>
+        <v>154</v>
       </c>
       <c r="H55" s="5">
         <v>9199</v>
       </c>
       <c r="I55" s="9" t="s">
-        <v>105</v>
+        <v>103</v>
       </c>
       <c r="J55" s="7" t="s">
         <v>22</v>
@@ -3020,10 +3011,10 @@
     </row>
     <row r="56" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A56" s="5" t="s">
-        <v>172</v>
+        <v>170</v>
       </c>
       <c r="B56" s="5" t="s">
-        <v>89</v>
+        <v>87</v>
       </c>
       <c r="C56" s="5" t="s">
         <v>20</v>
@@ -3035,16 +3026,16 @@
         <v>16</v>
       </c>
       <c r="F56" s="6" t="s">
-        <v>77</v>
+        <v>76</v>
       </c>
       <c r="G56" s="5" t="s">
-        <v>102</v>
+        <v>100</v>
       </c>
       <c r="H56" s="5">
         <v>9189</v>
       </c>
       <c r="I56" s="9" t="s">
-        <v>105</v>
+        <v>103</v>
       </c>
       <c r="J56" s="7" t="s">
         <v>22</v>
@@ -3052,10 +3043,10 @@
     </row>
     <row r="57" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A57" s="5" t="s">
-        <v>170</v>
+        <v>168</v>
       </c>
       <c r="B57" s="5" t="s">
-        <v>89</v>
+        <v>87</v>
       </c>
       <c r="C57" s="5" t="s">
         <v>20</v>
@@ -3067,16 +3058,16 @@
         <v>16</v>
       </c>
       <c r="F57" s="6" t="s">
-        <v>77</v>
+        <v>76</v>
       </c>
       <c r="G57" s="5" t="s">
-        <v>171</v>
+        <v>169</v>
       </c>
       <c r="H57" s="5">
         <v>9191</v>
       </c>
       <c r="I57" s="9" t="s">
-        <v>105</v>
+        <v>103</v>
       </c>
       <c r="J57" s="7" t="s">
         <v>22</v>
@@ -3084,10 +3075,10 @@
     </row>
     <row r="58" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A58" s="5" t="s">
-        <v>151</v>
+        <v>149</v>
       </c>
       <c r="B58" s="5" t="s">
-        <v>89</v>
+        <v>87</v>
       </c>
       <c r="C58" s="5" t="s">
         <v>20</v>
@@ -3099,16 +3090,16 @@
         <v>16</v>
       </c>
       <c r="F58" s="6" t="s">
-        <v>77</v>
+        <v>76</v>
       </c>
       <c r="G58" s="5" t="s">
-        <v>152</v>
+        <v>150</v>
       </c>
       <c r="H58" s="5">
         <v>9201</v>
       </c>
       <c r="I58" s="9" t="s">
-        <v>105</v>
+        <v>103</v>
       </c>
       <c r="J58" s="7" t="s">
         <v>22</v>
@@ -3116,10 +3107,10 @@
     </row>
     <row r="59" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A59" s="5" t="s">
-        <v>141</v>
+        <v>139</v>
       </c>
       <c r="B59" s="5" t="s">
-        <v>89</v>
+        <v>87</v>
       </c>
       <c r="C59" s="5" t="s">
         <v>20</v>
@@ -3131,16 +3122,16 @@
         <v>16</v>
       </c>
       <c r="F59" s="6" t="s">
-        <v>77</v>
+        <v>76</v>
       </c>
       <c r="G59" s="5" t="s">
-        <v>142</v>
+        <v>140</v>
       </c>
       <c r="H59" s="5">
         <v>9206</v>
       </c>
       <c r="I59" s="9" t="s">
-        <v>105</v>
+        <v>103</v>
       </c>
       <c r="J59" s="7" t="s">
         <v>22</v>
@@ -3148,10 +3139,10 @@
     </row>
     <row r="60" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A60" s="5" t="s">
-        <v>145</v>
+        <v>143</v>
       </c>
       <c r="B60" s="5" t="s">
-        <v>89</v>
+        <v>87</v>
       </c>
       <c r="C60" s="5" t="s">
         <v>20</v>
@@ -3163,16 +3154,16 @@
         <v>16</v>
       </c>
       <c r="F60" s="6" t="s">
-        <v>77</v>
+        <v>76</v>
       </c>
       <c r="G60" s="5" t="s">
-        <v>146</v>
+        <v>144</v>
       </c>
       <c r="H60" s="5">
         <v>9203</v>
       </c>
       <c r="I60" s="9" t="s">
-        <v>105</v>
+        <v>103</v>
       </c>
       <c r="J60" s="7" t="s">
         <v>22</v>
@@ -3180,10 +3171,10 @@
     </row>
     <row r="61" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A61" s="5" t="s">
-        <v>134</v>
+        <v>132</v>
       </c>
       <c r="B61" s="5" t="s">
-        <v>89</v>
+        <v>87</v>
       </c>
       <c r="C61" s="5" t="s">
         <v>20</v>
@@ -3195,16 +3186,16 @@
         <v>16</v>
       </c>
       <c r="F61" s="6" t="s">
-        <v>77</v>
+        <v>76</v>
       </c>
       <c r="G61" s="5" t="s">
-        <v>135</v>
+        <v>133</v>
       </c>
       <c r="H61" s="5">
         <v>9215</v>
       </c>
       <c r="I61" s="9" t="s">
-        <v>105</v>
+        <v>103</v>
       </c>
       <c r="J61" s="7" t="s">
         <v>22</v>
@@ -3212,10 +3203,10 @@
     </row>
     <row r="62" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A62" s="5" t="s">
-        <v>175</v>
+        <v>173</v>
       </c>
       <c r="B62" s="5" t="s">
-        <v>89</v>
+        <v>87</v>
       </c>
       <c r="C62" s="5" t="s">
         <v>20</v>
@@ -3227,16 +3218,16 @@
         <v>16</v>
       </c>
       <c r="F62" s="6" t="s">
-        <v>77</v>
+        <v>76</v>
       </c>
       <c r="G62" s="5" t="s">
-        <v>176</v>
+        <v>174</v>
       </c>
       <c r="H62" s="5">
         <v>9172</v>
       </c>
       <c r="I62" s="9" t="s">
-        <v>105</v>
+        <v>103</v>
       </c>
       <c r="J62" s="7" t="s">
         <v>22</v>
@@ -3244,10 +3235,10 @@
     </row>
     <row r="63" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A63" s="5" t="s">
-        <v>143</v>
+        <v>141</v>
       </c>
       <c r="B63" s="5" t="s">
-        <v>89</v>
+        <v>87</v>
       </c>
       <c r="C63" s="5" t="s">
         <v>20</v>
@@ -3259,16 +3250,16 @@
         <v>16</v>
       </c>
       <c r="F63" s="6" t="s">
-        <v>77</v>
+        <v>76</v>
       </c>
       <c r="G63" s="5" t="s">
-        <v>144</v>
+        <v>142</v>
       </c>
       <c r="H63" s="5">
         <v>9204</v>
       </c>
       <c r="I63" s="9" t="s">
-        <v>105</v>
+        <v>103</v>
       </c>
       <c r="J63" s="7" t="s">
         <v>22</v>
@@ -3276,13 +3267,13 @@
     </row>
     <row r="64" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A64" s="5" t="s">
-        <v>162</v>
+        <v>160</v>
       </c>
       <c r="B64" s="5" t="s">
-        <v>89</v>
+        <v>87</v>
       </c>
       <c r="C64" s="5" t="s">
-        <v>98</v>
+        <v>96</v>
       </c>
       <c r="D64" s="5">
         <v>2020</v>
@@ -3291,30 +3282,30 @@
         <v>16</v>
       </c>
       <c r="F64" s="6" t="s">
-        <v>77</v>
+        <v>76</v>
       </c>
       <c r="G64" s="5" t="s">
-        <v>163</v>
+        <v>161</v>
       </c>
       <c r="H64" s="5">
         <v>9193</v>
       </c>
       <c r="I64" s="9" t="s">
-        <v>105</v>
+        <v>103</v>
       </c>
       <c r="J64" s="1" t="s">
-        <v>97</v>
+        <v>95</v>
       </c>
     </row>
     <row r="65" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A65" s="5" t="s">
+        <v>73</v>
+      </c>
+      <c r="B65" s="5" t="s">
+        <v>87</v>
+      </c>
+      <c r="C65" s="5" t="s">
         <v>74</v>
-      </c>
-      <c r="B65" s="5" t="s">
-        <v>89</v>
-      </c>
-      <c r="C65" s="5" t="s">
-        <v>75</v>
       </c>
       <c r="D65" s="5">
         <v>1984</v>
@@ -3326,7 +3317,7 @@
         <v>1</v>
       </c>
       <c r="G65" s="5" t="s">
-        <v>76</v>
+        <v>75</v>
       </c>
       <c r="H65" s="5">
         <v>9203</v>
@@ -3343,7 +3334,7 @@
         <v>58</v>
       </c>
       <c r="B66" s="5" t="s">
-        <v>89</v>
+        <v>87</v>
       </c>
       <c r="C66" s="5" t="s">
         <v>10</v>
@@ -3372,13 +3363,13 @@
     </row>
     <row r="67" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A67" s="5" t="s">
+        <v>63</v>
+      </c>
+      <c r="B67" s="5" t="s">
+        <v>87</v>
+      </c>
+      <c r="C67" s="5" t="s">
         <v>64</v>
-      </c>
-      <c r="B67" s="5" t="s">
-        <v>89</v>
-      </c>
-      <c r="C67" s="5" t="s">
-        <v>65</v>
       </c>
       <c r="D67" s="5">
         <v>2007</v>
@@ -3387,10 +3378,10 @@
         <v>16</v>
       </c>
       <c r="F67" s="6" t="s">
-        <v>77</v>
+        <v>76</v>
       </c>
       <c r="G67" s="5" t="s">
-        <v>66</v>
+        <v>65</v>
       </c>
       <c r="H67" s="5">
         <v>9136</v>
@@ -3399,56 +3390,56 @@
         <v>14</v>
       </c>
       <c r="J67" s="7" t="s">
-        <v>67</v>
+        <v>66</v>
       </c>
     </row>
     <row r="68" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A68" s="1" t="s">
-        <v>103</v>
+        <v>101</v>
       </c>
       <c r="B68" s="5" t="s">
-        <v>86</v>
+        <v>84</v>
       </c>
       <c r="C68" s="1" t="s">
-        <v>98</v>
+        <v>96</v>
       </c>
       <c r="D68" s="1">
         <v>1992</v>
       </c>
       <c r="E68" s="9" t="s">
-        <v>94</v>
+        <v>92</v>
       </c>
       <c r="F68" s="3">
         <v>1</v>
       </c>
       <c r="G68" t="s">
-        <v>104</v>
+        <v>102</v>
       </c>
       <c r="H68" s="1">
         <v>9186</v>
       </c>
       <c r="I68" s="9" t="s">
-        <v>105</v>
+        <v>103</v>
       </c>
       <c r="J68" s="1" t="s">
-        <v>97</v>
+        <v>95</v>
       </c>
     </row>
     <row r="69" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A69" s="1" t="s">
-        <v>93</v>
+        <v>91</v>
       </c>
       <c r="B69" s="5" t="s">
-        <v>89</v>
+        <v>87</v>
       </c>
       <c r="C69" s="5" t="s">
-        <v>79</v>
+        <v>78</v>
       </c>
       <c r="D69" s="1">
         <v>2004</v>
       </c>
       <c r="E69" s="9" t="s">
-        <v>94</v>
+        <v>92</v>
       </c>
       <c r="F69" s="6">
         <v>1</v>
@@ -3468,25 +3459,25 @@
     </row>
     <row r="70" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A70" s="5" t="s">
-        <v>95</v>
+        <v>93</v>
       </c>
       <c r="B70" s="5" t="s">
-        <v>86</v>
+        <v>84</v>
       </c>
       <c r="C70" s="5" t="s">
-        <v>98</v>
+        <v>96</v>
       </c>
       <c r="D70" s="5">
         <v>2009</v>
       </c>
       <c r="E70" s="5" t="s">
-        <v>94</v>
+        <v>92</v>
       </c>
       <c r="F70" s="6">
         <v>1</v>
       </c>
       <c r="G70" s="5" t="s">
-        <v>96</v>
+        <v>94</v>
       </c>
       <c r="H70" s="5">
         <v>9065</v>
@@ -3495,30 +3486,30 @@
         <v>14</v>
       </c>
       <c r="J70" s="1" t="s">
-        <v>97</v>
+        <v>95</v>
       </c>
     </row>
     <row r="71" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A71" s="5" t="s">
-        <v>223</v>
+        <v>220</v>
       </c>
       <c r="B71" s="5" t="s">
         <v>9</v>
       </c>
       <c r="C71" s="5" t="s">
-        <v>87</v>
+        <v>85</v>
       </c>
       <c r="D71" s="5">
         <v>2004</v>
       </c>
       <c r="E71" s="5" t="s">
-        <v>94</v>
+        <v>92</v>
       </c>
       <c r="F71" s="6" t="s">
-        <v>77</v>
+        <v>76</v>
       </c>
       <c r="G71" s="5" t="s">
-        <v>224</v>
+        <v>221</v>
       </c>
       <c r="H71" s="5">
         <v>9090</v>
@@ -3532,13 +3523,13 @@
     </row>
     <row r="72" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A72" s="5" t="s">
-        <v>199</v>
+        <v>197</v>
       </c>
       <c r="B72" s="5" t="s">
-        <v>86</v>
+        <v>84</v>
       </c>
       <c r="C72" s="5" t="s">
-        <v>98</v>
+        <v>96</v>
       </c>
       <c r="D72" s="5">
         <v>1993</v>
@@ -3550,24 +3541,24 @@
         <v>1</v>
       </c>
       <c r="G72" s="5" t="s">
-        <v>200</v>
+        <v>198</v>
       </c>
       <c r="H72" s="5">
         <v>9138</v>
       </c>
       <c r="I72" s="9" t="s">
-        <v>105</v>
+        <v>103</v>
       </c>
     </row>
     <row r="73" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A73" s="5" t="s">
-        <v>177</v>
+        <v>175</v>
       </c>
       <c r="B73" s="5" t="s">
-        <v>86</v>
+        <v>84</v>
       </c>
       <c r="C73" s="5" t="s">
-        <v>98</v>
+        <v>96</v>
       </c>
       <c r="D73" s="5">
         <v>1993</v>
@@ -3579,27 +3570,27 @@
         <v>1</v>
       </c>
       <c r="G73" s="5" t="s">
-        <v>178</v>
+        <v>176</v>
       </c>
       <c r="H73" s="5">
         <v>9172</v>
       </c>
       <c r="I73" s="9" t="s">
-        <v>105</v>
+        <v>103</v>
       </c>
       <c r="J73" s="1" t="s">
-        <v>97</v>
+        <v>95</v>
       </c>
     </row>
     <row r="74" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A74" s="5" t="s">
-        <v>191</v>
+        <v>189</v>
       </c>
       <c r="B74" s="5" t="s">
-        <v>86</v>
+        <v>84</v>
       </c>
       <c r="C74" s="5" t="s">
-        <v>98</v>
+        <v>96</v>
       </c>
       <c r="D74" s="5">
         <v>1993</v>
@@ -3611,30 +3602,30 @@
         <v>1</v>
       </c>
       <c r="G74" s="5" t="s">
-        <v>192</v>
+        <v>190</v>
       </c>
       <c r="H74" s="5">
         <v>9163</v>
       </c>
       <c r="I74" s="9" t="s">
-        <v>105</v>
+        <v>103</v>
       </c>
       <c r="J74" s="1" t="s">
-        <v>97</v>
+        <v>95</v>
       </c>
     </row>
     <row r="75" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A75" s="5" t="s">
-        <v>209</v>
+        <v>207</v>
       </c>
       <c r="B75" s="5" t="s">
-        <v>86</v>
+        <v>84</v>
       </c>
       <c r="C75" s="5" t="s">
-        <v>98</v>
+        <v>96</v>
       </c>
       <c r="D75" s="5" t="s">
-        <v>77</v>
+        <v>76</v>
       </c>
       <c r="E75" s="5" t="s">
         <v>57</v>
@@ -3643,30 +3634,30 @@
         <v>1</v>
       </c>
       <c r="G75" s="5" t="s">
-        <v>210</v>
+        <v>208</v>
       </c>
       <c r="H75" s="5">
         <v>9118</v>
       </c>
       <c r="I75" s="9" t="s">
-        <v>105</v>
+        <v>103</v>
       </c>
       <c r="J75" s="1" t="s">
-        <v>97</v>
+        <v>95</v>
       </c>
     </row>
     <row r="76" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A76" s="5" t="s">
-        <v>181</v>
+        <v>179</v>
       </c>
       <c r="B76" s="5" t="s">
-        <v>86</v>
+        <v>84</v>
       </c>
       <c r="C76" s="5" t="s">
-        <v>98</v>
+        <v>96</v>
       </c>
       <c r="D76" s="5" t="s">
-        <v>77</v>
+        <v>76</v>
       </c>
       <c r="E76" s="5" t="s">
         <v>57</v>
@@ -3675,30 +3666,30 @@
         <v>1</v>
       </c>
       <c r="G76" s="5" t="s">
-        <v>182</v>
+        <v>180</v>
       </c>
       <c r="H76" s="5">
         <v>9171</v>
       </c>
       <c r="I76" s="9" t="s">
-        <v>105</v>
+        <v>103</v>
       </c>
       <c r="J76" s="1" t="s">
-        <v>97</v>
+        <v>95</v>
       </c>
     </row>
     <row r="77" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A77" s="5" t="s">
-        <v>195</v>
+        <v>193</v>
       </c>
       <c r="B77" s="5" t="s">
-        <v>89</v>
+        <v>87</v>
       </c>
       <c r="C77" s="5" t="s">
         <v>19</v>
       </c>
       <c r="D77" s="5" t="s">
-        <v>77</v>
+        <v>76</v>
       </c>
       <c r="E77" s="5" t="s">
         <v>57</v>
@@ -3707,13 +3698,13 @@
         <v>1</v>
       </c>
       <c r="G77" s="5" t="s">
-        <v>196</v>
+        <v>194</v>
       </c>
       <c r="H77" s="5">
         <v>9145</v>
       </c>
       <c r="I77" s="9" t="s">
-        <v>105</v>
+        <v>103</v>
       </c>
       <c r="J77" s="1" t="s">
         <v>12</v>
@@ -3721,16 +3712,16 @@
     </row>
     <row r="78" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A78" s="5" t="s">
-        <v>183</v>
+        <v>181</v>
       </c>
       <c r="B78" s="5" t="s">
-        <v>86</v>
+        <v>84</v>
       </c>
       <c r="C78" s="5" t="s">
         <v>19</v>
       </c>
       <c r="D78" s="5" t="s">
-        <v>77</v>
+        <v>76</v>
       </c>
       <c r="E78" s="5" t="s">
         <v>57</v>
@@ -3739,30 +3730,30 @@
         <v>1</v>
       </c>
       <c r="G78" s="5" t="s">
-        <v>184</v>
+        <v>182</v>
       </c>
       <c r="H78" s="5">
         <v>9168</v>
       </c>
       <c r="I78" s="9" t="s">
-        <v>105</v>
+        <v>103</v>
       </c>
       <c r="J78" s="1" t="s">
-        <v>97</v>
+        <v>95</v>
       </c>
     </row>
     <row r="79" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A79" s="5" t="s">
-        <v>122</v>
+        <v>120</v>
       </c>
       <c r="B79" s="5" t="s">
-        <v>86</v>
+        <v>84</v>
       </c>
       <c r="C79" s="5" t="s">
         <v>19</v>
       </c>
       <c r="D79" s="5" t="s">
-        <v>77</v>
+        <v>76</v>
       </c>
       <c r="E79" s="5" t="s">
         <v>57</v>
@@ -3771,13 +3762,13 @@
         <v>1</v>
       </c>
       <c r="G79" s="5" t="s">
-        <v>123</v>
+        <v>121</v>
       </c>
       <c r="H79" s="5">
         <v>9270</v>
       </c>
       <c r="I79" s="9" t="s">
-        <v>105</v>
+        <v>103</v>
       </c>
       <c r="J79" s="1" t="s">
         <v>12</v>
@@ -3785,16 +3776,16 @@
     </row>
     <row r="80" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A80" s="5" t="s">
-        <v>205</v>
+        <v>203</v>
       </c>
       <c r="B80" s="5" t="s">
-        <v>86</v>
+        <v>84</v>
       </c>
       <c r="C80" s="5" t="s">
         <v>19</v>
       </c>
       <c r="D80" s="5" t="s">
-        <v>77</v>
+        <v>76</v>
       </c>
       <c r="E80" s="5" t="s">
         <v>57</v>
@@ -3803,13 +3794,13 @@
         <v>1</v>
       </c>
       <c r="G80" s="5" t="s">
-        <v>206</v>
+        <v>204</v>
       </c>
       <c r="H80" s="5">
         <v>9121</v>
       </c>
       <c r="I80" s="9" t="s">
-        <v>105</v>
+        <v>103</v>
       </c>
       <c r="J80" s="1" t="s">
         <v>12</v>
@@ -3817,16 +3808,16 @@
     </row>
     <row r="81" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A81" s="5" t="s">
-        <v>201</v>
+        <v>199</v>
       </c>
       <c r="B81" s="5" t="s">
-        <v>86</v>
+        <v>84</v>
       </c>
       <c r="C81" s="5" t="s">
         <v>19</v>
       </c>
       <c r="D81" s="5" t="s">
-        <v>77</v>
+        <v>76</v>
       </c>
       <c r="E81" s="5" t="s">
         <v>57</v>
@@ -3835,13 +3826,13 @@
         <v>1</v>
       </c>
       <c r="G81" s="5" t="s">
-        <v>202</v>
+        <v>200</v>
       </c>
       <c r="H81" s="5">
         <v>9136</v>
       </c>
       <c r="I81" s="9" t="s">
-        <v>105</v>
+        <v>103</v>
       </c>
       <c r="J81" s="1" t="s">
         <v>12</v>
@@ -3849,16 +3840,16 @@
     </row>
     <row r="82" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A82" s="5" t="s">
-        <v>207</v>
+        <v>205</v>
       </c>
       <c r="B82" s="5" t="s">
-        <v>86</v>
+        <v>84</v>
       </c>
       <c r="C82" s="5" t="s">
         <v>19</v>
       </c>
       <c r="D82" s="5" t="s">
-        <v>77</v>
+        <v>76</v>
       </c>
       <c r="E82" s="5" t="s">
         <v>57</v>
@@ -3867,13 +3858,13 @@
         <v>1</v>
       </c>
       <c r="G82" s="5" t="s">
-        <v>208</v>
+        <v>206</v>
       </c>
       <c r="H82" s="5">
         <v>9119</v>
       </c>
       <c r="I82" s="9" t="s">
-        <v>105</v>
+        <v>103</v>
       </c>
       <c r="J82" s="1" t="s">
         <v>12</v>
@@ -3881,13 +3872,13 @@
     </row>
     <row r="83" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A83" s="5" t="s">
+        <v>83</v>
+      </c>
+      <c r="B83" s="5" t="s">
+        <v>84</v>
+      </c>
+      <c r="C83" s="5" t="s">
         <v>85</v>
-      </c>
-      <c r="B83" s="5" t="s">
-        <v>86</v>
-      </c>
-      <c r="C83" s="5" t="s">
-        <v>87</v>
       </c>
       <c r="D83" s="5">
         <v>2013</v>
@@ -3899,7 +3890,7 @@
         <v>1</v>
       </c>
       <c r="G83" s="5" t="s">
-        <v>88</v>
+        <v>86</v>
       </c>
       <c r="H83" s="5">
         <v>2013</v>
@@ -3913,10 +3904,10 @@
     </row>
     <row r="84" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A84" s="5" t="s">
-        <v>211</v>
+        <v>209</v>
       </c>
       <c r="B84" s="5" t="s">
-        <v>89</v>
+        <v>87</v>
       </c>
       <c r="C84" s="5" t="s">
         <v>19</v>
@@ -3931,13 +3922,13 @@
         <v>1</v>
       </c>
       <c r="G84" s="5" t="s">
-        <v>212</v>
+        <v>210</v>
       </c>
       <c r="H84" s="5">
         <v>8908</v>
       </c>
       <c r="I84" s="9" t="s">
-        <v>105</v>
+        <v>103</v>
       </c>
       <c r="J84" s="1" t="s">
         <v>12</v>
@@ -3945,16 +3936,16 @@
     </row>
     <row r="85" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A85" s="5" t="s">
-        <v>193</v>
+        <v>191</v>
       </c>
       <c r="B85" s="5" t="s">
-        <v>86</v>
+        <v>84</v>
       </c>
       <c r="C85" s="5" t="s">
         <v>19</v>
       </c>
       <c r="D85" s="5" t="s">
-        <v>77</v>
+        <v>76</v>
       </c>
       <c r="E85" s="5" t="s">
         <v>57</v>
@@ -3963,13 +3954,13 @@
         <v>1</v>
       </c>
       <c r="G85" s="5" t="s">
-        <v>194</v>
+        <v>192</v>
       </c>
       <c r="H85" s="5">
         <v>9158</v>
       </c>
       <c r="I85" s="9" t="s">
-        <v>105</v>
+        <v>103</v>
       </c>
       <c r="J85" s="1" t="s">
         <v>12</v>
@@ -3977,10 +3968,10 @@
     </row>
     <row r="86" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A86" s="5" t="s">
-        <v>203</v>
+        <v>201</v>
       </c>
       <c r="B86" s="5" t="s">
-        <v>86</v>
+        <v>84</v>
       </c>
       <c r="C86" s="5" t="s">
         <v>19</v>
@@ -3995,13 +3986,13 @@
         <v>1</v>
       </c>
       <c r="G86" s="5" t="s">
-        <v>204</v>
+        <v>202</v>
       </c>
       <c r="H86" s="5">
         <v>9135</v>
       </c>
       <c r="I86" s="9" t="s">
-        <v>105</v>
+        <v>103</v>
       </c>
       <c r="J86" s="1" t="s">
         <v>12</v>
@@ -4009,10 +4000,10 @@
     </row>
     <row r="87" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A87" s="5" t="s">
-        <v>213</v>
+        <v>211</v>
       </c>
       <c r="B87" s="5" t="s">
-        <v>86</v>
+        <v>84</v>
       </c>
       <c r="C87" s="5" t="s">
         <v>19</v>
@@ -4027,13 +4018,13 @@
         <v>1</v>
       </c>
       <c r="G87" s="5" t="s">
-        <v>214</v>
+        <v>212</v>
       </c>
       <c r="H87" s="5">
         <v>6378</v>
       </c>
       <c r="I87" s="9" t="s">
-        <v>105</v>
+        <v>103</v>
       </c>
       <c r="J87" s="1" t="s">
         <v>12</v>
@@ -4044,7 +4035,7 @@
         <v>54</v>
       </c>
       <c r="B88" s="5" t="s">
-        <v>86</v>
+        <v>84</v>
       </c>
       <c r="C88" s="5" t="s">
         <v>20</v>
@@ -4073,10 +4064,10 @@
     </row>
     <row r="89" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A89" s="5" t="s">
-        <v>215</v>
+        <v>213</v>
       </c>
       <c r="B89" s="5" t="s">
-        <v>89</v>
+        <v>87</v>
       </c>
       <c r="C89" s="5" t="s">
         <v>19</v>
@@ -4085,13 +4076,13 @@
         <v>2003</v>
       </c>
       <c r="E89" s="5" t="s">
+        <v>57</v>
+      </c>
+      <c r="F89" s="6">
+        <v>3</v>
+      </c>
+      <c r="G89" s="5" t="s">
         <v>217</v>
-      </c>
-      <c r="F89" s="6" t="s">
-        <v>77</v>
-      </c>
-      <c r="G89" s="5" t="s">
-        <v>220</v>
       </c>
       <c r="H89" s="5">
         <v>9148</v>
@@ -4105,10 +4096,10 @@
     </row>
     <row r="90" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A90" s="5" t="s">
-        <v>216</v>
+        <v>214</v>
       </c>
       <c r="B90" s="5" t="s">
-        <v>89</v>
+        <v>87</v>
       </c>
       <c r="C90" s="5" t="s">
         <v>19</v>
@@ -4117,16 +4108,16 @@
         <v>2004</v>
       </c>
       <c r="E90" s="5" t="s">
-        <v>217</v>
-      </c>
-      <c r="F90" s="6" t="s">
-        <v>77</v>
+        <v>57</v>
+      </c>
+      <c r="F90" s="6">
+        <v>3</v>
       </c>
       <c r="G90" s="5" t="s">
-        <v>219</v>
+        <v>216</v>
       </c>
       <c r="H90" s="5" t="s">
-        <v>218</v>
+        <v>215</v>
       </c>
       <c r="I90" s="5" t="s">
         <v>14</v>
@@ -4140,19 +4131,19 @@
         <v>60</v>
       </c>
       <c r="B91" s="5" t="s">
-        <v>86</v>
+        <v>84</v>
       </c>
       <c r="C91" s="5" t="s">
-        <v>63</v>
+        <v>62</v>
       </c>
       <c r="D91" s="5">
         <v>1991</v>
       </c>
       <c r="E91" s="5" t="s">
-        <v>62</v>
-      </c>
-      <c r="F91" s="6" t="s">
-        <v>77</v>
+        <v>57</v>
+      </c>
+      <c r="F91" s="6">
+        <v>4</v>
       </c>
       <c r="G91" s="5" t="s">
         <v>61</v>
@@ -4169,25 +4160,25 @@
     </row>
     <row r="92" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A92" s="5" t="s">
+        <v>77</v>
+      </c>
+      <c r="B92" s="5" t="s">
+        <v>87</v>
+      </c>
+      <c r="C92" s="5" t="s">
         <v>78</v>
-      </c>
-      <c r="B92" s="5" t="s">
-        <v>89</v>
-      </c>
-      <c r="C92" s="5" t="s">
-        <v>79</v>
       </c>
       <c r="D92" s="5">
         <v>2005</v>
       </c>
       <c r="E92" s="5" t="s">
-        <v>80</v>
+        <v>16</v>
       </c>
       <c r="F92" s="6" t="s">
-        <v>77</v>
+        <v>76</v>
       </c>
       <c r="G92" s="5" t="s">
-        <v>81</v>
+        <v>79</v>
       </c>
       <c r="H92" s="5">
         <v>1130</v>
@@ -4201,10 +4192,10 @@
     </row>
     <row r="93" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A93" s="1" t="s">
-        <v>90</v>
+        <v>88</v>
       </c>
       <c r="B93" s="5" t="s">
-        <v>86</v>
+        <v>84</v>
       </c>
       <c r="C93" s="1" t="s">
         <v>19</v>
@@ -4213,13 +4204,13 @@
         <v>2008</v>
       </c>
       <c r="E93" s="8" t="s">
-        <v>91</v>
+        <v>89</v>
       </c>
       <c r="F93" s="6" t="s">
-        <v>77</v>
+        <v>76</v>
       </c>
       <c r="G93" s="1" t="s">
-        <v>92</v>
+        <v>90</v>
       </c>
       <c r="H93" s="1">
         <v>8418</v>
@@ -4233,10 +4224,10 @@
     </row>
     <row r="94" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A94" s="5" t="s">
-        <v>221</v>
+        <v>218</v>
       </c>
       <c r="B94" s="5" t="s">
-        <v>89</v>
+        <v>87</v>
       </c>
       <c r="C94" s="1" t="s">
         <v>19</v>
@@ -4245,13 +4236,13 @@
         <v>2003</v>
       </c>
       <c r="E94" s="8" t="s">
-        <v>91</v>
+        <v>89</v>
       </c>
       <c r="F94" s="6" t="s">
-        <v>77</v>
+        <v>76</v>
       </c>
       <c r="G94" s="5" t="s">
-        <v>222</v>
+        <v>219</v>
       </c>
       <c r="H94" s="5">
         <v>8437</v>

--- a/tabular/extension/srlv-refseqs.xlsx
+++ b/tabular/extension/srlv-refseqs.xlsx
@@ -1,19 +1,19 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="10509"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="11010"/>
   <workbookPr date1904="1"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/robertgifford/Projects/virus/comparative/Retrovirus/Lentivirus-GLUE/tabular/extension/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{E6E994C4-3CC6-614E-B4E8-EFD7ED9F2684}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{2C6942CE-91E1-D448-B89F-5D96BD61FEE7}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="15860" yWindow="2840" windowWidth="28060" windowHeight="17540" tabRatio="500" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
-    <sheet name="SRLV_curated.csv" sheetId="1" r:id="rId1"/>
+    <sheet name="SRLV refseqs" sheetId="1" r:id="rId1"/>
     <sheet name="OUT" sheetId="2" r:id="rId2"/>
   </sheets>
   <calcPr calcId="191029"/>
@@ -29,7 +29,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="805" uniqueCount="222">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="717" uniqueCount="217">
   <si>
     <t>Accession</t>
   </si>
@@ -64,9 +64,6 @@
     <t>France</t>
   </si>
   <si>
-    <t>B1</t>
-  </si>
-  <si>
     <t>Europe</t>
   </si>
   <si>
@@ -76,15 +73,9 @@
     <t>Genome</t>
   </si>
   <si>
-    <t>Ovis</t>
-  </si>
-  <si>
     <t>A</t>
   </si>
   <si>
-    <t>Env</t>
-  </si>
-  <si>
     <t>Gag</t>
   </si>
   <si>
@@ -185,12 +176,6 @@
   </si>
   <si>
     <t>Africa</t>
-  </si>
-  <si>
-    <t>M60855</t>
-  </si>
-  <si>
-    <t>CAEV-63</t>
   </si>
   <si>
     <t>NC_001463</t>
@@ -1233,10 +1218,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:J94"/>
+  <dimension ref="A1:J93"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A59" workbookViewId="0">
-      <selection activeCell="E67" sqref="E67"/>
+    <sheetView tabSelected="1" topLeftCell="A65" workbookViewId="0">
+      <selection activeCell="D80" sqref="A1:J93"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -1266,7 +1251,7 @@
         <v>4</v>
       </c>
       <c r="F1" s="4" t="s">
-        <v>56</v>
+        <v>51</v>
       </c>
       <c r="G1" s="2" t="s">
         <v>5</v>
@@ -1283,275 +1268,275 @@
     </row>
     <row r="2" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A2" s="5" t="s">
-        <v>59</v>
+        <v>54</v>
       </c>
       <c r="B2" s="5" t="s">
-        <v>87</v>
+        <v>82</v>
       </c>
       <c r="C2" s="5" t="s">
-        <v>71</v>
+        <v>66</v>
       </c>
       <c r="D2" s="5">
         <v>1949</v>
       </c>
       <c r="E2" s="5" t="s">
-        <v>16</v>
+        <v>14</v>
       </c>
       <c r="F2" s="6">
         <v>1</v>
       </c>
       <c r="G2" s="5" t="s">
-        <v>67</v>
+        <v>62</v>
       </c>
       <c r="H2" s="5">
         <v>9202</v>
       </c>
       <c r="I2" s="5" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="J2" s="7" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
     </row>
     <row r="3" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A3" s="5" t="s">
-        <v>59</v>
+        <v>54</v>
       </c>
       <c r="B3" s="5" t="s">
-        <v>87</v>
+        <v>82</v>
       </c>
       <c r="C3" s="5" t="s">
-        <v>71</v>
+        <v>66</v>
       </c>
       <c r="D3" s="5">
         <v>1951</v>
       </c>
       <c r="E3" s="5" t="s">
-        <v>16</v>
+        <v>14</v>
       </c>
       <c r="F3" s="6">
         <v>1</v>
       </c>
       <c r="G3" s="5" t="s">
-        <v>67</v>
+        <v>62</v>
       </c>
       <c r="H3" s="5">
         <v>9202</v>
       </c>
       <c r="I3" s="5" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="J3" s="7" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
     </row>
     <row r="4" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A4" s="5" t="s">
-        <v>80</v>
+        <v>75</v>
       </c>
       <c r="B4" s="5" t="s">
-        <v>87</v>
+        <v>82</v>
       </c>
       <c r="C4" s="5" t="s">
-        <v>82</v>
+        <v>77</v>
       </c>
       <c r="D4" s="5">
         <v>1996</v>
       </c>
       <c r="E4" s="5" t="s">
-        <v>16</v>
+        <v>14</v>
       </c>
       <c r="F4" s="6">
         <v>1</v>
       </c>
       <c r="G4" s="5" t="s">
-        <v>81</v>
+        <v>76</v>
       </c>
       <c r="H4" s="5">
         <v>9189</v>
       </c>
       <c r="I4" s="5" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="J4" s="7" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
     </row>
     <row r="5" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A5" s="5" t="s">
-        <v>23</v>
+        <v>20</v>
       </c>
       <c r="B5" s="5" t="s">
-        <v>84</v>
+        <v>79</v>
       </c>
       <c r="C5" s="5" t="s">
-        <v>24</v>
+        <v>21</v>
       </c>
       <c r="D5" s="5">
         <v>1999</v>
       </c>
       <c r="E5" s="5" t="s">
-        <v>16</v>
+        <v>14</v>
       </c>
       <c r="F5" s="6">
         <v>4</v>
       </c>
       <c r="G5" s="5" t="s">
-        <v>25</v>
+        <v>22</v>
       </c>
       <c r="H5" s="5">
         <v>9023</v>
       </c>
       <c r="I5" s="5" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="J5" s="7" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
     </row>
     <row r="6" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A6" s="5" t="s">
-        <v>27</v>
+        <v>24</v>
       </c>
       <c r="B6" s="5" t="s">
-        <v>84</v>
+        <v>79</v>
       </c>
       <c r="C6" s="5" t="s">
-        <v>24</v>
+        <v>21</v>
       </c>
       <c r="D6" s="5">
         <v>1999</v>
       </c>
       <c r="E6" s="5" t="s">
-        <v>16</v>
+        <v>14</v>
       </c>
       <c r="F6" s="6">
         <v>5</v>
       </c>
       <c r="G6" s="5" t="s">
-        <v>28</v>
+        <v>25</v>
       </c>
       <c r="H6" s="5">
         <v>1709</v>
       </c>
       <c r="I6" s="5" t="s">
-        <v>26</v>
+        <v>23</v>
       </c>
       <c r="J6" s="7" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
     </row>
     <row r="7" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A7" s="5" t="s">
-        <v>29</v>
+        <v>26</v>
       </c>
       <c r="B7" s="5" t="s">
-        <v>84</v>
+        <v>79</v>
       </c>
       <c r="C7" s="5" t="s">
-        <v>24</v>
+        <v>21</v>
       </c>
       <c r="D7" s="5">
         <v>1999</v>
       </c>
       <c r="E7" s="5" t="s">
-        <v>16</v>
+        <v>14</v>
       </c>
       <c r="F7" s="6">
         <v>3</v>
       </c>
       <c r="G7" s="5" t="s">
-        <v>30</v>
+        <v>27</v>
       </c>
       <c r="H7" s="5">
         <v>1703</v>
       </c>
       <c r="I7" s="5" t="s">
-        <v>26</v>
+        <v>23</v>
       </c>
       <c r="J7" s="7" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
     </row>
     <row r="8" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A8" s="5" t="s">
-        <v>31</v>
+        <v>28</v>
       </c>
       <c r="B8" s="5" t="s">
-        <v>84</v>
+        <v>79</v>
       </c>
       <c r="C8" s="5" t="s">
-        <v>24</v>
+        <v>21</v>
       </c>
       <c r="D8" s="5">
         <v>1999</v>
       </c>
       <c r="E8" s="5" t="s">
-        <v>16</v>
+        <v>14</v>
       </c>
       <c r="F8" s="6">
         <v>7</v>
       </c>
       <c r="G8" s="5" t="s">
-        <v>32</v>
+        <v>29</v>
       </c>
       <c r="H8" s="5">
         <v>1706</v>
       </c>
       <c r="I8" s="5" t="s">
-        <v>26</v>
+        <v>23</v>
       </c>
       <c r="J8" s="7" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
     </row>
     <row r="9" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A9" s="5" t="s">
-        <v>33</v>
+        <v>30</v>
       </c>
       <c r="B9" s="5" t="s">
-        <v>84</v>
+        <v>79</v>
       </c>
       <c r="C9" s="5" t="s">
-        <v>19</v>
+        <v>16</v>
       </c>
       <c r="D9" s="5">
         <v>2006</v>
       </c>
       <c r="E9" s="5" t="s">
-        <v>16</v>
+        <v>14</v>
       </c>
       <c r="F9" s="6">
         <v>8</v>
       </c>
       <c r="G9" s="5" t="s">
-        <v>34</v>
+        <v>31</v>
       </c>
       <c r="H9" s="5">
         <v>1305</v>
       </c>
       <c r="I9" s="5" t="s">
-        <v>18</v>
+        <v>15</v>
       </c>
       <c r="J9" s="7" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
     </row>
     <row r="10" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A10" s="5" t="s">
-        <v>36</v>
+        <v>33</v>
       </c>
       <c r="B10" s="5" t="s">
-        <v>87</v>
+        <v>82</v>
       </c>
       <c r="C10" s="5" t="s">
-        <v>35</v>
+        <v>32</v>
       </c>
       <c r="D10" s="5">
         <v>2008</v>
       </c>
       <c r="E10" s="5" t="s">
-        <v>16</v>
+        <v>14</v>
       </c>
       <c r="F10" s="6">
         <v>13</v>
@@ -1563,27 +1548,27 @@
         <v>1004</v>
       </c>
       <c r="I10" s="5" t="s">
-        <v>18</v>
+        <v>15</v>
       </c>
       <c r="J10" s="7" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
     </row>
     <row r="11" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A11" s="5" t="s">
-        <v>37</v>
+        <v>34</v>
       </c>
       <c r="B11" s="5" t="s">
-        <v>87</v>
+        <v>82</v>
       </c>
       <c r="C11" s="5" t="s">
-        <v>35</v>
+        <v>32</v>
       </c>
       <c r="D11" s="5">
         <v>2008</v>
       </c>
       <c r="E11" s="5" t="s">
-        <v>16</v>
+        <v>14</v>
       </c>
       <c r="F11" s="6">
         <v>12</v>
@@ -1595,94 +1580,94 @@
         <v>1004</v>
       </c>
       <c r="I11" s="5" t="s">
-        <v>18</v>
+        <v>15</v>
       </c>
       <c r="J11" s="7" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
     </row>
     <row r="12" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A12" s="5" t="s">
-        <v>38</v>
+        <v>35</v>
       </c>
       <c r="B12" s="5" t="s">
-        <v>84</v>
+        <v>79</v>
       </c>
       <c r="C12" s="5" t="s">
-        <v>19</v>
+        <v>16</v>
       </c>
       <c r="D12" s="5">
         <v>2010</v>
       </c>
       <c r="E12" s="5" t="s">
-        <v>16</v>
+        <v>14</v>
       </c>
       <c r="F12" s="6">
         <v>11</v>
       </c>
       <c r="G12" s="5" t="s">
-        <v>39</v>
+        <v>36</v>
       </c>
       <c r="H12" s="5">
         <v>648</v>
       </c>
       <c r="I12" s="5" t="s">
-        <v>18</v>
+        <v>15</v>
       </c>
       <c r="J12" s="7" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
     </row>
     <row r="13" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A13" s="5" t="s">
-        <v>40</v>
+        <v>37</v>
       </c>
       <c r="B13" s="5" t="s">
-        <v>87</v>
+        <v>82</v>
       </c>
       <c r="C13" s="5" t="s">
-        <v>19</v>
+        <v>16</v>
       </c>
       <c r="D13" s="5">
         <v>2010</v>
       </c>
       <c r="E13" s="5" t="s">
-        <v>16</v>
+        <v>14</v>
       </c>
       <c r="F13" s="6">
         <v>9</v>
       </c>
       <c r="G13" s="5" t="s">
-        <v>41</v>
+        <v>38</v>
       </c>
       <c r="H13" s="5">
         <v>660</v>
       </c>
       <c r="I13" s="5" t="s">
-        <v>18</v>
+        <v>15</v>
       </c>
       <c r="J13" s="7" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
     </row>
     <row r="14" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A14" s="5" t="s">
-        <v>42</v>
+        <v>39</v>
       </c>
       <c r="B14" s="5" t="s">
-        <v>87</v>
+        <v>82</v>
       </c>
       <c r="C14" s="5" t="s">
-        <v>78</v>
+        <v>73</v>
       </c>
       <c r="D14" s="5">
         <v>2005</v>
       </c>
       <c r="E14" s="5" t="s">
-        <v>16</v>
+        <v>14</v>
       </c>
       <c r="F14" s="6" t="s">
-        <v>76</v>
+        <v>71</v>
       </c>
       <c r="G14" s="5">
         <v>697</v>
@@ -1691,830 +1676,830 @@
         <v>9175</v>
       </c>
       <c r="I14" s="5" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="J14" s="7" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
     </row>
     <row r="15" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A15" s="5" t="s">
-        <v>44</v>
+        <v>41</v>
       </c>
       <c r="B15" s="5" t="s">
-        <v>87</v>
+        <v>82</v>
       </c>
       <c r="C15" s="5" t="s">
-        <v>43</v>
+        <v>40</v>
       </c>
       <c r="D15" s="5">
         <v>2011</v>
       </c>
       <c r="E15" s="5" t="s">
-        <v>16</v>
+        <v>14</v>
       </c>
       <c r="F15" s="6">
         <v>15</v>
       </c>
       <c r="G15" s="5" t="s">
-        <v>45</v>
+        <v>42</v>
       </c>
       <c r="H15" s="5">
         <v>1061</v>
       </c>
       <c r="I15" s="5" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="J15" s="7" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
     </row>
     <row r="16" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A16" s="5" t="s">
-        <v>46</v>
+        <v>43</v>
       </c>
       <c r="B16" s="5" t="s">
-        <v>84</v>
+        <v>79</v>
       </c>
       <c r="C16" s="5" t="s">
-        <v>43</v>
+        <v>40</v>
       </c>
       <c r="D16" s="5">
         <v>2008</v>
       </c>
       <c r="E16" s="5" t="s">
-        <v>16</v>
+        <v>14</v>
       </c>
       <c r="F16" s="6">
         <v>14</v>
       </c>
       <c r="G16" s="5" t="s">
-        <v>47</v>
+        <v>44</v>
       </c>
       <c r="H16" s="5">
         <v>1523</v>
       </c>
       <c r="I16" s="5" t="s">
-        <v>21</v>
+        <v>18</v>
       </c>
       <c r="J16" s="7" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
     </row>
     <row r="17" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A17" s="5" t="s">
-        <v>106</v>
+        <v>101</v>
       </c>
       <c r="B17" s="5" t="s">
-        <v>84</v>
+        <v>79</v>
       </c>
       <c r="C17" s="5" t="s">
-        <v>24</v>
+        <v>21</v>
       </c>
       <c r="D17" s="5">
         <v>2011</v>
       </c>
       <c r="E17" s="5" t="s">
-        <v>16</v>
+        <v>14</v>
       </c>
       <c r="F17" s="6" t="s">
-        <v>76</v>
+        <v>71</v>
       </c>
       <c r="G17" s="5" t="s">
-        <v>107</v>
+        <v>102</v>
       </c>
       <c r="H17" s="5">
         <v>9464</v>
       </c>
       <c r="I17" s="9" t="s">
-        <v>103</v>
+        <v>98</v>
       </c>
       <c r="J17" s="1" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
     </row>
     <row r="18" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A18" s="5" t="s">
-        <v>108</v>
+        <v>103</v>
       </c>
       <c r="B18" s="5" t="s">
-        <v>87</v>
+        <v>82</v>
       </c>
       <c r="C18" s="5" t="s">
-        <v>24</v>
+        <v>21</v>
       </c>
       <c r="D18" s="5">
         <v>2011</v>
       </c>
       <c r="E18" s="5" t="s">
-        <v>16</v>
+        <v>14</v>
       </c>
       <c r="F18" s="6" t="s">
-        <v>76</v>
+        <v>71</v>
       </c>
       <c r="G18" s="5" t="s">
-        <v>109</v>
+        <v>104</v>
       </c>
       <c r="H18" s="5">
         <v>9464</v>
       </c>
       <c r="I18" s="9" t="s">
-        <v>103</v>
+        <v>98</v>
       </c>
       <c r="J18" s="1" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
     </row>
     <row r="19" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A19" s="5" t="s">
-        <v>110</v>
+        <v>105</v>
       </c>
       <c r="B19" s="5" t="s">
-        <v>87</v>
+        <v>82</v>
       </c>
       <c r="C19" s="5" t="s">
-        <v>24</v>
+        <v>21</v>
       </c>
       <c r="D19" s="5">
         <v>2011</v>
       </c>
       <c r="E19" s="5" t="s">
-        <v>16</v>
+        <v>14</v>
       </c>
       <c r="F19" s="6" t="s">
-        <v>76</v>
+        <v>71</v>
       </c>
       <c r="G19" s="5" t="s">
-        <v>111</v>
+        <v>106</v>
       </c>
       <c r="H19" s="5">
         <v>9464</v>
       </c>
       <c r="I19" s="9" t="s">
-        <v>103</v>
+        <v>98</v>
       </c>
       <c r="J19" s="1" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
     </row>
     <row r="20" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A20" s="5" t="s">
-        <v>97</v>
+        <v>92</v>
       </c>
       <c r="B20" s="5" t="s">
-        <v>87</v>
+        <v>82</v>
       </c>
       <c r="C20" s="5" t="s">
-        <v>20</v>
+        <v>17</v>
       </c>
       <c r="D20" s="5">
         <v>2006</v>
       </c>
       <c r="E20" s="5" t="s">
-        <v>16</v>
+        <v>14</v>
       </c>
       <c r="F20" s="6">
         <v>2</v>
       </c>
       <c r="G20" s="5" t="s">
-        <v>98</v>
+        <v>93</v>
       </c>
       <c r="H20" s="5">
         <v>9206</v>
       </c>
       <c r="I20" s="1" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="J20" s="7" t="s">
-        <v>22</v>
+        <v>19</v>
       </c>
     </row>
     <row r="21" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A21" s="5" t="s">
-        <v>99</v>
+        <v>94</v>
       </c>
       <c r="B21" s="5" t="s">
-        <v>87</v>
+        <v>82</v>
       </c>
       <c r="C21" s="5" t="s">
-        <v>20</v>
+        <v>17</v>
       </c>
       <c r="D21" s="5">
         <v>2003</v>
       </c>
       <c r="E21" s="5" t="s">
-        <v>16</v>
+        <v>14</v>
       </c>
       <c r="F21" s="6">
         <v>2</v>
       </c>
       <c r="G21" s="5" t="s">
-        <v>100</v>
+        <v>95</v>
       </c>
       <c r="H21" s="5">
         <v>9185</v>
       </c>
       <c r="I21" s="1" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="J21" s="7" t="s">
-        <v>22</v>
+        <v>19</v>
       </c>
     </row>
     <row r="22" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A22" s="5" t="s">
-        <v>70</v>
+        <v>65</v>
       </c>
       <c r="B22" s="5" t="s">
-        <v>87</v>
+        <v>82</v>
       </c>
       <c r="C22" s="5" t="s">
-        <v>71</v>
+        <v>66</v>
       </c>
       <c r="D22" s="5">
         <v>1953</v>
       </c>
       <c r="E22" s="5" t="s">
-        <v>16</v>
+        <v>14</v>
       </c>
       <c r="F22" s="6">
         <v>1</v>
       </c>
       <c r="G22" s="5" t="s">
-        <v>67</v>
+        <v>62</v>
       </c>
       <c r="H22" s="5">
         <v>9203</v>
       </c>
       <c r="I22" s="5" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="J22" s="7" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
     </row>
     <row r="23" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A23" s="5" t="s">
-        <v>48</v>
+        <v>45</v>
       </c>
       <c r="B23" s="5" t="s">
-        <v>87</v>
+        <v>82</v>
       </c>
       <c r="C23" s="5" t="s">
-        <v>49</v>
+        <v>46</v>
       </c>
       <c r="D23" s="5">
         <v>1976</v>
       </c>
       <c r="E23" s="5" t="s">
-        <v>16</v>
+        <v>14</v>
       </c>
       <c r="F23" s="6">
         <v>1</v>
       </c>
       <c r="G23" s="5" t="s">
-        <v>50</v>
+        <v>47</v>
       </c>
       <c r="H23" s="5">
         <v>9256</v>
       </c>
       <c r="I23" s="5" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="J23" s="7" t="s">
-        <v>51</v>
+        <v>48</v>
       </c>
     </row>
     <row r="24" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A24" s="5" t="s">
-        <v>72</v>
+        <v>67</v>
       </c>
       <c r="B24" s="5" t="s">
-        <v>87</v>
+        <v>82</v>
       </c>
       <c r="C24" s="5" t="s">
-        <v>49</v>
+        <v>46</v>
       </c>
       <c r="D24" s="5">
         <v>1976</v>
       </c>
       <c r="E24" s="5" t="s">
-        <v>16</v>
+        <v>14</v>
       </c>
       <c r="F24" s="6">
         <v>1</v>
       </c>
       <c r="G24" s="5" t="s">
-        <v>50</v>
+        <v>47</v>
       </c>
       <c r="H24" s="5">
         <v>9256</v>
       </c>
       <c r="I24" s="5" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="J24" s="7" t="s">
-        <v>51</v>
+        <v>48</v>
       </c>
     </row>
     <row r="25" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A25" s="5" t="s">
-        <v>69</v>
+        <v>64</v>
       </c>
       <c r="B25" s="5" t="s">
-        <v>87</v>
+        <v>82</v>
       </c>
       <c r="C25" s="5" t="s">
-        <v>71</v>
+        <v>66</v>
       </c>
       <c r="D25" s="5">
         <v>1952</v>
       </c>
       <c r="E25" s="5" t="s">
-        <v>16</v>
+        <v>14</v>
       </c>
       <c r="F25" s="6">
         <v>1</v>
       </c>
       <c r="G25" s="5" t="s">
-        <v>67</v>
+        <v>62</v>
       </c>
       <c r="H25" s="5">
         <v>9202</v>
       </c>
       <c r="I25" s="5" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="J25" s="7" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
     </row>
     <row r="26" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A26" s="5" t="s">
-        <v>68</v>
+        <v>63</v>
       </c>
       <c r="B26" s="5" t="s">
-        <v>87</v>
+        <v>82</v>
       </c>
       <c r="C26" s="5" t="s">
-        <v>71</v>
+        <v>66</v>
       </c>
       <c r="D26" s="5">
         <v>1949</v>
       </c>
       <c r="E26" s="5" t="s">
-        <v>16</v>
+        <v>14</v>
       </c>
       <c r="F26" s="6">
         <v>1</v>
       </c>
       <c r="G26" s="5" t="s">
-        <v>67</v>
+        <v>62</v>
       </c>
       <c r="H26" s="5">
         <v>9225</v>
       </c>
       <c r="I26" s="5" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="J26" s="7" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
     </row>
     <row r="27" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A27" s="5" t="s">
-        <v>116</v>
+        <v>111</v>
       </c>
       <c r="B27" s="5" t="s">
-        <v>84</v>
+        <v>79</v>
       </c>
       <c r="C27" s="5" t="s">
-        <v>19</v>
+        <v>16</v>
       </c>
       <c r="D27" s="5" t="s">
-        <v>76</v>
+        <v>71</v>
       </c>
       <c r="E27" s="5" t="s">
-        <v>16</v>
+        <v>14</v>
       </c>
       <c r="F27" s="6" t="s">
-        <v>76</v>
+        <v>71</v>
       </c>
       <c r="G27" s="5" t="s">
-        <v>117</v>
+        <v>112</v>
       </c>
       <c r="H27" s="5">
         <v>9307</v>
       </c>
       <c r="I27" s="9" t="s">
-        <v>103</v>
+        <v>98</v>
       </c>
       <c r="J27" s="1" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
     </row>
     <row r="28" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A28" s="5" t="s">
-        <v>130</v>
+        <v>125</v>
       </c>
       <c r="B28" s="5" t="s">
-        <v>84</v>
+        <v>79</v>
       </c>
       <c r="C28" s="5" t="s">
-        <v>19</v>
+        <v>16</v>
       </c>
       <c r="D28" s="5" t="s">
-        <v>76</v>
+        <v>71</v>
       </c>
       <c r="E28" s="5" t="s">
-        <v>16</v>
+        <v>14</v>
       </c>
       <c r="F28" s="6" t="s">
-        <v>76</v>
+        <v>71</v>
       </c>
       <c r="G28" s="5" t="s">
-        <v>131</v>
+        <v>126</v>
       </c>
       <c r="H28" s="5">
         <v>9231</v>
       </c>
       <c r="I28" s="9" t="s">
-        <v>103</v>
+        <v>98</v>
       </c>
       <c r="J28" s="1" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
     </row>
     <row r="29" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A29" s="5" t="s">
-        <v>136</v>
+        <v>131</v>
       </c>
       <c r="B29" s="5" t="s">
-        <v>84</v>
+        <v>79</v>
       </c>
       <c r="C29" s="5" t="s">
-        <v>19</v>
+        <v>16</v>
       </c>
       <c r="D29" s="5" t="s">
-        <v>76</v>
+        <v>71</v>
       </c>
       <c r="E29" s="5" t="s">
-        <v>16</v>
+        <v>14</v>
       </c>
       <c r="F29" s="6" t="s">
-        <v>76</v>
+        <v>71</v>
       </c>
       <c r="G29" s="5" t="s">
-        <v>137</v>
+        <v>132</v>
       </c>
       <c r="H29" s="5">
         <v>9206</v>
       </c>
       <c r="I29" s="9" t="s">
-        <v>103</v>
+        <v>98</v>
       </c>
       <c r="J29" s="10" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
     </row>
     <row r="30" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A30" s="5" t="s">
-        <v>104</v>
+        <v>99</v>
       </c>
       <c r="B30" s="5" t="s">
-        <v>84</v>
+        <v>79</v>
       </c>
       <c r="C30" s="5" t="s">
-        <v>19</v>
+        <v>16</v>
       </c>
       <c r="D30" s="5" t="s">
-        <v>76</v>
+        <v>71</v>
       </c>
       <c r="E30" s="5" t="s">
-        <v>16</v>
+        <v>14</v>
       </c>
       <c r="F30" s="6" t="s">
-        <v>76</v>
+        <v>71</v>
       </c>
       <c r="G30" s="5" t="s">
-        <v>105</v>
+        <v>100</v>
       </c>
       <c r="H30" s="5">
         <v>9486</v>
       </c>
       <c r="I30" s="9" t="s">
-        <v>103</v>
+        <v>98</v>
       </c>
       <c r="J30" s="1" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
     </row>
     <row r="31" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A31" s="5" t="s">
-        <v>195</v>
+        <v>190</v>
       </c>
       <c r="B31" s="5" t="s">
-        <v>84</v>
+        <v>79</v>
       </c>
       <c r="C31" s="5" t="s">
-        <v>19</v>
+        <v>16</v>
       </c>
       <c r="D31" s="5" t="s">
-        <v>76</v>
+        <v>71</v>
       </c>
       <c r="E31" s="5" t="s">
-        <v>16</v>
+        <v>14</v>
       </c>
       <c r="F31" s="6" t="s">
-        <v>76</v>
+        <v>71</v>
       </c>
       <c r="G31" s="5" t="s">
-        <v>196</v>
+        <v>191</v>
       </c>
       <c r="H31" s="5">
         <v>9138</v>
       </c>
       <c r="I31" s="9" t="s">
-        <v>103</v>
+        <v>98</v>
       </c>
       <c r="J31" s="1" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
     </row>
     <row r="32" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A32" s="5" t="s">
-        <v>126</v>
+        <v>121</v>
       </c>
       <c r="B32" s="5" t="s">
-        <v>84</v>
+        <v>79</v>
       </c>
       <c r="C32" s="5" t="s">
-        <v>19</v>
+        <v>16</v>
       </c>
       <c r="D32" s="5" t="s">
-        <v>76</v>
+        <v>71</v>
       </c>
       <c r="E32" s="5" t="s">
-        <v>16</v>
+        <v>14</v>
       </c>
       <c r="F32" s="6" t="s">
-        <v>76</v>
+        <v>71</v>
       </c>
       <c r="G32" s="5" t="s">
-        <v>127</v>
+        <v>122</v>
       </c>
       <c r="H32" s="5">
         <v>9258</v>
       </c>
       <c r="I32" s="9" t="s">
-        <v>103</v>
+        <v>98</v>
       </c>
       <c r="J32" s="1" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
     </row>
     <row r="33" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A33" s="5" t="s">
-        <v>114</v>
+        <v>109</v>
       </c>
       <c r="B33" s="5" t="s">
-        <v>84</v>
+        <v>79</v>
       </c>
       <c r="C33" s="5" t="s">
-        <v>19</v>
+        <v>16</v>
       </c>
       <c r="D33" s="5" t="s">
-        <v>76</v>
+        <v>71</v>
       </c>
       <c r="E33" s="5" t="s">
-        <v>16</v>
+        <v>14</v>
       </c>
       <c r="F33" s="6" t="s">
-        <v>76</v>
+        <v>71</v>
       </c>
       <c r="G33" s="5" t="s">
-        <v>115</v>
+        <v>110</v>
       </c>
       <c r="H33" s="5">
         <v>9312</v>
       </c>
       <c r="I33" s="9" t="s">
-        <v>103</v>
+        <v>98</v>
       </c>
       <c r="J33" s="1" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
     </row>
     <row r="34" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A34" s="5" t="s">
-        <v>122</v>
+        <v>117</v>
       </c>
       <c r="B34" s="5" t="s">
-        <v>84</v>
+        <v>79</v>
       </c>
       <c r="C34" s="5" t="s">
-        <v>19</v>
+        <v>16</v>
       </c>
       <c r="D34" s="5">
         <v>2017</v>
       </c>
       <c r="E34" s="5" t="s">
-        <v>16</v>
+        <v>14</v>
       </c>
       <c r="F34" s="6" t="s">
-        <v>76</v>
+        <v>71</v>
       </c>
       <c r="G34" s="5" t="s">
-        <v>123</v>
+        <v>118</v>
       </c>
       <c r="H34" s="5">
         <v>9266</v>
       </c>
       <c r="I34" s="9" t="s">
-        <v>103</v>
+        <v>98</v>
       </c>
       <c r="J34" s="1" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
     </row>
     <row r="35" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A35" s="5" t="s">
-        <v>128</v>
+        <v>123</v>
       </c>
       <c r="B35" s="5" t="s">
-        <v>84</v>
+        <v>79</v>
       </c>
       <c r="C35" s="5" t="s">
-        <v>19</v>
+        <v>16</v>
       </c>
       <c r="D35" s="5">
         <v>2017</v>
       </c>
       <c r="E35" s="5" t="s">
-        <v>16</v>
+        <v>14</v>
       </c>
       <c r="F35" s="6" t="s">
-        <v>76</v>
+        <v>71</v>
       </c>
       <c r="G35" s="5" t="s">
-        <v>129</v>
+        <v>124</v>
       </c>
       <c r="H35" s="5">
         <v>9257</v>
       </c>
       <c r="I35" s="9" t="s">
-        <v>103</v>
+        <v>98</v>
       </c>
       <c r="J35" s="1" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
     </row>
     <row r="36" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A36" s="5" t="s">
-        <v>118</v>
+        <v>113</v>
       </c>
       <c r="B36" s="5" t="s">
-        <v>84</v>
+        <v>79</v>
       </c>
       <c r="C36" s="5" t="s">
-        <v>19</v>
+        <v>16</v>
       </c>
       <c r="D36" s="5">
         <v>2017</v>
       </c>
       <c r="E36" s="5" t="s">
-        <v>16</v>
+        <v>14</v>
       </c>
       <c r="F36" s="6" t="s">
-        <v>76</v>
+        <v>71</v>
       </c>
       <c r="G36" s="5" t="s">
-        <v>119</v>
+        <v>114</v>
       </c>
       <c r="H36" s="5">
         <v>9276</v>
       </c>
       <c r="I36" s="9" t="s">
-        <v>103</v>
+        <v>98</v>
       </c>
       <c r="J36" s="1" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
     </row>
     <row r="37" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A37" s="5" t="s">
-        <v>124</v>
+        <v>119</v>
       </c>
       <c r="B37" s="5" t="s">
-        <v>84</v>
+        <v>79</v>
       </c>
       <c r="C37" s="5" t="s">
-        <v>19</v>
+        <v>16</v>
       </c>
       <c r="D37" s="5">
         <v>2017</v>
       </c>
       <c r="E37" s="5" t="s">
-        <v>16</v>
+        <v>14</v>
       </c>
       <c r="F37" s="6" t="s">
-        <v>76</v>
+        <v>71</v>
       </c>
       <c r="G37" s="5" t="s">
-        <v>125</v>
+        <v>120</v>
       </c>
       <c r="H37" s="5">
         <v>9265</v>
       </c>
       <c r="I37" s="9" t="s">
-        <v>103</v>
+        <v>98</v>
       </c>
       <c r="J37" s="1" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
     </row>
     <row r="38" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A38" s="5" t="s">
-        <v>187</v>
+        <v>182</v>
       </c>
       <c r="B38" s="5" t="s">
-        <v>87</v>
+        <v>82</v>
       </c>
       <c r="C38" s="5" t="s">
-        <v>19</v>
+        <v>16</v>
       </c>
       <c r="D38" s="5">
         <v>2017</v>
       </c>
       <c r="E38" s="5" t="s">
-        <v>16</v>
+        <v>14</v>
       </c>
       <c r="F38" s="6" t="s">
-        <v>76</v>
+        <v>71</v>
       </c>
       <c r="G38" s="5" t="s">
-        <v>188</v>
+        <v>183</v>
       </c>
       <c r="H38" s="5">
         <v>9164</v>
       </c>
       <c r="I38" s="9" t="s">
-        <v>103</v>
+        <v>98</v>
       </c>
       <c r="J38" s="1" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
     </row>
     <row r="39" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A39" s="5" t="s">
-        <v>112</v>
+        <v>107</v>
       </c>
       <c r="B39" s="5" t="s">
-        <v>84</v>
+        <v>79</v>
       </c>
       <c r="C39" s="5" t="s">
-        <v>19</v>
+        <v>16</v>
       </c>
       <c r="D39" s="5">
         <v>2017</v>
       </c>
       <c r="E39" s="5" t="s">
-        <v>16</v>
+        <v>14</v>
       </c>
       <c r="F39" s="6" t="s">
-        <v>76</v>
+        <v>71</v>
       </c>
       <c r="G39" s="5" t="s">
-        <v>113</v>
+        <v>108</v>
       </c>
       <c r="H39" s="5">
         <v>9316</v>
       </c>
       <c r="I39" s="9" t="s">
-        <v>103</v>
+        <v>98</v>
       </c>
       <c r="J39" s="1" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
     </row>
     <row r="40" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A40" s="5" t="s">
-        <v>155</v>
+        <v>150</v>
       </c>
       <c r="B40" s="5" t="s">
-        <v>87</v>
+        <v>82</v>
       </c>
       <c r="C40" s="5" t="s">
-        <v>20</v>
+        <v>17</v>
       </c>
       <c r="D40" s="5">
         <v>2017</v>
       </c>
       <c r="E40" s="5" t="s">
-        <v>16</v>
+        <v>14</v>
       </c>
       <c r="F40" s="6" t="s">
-        <v>76</v>
+        <v>71</v>
       </c>
       <c r="G40" s="5">
         <v>1150</v>
@@ -2523,818 +2508,818 @@
         <v>9195</v>
       </c>
       <c r="I40" s="9" t="s">
-        <v>103</v>
+        <v>98</v>
       </c>
       <c r="J40" s="7" t="s">
-        <v>22</v>
+        <v>19</v>
       </c>
     </row>
     <row r="41" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A41" s="5" t="s">
-        <v>138</v>
+        <v>133</v>
       </c>
       <c r="B41" s="5" t="s">
-        <v>87</v>
+        <v>82</v>
       </c>
       <c r="C41" s="5" t="s">
-        <v>20</v>
+        <v>17</v>
       </c>
       <c r="D41" s="5">
         <v>2006</v>
       </c>
       <c r="E41" s="5" t="s">
-        <v>16</v>
+        <v>14</v>
       </c>
       <c r="F41" s="6" t="s">
-        <v>76</v>
+        <v>71</v>
       </c>
       <c r="G41" s="5" t="s">
-        <v>98</v>
+        <v>93</v>
       </c>
       <c r="H41" s="5">
         <v>9206</v>
       </c>
       <c r="I41" s="9" t="s">
-        <v>103</v>
+        <v>98</v>
       </c>
       <c r="J41" s="7" t="s">
-        <v>22</v>
+        <v>19</v>
       </c>
     </row>
     <row r="42" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A42" s="5" t="s">
-        <v>162</v>
+        <v>157</v>
       </c>
       <c r="B42" s="5" t="s">
-        <v>87</v>
+        <v>82</v>
       </c>
       <c r="C42" s="5" t="s">
-        <v>20</v>
+        <v>17</v>
       </c>
       <c r="D42" s="5">
         <v>2006</v>
       </c>
       <c r="E42" s="5" t="s">
-        <v>16</v>
+        <v>14</v>
       </c>
       <c r="F42" s="6" t="s">
-        <v>76</v>
+        <v>71</v>
       </c>
       <c r="G42" s="5" t="s">
-        <v>163</v>
+        <v>158</v>
       </c>
       <c r="H42" s="5">
         <v>9192</v>
       </c>
       <c r="I42" s="9" t="s">
-        <v>103</v>
+        <v>98</v>
       </c>
       <c r="J42" s="7" t="s">
-        <v>22</v>
+        <v>19</v>
       </c>
     </row>
     <row r="43" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A43" s="5" t="s">
-        <v>177</v>
+        <v>172</v>
       </c>
       <c r="B43" s="5" t="s">
-        <v>87</v>
+        <v>82</v>
       </c>
       <c r="C43" s="5" t="s">
-        <v>20</v>
+        <v>17</v>
       </c>
       <c r="D43" s="5">
         <v>2006</v>
       </c>
       <c r="E43" s="5" t="s">
-        <v>16</v>
+        <v>14</v>
       </c>
       <c r="F43" s="6" t="s">
-        <v>76</v>
+        <v>71</v>
       </c>
       <c r="G43" s="5" t="s">
-        <v>178</v>
+        <v>173</v>
       </c>
       <c r="H43" s="5">
         <v>9171</v>
       </c>
       <c r="I43" s="9" t="s">
-        <v>103</v>
+        <v>98</v>
       </c>
       <c r="J43" s="7" t="s">
-        <v>22</v>
+        <v>19</v>
       </c>
     </row>
     <row r="44" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A44" s="5" t="s">
-        <v>183</v>
+        <v>178</v>
       </c>
       <c r="B44" s="5" t="s">
-        <v>87</v>
+        <v>82</v>
       </c>
       <c r="C44" s="5" t="s">
-        <v>20</v>
+        <v>17</v>
       </c>
       <c r="D44" s="5">
         <v>2006</v>
       </c>
       <c r="E44" s="5" t="s">
-        <v>16</v>
+        <v>14</v>
       </c>
       <c r="F44" s="6" t="s">
-        <v>76</v>
+        <v>71</v>
       </c>
       <c r="G44" s="5" t="s">
-        <v>184</v>
+        <v>179</v>
       </c>
       <c r="H44" s="5">
         <v>9166</v>
       </c>
       <c r="I44" s="9" t="s">
-        <v>103</v>
+        <v>98</v>
       </c>
       <c r="J44" s="7" t="s">
-        <v>22</v>
+        <v>19</v>
       </c>
     </row>
     <row r="45" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A45" s="5" t="s">
-        <v>145</v>
+        <v>140</v>
       </c>
       <c r="B45" s="5" t="s">
-        <v>87</v>
+        <v>82</v>
       </c>
       <c r="C45" s="5" t="s">
-        <v>20</v>
+        <v>17</v>
       </c>
       <c r="D45" s="5">
         <v>2006</v>
       </c>
       <c r="E45" s="5" t="s">
-        <v>16</v>
+        <v>14</v>
       </c>
       <c r="F45" s="6" t="s">
-        <v>76</v>
+        <v>71</v>
       </c>
       <c r="G45" s="5" t="s">
-        <v>146</v>
+        <v>141</v>
       </c>
       <c r="H45" s="5">
         <v>9202</v>
       </c>
       <c r="I45" s="9" t="s">
-        <v>103</v>
+        <v>98</v>
       </c>
       <c r="J45" s="7" t="s">
-        <v>22</v>
+        <v>19</v>
       </c>
     </row>
     <row r="46" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A46" s="5" t="s">
-        <v>156</v>
+        <v>151</v>
       </c>
       <c r="B46" s="5" t="s">
-        <v>87</v>
+        <v>82</v>
       </c>
       <c r="C46" s="5" t="s">
-        <v>20</v>
+        <v>17</v>
       </c>
       <c r="D46" s="5">
         <v>2007</v>
       </c>
       <c r="E46" s="5" t="s">
-        <v>16</v>
+        <v>14</v>
       </c>
       <c r="F46" s="6" t="s">
-        <v>76</v>
+        <v>71</v>
       </c>
       <c r="G46" s="5" t="s">
-        <v>157</v>
+        <v>152</v>
       </c>
       <c r="H46" s="5">
         <v>9194</v>
       </c>
       <c r="I46" s="9" t="s">
-        <v>103</v>
+        <v>98</v>
       </c>
       <c r="J46" s="7" t="s">
-        <v>22</v>
+        <v>19</v>
       </c>
     </row>
     <row r="47" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A47" s="5" t="s">
-        <v>134</v>
+        <v>129</v>
       </c>
       <c r="B47" s="5" t="s">
-        <v>87</v>
+        <v>82</v>
       </c>
       <c r="C47" s="5" t="s">
-        <v>20</v>
+        <v>17</v>
       </c>
       <c r="D47" s="5">
         <v>2006</v>
       </c>
       <c r="E47" s="5" t="s">
-        <v>16</v>
+        <v>14</v>
       </c>
       <c r="F47" s="6" t="s">
-        <v>76</v>
+        <v>71</v>
       </c>
       <c r="G47" s="5" t="s">
-        <v>135</v>
+        <v>130</v>
       </c>
       <c r="H47" s="5">
         <v>9207</v>
       </c>
       <c r="I47" s="9" t="s">
-        <v>103</v>
+        <v>98</v>
       </c>
       <c r="J47" s="7" t="s">
-        <v>22</v>
+        <v>19</v>
       </c>
     </row>
     <row r="48" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A48" s="5" t="s">
-        <v>164</v>
+        <v>159</v>
       </c>
       <c r="B48" s="5" t="s">
-        <v>87</v>
+        <v>82</v>
       </c>
       <c r="C48" s="5" t="s">
-        <v>20</v>
+        <v>17</v>
       </c>
       <c r="D48" s="5">
         <v>2007</v>
       </c>
       <c r="E48" s="5" t="s">
-        <v>16</v>
+        <v>14</v>
       </c>
       <c r="F48" s="6" t="s">
-        <v>76</v>
+        <v>71</v>
       </c>
       <c r="G48" s="5" t="s">
-        <v>165</v>
+        <v>160</v>
       </c>
       <c r="H48" s="5">
         <v>9192</v>
       </c>
       <c r="I48" s="9" t="s">
-        <v>103</v>
+        <v>98</v>
       </c>
       <c r="J48" s="7" t="s">
-        <v>22</v>
+        <v>19</v>
       </c>
     </row>
     <row r="49" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A49" s="5" t="s">
-        <v>158</v>
+        <v>153</v>
       </c>
       <c r="B49" s="5" t="s">
-        <v>87</v>
+        <v>82</v>
       </c>
       <c r="C49" s="5" t="s">
-        <v>20</v>
+        <v>17</v>
       </c>
       <c r="D49" s="5">
         <v>2006</v>
       </c>
       <c r="E49" s="5" t="s">
-        <v>16</v>
+        <v>14</v>
       </c>
       <c r="F49" s="6" t="s">
-        <v>76</v>
+        <v>71</v>
       </c>
       <c r="G49" s="5" t="s">
-        <v>159</v>
+        <v>154</v>
       </c>
       <c r="H49" s="5">
         <v>9193</v>
       </c>
       <c r="I49" s="9" t="s">
-        <v>103</v>
+        <v>98</v>
       </c>
       <c r="J49" s="7" t="s">
-        <v>22</v>
+        <v>19</v>
       </c>
     </row>
     <row r="50" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A50" s="5" t="s">
-        <v>185</v>
+        <v>180</v>
       </c>
       <c r="B50" s="5" t="s">
-        <v>87</v>
+        <v>82</v>
       </c>
       <c r="C50" s="5" t="s">
-        <v>20</v>
+        <v>17</v>
       </c>
       <c r="D50" s="5">
         <v>2017</v>
       </c>
       <c r="E50" s="5" t="s">
-        <v>16</v>
+        <v>14</v>
       </c>
       <c r="F50" s="6" t="s">
-        <v>76</v>
+        <v>71</v>
       </c>
       <c r="G50" s="5" t="s">
-        <v>186</v>
+        <v>181</v>
       </c>
       <c r="H50" s="5">
         <v>9166</v>
       </c>
       <c r="I50" s="9" t="s">
-        <v>103</v>
+        <v>98</v>
       </c>
       <c r="J50" s="7" t="s">
-        <v>22</v>
+        <v>19</v>
       </c>
     </row>
     <row r="51" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A51" s="5" t="s">
-        <v>171</v>
+        <v>166</v>
       </c>
       <c r="B51" s="5" t="s">
-        <v>87</v>
+        <v>82</v>
       </c>
       <c r="C51" s="5" t="s">
-        <v>20</v>
+        <v>17</v>
       </c>
       <c r="D51" s="5">
         <v>2006</v>
       </c>
       <c r="E51" s="5" t="s">
-        <v>16</v>
+        <v>14</v>
       </c>
       <c r="F51" s="6" t="s">
-        <v>76</v>
+        <v>71</v>
       </c>
       <c r="G51" s="5" t="s">
-        <v>172</v>
+        <v>167</v>
       </c>
       <c r="H51" s="5">
         <v>9185</v>
       </c>
       <c r="I51" s="9" t="s">
-        <v>103</v>
+        <v>98</v>
       </c>
       <c r="J51" s="7" t="s">
-        <v>22</v>
+        <v>19</v>
       </c>
     </row>
     <row r="52" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A52" s="5" t="s">
-        <v>151</v>
+        <v>146</v>
       </c>
       <c r="B52" s="5" t="s">
-        <v>87</v>
+        <v>82</v>
       </c>
       <c r="C52" s="5" t="s">
-        <v>20</v>
+        <v>17</v>
       </c>
       <c r="D52" s="5">
         <v>2005</v>
       </c>
       <c r="E52" s="5" t="s">
-        <v>16</v>
+        <v>14</v>
       </c>
       <c r="F52" s="6" t="s">
-        <v>76</v>
+        <v>71</v>
       </c>
       <c r="G52" s="5" t="s">
-        <v>152</v>
+        <v>147</v>
       </c>
       <c r="H52" s="5">
         <v>9200</v>
       </c>
       <c r="I52" s="9" t="s">
-        <v>103</v>
+        <v>98</v>
       </c>
       <c r="J52" s="7" t="s">
-        <v>22</v>
+        <v>19</v>
       </c>
     </row>
     <row r="53" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A53" s="5" t="s">
-        <v>147</v>
+        <v>142</v>
       </c>
       <c r="B53" s="5" t="s">
-        <v>87</v>
+        <v>82</v>
       </c>
       <c r="C53" s="5" t="s">
-        <v>20</v>
+        <v>17</v>
       </c>
       <c r="D53" s="5">
         <v>2006</v>
       </c>
       <c r="E53" s="5" t="s">
-        <v>16</v>
+        <v>14</v>
       </c>
       <c r="F53" s="6" t="s">
-        <v>76</v>
+        <v>71</v>
       </c>
       <c r="G53" s="5" t="s">
-        <v>148</v>
+        <v>143</v>
       </c>
       <c r="H53" s="5">
         <v>9202</v>
       </c>
       <c r="I53" s="9" t="s">
-        <v>103</v>
+        <v>98</v>
       </c>
       <c r="J53" s="7" t="s">
-        <v>22</v>
+        <v>19</v>
       </c>
     </row>
     <row r="54" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A54" s="5" t="s">
-        <v>166</v>
+        <v>161</v>
       </c>
       <c r="B54" s="5" t="s">
-        <v>87</v>
+        <v>82</v>
       </c>
       <c r="C54" s="5" t="s">
-        <v>20</v>
+        <v>17</v>
       </c>
       <c r="D54" s="5">
         <v>2007</v>
       </c>
       <c r="E54" s="5" t="s">
-        <v>16</v>
+        <v>14</v>
       </c>
       <c r="F54" s="6" t="s">
-        <v>76</v>
+        <v>71</v>
       </c>
       <c r="G54" s="5" t="s">
-        <v>167</v>
+        <v>162</v>
       </c>
       <c r="H54" s="5">
         <v>9191</v>
       </c>
       <c r="I54" s="9" t="s">
-        <v>103</v>
+        <v>98</v>
       </c>
       <c r="J54" s="7" t="s">
-        <v>22</v>
+        <v>19</v>
       </c>
     </row>
     <row r="55" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A55" s="5" t="s">
-        <v>153</v>
+        <v>148</v>
       </c>
       <c r="B55" s="5" t="s">
-        <v>87</v>
+        <v>82</v>
       </c>
       <c r="C55" s="5" t="s">
-        <v>20</v>
+        <v>17</v>
       </c>
       <c r="D55" s="5">
         <v>2007</v>
       </c>
       <c r="E55" s="5" t="s">
-        <v>16</v>
+        <v>14</v>
       </c>
       <c r="F55" s="6" t="s">
-        <v>76</v>
+        <v>71</v>
       </c>
       <c r="G55" s="5" t="s">
-        <v>154</v>
+        <v>149</v>
       </c>
       <c r="H55" s="5">
         <v>9199</v>
       </c>
       <c r="I55" s="9" t="s">
-        <v>103</v>
+        <v>98</v>
       </c>
       <c r="J55" s="7" t="s">
-        <v>22</v>
+        <v>19</v>
       </c>
     </row>
     <row r="56" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A56" s="5" t="s">
-        <v>170</v>
+        <v>165</v>
       </c>
       <c r="B56" s="5" t="s">
-        <v>87</v>
+        <v>82</v>
       </c>
       <c r="C56" s="5" t="s">
-        <v>20</v>
+        <v>17</v>
       </c>
       <c r="D56" s="5">
         <v>2003</v>
       </c>
       <c r="E56" s="5" t="s">
-        <v>16</v>
+        <v>14</v>
       </c>
       <c r="F56" s="6" t="s">
-        <v>76</v>
+        <v>71</v>
       </c>
       <c r="G56" s="5" t="s">
-        <v>100</v>
+        <v>95</v>
       </c>
       <c r="H56" s="5">
         <v>9189</v>
       </c>
       <c r="I56" s="9" t="s">
-        <v>103</v>
+        <v>98</v>
       </c>
       <c r="J56" s="7" t="s">
-        <v>22</v>
+        <v>19</v>
       </c>
     </row>
     <row r="57" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A57" s="5" t="s">
-        <v>168</v>
+        <v>163</v>
       </c>
       <c r="B57" s="5" t="s">
-        <v>87</v>
+        <v>82</v>
       </c>
       <c r="C57" s="5" t="s">
-        <v>20</v>
+        <v>17</v>
       </c>
       <c r="D57" s="5">
         <v>2006</v>
       </c>
       <c r="E57" s="5" t="s">
-        <v>16</v>
+        <v>14</v>
       </c>
       <c r="F57" s="6" t="s">
-        <v>76</v>
+        <v>71</v>
       </c>
       <c r="G57" s="5" t="s">
-        <v>169</v>
+        <v>164</v>
       </c>
       <c r="H57" s="5">
         <v>9191</v>
       </c>
       <c r="I57" s="9" t="s">
-        <v>103</v>
+        <v>98</v>
       </c>
       <c r="J57" s="7" t="s">
-        <v>22</v>
+        <v>19</v>
       </c>
     </row>
     <row r="58" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A58" s="5" t="s">
-        <v>149</v>
+        <v>144</v>
       </c>
       <c r="B58" s="5" t="s">
-        <v>87</v>
+        <v>82</v>
       </c>
       <c r="C58" s="5" t="s">
-        <v>20</v>
+        <v>17</v>
       </c>
       <c r="D58" s="5">
         <v>2004</v>
       </c>
       <c r="E58" s="5" t="s">
-        <v>16</v>
+        <v>14</v>
       </c>
       <c r="F58" s="6" t="s">
-        <v>76</v>
+        <v>71</v>
       </c>
       <c r="G58" s="5" t="s">
-        <v>150</v>
+        <v>145</v>
       </c>
       <c r="H58" s="5">
         <v>9201</v>
       </c>
       <c r="I58" s="9" t="s">
-        <v>103</v>
+        <v>98</v>
       </c>
       <c r="J58" s="7" t="s">
-        <v>22</v>
+        <v>19</v>
       </c>
     </row>
     <row r="59" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A59" s="5" t="s">
-        <v>139</v>
+        <v>134</v>
       </c>
       <c r="B59" s="5" t="s">
-        <v>87</v>
+        <v>82</v>
       </c>
       <c r="C59" s="5" t="s">
-        <v>20</v>
+        <v>17</v>
       </c>
       <c r="D59" s="5">
         <v>2006</v>
       </c>
       <c r="E59" s="5" t="s">
-        <v>16</v>
+        <v>14</v>
       </c>
       <c r="F59" s="6" t="s">
-        <v>76</v>
+        <v>71</v>
       </c>
       <c r="G59" s="5" t="s">
-        <v>140</v>
+        <v>135</v>
       </c>
       <c r="H59" s="5">
         <v>9206</v>
       </c>
       <c r="I59" s="9" t="s">
-        <v>103</v>
+        <v>98</v>
       </c>
       <c r="J59" s="7" t="s">
-        <v>22</v>
+        <v>19</v>
       </c>
     </row>
     <row r="60" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A60" s="5" t="s">
-        <v>143</v>
+        <v>138</v>
       </c>
       <c r="B60" s="5" t="s">
-        <v>87</v>
+        <v>82</v>
       </c>
       <c r="C60" s="5" t="s">
-        <v>20</v>
+        <v>17</v>
       </c>
       <c r="D60" s="5">
         <v>2007</v>
       </c>
       <c r="E60" s="5" t="s">
-        <v>16</v>
+        <v>14</v>
       </c>
       <c r="F60" s="6" t="s">
-        <v>76</v>
+        <v>71</v>
       </c>
       <c r="G60" s="5" t="s">
-        <v>144</v>
+        <v>139</v>
       </c>
       <c r="H60" s="5">
         <v>9203</v>
       </c>
       <c r="I60" s="9" t="s">
-        <v>103</v>
+        <v>98</v>
       </c>
       <c r="J60" s="7" t="s">
-        <v>22</v>
+        <v>19</v>
       </c>
     </row>
     <row r="61" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A61" s="5" t="s">
-        <v>132</v>
+        <v>127</v>
       </c>
       <c r="B61" s="5" t="s">
-        <v>87</v>
+        <v>82</v>
       </c>
       <c r="C61" s="5" t="s">
-        <v>20</v>
+        <v>17</v>
       </c>
       <c r="D61" s="5">
         <v>2006</v>
       </c>
       <c r="E61" s="5" t="s">
-        <v>16</v>
+        <v>14</v>
       </c>
       <c r="F61" s="6" t="s">
-        <v>76</v>
+        <v>71</v>
       </c>
       <c r="G61" s="5" t="s">
-        <v>133</v>
+        <v>128</v>
       </c>
       <c r="H61" s="5">
         <v>9215</v>
       </c>
       <c r="I61" s="9" t="s">
-        <v>103</v>
+        <v>98</v>
       </c>
       <c r="J61" s="7" t="s">
-        <v>22</v>
+        <v>19</v>
       </c>
     </row>
     <row r="62" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A62" s="5" t="s">
-        <v>173</v>
+        <v>168</v>
       </c>
       <c r="B62" s="5" t="s">
-        <v>87</v>
+        <v>82</v>
       </c>
       <c r="C62" s="5" t="s">
-        <v>20</v>
+        <v>17</v>
       </c>
       <c r="D62" s="5">
         <v>2006</v>
       </c>
       <c r="E62" s="5" t="s">
-        <v>16</v>
+        <v>14</v>
       </c>
       <c r="F62" s="6" t="s">
-        <v>76</v>
+        <v>71</v>
       </c>
       <c r="G62" s="5" t="s">
-        <v>174</v>
+        <v>169</v>
       </c>
       <c r="H62" s="5">
         <v>9172</v>
       </c>
       <c r="I62" s="9" t="s">
-        <v>103</v>
+        <v>98</v>
       </c>
       <c r="J62" s="7" t="s">
-        <v>22</v>
+        <v>19</v>
       </c>
     </row>
     <row r="63" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A63" s="5" t="s">
-        <v>141</v>
+        <v>136</v>
       </c>
       <c r="B63" s="5" t="s">
-        <v>87</v>
+        <v>82</v>
       </c>
       <c r="C63" s="5" t="s">
-        <v>20</v>
+        <v>17</v>
       </c>
       <c r="D63" s="5">
         <v>2006</v>
       </c>
       <c r="E63" s="5" t="s">
-        <v>16</v>
+        <v>14</v>
       </c>
       <c r="F63" s="6" t="s">
-        <v>76</v>
+        <v>71</v>
       </c>
       <c r="G63" s="5" t="s">
-        <v>142</v>
+        <v>137</v>
       </c>
       <c r="H63" s="5">
         <v>9204</v>
       </c>
       <c r="I63" s="9" t="s">
-        <v>103</v>
+        <v>98</v>
       </c>
       <c r="J63" s="7" t="s">
-        <v>22</v>
+        <v>19</v>
       </c>
     </row>
     <row r="64" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A64" s="5" t="s">
-        <v>160</v>
+        <v>155</v>
       </c>
       <c r="B64" s="5" t="s">
-        <v>87</v>
+        <v>82</v>
       </c>
       <c r="C64" s="5" t="s">
-        <v>96</v>
+        <v>91</v>
       </c>
       <c r="D64" s="5">
         <v>2020</v>
       </c>
       <c r="E64" s="5" t="s">
-        <v>16</v>
+        <v>14</v>
       </c>
       <c r="F64" s="6" t="s">
-        <v>76</v>
+        <v>71</v>
       </c>
       <c r="G64" s="5" t="s">
-        <v>161</v>
+        <v>156</v>
       </c>
       <c r="H64" s="5">
         <v>9193</v>
       </c>
       <c r="I64" s="9" t="s">
-        <v>103</v>
+        <v>98</v>
       </c>
       <c r="J64" s="1" t="s">
-        <v>95</v>
+        <v>90</v>
       </c>
     </row>
     <row r="65" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A65" s="5" t="s">
-        <v>73</v>
+        <v>68</v>
       </c>
       <c r="B65" s="5" t="s">
-        <v>87</v>
+        <v>82</v>
       </c>
       <c r="C65" s="5" t="s">
-        <v>74</v>
+        <v>69</v>
       </c>
       <c r="D65" s="5">
         <v>1984</v>
       </c>
       <c r="E65" s="5" t="s">
-        <v>16</v>
+        <v>14</v>
       </c>
       <c r="F65" s="6">
         <v>1</v>
       </c>
       <c r="G65" s="5" t="s">
-        <v>75</v>
+        <v>70</v>
       </c>
       <c r="H65" s="5">
         <v>9203</v>
       </c>
       <c r="I65" s="5" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="J65" s="7" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
     </row>
     <row r="66" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A66" s="5" t="s">
-        <v>58</v>
+        <v>53</v>
       </c>
       <c r="B66" s="5" t="s">
-        <v>87</v>
+        <v>82</v>
       </c>
       <c r="C66" s="5" t="s">
         <v>10</v>
@@ -3343,7 +3328,7 @@
         <v>1994</v>
       </c>
       <c r="E66" s="5" t="s">
-        <v>16</v>
+        <v>14</v>
       </c>
       <c r="F66" s="6">
         <v>6</v>
@@ -3355,91 +3340,91 @@
         <v>475</v>
       </c>
       <c r="I66" s="5" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="J66" s="7" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
     </row>
     <row r="67" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A67" s="5" t="s">
-        <v>63</v>
+        <v>58</v>
       </c>
       <c r="B67" s="5" t="s">
-        <v>87</v>
+        <v>82</v>
       </c>
       <c r="C67" s="5" t="s">
-        <v>64</v>
+        <v>59</v>
       </c>
       <c r="D67" s="5">
         <v>2007</v>
       </c>
       <c r="E67" s="5" t="s">
-        <v>16</v>
+        <v>14</v>
       </c>
       <c r="F67" s="6" t="s">
-        <v>76</v>
+        <v>71</v>
       </c>
       <c r="G67" s="5" t="s">
-        <v>65</v>
+        <v>60</v>
       </c>
       <c r="H67" s="5">
         <v>9136</v>
       </c>
       <c r="I67" s="5" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="J67" s="7" t="s">
-        <v>66</v>
+        <v>61</v>
       </c>
     </row>
     <row r="68" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A68" s="1" t="s">
-        <v>101</v>
+        <v>96</v>
       </c>
       <c r="B68" s="5" t="s">
-        <v>84</v>
+        <v>79</v>
       </c>
       <c r="C68" s="1" t="s">
-        <v>96</v>
+        <v>91</v>
       </c>
       <c r="D68" s="1">
         <v>1992</v>
       </c>
       <c r="E68" s="9" t="s">
-        <v>92</v>
+        <v>87</v>
       </c>
       <c r="F68" s="3">
         <v>1</v>
       </c>
       <c r="G68" t="s">
-        <v>102</v>
+        <v>97</v>
       </c>
       <c r="H68" s="1">
         <v>9186</v>
       </c>
       <c r="I68" s="9" t="s">
-        <v>103</v>
+        <v>98</v>
       </c>
       <c r="J68" s="1" t="s">
-        <v>95</v>
+        <v>90</v>
       </c>
     </row>
     <row r="69" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A69" s="1" t="s">
-        <v>91</v>
+        <v>86</v>
       </c>
       <c r="B69" s="5" t="s">
-        <v>87</v>
+        <v>82</v>
       </c>
       <c r="C69" s="5" t="s">
-        <v>78</v>
+        <v>73</v>
       </c>
       <c r="D69" s="1">
         <v>2004</v>
       </c>
       <c r="E69" s="9" t="s">
-        <v>92</v>
+        <v>87</v>
       </c>
       <c r="F69" s="6">
         <v>1</v>
@@ -3451,446 +3436,446 @@
         <v>9136</v>
       </c>
       <c r="I69" s="1" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="J69" s="1" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
     </row>
     <row r="70" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A70" s="5" t="s">
-        <v>93</v>
+        <v>88</v>
       </c>
       <c r="B70" s="5" t="s">
-        <v>84</v>
+        <v>79</v>
       </c>
       <c r="C70" s="5" t="s">
-        <v>96</v>
+        <v>91</v>
       </c>
       <c r="D70" s="5">
         <v>2009</v>
       </c>
       <c r="E70" s="5" t="s">
-        <v>92</v>
+        <v>87</v>
       </c>
       <c r="F70" s="6">
         <v>1</v>
       </c>
       <c r="G70" s="5" t="s">
-        <v>94</v>
+        <v>89</v>
       </c>
       <c r="H70" s="5">
         <v>9065</v>
       </c>
       <c r="I70" s="1" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="J70" s="1" t="s">
-        <v>95</v>
+        <v>90</v>
       </c>
     </row>
     <row r="71" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A71" s="5" t="s">
-        <v>220</v>
+        <v>215</v>
       </c>
       <c r="B71" s="5" t="s">
         <v>9</v>
       </c>
       <c r="C71" s="5" t="s">
-        <v>85</v>
+        <v>80</v>
       </c>
       <c r="D71" s="5">
         <v>2004</v>
       </c>
       <c r="E71" s="5" t="s">
-        <v>92</v>
+        <v>87</v>
       </c>
       <c r="F71" s="6" t="s">
-        <v>76</v>
+        <v>71</v>
       </c>
       <c r="G71" s="5" t="s">
-        <v>221</v>
+        <v>216</v>
       </c>
       <c r="H71" s="5">
         <v>9090</v>
       </c>
       <c r="I71" s="1" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="J71" s="1" t="s">
-        <v>22</v>
+        <v>19</v>
       </c>
     </row>
     <row r="72" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A72" s="5" t="s">
-        <v>197</v>
+        <v>192</v>
       </c>
       <c r="B72" s="5" t="s">
-        <v>84</v>
+        <v>79</v>
       </c>
       <c r="C72" s="5" t="s">
-        <v>96</v>
+        <v>91</v>
       </c>
       <c r="D72" s="5">
         <v>1993</v>
       </c>
       <c r="E72" s="5" t="s">
-        <v>57</v>
+        <v>52</v>
       </c>
       <c r="F72" s="6">
         <v>1</v>
       </c>
       <c r="G72" s="5" t="s">
-        <v>198</v>
+        <v>193</v>
       </c>
       <c r="H72" s="5">
         <v>9138</v>
       </c>
       <c r="I72" s="9" t="s">
-        <v>103</v>
+        <v>98</v>
       </c>
     </row>
     <row r="73" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A73" s="5" t="s">
-        <v>175</v>
+        <v>170</v>
       </c>
       <c r="B73" s="5" t="s">
-        <v>84</v>
+        <v>79</v>
       </c>
       <c r="C73" s="5" t="s">
-        <v>96</v>
+        <v>91</v>
       </c>
       <c r="D73" s="5">
         <v>1993</v>
       </c>
       <c r="E73" s="5" t="s">
-        <v>57</v>
+        <v>52</v>
       </c>
       <c r="F73" s="6">
         <v>1</v>
       </c>
       <c r="G73" s="5" t="s">
-        <v>176</v>
+        <v>171</v>
       </c>
       <c r="H73" s="5">
         <v>9172</v>
       </c>
       <c r="I73" s="9" t="s">
-        <v>103</v>
+        <v>98</v>
       </c>
       <c r="J73" s="1" t="s">
-        <v>95</v>
+        <v>90</v>
       </c>
     </row>
     <row r="74" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A74" s="5" t="s">
-        <v>189</v>
+        <v>184</v>
       </c>
       <c r="B74" s="5" t="s">
-        <v>84</v>
+        <v>79</v>
       </c>
       <c r="C74" s="5" t="s">
-        <v>96</v>
+        <v>91</v>
       </c>
       <c r="D74" s="5">
         <v>1993</v>
       </c>
       <c r="E74" s="5" t="s">
-        <v>57</v>
+        <v>52</v>
       </c>
       <c r="F74" s="6">
         <v>1</v>
       </c>
       <c r="G74" s="5" t="s">
-        <v>190</v>
+        <v>185</v>
       </c>
       <c r="H74" s="5">
         <v>9163</v>
       </c>
       <c r="I74" s="9" t="s">
-        <v>103</v>
+        <v>98</v>
       </c>
       <c r="J74" s="1" t="s">
-        <v>95</v>
+        <v>90</v>
       </c>
     </row>
     <row r="75" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A75" s="5" t="s">
-        <v>207</v>
+        <v>202</v>
       </c>
       <c r="B75" s="5" t="s">
-        <v>84</v>
+        <v>79</v>
       </c>
       <c r="C75" s="5" t="s">
-        <v>96</v>
+        <v>91</v>
       </c>
       <c r="D75" s="5" t="s">
-        <v>76</v>
+        <v>71</v>
       </c>
       <c r="E75" s="5" t="s">
-        <v>57</v>
+        <v>52</v>
       </c>
       <c r="F75" s="6">
         <v>1</v>
       </c>
       <c r="G75" s="5" t="s">
-        <v>208</v>
+        <v>203</v>
       </c>
       <c r="H75" s="5">
         <v>9118</v>
       </c>
       <c r="I75" s="9" t="s">
-        <v>103</v>
+        <v>98</v>
       </c>
       <c r="J75" s="1" t="s">
-        <v>95</v>
+        <v>90</v>
       </c>
     </row>
     <row r="76" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A76" s="5" t="s">
-        <v>179</v>
+        <v>174</v>
       </c>
       <c r="B76" s="5" t="s">
-        <v>84</v>
+        <v>79</v>
       </c>
       <c r="C76" s="5" t="s">
-        <v>96</v>
+        <v>91</v>
       </c>
       <c r="D76" s="5" t="s">
-        <v>76</v>
+        <v>71</v>
       </c>
       <c r="E76" s="5" t="s">
-        <v>57</v>
+        <v>52</v>
       </c>
       <c r="F76" s="6">
         <v>1</v>
       </c>
       <c r="G76" s="5" t="s">
-        <v>180</v>
+        <v>175</v>
       </c>
       <c r="H76" s="5">
         <v>9171</v>
       </c>
       <c r="I76" s="9" t="s">
-        <v>103</v>
+        <v>98</v>
       </c>
       <c r="J76" s="1" t="s">
-        <v>95</v>
+        <v>90</v>
       </c>
     </row>
     <row r="77" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A77" s="5" t="s">
-        <v>193</v>
+        <v>188</v>
       </c>
       <c r="B77" s="5" t="s">
-        <v>87</v>
+        <v>82</v>
       </c>
       <c r="C77" s="5" t="s">
-        <v>19</v>
+        <v>16</v>
       </c>
       <c r="D77" s="5" t="s">
-        <v>76</v>
+        <v>71</v>
       </c>
       <c r="E77" s="5" t="s">
-        <v>57</v>
+        <v>52</v>
       </c>
       <c r="F77" s="6">
         <v>1</v>
       </c>
       <c r="G77" s="5" t="s">
-        <v>194</v>
+        <v>189</v>
       </c>
       <c r="H77" s="5">
         <v>9145</v>
       </c>
       <c r="I77" s="9" t="s">
-        <v>103</v>
+        <v>98</v>
       </c>
       <c r="J77" s="1" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
     </row>
     <row r="78" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A78" s="5" t="s">
-        <v>181</v>
+        <v>176</v>
       </c>
       <c r="B78" s="5" t="s">
-        <v>84</v>
+        <v>79</v>
       </c>
       <c r="C78" s="5" t="s">
-        <v>19</v>
+        <v>16</v>
       </c>
       <c r="D78" s="5" t="s">
-        <v>76</v>
+        <v>71</v>
       </c>
       <c r="E78" s="5" t="s">
-        <v>57</v>
+        <v>52</v>
       </c>
       <c r="F78" s="6">
         <v>1</v>
       </c>
       <c r="G78" s="5" t="s">
-        <v>182</v>
+        <v>177</v>
       </c>
       <c r="H78" s="5">
         <v>9168</v>
       </c>
       <c r="I78" s="9" t="s">
-        <v>103</v>
+        <v>98</v>
       </c>
       <c r="J78" s="1" t="s">
-        <v>95</v>
+        <v>90</v>
       </c>
     </row>
     <row r="79" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A79" s="5" t="s">
-        <v>120</v>
+        <v>115</v>
       </c>
       <c r="B79" s="5" t="s">
-        <v>84</v>
+        <v>79</v>
       </c>
       <c r="C79" s="5" t="s">
-        <v>19</v>
+        <v>16</v>
       </c>
       <c r="D79" s="5" t="s">
-        <v>76</v>
+        <v>71</v>
       </c>
       <c r="E79" s="5" t="s">
-        <v>57</v>
+        <v>52</v>
       </c>
       <c r="F79" s="6">
         <v>1</v>
       </c>
       <c r="G79" s="5" t="s">
-        <v>121</v>
+        <v>116</v>
       </c>
       <c r="H79" s="5">
         <v>9270</v>
       </c>
       <c r="I79" s="9" t="s">
-        <v>103</v>
+        <v>98</v>
       </c>
       <c r="J79" s="1" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
     </row>
     <row r="80" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A80" s="5" t="s">
-        <v>203</v>
+        <v>198</v>
       </c>
       <c r="B80" s="5" t="s">
-        <v>84</v>
+        <v>79</v>
       </c>
       <c r="C80" s="5" t="s">
-        <v>19</v>
+        <v>16</v>
       </c>
       <c r="D80" s="5" t="s">
-        <v>76</v>
+        <v>71</v>
       </c>
       <c r="E80" s="5" t="s">
-        <v>57</v>
+        <v>52</v>
       </c>
       <c r="F80" s="6">
         <v>1</v>
       </c>
       <c r="G80" s="5" t="s">
-        <v>204</v>
+        <v>199</v>
       </c>
       <c r="H80" s="5">
         <v>9121</v>
       </c>
       <c r="I80" s="9" t="s">
-        <v>103</v>
+        <v>98</v>
       </c>
       <c r="J80" s="1" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
     </row>
     <row r="81" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A81" s="5" t="s">
-        <v>199</v>
+        <v>194</v>
       </c>
       <c r="B81" s="5" t="s">
-        <v>84</v>
+        <v>79</v>
       </c>
       <c r="C81" s="5" t="s">
-        <v>19</v>
+        <v>16</v>
       </c>
       <c r="D81" s="5" t="s">
-        <v>76</v>
+        <v>71</v>
       </c>
       <c r="E81" s="5" t="s">
-        <v>57</v>
+        <v>52</v>
       </c>
       <c r="F81" s="6">
         <v>1</v>
       </c>
       <c r="G81" s="5" t="s">
-        <v>200</v>
+        <v>195</v>
       </c>
       <c r="H81" s="5">
         <v>9136</v>
       </c>
       <c r="I81" s="9" t="s">
-        <v>103</v>
+        <v>98</v>
       </c>
       <c r="J81" s="1" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
     </row>
     <row r="82" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A82" s="5" t="s">
-        <v>205</v>
+        <v>200</v>
       </c>
       <c r="B82" s="5" t="s">
-        <v>84</v>
+        <v>79</v>
       </c>
       <c r="C82" s="5" t="s">
-        <v>19</v>
+        <v>16</v>
       </c>
       <c r="D82" s="5" t="s">
-        <v>76</v>
+        <v>71</v>
       </c>
       <c r="E82" s="5" t="s">
-        <v>57</v>
+        <v>52</v>
       </c>
       <c r="F82" s="6">
         <v>1</v>
       </c>
       <c r="G82" s="5" t="s">
-        <v>206</v>
+        <v>201</v>
       </c>
       <c r="H82" s="5">
         <v>9119</v>
       </c>
       <c r="I82" s="9" t="s">
-        <v>103</v>
+        <v>98</v>
       </c>
       <c r="J82" s="1" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
     </row>
     <row r="83" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A83" s="5" t="s">
-        <v>83</v>
+        <v>78</v>
       </c>
       <c r="B83" s="5" t="s">
-        <v>84</v>
+        <v>79</v>
       </c>
       <c r="C83" s="5" t="s">
-        <v>85</v>
+        <v>80</v>
       </c>
       <c r="D83" s="5">
         <v>2013</v>
       </c>
       <c r="E83" s="5" t="s">
-        <v>57</v>
+        <v>52</v>
       </c>
       <c r="F83" s="6">
         <v>1</v>
       </c>
       <c r="G83" s="5" t="s">
-        <v>86</v>
+        <v>81</v>
       </c>
       <c r="H83" s="5">
         <v>2013</v>
@@ -3899,364 +3884,332 @@
         <v>9131</v>
       </c>
       <c r="J83" s="7" t="s">
-        <v>22</v>
+        <v>19</v>
       </c>
     </row>
     <row r="84" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A84" s="5" t="s">
-        <v>209</v>
+        <v>204</v>
       </c>
       <c r="B84" s="5" t="s">
-        <v>87</v>
+        <v>82</v>
       </c>
       <c r="C84" s="5" t="s">
-        <v>19</v>
+        <v>16</v>
       </c>
       <c r="D84" s="5">
         <v>2017</v>
       </c>
       <c r="E84" s="5" t="s">
-        <v>57</v>
+        <v>52</v>
       </c>
       <c r="F84" s="6">
         <v>1</v>
       </c>
       <c r="G84" s="5" t="s">
-        <v>210</v>
+        <v>205</v>
       </c>
       <c r="H84" s="5">
         <v>8908</v>
       </c>
       <c r="I84" s="9" t="s">
-        <v>103</v>
+        <v>98</v>
       </c>
       <c r="J84" s="1" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
     </row>
     <row r="85" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A85" s="5" t="s">
-        <v>191</v>
+        <v>186</v>
       </c>
       <c r="B85" s="5" t="s">
-        <v>84</v>
+        <v>79</v>
       </c>
       <c r="C85" s="5" t="s">
-        <v>19</v>
+        <v>16</v>
       </c>
       <c r="D85" s="5" t="s">
-        <v>76</v>
+        <v>71</v>
       </c>
       <c r="E85" s="5" t="s">
-        <v>57</v>
+        <v>52</v>
       </c>
       <c r="F85" s="6">
         <v>1</v>
       </c>
       <c r="G85" s="5" t="s">
-        <v>192</v>
+        <v>187</v>
       </c>
       <c r="H85" s="5">
         <v>9158</v>
       </c>
       <c r="I85" s="9" t="s">
-        <v>103</v>
+        <v>98</v>
       </c>
       <c r="J85" s="1" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
     </row>
     <row r="86" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A86" s="5" t="s">
-        <v>201</v>
+        <v>196</v>
       </c>
       <c r="B86" s="5" t="s">
-        <v>84</v>
+        <v>79</v>
       </c>
       <c r="C86" s="5" t="s">
-        <v>19</v>
+        <v>16</v>
       </c>
       <c r="D86" s="5">
         <v>1989</v>
       </c>
       <c r="E86" s="5" t="s">
-        <v>57</v>
+        <v>52</v>
       </c>
       <c r="F86" s="6">
         <v>1</v>
       </c>
       <c r="G86" s="5" t="s">
-        <v>202</v>
+        <v>197</v>
       </c>
       <c r="H86" s="5">
         <v>9135</v>
       </c>
       <c r="I86" s="9" t="s">
-        <v>103</v>
+        <v>98</v>
       </c>
       <c r="J86" s="1" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
     </row>
     <row r="87" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A87" s="5" t="s">
-        <v>211</v>
+        <v>206</v>
       </c>
       <c r="B87" s="5" t="s">
-        <v>84</v>
+        <v>79</v>
       </c>
       <c r="C87" s="5" t="s">
-        <v>19</v>
+        <v>16</v>
       </c>
       <c r="D87" s="5">
         <v>2015</v>
       </c>
       <c r="E87" s="5" t="s">
-        <v>57</v>
+        <v>52</v>
       </c>
       <c r="F87" s="6">
         <v>1</v>
       </c>
       <c r="G87" s="5" t="s">
-        <v>212</v>
+        <v>207</v>
       </c>
       <c r="H87" s="5">
         <v>6378</v>
       </c>
       <c r="I87" s="9" t="s">
-        <v>103</v>
+        <v>98</v>
       </c>
       <c r="J87" s="1" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
     </row>
     <row r="88" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A88" s="5" t="s">
-        <v>54</v>
+        <v>49</v>
       </c>
       <c r="B88" s="5" t="s">
-        <v>84</v>
+        <v>79</v>
       </c>
       <c r="C88" s="5" t="s">
-        <v>20</v>
+        <v>17</v>
       </c>
       <c r="D88" s="5">
         <v>1974</v>
       </c>
       <c r="E88" s="5" t="s">
-        <v>57</v>
+        <v>52</v>
       </c>
       <c r="F88" s="6">
         <v>1</v>
       </c>
       <c r="G88" s="5" t="s">
-        <v>55</v>
+        <v>50</v>
       </c>
       <c r="H88" s="5">
         <v>9189</v>
       </c>
       <c r="I88" s="5" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="J88" s="7" t="s">
-        <v>22</v>
+        <v>19</v>
       </c>
     </row>
     <row r="89" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A89" s="5" t="s">
-        <v>213</v>
+        <v>208</v>
       </c>
       <c r="B89" s="5" t="s">
-        <v>87</v>
+        <v>82</v>
       </c>
       <c r="C89" s="5" t="s">
-        <v>19</v>
+        <v>16</v>
       </c>
       <c r="D89" s="5">
         <v>2003</v>
       </c>
       <c r="E89" s="5" t="s">
-        <v>57</v>
+        <v>52</v>
       </c>
       <c r="F89" s="6">
         <v>3</v>
       </c>
       <c r="G89" s="5" t="s">
-        <v>217</v>
+        <v>212</v>
       </c>
       <c r="H89" s="5">
         <v>9148</v>
       </c>
       <c r="I89" s="5" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="J89" s="1" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
     </row>
     <row r="90" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A90" s="5" t="s">
-        <v>214</v>
+        <v>209</v>
       </c>
       <c r="B90" s="5" t="s">
-        <v>87</v>
+        <v>82</v>
       </c>
       <c r="C90" s="5" t="s">
-        <v>19</v>
+        <v>16</v>
       </c>
       <c r="D90" s="5">
         <v>2004</v>
       </c>
       <c r="E90" s="5" t="s">
-        <v>57</v>
+        <v>52</v>
       </c>
       <c r="F90" s="6">
         <v>3</v>
       </c>
       <c r="G90" s="5" t="s">
-        <v>216</v>
+        <v>211</v>
       </c>
       <c r="H90" s="5" t="s">
-        <v>215</v>
+        <v>210</v>
       </c>
       <c r="I90" s="5" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="J90" s="1" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
     </row>
     <row r="91" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A91" s="5" t="s">
-        <v>60</v>
+        <v>72</v>
       </c>
       <c r="B91" s="5" t="s">
+        <v>82</v>
+      </c>
+      <c r="C91" s="5" t="s">
+        <v>73</v>
+      </c>
+      <c r="D91" s="5">
+        <v>2005</v>
+      </c>
+      <c r="E91" s="5" t="s">
+        <v>14</v>
+      </c>
+      <c r="F91" s="6" t="s">
+        <v>71</v>
+      </c>
+      <c r="G91" s="5" t="s">
+        <v>74</v>
+      </c>
+      <c r="H91" s="5">
+        <v>1130</v>
+      </c>
+      <c r="I91" s="5" t="s">
+        <v>12</v>
+      </c>
+      <c r="J91" s="7" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="92" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="A92" s="1" t="s">
+        <v>83</v>
+      </c>
+      <c r="B92" s="5" t="s">
+        <v>79</v>
+      </c>
+      <c r="C92" s="1" t="s">
+        <v>16</v>
+      </c>
+      <c r="D92" s="1">
+        <v>2008</v>
+      </c>
+      <c r="E92" s="8" t="s">
         <v>84</v>
       </c>
-      <c r="C91" s="5" t="s">
-        <v>62</v>
-      </c>
-      <c r="D91" s="5">
-        <v>1991</v>
-      </c>
-      <c r="E91" s="5" t="s">
-        <v>57</v>
-      </c>
-      <c r="F91" s="6">
-        <v>4</v>
-      </c>
-      <c r="G91" s="5" t="s">
-        <v>61</v>
-      </c>
-      <c r="H91" s="5">
-        <v>8919</v>
-      </c>
-      <c r="I91" s="5" t="s">
-        <v>14</v>
-      </c>
-      <c r="J91" s="7" t="s">
-        <v>12</v>
-      </c>
-    </row>
-    <row r="92" spans="1:10" x14ac:dyDescent="0.2">
-      <c r="A92" s="5" t="s">
-        <v>77</v>
-      </c>
-      <c r="B92" s="5" t="s">
-        <v>87</v>
-      </c>
-      <c r="C92" s="5" t="s">
-        <v>78</v>
-      </c>
-      <c r="D92" s="5">
-        <v>2005</v>
-      </c>
-      <c r="E92" s="5" t="s">
+      <c r="F92" s="6" t="s">
+        <v>71</v>
+      </c>
+      <c r="G92" s="1" t="s">
+        <v>85</v>
+      </c>
+      <c r="H92" s="1">
+        <v>8418</v>
+      </c>
+      <c r="I92" s="1" t="s">
+        <v>13</v>
+      </c>
+      <c r="J92" s="1" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="93" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="A93" s="5" t="s">
+        <v>213</v>
+      </c>
+      <c r="B93" s="5" t="s">
+        <v>82</v>
+      </c>
+      <c r="C93" s="1" t="s">
         <v>16</v>
       </c>
-      <c r="F92" s="6" t="s">
-        <v>76</v>
-      </c>
-      <c r="G92" s="5" t="s">
-        <v>79</v>
-      </c>
-      <c r="H92" s="5">
-        <v>1130</v>
-      </c>
-      <c r="I92" s="5" t="s">
+      <c r="D93" s="5">
+        <v>2003</v>
+      </c>
+      <c r="E93" s="8" t="s">
+        <v>84</v>
+      </c>
+      <c r="F93" s="6" t="s">
+        <v>71</v>
+      </c>
+      <c r="G93" s="5" t="s">
+        <v>214</v>
+      </c>
+      <c r="H93" s="5">
+        <v>8437</v>
+      </c>
+      <c r="I93" s="1" t="s">
         <v>13</v>
       </c>
-      <c r="J92" s="7" t="s">
-        <v>12</v>
-      </c>
-    </row>
-    <row r="93" spans="1:10" x14ac:dyDescent="0.2">
-      <c r="A93" s="1" t="s">
-        <v>88</v>
-      </c>
-      <c r="B93" s="5" t="s">
-        <v>84</v>
-      </c>
-      <c r="C93" s="1" t="s">
-        <v>19</v>
-      </c>
-      <c r="D93" s="1">
-        <v>2008</v>
-      </c>
-      <c r="E93" s="8" t="s">
-        <v>89</v>
-      </c>
-      <c r="F93" s="6" t="s">
-        <v>76</v>
-      </c>
-      <c r="G93" s="1" t="s">
-        <v>90</v>
-      </c>
-      <c r="H93" s="1">
-        <v>8418</v>
-      </c>
-      <c r="I93" s="1" t="s">
-        <v>14</v>
-      </c>
-      <c r="J93" s="1" t="s">
-        <v>12</v>
-      </c>
-    </row>
-    <row r="94" spans="1:10" x14ac:dyDescent="0.2">
-      <c r="A94" s="5" t="s">
-        <v>218</v>
-      </c>
-      <c r="B94" s="5" t="s">
-        <v>87</v>
-      </c>
-      <c r="C94" s="1" t="s">
-        <v>19</v>
-      </c>
-      <c r="D94" s="5">
-        <v>2003</v>
-      </c>
-      <c r="E94" s="8" t="s">
-        <v>89</v>
-      </c>
-      <c r="F94" s="6" t="s">
-        <v>76</v>
-      </c>
-      <c r="G94" s="5" t="s">
-        <v>219</v>
-      </c>
-      <c r="H94" s="5">
-        <v>8437</v>
-      </c>
-      <c r="I94" s="1" t="s">
-        <v>14</v>
-      </c>
-      <c r="J94" s="7" t="s">
-        <v>12</v>
+      <c r="J93" s="7" t="s">
+        <v>11</v>
       </c>
     </row>
   </sheetData>
-  <sortState xmlns:xlrd2="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" ref="A2:J94">
-    <sortCondition ref="E2:E94"/>
+  <sortState xmlns:xlrd2="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" ref="A2:J93">
+    <sortCondition ref="E2:E93"/>
   </sortState>
   <phoneticPr fontId="4" type="noConversion"/>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
@@ -4267,468 +4220,44 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
-  <dimension ref="A1:L12"/>
+  <dimension ref="A1:J1"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="L12" sqref="A1:L12"/>
+      <selection activeCell="H23" sqref="H22:H23"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
   <sheetData>
-    <row r="1" spans="1:12" x14ac:dyDescent="0.2">
-      <c r="A1" s="1">
-        <v>48</v>
-      </c>
-      <c r="B1" s="1" t="s">
+    <row r="1" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="A1" s="5" t="s">
+        <v>55</v>
+      </c>
+      <c r="B1" s="5" t="s">
+        <v>79</v>
+      </c>
+      <c r="C1" s="5" t="s">
+        <v>57</v>
+      </c>
+      <c r="D1" s="5">
+        <v>1991</v>
+      </c>
+      <c r="E1" s="5" t="s">
         <v>52</v>
       </c>
-      <c r="C1" s="1" t="s">
-        <v>9</v>
-      </c>
-      <c r="D1" s="1" t="s">
-        <v>20</v>
-      </c>
-      <c r="E1" s="1">
-        <v>1980</v>
-      </c>
-      <c r="F1" s="1">
-        <v>1993</v>
-      </c>
-      <c r="G1" s="1" t="s">
-        <v>57</v>
-      </c>
-      <c r="H1" s="1" t="s">
-        <v>11</v>
-      </c>
-      <c r="I1" s="1" t="s">
-        <v>53</v>
-      </c>
-      <c r="J1" s="1">
-        <v>2892</v>
-      </c>
-      <c r="K1" s="1" t="s">
-        <v>17</v>
-      </c>
-      <c r="L1" s="1" t="s">
-        <v>22</v>
-      </c>
-    </row>
-    <row r="2" spans="1:12" x14ac:dyDescent="0.2">
-      <c r="A2" s="5">
-        <v>8</v>
-      </c>
-      <c r="B2" s="5" t="s">
-        <v>58</v>
-      </c>
-      <c r="C2" s="5" t="s">
-        <v>15</v>
-      </c>
-      <c r="D2" s="5" t="s">
-        <v>10</v>
-      </c>
-      <c r="E2" s="5">
-        <v>1994</v>
-      </c>
-      <c r="F2" s="5">
-        <v>1995</v>
-      </c>
-      <c r="G2" s="5" t="s">
-        <v>16</v>
-      </c>
-      <c r="H2" s="6">
-        <v>6</v>
-      </c>
-      <c r="I2" s="5">
-        <v>676</v>
-      </c>
-      <c r="J2" s="5">
-        <v>475</v>
-      </c>
-      <c r="K2" s="5" t="s">
+      <c r="F1" s="6">
+        <v>4</v>
+      </c>
+      <c r="G1" s="5" t="s">
+        <v>56</v>
+      </c>
+      <c r="H1" s="5">
+        <v>8919</v>
+      </c>
+      <c r="I1" s="5" t="s">
         <v>13</v>
       </c>
-      <c r="L2" s="5" t="s">
-        <v>12</v>
-      </c>
-    </row>
-    <row r="3" spans="1:12" x14ac:dyDescent="0.2">
-      <c r="A3" s="5">
-        <v>13</v>
-      </c>
-      <c r="B3" s="5" t="s">
-        <v>38</v>
-      </c>
-      <c r="C3" s="5" t="s">
-        <v>9</v>
-      </c>
-      <c r="D3" s="5" t="s">
-        <v>19</v>
-      </c>
-      <c r="E3" s="5">
-        <v>2010</v>
-      </c>
-      <c r="F3" s="5">
-        <v>2010</v>
-      </c>
-      <c r="G3" s="5" t="s">
-        <v>16</v>
-      </c>
-      <c r="H3" s="6">
-        <v>11</v>
-      </c>
-      <c r="I3" s="5" t="s">
-        <v>39</v>
-      </c>
-      <c r="J3" s="5">
-        <v>648</v>
-      </c>
-      <c r="K3" s="5" t="s">
-        <v>18</v>
-      </c>
-      <c r="L3" s="5" t="s">
-        <v>12</v>
-      </c>
-    </row>
-    <row r="4" spans="1:12" x14ac:dyDescent="0.2">
-      <c r="A4" s="5">
-        <v>12</v>
-      </c>
-      <c r="B4" s="5" t="s">
-        <v>40</v>
-      </c>
-      <c r="C4" s="5" t="s">
-        <v>15</v>
-      </c>
-      <c r="D4" s="5" t="s">
-        <v>19</v>
-      </c>
-      <c r="E4" s="5">
-        <v>2010</v>
-      </c>
-      <c r="F4" s="5">
-        <v>2011</v>
-      </c>
-      <c r="G4" s="5" t="s">
-        <v>16</v>
-      </c>
-      <c r="H4" s="6">
-        <v>9</v>
-      </c>
-      <c r="I4" s="5" t="s">
-        <v>41</v>
-      </c>
-      <c r="J4" s="5">
-        <v>660</v>
-      </c>
-      <c r="K4" s="5" t="s">
-        <v>18</v>
-      </c>
-      <c r="L4" s="5" t="s">
-        <v>12</v>
-      </c>
-    </row>
-    <row r="5" spans="1:12" x14ac:dyDescent="0.2">
-      <c r="A5" s="5">
-        <v>14</v>
-      </c>
-      <c r="B5" s="5" t="s">
-        <v>37</v>
-      </c>
-      <c r="C5" s="5" t="s">
-        <v>15</v>
-      </c>
-      <c r="D5" s="5" t="s">
-        <v>35</v>
-      </c>
-      <c r="E5" s="5">
-        <v>2008</v>
-      </c>
-      <c r="F5" s="5">
-        <v>2009</v>
-      </c>
-      <c r="G5" s="5" t="s">
-        <v>16</v>
-      </c>
-      <c r="H5" s="6" t="s">
-        <v>16</v>
-      </c>
-      <c r="I5" s="5">
-        <v>4007</v>
-      </c>
-      <c r="J5" s="5">
-        <v>1004</v>
-      </c>
-      <c r="K5" s="5" t="s">
-        <v>18</v>
-      </c>
-      <c r="L5" s="5" t="s">
-        <v>12</v>
-      </c>
-    </row>
-    <row r="6" spans="1:12" x14ac:dyDescent="0.2">
-      <c r="A6" s="5">
-        <v>15</v>
-      </c>
-      <c r="B6" s="5" t="s">
-        <v>36</v>
-      </c>
-      <c r="C6" s="5" t="s">
-        <v>15</v>
-      </c>
-      <c r="D6" s="5" t="s">
-        <v>35</v>
-      </c>
-      <c r="E6" s="5">
-        <v>2008</v>
-      </c>
-      <c r="F6" s="5">
-        <v>2009</v>
-      </c>
-      <c r="G6" s="5" t="s">
-        <v>16</v>
-      </c>
-      <c r="H6" s="6" t="s">
-        <v>16</v>
-      </c>
-      <c r="I6" s="5">
-        <v>16</v>
-      </c>
-      <c r="J6" s="5">
-        <v>1004</v>
-      </c>
-      <c r="K6" s="5" t="s">
-        <v>18</v>
-      </c>
-      <c r="L6" s="5" t="s">
-        <v>12</v>
-      </c>
-    </row>
-    <row r="7" spans="1:12" x14ac:dyDescent="0.2">
-      <c r="A7" s="5">
-        <v>17</v>
-      </c>
-      <c r="B7" s="5" t="s">
-        <v>44</v>
-      </c>
-      <c r="C7" s="5" t="s">
-        <v>15</v>
-      </c>
-      <c r="D7" s="5" t="s">
-        <v>43</v>
-      </c>
-      <c r="E7" s="5">
-        <v>2011</v>
-      </c>
-      <c r="F7" s="5">
-        <v>2012</v>
-      </c>
-      <c r="G7" s="5" t="s">
-        <v>16</v>
-      </c>
-      <c r="H7" s="6" t="s">
-        <v>16</v>
-      </c>
-      <c r="I7" s="5" t="s">
-        <v>45</v>
-      </c>
-      <c r="J7" s="5">
-        <v>1061</v>
-      </c>
-      <c r="K7" s="5" t="s">
-        <v>13</v>
-      </c>
-      <c r="L7" s="5" t="s">
-        <v>12</v>
-      </c>
-    </row>
-    <row r="8" spans="1:12" x14ac:dyDescent="0.2">
-      <c r="A8" s="5">
-        <v>10</v>
-      </c>
-      <c r="B8" s="5" t="s">
-        <v>33</v>
-      </c>
-      <c r="C8" s="5" t="s">
-        <v>9</v>
-      </c>
-      <c r="D8" s="5" t="s">
-        <v>19</v>
-      </c>
-      <c r="E8" s="5">
-        <v>2006</v>
-      </c>
-      <c r="F8" s="5">
-        <v>2007</v>
-      </c>
-      <c r="G8" s="5" t="s">
-        <v>16</v>
-      </c>
-      <c r="H8" s="6">
-        <v>8</v>
-      </c>
-      <c r="I8" s="5" t="s">
-        <v>34</v>
-      </c>
-      <c r="J8" s="5">
-        <v>1305</v>
-      </c>
-      <c r="K8" s="5" t="s">
-        <v>18</v>
-      </c>
-      <c r="L8" s="5" t="s">
-        <v>12</v>
-      </c>
-    </row>
-    <row r="9" spans="1:12" x14ac:dyDescent="0.2">
-      <c r="A9" s="5">
-        <v>16</v>
-      </c>
-      <c r="B9" s="5" t="s">
-        <v>46</v>
-      </c>
-      <c r="C9" s="5" t="s">
-        <v>9</v>
-      </c>
-      <c r="D9" s="5" t="s">
-        <v>43</v>
-      </c>
-      <c r="E9" s="5">
-        <v>2008</v>
-      </c>
-      <c r="F9" s="5">
-        <v>2012</v>
-      </c>
-      <c r="G9" s="5" t="s">
-        <v>16</v>
-      </c>
-      <c r="H9" s="6" t="s">
-        <v>16</v>
-      </c>
-      <c r="I9" s="5" t="s">
-        <v>47</v>
-      </c>
-      <c r="J9" s="5">
-        <v>1523</v>
-      </c>
-      <c r="K9" s="5" t="s">
-        <v>21</v>
-      </c>
-      <c r="L9" s="5" t="s">
-        <v>12</v>
-      </c>
-    </row>
-    <row r="10" spans="1:12" x14ac:dyDescent="0.2">
-      <c r="A10" s="5">
-        <v>5</v>
-      </c>
-      <c r="B10" s="5" t="s">
-        <v>29</v>
-      </c>
-      <c r="C10" s="5" t="s">
-        <v>9</v>
-      </c>
-      <c r="D10" s="5" t="s">
-        <v>24</v>
-      </c>
-      <c r="E10" s="5">
-        <v>1999</v>
-      </c>
-      <c r="F10" s="5">
-        <v>2003</v>
-      </c>
-      <c r="G10" s="5" t="s">
-        <v>16</v>
-      </c>
-      <c r="H10" s="6">
-        <v>3</v>
-      </c>
-      <c r="I10" s="5" t="s">
-        <v>30</v>
-      </c>
-      <c r="J10" s="5">
-        <v>1703</v>
-      </c>
-      <c r="K10" s="5" t="s">
-        <v>26</v>
-      </c>
-      <c r="L10" s="5" t="s">
-        <v>12</v>
-      </c>
-    </row>
-    <row r="11" spans="1:12" x14ac:dyDescent="0.2">
-      <c r="A11" s="5">
-        <v>9</v>
-      </c>
-      <c r="B11" s="5" t="s">
-        <v>31</v>
-      </c>
-      <c r="C11" s="5" t="s">
-        <v>9</v>
-      </c>
-      <c r="D11" s="5" t="s">
-        <v>24</v>
-      </c>
-      <c r="E11" s="5">
-        <v>1999</v>
-      </c>
-      <c r="F11" s="5">
-        <v>2003</v>
-      </c>
-      <c r="G11" s="5" t="s">
-        <v>16</v>
-      </c>
-      <c r="H11" s="6" t="s">
-        <v>16</v>
-      </c>
-      <c r="I11" s="5" t="s">
-        <v>32</v>
-      </c>
-      <c r="J11" s="5">
-        <v>1706</v>
-      </c>
-      <c r="K11" s="5" t="s">
-        <v>26</v>
-      </c>
-      <c r="L11" s="5" t="s">
-        <v>12</v>
-      </c>
-    </row>
-    <row r="12" spans="1:12" x14ac:dyDescent="0.2">
-      <c r="A12" s="5">
-        <v>7</v>
-      </c>
-      <c r="B12" s="5" t="s">
-        <v>27</v>
-      </c>
-      <c r="C12" s="5" t="s">
-        <v>9</v>
-      </c>
-      <c r="D12" s="5" t="s">
-        <v>24</v>
-      </c>
-      <c r="E12" s="5">
-        <v>1999</v>
-      </c>
-      <c r="F12" s="5">
-        <v>2003</v>
-      </c>
-      <c r="G12" s="5" t="s">
-        <v>16</v>
-      </c>
-      <c r="H12" s="6" t="s">
-        <v>16</v>
-      </c>
-      <c r="I12" s="5" t="s">
-        <v>28</v>
-      </c>
-      <c r="J12" s="5">
-        <v>1709</v>
-      </c>
-      <c r="K12" s="5" t="s">
-        <v>26</v>
-      </c>
-      <c r="L12" s="5" t="s">
-        <v>12</v>
+      <c r="J1" s="7" t="s">
+        <v>11</v>
       </c>
     </row>
   </sheetData>

--- a/tabular/extension/srlv-refseqs.xlsx
+++ b/tabular/extension/srlv-refseqs.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/robertgifford/Projects/virus/comparative/Retrovirus/Lentivirus-GLUE/tabular/extension/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{2C6942CE-91E1-D448-B89F-5D96BD61FEE7}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{E0D49520-A99C-654E-B5E5-869C3DE5A943}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="15860" yWindow="2840" windowWidth="28060" windowHeight="17540" tabRatio="500" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -1218,10 +1218,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:J93"/>
+  <dimension ref="A1:J90"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A65" workbookViewId="0">
-      <selection activeCell="D80" sqref="A1:J93"/>
+    <sheetView tabSelected="1" topLeftCell="A73" workbookViewId="0">
+      <selection activeCell="D85" sqref="D85"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -4017,199 +4017,103 @@
     </row>
     <row r="88" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A88" s="5" t="s">
-        <v>49</v>
+        <v>209</v>
       </c>
       <c r="B88" s="5" t="s">
-        <v>79</v>
+        <v>82</v>
       </c>
       <c r="C88" s="5" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="D88" s="5">
-        <v>1974</v>
+        <v>2004</v>
       </c>
       <c r="E88" s="5" t="s">
         <v>52</v>
       </c>
       <c r="F88" s="6">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="G88" s="5" t="s">
-        <v>50</v>
-      </c>
-      <c r="H88" s="5">
-        <v>9189</v>
+        <v>211</v>
+      </c>
+      <c r="H88" s="5" t="s">
+        <v>210</v>
       </c>
       <c r="I88" s="5" t="s">
         <v>13</v>
       </c>
-      <c r="J88" s="7" t="s">
-        <v>19</v>
+      <c r="J88" s="1" t="s">
+        <v>11</v>
       </c>
     </row>
     <row r="89" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A89" s="5" t="s">
-        <v>208</v>
+        <v>72</v>
       </c>
       <c r="B89" s="5" t="s">
         <v>82</v>
       </c>
       <c r="C89" s="5" t="s">
-        <v>16</v>
+        <v>73</v>
       </c>
       <c r="D89" s="5">
-        <v>2003</v>
+        <v>2005</v>
       </c>
       <c r="E89" s="5" t="s">
-        <v>52</v>
-      </c>
-      <c r="F89" s="6">
-        <v>3</v>
+        <v>14</v>
+      </c>
+      <c r="F89" s="6" t="s">
+        <v>71</v>
       </c>
       <c r="G89" s="5" t="s">
-        <v>212</v>
+        <v>74</v>
       </c>
       <c r="H89" s="5">
-        <v>9148</v>
+        <v>1130</v>
       </c>
       <c r="I89" s="5" t="s">
-        <v>13</v>
-      </c>
-      <c r="J89" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="J89" s="7" t="s">
         <v>11</v>
       </c>
     </row>
     <row r="90" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A90" s="5" t="s">
-        <v>209</v>
+        <v>213</v>
       </c>
       <c r="B90" s="5" t="s">
         <v>82</v>
       </c>
-      <c r="C90" s="5" t="s">
+      <c r="C90" s="1" t="s">
         <v>16</v>
       </c>
       <c r="D90" s="5">
-        <v>2004</v>
-      </c>
-      <c r="E90" s="5" t="s">
-        <v>52</v>
-      </c>
-      <c r="F90" s="6">
-        <v>3</v>
+        <v>2003</v>
+      </c>
+      <c r="E90" s="8" t="s">
+        <v>84</v>
+      </c>
+      <c r="F90" s="6" t="s">
+        <v>71</v>
       </c>
       <c r="G90" s="5" t="s">
-        <v>211</v>
-      </c>
-      <c r="H90" s="5" t="s">
-        <v>210</v>
-      </c>
-      <c r="I90" s="5" t="s">
+        <v>214</v>
+      </c>
+      <c r="H90" s="5">
+        <v>8437</v>
+      </c>
+      <c r="I90" s="1" t="s">
         <v>13</v>
       </c>
-      <c r="J90" s="1" t="s">
-        <v>11</v>
-      </c>
-    </row>
-    <row r="91" spans="1:10" x14ac:dyDescent="0.2">
-      <c r="A91" s="5" t="s">
-        <v>72</v>
-      </c>
-      <c r="B91" s="5" t="s">
-        <v>82</v>
-      </c>
-      <c r="C91" s="5" t="s">
-        <v>73</v>
-      </c>
-      <c r="D91" s="5">
-        <v>2005</v>
-      </c>
-      <c r="E91" s="5" t="s">
-        <v>14</v>
-      </c>
-      <c r="F91" s="6" t="s">
-        <v>71</v>
-      </c>
-      <c r="G91" s="5" t="s">
-        <v>74</v>
-      </c>
-      <c r="H91" s="5">
-        <v>1130</v>
-      </c>
-      <c r="I91" s="5" t="s">
-        <v>12</v>
-      </c>
-      <c r="J91" s="7" t="s">
-        <v>11</v>
-      </c>
-    </row>
-    <row r="92" spans="1:10" x14ac:dyDescent="0.2">
-      <c r="A92" s="1" t="s">
-        <v>83</v>
-      </c>
-      <c r="B92" s="5" t="s">
-        <v>79</v>
-      </c>
-      <c r="C92" s="1" t="s">
-        <v>16</v>
-      </c>
-      <c r="D92" s="1">
-        <v>2008</v>
-      </c>
-      <c r="E92" s="8" t="s">
-        <v>84</v>
-      </c>
-      <c r="F92" s="6" t="s">
-        <v>71</v>
-      </c>
-      <c r="G92" s="1" t="s">
-        <v>85</v>
-      </c>
-      <c r="H92" s="1">
-        <v>8418</v>
-      </c>
-      <c r="I92" s="1" t="s">
-        <v>13</v>
-      </c>
-      <c r="J92" s="1" t="s">
-        <v>11</v>
-      </c>
-    </row>
-    <row r="93" spans="1:10" x14ac:dyDescent="0.2">
-      <c r="A93" s="5" t="s">
-        <v>213</v>
-      </c>
-      <c r="B93" s="5" t="s">
-        <v>82</v>
-      </c>
-      <c r="C93" s="1" t="s">
-        <v>16</v>
-      </c>
-      <c r="D93" s="5">
-        <v>2003</v>
-      </c>
-      <c r="E93" s="8" t="s">
-        <v>84</v>
-      </c>
-      <c r="F93" s="6" t="s">
-        <v>71</v>
-      </c>
-      <c r="G93" s="5" t="s">
-        <v>214</v>
-      </c>
-      <c r="H93" s="5">
-        <v>8437</v>
-      </c>
-      <c r="I93" s="1" t="s">
-        <v>13</v>
-      </c>
-      <c r="J93" s="7" t="s">
+      <c r="J90" s="7" t="s">
         <v>11</v>
       </c>
     </row>
   </sheetData>
-  <sortState xmlns:xlrd2="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" ref="A2:J93">
-    <sortCondition ref="E2:E93"/>
+  <sortState xmlns:xlrd2="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" ref="A2:J90">
+    <sortCondition ref="E2:E90"/>
   </sortState>
   <phoneticPr fontId="4" type="noConversion"/>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
@@ -4220,10 +4124,10 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
-  <dimension ref="A1:J1"/>
+  <dimension ref="A1:J4"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="H23" sqref="H22:H23"/>
+      <selection activeCell="A4" sqref="A4:XFD4"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -4260,6 +4164,102 @@
         <v>11</v>
       </c>
     </row>
+    <row r="2" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="A2" s="5" t="s">
+        <v>49</v>
+      </c>
+      <c r="B2" s="5" t="s">
+        <v>79</v>
+      </c>
+      <c r="C2" s="5" t="s">
+        <v>17</v>
+      </c>
+      <c r="D2" s="5">
+        <v>1974</v>
+      </c>
+      <c r="E2" s="5" t="s">
+        <v>52</v>
+      </c>
+      <c r="F2" s="6">
+        <v>1</v>
+      </c>
+      <c r="G2" s="5" t="s">
+        <v>50</v>
+      </c>
+      <c r="H2" s="5">
+        <v>9189</v>
+      </c>
+      <c r="I2" s="5" t="s">
+        <v>13</v>
+      </c>
+      <c r="J2" s="7" t="s">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="3" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="A3" s="1" t="s">
+        <v>83</v>
+      </c>
+      <c r="B3" s="5" t="s">
+        <v>79</v>
+      </c>
+      <c r="C3" s="1" t="s">
+        <v>16</v>
+      </c>
+      <c r="D3" s="1">
+        <v>2008</v>
+      </c>
+      <c r="E3" s="8" t="s">
+        <v>84</v>
+      </c>
+      <c r="F3" s="6" t="s">
+        <v>71</v>
+      </c>
+      <c r="G3" s="1" t="s">
+        <v>85</v>
+      </c>
+      <c r="H3" s="1">
+        <v>8418</v>
+      </c>
+      <c r="I3" s="1" t="s">
+        <v>13</v>
+      </c>
+      <c r="J3" s="1" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="4" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="A4" s="5" t="s">
+        <v>208</v>
+      </c>
+      <c r="B4" s="5" t="s">
+        <v>82</v>
+      </c>
+      <c r="C4" s="5" t="s">
+        <v>16</v>
+      </c>
+      <c r="D4" s="5">
+        <v>2003</v>
+      </c>
+      <c r="E4" s="5" t="s">
+        <v>52</v>
+      </c>
+      <c r="F4" s="6">
+        <v>3</v>
+      </c>
+      <c r="G4" s="5" t="s">
+        <v>212</v>
+      </c>
+      <c r="H4" s="5">
+        <v>9148</v>
+      </c>
+      <c r="I4" s="5" t="s">
+        <v>13</v>
+      </c>
+      <c r="J4" s="1" t="s">
+        <v>11</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>

--- a/tabular/extension/srlv-refseqs.xlsx
+++ b/tabular/extension/srlv-refseqs.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/robertgifford/Projects/virus/comparative/Retrovirus/Lentivirus-GLUE/tabular/extension/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{E0D49520-A99C-654E-B5E5-869C3DE5A943}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{820F6E11-14B9-E14F-AAF4-2050F9A9DCAB}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="15860" yWindow="2840" windowWidth="28060" windowHeight="17540" tabRatio="500" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -29,7 +29,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="717" uniqueCount="217">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="727" uniqueCount="217">
   <si>
     <t>Accession</t>
   </si>
@@ -1218,10 +1218,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:J90"/>
+  <dimension ref="A1:J88"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A73" workbookViewId="0">
-      <selection activeCell="D85" sqref="D85"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="E11" sqref="A1:J88"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -1268,16 +1268,16 @@
     </row>
     <row r="2" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A2" s="5" t="s">
-        <v>54</v>
+        <v>75</v>
       </c>
       <c r="B2" s="5" t="s">
         <v>82</v>
       </c>
       <c r="C2" s="5" t="s">
-        <v>66</v>
+        <v>77</v>
       </c>
       <c r="D2" s="5">
-        <v>1949</v>
+        <v>1996</v>
       </c>
       <c r="E2" s="5" t="s">
         <v>14</v>
@@ -1286,10 +1286,10 @@
         <v>1</v>
       </c>
       <c r="G2" s="5" t="s">
-        <v>62</v>
+        <v>76</v>
       </c>
       <c r="H2" s="5">
-        <v>9202</v>
+        <v>9189</v>
       </c>
       <c r="I2" s="5" t="s">
         <v>13</v>
@@ -1300,28 +1300,28 @@
     </row>
     <row r="3" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A3" s="5" t="s">
-        <v>54</v>
+        <v>20</v>
       </c>
       <c r="B3" s="5" t="s">
-        <v>82</v>
+        <v>79</v>
       </c>
       <c r="C3" s="5" t="s">
-        <v>66</v>
+        <v>21</v>
       </c>
       <c r="D3" s="5">
-        <v>1951</v>
+        <v>1999</v>
       </c>
       <c r="E3" s="5" t="s">
         <v>14</v>
       </c>
       <c r="F3" s="6">
-        <v>1</v>
+        <v>4</v>
       </c>
       <c r="G3" s="5" t="s">
-        <v>62</v>
+        <v>22</v>
       </c>
       <c r="H3" s="5">
-        <v>9202</v>
+        <v>9023</v>
       </c>
       <c r="I3" s="5" t="s">
         <v>13</v>
@@ -1332,31 +1332,31 @@
     </row>
     <row r="4" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A4" s="5" t="s">
-        <v>75</v>
+        <v>24</v>
       </c>
       <c r="B4" s="5" t="s">
-        <v>82</v>
+        <v>79</v>
       </c>
       <c r="C4" s="5" t="s">
-        <v>77</v>
+        <v>21</v>
       </c>
       <c r="D4" s="5">
-        <v>1996</v>
+        <v>1999</v>
       </c>
       <c r="E4" s="5" t="s">
         <v>14</v>
       </c>
       <c r="F4" s="6">
-        <v>1</v>
+        <v>5</v>
       </c>
       <c r="G4" s="5" t="s">
-        <v>76</v>
+        <v>25</v>
       </c>
       <c r="H4" s="5">
-        <v>9189</v>
+        <v>1709</v>
       </c>
       <c r="I4" s="5" t="s">
-        <v>13</v>
+        <v>23</v>
       </c>
       <c r="J4" s="7" t="s">
         <v>11</v>
@@ -1364,7 +1364,7 @@
     </row>
     <row r="5" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A5" s="5" t="s">
-        <v>20</v>
+        <v>26</v>
       </c>
       <c r="B5" s="5" t="s">
         <v>79</v>
@@ -1379,16 +1379,16 @@
         <v>14</v>
       </c>
       <c r="F5" s="6">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="G5" s="5" t="s">
-        <v>22</v>
+        <v>27</v>
       </c>
       <c r="H5" s="5">
-        <v>9023</v>
+        <v>1703</v>
       </c>
       <c r="I5" s="5" t="s">
-        <v>13</v>
+        <v>23</v>
       </c>
       <c r="J5" s="7" t="s">
         <v>11</v>
@@ -1396,7 +1396,7 @@
     </row>
     <row r="6" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A6" s="5" t="s">
-        <v>24</v>
+        <v>28</v>
       </c>
       <c r="B6" s="5" t="s">
         <v>79</v>
@@ -1411,13 +1411,13 @@
         <v>14</v>
       </c>
       <c r="F6" s="6">
-        <v>5</v>
+        <v>7</v>
       </c>
       <c r="G6" s="5" t="s">
-        <v>25</v>
+        <v>29</v>
       </c>
       <c r="H6" s="5">
-        <v>1709</v>
+        <v>1706</v>
       </c>
       <c r="I6" s="5" t="s">
         <v>23</v>
@@ -1428,31 +1428,31 @@
     </row>
     <row r="7" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A7" s="5" t="s">
-        <v>26</v>
+        <v>30</v>
       </c>
       <c r="B7" s="5" t="s">
         <v>79</v>
       </c>
       <c r="C7" s="5" t="s">
-        <v>21</v>
+        <v>16</v>
       </c>
       <c r="D7" s="5">
-        <v>1999</v>
+        <v>2006</v>
       </c>
       <c r="E7" s="5" t="s">
         <v>14</v>
       </c>
       <c r="F7" s="6">
-        <v>3</v>
+        <v>8</v>
       </c>
       <c r="G7" s="5" t="s">
-        <v>27</v>
+        <v>31</v>
       </c>
       <c r="H7" s="5">
-        <v>1703</v>
+        <v>1305</v>
       </c>
       <c r="I7" s="5" t="s">
-        <v>23</v>
+        <v>15</v>
       </c>
       <c r="J7" s="7" t="s">
         <v>11</v>
@@ -1460,31 +1460,31 @@
     </row>
     <row r="8" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A8" s="5" t="s">
-        <v>28</v>
+        <v>33</v>
       </c>
       <c r="B8" s="5" t="s">
-        <v>79</v>
+        <v>82</v>
       </c>
       <c r="C8" s="5" t="s">
-        <v>21</v>
+        <v>32</v>
       </c>
       <c r="D8" s="5">
-        <v>1999</v>
+        <v>2008</v>
       </c>
       <c r="E8" s="5" t="s">
         <v>14</v>
       </c>
       <c r="F8" s="6">
-        <v>7</v>
-      </c>
-      <c r="G8" s="5" t="s">
-        <v>29</v>
+        <v>13</v>
+      </c>
+      <c r="G8" s="5">
+        <v>16</v>
       </c>
       <c r="H8" s="5">
-        <v>1706</v>
+        <v>1004</v>
       </c>
       <c r="I8" s="5" t="s">
-        <v>23</v>
+        <v>15</v>
       </c>
       <c r="J8" s="7" t="s">
         <v>11</v>
@@ -1492,28 +1492,28 @@
     </row>
     <row r="9" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A9" s="5" t="s">
-        <v>30</v>
+        <v>34</v>
       </c>
       <c r="B9" s="5" t="s">
-        <v>79</v>
+        <v>82</v>
       </c>
       <c r="C9" s="5" t="s">
-        <v>16</v>
+        <v>32</v>
       </c>
       <c r="D9" s="5">
-        <v>2006</v>
+        <v>2008</v>
       </c>
       <c r="E9" s="5" t="s">
         <v>14</v>
       </c>
       <c r="F9" s="6">
-        <v>8</v>
-      </c>
-      <c r="G9" s="5" t="s">
-        <v>31</v>
+        <v>12</v>
+      </c>
+      <c r="G9" s="5">
+        <v>4007</v>
       </c>
       <c r="H9" s="5">
-        <v>1305</v>
+        <v>1004</v>
       </c>
       <c r="I9" s="5" t="s">
         <v>15</v>
@@ -1524,28 +1524,28 @@
     </row>
     <row r="10" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A10" s="5" t="s">
-        <v>33</v>
+        <v>35</v>
       </c>
       <c r="B10" s="5" t="s">
-        <v>82</v>
+        <v>79</v>
       </c>
       <c r="C10" s="5" t="s">
-        <v>32</v>
+        <v>16</v>
       </c>
       <c r="D10" s="5">
-        <v>2008</v>
+        <v>2010</v>
       </c>
       <c r="E10" s="5" t="s">
         <v>14</v>
       </c>
       <c r="F10" s="6">
-        <v>13</v>
-      </c>
-      <c r="G10" s="5">
-        <v>16</v>
+        <v>11</v>
+      </c>
+      <c r="G10" s="5" t="s">
+        <v>36</v>
       </c>
       <c r="H10" s="5">
-        <v>1004</v>
+        <v>648</v>
       </c>
       <c r="I10" s="5" t="s">
         <v>15</v>
@@ -1556,28 +1556,28 @@
     </row>
     <row r="11" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A11" s="5" t="s">
-        <v>34</v>
+        <v>37</v>
       </c>
       <c r="B11" s="5" t="s">
         <v>82</v>
       </c>
       <c r="C11" s="5" t="s">
-        <v>32</v>
+        <v>16</v>
       </c>
       <c r="D11" s="5">
-        <v>2008</v>
+        <v>2010</v>
       </c>
       <c r="E11" s="5" t="s">
         <v>14</v>
       </c>
       <c r="F11" s="6">
-        <v>12</v>
-      </c>
-      <c r="G11" s="5">
-        <v>4007</v>
+        <v>9</v>
+      </c>
+      <c r="G11" s="5" t="s">
+        <v>38</v>
       </c>
       <c r="H11" s="5">
-        <v>1004</v>
+        <v>660</v>
       </c>
       <c r="I11" s="5" t="s">
         <v>15</v>
@@ -1588,31 +1588,31 @@
     </row>
     <row r="12" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A12" s="5" t="s">
-        <v>35</v>
+        <v>39</v>
       </c>
       <c r="B12" s="5" t="s">
-        <v>79</v>
+        <v>82</v>
       </c>
       <c r="C12" s="5" t="s">
-        <v>16</v>
+        <v>73</v>
       </c>
       <c r="D12" s="5">
-        <v>2010</v>
+        <v>2005</v>
       </c>
       <c r="E12" s="5" t="s">
         <v>14</v>
       </c>
-      <c r="F12" s="6">
-        <v>11</v>
-      </c>
-      <c r="G12" s="5" t="s">
-        <v>36</v>
+      <c r="F12" s="6" t="s">
+        <v>71</v>
+      </c>
+      <c r="G12" s="5">
+        <v>697</v>
       </c>
       <c r="H12" s="5">
-        <v>648</v>
+        <v>9175</v>
       </c>
       <c r="I12" s="5" t="s">
-        <v>15</v>
+        <v>13</v>
       </c>
       <c r="J12" s="7" t="s">
         <v>11</v>
@@ -1620,31 +1620,31 @@
     </row>
     <row r="13" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A13" s="5" t="s">
-        <v>37</v>
+        <v>41</v>
       </c>
       <c r="B13" s="5" t="s">
         <v>82</v>
       </c>
       <c r="C13" s="5" t="s">
-        <v>16</v>
+        <v>40</v>
       </c>
       <c r="D13" s="5">
-        <v>2010</v>
+        <v>2011</v>
       </c>
       <c r="E13" s="5" t="s">
         <v>14</v>
       </c>
       <c r="F13" s="6">
-        <v>9</v>
+        <v>15</v>
       </c>
       <c r="G13" s="5" t="s">
-        <v>38</v>
+        <v>42</v>
       </c>
       <c r="H13" s="5">
-        <v>660</v>
+        <v>1061</v>
       </c>
       <c r="I13" s="5" t="s">
-        <v>15</v>
+        <v>12</v>
       </c>
       <c r="J13" s="7" t="s">
         <v>11</v>
@@ -1652,31 +1652,31 @@
     </row>
     <row r="14" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A14" s="5" t="s">
-        <v>39</v>
+        <v>43</v>
       </c>
       <c r="B14" s="5" t="s">
-        <v>82</v>
+        <v>79</v>
       </c>
       <c r="C14" s="5" t="s">
-        <v>73</v>
+        <v>40</v>
       </c>
       <c r="D14" s="5">
-        <v>2005</v>
+        <v>2008</v>
       </c>
       <c r="E14" s="5" t="s">
         <v>14</v>
       </c>
-      <c r="F14" s="6" t="s">
-        <v>71</v>
-      </c>
-      <c r="G14" s="5">
-        <v>697</v>
+      <c r="F14" s="6">
+        <v>14</v>
+      </c>
+      <c r="G14" s="5" t="s">
+        <v>44</v>
       </c>
       <c r="H14" s="5">
-        <v>9175</v>
+        <v>1523</v>
       </c>
       <c r="I14" s="5" t="s">
-        <v>13</v>
+        <v>18</v>
       </c>
       <c r="J14" s="7" t="s">
         <v>11</v>
@@ -1684,13 +1684,13 @@
     </row>
     <row r="15" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A15" s="5" t="s">
-        <v>41</v>
+        <v>101</v>
       </c>
       <c r="B15" s="5" t="s">
-        <v>82</v>
+        <v>79</v>
       </c>
       <c r="C15" s="5" t="s">
-        <v>40</v>
+        <v>21</v>
       </c>
       <c r="D15" s="5">
         <v>2011</v>
@@ -1698,60 +1698,60 @@
       <c r="E15" s="5" t="s">
         <v>14</v>
       </c>
-      <c r="F15" s="6">
-        <v>15</v>
+      <c r="F15" s="6" t="s">
+        <v>71</v>
       </c>
       <c r="G15" s="5" t="s">
-        <v>42</v>
+        <v>102</v>
       </c>
       <c r="H15" s="5">
-        <v>1061</v>
-      </c>
-      <c r="I15" s="5" t="s">
-        <v>12</v>
-      </c>
-      <c r="J15" s="7" t="s">
+        <v>9464</v>
+      </c>
+      <c r="I15" s="9" t="s">
+        <v>98</v>
+      </c>
+      <c r="J15" s="1" t="s">
         <v>11</v>
       </c>
     </row>
     <row r="16" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A16" s="5" t="s">
-        <v>43</v>
+        <v>103</v>
       </c>
       <c r="B16" s="5" t="s">
-        <v>79</v>
+        <v>82</v>
       </c>
       <c r="C16" s="5" t="s">
-        <v>40</v>
+        <v>21</v>
       </c>
       <c r="D16" s="5">
-        <v>2008</v>
+        <v>2011</v>
       </c>
       <c r="E16" s="5" t="s">
         <v>14</v>
       </c>
-      <c r="F16" s="6">
-        <v>14</v>
+      <c r="F16" s="6" t="s">
+        <v>71</v>
       </c>
       <c r="G16" s="5" t="s">
-        <v>44</v>
+        <v>104</v>
       </c>
       <c r="H16" s="5">
-        <v>1523</v>
-      </c>
-      <c r="I16" s="5" t="s">
-        <v>18</v>
-      </c>
-      <c r="J16" s="7" t="s">
+        <v>9464</v>
+      </c>
+      <c r="I16" s="9" t="s">
+        <v>98</v>
+      </c>
+      <c r="J16" s="1" t="s">
         <v>11</v>
       </c>
     </row>
     <row r="17" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A17" s="5" t="s">
-        <v>101</v>
+        <v>105</v>
       </c>
       <c r="B17" s="5" t="s">
-        <v>79</v>
+        <v>82</v>
       </c>
       <c r="C17" s="5" t="s">
         <v>21</v>
@@ -1766,7 +1766,7 @@
         <v>71</v>
       </c>
       <c r="G17" s="5" t="s">
-        <v>102</v>
+        <v>106</v>
       </c>
       <c r="H17" s="5">
         <v>9464</v>
@@ -1780,144 +1780,144 @@
     </row>
     <row r="18" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A18" s="5" t="s">
-        <v>103</v>
+        <v>92</v>
       </c>
       <c r="B18" s="5" t="s">
         <v>82</v>
       </c>
       <c r="C18" s="5" t="s">
-        <v>21</v>
+        <v>17</v>
       </c>
       <c r="D18" s="5">
-        <v>2011</v>
+        <v>2006</v>
       </c>
       <c r="E18" s="5" t="s">
         <v>14</v>
       </c>
-      <c r="F18" s="6" t="s">
-        <v>71</v>
+      <c r="F18" s="6">
+        <v>2</v>
       </c>
       <c r="G18" s="5" t="s">
-        <v>104</v>
+        <v>93</v>
       </c>
       <c r="H18" s="5">
-        <v>9464</v>
-      </c>
-      <c r="I18" s="9" t="s">
-        <v>98</v>
-      </c>
-      <c r="J18" s="1" t="s">
-        <v>11</v>
+        <v>9206</v>
+      </c>
+      <c r="I18" s="1" t="s">
+        <v>13</v>
+      </c>
+      <c r="J18" s="7" t="s">
+        <v>19</v>
       </c>
     </row>
     <row r="19" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A19" s="5" t="s">
-        <v>105</v>
+        <v>94</v>
       </c>
       <c r="B19" s="5" t="s">
         <v>82</v>
       </c>
       <c r="C19" s="5" t="s">
-        <v>21</v>
+        <v>17</v>
       </c>
       <c r="D19" s="5">
-        <v>2011</v>
+        <v>2003</v>
       </c>
       <c r="E19" s="5" t="s">
         <v>14</v>
       </c>
-      <c r="F19" s="6" t="s">
-        <v>71</v>
+      <c r="F19" s="6">
+        <v>2</v>
       </c>
       <c r="G19" s="5" t="s">
-        <v>106</v>
+        <v>95</v>
       </c>
       <c r="H19" s="5">
-        <v>9464</v>
-      </c>
-      <c r="I19" s="9" t="s">
-        <v>98</v>
-      </c>
-      <c r="J19" s="1" t="s">
-        <v>11</v>
+        <v>9185</v>
+      </c>
+      <c r="I19" s="1" t="s">
+        <v>13</v>
+      </c>
+      <c r="J19" s="7" t="s">
+        <v>19</v>
       </c>
     </row>
     <row r="20" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A20" s="5" t="s">
-        <v>92</v>
+        <v>65</v>
       </c>
       <c r="B20" s="5" t="s">
         <v>82</v>
       </c>
       <c r="C20" s="5" t="s">
-        <v>17</v>
+        <v>66</v>
       </c>
       <c r="D20" s="5">
-        <v>2006</v>
+        <v>1953</v>
       </c>
       <c r="E20" s="5" t="s">
         <v>14</v>
       </c>
       <c r="F20" s="6">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="G20" s="5" t="s">
-        <v>93</v>
+        <v>62</v>
       </c>
       <c r="H20" s="5">
-        <v>9206</v>
-      </c>
-      <c r="I20" s="1" t="s">
+        <v>9203</v>
+      </c>
+      <c r="I20" s="5" t="s">
         <v>13</v>
       </c>
       <c r="J20" s="7" t="s">
-        <v>19</v>
+        <v>11</v>
       </c>
     </row>
     <row r="21" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A21" s="5" t="s">
-        <v>94</v>
+        <v>45</v>
       </c>
       <c r="B21" s="5" t="s">
         <v>82</v>
       </c>
       <c r="C21" s="5" t="s">
-        <v>17</v>
+        <v>46</v>
       </c>
       <c r="D21" s="5">
-        <v>2003</v>
+        <v>1976</v>
       </c>
       <c r="E21" s="5" t="s">
         <v>14</v>
       </c>
       <c r="F21" s="6">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="G21" s="5" t="s">
-        <v>95</v>
+        <v>47</v>
       </c>
       <c r="H21" s="5">
-        <v>9185</v>
-      </c>
-      <c r="I21" s="1" t="s">
+        <v>9256</v>
+      </c>
+      <c r="I21" s="5" t="s">
         <v>13</v>
       </c>
       <c r="J21" s="7" t="s">
-        <v>19</v>
+        <v>48</v>
       </c>
     </row>
     <row r="22" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A22" s="5" t="s">
-        <v>65</v>
+        <v>67</v>
       </c>
       <c r="B22" s="5" t="s">
         <v>82</v>
       </c>
       <c r="C22" s="5" t="s">
-        <v>66</v>
+        <v>46</v>
       </c>
       <c r="D22" s="5">
-        <v>1953</v>
+        <v>1976</v>
       </c>
       <c r="E22" s="5" t="s">
         <v>14</v>
@@ -1926,30 +1926,30 @@
         <v>1</v>
       </c>
       <c r="G22" s="5" t="s">
-        <v>62</v>
+        <v>47</v>
       </c>
       <c r="H22" s="5">
-        <v>9203</v>
+        <v>9256</v>
       </c>
       <c r="I22" s="5" t="s">
         <v>13</v>
       </c>
       <c r="J22" s="7" t="s">
-        <v>11</v>
+        <v>48</v>
       </c>
     </row>
     <row r="23" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A23" s="5" t="s">
-        <v>45</v>
+        <v>64</v>
       </c>
       <c r="B23" s="5" t="s">
         <v>82</v>
       </c>
       <c r="C23" s="5" t="s">
-        <v>46</v>
+        <v>66</v>
       </c>
       <c r="D23" s="5">
-        <v>1976</v>
+        <v>1952</v>
       </c>
       <c r="E23" s="5" t="s">
         <v>14</v>
@@ -1958,30 +1958,30 @@
         <v>1</v>
       </c>
       <c r="G23" s="5" t="s">
-        <v>47</v>
+        <v>62</v>
       </c>
       <c r="H23" s="5">
-        <v>9256</v>
+        <v>9202</v>
       </c>
       <c r="I23" s="5" t="s">
         <v>13</v>
       </c>
       <c r="J23" s="7" t="s">
-        <v>48</v>
+        <v>11</v>
       </c>
     </row>
     <row r="24" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A24" s="5" t="s">
-        <v>67</v>
+        <v>63</v>
       </c>
       <c r="B24" s="5" t="s">
         <v>82</v>
       </c>
       <c r="C24" s="5" t="s">
-        <v>46</v>
+        <v>66</v>
       </c>
       <c r="D24" s="5">
-        <v>1976</v>
+        <v>1949</v>
       </c>
       <c r="E24" s="5" t="s">
         <v>14</v>
@@ -1990,85 +1990,85 @@
         <v>1</v>
       </c>
       <c r="G24" s="5" t="s">
-        <v>47</v>
+        <v>62</v>
       </c>
       <c r="H24" s="5">
-        <v>9256</v>
+        <v>9225</v>
       </c>
       <c r="I24" s="5" t="s">
         <v>13</v>
       </c>
       <c r="J24" s="7" t="s">
-        <v>48</v>
+        <v>11</v>
       </c>
     </row>
     <row r="25" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A25" s="5" t="s">
-        <v>64</v>
+        <v>111</v>
       </c>
       <c r="B25" s="5" t="s">
-        <v>82</v>
+        <v>79</v>
       </c>
       <c r="C25" s="5" t="s">
-        <v>66</v>
-      </c>
-      <c r="D25" s="5">
-        <v>1952</v>
+        <v>16</v>
+      </c>
+      <c r="D25" s="5" t="s">
+        <v>71</v>
       </c>
       <c r="E25" s="5" t="s">
         <v>14</v>
       </c>
-      <c r="F25" s="6">
-        <v>1</v>
+      <c r="F25" s="6" t="s">
+        <v>71</v>
       </c>
       <c r="G25" s="5" t="s">
-        <v>62</v>
+        <v>112</v>
       </c>
       <c r="H25" s="5">
-        <v>9202</v>
-      </c>
-      <c r="I25" s="5" t="s">
-        <v>13</v>
-      </c>
-      <c r="J25" s="7" t="s">
+        <v>9307</v>
+      </c>
+      <c r="I25" s="9" t="s">
+        <v>98</v>
+      </c>
+      <c r="J25" s="1" t="s">
         <v>11</v>
       </c>
     </row>
     <row r="26" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A26" s="5" t="s">
-        <v>63</v>
+        <v>125</v>
       </c>
       <c r="B26" s="5" t="s">
-        <v>82</v>
+        <v>79</v>
       </c>
       <c r="C26" s="5" t="s">
-        <v>66</v>
-      </c>
-      <c r="D26" s="5">
-        <v>1949</v>
+        <v>16</v>
+      </c>
+      <c r="D26" s="5" t="s">
+        <v>71</v>
       </c>
       <c r="E26" s="5" t="s">
         <v>14</v>
       </c>
-      <c r="F26" s="6">
-        <v>1</v>
+      <c r="F26" s="6" t="s">
+        <v>71</v>
       </c>
       <c r="G26" s="5" t="s">
-        <v>62</v>
+        <v>126</v>
       </c>
       <c r="H26" s="5">
-        <v>9225</v>
-      </c>
-      <c r="I26" s="5" t="s">
-        <v>13</v>
-      </c>
-      <c r="J26" s="7" t="s">
+        <v>9231</v>
+      </c>
+      <c r="I26" s="9" t="s">
+        <v>98</v>
+      </c>
+      <c r="J26" s="1" t="s">
         <v>11</v>
       </c>
     </row>
     <row r="27" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A27" s="5" t="s">
-        <v>111</v>
+        <v>131</v>
       </c>
       <c r="B27" s="5" t="s">
         <v>79</v>
@@ -2086,21 +2086,21 @@
         <v>71</v>
       </c>
       <c r="G27" s="5" t="s">
-        <v>112</v>
+        <v>132</v>
       </c>
       <c r="H27" s="5">
-        <v>9307</v>
+        <v>9206</v>
       </c>
       <c r="I27" s="9" t="s">
         <v>98</v>
       </c>
-      <c r="J27" s="1" t="s">
+      <c r="J27" s="10" t="s">
         <v>11</v>
       </c>
     </row>
     <row r="28" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A28" s="5" t="s">
-        <v>125</v>
+        <v>99</v>
       </c>
       <c r="B28" s="5" t="s">
         <v>79</v>
@@ -2118,10 +2118,10 @@
         <v>71</v>
       </c>
       <c r="G28" s="5" t="s">
-        <v>126</v>
+        <v>100</v>
       </c>
       <c r="H28" s="5">
-        <v>9231</v>
+        <v>9486</v>
       </c>
       <c r="I28" s="9" t="s">
         <v>98</v>
@@ -2132,7 +2132,7 @@
     </row>
     <row r="29" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A29" s="5" t="s">
-        <v>131</v>
+        <v>190</v>
       </c>
       <c r="B29" s="5" t="s">
         <v>79</v>
@@ -2150,21 +2150,21 @@
         <v>71</v>
       </c>
       <c r="G29" s="5" t="s">
-        <v>132</v>
+        <v>191</v>
       </c>
       <c r="H29" s="5">
-        <v>9206</v>
+        <v>9138</v>
       </c>
       <c r="I29" s="9" t="s">
         <v>98</v>
       </c>
-      <c r="J29" s="10" t="s">
+      <c r="J29" s="1" t="s">
         <v>11</v>
       </c>
     </row>
     <row r="30" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A30" s="5" t="s">
-        <v>99</v>
+        <v>121</v>
       </c>
       <c r="B30" s="5" t="s">
         <v>79</v>
@@ -2182,10 +2182,10 @@
         <v>71</v>
       </c>
       <c r="G30" s="5" t="s">
-        <v>100</v>
+        <v>122</v>
       </c>
       <c r="H30" s="5">
-        <v>9486</v>
+        <v>9258</v>
       </c>
       <c r="I30" s="9" t="s">
         <v>98</v>
@@ -2196,7 +2196,7 @@
     </row>
     <row r="31" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A31" s="5" t="s">
-        <v>190</v>
+        <v>109</v>
       </c>
       <c r="B31" s="5" t="s">
         <v>79</v>
@@ -2214,10 +2214,10 @@
         <v>71</v>
       </c>
       <c r="G31" s="5" t="s">
-        <v>191</v>
+        <v>110</v>
       </c>
       <c r="H31" s="5">
-        <v>9138</v>
+        <v>9312</v>
       </c>
       <c r="I31" s="9" t="s">
         <v>98</v>
@@ -2228,7 +2228,7 @@
     </row>
     <row r="32" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A32" s="5" t="s">
-        <v>121</v>
+        <v>117</v>
       </c>
       <c r="B32" s="5" t="s">
         <v>79</v>
@@ -2236,8 +2236,8 @@
       <c r="C32" s="5" t="s">
         <v>16</v>
       </c>
-      <c r="D32" s="5" t="s">
-        <v>71</v>
+      <c r="D32" s="5">
+        <v>2017</v>
       </c>
       <c r="E32" s="5" t="s">
         <v>14</v>
@@ -2246,10 +2246,10 @@
         <v>71</v>
       </c>
       <c r="G32" s="5" t="s">
-        <v>122</v>
+        <v>118</v>
       </c>
       <c r="H32" s="5">
-        <v>9258</v>
+        <v>9266</v>
       </c>
       <c r="I32" s="9" t="s">
         <v>98</v>
@@ -2260,7 +2260,7 @@
     </row>
     <row r="33" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A33" s="5" t="s">
-        <v>109</v>
+        <v>123</v>
       </c>
       <c r="B33" s="5" t="s">
         <v>79</v>
@@ -2268,8 +2268,8 @@
       <c r="C33" s="5" t="s">
         <v>16</v>
       </c>
-      <c r="D33" s="5" t="s">
-        <v>71</v>
+      <c r="D33" s="5">
+        <v>2017</v>
       </c>
       <c r="E33" s="5" t="s">
         <v>14</v>
@@ -2278,10 +2278,10 @@
         <v>71</v>
       </c>
       <c r="G33" s="5" t="s">
-        <v>110</v>
+        <v>124</v>
       </c>
       <c r="H33" s="5">
-        <v>9312</v>
+        <v>9257</v>
       </c>
       <c r="I33" s="9" t="s">
         <v>98</v>
@@ -2292,7 +2292,7 @@
     </row>
     <row r="34" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A34" s="5" t="s">
-        <v>117</v>
+        <v>113</v>
       </c>
       <c r="B34" s="5" t="s">
         <v>79</v>
@@ -2310,10 +2310,10 @@
         <v>71</v>
       </c>
       <c r="G34" s="5" t="s">
-        <v>118</v>
+        <v>114</v>
       </c>
       <c r="H34" s="5">
-        <v>9266</v>
+        <v>9276</v>
       </c>
       <c r="I34" s="9" t="s">
         <v>98</v>
@@ -2324,7 +2324,7 @@
     </row>
     <row r="35" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A35" s="5" t="s">
-        <v>123</v>
+        <v>119</v>
       </c>
       <c r="B35" s="5" t="s">
         <v>79</v>
@@ -2342,10 +2342,10 @@
         <v>71</v>
       </c>
       <c r="G35" s="5" t="s">
-        <v>124</v>
+        <v>120</v>
       </c>
       <c r="H35" s="5">
-        <v>9257</v>
+        <v>9265</v>
       </c>
       <c r="I35" s="9" t="s">
         <v>98</v>
@@ -2356,10 +2356,10 @@
     </row>
     <row r="36" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A36" s="5" t="s">
-        <v>113</v>
+        <v>182</v>
       </c>
       <c r="B36" s="5" t="s">
-        <v>79</v>
+        <v>82</v>
       </c>
       <c r="C36" s="5" t="s">
         <v>16</v>
@@ -2374,10 +2374,10 @@
         <v>71</v>
       </c>
       <c r="G36" s="5" t="s">
-        <v>114</v>
+        <v>183</v>
       </c>
       <c r="H36" s="5">
-        <v>9276</v>
+        <v>9164</v>
       </c>
       <c r="I36" s="9" t="s">
         <v>98</v>
@@ -2388,7 +2388,7 @@
     </row>
     <row r="37" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A37" s="5" t="s">
-        <v>119</v>
+        <v>107</v>
       </c>
       <c r="B37" s="5" t="s">
         <v>79</v>
@@ -2406,10 +2406,10 @@
         <v>71</v>
       </c>
       <c r="G37" s="5" t="s">
-        <v>120</v>
+        <v>108</v>
       </c>
       <c r="H37" s="5">
-        <v>9265</v>
+        <v>9316</v>
       </c>
       <c r="I37" s="9" t="s">
         <v>98</v>
@@ -2420,13 +2420,13 @@
     </row>
     <row r="38" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A38" s="5" t="s">
-        <v>182</v>
+        <v>150</v>
       </c>
       <c r="B38" s="5" t="s">
         <v>82</v>
       </c>
       <c r="C38" s="5" t="s">
-        <v>16</v>
+        <v>17</v>
       </c>
       <c r="D38" s="5">
         <v>2017</v>
@@ -2437,31 +2437,31 @@
       <c r="F38" s="6" t="s">
         <v>71</v>
       </c>
-      <c r="G38" s="5" t="s">
-        <v>183</v>
+      <c r="G38" s="5">
+        <v>1150</v>
       </c>
       <c r="H38" s="5">
-        <v>9164</v>
+        <v>9195</v>
       </c>
       <c r="I38" s="9" t="s">
         <v>98</v>
       </c>
-      <c r="J38" s="1" t="s">
-        <v>11</v>
+      <c r="J38" s="7" t="s">
+        <v>19</v>
       </c>
     </row>
     <row r="39" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A39" s="5" t="s">
-        <v>107</v>
+        <v>133</v>
       </c>
       <c r="B39" s="5" t="s">
-        <v>79</v>
+        <v>82</v>
       </c>
       <c r="C39" s="5" t="s">
-        <v>16</v>
+        <v>17</v>
       </c>
       <c r="D39" s="5">
-        <v>2017</v>
+        <v>2006</v>
       </c>
       <c r="E39" s="5" t="s">
         <v>14</v>
@@ -2470,21 +2470,21 @@
         <v>71</v>
       </c>
       <c r="G39" s="5" t="s">
-        <v>108</v>
+        <v>93</v>
       </c>
       <c r="H39" s="5">
-        <v>9316</v>
+        <v>9206</v>
       </c>
       <c r="I39" s="9" t="s">
         <v>98</v>
       </c>
-      <c r="J39" s="1" t="s">
-        <v>11</v>
+      <c r="J39" s="7" t="s">
+        <v>19</v>
       </c>
     </row>
     <row r="40" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A40" s="5" t="s">
-        <v>150</v>
+        <v>157</v>
       </c>
       <c r="B40" s="5" t="s">
         <v>82</v>
@@ -2493,7 +2493,7 @@
         <v>17</v>
       </c>
       <c r="D40" s="5">
-        <v>2017</v>
+        <v>2006</v>
       </c>
       <c r="E40" s="5" t="s">
         <v>14</v>
@@ -2501,11 +2501,11 @@
       <c r="F40" s="6" t="s">
         <v>71</v>
       </c>
-      <c r="G40" s="5">
-        <v>1150</v>
+      <c r="G40" s="5" t="s">
+        <v>158</v>
       </c>
       <c r="H40" s="5">
-        <v>9195</v>
+        <v>9192</v>
       </c>
       <c r="I40" s="9" t="s">
         <v>98</v>
@@ -2516,7 +2516,7 @@
     </row>
     <row r="41" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A41" s="5" t="s">
-        <v>133</v>
+        <v>172</v>
       </c>
       <c r="B41" s="5" t="s">
         <v>82</v>
@@ -2534,10 +2534,10 @@
         <v>71</v>
       </c>
       <c r="G41" s="5" t="s">
-        <v>93</v>
+        <v>173</v>
       </c>
       <c r="H41" s="5">
-        <v>9206</v>
+        <v>9171</v>
       </c>
       <c r="I41" s="9" t="s">
         <v>98</v>
@@ -2548,7 +2548,7 @@
     </row>
     <row r="42" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A42" s="5" t="s">
-        <v>157</v>
+        <v>178</v>
       </c>
       <c r="B42" s="5" t="s">
         <v>82</v>
@@ -2566,10 +2566,10 @@
         <v>71</v>
       </c>
       <c r="G42" s="5" t="s">
-        <v>158</v>
+        <v>179</v>
       </c>
       <c r="H42" s="5">
-        <v>9192</v>
+        <v>9166</v>
       </c>
       <c r="I42" s="9" t="s">
         <v>98</v>
@@ -2580,7 +2580,7 @@
     </row>
     <row r="43" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A43" s="5" t="s">
-        <v>172</v>
+        <v>140</v>
       </c>
       <c r="B43" s="5" t="s">
         <v>82</v>
@@ -2598,10 +2598,10 @@
         <v>71</v>
       </c>
       <c r="G43" s="5" t="s">
-        <v>173</v>
+        <v>141</v>
       </c>
       <c r="H43" s="5">
-        <v>9171</v>
+        <v>9202</v>
       </c>
       <c r="I43" s="9" t="s">
         <v>98</v>
@@ -2612,7 +2612,7 @@
     </row>
     <row r="44" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A44" s="5" t="s">
-        <v>178</v>
+        <v>151</v>
       </c>
       <c r="B44" s="5" t="s">
         <v>82</v>
@@ -2621,7 +2621,7 @@
         <v>17</v>
       </c>
       <c r="D44" s="5">
-        <v>2006</v>
+        <v>2007</v>
       </c>
       <c r="E44" s="5" t="s">
         <v>14</v>
@@ -2630,10 +2630,10 @@
         <v>71</v>
       </c>
       <c r="G44" s="5" t="s">
-        <v>179</v>
+        <v>152</v>
       </c>
       <c r="H44" s="5">
-        <v>9166</v>
+        <v>9194</v>
       </c>
       <c r="I44" s="9" t="s">
         <v>98</v>
@@ -2644,7 +2644,7 @@
     </row>
     <row r="45" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A45" s="5" t="s">
-        <v>140</v>
+        <v>129</v>
       </c>
       <c r="B45" s="5" t="s">
         <v>82</v>
@@ -2662,10 +2662,10 @@
         <v>71</v>
       </c>
       <c r="G45" s="5" t="s">
-        <v>141</v>
+        <v>130</v>
       </c>
       <c r="H45" s="5">
-        <v>9202</v>
+        <v>9207</v>
       </c>
       <c r="I45" s="9" t="s">
         <v>98</v>
@@ -2676,7 +2676,7 @@
     </row>
     <row r="46" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A46" s="5" t="s">
-        <v>151</v>
+        <v>159</v>
       </c>
       <c r="B46" s="5" t="s">
         <v>82</v>
@@ -2694,10 +2694,10 @@
         <v>71</v>
       </c>
       <c r="G46" s="5" t="s">
-        <v>152</v>
+        <v>160</v>
       </c>
       <c r="H46" s="5">
-        <v>9194</v>
+        <v>9192</v>
       </c>
       <c r="I46" s="9" t="s">
         <v>98</v>
@@ -2708,7 +2708,7 @@
     </row>
     <row r="47" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A47" s="5" t="s">
-        <v>129</v>
+        <v>153</v>
       </c>
       <c r="B47" s="5" t="s">
         <v>82</v>
@@ -2726,10 +2726,10 @@
         <v>71</v>
       </c>
       <c r="G47" s="5" t="s">
-        <v>130</v>
+        <v>154</v>
       </c>
       <c r="H47" s="5">
-        <v>9207</v>
+        <v>9193</v>
       </c>
       <c r="I47" s="9" t="s">
         <v>98</v>
@@ -2740,7 +2740,7 @@
     </row>
     <row r="48" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A48" s="5" t="s">
-        <v>159</v>
+        <v>180</v>
       </c>
       <c r="B48" s="5" t="s">
         <v>82</v>
@@ -2749,7 +2749,7 @@
         <v>17</v>
       </c>
       <c r="D48" s="5">
-        <v>2007</v>
+        <v>2017</v>
       </c>
       <c r="E48" s="5" t="s">
         <v>14</v>
@@ -2758,10 +2758,10 @@
         <v>71</v>
       </c>
       <c r="G48" s="5" t="s">
-        <v>160</v>
+        <v>181</v>
       </c>
       <c r="H48" s="5">
-        <v>9192</v>
+        <v>9166</v>
       </c>
       <c r="I48" s="9" t="s">
         <v>98</v>
@@ -2772,7 +2772,7 @@
     </row>
     <row r="49" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A49" s="5" t="s">
-        <v>153</v>
+        <v>166</v>
       </c>
       <c r="B49" s="5" t="s">
         <v>82</v>
@@ -2790,10 +2790,10 @@
         <v>71</v>
       </c>
       <c r="G49" s="5" t="s">
-        <v>154</v>
+        <v>167</v>
       </c>
       <c r="H49" s="5">
-        <v>9193</v>
+        <v>9185</v>
       </c>
       <c r="I49" s="9" t="s">
         <v>98</v>
@@ -2804,7 +2804,7 @@
     </row>
     <row r="50" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A50" s="5" t="s">
-        <v>180</v>
+        <v>146</v>
       </c>
       <c r="B50" s="5" t="s">
         <v>82</v>
@@ -2813,7 +2813,7 @@
         <v>17</v>
       </c>
       <c r="D50" s="5">
-        <v>2017</v>
+        <v>2005</v>
       </c>
       <c r="E50" s="5" t="s">
         <v>14</v>
@@ -2822,10 +2822,10 @@
         <v>71</v>
       </c>
       <c r="G50" s="5" t="s">
-        <v>181</v>
+        <v>147</v>
       </c>
       <c r="H50" s="5">
-        <v>9166</v>
+        <v>9200</v>
       </c>
       <c r="I50" s="9" t="s">
         <v>98</v>
@@ -2836,7 +2836,7 @@
     </row>
     <row r="51" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A51" s="5" t="s">
-        <v>166</v>
+        <v>142</v>
       </c>
       <c r="B51" s="5" t="s">
         <v>82</v>
@@ -2854,10 +2854,10 @@
         <v>71</v>
       </c>
       <c r="G51" s="5" t="s">
-        <v>167</v>
+        <v>143</v>
       </c>
       <c r="H51" s="5">
-        <v>9185</v>
+        <v>9202</v>
       </c>
       <c r="I51" s="9" t="s">
         <v>98</v>
@@ -2868,7 +2868,7 @@
     </row>
     <row r="52" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A52" s="5" t="s">
-        <v>146</v>
+        <v>161</v>
       </c>
       <c r="B52" s="5" t="s">
         <v>82</v>
@@ -2877,7 +2877,7 @@
         <v>17</v>
       </c>
       <c r="D52" s="5">
-        <v>2005</v>
+        <v>2007</v>
       </c>
       <c r="E52" s="5" t="s">
         <v>14</v>
@@ -2886,10 +2886,10 @@
         <v>71</v>
       </c>
       <c r="G52" s="5" t="s">
-        <v>147</v>
+        <v>162</v>
       </c>
       <c r="H52" s="5">
-        <v>9200</v>
+        <v>9191</v>
       </c>
       <c r="I52" s="9" t="s">
         <v>98</v>
@@ -2900,7 +2900,7 @@
     </row>
     <row r="53" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A53" s="5" t="s">
-        <v>142</v>
+        <v>148</v>
       </c>
       <c r="B53" s="5" t="s">
         <v>82</v>
@@ -2909,7 +2909,7 @@
         <v>17</v>
       </c>
       <c r="D53" s="5">
-        <v>2006</v>
+        <v>2007</v>
       </c>
       <c r="E53" s="5" t="s">
         <v>14</v>
@@ -2918,10 +2918,10 @@
         <v>71</v>
       </c>
       <c r="G53" s="5" t="s">
-        <v>143</v>
+        <v>149</v>
       </c>
       <c r="H53" s="5">
-        <v>9202</v>
+        <v>9199</v>
       </c>
       <c r="I53" s="9" t="s">
         <v>98</v>
@@ -2932,7 +2932,7 @@
     </row>
     <row r="54" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A54" s="5" t="s">
-        <v>161</v>
+        <v>165</v>
       </c>
       <c r="B54" s="5" t="s">
         <v>82</v>
@@ -2941,7 +2941,7 @@
         <v>17</v>
       </c>
       <c r="D54" s="5">
-        <v>2007</v>
+        <v>2003</v>
       </c>
       <c r="E54" s="5" t="s">
         <v>14</v>
@@ -2950,10 +2950,10 @@
         <v>71</v>
       </c>
       <c r="G54" s="5" t="s">
-        <v>162</v>
+        <v>95</v>
       </c>
       <c r="H54" s="5">
-        <v>9191</v>
+        <v>9189</v>
       </c>
       <c r="I54" s="9" t="s">
         <v>98</v>
@@ -2964,7 +2964,7 @@
     </row>
     <row r="55" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A55" s="5" t="s">
-        <v>148</v>
+        <v>163</v>
       </c>
       <c r="B55" s="5" t="s">
         <v>82</v>
@@ -2973,7 +2973,7 @@
         <v>17</v>
       </c>
       <c r="D55" s="5">
-        <v>2007</v>
+        <v>2006</v>
       </c>
       <c r="E55" s="5" t="s">
         <v>14</v>
@@ -2982,10 +2982,10 @@
         <v>71</v>
       </c>
       <c r="G55" s="5" t="s">
-        <v>149</v>
+        <v>164</v>
       </c>
       <c r="H55" s="5">
-        <v>9199</v>
+        <v>9191</v>
       </c>
       <c r="I55" s="9" t="s">
         <v>98</v>
@@ -2996,7 +2996,7 @@
     </row>
     <row r="56" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A56" s="5" t="s">
-        <v>165</v>
+        <v>144</v>
       </c>
       <c r="B56" s="5" t="s">
         <v>82</v>
@@ -3005,7 +3005,7 @@
         <v>17</v>
       </c>
       <c r="D56" s="5">
-        <v>2003</v>
+        <v>2004</v>
       </c>
       <c r="E56" s="5" t="s">
         <v>14</v>
@@ -3014,10 +3014,10 @@
         <v>71</v>
       </c>
       <c r="G56" s="5" t="s">
-        <v>95</v>
+        <v>145</v>
       </c>
       <c r="H56" s="5">
-        <v>9189</v>
+        <v>9201</v>
       </c>
       <c r="I56" s="9" t="s">
         <v>98</v>
@@ -3028,7 +3028,7 @@
     </row>
     <row r="57" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A57" s="5" t="s">
-        <v>163</v>
+        <v>134</v>
       </c>
       <c r="B57" s="5" t="s">
         <v>82</v>
@@ -3046,10 +3046,10 @@
         <v>71</v>
       </c>
       <c r="G57" s="5" t="s">
-        <v>164</v>
+        <v>135</v>
       </c>
       <c r="H57" s="5">
-        <v>9191</v>
+        <v>9206</v>
       </c>
       <c r="I57" s="9" t="s">
         <v>98</v>
@@ -3060,7 +3060,7 @@
     </row>
     <row r="58" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A58" s="5" t="s">
-        <v>144</v>
+        <v>138</v>
       </c>
       <c r="B58" s="5" t="s">
         <v>82</v>
@@ -3069,7 +3069,7 @@
         <v>17</v>
       </c>
       <c r="D58" s="5">
-        <v>2004</v>
+        <v>2007</v>
       </c>
       <c r="E58" s="5" t="s">
         <v>14</v>
@@ -3078,10 +3078,10 @@
         <v>71</v>
       </c>
       <c r="G58" s="5" t="s">
-        <v>145</v>
+        <v>139</v>
       </c>
       <c r="H58" s="5">
-        <v>9201</v>
+        <v>9203</v>
       </c>
       <c r="I58" s="9" t="s">
         <v>98</v>
@@ -3092,7 +3092,7 @@
     </row>
     <row r="59" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A59" s="5" t="s">
-        <v>134</v>
+        <v>127</v>
       </c>
       <c r="B59" s="5" t="s">
         <v>82</v>
@@ -3110,10 +3110,10 @@
         <v>71</v>
       </c>
       <c r="G59" s="5" t="s">
-        <v>135</v>
+        <v>128</v>
       </c>
       <c r="H59" s="5">
-        <v>9206</v>
+        <v>9215</v>
       </c>
       <c r="I59" s="9" t="s">
         <v>98</v>
@@ -3124,7 +3124,7 @@
     </row>
     <row r="60" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A60" s="5" t="s">
-        <v>138</v>
+        <v>168</v>
       </c>
       <c r="B60" s="5" t="s">
         <v>82</v>
@@ -3133,7 +3133,7 @@
         <v>17</v>
       </c>
       <c r="D60" s="5">
-        <v>2007</v>
+        <v>2006</v>
       </c>
       <c r="E60" s="5" t="s">
         <v>14</v>
@@ -3142,10 +3142,10 @@
         <v>71</v>
       </c>
       <c r="G60" s="5" t="s">
-        <v>139</v>
+        <v>169</v>
       </c>
       <c r="H60" s="5">
-        <v>9203</v>
+        <v>9172</v>
       </c>
       <c r="I60" s="9" t="s">
         <v>98</v>
@@ -3156,7 +3156,7 @@
     </row>
     <row r="61" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A61" s="5" t="s">
-        <v>127</v>
+        <v>136</v>
       </c>
       <c r="B61" s="5" t="s">
         <v>82</v>
@@ -3174,10 +3174,10 @@
         <v>71</v>
       </c>
       <c r="G61" s="5" t="s">
-        <v>128</v>
+        <v>137</v>
       </c>
       <c r="H61" s="5">
-        <v>9215</v>
+        <v>9204</v>
       </c>
       <c r="I61" s="9" t="s">
         <v>98</v>
@@ -3188,16 +3188,16 @@
     </row>
     <row r="62" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A62" s="5" t="s">
-        <v>168</v>
+        <v>155</v>
       </c>
       <c r="B62" s="5" t="s">
         <v>82</v>
       </c>
       <c r="C62" s="5" t="s">
-        <v>17</v>
+        <v>91</v>
       </c>
       <c r="D62" s="5">
-        <v>2006</v>
+        <v>2020</v>
       </c>
       <c r="E62" s="5" t="s">
         <v>14</v>
@@ -3206,245 +3206,245 @@
         <v>71</v>
       </c>
       <c r="G62" s="5" t="s">
-        <v>169</v>
+        <v>156</v>
       </c>
       <c r="H62" s="5">
-        <v>9172</v>
+        <v>9193</v>
       </c>
       <c r="I62" s="9" t="s">
         <v>98</v>
       </c>
-      <c r="J62" s="7" t="s">
-        <v>19</v>
+      <c r="J62" s="1" t="s">
+        <v>90</v>
       </c>
     </row>
     <row r="63" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A63" s="5" t="s">
-        <v>136</v>
+        <v>68</v>
       </c>
       <c r="B63" s="5" t="s">
         <v>82</v>
       </c>
       <c r="C63" s="5" t="s">
-        <v>17</v>
+        <v>69</v>
       </c>
       <c r="D63" s="5">
-        <v>2006</v>
+        <v>1984</v>
       </c>
       <c r="E63" s="5" t="s">
         <v>14</v>
       </c>
-      <c r="F63" s="6" t="s">
-        <v>71</v>
+      <c r="F63" s="6">
+        <v>1</v>
       </c>
       <c r="G63" s="5" t="s">
-        <v>137</v>
+        <v>70</v>
       </c>
       <c r="H63" s="5">
-        <v>9204</v>
-      </c>
-      <c r="I63" s="9" t="s">
-        <v>98</v>
+        <v>9203</v>
+      </c>
+      <c r="I63" s="5" t="s">
+        <v>13</v>
       </c>
       <c r="J63" s="7" t="s">
-        <v>19</v>
+        <v>11</v>
       </c>
     </row>
     <row r="64" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A64" s="5" t="s">
-        <v>155</v>
+        <v>53</v>
       </c>
       <c r="B64" s="5" t="s">
         <v>82</v>
       </c>
       <c r="C64" s="5" t="s">
-        <v>91</v>
+        <v>10</v>
       </c>
       <c r="D64" s="5">
-        <v>2020</v>
+        <v>1994</v>
       </c>
       <c r="E64" s="5" t="s">
         <v>14</v>
       </c>
-      <c r="F64" s="6" t="s">
-        <v>71</v>
-      </c>
-      <c r="G64" s="5" t="s">
-        <v>156</v>
+      <c r="F64" s="6">
+        <v>6</v>
+      </c>
+      <c r="G64" s="5">
+        <v>676</v>
       </c>
       <c r="H64" s="5">
-        <v>9193</v>
-      </c>
-      <c r="I64" s="9" t="s">
-        <v>98</v>
-      </c>
-      <c r="J64" s="1" t="s">
-        <v>90</v>
+        <v>475</v>
+      </c>
+      <c r="I64" s="5" t="s">
+        <v>12</v>
+      </c>
+      <c r="J64" s="7" t="s">
+        <v>11</v>
       </c>
     </row>
     <row r="65" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A65" s="5" t="s">
-        <v>68</v>
+        <v>58</v>
       </c>
       <c r="B65" s="5" t="s">
         <v>82</v>
       </c>
       <c r="C65" s="5" t="s">
-        <v>69</v>
+        <v>59</v>
       </c>
       <c r="D65" s="5">
-        <v>1984</v>
+        <v>2007</v>
       </c>
       <c r="E65" s="5" t="s">
         <v>14</v>
       </c>
-      <c r="F65" s="6">
-        <v>1</v>
+      <c r="F65" s="6" t="s">
+        <v>71</v>
       </c>
       <c r="G65" s="5" t="s">
-        <v>70</v>
+        <v>60</v>
       </c>
       <c r="H65" s="5">
-        <v>9203</v>
+        <v>9136</v>
       </c>
       <c r="I65" s="5" t="s">
         <v>13</v>
       </c>
       <c r="J65" s="7" t="s">
-        <v>11</v>
+        <v>61</v>
       </c>
     </row>
     <row r="66" spans="1:10" x14ac:dyDescent="0.2">
-      <c r="A66" s="5" t="s">
-        <v>53</v>
+      <c r="A66" s="1" t="s">
+        <v>96</v>
       </c>
       <c r="B66" s="5" t="s">
-        <v>82</v>
-      </c>
-      <c r="C66" s="5" t="s">
-        <v>10</v>
-      </c>
-      <c r="D66" s="5">
-        <v>1994</v>
-      </c>
-      <c r="E66" s="5" t="s">
-        <v>14</v>
-      </c>
-      <c r="F66" s="6">
-        <v>6</v>
-      </c>
-      <c r="G66" s="5">
-        <v>676</v>
-      </c>
-      <c r="H66" s="5">
-        <v>475</v>
-      </c>
-      <c r="I66" s="5" t="s">
-        <v>12</v>
-      </c>
-      <c r="J66" s="7" t="s">
-        <v>11</v>
+        <v>79</v>
+      </c>
+      <c r="C66" s="1" t="s">
+        <v>91</v>
+      </c>
+      <c r="D66" s="1">
+        <v>1992</v>
+      </c>
+      <c r="E66" s="9" t="s">
+        <v>87</v>
+      </c>
+      <c r="F66" s="3">
+        <v>1</v>
+      </c>
+      <c r="G66" t="s">
+        <v>97</v>
+      </c>
+      <c r="H66" s="1">
+        <v>9186</v>
+      </c>
+      <c r="I66" s="9" t="s">
+        <v>98</v>
+      </c>
+      <c r="J66" s="1" t="s">
+        <v>90</v>
       </c>
     </row>
     <row r="67" spans="1:10" x14ac:dyDescent="0.2">
-      <c r="A67" s="5" t="s">
-        <v>58</v>
+      <c r="A67" s="1" t="s">
+        <v>86</v>
       </c>
       <c r="B67" s="5" t="s">
         <v>82</v>
       </c>
       <c r="C67" s="5" t="s">
-        <v>59</v>
-      </c>
-      <c r="D67" s="5">
-        <v>2007</v>
-      </c>
-      <c r="E67" s="5" t="s">
-        <v>14</v>
-      </c>
-      <c r="F67" s="6" t="s">
-        <v>71</v>
-      </c>
-      <c r="G67" s="5" t="s">
-        <v>60</v>
-      </c>
-      <c r="H67" s="5">
+        <v>73</v>
+      </c>
+      <c r="D67" s="1">
+        <v>2004</v>
+      </c>
+      <c r="E67" s="9" t="s">
+        <v>87</v>
+      </c>
+      <c r="F67" s="6">
+        <v>1</v>
+      </c>
+      <c r="G67" s="1">
+        <v>496</v>
+      </c>
+      <c r="H67" s="1">
         <v>9136</v>
       </c>
-      <c r="I67" s="5" t="s">
+      <c r="I67" s="1" t="s">
         <v>13</v>
       </c>
-      <c r="J67" s="7" t="s">
-        <v>61</v>
+      <c r="J67" s="1" t="s">
+        <v>11</v>
       </c>
     </row>
     <row r="68" spans="1:10" x14ac:dyDescent="0.2">
-      <c r="A68" s="1" t="s">
-        <v>96</v>
+      <c r="A68" s="5" t="s">
+        <v>88</v>
       </c>
       <c r="B68" s="5" t="s">
         <v>79</v>
       </c>
-      <c r="C68" s="1" t="s">
+      <c r="C68" s="5" t="s">
         <v>91</v>
       </c>
-      <c r="D68" s="1">
-        <v>1992</v>
-      </c>
-      <c r="E68" s="9" t="s">
+      <c r="D68" s="5">
+        <v>2009</v>
+      </c>
+      <c r="E68" s="5" t="s">
         <v>87</v>
       </c>
-      <c r="F68" s="3">
+      <c r="F68" s="6">
         <v>1</v>
       </c>
-      <c r="G68" t="s">
-        <v>97</v>
-      </c>
-      <c r="H68" s="1">
-        <v>9186</v>
-      </c>
-      <c r="I68" s="9" t="s">
-        <v>98</v>
+      <c r="G68" s="5" t="s">
+        <v>89</v>
+      </c>
+      <c r="H68" s="5">
+        <v>9065</v>
+      </c>
+      <c r="I68" s="1" t="s">
+        <v>13</v>
       </c>
       <c r="J68" s="1" t="s">
         <v>90</v>
       </c>
     </row>
     <row r="69" spans="1:10" x14ac:dyDescent="0.2">
-      <c r="A69" s="1" t="s">
-        <v>86</v>
+      <c r="A69" s="5" t="s">
+        <v>215</v>
       </c>
       <c r="B69" s="5" t="s">
-        <v>82</v>
+        <v>9</v>
       </c>
       <c r="C69" s="5" t="s">
-        <v>73</v>
-      </c>
-      <c r="D69" s="1">
+        <v>80</v>
+      </c>
+      <c r="D69" s="5">
         <v>2004</v>
       </c>
-      <c r="E69" s="9" t="s">
+      <c r="E69" s="5" t="s">
         <v>87</v>
       </c>
-      <c r="F69" s="6">
-        <v>1</v>
-      </c>
-      <c r="G69" s="1">
-        <v>496</v>
-      </c>
-      <c r="H69" s="1">
-        <v>9136</v>
+      <c r="F69" s="6" t="s">
+        <v>71</v>
+      </c>
+      <c r="G69" s="5" t="s">
+        <v>216</v>
+      </c>
+      <c r="H69" s="5">
+        <v>9090</v>
       </c>
       <c r="I69" s="1" t="s">
         <v>13</v>
       </c>
       <c r="J69" s="1" t="s">
-        <v>11</v>
+        <v>19</v>
       </c>
     </row>
     <row r="70" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A70" s="5" t="s">
-        <v>88</v>
+        <v>192</v>
       </c>
       <c r="B70" s="5" t="s">
         <v>79</v>
@@ -3453,62 +3453,59 @@
         <v>91</v>
       </c>
       <c r="D70" s="5">
-        <v>2009</v>
+        <v>1993</v>
       </c>
       <c r="E70" s="5" t="s">
-        <v>87</v>
+        <v>52</v>
       </c>
       <c r="F70" s="6">
         <v>1</v>
       </c>
       <c r="G70" s="5" t="s">
-        <v>89</v>
+        <v>193</v>
       </c>
       <c r="H70" s="5">
-        <v>9065</v>
-      </c>
-      <c r="I70" s="1" t="s">
-        <v>13</v>
-      </c>
-      <c r="J70" s="1" t="s">
-        <v>90</v>
+        <v>9138</v>
+      </c>
+      <c r="I70" s="9" t="s">
+        <v>98</v>
       </c>
     </row>
     <row r="71" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A71" s="5" t="s">
-        <v>215</v>
+        <v>170</v>
       </c>
       <c r="B71" s="5" t="s">
-        <v>9</v>
+        <v>79</v>
       </c>
       <c r="C71" s="5" t="s">
-        <v>80</v>
+        <v>91</v>
       </c>
       <c r="D71" s="5">
-        <v>2004</v>
+        <v>1993</v>
       </c>
       <c r="E71" s="5" t="s">
-        <v>87</v>
-      </c>
-      <c r="F71" s="6" t="s">
-        <v>71</v>
+        <v>52</v>
+      </c>
+      <c r="F71" s="6">
+        <v>1</v>
       </c>
       <c r="G71" s="5" t="s">
-        <v>216</v>
+        <v>171</v>
       </c>
       <c r="H71" s="5">
-        <v>9090</v>
-      </c>
-      <c r="I71" s="1" t="s">
-        <v>13</v>
+        <v>9172</v>
+      </c>
+      <c r="I71" s="9" t="s">
+        <v>98</v>
       </c>
       <c r="J71" s="1" t="s">
-        <v>19</v>
+        <v>90</v>
       </c>
     </row>
     <row r="72" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A72" s="5" t="s">
-        <v>192</v>
+        <v>184</v>
       </c>
       <c r="B72" s="5" t="s">
         <v>79</v>
@@ -3526,18 +3523,21 @@
         <v>1</v>
       </c>
       <c r="G72" s="5" t="s">
-        <v>193</v>
+        <v>185</v>
       </c>
       <c r="H72" s="5">
-        <v>9138</v>
+        <v>9163</v>
       </c>
       <c r="I72" s="9" t="s">
         <v>98</v>
+      </c>
+      <c r="J72" s="1" t="s">
+        <v>90</v>
       </c>
     </row>
     <row r="73" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A73" s="5" t="s">
-        <v>170</v>
+        <v>202</v>
       </c>
       <c r="B73" s="5" t="s">
         <v>79</v>
@@ -3545,8 +3545,8 @@
       <c r="C73" s="5" t="s">
         <v>91</v>
       </c>
-      <c r="D73" s="5">
-        <v>1993</v>
+      <c r="D73" s="5" t="s">
+        <v>71</v>
       </c>
       <c r="E73" s="5" t="s">
         <v>52</v>
@@ -3555,10 +3555,10 @@
         <v>1</v>
       </c>
       <c r="G73" s="5" t="s">
-        <v>171</v>
+        <v>203</v>
       </c>
       <c r="H73" s="5">
-        <v>9172</v>
+        <v>9118</v>
       </c>
       <c r="I73" s="9" t="s">
         <v>98</v>
@@ -3569,7 +3569,7 @@
     </row>
     <row r="74" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A74" s="5" t="s">
-        <v>184</v>
+        <v>174</v>
       </c>
       <c r="B74" s="5" t="s">
         <v>79</v>
@@ -3577,8 +3577,8 @@
       <c r="C74" s="5" t="s">
         <v>91</v>
       </c>
-      <c r="D74" s="5">
-        <v>1993</v>
+      <c r="D74" s="5" t="s">
+        <v>71</v>
       </c>
       <c r="E74" s="5" t="s">
         <v>52</v>
@@ -3587,10 +3587,10 @@
         <v>1</v>
       </c>
       <c r="G74" s="5" t="s">
-        <v>185</v>
+        <v>175</v>
       </c>
       <c r="H74" s="5">
-        <v>9163</v>
+        <v>9171</v>
       </c>
       <c r="I74" s="9" t="s">
         <v>98</v>
@@ -3601,13 +3601,13 @@
     </row>
     <row r="75" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A75" s="5" t="s">
-        <v>202</v>
+        <v>188</v>
       </c>
       <c r="B75" s="5" t="s">
-        <v>79</v>
+        <v>82</v>
       </c>
       <c r="C75" s="5" t="s">
-        <v>91</v>
+        <v>16</v>
       </c>
       <c r="D75" s="5" t="s">
         <v>71</v>
@@ -3619,27 +3619,27 @@
         <v>1</v>
       </c>
       <c r="G75" s="5" t="s">
-        <v>203</v>
+        <v>189</v>
       </c>
       <c r="H75" s="5">
-        <v>9118</v>
+        <v>9145</v>
       </c>
       <c r="I75" s="9" t="s">
         <v>98</v>
       </c>
       <c r="J75" s="1" t="s">
-        <v>90</v>
+        <v>11</v>
       </c>
     </row>
     <row r="76" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A76" s="5" t="s">
-        <v>174</v>
+        <v>176</v>
       </c>
       <c r="B76" s="5" t="s">
         <v>79</v>
       </c>
       <c r="C76" s="5" t="s">
-        <v>91</v>
+        <v>16</v>
       </c>
       <c r="D76" s="5" t="s">
         <v>71</v>
@@ -3651,10 +3651,10 @@
         <v>1</v>
       </c>
       <c r="G76" s="5" t="s">
-        <v>175</v>
+        <v>177</v>
       </c>
       <c r="H76" s="5">
-        <v>9171</v>
+        <v>9168</v>
       </c>
       <c r="I76" s="9" t="s">
         <v>98</v>
@@ -3665,10 +3665,10 @@
     </row>
     <row r="77" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A77" s="5" t="s">
-        <v>188</v>
+        <v>115</v>
       </c>
       <c r="B77" s="5" t="s">
-        <v>82</v>
+        <v>79</v>
       </c>
       <c r="C77" s="5" t="s">
         <v>16</v>
@@ -3683,10 +3683,10 @@
         <v>1</v>
       </c>
       <c r="G77" s="5" t="s">
-        <v>189</v>
+        <v>116</v>
       </c>
       <c r="H77" s="5">
-        <v>9145</v>
+        <v>9270</v>
       </c>
       <c r="I77" s="9" t="s">
         <v>98</v>
@@ -3697,7 +3697,7 @@
     </row>
     <row r="78" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A78" s="5" t="s">
-        <v>176</v>
+        <v>198</v>
       </c>
       <c r="B78" s="5" t="s">
         <v>79</v>
@@ -3715,21 +3715,21 @@
         <v>1</v>
       </c>
       <c r="G78" s="5" t="s">
-        <v>177</v>
+        <v>199</v>
       </c>
       <c r="H78" s="5">
-        <v>9168</v>
+        <v>9121</v>
       </c>
       <c r="I78" s="9" t="s">
         <v>98</v>
       </c>
       <c r="J78" s="1" t="s">
-        <v>90</v>
+        <v>11</v>
       </c>
     </row>
     <row r="79" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A79" s="5" t="s">
-        <v>115</v>
+        <v>194</v>
       </c>
       <c r="B79" s="5" t="s">
         <v>79</v>
@@ -3747,10 +3747,10 @@
         <v>1</v>
       </c>
       <c r="G79" s="5" t="s">
-        <v>116</v>
+        <v>195</v>
       </c>
       <c r="H79" s="5">
-        <v>9270</v>
+        <v>9136</v>
       </c>
       <c r="I79" s="9" t="s">
         <v>98</v>
@@ -3761,7 +3761,7 @@
     </row>
     <row r="80" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A80" s="5" t="s">
-        <v>198</v>
+        <v>200</v>
       </c>
       <c r="B80" s="5" t="s">
         <v>79</v>
@@ -3779,10 +3779,10 @@
         <v>1</v>
       </c>
       <c r="G80" s="5" t="s">
-        <v>199</v>
+        <v>201</v>
       </c>
       <c r="H80" s="5">
-        <v>9121</v>
+        <v>9119</v>
       </c>
       <c r="I80" s="9" t="s">
         <v>98</v>
@@ -3793,16 +3793,16 @@
     </row>
     <row r="81" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A81" s="5" t="s">
-        <v>194</v>
+        <v>78</v>
       </c>
       <c r="B81" s="5" t="s">
         <v>79</v>
       </c>
       <c r="C81" s="5" t="s">
-        <v>16</v>
-      </c>
-      <c r="D81" s="5" t="s">
-        <v>71</v>
+        <v>80</v>
+      </c>
+      <c r="D81" s="5">
+        <v>2013</v>
       </c>
       <c r="E81" s="5" t="s">
         <v>52</v>
@@ -3811,30 +3811,30 @@
         <v>1</v>
       </c>
       <c r="G81" s="5" t="s">
-        <v>195</v>
+        <v>81</v>
       </c>
       <c r="H81" s="5">
-        <v>9136</v>
-      </c>
-      <c r="I81" s="9" t="s">
-        <v>98</v>
-      </c>
-      <c r="J81" s="1" t="s">
-        <v>11</v>
+        <v>2013</v>
+      </c>
+      <c r="I81" s="5">
+        <v>9131</v>
+      </c>
+      <c r="J81" s="7" t="s">
+        <v>19</v>
       </c>
     </row>
     <row r="82" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A82" s="5" t="s">
-        <v>200</v>
+        <v>204</v>
       </c>
       <c r="B82" s="5" t="s">
-        <v>79</v>
+        <v>82</v>
       </c>
       <c r="C82" s="5" t="s">
         <v>16</v>
       </c>
-      <c r="D82" s="5" t="s">
-        <v>71</v>
+      <c r="D82" s="5">
+        <v>2017</v>
       </c>
       <c r="E82" s="5" t="s">
         <v>52</v>
@@ -3843,10 +3843,10 @@
         <v>1</v>
       </c>
       <c r="G82" s="5" t="s">
-        <v>201</v>
+        <v>205</v>
       </c>
       <c r="H82" s="5">
-        <v>9119</v>
+        <v>8908</v>
       </c>
       <c r="I82" s="9" t="s">
         <v>98</v>
@@ -3857,16 +3857,16 @@
     </row>
     <row r="83" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A83" s="5" t="s">
-        <v>78</v>
+        <v>186</v>
       </c>
       <c r="B83" s="5" t="s">
         <v>79</v>
       </c>
       <c r="C83" s="5" t="s">
-        <v>80</v>
-      </c>
-      <c r="D83" s="5">
-        <v>2013</v>
+        <v>16</v>
+      </c>
+      <c r="D83" s="5" t="s">
+        <v>71</v>
       </c>
       <c r="E83" s="5" t="s">
         <v>52</v>
@@ -3875,30 +3875,30 @@
         <v>1</v>
       </c>
       <c r="G83" s="5" t="s">
-        <v>81</v>
+        <v>187</v>
       </c>
       <c r="H83" s="5">
-        <v>2013</v>
-      </c>
-      <c r="I83" s="5">
-        <v>9131</v>
-      </c>
-      <c r="J83" s="7" t="s">
-        <v>19</v>
+        <v>9158</v>
+      </c>
+      <c r="I83" s="9" t="s">
+        <v>98</v>
+      </c>
+      <c r="J83" s="1" t="s">
+        <v>11</v>
       </c>
     </row>
     <row r="84" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A84" s="5" t="s">
-        <v>204</v>
+        <v>196</v>
       </c>
       <c r="B84" s="5" t="s">
-        <v>82</v>
+        <v>79</v>
       </c>
       <c r="C84" s="5" t="s">
         <v>16</v>
       </c>
       <c r="D84" s="5">
-        <v>2017</v>
+        <v>1989</v>
       </c>
       <c r="E84" s="5" t="s">
         <v>52</v>
@@ -3907,10 +3907,10 @@
         <v>1</v>
       </c>
       <c r="G84" s="5" t="s">
-        <v>205</v>
+        <v>197</v>
       </c>
       <c r="H84" s="5">
-        <v>8908</v>
+        <v>9135</v>
       </c>
       <c r="I84" s="9" t="s">
         <v>98</v>
@@ -3921,7 +3921,7 @@
     </row>
     <row r="85" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A85" s="5" t="s">
-        <v>186</v>
+        <v>206</v>
       </c>
       <c r="B85" s="5" t="s">
         <v>79</v>
@@ -3929,8 +3929,8 @@
       <c r="C85" s="5" t="s">
         <v>16</v>
       </c>
-      <c r="D85" s="5" t="s">
-        <v>71</v>
+      <c r="D85" s="5">
+        <v>2015</v>
       </c>
       <c r="E85" s="5" t="s">
         <v>52</v>
@@ -3939,10 +3939,10 @@
         <v>1</v>
       </c>
       <c r="G85" s="5" t="s">
-        <v>187</v>
+        <v>207</v>
       </c>
       <c r="H85" s="5">
-        <v>9158</v>
+        <v>6378</v>
       </c>
       <c r="I85" s="9" t="s">
         <v>98</v>
@@ -3953,31 +3953,31 @@
     </row>
     <row r="86" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A86" s="5" t="s">
-        <v>196</v>
+        <v>209</v>
       </c>
       <c r="B86" s="5" t="s">
-        <v>79</v>
+        <v>82</v>
       </c>
       <c r="C86" s="5" t="s">
         <v>16</v>
       </c>
       <c r="D86" s="5">
-        <v>1989</v>
+        <v>2004</v>
       </c>
       <c r="E86" s="5" t="s">
         <v>52</v>
       </c>
       <c r="F86" s="6">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="G86" s="5" t="s">
-        <v>197</v>
-      </c>
-      <c r="H86" s="5">
-        <v>9135</v>
-      </c>
-      <c r="I86" s="9" t="s">
-        <v>98</v>
+        <v>211</v>
+      </c>
+      <c r="H86" s="5" t="s">
+        <v>210</v>
+      </c>
+      <c r="I86" s="5" t="s">
+        <v>13</v>
       </c>
       <c r="J86" s="1" t="s">
         <v>11</v>
@@ -3985,135 +3985,71 @@
     </row>
     <row r="87" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A87" s="5" t="s">
-        <v>206</v>
+        <v>72</v>
       </c>
       <c r="B87" s="5" t="s">
-        <v>79</v>
+        <v>82</v>
       </c>
       <c r="C87" s="5" t="s">
-        <v>16</v>
+        <v>73</v>
       </c>
       <c r="D87" s="5">
-        <v>2015</v>
+        <v>2005</v>
       </c>
       <c r="E87" s="5" t="s">
-        <v>52</v>
-      </c>
-      <c r="F87" s="6">
-        <v>1</v>
+        <v>14</v>
+      </c>
+      <c r="F87" s="6" t="s">
+        <v>71</v>
       </c>
       <c r="G87" s="5" t="s">
-        <v>207</v>
+        <v>74</v>
       </c>
       <c r="H87" s="5">
-        <v>6378</v>
-      </c>
-      <c r="I87" s="9" t="s">
-        <v>98</v>
-      </c>
-      <c r="J87" s="1" t="s">
+        <v>1130</v>
+      </c>
+      <c r="I87" s="5" t="s">
+        <v>12</v>
+      </c>
+      <c r="J87" s="7" t="s">
         <v>11</v>
       </c>
     </row>
     <row r="88" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A88" s="5" t="s">
-        <v>209</v>
+        <v>213</v>
       </c>
       <c r="B88" s="5" t="s">
         <v>82</v>
       </c>
-      <c r="C88" s="5" t="s">
+      <c r="C88" s="1" t="s">
         <v>16</v>
       </c>
       <c r="D88" s="5">
-        <v>2004</v>
-      </c>
-      <c r="E88" s="5" t="s">
-        <v>52</v>
-      </c>
-      <c r="F88" s="6">
-        <v>3</v>
+        <v>2003</v>
+      </c>
+      <c r="E88" s="8" t="s">
+        <v>84</v>
+      </c>
+      <c r="F88" s="6" t="s">
+        <v>71</v>
       </c>
       <c r="G88" s="5" t="s">
-        <v>211</v>
-      </c>
-      <c r="H88" s="5" t="s">
-        <v>210</v>
-      </c>
-      <c r="I88" s="5" t="s">
+        <v>214</v>
+      </c>
+      <c r="H88" s="5">
+        <v>8437</v>
+      </c>
+      <c r="I88" s="1" t="s">
         <v>13</v>
       </c>
-      <c r="J88" s="1" t="s">
-        <v>11</v>
-      </c>
-    </row>
-    <row r="89" spans="1:10" x14ac:dyDescent="0.2">
-      <c r="A89" s="5" t="s">
-        <v>72</v>
-      </c>
-      <c r="B89" s="5" t="s">
-        <v>82</v>
-      </c>
-      <c r="C89" s="5" t="s">
-        <v>73</v>
-      </c>
-      <c r="D89" s="5">
-        <v>2005</v>
-      </c>
-      <c r="E89" s="5" t="s">
-        <v>14</v>
-      </c>
-      <c r="F89" s="6" t="s">
-        <v>71</v>
-      </c>
-      <c r="G89" s="5" t="s">
-        <v>74</v>
-      </c>
-      <c r="H89" s="5">
-        <v>1130</v>
-      </c>
-      <c r="I89" s="5" t="s">
-        <v>12</v>
-      </c>
-      <c r="J89" s="7" t="s">
-        <v>11</v>
-      </c>
-    </row>
-    <row r="90" spans="1:10" x14ac:dyDescent="0.2">
-      <c r="A90" s="5" t="s">
-        <v>213</v>
-      </c>
-      <c r="B90" s="5" t="s">
-        <v>82</v>
-      </c>
-      <c r="C90" s="1" t="s">
-        <v>16</v>
-      </c>
-      <c r="D90" s="5">
-        <v>2003</v>
-      </c>
-      <c r="E90" s="8" t="s">
-        <v>84</v>
-      </c>
-      <c r="F90" s="6" t="s">
-        <v>71</v>
-      </c>
-      <c r="G90" s="5" t="s">
-        <v>214</v>
-      </c>
-      <c r="H90" s="5">
-        <v>8437</v>
-      </c>
-      <c r="I90" s="1" t="s">
-        <v>13</v>
-      </c>
-      <c r="J90" s="7" t="s">
+      <c r="J88" s="7" t="s">
         <v>11</v>
       </c>
     </row>
   </sheetData>
-  <sortState xmlns:xlrd2="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" ref="A2:J90">
-    <sortCondition ref="E2:E90"/>
+  <sortState xmlns:xlrd2="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" ref="A2:J88">
+    <sortCondition ref="E2:E88"/>
   </sortState>
   <phoneticPr fontId="4" type="noConversion"/>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
@@ -4124,139 +4060,235 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
-  <dimension ref="A1:J4"/>
+  <dimension ref="A1:J7"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="A4" sqref="A4:XFD4"/>
+      <selection sqref="A1:XFD1"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
   <sheetData>
     <row r="1" spans="1:10" x14ac:dyDescent="0.2">
-      <c r="A1" s="5" t="s">
-        <v>55</v>
-      </c>
-      <c r="B1" s="5" t="s">
-        <v>79</v>
-      </c>
-      <c r="C1" s="5" t="s">
-        <v>57</v>
-      </c>
-      <c r="D1" s="5">
-        <v>1991</v>
-      </c>
-      <c r="E1" s="5" t="s">
-        <v>52</v>
-      </c>
-      <c r="F1" s="6">
+      <c r="A1" s="2" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" s="2" t="s">
+        <v>1</v>
+      </c>
+      <c r="C1" s="2" t="s">
+        <v>2</v>
+      </c>
+      <c r="D1" s="2" t="s">
+        <v>3</v>
+      </c>
+      <c r="E1" s="2" t="s">
         <v>4</v>
       </c>
-      <c r="G1" s="5" t="s">
-        <v>56</v>
-      </c>
-      <c r="H1" s="5">
-        <v>8919</v>
-      </c>
-      <c r="I1" s="5" t="s">
-        <v>13</v>
-      </c>
-      <c r="J1" s="7" t="s">
-        <v>11</v>
+      <c r="F1" s="4" t="s">
+        <v>51</v>
+      </c>
+      <c r="G1" s="2" t="s">
+        <v>5</v>
+      </c>
+      <c r="H1" s="2" t="s">
+        <v>6</v>
+      </c>
+      <c r="I1" s="2" t="s">
+        <v>7</v>
+      </c>
+      <c r="J1" s="2" t="s">
+        <v>8</v>
       </c>
     </row>
     <row r="2" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A2" s="5" t="s">
-        <v>49</v>
+        <v>55</v>
       </c>
       <c r="B2" s="5" t="s">
         <v>79</v>
       </c>
       <c r="C2" s="5" t="s">
-        <v>17</v>
+        <v>57</v>
       </c>
       <c r="D2" s="5">
-        <v>1974</v>
+        <v>1991</v>
       </c>
       <c r="E2" s="5" t="s">
         <v>52</v>
       </c>
       <c r="F2" s="6">
-        <v>1</v>
+        <v>4</v>
       </c>
       <c r="G2" s="5" t="s">
-        <v>50</v>
+        <v>56</v>
       </c>
       <c r="H2" s="5">
-        <v>9189</v>
+        <v>8919</v>
       </c>
       <c r="I2" s="5" t="s">
         <v>13</v>
       </c>
       <c r="J2" s="7" t="s">
-        <v>19</v>
+        <v>11</v>
       </c>
     </row>
     <row r="3" spans="1:10" x14ac:dyDescent="0.2">
-      <c r="A3" s="1" t="s">
-        <v>83</v>
+      <c r="A3" s="5" t="s">
+        <v>49</v>
       </c>
       <c r="B3" s="5" t="s">
         <v>79</v>
       </c>
-      <c r="C3" s="1" t="s">
+      <c r="C3" s="5" t="s">
+        <v>17</v>
+      </c>
+      <c r="D3" s="5">
+        <v>1974</v>
+      </c>
+      <c r="E3" s="5" t="s">
+        <v>52</v>
+      </c>
+      <c r="F3" s="6">
+        <v>1</v>
+      </c>
+      <c r="G3" s="5" t="s">
+        <v>50</v>
+      </c>
+      <c r="H3" s="5">
+        <v>9189</v>
+      </c>
+      <c r="I3" s="5" t="s">
+        <v>13</v>
+      </c>
+      <c r="J3" s="7" t="s">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="4" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="A4" s="1" t="s">
+        <v>83</v>
+      </c>
+      <c r="B4" s="5" t="s">
+        <v>79</v>
+      </c>
+      <c r="C4" s="1" t="s">
         <v>16</v>
       </c>
-      <c r="D3" s="1">
+      <c r="D4" s="1">
         <v>2008</v>
       </c>
-      <c r="E3" s="8" t="s">
+      <c r="E4" s="8" t="s">
         <v>84</v>
       </c>
-      <c r="F3" s="6" t="s">
-        <v>71</v>
-      </c>
-      <c r="G3" s="1" t="s">
+      <c r="F4" s="6" t="s">
+        <v>71</v>
+      </c>
+      <c r="G4" s="1" t="s">
         <v>85</v>
       </c>
-      <c r="H3" s="1">
+      <c r="H4" s="1">
         <v>8418</v>
       </c>
-      <c r="I3" s="1" t="s">
+      <c r="I4" s="1" t="s">
         <v>13</v>
       </c>
-      <c r="J3" s="1" t="s">
-        <v>11</v>
-      </c>
-    </row>
-    <row r="4" spans="1:10" x14ac:dyDescent="0.2">
-      <c r="A4" s="5" t="s">
+      <c r="J4" s="1" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="5" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="A5" s="5" t="s">
         <v>208</v>
       </c>
-      <c r="B4" s="5" t="s">
-        <v>82</v>
-      </c>
-      <c r="C4" s="5" t="s">
+      <c r="B5" s="5" t="s">
+        <v>82</v>
+      </c>
+      <c r="C5" s="5" t="s">
         <v>16</v>
       </c>
-      <c r="D4" s="5">
+      <c r="D5" s="5">
         <v>2003</v>
       </c>
-      <c r="E4" s="5" t="s">
+      <c r="E5" s="5" t="s">
         <v>52</v>
       </c>
-      <c r="F4" s="6">
+      <c r="F5" s="6">
         <v>3</v>
       </c>
-      <c r="G4" s="5" t="s">
+      <c r="G5" s="5" t="s">
         <v>212</v>
       </c>
-      <c r="H4" s="5">
+      <c r="H5" s="5">
         <v>9148</v>
       </c>
-      <c r="I4" s="5" t="s">
+      <c r="I5" s="5" t="s">
         <v>13</v>
       </c>
-      <c r="J4" s="1" t="s">
+      <c r="J5" s="1" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="6" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="A6" s="5" t="s">
+        <v>54</v>
+      </c>
+      <c r="B6" s="5" t="s">
+        <v>82</v>
+      </c>
+      <c r="C6" s="5" t="s">
+        <v>66</v>
+      </c>
+      <c r="D6" s="5">
+        <v>1949</v>
+      </c>
+      <c r="E6" s="5" t="s">
+        <v>14</v>
+      </c>
+      <c r="F6" s="6">
+        <v>1</v>
+      </c>
+      <c r="G6" s="5" t="s">
+        <v>62</v>
+      </c>
+      <c r="H6" s="5">
+        <v>9202</v>
+      </c>
+      <c r="I6" s="5" t="s">
+        <v>13</v>
+      </c>
+      <c r="J6" s="7" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="7" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="A7" s="5" t="s">
+        <v>54</v>
+      </c>
+      <c r="B7" s="5" t="s">
+        <v>82</v>
+      </c>
+      <c r="C7" s="5" t="s">
+        <v>66</v>
+      </c>
+      <c r="D7" s="5">
+        <v>1951</v>
+      </c>
+      <c r="E7" s="5" t="s">
+        <v>14</v>
+      </c>
+      <c r="F7" s="6">
+        <v>1</v>
+      </c>
+      <c r="G7" s="5" t="s">
+        <v>62</v>
+      </c>
+      <c r="H7" s="5">
+        <v>9202</v>
+      </c>
+      <c r="I7" s="5" t="s">
+        <v>13</v>
+      </c>
+      <c r="J7" s="7" t="s">
         <v>11</v>
       </c>
     </row>

--- a/tabular/extension/srlv-refseqs.xlsx
+++ b/tabular/extension/srlv-refseqs.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="11010"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="10520"/>
   <workbookPr date1904="1"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/robertgifford/Projects/virus/comparative/Retrovirus/Lentivirus-GLUE/tabular/extension/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/robertgifford/Projects/virus/comparative/retrovirus/Lentivirus-GLUE/tabular/extension/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{820F6E11-14B9-E14F-AAF4-2050F9A9DCAB}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{D4500143-06F5-EC49-8AE2-E3C5823BE108}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="15860" yWindow="2840" windowWidth="28060" windowHeight="17540" tabRatio="500" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="2580" yWindow="920" windowWidth="28060" windowHeight="17540" tabRatio="500" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="SRLV refseqs" sheetId="1" r:id="rId1"/>
@@ -29,7 +29,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="727" uniqueCount="217">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="759" uniqueCount="221">
   <si>
     <t>Accession</t>
   </si>
@@ -684,6 +684,18 @@
   </si>
   <si>
     <t>FESC-752</t>
+  </si>
+  <si>
+    <t>C</t>
+  </si>
+  <si>
+    <t>E2</t>
+  </si>
+  <si>
+    <t>E1</t>
+  </si>
+  <si>
+    <t>B3</t>
   </si>
 </sst>
 </file>
@@ -778,7 +790,7 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="2" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="11">
+  <cellXfs count="12">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="left"/>
@@ -809,6 +821,9 @@
     </xf>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top"/>
     </xf>
   </cellXfs>
   <cellStyles count="2">
@@ -1218,10 +1233,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:J88"/>
+  <dimension ref="A1:J92"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="E11" sqref="A1:J88"/>
+    <sheetView tabSelected="1" topLeftCell="A69" workbookViewId="0">
+      <selection activeCell="A88" sqref="A88"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -4017,39 +4032,167 @@
     </row>
     <row r="88" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A88" s="5" t="s">
-        <v>213</v>
+        <v>49</v>
       </c>
       <c r="B88" s="5" t="s">
-        <v>82</v>
-      </c>
-      <c r="C88" s="1" t="s">
-        <v>16</v>
-      </c>
-      <c r="D88" s="5">
-        <v>2003</v>
-      </c>
-      <c r="E88" s="8" t="s">
-        <v>84</v>
-      </c>
-      <c r="F88" s="6" t="s">
-        <v>71</v>
-      </c>
-      <c r="G88" s="5" t="s">
-        <v>214</v>
-      </c>
-      <c r="H88" s="5">
-        <v>8437</v>
+        <v>79</v>
+      </c>
+      <c r="C88" s="5" t="s">
+        <v>17</v>
+      </c>
+      <c r="D88" s="5" t="s">
+        <v>71</v>
+      </c>
+      <c r="E88" s="5" t="s">
+        <v>52</v>
+      </c>
+      <c r="F88" s="11">
+        <v>1</v>
+      </c>
+      <c r="G88" s="1" t="s">
+        <v>50</v>
+      </c>
+      <c r="H88" s="1">
+        <v>9189</v>
       </c>
       <c r="I88" s="1" t="s">
         <v>13</v>
       </c>
-      <c r="J88" s="7" t="s">
+      <c r="J88" s="1" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="89" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="A89" s="5" t="s">
+        <v>213</v>
+      </c>
+      <c r="B89" s="5" t="s">
+        <v>79</v>
+      </c>
+      <c r="C89" s="5" t="s">
+        <v>16</v>
+      </c>
+      <c r="D89" s="5" t="s">
+        <v>71</v>
+      </c>
+      <c r="E89" s="5" t="s">
+        <v>218</v>
+      </c>
+      <c r="F89" s="11">
+        <v>2</v>
+      </c>
+      <c r="G89" s="5" t="s">
+        <v>214</v>
+      </c>
+      <c r="H89" s="5">
+        <v>8437</v>
+      </c>
+      <c r="I89" s="1" t="s">
+        <v>13</v>
+      </c>
+      <c r="J89" s="1" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="90" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="A90" s="5" t="s">
+        <v>83</v>
+      </c>
+      <c r="B90" s="5" t="s">
+        <v>79</v>
+      </c>
+      <c r="C90" s="5" t="s">
+        <v>16</v>
+      </c>
+      <c r="D90" s="5" t="s">
+        <v>71</v>
+      </c>
+      <c r="E90" s="5" t="s">
+        <v>219</v>
+      </c>
+      <c r="F90" s="11">
+        <v>1</v>
+      </c>
+      <c r="G90" s="1" t="s">
+        <v>85</v>
+      </c>
+      <c r="H90" s="1">
+        <v>8418</v>
+      </c>
+      <c r="I90" s="1" t="s">
+        <v>13</v>
+      </c>
+      <c r="J90" s="1" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="91" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="A91" s="5" t="s">
+        <v>55</v>
+      </c>
+      <c r="B91" s="5" t="s">
+        <v>79</v>
+      </c>
+      <c r="C91" s="5" t="s">
+        <v>57</v>
+      </c>
+      <c r="D91" s="5" t="s">
+        <v>71</v>
+      </c>
+      <c r="E91" s="5" t="s">
+        <v>217</v>
+      </c>
+      <c r="F91" s="11">
+        <v>1</v>
+      </c>
+      <c r="G91" s="1" t="s">
+        <v>56</v>
+      </c>
+      <c r="H91" s="1">
+        <v>8919</v>
+      </c>
+      <c r="I91" s="1" t="s">
+        <v>13</v>
+      </c>
+      <c r="J91" s="1" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="92" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="A92" s="5" t="s">
+        <v>208</v>
+      </c>
+      <c r="B92" s="5" t="s">
+        <v>79</v>
+      </c>
+      <c r="C92" s="5" t="s">
+        <v>16</v>
+      </c>
+      <c r="D92" s="5" t="s">
+        <v>71</v>
+      </c>
+      <c r="E92" s="5" t="s">
+        <v>220</v>
+      </c>
+      <c r="F92" s="11">
+        <v>3</v>
+      </c>
+      <c r="G92" s="1" t="s">
+        <v>212</v>
+      </c>
+      <c r="H92" s="1">
+        <v>9148</v>
+      </c>
+      <c r="I92" s="1" t="s">
+        <v>13</v>
+      </c>
+      <c r="J92" s="1" t="s">
         <v>11</v>
       </c>
     </row>
   </sheetData>
-  <sortState xmlns:xlrd2="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" ref="A2:J88">
-    <sortCondition ref="E2:E88"/>
+  <sortState xmlns:xlrd2="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" ref="A2:J87">
+    <sortCondition ref="E2:E87"/>
   </sortState>
   <phoneticPr fontId="4" type="noConversion"/>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>

--- a/tabular/extension/srlv-refseqs.xlsx
+++ b/tabular/extension/srlv-refseqs.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/robertgifford/Projects/virus/comparative/retrovirus/Lentivirus-GLUE/tabular/extension/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{D4500143-06F5-EC49-8AE2-E3C5823BE108}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{F5276337-FCE1-CB4C-AC79-13DD8BF397A7}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="2580" yWindow="920" windowWidth="28060" windowHeight="17540" tabRatio="500" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -29,7 +29,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="759" uniqueCount="221">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="758" uniqueCount="221">
   <si>
     <t>Accession</t>
   </si>
@@ -1235,8 +1235,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:J92"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A69" workbookViewId="0">
-      <selection activeCell="A88" sqref="A88"/>
+    <sheetView tabSelected="1" topLeftCell="A63" workbookViewId="0">
+      <selection activeCell="H86" sqref="A1:J92"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -4040,8 +4040,8 @@
       <c r="C88" s="5" t="s">
         <v>17</v>
       </c>
-      <c r="D88" s="5" t="s">
-        <v>71</v>
+      <c r="D88" s="5">
+        <v>1974</v>
       </c>
       <c r="E88" s="5" t="s">
         <v>52</v>
@@ -4058,8 +4058,8 @@
       <c r="I88" s="1" t="s">
         <v>13</v>
       </c>
-      <c r="J88" s="1" t="s">
-        <v>11</v>
+      <c r="J88" s="7" t="s">
+        <v>19</v>
       </c>
     </row>
     <row r="89" spans="1:10" x14ac:dyDescent="0.2">

--- a/tabular/extension/srlv-refseqs.xlsx
+++ b/tabular/extension/srlv-refseqs.xlsx
@@ -1,14 +1,14 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="10520"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="10611"/>
   <workbookPr date1904="1"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/robertgifford/Projects/virus/comparative/retrovirus/Lentivirus-GLUE/tabular/extension/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{F5276337-FCE1-CB4C-AC79-13DD8BF397A7}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{31D3EE25-51EA-8F47-93CA-F1B721FEE587}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="2580" yWindow="920" windowWidth="28060" windowHeight="17540" tabRatio="500" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -1235,8 +1235,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:J92"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A63" workbookViewId="0">
-      <selection activeCell="H86" sqref="A1:J92"/>
+    <sheetView tabSelected="1" topLeftCell="A74" workbookViewId="0">
+      <selection activeCell="J92" sqref="A1:J92"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -3980,7 +3980,7 @@
         <v>2004</v>
       </c>
       <c r="E86" s="5" t="s">
-        <v>52</v>
+        <v>220</v>
       </c>
       <c r="F86" s="6">
         <v>3</v>

--- a/tabular/extension/srlv-refseqs.xlsx
+++ b/tabular/extension/srlv-refseqs.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/robertgifford/Projects/virus/comparative/retrovirus/Lentivirus-GLUE/tabular/extension/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{DFF469D2-2CCB-F34B-A20E-5C2A58C057AB}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{07DE3A9F-59D6-4C44-BBB5-2DE219C75866}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="20300" yWindow="2980" windowWidth="28060" windowHeight="17540" tabRatio="500" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="21200" yWindow="4460" windowWidth="28060" windowHeight="17540" tabRatio="500" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="3" r:id="rId1"/>
@@ -29,7 +29,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="684" uniqueCount="194">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="685" uniqueCount="194">
   <si>
     <t>Accession</t>
   </si>
@@ -1121,8 +1121,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{55C23911-5DD3-264B-8B55-BABF418693B7}">
   <dimension ref="A1:M77"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A45" workbookViewId="0">
-      <selection activeCell="G70" sqref="G70"/>
+    <sheetView tabSelected="1" topLeftCell="A47" workbookViewId="0">
+      <selection activeCell="E63" sqref="A1:M77"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -2488,7 +2488,7 @@
         <v>12</v>
       </c>
       <c r="H37" s="4">
-        <v>4</v>
+        <v>1</v>
       </c>
       <c r="I37" s="4" t="s">
         <v>18</v>
@@ -3817,8 +3817,8 @@
       <c r="G73" s="4" t="s">
         <v>27</v>
       </c>
-      <c r="H73" s="4">
-        <v>2</v>
+      <c r="H73" s="4" t="s">
+        <v>45</v>
       </c>
       <c r="I73" s="4" t="s">
         <v>170</v>
